--- a/regs.xlsx
+++ b/regs.xlsx
@@ -2,14 +2,14 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+  <workbookPr codeName="EstaPasta_de_trabalho"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Program Files (x86)\ACTS Sindec\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="7476" windowHeight="4116" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="7476" windowHeight="4116" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Acts 2021" sheetId="1" r:id="rId1"/>
@@ -23,41 +23,14 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Acts 2021'!$A$1:$E$666</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Acts 2022'!$A$1:$F$505</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'Em aberto'!$A$1:$H$182</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">regs!$A$1:$G$304</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">regs!$A$1:$G$799</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
-<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <authors>
-    <author>guilherme.aguiar</author>
-  </authors>
-  <commentList>
-    <comment ref="A45" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>guilherme.aguiar:
-WMB SUPERMERCADOS DO BRASIL LTDA. , CNPJ n. 00.063.960/0001-09
-GRUPO BIG BRASIL S.A. , CNPJ n. 30.621.687/0001-43
-BOMPRECO SUPERMERCADOS DO NORDESTE LTDA , CNPJ n. 13.004.510/0001-89</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6975" uniqueCount="1900">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6991" uniqueCount="1900">
   <si>
     <t>Razão Social</t>
   </si>
@@ -5261,6 +5234,45 @@
     <t>MR018956/2023</t>
   </si>
   <si>
+    <t>VR COMERCIO DE ALIMENTOS LTDA</t>
+  </si>
+  <si>
+    <t>MR021499/2023</t>
+  </si>
+  <si>
+    <t>MR020918/2023</t>
+  </si>
+  <si>
+    <t>MR002902/2023</t>
+  </si>
+  <si>
+    <t>SOLE CALCADOS LTDA</t>
+  </si>
+  <si>
+    <t>MR023082/2023</t>
+  </si>
+  <si>
+    <t>VESTIDOR COMERCIO DE CONFECCOES LTDA</t>
+  </si>
+  <si>
+    <t>MR023028/2023</t>
+  </si>
+  <si>
+    <t>TB COMERCIO DE PRESENTES S.A.</t>
+  </si>
+  <si>
+    <t>MR022639/2023</t>
+  </si>
+  <si>
+    <t>PAULA H OBJETOS DECORATIVOS E PRESENTES LTDA</t>
+  </si>
+  <si>
+    <t>MR022917/2023</t>
+  </si>
+  <si>
+    <t>MR002895/2023</t>
+  </si>
+  <si>
     <t>Possui Req</t>
   </si>
   <si>
@@ -5420,18 +5432,6 @@
     <t>MR002607/2023</t>
   </si>
   <si>
-    <t xml:space="preserve">LINNA FESTAS COMERCIO DE ARTESANATOS LTDA </t>
-  </si>
-  <si>
-    <t>MR002895/2023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ARTE BIJU COMERCIO DE BIJOUTERIAS LTDA </t>
-  </si>
-  <si>
-    <t>MR002902/2023</t>
-  </si>
-  <si>
     <t xml:space="preserve">COMERCIO M H ALECRIM LTDA </t>
   </si>
   <si>
@@ -5639,12 +5639,6 @@
     <t>MR021212/2023</t>
   </si>
   <si>
-    <t>VR COMERCIO DE ALIMENTOS LTDA</t>
-  </si>
-  <si>
-    <t>MR021499/2023</t>
-  </si>
-  <si>
     <t>SUPERMERCADO F &amp; K LTDA</t>
   </si>
   <si>
@@ -5684,12 +5678,6 @@
     <t>MR022523/2023</t>
   </si>
   <si>
-    <t>TB COMERCIO DE PRESENTES S.A.</t>
-  </si>
-  <si>
-    <t>MR022639/2023</t>
-  </si>
-  <si>
     <t>MR022743/2023</t>
   </si>
   <si>
@@ -5726,28 +5714,13 @@
     <t>MR022761/2023</t>
   </si>
   <si>
-    <t>PAULA H OBJETOS DECORATIVOS E PRESENTES LTDA</t>
-  </si>
-  <si>
     <t>MR022848/2023</t>
   </si>
   <si>
-    <t>MR022917/2023</t>
-  </si>
-  <si>
-    <t>VESTIDOR COMERCIO DE CONFECCOES LTDA</t>
-  </si>
-  <si>
-    <t>MR023028/2023</t>
-  </si>
-  <si>
     <t>MR023039/2023</t>
   </si>
   <si>
-    <t>SOLE CALCADOS LTDA</t>
-  </si>
-  <si>
-    <t>MR023082/2023</t>
+    <t>MR023575/2023</t>
   </si>
   <si>
     <t>Estatística 2023</t>
@@ -5995,81 +5968,11 @@
     <cellStyle name="Hiperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="12">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="2">
     <dxf>
       <fill>
         <patternFill>
           <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -6374,6 +6277,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6471,7 +6375,9 @@
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="1"/>
             <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+              </c:ext>
             </c:extLst>
           </c:dLbls>
           <c:cat>
@@ -6495,10 +6401,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>193</c:v>
+                  <c:v>200</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>62</c:v>
+                  <c:v>63</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6620,6 +6526,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6717,7 +6624,9 @@
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="1"/>
             <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+              </c:ext>
             </c:extLst>
           </c:dLbls>
           <c:cat>
@@ -6741,7 +6650,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>255</c:v>
+                  <c:v>263</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>6</c:v>
@@ -6861,6 +6770,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6940,10 +6850,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>193</c:v>
+                  <c:v>200</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>62</c:v>
+                  <c:v>63</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>3</c:v>
@@ -6952,16 +6862,16 @@
                   <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>255</c:v>
+                  <c:v>263</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>261</c:v>
+                  <c:v>269</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7042,7 +6952,7 @@
                   <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>327</c:v>
@@ -7067,11 +6977,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="261575632"/>
-        <c:axId val="261574848"/>
+        <c:axId val="267574024"/>
+        <c:axId val="267577552"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="261575632"/>
+        <c:axId val="267574024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7114,7 +7024,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="261574848"/>
+        <c:crossAx val="267577552"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7122,7 +7032,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="261574848"/>
+        <c:axId val="267577552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7173,13 +7083,14 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="261575632"/>
+        <c:crossAx val="267574024"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -7261,6 +7172,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -7358,7 +7270,9 @@
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="1"/>
             <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+              </c:ext>
             </c:extLst>
           </c:dLbls>
           <c:cat>
@@ -7507,6 +7421,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -7604,7 +7519,9 @@
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="1"/>
             <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+              </c:ext>
             </c:extLst>
           </c:dLbls>
           <c:cat>
@@ -7748,6 +7665,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -7830,6 +7748,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
@@ -7912,6 +7831,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
@@ -7923,7 +7843,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>261</c:v>
+                  <c:v>269</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7940,11 +7860,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="261569752"/>
-        <c:axId val="261570536"/>
+        <c:axId val="267575200"/>
+        <c:axId val="267575592"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="261569752"/>
+        <c:axId val="267575200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7954,7 +7874,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="261570536"/>
+        <c:crossAx val="267575592"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7962,7 +7882,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="261570536"/>
+        <c:axId val="267575592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8013,7 +7933,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="261569752"/>
+        <c:crossAx val="267575200"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8286,7 +8206,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>62</c:v>
+                  <c:v>63</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8303,11 +8223,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="349476880"/>
-        <c:axId val="349478840"/>
+        <c:axId val="267577160"/>
+        <c:axId val="132984824"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="349476880"/>
+        <c:axId val="267577160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8317,7 +8237,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="349478840"/>
+        <c:crossAx val="132984824"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8325,7 +8245,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="349478840"/>
+        <c:axId val="132984824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8376,7 +8296,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="349476880"/>
+        <c:crossAx val="267577160"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8649,7 +8569,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>193</c:v>
+                  <c:v>200</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8666,11 +8586,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="349481976"/>
-        <c:axId val="349480408"/>
+        <c:axId val="352862656"/>
+        <c:axId val="352859520"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="349481976"/>
+        <c:axId val="352862656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8680,7 +8600,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="349480408"/>
+        <c:crossAx val="352859520"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8688,7 +8608,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="349480408"/>
+        <c:axId val="352859520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8739,7 +8659,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="349481976"/>
+        <c:crossAx val="352862656"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8837,6 +8757,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -8919,6 +8840,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
@@ -9001,6 +8923,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
@@ -9029,11 +8952,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="349480800"/>
-        <c:axId val="349478448"/>
+        <c:axId val="352860304"/>
+        <c:axId val="352865792"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="349480800"/>
+        <c:axId val="352860304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9043,7 +8966,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="349478448"/>
+        <c:crossAx val="352865792"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9051,7 +8974,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="349478448"/>
+        <c:axId val="352865792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9102,13 +9025,14 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="349480800"/>
+        <c:crossAx val="352860304"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -9436,6 +9360,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -9630,11 +9555,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="261292128"/>
-        <c:axId val="262327056"/>
+        <c:axId val="267424208"/>
+        <c:axId val="267424592"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="261292128"/>
+        <c:axId val="267424208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9677,7 +9602,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="262327056"/>
+        <c:crossAx val="267424592"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9685,7 +9610,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="262327056"/>
+        <c:axId val="267424592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9736,13 +9661,14 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="261292128"/>
+        <c:crossAx val="267424208"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -10503,11 +10429,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="263430520"/>
-        <c:axId val="263430904"/>
+        <c:axId val="267481696"/>
+        <c:axId val="267482080"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="263430520"/>
+        <c:axId val="267481696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10517,7 +10443,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="263430904"/>
+        <c:crossAx val="267482080"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -10525,7 +10451,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="263430904"/>
+        <c:axId val="267482080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10576,7 +10502,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="263430520"/>
+        <c:crossAx val="267481696"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -10866,11 +10792,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="263016368"/>
-        <c:axId val="261576416"/>
+        <c:axId val="267571248"/>
+        <c:axId val="267578336"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="263016368"/>
+        <c:axId val="267571248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10880,7 +10806,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="261576416"/>
+        <c:crossAx val="267578336"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -10888,7 +10814,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="261576416"/>
+        <c:axId val="267578336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10939,7 +10865,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="263016368"/>
+        <c:crossAx val="267571248"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -11229,11 +11155,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="261574064"/>
-        <c:axId val="261574456"/>
+        <c:axId val="267571672"/>
+        <c:axId val="267579120"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="261574064"/>
+        <c:axId val="267571672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11243,7 +11169,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="261574456"/>
+        <c:crossAx val="267579120"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -11251,7 +11177,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="261574456"/>
+        <c:axId val="267579120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11302,7 +11228,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="261574064"/>
+        <c:crossAx val="267571672"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -11592,11 +11518,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="261570144"/>
-        <c:axId val="261575240"/>
+        <c:axId val="267572064"/>
+        <c:axId val="267574808"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="261570144"/>
+        <c:axId val="267572064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11606,7 +11532,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="261575240"/>
+        <c:crossAx val="267574808"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -11614,7 +11540,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="261575240"/>
+        <c:axId val="267574808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11665,7 +11591,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="261570144"/>
+        <c:crossAx val="267572064"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -12526,7 +12452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
+  <sheetPr codeName="Plan1">
     <tabColor theme="7" tint="0.39997558519241921"/>
   </sheetPr>
   <dimension ref="A1:F666"/>
@@ -23899,14 +23825,14 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
+  <sheetPr codeName="Plan2">
     <tabColor theme="7" tint="0.39997558519241921"/>
   </sheetPr>
   <dimension ref="A1:F505"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A446" sqref="A446"/>
+      <pane ySplit="1" topLeftCell="A348" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E376" sqref="E376"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -23917,8 +23843,8 @@
     <col min="4" max="4" width="21.6640625" style="1" customWidth="1"/>
     <col min="5" max="5" width="15.109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="19.6640625" style="1" customWidth="1"/>
-    <col min="7" max="121" width="9.109375" style="1" customWidth="1"/>
-    <col min="122" max="16384" width="9.109375" style="1"/>
+    <col min="7" max="126" width="9.109375" style="1" customWidth="1"/>
+    <col min="127" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
@@ -31715,7 +31641,7 @@
         <v>11</v>
       </c>
       <c r="E390" s="16" t="s">
-        <v>18</v>
+        <v>1509</v>
       </c>
       <c r="F390" s="14">
         <v>44748</v>
@@ -31955,7 +31881,7 @@
         <v>7</v>
       </c>
       <c r="E402" s="16" t="s">
-        <v>18</v>
+        <v>1509</v>
       </c>
       <c r="F402" s="14">
         <v>44760</v>
@@ -32075,7 +32001,7 @@
         <v>11</v>
       </c>
       <c r="E408" s="16" t="s">
-        <v>8</v>
+        <v>1509</v>
       </c>
       <c r="F408" s="14">
         <v>44767</v>
@@ -34030,7 +33956,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
+  <sheetPr codeName="Plan3">
     <tabColor theme="7" tint="0.39997558519241921"/>
   </sheetPr>
   <dimension ref="B1:L109"/>
@@ -34388,15 +34314,15 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Plan4">
     <tabColor theme="4" tint="0.39997558519241921"/>
   </sheetPr>
   <dimension ref="A1:P799"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A366" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C353" sqref="C353"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A347" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B800" sqref="B800"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -34409,8 +34335,8 @@
     <col min="6" max="6" width="23.44140625" style="1" customWidth="1"/>
     <col min="7" max="7" width="19.6640625" style="1" customWidth="1"/>
     <col min="8" max="9" width="9.109375" style="1" hidden="1" customWidth="1"/>
-    <col min="10" max="134" width="9.109375" style="1" customWidth="1"/>
-    <col min="135" max="16384" width="9.109375" style="1"/>
+    <col min="10" max="139" width="9.109375" style="1" customWidth="1"/>
+    <col min="140" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.3">
@@ -34436,7 +34362,7 @@
         <v>887</v>
       </c>
       <c r="P1" s="1">
-        <v>375</v>
+        <v>383</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.3">
@@ -46003,139 +45929,251 @@
       </c>
     </row>
     <row r="375" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A375" s="16"/>
-      <c r="B375" s="2"/>
-      <c r="C375" s="16"/>
-      <c r="D375" s="16"/>
-      <c r="E375" s="16"/>
-      <c r="F375" s="21"/>
-      <c r="G375" s="14"/>
+      <c r="A375" s="16" t="s">
+        <v>1734</v>
+      </c>
+      <c r="B375" s="2">
+        <v>94738226000138</v>
+      </c>
+      <c r="C375" s="16" t="s">
+        <v>1735</v>
+      </c>
+      <c r="D375" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="E375" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="F375" s="21" t="s">
+        <v>1385</v>
+      </c>
+      <c r="G375" s="22">
+        <v>45062</v>
+      </c>
       <c r="H375" s="1" t="str">
         <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="I375" s="1">
+        <v>94738226</v>
+      </c>
+      <c r="I375" s="1" t="str">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>MR021499/2023</v>
       </c>
     </row>
     <row r="376" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A376" s="16"/>
-      <c r="B376" s="2"/>
-      <c r="C376" s="16"/>
-      <c r="D376" s="16"/>
-      <c r="E376" s="16"/>
-      <c r="F376" s="21"/>
-      <c r="G376" s="14"/>
+      <c r="A376" s="16" t="s">
+        <v>232</v>
+      </c>
+      <c r="B376" s="2">
+        <v>5964784000353</v>
+      </c>
+      <c r="C376" s="16" t="s">
+        <v>1736</v>
+      </c>
+      <c r="D376" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="E376" s="16" t="s">
+        <v>1509</v>
+      </c>
+      <c r="F376" s="21" t="s">
+        <v>1385</v>
+      </c>
+      <c r="G376" s="22">
+        <v>45062</v>
+      </c>
       <c r="H376" s="1" t="str">
         <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="I376" s="1">
+        <v>59647840</v>
+      </c>
+      <c r="I376" s="1" t="str">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>MR020918/2023</v>
       </c>
     </row>
     <row r="377" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A377" s="16"/>
-      <c r="B377" s="2"/>
-      <c r="C377" s="16"/>
-      <c r="D377" s="16"/>
-      <c r="E377" s="16"/>
-      <c r="F377" s="21"/>
-      <c r="G377" s="14"/>
+      <c r="A377" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="B377" s="2">
+        <v>11009077000149</v>
+      </c>
+      <c r="C377" s="16" t="s">
+        <v>1737</v>
+      </c>
+      <c r="D377" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="E377" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="F377" s="21" t="s">
+        <v>1385</v>
+      </c>
+      <c r="G377" s="22">
+        <v>45062</v>
+      </c>
       <c r="H377" s="1" t="str">
         <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="I377" s="1">
+        <v>11009077</v>
+      </c>
+      <c r="I377" s="1" t="str">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>MR002902/2023</v>
       </c>
     </row>
     <row r="378" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A378" s="16"/>
-      <c r="B378" s="2"/>
-      <c r="C378" s="16"/>
-      <c r="D378" s="16"/>
-      <c r="E378" s="16"/>
-      <c r="F378" s="21"/>
-      <c r="G378" s="14"/>
+      <c r="A378" s="16" t="s">
+        <v>1738</v>
+      </c>
+      <c r="B378" s="2">
+        <v>50021049000107</v>
+      </c>
+      <c r="C378" s="16" t="s">
+        <v>1739</v>
+      </c>
+      <c r="D378" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="E378" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="F378" s="21" t="s">
+        <v>1385</v>
+      </c>
+      <c r="G378" s="22">
+        <v>45062</v>
+      </c>
       <c r="H378" s="1" t="str">
         <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="I378" s="1">
+        <v>50021049</v>
+      </c>
+      <c r="I378" s="1" t="str">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>MR023082/2023</v>
       </c>
     </row>
     <row r="379" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A379" s="16"/>
-      <c r="B379" s="2"/>
-      <c r="C379" s="16"/>
-      <c r="D379" s="16"/>
-      <c r="E379" s="16"/>
-      <c r="F379" s="21"/>
-      <c r="G379" s="14"/>
+      <c r="A379" s="16" t="s">
+        <v>1740</v>
+      </c>
+      <c r="B379" s="2">
+        <v>27481741000198</v>
+      </c>
+      <c r="C379" s="16" t="s">
+        <v>1741</v>
+      </c>
+      <c r="D379" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="E379" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="F379" s="21" t="s">
+        <v>1385</v>
+      </c>
+      <c r="G379" s="22">
+        <v>45062</v>
+      </c>
       <c r="H379" s="1" t="str">
         <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="I379" s="1">
+        <v>27481741</v>
+      </c>
+      <c r="I379" s="1" t="str">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>MR023028/2023</v>
       </c>
     </row>
     <row r="380" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A380" s="16"/>
-      <c r="B380" s="2"/>
-      <c r="C380" s="16"/>
-      <c r="D380" s="16"/>
-      <c r="E380" s="16"/>
-      <c r="F380" s="21"/>
-      <c r="G380" s="14"/>
+      <c r="A380" s="16" t="s">
+        <v>1742</v>
+      </c>
+      <c r="B380" s="2">
+        <v>8613254002998</v>
+      </c>
+      <c r="C380" s="16" t="s">
+        <v>1743</v>
+      </c>
+      <c r="D380" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="E380" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="F380" s="21" t="s">
+        <v>1385</v>
+      </c>
+      <c r="G380" s="22">
+        <v>45062</v>
+      </c>
       <c r="H380" s="1" t="str">
         <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="I380" s="1">
+        <v>86132540</v>
+      </c>
+      <c r="I380" s="1" t="str">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>MR022639/2023</v>
       </c>
     </row>
     <row r="381" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A381" s="16"/>
-      <c r="B381" s="2"/>
-      <c r="C381" s="16"/>
-      <c r="D381" s="16"/>
-      <c r="E381" s="16"/>
-      <c r="F381" s="21"/>
-      <c r="G381" s="14"/>
+      <c r="A381" s="16" t="s">
+        <v>1744</v>
+      </c>
+      <c r="B381" s="2">
+        <v>2721404000108</v>
+      </c>
+      <c r="C381" s="16" t="s">
+        <v>1745</v>
+      </c>
+      <c r="D381" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="E381" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="F381" s="21" t="s">
+        <v>1385</v>
+      </c>
+      <c r="G381" s="22">
+        <v>45062</v>
+      </c>
       <c r="H381" s="1" t="str">
         <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="I381" s="1">
+        <v>27214040</v>
+      </c>
+      <c r="I381" s="1" t="str">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>MR022917/2023</v>
       </c>
     </row>
     <row r="382" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A382" s="16"/>
-      <c r="B382" s="2"/>
-      <c r="C382" s="16"/>
-      <c r="D382" s="16"/>
-      <c r="E382" s="16"/>
-      <c r="F382" s="21"/>
-      <c r="G382" s="14"/>
+      <c r="A382" s="16" t="s">
+        <v>1203</v>
+      </c>
+      <c r="B382" s="2">
+        <v>94568607000116</v>
+      </c>
+      <c r="C382" s="16" t="s">
+        <v>1746</v>
+      </c>
+      <c r="D382" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="E382" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="F382" s="21" t="s">
+        <v>1385</v>
+      </c>
+      <c r="G382" s="22">
+        <v>45062</v>
+      </c>
       <c r="H382" s="1" t="str">
         <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="I382" s="1">
+        <v>94568607</v>
+      </c>
+      <c r="I382" s="1" t="str">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>MR002895/2023</v>
       </c>
     </row>
     <row r="383" spans="1:9" x14ac:dyDescent="0.3">
@@ -53228,7 +53266,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G304"/>
+  <autoFilter ref="A1:G799"/>
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1"/>
     <hyperlink ref="C3" r:id="rId2"/>
@@ -53603,23 +53641,30 @@
     <hyperlink ref="C372" r:id="rId371"/>
     <hyperlink ref="C373" r:id="rId372"/>
     <hyperlink ref="C374" r:id="rId373"/>
+    <hyperlink ref="C375" r:id="rId374"/>
+    <hyperlink ref="C376" r:id="rId375"/>
+    <hyperlink ref="C377" r:id="rId376"/>
+    <hyperlink ref="C378" r:id="rId377"/>
+    <hyperlink ref="C379" r:id="rId378"/>
+    <hyperlink ref="C380" r:id="rId379"/>
+    <hyperlink ref="C381" r:id="rId380"/>
+    <hyperlink ref="C382" r:id="rId381"/>
   </hyperlinks>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape"/>
-  <legacyDrawing r:id="rId374"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
+  <sheetPr codeName="Plan5">
     <tabColor theme="4" tint="0.39997558519241921"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:S183"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+    <sheetView topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="G83" sqref="G83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -53627,12 +53672,12 @@
     <col min="1" max="1" width="47.6640625" style="26" customWidth="1"/>
     <col min="2" max="2" width="19.44140625" style="26" customWidth="1"/>
     <col min="3" max="3" width="17.88671875" style="26" customWidth="1"/>
-    <col min="4" max="4" width="15.6640625" style="26" customWidth="1"/>
-    <col min="5" max="5" width="21.6640625" style="26" customWidth="1"/>
-    <col min="6" max="6" width="19.6640625" style="26" customWidth="1"/>
+    <col min="4" max="4" width="13.77734375" style="26" customWidth="1"/>
+    <col min="5" max="5" width="20.6640625" style="26" customWidth="1"/>
+    <col min="6" max="6" width="14.109375" style="26" customWidth="1"/>
     <col min="7" max="7" width="16.6640625" style="26" customWidth="1"/>
     <col min="8" max="8" width="15" style="26" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="12" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="12" style="26" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.3">
@@ -53646,22 +53691,22 @@
         <v>2</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>1734</v>
+        <v>1747</v>
       </c>
       <c r="E1" s="5" t="s">
         <v>3</v>
       </c>
       <c r="F1" s="16" t="s">
-        <v>1735</v>
+        <v>1748</v>
       </c>
       <c r="G1" s="16" t="s">
-        <v>1736</v>
+        <v>1749</v>
       </c>
       <c r="R1">
-        <v>23114</v>
+        <v>24044</v>
       </c>
       <c r="S1">
-        <v>100</v>
+        <v>94</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.3">
@@ -53672,10 +53717,10 @@
         <v>22301742000190</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>1737</v>
+        <v>1750</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>1738</v>
+        <v>1751</v>
       </c>
       <c r="E2" s="5" t="s">
         <v>11</v>
@@ -53692,22 +53737,22 @@
         <v>22301742</v>
       </c>
       <c r="I2" t="str">
-        <f ca="1">IF(F2&lt;&gt; "",IF(DATEDIF(F2,TODAY(),"D")&gt;60,"Vencido",IF(DATEDIF(F2,TODAY(),"D")&gt;30,"Aviso")),"")</f>
+        <f t="shared" ref="I2:I33" ca="1" si="1">IF(F2&lt;&gt; "",IF(DATEDIF(F2,TODAY(),"D")&gt;60,"Vencido",IF(DATEDIF(F2,TODAY(),"D")&gt;30,"Aviso")),"")</f>
         <v>Vencido</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A3" s="16" t="s">
-        <v>1739</v>
+        <v>1752</v>
       </c>
       <c r="B3" s="2">
         <v>91212951000775</v>
       </c>
       <c r="C3" s="16" t="s">
-        <v>1740</v>
+        <v>1753</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>1738</v>
+        <v>1751</v>
       </c>
       <c r="E3" s="5" t="s">
         <v>7</v>
@@ -53723,23 +53768,23 @@
         <f t="shared" si="0"/>
         <v>91212951</v>
       </c>
-      <c r="I3" s="26" t="str">
-        <f t="shared" ref="I3:I66" ca="1" si="1">IF(F3&lt;&gt; "",IF(DATEDIF(F3,TODAY(),"D")&gt;60,"Vencido",IF(DATEDIF(F3,TODAY(),"D")&gt;30,"Aviso")),"")</f>
+      <c r="I3" t="str">
+        <f t="shared" ca="1" si="1"/>
         <v>Vencido</v>
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A4" s="16" t="s">
-        <v>1741</v>
+        <v>1754</v>
       </c>
       <c r="B4" s="2">
         <v>46584048000195</v>
       </c>
       <c r="C4" s="16" t="s">
-        <v>1742</v>
+        <v>1755</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>1743</v>
+        <v>1756</v>
       </c>
       <c r="E4" s="5" t="s">
         <v>11</v>
@@ -53753,23 +53798,23 @@
         <f t="shared" si="0"/>
         <v>46584048</v>
       </c>
-      <c r="I4" s="26" t="str">
+      <c r="I4" t="str">
         <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A5" s="16" t="s">
-        <v>1744</v>
+        <v>1757</v>
       </c>
       <c r="B5" s="2">
         <v>7295822000196</v>
       </c>
       <c r="C5" s="16" t="s">
-        <v>1745</v>
+        <v>1758</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>1743</v>
+        <v>1756</v>
       </c>
       <c r="E5" s="5" t="s">
         <v>11</v>
@@ -53783,23 +53828,23 @@
         <f t="shared" si="0"/>
         <v>72958220</v>
       </c>
-      <c r="I5" s="26" t="str">
+      <c r="I5" t="str">
         <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A6" s="16" t="s">
-        <v>1746</v>
+        <v>1759</v>
       </c>
       <c r="B6" s="2">
         <v>90312133001915</v>
       </c>
       <c r="C6" s="16" t="s">
-        <v>1747</v>
+        <v>1760</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>1738</v>
+        <v>1751</v>
       </c>
       <c r="E6" s="5" t="s">
         <v>11</v>
@@ -53815,23 +53860,23 @@
         <f t="shared" si="0"/>
         <v>90312133</v>
       </c>
-      <c r="I6" s="26" t="str">
+      <c r="I6" t="str">
         <f t="shared" ca="1" si="1"/>
         <v>Vencido</v>
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A7" s="16" t="s">
-        <v>1748</v>
+        <v>1761</v>
       </c>
       <c r="B7" s="2">
         <v>46377727008330</v>
       </c>
       <c r="C7" s="16" t="s">
-        <v>1749</v>
+        <v>1762</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>1738</v>
+        <v>1751</v>
       </c>
       <c r="E7" s="5" t="s">
         <v>11</v>
@@ -53847,23 +53892,23 @@
         <f t="shared" si="0"/>
         <v>46377727</v>
       </c>
-      <c r="I7" s="26" t="str">
+      <c r="I7" t="str">
         <f t="shared" ca="1" si="1"/>
         <v>Vencido</v>
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A8" s="16" t="s">
-        <v>1750</v>
+        <v>1763</v>
       </c>
       <c r="B8" s="2">
         <v>39795960000120</v>
       </c>
       <c r="C8" s="16" t="s">
+        <v>1764</v>
+      </c>
+      <c r="D8" s="5" t="s">
         <v>1751</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>1738</v>
       </c>
       <c r="E8" s="5" t="s">
         <v>11</v>
@@ -53879,23 +53924,23 @@
         <f t="shared" si="0"/>
         <v>39795960</v>
       </c>
-      <c r="I8" s="26" t="str">
+      <c r="I8" t="str">
         <f t="shared" ca="1" si="1"/>
         <v>Vencido</v>
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A9" s="16" t="s">
-        <v>1752</v>
+        <v>1765</v>
       </c>
       <c r="B9" s="2">
         <v>35949173000135</v>
       </c>
       <c r="C9" s="16" t="s">
-        <v>1753</v>
+        <v>1766</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>1738</v>
+        <v>1751</v>
       </c>
       <c r="E9" s="5" t="s">
         <v>11</v>
@@ -53911,23 +53956,23 @@
         <f t="shared" si="0"/>
         <v>35949173</v>
       </c>
-      <c r="I9" s="26" t="str">
+      <c r="I9" t="str">
         <f t="shared" ca="1" si="1"/>
         <v>Vencido</v>
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A10" s="16" t="s">
-        <v>1754</v>
+        <v>1767</v>
       </c>
       <c r="B10" s="2">
         <v>46227562000173</v>
       </c>
       <c r="C10" s="16" t="s">
-        <v>1755</v>
+        <v>1768</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>1738</v>
+        <v>1751</v>
       </c>
       <c r="E10" s="5" t="s">
         <v>11</v>
@@ -53943,23 +53988,23 @@
         <f t="shared" si="0"/>
         <v>46227562</v>
       </c>
-      <c r="I10" s="26" t="str">
+      <c r="I10" t="str">
         <f t="shared" ca="1" si="1"/>
         <v>Vencido</v>
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A11" s="16" t="s">
-        <v>1756</v>
+        <v>1769</v>
       </c>
       <c r="B11" s="2">
         <v>91928127000120</v>
       </c>
       <c r="C11" s="16" t="s">
-        <v>1757</v>
+        <v>1770</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>1743</v>
+        <v>1756</v>
       </c>
       <c r="E11" s="5" t="s">
         <v>11</v>
@@ -53973,23 +54018,23 @@
         <f t="shared" si="0"/>
         <v>91928127</v>
       </c>
-      <c r="I11" s="26" t="str">
+      <c r="I11" t="str">
         <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A12" s="16" t="s">
-        <v>1758</v>
+        <v>1771</v>
       </c>
       <c r="B12" s="2">
         <v>36494972000127</v>
       </c>
       <c r="C12" s="16" t="s">
-        <v>1759</v>
+        <v>1772</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>1738</v>
+        <v>1751</v>
       </c>
       <c r="E12" s="5" t="s">
         <v>11</v>
@@ -54005,23 +54050,23 @@
         <f t="shared" si="0"/>
         <v>36494972</v>
       </c>
-      <c r="I12" s="26" t="str">
+      <c r="I12" t="str">
         <f t="shared" ca="1" si="1"/>
         <v>Vencido</v>
       </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A13" s="16" t="s">
-        <v>1760</v>
+        <v>1773</v>
       </c>
       <c r="B13" s="2">
         <v>72505977000171</v>
       </c>
       <c r="C13" s="16" t="s">
-        <v>1761</v>
+        <v>1774</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>1743</v>
+        <v>1756</v>
       </c>
       <c r="E13" s="5" t="s">
         <v>11</v>
@@ -54035,23 +54080,23 @@
         <f t="shared" si="0"/>
         <v>72505977</v>
       </c>
-      <c r="I13" s="26" t="str">
+      <c r="I13" t="str">
         <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A14" s="16" t="s">
-        <v>1762</v>
+        <v>1775</v>
       </c>
       <c r="B14" s="2">
         <v>7581009000182</v>
       </c>
       <c r="C14" s="16" t="s">
-        <v>1763</v>
+        <v>1776</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>1743</v>
+        <v>1756</v>
       </c>
       <c r="E14" s="5" t="s">
         <v>11</v>
@@ -54065,23 +54110,23 @@
         <f t="shared" si="0"/>
         <v>75810090</v>
       </c>
-      <c r="I14" s="26" t="str">
+      <c r="I14" t="str">
         <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A15" s="16" t="s">
-        <v>1764</v>
+        <v>1777</v>
       </c>
       <c r="B15" s="2">
         <v>1618146000168</v>
       </c>
       <c r="C15" s="16" t="s">
-        <v>1765</v>
+        <v>1778</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>1743</v>
+        <v>1756</v>
       </c>
       <c r="E15" s="5" t="s">
         <v>11</v>
@@ -54095,23 +54140,23 @@
         <f t="shared" si="0"/>
         <v>16181460</v>
       </c>
-      <c r="I15" s="26" t="str">
+      <c r="I15" t="str">
         <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A16" s="16" t="s">
-        <v>1766</v>
+        <v>1779</v>
       </c>
       <c r="B16" s="2">
         <v>5027195019368</v>
       </c>
       <c r="C16" s="16" t="s">
-        <v>1767</v>
+        <v>1780</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>1738</v>
+        <v>1751</v>
       </c>
       <c r="E16" s="5" t="s">
         <v>11</v>
@@ -54127,23 +54172,23 @@
         <f t="shared" si="0"/>
         <v>50271950</v>
       </c>
-      <c r="I16" s="26" t="str">
+      <c r="I16" t="str">
         <f t="shared" ca="1" si="1"/>
         <v>Vencido</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="16" t="s">
-        <v>1768</v>
+        <v>1781</v>
       </c>
       <c r="B17" s="2">
         <v>26893767000180</v>
       </c>
       <c r="C17" s="16" t="s">
-        <v>1769</v>
+        <v>1782</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>1738</v>
+        <v>1751</v>
       </c>
       <c r="E17" s="5" t="s">
         <v>11</v>
@@ -54159,23 +54204,23 @@
         <f t="shared" si="0"/>
         <v>26893767</v>
       </c>
-      <c r="I17" s="26" t="str">
+      <c r="I17" t="str">
         <f t="shared" ca="1" si="1"/>
         <v>Vencido</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="16" t="s">
-        <v>1770</v>
+        <v>1783</v>
       </c>
       <c r="B18" s="2">
         <v>7500399000119</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>1771</v>
+        <v>1784</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>1738</v>
+        <v>1751</v>
       </c>
       <c r="E18" s="5" t="s">
         <v>11</v>
@@ -54191,23 +54236,23 @@
         <f t="shared" si="0"/>
         <v>75003990</v>
       </c>
-      <c r="I18" s="26" t="str">
+      <c r="I18" t="str">
         <f t="shared" ca="1" si="1"/>
         <v>Vencido</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="16" t="s">
-        <v>1772</v>
+        <v>1785</v>
       </c>
       <c r="B19" s="2">
         <v>3733595000778</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>1773</v>
+        <v>1786</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>1738</v>
+        <v>1751</v>
       </c>
       <c r="E19" s="5" t="s">
         <v>7</v>
@@ -54223,23 +54268,23 @@
         <f t="shared" si="0"/>
         <v>37335950</v>
       </c>
-      <c r="I19" s="26" t="str">
+      <c r="I19" t="str">
         <f t="shared" ca="1" si="1"/>
         <v>Vencido</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" s="16" t="s">
-        <v>1774</v>
+        <v>1787</v>
       </c>
       <c r="B20" s="2">
         <v>11928659003730</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>1775</v>
+        <v>1788</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>1743</v>
+        <v>1756</v>
       </c>
       <c r="E20" s="5" t="s">
         <v>11</v>
@@ -54253,23 +54298,23 @@
         <f t="shared" si="0"/>
         <v>11928659</v>
       </c>
-      <c r="I20" s="26" t="str">
+      <c r="I20" t="str">
         <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" s="16" t="s">
-        <v>1776</v>
+        <v>1789</v>
       </c>
       <c r="B21" s="2">
         <v>28552793000251</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>1777</v>
+        <v>1790</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>1738</v>
+        <v>1751</v>
       </c>
       <c r="E21" s="5" t="s">
         <v>11</v>
@@ -54285,23 +54330,23 @@
         <f t="shared" si="0"/>
         <v>28552793</v>
       </c>
-      <c r="I21" s="26" t="str">
+      <c r="I21" t="str">
         <f t="shared" ca="1" si="1"/>
         <v>Vencido</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" s="16" t="s">
-        <v>1778</v>
+        <v>1791</v>
       </c>
       <c r="B22" s="2">
         <v>46856594000138</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>1779</v>
+        <v>1792</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>1738</v>
+        <v>1751</v>
       </c>
       <c r="E22" s="5" t="s">
         <v>11</v>
@@ -54317,7 +54362,7 @@
         <f t="shared" si="0"/>
         <v>46856594</v>
       </c>
-      <c r="I22" s="26" t="str">
+      <c r="I22" t="str">
         <f t="shared" ca="1" si="1"/>
         <v>Vencido</v>
       </c>
@@ -54330,10 +54375,10 @@
         <v>89735070000100</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>1780</v>
+        <v>1793</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>1738</v>
+        <v>1751</v>
       </c>
       <c r="E23" s="5" t="s">
         <v>11</v>
@@ -54349,23 +54394,23 @@
         <f t="shared" si="0"/>
         <v>89735070</v>
       </c>
-      <c r="I23" s="26" t="str">
+      <c r="I23" t="str">
         <f t="shared" ca="1" si="1"/>
         <v>Vencido</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" s="16" t="s">
-        <v>1781</v>
+        <v>1794</v>
       </c>
       <c r="B24" s="2">
         <v>8929216000148</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>1782</v>
+        <v>1795</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>1743</v>
+        <v>1756</v>
       </c>
       <c r="E24" s="5" t="s">
         <v>11</v>
@@ -54379,23 +54424,23 @@
         <f t="shared" si="0"/>
         <v>89292160</v>
       </c>
-      <c r="I24" s="26" t="str">
+      <c r="I24" t="str">
         <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" s="16" t="s">
-        <v>1783</v>
+        <v>1796</v>
       </c>
       <c r="B25" s="2">
         <v>10241083000164</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>1784</v>
+        <v>1797</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>1743</v>
+        <v>1756</v>
       </c>
       <c r="E25" s="5" t="s">
         <v>11</v>
@@ -54409,23 +54454,23 @@
         <f t="shared" si="0"/>
         <v>10241083</v>
       </c>
-      <c r="I25" s="26" t="str">
+      <c r="I25" t="str">
         <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" s="16" t="s">
-        <v>1785</v>
+        <v>1798</v>
       </c>
       <c r="B26" s="2">
         <v>28893453000294</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>1786</v>
+        <v>1799</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>1738</v>
+        <v>1751</v>
       </c>
       <c r="E26" s="5" t="s">
         <v>11</v>
@@ -54441,61 +54486,61 @@
         <f t="shared" si="0"/>
         <v>28893453</v>
       </c>
-      <c r="I26" s="26" t="str">
+      <c r="I26" t="str">
         <f t="shared" ca="1" si="1"/>
         <v>Vencido</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" s="16" t="s">
-        <v>1787</v>
+        <v>1800</v>
       </c>
       <c r="B27" s="2">
-        <v>94568607000116</v>
+        <v>28322122000113</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>1788</v>
+        <v>1801</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>1738</v>
+        <v>1751</v>
       </c>
       <c r="E27" s="5" t="s">
         <v>11</v>
       </c>
       <c r="F27" s="22">
-        <v>45050</v>
+        <v>44951</v>
       </c>
       <c r="G27" s="5" t="str">
         <f>IFERROR(VLOOKUP(H27,regs!H:I,2,0),"")</f>
-        <v/>
+        <v>MR004432/2023</v>
       </c>
       <c r="H27" t="str">
         <f t="shared" si="0"/>
-        <v>94568607</v>
-      </c>
-      <c r="I27" s="26" t="b">
+        <v>28322122</v>
+      </c>
+      <c r="I27" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>Vencido</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" s="16" t="s">
-        <v>1789</v>
+        <v>1802</v>
       </c>
       <c r="B28" s="2">
-        <v>11009077000149</v>
+        <v>24527824000182</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>1790</v>
+        <v>1803</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>1738</v>
+        <v>1751</v>
       </c>
       <c r="E28" s="5" t="s">
         <v>11</v>
       </c>
       <c r="F28" s="22">
-        <v>45050</v>
+        <v>44952</v>
       </c>
       <c r="G28" s="5" t="str">
         <f>IFERROR(VLOOKUP(H28,regs!H:I,2,0),"")</f>
@@ -54503,57 +54548,57 @@
       </c>
       <c r="H28" t="str">
         <f t="shared" si="0"/>
-        <v>11009077</v>
-      </c>
-      <c r="I28" s="26" t="b">
+        <v>24527824</v>
+      </c>
+      <c r="I28" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>Vencido</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" s="16" t="s">
-        <v>1791</v>
+        <v>1804</v>
       </c>
       <c r="B29" s="2">
-        <v>28322122000113</v>
+        <v>24524587000104</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>1792</v>
+        <v>1805</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>1738</v>
+        <v>1751</v>
       </c>
       <c r="E29" s="5" t="s">
         <v>11</v>
       </c>
       <c r="F29" s="22">
-        <v>44951</v>
+        <v>44952</v>
       </c>
       <c r="G29" s="5" t="str">
         <f>IFERROR(VLOOKUP(H29,regs!H:I,2,0),"")</f>
-        <v>MR004432/2023</v>
+        <v/>
       </c>
       <c r="H29" t="str">
         <f t="shared" si="0"/>
-        <v>28322122</v>
-      </c>
-      <c r="I29" s="26" t="str">
+        <v>24524587</v>
+      </c>
+      <c r="I29" t="str">
         <f t="shared" ca="1" si="1"/>
         <v>Vencido</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" s="16" t="s">
-        <v>1793</v>
+        <v>1806</v>
       </c>
       <c r="B30" s="2">
-        <v>24527824000182</v>
+        <v>30836797000122</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>1794</v>
+        <v>1807</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>1738</v>
+        <v>1751</v>
       </c>
       <c r="E30" s="5" t="s">
         <v>11</v>
@@ -54567,25 +54612,25 @@
       </c>
       <c r="H30" t="str">
         <f t="shared" si="0"/>
-        <v>24527824</v>
-      </c>
-      <c r="I30" s="26" t="str">
+        <v>30836797</v>
+      </c>
+      <c r="I30" t="str">
         <f t="shared" ca="1" si="1"/>
         <v>Vencido</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31" s="16" t="s">
-        <v>1795</v>
+        <v>1808</v>
       </c>
       <c r="B31" s="2">
-        <v>24524587000104</v>
+        <v>32588442000197</v>
       </c>
       <c r="C31" s="16" t="s">
-        <v>1796</v>
+        <v>1809</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>1738</v>
+        <v>1751</v>
       </c>
       <c r="E31" s="5" t="s">
         <v>11</v>
@@ -54599,31 +54644,31 @@
       </c>
       <c r="H31" t="str">
         <f t="shared" si="0"/>
-        <v>24524587</v>
-      </c>
-      <c r="I31" s="26" t="str">
+        <v>32588442</v>
+      </c>
+      <c r="I31" t="str">
         <f t="shared" ca="1" si="1"/>
         <v>Vencido</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32" s="16" t="s">
-        <v>1797</v>
+        <v>1810</v>
       </c>
       <c r="B32" s="2">
-        <v>30836797000122</v>
+        <v>46517487000185</v>
       </c>
       <c r="C32" s="16" t="s">
-        <v>1798</v>
+        <v>1811</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>1738</v>
+        <v>1751</v>
       </c>
       <c r="E32" s="5" t="s">
         <v>11</v>
       </c>
       <c r="F32" s="22">
-        <v>44952</v>
+        <v>44960</v>
       </c>
       <c r="G32" s="5" t="str">
         <f>IFERROR(VLOOKUP(H32,regs!H:I,2,0),"")</f>
@@ -54631,31 +54676,31 @@
       </c>
       <c r="H32" t="str">
         <f t="shared" si="0"/>
-        <v>30836797</v>
-      </c>
-      <c r="I32" s="26" t="str">
+        <v>46517487</v>
+      </c>
+      <c r="I32" t="str">
         <f t="shared" ca="1" si="1"/>
         <v>Vencido</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A33" s="16" t="s">
-        <v>1799</v>
+        <v>1812</v>
       </c>
       <c r="B33" s="2">
-        <v>32588442000197</v>
+        <v>29129338000120</v>
       </c>
       <c r="C33" s="16" t="s">
-        <v>1800</v>
+        <v>1813</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>1738</v>
+        <v>1751</v>
       </c>
       <c r="E33" s="5" t="s">
         <v>11</v>
       </c>
       <c r="F33" s="22">
-        <v>44952</v>
+        <v>44960</v>
       </c>
       <c r="G33" s="5" t="str">
         <f>IFERROR(VLOOKUP(H33,regs!H:I,2,0),"")</f>
@@ -54663,31 +54708,31 @@
       </c>
       <c r="H33" t="str">
         <f t="shared" si="0"/>
-        <v>32588442</v>
-      </c>
-      <c r="I33" s="26" t="str">
+        <v>29129338</v>
+      </c>
+      <c r="I33" t="str">
         <f t="shared" ca="1" si="1"/>
         <v>Vencido</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A34" s="16" t="s">
-        <v>1801</v>
+        <v>1814</v>
       </c>
       <c r="B34" s="2">
-        <v>46517487000185</v>
+        <v>35698575000104</v>
       </c>
       <c r="C34" s="16" t="s">
-        <v>1802</v>
+        <v>1815</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>1738</v>
+        <v>1751</v>
       </c>
       <c r="E34" s="5" t="s">
         <v>11</v>
       </c>
       <c r="F34" s="22">
-        <v>44960</v>
+        <v>44952</v>
       </c>
       <c r="G34" s="5" t="str">
         <f>IFERROR(VLOOKUP(H34,regs!H:I,2,0),"")</f>
@@ -54695,63 +54740,63 @@
       </c>
       <c r="H34" t="str">
         <f t="shared" ref="H34:H65" si="2">LEFT(B34,8)</f>
-        <v>46517487</v>
-      </c>
-      <c r="I34" s="26" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <v>35698575</v>
+      </c>
+      <c r="I34" t="str">
+        <f t="shared" ref="I34:I65" ca="1" si="3">IF(F34&lt;&gt; "",IF(DATEDIF(F34,TODAY(),"D")&gt;60,"Vencido",IF(DATEDIF(F34,TODAY(),"D")&gt;30,"Aviso")),"")</f>
         <v>Vencido</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A35" s="16" t="s">
-        <v>1803</v>
+        <v>1236</v>
       </c>
       <c r="B35" s="2">
-        <v>29129338000120</v>
+        <v>46227562000173</v>
       </c>
       <c r="C35" s="16" t="s">
-        <v>1804</v>
+        <v>1816</v>
       </c>
       <c r="D35" s="5" t="s">
-        <v>1738</v>
+        <v>1751</v>
       </c>
       <c r="E35" s="5" t="s">
         <v>11</v>
       </c>
       <c r="F35" s="22">
-        <v>44960</v>
+        <v>44971</v>
       </c>
       <c r="G35" s="5" t="str">
         <f>IFERROR(VLOOKUP(H35,regs!H:I,2,0),"")</f>
-        <v/>
+        <v>MR010616/2023</v>
       </c>
       <c r="H35" t="str">
         <f t="shared" si="2"/>
-        <v>29129338</v>
-      </c>
-      <c r="I35" s="26" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <v>46227562</v>
+      </c>
+      <c r="I35" t="str">
+        <f t="shared" ca="1" si="3"/>
         <v>Vencido</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A36" s="16" t="s">
-        <v>1805</v>
+        <v>1802</v>
       </c>
       <c r="B36" s="2">
-        <v>35698575000104</v>
+        <v>24527824000182</v>
       </c>
       <c r="C36" s="16" t="s">
-        <v>1806</v>
+        <v>1817</v>
       </c>
       <c r="D36" s="5" t="s">
-        <v>1738</v>
+        <v>1751</v>
       </c>
       <c r="E36" s="5" t="s">
         <v>11</v>
       </c>
       <c r="F36" s="22">
-        <v>44952</v>
+        <v>44953</v>
       </c>
       <c r="G36" s="5" t="str">
         <f>IFERROR(VLOOKUP(H36,regs!H:I,2,0),"")</f>
@@ -54759,57 +54804,57 @@
       </c>
       <c r="H36" t="str">
         <f t="shared" si="2"/>
-        <v>35698575</v>
-      </c>
-      <c r="I36" s="26" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <v>24527824</v>
+      </c>
+      <c r="I36" t="str">
+        <f t="shared" ca="1" si="3"/>
         <v>Vencido</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A37" s="16" t="s">
-        <v>1236</v>
+        <v>1804</v>
       </c>
       <c r="B37" s="2">
-        <v>46227562000173</v>
+        <v>24524587000104</v>
       </c>
       <c r="C37" s="16" t="s">
-        <v>1807</v>
+        <v>1818</v>
       </c>
       <c r="D37" s="5" t="s">
-        <v>1738</v>
+        <v>1751</v>
       </c>
       <c r="E37" s="5" t="s">
         <v>11</v>
       </c>
       <c r="F37" s="22">
-        <v>44971</v>
+        <v>44953</v>
       </c>
       <c r="G37" s="5" t="str">
         <f>IFERROR(VLOOKUP(H37,regs!H:I,2,0),"")</f>
-        <v>MR010616/2023</v>
+        <v/>
       </c>
       <c r="H37" t="str">
         <f t="shared" si="2"/>
-        <v>46227562</v>
-      </c>
-      <c r="I37" s="26" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <v>24524587</v>
+      </c>
+      <c r="I37" t="str">
+        <f t="shared" ca="1" si="3"/>
         <v>Vencido</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A38" s="16" t="s">
-        <v>1793</v>
+        <v>1806</v>
       </c>
       <c r="B38" s="2">
-        <v>24527824000182</v>
+        <v>30836797000122</v>
       </c>
       <c r="C38" s="16" t="s">
-        <v>1808</v>
+        <v>1819</v>
       </c>
       <c r="D38" s="5" t="s">
-        <v>1738</v>
+        <v>1751</v>
       </c>
       <c r="E38" s="5" t="s">
         <v>11</v>
@@ -54823,25 +54868,25 @@
       </c>
       <c r="H38" t="str">
         <f t="shared" si="2"/>
-        <v>24527824</v>
-      </c>
-      <c r="I38" s="26" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <v>30836797</v>
+      </c>
+      <c r="I38" t="str">
+        <f t="shared" ca="1" si="3"/>
         <v>Vencido</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A39" s="16" t="s">
-        <v>1795</v>
+        <v>1808</v>
       </c>
       <c r="B39" s="2">
-        <v>24524587000104</v>
+        <v>32588442000197</v>
       </c>
       <c r="C39" s="16" t="s">
-        <v>1809</v>
+        <v>1820</v>
       </c>
       <c r="D39" s="5" t="s">
-        <v>1738</v>
+        <v>1751</v>
       </c>
       <c r="E39" s="5" t="s">
         <v>11</v>
@@ -54855,25 +54900,25 @@
       </c>
       <c r="H39" t="str">
         <f t="shared" si="2"/>
-        <v>24524587</v>
-      </c>
-      <c r="I39" s="26" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <v>32588442</v>
+      </c>
+      <c r="I39" t="str">
+        <f t="shared" ca="1" si="3"/>
         <v>Vencido</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A40" s="16" t="s">
-        <v>1797</v>
+        <v>1814</v>
       </c>
       <c r="B40" s="2">
-        <v>30836797000122</v>
+        <v>35698575000104</v>
       </c>
       <c r="C40" s="16" t="s">
-        <v>1810</v>
+        <v>1821</v>
       </c>
       <c r="D40" s="5" t="s">
-        <v>1738</v>
+        <v>1751</v>
       </c>
       <c r="E40" s="5" t="s">
         <v>11</v>
@@ -54887,31 +54932,31 @@
       </c>
       <c r="H40" t="str">
         <f t="shared" si="2"/>
-        <v>30836797</v>
-      </c>
-      <c r="I40" s="26" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <v>35698575</v>
+      </c>
+      <c r="I40" t="str">
+        <f t="shared" ca="1" si="3"/>
         <v>Vencido</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A41" s="16" t="s">
-        <v>1799</v>
+        <v>390</v>
       </c>
       <c r="B41" s="2">
-        <v>32588442000197</v>
+        <v>28452061000109</v>
       </c>
       <c r="C41" s="16" t="s">
-        <v>1811</v>
+        <v>1822</v>
       </c>
       <c r="D41" s="5" t="s">
-        <v>1738</v>
+        <v>1751</v>
       </c>
       <c r="E41" s="5" t="s">
         <v>11</v>
       </c>
       <c r="F41" s="22">
-        <v>44953</v>
+        <v>45049</v>
       </c>
       <c r="G41" s="5" t="str">
         <f>IFERROR(VLOOKUP(H41,regs!H:I,2,0),"")</f>
@@ -54919,31 +54964,31 @@
       </c>
       <c r="H41" t="str">
         <f t="shared" si="2"/>
-        <v>32588442</v>
-      </c>
-      <c r="I41" s="26" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>Vencido</v>
+        <v>28452061</v>
+      </c>
+      <c r="I41" t="b">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A42" s="16" t="s">
-        <v>1805</v>
+        <v>1823</v>
       </c>
       <c r="B42" s="2">
-        <v>35698575000104</v>
+        <v>19435152000145</v>
       </c>
       <c r="C42" s="16" t="s">
-        <v>1812</v>
+        <v>1824</v>
       </c>
       <c r="D42" s="5" t="s">
-        <v>1738</v>
+        <v>1751</v>
       </c>
       <c r="E42" s="5" t="s">
         <v>11</v>
       </c>
       <c r="F42" s="22">
-        <v>44953</v>
+        <v>45042</v>
       </c>
       <c r="G42" s="5" t="str">
         <f>IFERROR(VLOOKUP(H42,regs!H:I,2,0),"")</f>
@@ -54951,31 +54996,31 @@
       </c>
       <c r="H42" t="str">
         <f t="shared" si="2"/>
-        <v>35698575</v>
-      </c>
-      <c r="I42" s="26" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>Vencido</v>
+        <v>19435152</v>
+      </c>
+      <c r="I42" t="b">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A43" s="16" t="s">
-        <v>390</v>
+        <v>1825</v>
       </c>
       <c r="B43" s="2">
-        <v>28452061000109</v>
+        <v>5876012001170</v>
       </c>
       <c r="C43" s="16" t="s">
-        <v>1813</v>
+        <v>1826</v>
       </c>
       <c r="D43" s="5" t="s">
-        <v>1738</v>
+        <v>1751</v>
       </c>
       <c r="E43" s="5" t="s">
         <v>11</v>
       </c>
       <c r="F43" s="22">
-        <v>45049</v>
+        <v>44964</v>
       </c>
       <c r="G43" s="5" t="str">
         <f>IFERROR(VLOOKUP(H43,regs!H:I,2,0),"")</f>
@@ -54983,119 +55028,117 @@
       </c>
       <c r="H43" t="str">
         <f t="shared" si="2"/>
-        <v>28452061</v>
-      </c>
-      <c r="I43" s="26" t="b">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>58760120</v>
+      </c>
+      <c r="I43" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>Vencido</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A44" s="16" t="s">
-        <v>1814</v>
+        <v>919</v>
       </c>
       <c r="B44" s="2">
-        <v>19435152000145</v>
+        <v>45242914006308</v>
       </c>
       <c r="C44" s="16" t="s">
-        <v>1815</v>
+        <v>1827</v>
       </c>
       <c r="D44" s="5" t="s">
-        <v>1738</v>
+        <v>1756</v>
       </c>
       <c r="E44" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="F44" s="22">
-        <v>45042</v>
-      </c>
+      <c r="F44" s="22"/>
       <c r="G44" s="5" t="str">
         <f>IFERROR(VLOOKUP(H44,regs!H:I,2,0),"")</f>
         <v/>
       </c>
       <c r="H44" t="str">
         <f t="shared" si="2"/>
-        <v>19435152</v>
-      </c>
-      <c r="I44" s="26" t="b">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>45242914</v>
+      </c>
+      <c r="I44" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v/>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A45" s="16" t="s">
-        <v>1816</v>
+        <v>1828</v>
       </c>
       <c r="B45" s="2">
-        <v>5876012001170</v>
+        <v>47908129000247</v>
       </c>
       <c r="C45" s="16" t="s">
-        <v>1817</v>
+        <v>1829</v>
       </c>
       <c r="D45" s="5" t="s">
-        <v>1738</v>
+        <v>1756</v>
       </c>
       <c r="E45" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="F45" s="22">
-        <v>44964</v>
-      </c>
+      <c r="F45" s="22"/>
       <c r="G45" s="5" t="str">
         <f>IFERROR(VLOOKUP(H45,regs!H:I,2,0),"")</f>
         <v/>
       </c>
       <c r="H45" t="str">
         <f t="shared" si="2"/>
-        <v>58760120</v>
-      </c>
-      <c r="I45" s="26" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>Vencido</v>
+        <v>47908129</v>
+      </c>
+      <c r="I45" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v/>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A46" s="16" t="s">
-        <v>919</v>
+        <v>232</v>
       </c>
       <c r="B46" s="2">
-        <v>45242914006308</v>
+        <v>5964784000353</v>
       </c>
       <c r="C46" s="16" t="s">
-        <v>1818</v>
+        <v>1830</v>
       </c>
       <c r="D46" s="5" t="s">
-        <v>1743</v>
+        <v>1751</v>
       </c>
       <c r="E46" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="F46" s="22"/>
+      <c r="F46" s="22">
+        <v>44960</v>
+      </c>
       <c r="G46" s="5" t="str">
         <f>IFERROR(VLOOKUP(H46,regs!H:I,2,0),"")</f>
-        <v/>
+        <v>MR066004/2022</v>
       </c>
       <c r="H46" t="str">
         <f t="shared" si="2"/>
-        <v>45242914</v>
-      </c>
-      <c r="I46" s="26" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v/>
+        <v>59647840</v>
+      </c>
+      <c r="I46" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>Vencido</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A47" s="16" t="s">
-        <v>1819</v>
+        <v>1246</v>
       </c>
       <c r="B47" s="2">
-        <v>47908129000247</v>
+        <v>59418806002948</v>
       </c>
       <c r="C47" s="16" t="s">
-        <v>1820</v>
+        <v>1831</v>
       </c>
       <c r="D47" s="5" t="s">
-        <v>1743</v>
+        <v>1756</v>
       </c>
       <c r="E47" s="5" t="s">
         <v>11</v>
@@ -55107,57 +55150,55 @@
       </c>
       <c r="H47" t="str">
         <f t="shared" si="2"/>
-        <v>47908129</v>
-      </c>
-      <c r="I47" s="26" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <v>59418806</v>
+      </c>
+      <c r="I47" t="str">
+        <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A48" s="16" t="s">
-        <v>232</v>
+        <v>681</v>
       </c>
       <c r="B48" s="2">
-        <v>5964784000353</v>
+        <v>41371454000156</v>
       </c>
       <c r="C48" s="16" t="s">
-        <v>1821</v>
+        <v>1832</v>
       </c>
       <c r="D48" s="5" t="s">
-        <v>1738</v>
+        <v>1756</v>
       </c>
       <c r="E48" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="F48" s="22">
-        <v>44960</v>
-      </c>
+      <c r="F48" s="22"/>
       <c r="G48" s="5" t="str">
         <f>IFERROR(VLOOKUP(H48,regs!H:I,2,0),"")</f>
-        <v>MR066004/2022</v>
+        <v/>
       </c>
       <c r="H48" t="str">
         <f t="shared" si="2"/>
-        <v>59647840</v>
-      </c>
-      <c r="I48" s="26" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>Vencido</v>
+        <v>41371454</v>
+      </c>
+      <c r="I48" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v/>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A49" s="16" t="s">
-        <v>1246</v>
+        <v>19</v>
       </c>
       <c r="B49" s="2">
-        <v>59418806002948</v>
+        <v>92016757000191</v>
       </c>
       <c r="C49" s="16" t="s">
-        <v>1822</v>
+        <v>1833</v>
       </c>
       <c r="D49" s="5" t="s">
-        <v>1743</v>
+        <v>1756</v>
       </c>
       <c r="E49" s="5" t="s">
         <v>11</v>
@@ -55165,183 +55206,185 @@
       <c r="F49" s="22"/>
       <c r="G49" s="5" t="str">
         <f>IFERROR(VLOOKUP(H49,regs!H:I,2,0),"")</f>
-        <v/>
+        <v>MR009971/2023</v>
       </c>
       <c r="H49" t="str">
         <f t="shared" si="2"/>
-        <v>59418806</v>
-      </c>
-      <c r="I49" s="26" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <v>92016757</v>
+      </c>
+      <c r="I49" t="str">
+        <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A50" s="16" t="s">
-        <v>681</v>
+        <v>1255</v>
       </c>
       <c r="B50" s="2">
-        <v>41371454000156</v>
+        <v>10987804000180</v>
       </c>
       <c r="C50" s="16" t="s">
-        <v>1823</v>
+        <v>1834</v>
       </c>
       <c r="D50" s="5" t="s">
-        <v>1743</v>
+        <v>1751</v>
       </c>
       <c r="E50" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="F50" s="22"/>
+      <c r="F50" s="22">
+        <v>45051</v>
+      </c>
       <c r="G50" s="5" t="str">
         <f>IFERROR(VLOOKUP(H50,regs!H:I,2,0),"")</f>
         <v/>
       </c>
       <c r="H50" t="str">
         <f t="shared" si="2"/>
-        <v>41371454</v>
-      </c>
-      <c r="I50" s="26" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v/>
+        <v>10987804</v>
+      </c>
+      <c r="I50" t="b">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A51" s="16" t="s">
-        <v>19</v>
+        <v>564</v>
       </c>
       <c r="B51" s="2">
-        <v>92016757000191</v>
+        <v>8808556000382</v>
       </c>
       <c r="C51" s="16" t="s">
-        <v>1824</v>
+        <v>1835</v>
       </c>
       <c r="D51" s="5" t="s">
-        <v>1743</v>
+        <v>1751</v>
       </c>
       <c r="E51" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="F51" s="22"/>
+      <c r="F51" s="22">
+        <v>44981</v>
+      </c>
       <c r="G51" s="5" t="str">
         <f>IFERROR(VLOOKUP(H51,regs!H:I,2,0),"")</f>
-        <v>MR009971/2023</v>
+        <v>MR014886/2023</v>
       </c>
       <c r="H51" t="str">
         <f t="shared" si="2"/>
-        <v>92016757</v>
-      </c>
-      <c r="I51" s="26" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v/>
+        <v>88085560</v>
+      </c>
+      <c r="I51" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>Vencido</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A52" s="16" t="s">
-        <v>1255</v>
+        <v>1836</v>
       </c>
       <c r="B52" s="2">
-        <v>10987804000180</v>
+        <v>34292047000198</v>
       </c>
       <c r="C52" s="16" t="s">
-        <v>1825</v>
+        <v>1837</v>
       </c>
       <c r="D52" s="5" t="s">
-        <v>1738</v>
+        <v>1756</v>
       </c>
       <c r="E52" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="F52" s="22">
-        <v>45051</v>
-      </c>
+      <c r="F52" s="22"/>
       <c r="G52" s="5" t="str">
         <f>IFERROR(VLOOKUP(H52,regs!H:I,2,0),"")</f>
         <v/>
       </c>
       <c r="H52" t="str">
         <f t="shared" si="2"/>
-        <v>10987804</v>
-      </c>
-      <c r="I52" s="26" t="b">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>34292047</v>
+      </c>
+      <c r="I52" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v/>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A53" s="16" t="s">
-        <v>564</v>
+        <v>1370</v>
       </c>
       <c r="B53" s="2">
-        <v>8808556000382</v>
+        <v>33041260022303</v>
       </c>
       <c r="C53" s="16" t="s">
-        <v>1826</v>
+        <v>1838</v>
       </c>
       <c r="D53" s="5" t="s">
-        <v>1738</v>
+        <v>1756</v>
       </c>
       <c r="E53" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="F53" s="22">
-        <v>44981</v>
-      </c>
+      <c r="F53" s="22"/>
       <c r="G53" s="5" t="str">
         <f>IFERROR(VLOOKUP(H53,regs!H:I,2,0),"")</f>
-        <v>MR014886/2023</v>
+        <v/>
       </c>
       <c r="H53" t="str">
         <f t="shared" si="2"/>
-        <v>88085560</v>
-      </c>
-      <c r="I53" s="26" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>Vencido</v>
+        <v>33041260</v>
+      </c>
+      <c r="I53" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v/>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A54" s="16" t="s">
-        <v>1827</v>
+        <v>1238</v>
       </c>
       <c r="B54" s="2">
-        <v>34292047000198</v>
+        <v>18328118011496</v>
       </c>
       <c r="C54" s="16" t="s">
-        <v>1828</v>
+        <v>1839</v>
       </c>
       <c r="D54" s="5" t="s">
-        <v>1743</v>
+        <v>1751</v>
       </c>
       <c r="E54" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="F54" s="22"/>
+      <c r="F54" s="22">
+        <v>45054</v>
+      </c>
       <c r="G54" s="5" t="str">
         <f>IFERROR(VLOOKUP(H54,regs!H:I,2,0),"")</f>
         <v/>
       </c>
       <c r="H54" t="str">
         <f t="shared" si="2"/>
-        <v>34292047</v>
-      </c>
-      <c r="I54" s="26" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v/>
+        <v>18328118</v>
+      </c>
+      <c r="I54" t="b">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A55" s="16" t="s">
-        <v>1370</v>
+        <v>158</v>
       </c>
       <c r="B55" s="2">
-        <v>33041260022303</v>
+        <v>1098983010680</v>
       </c>
       <c r="C55" s="16" t="s">
-        <v>1829</v>
+        <v>1840</v>
       </c>
       <c r="D55" s="5" t="s">
-        <v>1743</v>
+        <v>1756</v>
       </c>
       <c r="E55" s="5" t="s">
         <v>11</v>
@@ -55353,57 +55396,57 @@
       </c>
       <c r="H55" t="str">
         <f t="shared" si="2"/>
-        <v>33041260</v>
-      </c>
-      <c r="I55" s="26" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <v>10989830</v>
+      </c>
+      <c r="I55" t="str">
+        <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A56" s="16" t="s">
-        <v>1238</v>
+        <v>1588</v>
       </c>
       <c r="B56" s="2">
-        <v>18328118011496</v>
+        <v>61189288001908</v>
       </c>
       <c r="C56" s="16" t="s">
-        <v>1830</v>
+        <v>1841</v>
       </c>
       <c r="D56" s="5" t="s">
-        <v>1738</v>
+        <v>1751</v>
       </c>
       <c r="E56" s="5" t="s">
         <v>11</v>
       </c>
       <c r="F56" s="22">
-        <v>45054</v>
+        <v>45001</v>
       </c>
       <c r="G56" s="5" t="str">
         <f>IFERROR(VLOOKUP(H56,regs!H:I,2,0),"")</f>
-        <v/>
+        <v>MR014131/2023</v>
       </c>
       <c r="H56" t="str">
         <f t="shared" si="2"/>
-        <v>18328118</v>
-      </c>
-      <c r="I56" s="26" t="b">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>61189288</v>
+      </c>
+      <c r="I56" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>Vencido</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A57" s="16" t="s">
-        <v>158</v>
+        <v>1842</v>
       </c>
       <c r="B57" s="2">
-        <v>1098983010680</v>
+        <v>15048124002753</v>
       </c>
       <c r="C57" s="16" t="s">
-        <v>1831</v>
+        <v>1843</v>
       </c>
       <c r="D57" s="5" t="s">
-        <v>1743</v>
+        <v>1756</v>
       </c>
       <c r="E57" s="5" t="s">
         <v>11</v>
@@ -55415,57 +55458,55 @@
       </c>
       <c r="H57" t="str">
         <f t="shared" si="2"/>
-        <v>10989830</v>
-      </c>
-      <c r="I57" s="26" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <v>15048124</v>
+      </c>
+      <c r="I57" t="str">
+        <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A58" s="16" t="s">
-        <v>1588</v>
+        <v>1129</v>
       </c>
       <c r="B58" s="2">
-        <v>61189288001908</v>
+        <v>2314041003101</v>
       </c>
       <c r="C58" s="16" t="s">
-        <v>1832</v>
+        <v>1844</v>
       </c>
       <c r="D58" s="5" t="s">
-        <v>1738</v>
+        <v>1756</v>
       </c>
       <c r="E58" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="F58" s="22">
-        <v>45001</v>
-      </c>
+      <c r="F58" s="22"/>
       <c r="G58" s="5" t="str">
         <f>IFERROR(VLOOKUP(H58,regs!H:I,2,0),"")</f>
-        <v>MR014131/2023</v>
+        <v>MR002346/2023</v>
       </c>
       <c r="H58" t="str">
         <f t="shared" si="2"/>
-        <v>61189288</v>
-      </c>
-      <c r="I58" s="26" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>Aviso</v>
+        <v>23140410</v>
+      </c>
+      <c r="I58" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v/>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A59" s="16" t="s">
-        <v>1833</v>
+        <v>1226</v>
       </c>
       <c r="B59" s="2">
-        <v>15048124002753</v>
+        <v>84453844046412</v>
       </c>
       <c r="C59" s="16" t="s">
-        <v>1834</v>
+        <v>1845</v>
       </c>
       <c r="D59" s="5" t="s">
-        <v>1743</v>
+        <v>1756</v>
       </c>
       <c r="E59" s="5" t="s">
         <v>11</v>
@@ -55473,29 +55514,29 @@
       <c r="F59" s="22"/>
       <c r="G59" s="5" t="str">
         <f>IFERROR(VLOOKUP(H59,regs!H:I,2,0),"")</f>
-        <v/>
+        <v>MR010238/2023</v>
       </c>
       <c r="H59" t="str">
         <f t="shared" si="2"/>
-        <v>15048124</v>
-      </c>
-      <c r="I59" s="26" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <v>84453844</v>
+      </c>
+      <c r="I59" t="str">
+        <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A60" s="16" t="s">
-        <v>1129</v>
+        <v>1325</v>
       </c>
       <c r="B60" s="2">
-        <v>2314041003101</v>
+        <v>11014557000955</v>
       </c>
       <c r="C60" s="16" t="s">
-        <v>1835</v>
+        <v>1846</v>
       </c>
       <c r="D60" s="5" t="s">
-        <v>1743</v>
+        <v>1756</v>
       </c>
       <c r="E60" s="5" t="s">
         <v>11</v>
@@ -55503,29 +55544,29 @@
       <c r="F60" s="22"/>
       <c r="G60" s="5" t="str">
         <f>IFERROR(VLOOKUP(H60,regs!H:I,2,0),"")</f>
-        <v>MR002346/2023</v>
+        <v/>
       </c>
       <c r="H60" t="str">
         <f t="shared" si="2"/>
-        <v>23140410</v>
-      </c>
-      <c r="I60" s="26" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <v>11014557</v>
+      </c>
+      <c r="I60" t="str">
+        <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A61" s="16" t="s">
-        <v>1226</v>
+        <v>1327</v>
       </c>
       <c r="B61" s="2">
-        <v>84453844046412</v>
+        <v>47100110002566</v>
       </c>
       <c r="C61" s="16" t="s">
-        <v>1836</v>
+        <v>1847</v>
       </c>
       <c r="D61" s="5" t="s">
-        <v>1743</v>
+        <v>1756</v>
       </c>
       <c r="E61" s="5" t="s">
         <v>11</v>
@@ -55533,29 +55574,29 @@
       <c r="F61" s="22"/>
       <c r="G61" s="5" t="str">
         <f>IFERROR(VLOOKUP(H61,regs!H:I,2,0),"")</f>
-        <v>MR010238/2023</v>
+        <v/>
       </c>
       <c r="H61" t="str">
         <f t="shared" si="2"/>
-        <v>84453844</v>
-      </c>
-      <c r="I61" s="26" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <v>47100110</v>
+      </c>
+      <c r="I61" t="str">
+        <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A62" s="16" t="s">
-        <v>1325</v>
+        <v>288</v>
       </c>
       <c r="B62" s="2">
-        <v>11014557000955</v>
+        <v>17574281000199</v>
       </c>
       <c r="C62" s="16" t="s">
-        <v>1837</v>
+        <v>1848</v>
       </c>
       <c r="D62" s="5" t="s">
-        <v>1743</v>
+        <v>1756</v>
       </c>
       <c r="E62" s="5" t="s">
         <v>11</v>
@@ -55567,55 +55608,57 @@
       </c>
       <c r="H62" t="str">
         <f t="shared" si="2"/>
-        <v>11014557</v>
-      </c>
-      <c r="I62" s="26" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <v>17574281</v>
+      </c>
+      <c r="I62" t="str">
+        <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A63" s="16" t="s">
-        <v>1327</v>
+        <v>1666</v>
       </c>
       <c r="B63" s="2">
-        <v>47100110002566</v>
+        <v>20593518000274</v>
       </c>
       <c r="C63" s="16" t="s">
-        <v>1838</v>
+        <v>1849</v>
       </c>
       <c r="D63" s="5" t="s">
-        <v>1743</v>
+        <v>1751</v>
       </c>
       <c r="E63" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="F63" s="22"/>
+      <c r="F63" s="22">
+        <v>45021</v>
+      </c>
       <c r="G63" s="5" t="str">
         <f>IFERROR(VLOOKUP(H63,regs!H:I,2,0),"")</f>
-        <v/>
+        <v>MR018101/2023</v>
       </c>
       <c r="H63" t="str">
         <f t="shared" si="2"/>
-        <v>47100110</v>
-      </c>
-      <c r="I63" s="26" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v/>
+        <v>20593518</v>
+      </c>
+      <c r="I63" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>Aviso</v>
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A64" s="16" t="s">
-        <v>288</v>
+        <v>1850</v>
       </c>
       <c r="B64" s="2">
-        <v>17574281000199</v>
+        <v>44496590000160</v>
       </c>
       <c r="C64" s="16" t="s">
-        <v>1839</v>
+        <v>1851</v>
       </c>
       <c r="D64" s="5" t="s">
-        <v>1743</v>
+        <v>1756</v>
       </c>
       <c r="E64" s="5" t="s">
         <v>11</v>
@@ -55627,57 +55670,55 @@
       </c>
       <c r="H64" t="str">
         <f t="shared" si="2"/>
-        <v>17574281</v>
-      </c>
-      <c r="I64" s="26" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <v>44496590</v>
+      </c>
+      <c r="I64" t="str">
+        <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A65" s="16" t="s">
-        <v>1666</v>
+        <v>1065</v>
       </c>
       <c r="B65" s="2">
-        <v>20593518000274</v>
+        <v>44571005000140</v>
       </c>
       <c r="C65" s="16" t="s">
-        <v>1840</v>
+        <v>1852</v>
       </c>
       <c r="D65" s="5" t="s">
-        <v>1738</v>
+        <v>1756</v>
       </c>
       <c r="E65" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="F65" s="22">
-        <v>45021</v>
-      </c>
+      <c r="F65" s="22"/>
       <c r="G65" s="5" t="str">
         <f>IFERROR(VLOOKUP(H65,regs!H:I,2,0),"")</f>
-        <v>MR018101/2023</v>
+        <v/>
       </c>
       <c r="H65" t="str">
         <f t="shared" si="2"/>
-        <v>20593518</v>
-      </c>
-      <c r="I65" s="26" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>Aviso</v>
+        <v>44571005</v>
+      </c>
+      <c r="I65" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v/>
       </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A66" s="16" t="s">
-        <v>1841</v>
+        <v>1057</v>
       </c>
       <c r="B66" s="2">
-        <v>44496590000160</v>
+        <v>40740267000130</v>
       </c>
       <c r="C66" s="16" t="s">
-        <v>1842</v>
+        <v>1853</v>
       </c>
       <c r="D66" s="5" t="s">
-        <v>1743</v>
+        <v>1756</v>
       </c>
       <c r="E66" s="5" t="s">
         <v>11</v>
@@ -55688,26 +55729,26 @@
         <v/>
       </c>
       <c r="H66" t="str">
-        <f t="shared" ref="H66:H97" si="3">LEFT(B66,8)</f>
-        <v>44496590</v>
-      </c>
-      <c r="I66" s="26" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ref="H66:H97" si="4">LEFT(B66,8)</f>
+        <v>40740267</v>
+      </c>
+      <c r="I66" t="str">
+        <f t="shared" ref="I66:I97" ca="1" si="5">IF(F66&lt;&gt; "",IF(DATEDIF(F66,TODAY(),"D")&gt;60,"Vencido",IF(DATEDIF(F66,TODAY(),"D")&gt;30,"Aviso")),"")</f>
         <v/>
       </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A67" s="16" t="s">
-        <v>1065</v>
+        <v>1071</v>
       </c>
       <c r="B67" s="2">
-        <v>44571005000140</v>
+        <v>44579574000131</v>
       </c>
       <c r="C67" s="16" t="s">
-        <v>1843</v>
+        <v>1854</v>
       </c>
       <c r="D67" s="5" t="s">
-        <v>1743</v>
+        <v>1756</v>
       </c>
       <c r="E67" s="5" t="s">
         <v>11</v>
@@ -55718,26 +55759,26 @@
         <v/>
       </c>
       <c r="H67" t="str">
-        <f t="shared" si="3"/>
-        <v>44571005</v>
-      </c>
-      <c r="I67" s="26" t="str">
-        <f t="shared" ref="I67:I130" ca="1" si="4">IF(F67&lt;&gt; "",IF(DATEDIF(F67,TODAY(),"D")&gt;60,"Vencido",IF(DATEDIF(F67,TODAY(),"D")&gt;30,"Aviso")),"")</f>
+        <f t="shared" si="4"/>
+        <v>44579574</v>
+      </c>
+      <c r="I67" t="str">
+        <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A68" s="16" t="s">
-        <v>1057</v>
+        <v>1067</v>
       </c>
       <c r="B68" s="2">
-        <v>40740267000130</v>
+        <v>39158117000133</v>
       </c>
       <c r="C68" s="16" t="s">
-        <v>1844</v>
+        <v>1855</v>
       </c>
       <c r="D68" s="5" t="s">
-        <v>1743</v>
+        <v>1756</v>
       </c>
       <c r="E68" s="5" t="s">
         <v>11</v>
@@ -55748,26 +55789,26 @@
         <v/>
       </c>
       <c r="H68" t="str">
-        <f t="shared" si="3"/>
-        <v>40740267</v>
-      </c>
-      <c r="I68" s="26" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" si="4"/>
+        <v>39158117</v>
+      </c>
+      <c r="I68" t="str">
+        <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A69" s="16" t="s">
-        <v>1071</v>
+        <v>1248</v>
       </c>
       <c r="B69" s="2">
-        <v>44579574000131</v>
+        <v>24276833006189</v>
       </c>
       <c r="C69" s="16" t="s">
-        <v>1845</v>
+        <v>1856</v>
       </c>
       <c r="D69" s="5" t="s">
-        <v>1743</v>
+        <v>1756</v>
       </c>
       <c r="E69" s="5" t="s">
         <v>11</v>
@@ -55778,212 +55819,214 @@
         <v/>
       </c>
       <c r="H69" t="str">
-        <f t="shared" si="3"/>
-        <v>44579574</v>
-      </c>
-      <c r="I69" s="26" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" si="4"/>
+        <v>24276833</v>
+      </c>
+      <c r="I69" t="str">
+        <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A70" s="16" t="s">
-        <v>1067</v>
+        <v>1708</v>
       </c>
       <c r="B70" s="2">
-        <v>39158117000133</v>
+        <v>4038697000140</v>
       </c>
       <c r="C70" s="16" t="s">
-        <v>1846</v>
+        <v>1857</v>
       </c>
       <c r="D70" s="5" t="s">
-        <v>1743</v>
+        <v>1751</v>
       </c>
       <c r="E70" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="F70" s="22"/>
+      <c r="F70" s="22">
+        <v>45043</v>
+      </c>
       <c r="G70" s="5" t="str">
         <f>IFERROR(VLOOKUP(H70,regs!H:I,2,0),"")</f>
-        <v/>
+        <v>MR020393/2023</v>
       </c>
       <c r="H70" t="str">
-        <f t="shared" si="3"/>
-        <v>39158117</v>
-      </c>
-      <c r="I70" s="26" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v/>
+        <f t="shared" si="4"/>
+        <v>40386970</v>
+      </c>
+      <c r="I70" t="b">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A71" s="16" t="s">
-        <v>1248</v>
+        <v>1858</v>
       </c>
       <c r="B71" s="2">
-        <v>24276833006189</v>
+        <v>38167057000152</v>
       </c>
       <c r="C71" s="16" t="s">
-        <v>1847</v>
+        <v>1859</v>
       </c>
       <c r="D71" s="5" t="s">
-        <v>1743</v>
+        <v>1751</v>
       </c>
       <c r="E71" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="F71" s="22"/>
+      <c r="F71" s="22">
+        <v>45048</v>
+      </c>
       <c r="G71" s="5" t="str">
         <f>IFERROR(VLOOKUP(H71,regs!H:I,2,0),"")</f>
         <v/>
       </c>
       <c r="H71" t="str">
-        <f t="shared" si="3"/>
-        <v>24276833</v>
-      </c>
-      <c r="I71" s="26" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v/>
+        <f t="shared" si="4"/>
+        <v>38167057</v>
+      </c>
+      <c r="I71" t="b">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A72" s="16" t="s">
-        <v>1708</v>
+        <v>1860</v>
       </c>
       <c r="B72" s="2">
-        <v>4038697000140</v>
+        <v>28581753000157</v>
       </c>
       <c r="C72" s="16" t="s">
-        <v>1848</v>
+        <v>1861</v>
       </c>
       <c r="D72" s="5" t="s">
-        <v>1738</v>
+        <v>1751</v>
       </c>
       <c r="E72" s="5" t="s">
         <v>11</v>
       </c>
       <c r="F72" s="22">
-        <v>45043</v>
+        <v>45048</v>
       </c>
       <c r="G72" s="5" t="str">
         <f>IFERROR(VLOOKUP(H72,regs!H:I,2,0),"")</f>
-        <v>MR020393/2023</v>
+        <v/>
       </c>
       <c r="H72" t="str">
-        <f t="shared" si="3"/>
-        <v>40386970</v>
-      </c>
-      <c r="I72" s="26" t="b">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" si="4"/>
+        <v>28581753</v>
+      </c>
+      <c r="I72" t="b">
+        <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A73" s="16" t="s">
-        <v>1849</v>
+        <v>1862</v>
       </c>
       <c r="B73" s="2">
-        <v>38167057000152</v>
+        <v>33534067000750</v>
       </c>
       <c r="C73" s="16" t="s">
-        <v>1850</v>
+        <v>1863</v>
       </c>
       <c r="D73" s="5" t="s">
-        <v>1738</v>
+        <v>1756</v>
       </c>
       <c r="E73" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="F73" s="22">
-        <v>45048</v>
-      </c>
+      <c r="F73" s="22"/>
       <c r="G73" s="5" t="str">
         <f>IFERROR(VLOOKUP(H73,regs!H:I,2,0),"")</f>
         <v/>
       </c>
       <c r="H73" t="str">
-        <f t="shared" si="3"/>
-        <v>38167057</v>
-      </c>
-      <c r="I73" s="26" t="b">
-        <f t="shared" ca="1" si="4"/>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>33534067</v>
+      </c>
+      <c r="I73" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v/>
       </c>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A74" s="16" t="s">
-        <v>1851</v>
+        <v>1864</v>
       </c>
       <c r="B74" s="2">
-        <v>28581753000157</v>
+        <v>46494237000177</v>
       </c>
       <c r="C74" s="16" t="s">
-        <v>1852</v>
+        <v>1865</v>
       </c>
       <c r="D74" s="5" t="s">
-        <v>1738</v>
+        <v>1756</v>
       </c>
       <c r="E74" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="F74" s="22">
-        <v>45048</v>
-      </c>
+      <c r="F74" s="22"/>
       <c r="G74" s="5" t="str">
         <f>IFERROR(VLOOKUP(H74,regs!H:I,2,0),"")</f>
         <v/>
       </c>
       <c r="H74" t="str">
-        <f t="shared" si="3"/>
-        <v>28581753</v>
-      </c>
-      <c r="I74" s="26" t="b">
-        <f t="shared" ca="1" si="4"/>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>46494237</v>
+      </c>
+      <c r="I74" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v/>
       </c>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A75" s="16" t="s">
-        <v>1853</v>
+        <v>1866</v>
       </c>
       <c r="B75" s="2">
-        <v>33534067000750</v>
+        <v>10413732000167</v>
       </c>
       <c r="C75" s="16" t="s">
-        <v>1854</v>
+        <v>1867</v>
       </c>
       <c r="D75" s="5" t="s">
-        <v>1743</v>
+        <v>1751</v>
       </c>
       <c r="E75" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="F75" s="22"/>
+      <c r="F75" s="22">
+        <v>45048</v>
+      </c>
       <c r="G75" s="5" t="str">
         <f>IFERROR(VLOOKUP(H75,regs!H:I,2,0),"")</f>
         <v/>
       </c>
       <c r="H75" t="str">
-        <f t="shared" si="3"/>
-        <v>33534067</v>
-      </c>
-      <c r="I75" s="26" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v/>
+        <f t="shared" si="4"/>
+        <v>10413732</v>
+      </c>
+      <c r="I75" t="b">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A76" s="16" t="s">
-        <v>1855</v>
+        <v>929</v>
       </c>
       <c r="B76" s="2">
-        <v>46494237000177</v>
+        <v>58731662010184</v>
       </c>
       <c r="C76" s="16" t="s">
-        <v>1856</v>
+        <v>1868</v>
       </c>
       <c r="D76" s="5" t="s">
-        <v>1743</v>
+        <v>1756</v>
       </c>
       <c r="E76" s="5" t="s">
         <v>11</v>
@@ -55994,120 +56037,118 @@
         <v/>
       </c>
       <c r="H76" t="str">
-        <f t="shared" si="3"/>
-        <v>46494237</v>
-      </c>
-      <c r="I76" s="26" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" si="4"/>
+        <v>58731662</v>
+      </c>
+      <c r="I76" t="str">
+        <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A77" s="16" t="s">
-        <v>1857</v>
+        <v>1869</v>
       </c>
       <c r="B77" s="2">
-        <v>10413732000167</v>
+        <v>9416879000121</v>
       </c>
       <c r="C77" s="16" t="s">
-        <v>1858</v>
+        <v>1870</v>
       </c>
       <c r="D77" s="5" t="s">
-        <v>1738</v>
+        <v>1756</v>
       </c>
       <c r="E77" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="F77" s="22">
-        <v>45048</v>
-      </c>
+      <c r="F77" s="22"/>
       <c r="G77" s="5" t="str">
         <f>IFERROR(VLOOKUP(H77,regs!H:I,2,0),"")</f>
         <v/>
       </c>
       <c r="H77" t="str">
-        <f t="shared" si="3"/>
-        <v>10413732</v>
-      </c>
-      <c r="I77" s="26" t="b">
-        <f t="shared" ca="1" si="4"/>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>94168790</v>
+      </c>
+      <c r="I77" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v/>
       </c>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A78" s="16" t="s">
-        <v>929</v>
+        <v>1871</v>
       </c>
       <c r="B78" s="2">
-        <v>58731662010184</v>
+        <v>6121357000104</v>
       </c>
       <c r="C78" s="16" t="s">
-        <v>1859</v>
+        <v>1872</v>
       </c>
       <c r="D78" s="5" t="s">
-        <v>1743</v>
+        <v>1751</v>
       </c>
       <c r="E78" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="F78" s="22"/>
+      <c r="F78" s="22">
+        <v>45056</v>
+      </c>
       <c r="G78" s="5" t="str">
         <f>IFERROR(VLOOKUP(H78,regs!H:I,2,0),"")</f>
         <v/>
       </c>
       <c r="H78" t="str">
-        <f t="shared" si="3"/>
-        <v>58731662</v>
-      </c>
-      <c r="I78" s="26" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v/>
+        <f t="shared" si="4"/>
+        <v>61213570</v>
+      </c>
+      <c r="I78" t="b">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A79" s="16" t="s">
-        <v>1860</v>
+        <v>1873</v>
       </c>
       <c r="B79" s="2">
-        <v>94738226000138</v>
+        <v>30088971000104</v>
       </c>
       <c r="C79" s="16" t="s">
-        <v>1861</v>
+        <v>1874</v>
       </c>
       <c r="D79" s="5" t="s">
-        <v>1738</v>
+        <v>1756</v>
       </c>
       <c r="E79" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="F79" s="22">
-        <v>45056</v>
-      </c>
+      <c r="F79" s="22"/>
       <c r="G79" s="5" t="str">
         <f>IFERROR(VLOOKUP(H79,regs!H:I,2,0),"")</f>
         <v/>
       </c>
       <c r="H79" t="str">
-        <f t="shared" si="3"/>
-        <v>94738226</v>
-      </c>
-      <c r="I79" s="26" t="b">
-        <f t="shared" ca="1" si="4"/>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>30088971</v>
+      </c>
+      <c r="I79" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v/>
       </c>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A80" s="16" t="s">
-        <v>1862</v>
+        <v>939</v>
       </c>
       <c r="B80" s="2">
-        <v>9416879000121</v>
+        <v>43708379005675</v>
       </c>
       <c r="C80" s="16" t="s">
-        <v>1863</v>
+        <v>1875</v>
       </c>
       <c r="D80" s="5" t="s">
-        <v>1743</v>
+        <v>1756</v>
       </c>
       <c r="E80" s="5" t="s">
         <v>11</v>
@@ -56118,58 +56159,56 @@
         <v/>
       </c>
       <c r="H80" t="str">
-        <f t="shared" si="3"/>
-        <v>94168790</v>
-      </c>
-      <c r="I80" s="26" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" si="4"/>
+        <v>43708379</v>
+      </c>
+      <c r="I80" t="str">
+        <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A81" s="16" t="s">
-        <v>1864</v>
+        <v>1876</v>
       </c>
       <c r="B81" s="2">
-        <v>6121357000104</v>
+        <v>5520581000106</v>
       </c>
       <c r="C81" s="16" t="s">
-        <v>1865</v>
+        <v>1877</v>
       </c>
       <c r="D81" s="5" t="s">
-        <v>1738</v>
+        <v>1756</v>
       </c>
       <c r="E81" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="F81" s="22">
-        <v>45056</v>
-      </c>
+      <c r="F81" s="22"/>
       <c r="G81" s="5" t="str">
         <f>IFERROR(VLOOKUP(H81,regs!H:I,2,0),"")</f>
         <v/>
       </c>
       <c r="H81" t="str">
-        <f t="shared" si="3"/>
-        <v>61213570</v>
-      </c>
-      <c r="I81" s="26" t="b">
-        <f t="shared" ca="1" si="4"/>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>55205810</v>
+      </c>
+      <c r="I81" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v/>
       </c>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A82" s="16" t="s">
-        <v>1866</v>
+        <v>1878</v>
       </c>
       <c r="B82" s="2">
-        <v>30088971000104</v>
+        <v>50233143000111</v>
       </c>
       <c r="C82" s="16" t="s">
-        <v>1867</v>
+        <v>1879</v>
       </c>
       <c r="D82" s="5" t="s">
-        <v>1743</v>
+        <v>1756</v>
       </c>
       <c r="E82" s="5" t="s">
         <v>11</v>
@@ -56180,26 +56219,26 @@
         <v/>
       </c>
       <c r="H82" t="str">
-        <f t="shared" si="3"/>
-        <v>30088971</v>
-      </c>
-      <c r="I82" s="26" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" si="4"/>
+        <v>50233143</v>
+      </c>
+      <c r="I82" t="str">
+        <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A83" s="16" t="s">
-        <v>939</v>
+        <v>1880</v>
       </c>
       <c r="B83" s="2">
-        <v>43708379005675</v>
+        <v>49995556000154</v>
       </c>
       <c r="C83" s="16" t="s">
-        <v>1868</v>
+        <v>1881</v>
       </c>
       <c r="D83" s="5" t="s">
-        <v>1743</v>
+        <v>1756</v>
       </c>
       <c r="E83" s="5" t="s">
         <v>11</v>
@@ -56210,86 +56249,90 @@
         <v/>
       </c>
       <c r="H83" t="str">
-        <f t="shared" si="3"/>
-        <v>43708379</v>
-      </c>
-      <c r="I83" s="26" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" si="4"/>
+        <v>49995556</v>
+      </c>
+      <c r="I83" t="str">
+        <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A84" s="16" t="s">
-        <v>1869</v>
+        <v>870</v>
       </c>
       <c r="B84" s="2">
-        <v>5520581000106</v>
+        <v>94290483000150</v>
       </c>
       <c r="C84" s="16" t="s">
-        <v>1870</v>
+        <v>1882</v>
       </c>
       <c r="D84" s="5" t="s">
-        <v>1743</v>
+        <v>1751</v>
       </c>
       <c r="E84" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="F84" s="22"/>
+      <c r="F84" s="22">
+        <v>45058</v>
+      </c>
       <c r="G84" s="5" t="str">
         <f>IFERROR(VLOOKUP(H84,regs!H:I,2,0),"")</f>
         <v/>
       </c>
       <c r="H84" t="str">
-        <f t="shared" si="3"/>
-        <v>55205810</v>
-      </c>
-      <c r="I84" s="26" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v/>
+        <f t="shared" si="4"/>
+        <v>94290483</v>
+      </c>
+      <c r="I84" t="b">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A85" s="16" t="s">
-        <v>1871</v>
+        <v>1883</v>
       </c>
       <c r="B85" s="2">
-        <v>50233143000111</v>
+        <v>22783520000150</v>
       </c>
       <c r="C85" s="16" t="s">
-        <v>1872</v>
+        <v>1884</v>
       </c>
       <c r="D85" s="5" t="s">
-        <v>1743</v>
+        <v>1751</v>
       </c>
       <c r="E85" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="F85" s="22"/>
+      <c r="F85" s="22">
+        <v>45058</v>
+      </c>
       <c r="G85" s="5" t="str">
         <f>IFERROR(VLOOKUP(H85,regs!H:I,2,0),"")</f>
         <v/>
       </c>
       <c r="H85" t="str">
-        <f t="shared" si="3"/>
-        <v>50233143</v>
-      </c>
-      <c r="I85" s="26" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v/>
+        <f t="shared" si="4"/>
+        <v>22783520</v>
+      </c>
+      <c r="I85" t="b">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A86" s="16" t="s">
-        <v>1873</v>
+        <v>1885</v>
       </c>
       <c r="B86" s="2">
-        <v>49995556000154</v>
+        <v>48453787000173</v>
       </c>
       <c r="C86" s="16" t="s">
-        <v>1874</v>
+        <v>1886</v>
       </c>
       <c r="D86" s="5" t="s">
-        <v>1743</v>
+        <v>1756</v>
       </c>
       <c r="E86" s="5" t="s">
         <v>11</v>
@@ -56300,118 +56343,122 @@
         <v/>
       </c>
       <c r="H86" t="str">
-        <f t="shared" si="3"/>
-        <v>49995556</v>
-      </c>
-      <c r="I86" s="26" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" si="4"/>
+        <v>48453787</v>
+      </c>
+      <c r="I86" t="str">
+        <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A87" s="16" t="s">
-        <v>1875</v>
+        <v>763</v>
       </c>
       <c r="B87" s="2">
-        <v>8613254002998</v>
+        <v>4918617000141</v>
       </c>
       <c r="C87" s="16" t="s">
-        <v>1876</v>
+        <v>1887</v>
       </c>
       <c r="D87" s="5" t="s">
-        <v>1738</v>
+        <v>1751</v>
       </c>
       <c r="E87" s="5" t="s">
         <v>11</v>
       </c>
       <c r="F87" s="22">
-        <v>45056</v>
+        <v>45058</v>
       </c>
       <c r="G87" s="5" t="str">
         <f>IFERROR(VLOOKUP(H87,regs!H:I,2,0),"")</f>
         <v/>
       </c>
       <c r="H87" t="str">
-        <f t="shared" si="3"/>
-        <v>86132540</v>
-      </c>
-      <c r="I87" s="26" t="b">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" si="4"/>
+        <v>49186170</v>
+      </c>
+      <c r="I87" t="b">
+        <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A88" s="16" t="s">
-        <v>870</v>
+        <v>1888</v>
       </c>
       <c r="B88" s="2">
-        <v>94290483000150</v>
+        <v>89268395000111</v>
       </c>
       <c r="C88" s="16" t="s">
-        <v>1877</v>
+        <v>1889</v>
       </c>
       <c r="D88" s="5" t="s">
-        <v>1743</v>
+        <v>1751</v>
       </c>
       <c r="E88" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="F88" s="22"/>
+      <c r="F88" s="22">
+        <v>45057</v>
+      </c>
       <c r="G88" s="5" t="str">
         <f>IFERROR(VLOOKUP(H88,regs!H:I,2,0),"")</f>
         <v/>
       </c>
       <c r="H88" t="str">
-        <f t="shared" si="3"/>
-        <v>94290483</v>
-      </c>
-      <c r="I88" s="26" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v/>
+        <f t="shared" si="4"/>
+        <v>89268395</v>
+      </c>
+      <c r="I88" t="b">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A89" s="16" t="s">
-        <v>1878</v>
+        <v>1890</v>
       </c>
       <c r="B89" s="2">
-        <v>22783520000150</v>
+        <v>38824899000130</v>
       </c>
       <c r="C89" s="16" t="s">
-        <v>1879</v>
+        <v>1891</v>
       </c>
       <c r="D89" s="5" t="s">
-        <v>1743</v>
+        <v>1751</v>
       </c>
       <c r="E89" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="F89" s="22"/>
+      <c r="F89" s="22">
+        <v>45058</v>
+      </c>
       <c r="G89" s="5" t="str">
         <f>IFERROR(VLOOKUP(H89,regs!H:I,2,0),"")</f>
         <v/>
       </c>
       <c r="H89" t="str">
-        <f t="shared" si="3"/>
-        <v>22783520</v>
-      </c>
-      <c r="I89" s="26" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v/>
+        <f t="shared" si="4"/>
+        <v>38824899</v>
+      </c>
+      <c r="I89" t="b">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A90" s="16" t="s">
-        <v>1880</v>
+        <v>1892</v>
       </c>
       <c r="B90" s="2">
-        <v>48453787000173</v>
+        <v>39676354000196</v>
       </c>
       <c r="C90" s="16" t="s">
-        <v>1881</v>
+        <v>1893</v>
       </c>
       <c r="D90" s="5" t="s">
-        <v>1743</v>
+        <v>1756</v>
       </c>
       <c r="E90" s="5" t="s">
         <v>11</v>
@@ -56422,56 +56469,58 @@
         <v/>
       </c>
       <c r="H90" t="str">
-        <f t="shared" si="3"/>
-        <v>48453787</v>
-      </c>
-      <c r="I90" s="26" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" si="4"/>
+        <v>39676354</v>
+      </c>
+      <c r="I90" t="str">
+        <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A91" s="16" t="s">
-        <v>763</v>
+        <v>1744</v>
       </c>
       <c r="B91" s="2">
-        <v>4918617000141</v>
+        <v>2721404000108</v>
       </c>
       <c r="C91" s="16" t="s">
-        <v>1882</v>
+        <v>1894</v>
       </c>
       <c r="D91" s="5" t="s">
-        <v>1743</v>
+        <v>1751</v>
       </c>
       <c r="E91" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="F91" s="22"/>
+      <c r="F91" s="22">
+        <v>45057</v>
+      </c>
       <c r="G91" s="5" t="str">
         <f>IFERROR(VLOOKUP(H91,regs!H:I,2,0),"")</f>
-        <v/>
+        <v>MR022917/2023</v>
       </c>
       <c r="H91" t="str">
-        <f t="shared" si="3"/>
-        <v>49186170</v>
-      </c>
-      <c r="I91" s="26" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v/>
+        <f t="shared" si="4"/>
+        <v>27214040</v>
+      </c>
+      <c r="I91" t="b">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A92" s="16" t="s">
-        <v>1883</v>
+        <v>720</v>
       </c>
       <c r="B92" s="2">
-        <v>89268395000111</v>
+        <v>94678224000109</v>
       </c>
       <c r="C92" s="16" t="s">
-        <v>1884</v>
+        <v>1895</v>
       </c>
       <c r="D92" s="5" t="s">
-        <v>1738</v>
+        <v>1751</v>
       </c>
       <c r="E92" s="5" t="s">
         <v>11</v>
@@ -56484,227 +56533,163 @@
         <v/>
       </c>
       <c r="H92" t="str">
-        <f t="shared" si="3"/>
-        <v>89268395</v>
-      </c>
-      <c r="I92" s="26" t="b">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" si="4"/>
+        <v>94678224</v>
+      </c>
+      <c r="I92" t="b">
+        <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A93" s="16" t="s">
-        <v>1885</v>
+        <v>1705</v>
       </c>
       <c r="B93" s="2">
-        <v>38824899000130</v>
+        <v>25424804000149</v>
       </c>
       <c r="C93" s="16" t="s">
-        <v>1886</v>
+        <v>1896</v>
       </c>
       <c r="D93" s="5" t="s">
-        <v>1743</v>
+        <v>1751</v>
       </c>
       <c r="E93" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="F93" s="22"/>
+      <c r="F93" s="22">
+        <v>45061</v>
+      </c>
       <c r="G93" s="5" t="str">
         <f>IFERROR(VLOOKUP(H93,regs!H:I,2,0),"")</f>
-        <v/>
+        <v>MR019016/2023</v>
       </c>
       <c r="H93" t="str">
-        <f t="shared" si="3"/>
-        <v>38824899</v>
-      </c>
-      <c r="I93" s="26" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v/>
+        <f t="shared" si="4"/>
+        <v>25424804</v>
+      </c>
+      <c r="I93" t="b">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A94" s="16" t="s">
-        <v>1887</v>
-      </c>
-      <c r="B94" s="2">
-        <v>39676354000196</v>
-      </c>
-      <c r="C94" s="16" t="s">
-        <v>1888</v>
-      </c>
-      <c r="D94" s="5" t="s">
-        <v>1743</v>
-      </c>
-      <c r="E94" s="5" t="s">
-        <v>11</v>
-      </c>
+      <c r="A94" s="16"/>
+      <c r="B94" s="2"/>
+      <c r="C94" s="16"/>
+      <c r="D94" s="5"/>
+      <c r="E94" s="5"/>
       <c r="F94" s="22"/>
-      <c r="G94" s="5" t="str">
+      <c r="G94" s="5">
         <f>IFERROR(VLOOKUP(H94,regs!H:I,2,0),"")</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="H94" t="str">
-        <f t="shared" si="3"/>
-        <v>39676354</v>
-      </c>
-      <c r="I94" s="26" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="I94" t="str">
+        <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A95" s="16" t="s">
-        <v>1889</v>
-      </c>
-      <c r="B95" s="2">
-        <v>2721404000108</v>
-      </c>
-      <c r="C95" s="16" t="s">
-        <v>1890</v>
-      </c>
-      <c r="D95" s="5" t="s">
-        <v>1738</v>
-      </c>
-      <c r="E95" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F95" s="22">
-        <v>45057</v>
-      </c>
-      <c r="G95" s="5" t="str">
+      <c r="A95" s="16"/>
+      <c r="B95" s="2"/>
+      <c r="C95" s="16"/>
+      <c r="D95" s="5"/>
+      <c r="E95" s="5"/>
+      <c r="F95" s="22"/>
+      <c r="G95" s="5">
         <f>IFERROR(VLOOKUP(H95,regs!H:I,2,0),"")</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="H95" t="str">
-        <f t="shared" si="3"/>
-        <v>27214040</v>
-      </c>
-      <c r="I95" s="26" t="b">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="I95" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A96" s="16"/>
+      <c r="B96" s="2"/>
+      <c r="C96" s="16"/>
+      <c r="D96" s="5"/>
+      <c r="E96" s="5"/>
+      <c r="F96" s="22"/>
+      <c r="G96" s="5">
+        <f>IFERROR(VLOOKUP(H96,regs!H:I,2,0),"")</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A96" s="16" t="s">
-        <v>1889</v>
-      </c>
-      <c r="B96" s="2">
-        <v>2721404000108</v>
-      </c>
-      <c r="C96" s="16" t="s">
-        <v>1891</v>
-      </c>
-      <c r="D96" s="5" t="s">
-        <v>1738</v>
-      </c>
-      <c r="E96" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F96" s="22">
-        <v>45057</v>
-      </c>
-      <c r="G96" s="5" t="str">
-        <f>IFERROR(VLOOKUP(H96,regs!H:I,2,0),"")</f>
-        <v/>
-      </c>
       <c r="H96" t="str">
-        <f t="shared" si="3"/>
-        <v>27214040</v>
-      </c>
-      <c r="I96" s="26" t="b">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="I96" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A97" s="16"/>
+      <c r="B97" s="2"/>
+      <c r="C97" s="16"/>
+      <c r="D97" s="5"/>
+      <c r="E97" s="5"/>
+      <c r="F97" s="22"/>
+      <c r="G97" s="5">
+        <f>IFERROR(VLOOKUP(H97,regs!H:I,2,0),"")</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A97" s="16" t="s">
-        <v>1892</v>
-      </c>
-      <c r="B97" s="2">
-        <v>27481741000198</v>
-      </c>
-      <c r="C97" s="16" t="s">
-        <v>1893</v>
-      </c>
-      <c r="D97" s="5" t="s">
-        <v>1743</v>
-      </c>
-      <c r="E97" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F97" s="22"/>
-      <c r="G97" s="5" t="str">
-        <f>IFERROR(VLOOKUP(H97,regs!H:I,2,0),"")</f>
-        <v/>
-      </c>
       <c r="H97" t="str">
-        <f t="shared" si="3"/>
-        <v>27481741</v>
-      </c>
-      <c r="I97" s="26" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="I97" t="str">
+        <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A98" s="16" t="s">
-        <v>720</v>
-      </c>
-      <c r="B98" s="2">
-        <v>94678224000109</v>
-      </c>
-      <c r="C98" s="16" t="s">
-        <v>1894</v>
-      </c>
-      <c r="D98" s="5" t="s">
-        <v>1738</v>
-      </c>
-      <c r="E98" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F98" s="22">
-        <v>45057</v>
-      </c>
-      <c r="G98" s="5" t="str">
+      <c r="A98" s="16"/>
+      <c r="B98" s="2"/>
+      <c r="C98" s="16"/>
+      <c r="D98" s="5"/>
+      <c r="E98" s="5"/>
+      <c r="F98" s="22"/>
+      <c r="G98" s="5">
         <f>IFERROR(VLOOKUP(H98,regs!H:I,2,0),"")</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="H98" t="str">
-        <f t="shared" ref="H98:H129" si="5">LEFT(B98,8)</f>
-        <v>94678224</v>
-      </c>
-      <c r="I98" s="26" t="b">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ref="H98:H129" si="6">LEFT(B98,8)</f>
+        <v/>
+      </c>
+      <c r="I98" t="str">
+        <f t="shared" ref="I98:I129" ca="1" si="7">IF(F98&lt;&gt; "",IF(DATEDIF(F98,TODAY(),"D")&gt;60,"Vencido",IF(DATEDIF(F98,TODAY(),"D")&gt;30,"Aviso")),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A99" s="16"/>
+      <c r="B99" s="2"/>
+      <c r="C99" s="16"/>
+      <c r="D99" s="5"/>
+      <c r="E99" s="5"/>
+      <c r="F99" s="22"/>
+      <c r="G99" s="5">
+        <f>IFERROR(VLOOKUP(H99,regs!H:I,2,0),"")</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A99" s="16" t="s">
-        <v>1895</v>
-      </c>
-      <c r="B99" s="2">
-        <v>50021049000107</v>
-      </c>
-      <c r="C99" s="16" t="s">
-        <v>1896</v>
-      </c>
-      <c r="D99" s="5" t="s">
-        <v>1743</v>
-      </c>
-      <c r="E99" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F99" s="22"/>
-      <c r="G99" s="5" t="str">
-        <f>IFERROR(VLOOKUP(H99,regs!H:I,2,0),"")</f>
-        <v/>
-      </c>
       <c r="H99" t="str">
-        <f t="shared" si="5"/>
-        <v>50021049</v>
-      </c>
-      <c r="I99" s="26" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="I99" t="str">
+        <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
     </row>
@@ -56720,11 +56705,11 @@
         <v>0</v>
       </c>
       <c r="H100" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="I100" s="26" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="I100" t="str">
+        <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
     </row>
@@ -56740,11 +56725,11 @@
         <v>0</v>
       </c>
       <c r="H101" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="I101" s="26" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="I101" t="str">
+        <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
     </row>
@@ -56760,11 +56745,11 @@
         <v>0</v>
       </c>
       <c r="H102" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="I102" s="26" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="I102" t="str">
+        <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
     </row>
@@ -56780,11 +56765,11 @@
         <v>0</v>
       </c>
       <c r="H103" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="I103" s="26" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="I103" t="str">
+        <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
     </row>
@@ -56800,11 +56785,11 @@
         <v>0</v>
       </c>
       <c r="H104" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="I104" s="26" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="I104" t="str">
+        <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
     </row>
@@ -56820,11 +56805,11 @@
         <v>0</v>
       </c>
       <c r="H105" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="I105" s="26" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="I105" t="str">
+        <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
     </row>
@@ -56840,11 +56825,11 @@
         <v>0</v>
       </c>
       <c r="H106" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="I106" s="26" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="I106" t="str">
+        <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
     </row>
@@ -56860,11 +56845,11 @@
         <v>0</v>
       </c>
       <c r="H107" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="I107" s="26" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="I107" t="str">
+        <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
     </row>
@@ -56880,11 +56865,11 @@
         <v>0</v>
       </c>
       <c r="H108" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="I108" s="26" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="I108" t="str">
+        <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
     </row>
@@ -56900,11 +56885,11 @@
         <v>0</v>
       </c>
       <c r="H109" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="I109" s="26" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="I109" t="str">
+        <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
     </row>
@@ -56920,11 +56905,11 @@
         <v>0</v>
       </c>
       <c r="H110" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="I110" s="26" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="I110" t="str">
+        <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
     </row>
@@ -56940,11 +56925,11 @@
         <v>0</v>
       </c>
       <c r="H111" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="I111" s="26" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="I111" t="str">
+        <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
     </row>
@@ -56960,11 +56945,11 @@
         <v>0</v>
       </c>
       <c r="H112" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="I112" s="26" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="I112" t="str">
+        <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
     </row>
@@ -56980,11 +56965,11 @@
         <v>0</v>
       </c>
       <c r="H113" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="I113" s="26" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="I113" t="str">
+        <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
     </row>
@@ -57000,11 +56985,11 @@
         <v>0</v>
       </c>
       <c r="H114" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="I114" s="26" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="I114" t="str">
+        <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
     </row>
@@ -57020,11 +57005,11 @@
         <v>0</v>
       </c>
       <c r="H115" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="I115" s="26" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="I115" t="str">
+        <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
     </row>
@@ -57040,11 +57025,11 @@
         <v>0</v>
       </c>
       <c r="H116" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="I116" s="26" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="I116" t="str">
+        <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
     </row>
@@ -57060,11 +57045,11 @@
         <v>0</v>
       </c>
       <c r="H117" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="I117" s="26" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="I117" t="str">
+        <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
     </row>
@@ -57080,11 +57065,11 @@
         <v>0</v>
       </c>
       <c r="H118" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="I118" s="26" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="I118" t="str">
+        <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
     </row>
@@ -57100,11 +57085,11 @@
         <v>0</v>
       </c>
       <c r="H119" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="I119" s="26" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="I119" t="str">
+        <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
     </row>
@@ -57120,11 +57105,11 @@
         <v>0</v>
       </c>
       <c r="H120" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="I120" s="26" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="I120" t="str">
+        <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
     </row>
@@ -57140,11 +57125,11 @@
         <v>0</v>
       </c>
       <c r="H121" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="I121" s="26" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="I121" t="str">
+        <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
     </row>
@@ -57160,11 +57145,11 @@
         <v>0</v>
       </c>
       <c r="H122" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="I122" s="26" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="I122" t="str">
+        <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
     </row>
@@ -57180,11 +57165,11 @@
         <v>0</v>
       </c>
       <c r="H123" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="I123" s="26" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="I123" t="str">
+        <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
     </row>
@@ -57200,11 +57185,11 @@
         <v>0</v>
       </c>
       <c r="H124" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="I124" s="26" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="I124" t="str">
+        <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
     </row>
@@ -57220,11 +57205,11 @@
         <v>0</v>
       </c>
       <c r="H125" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="I125" s="26" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="I125" t="str">
+        <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
     </row>
@@ -57240,11 +57225,11 @@
         <v>0</v>
       </c>
       <c r="H126" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="I126" s="26" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="I126" t="str">
+        <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
     </row>
@@ -57260,11 +57245,11 @@
         <v>0</v>
       </c>
       <c r="H127" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="I127" s="26" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="I127" t="str">
+        <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
     </row>
@@ -57280,11 +57265,11 @@
         <v>0</v>
       </c>
       <c r="H128" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="I128" s="26" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="I128" t="str">
+        <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
     </row>
@@ -57300,11 +57285,11 @@
         <v>0</v>
       </c>
       <c r="H129" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="I129" s="26" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="I129" t="str">
+        <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
     </row>
@@ -57320,11 +57305,11 @@
         <v>0</v>
       </c>
       <c r="H130" t="str">
-        <f t="shared" ref="H130:H161" si="6">LEFT(B130,8)</f>
-        <v/>
-      </c>
-      <c r="I130" s="26" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ref="H130:H161" si="8">LEFT(B130,8)</f>
+        <v/>
+      </c>
+      <c r="I130" t="str">
+        <f t="shared" ref="I130:I161" ca="1" si="9">IF(F130&lt;&gt; "",IF(DATEDIF(F130,TODAY(),"D")&gt;60,"Vencido",IF(DATEDIF(F130,TODAY(),"D")&gt;30,"Aviso")),"")</f>
         <v/>
       </c>
     </row>
@@ -57340,11 +57325,11 @@
         <v>0</v>
       </c>
       <c r="H131" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="I131" s="26" t="str">
-        <f t="shared" ref="I131:I183" ca="1" si="7">IF(F131&lt;&gt; "",IF(DATEDIF(F131,TODAY(),"D")&gt;60,"Vencido",IF(DATEDIF(F131,TODAY(),"D")&gt;30,"Aviso")),"")</f>
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="I131" t="str">
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
     </row>
@@ -57360,11 +57345,11 @@
         <v>0</v>
       </c>
       <c r="H132" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="I132" s="26" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="I132" t="str">
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
     </row>
@@ -57380,11 +57365,11 @@
         <v>0</v>
       </c>
       <c r="H133" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="I133" s="26" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="I133" t="str">
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
     </row>
@@ -57400,11 +57385,11 @@
         <v>0</v>
       </c>
       <c r="H134" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="I134" s="26" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="I134" t="str">
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
     </row>
@@ -57420,11 +57405,11 @@
         <v>0</v>
       </c>
       <c r="H135" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="I135" s="26" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="I135" t="str">
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
     </row>
@@ -57440,11 +57425,11 @@
         <v>0</v>
       </c>
       <c r="H136" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="I136" s="26" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="I136" t="str">
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
     </row>
@@ -57460,11 +57445,11 @@
         <v>0</v>
       </c>
       <c r="H137" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="I137" s="26" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="I137" t="str">
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
     </row>
@@ -57480,11 +57465,11 @@
         <v>0</v>
       </c>
       <c r="H138" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="I138" s="26" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="I138" t="str">
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
     </row>
@@ -57500,11 +57485,11 @@
         <v>0</v>
       </c>
       <c r="H139" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="I139" s="26" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="I139" t="str">
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
     </row>
@@ -57520,11 +57505,11 @@
         <v>0</v>
       </c>
       <c r="H140" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="I140" s="26" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="I140" t="str">
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
     </row>
@@ -57540,11 +57525,11 @@
         <v>0</v>
       </c>
       <c r="H141" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="I141" s="26" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="I141" t="str">
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
     </row>
@@ -57560,11 +57545,11 @@
         <v>0</v>
       </c>
       <c r="H142" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="I142" s="26" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="I142" t="str">
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
     </row>
@@ -57580,11 +57565,11 @@
         <v>0</v>
       </c>
       <c r="H143" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="I143" s="26" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="I143" t="str">
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
     </row>
@@ -57600,11 +57585,11 @@
         <v>0</v>
       </c>
       <c r="H144" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="I144" s="26" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="I144" t="str">
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
     </row>
@@ -57620,11 +57605,11 @@
         <v>0</v>
       </c>
       <c r="H145" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="I145" s="26" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="I145" t="str">
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
     </row>
@@ -57640,11 +57625,11 @@
         <v>0</v>
       </c>
       <c r="H146" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="I146" s="26" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="I146" t="str">
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
     </row>
@@ -57660,11 +57645,11 @@
         <v>0</v>
       </c>
       <c r="H147" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="I147" s="26" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="I147" t="str">
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
     </row>
@@ -57680,11 +57665,11 @@
         <v>0</v>
       </c>
       <c r="H148" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="I148" s="26" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="I148" t="str">
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
     </row>
@@ -57700,11 +57685,11 @@
         <v>0</v>
       </c>
       <c r="H149" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="I149" s="26" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="I149" t="str">
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
     </row>
@@ -57720,11 +57705,11 @@
         <v>0</v>
       </c>
       <c r="H150" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="I150" s="26" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="I150" t="str">
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
     </row>
@@ -57740,11 +57725,11 @@
         <v>0</v>
       </c>
       <c r="H151" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="I151" s="26" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="I151" t="str">
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
     </row>
@@ -57760,11 +57745,11 @@
         <v>0</v>
       </c>
       <c r="H152" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="I152" s="26" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="I152" t="str">
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
     </row>
@@ -57780,11 +57765,11 @@
         <v>0</v>
       </c>
       <c r="H153" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="I153" s="26" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="I153" t="str">
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
     </row>
@@ -57800,11 +57785,11 @@
         <v>0</v>
       </c>
       <c r="H154" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="I154" s="26" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="I154" t="str">
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
     </row>
@@ -57820,11 +57805,11 @@
         <v>0</v>
       </c>
       <c r="H155" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="I155" s="26" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="I155" t="str">
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
     </row>
@@ -57840,11 +57825,11 @@
         <v>0</v>
       </c>
       <c r="H156" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="I156" s="26" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="I156" t="str">
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
     </row>
@@ -57860,11 +57845,11 @@
         <v>0</v>
       </c>
       <c r="H157" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="I157" s="26" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="I157" t="str">
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
     </row>
@@ -57880,11 +57865,11 @@
         <v>0</v>
       </c>
       <c r="H158" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="I158" s="26" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="I158" t="str">
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
     </row>
@@ -57900,11 +57885,11 @@
         <v>0</v>
       </c>
       <c r="H159" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="I159" s="26" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="I159" t="str">
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
     </row>
@@ -57920,11 +57905,11 @@
         <v>0</v>
       </c>
       <c r="H160" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="I160" s="26" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="I160" t="str">
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
     </row>
@@ -57940,11 +57925,11 @@
         <v>0</v>
       </c>
       <c r="H161" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="I161" s="26" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="I161" t="str">
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
     </row>
@@ -57960,11 +57945,11 @@
         <v>0</v>
       </c>
       <c r="H162" t="str">
-        <f t="shared" ref="H162:H182" si="8">LEFT(B162,8)</f>
-        <v/>
-      </c>
-      <c r="I162" s="26" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ref="H162:H182" si="10">LEFT(B162,8)</f>
+        <v/>
+      </c>
+      <c r="I162" t="str">
+        <f t="shared" ref="I162:I183" ca="1" si="11">IF(F162&lt;&gt; "",IF(DATEDIF(F162,TODAY(),"D")&gt;60,"Vencido",IF(DATEDIF(F162,TODAY(),"D")&gt;30,"Aviso")),"")</f>
         <v/>
       </c>
     </row>
@@ -57980,11 +57965,11 @@
         <v>0</v>
       </c>
       <c r="H163" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="I163" s="26" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="I163" t="str">
+        <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
     </row>
@@ -58000,11 +57985,11 @@
         <v>0</v>
       </c>
       <c r="H164" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="I164" s="26" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="I164" t="str">
+        <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
     </row>
@@ -58020,11 +58005,11 @@
         <v>0</v>
       </c>
       <c r="H165" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="I165" s="26" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="I165" t="str">
+        <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
     </row>
@@ -58040,11 +58025,11 @@
         <v>0</v>
       </c>
       <c r="H166" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="I166" s="26" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="I166" t="str">
+        <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
     </row>
@@ -58060,11 +58045,11 @@
         <v>0</v>
       </c>
       <c r="H167" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="I167" s="26" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="I167" t="str">
+        <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
     </row>
@@ -58080,11 +58065,11 @@
         <v>0</v>
       </c>
       <c r="H168" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="I168" s="26" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="I168" t="str">
+        <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
     </row>
@@ -58100,11 +58085,11 @@
         <v>0</v>
       </c>
       <c r="H169" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="I169" s="26" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="I169" t="str">
+        <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
     </row>
@@ -58120,11 +58105,11 @@
         <v>0</v>
       </c>
       <c r="H170" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="I170" s="26" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="I170" t="str">
+        <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
     </row>
@@ -58140,11 +58125,11 @@
         <v>0</v>
       </c>
       <c r="H171" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="I171" s="26" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="I171" t="str">
+        <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
     </row>
@@ -58160,11 +58145,11 @@
         <v>0</v>
       </c>
       <c r="H172" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="I172" s="26" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="I172" t="str">
+        <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
     </row>
@@ -58180,11 +58165,11 @@
         <v>0</v>
       </c>
       <c r="H173" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="I173" s="26" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="I173" t="str">
+        <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
     </row>
@@ -58200,11 +58185,11 @@
         <v>0</v>
       </c>
       <c r="H174" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="I174" s="26" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="I174" t="str">
+        <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
     </row>
@@ -58220,11 +58205,11 @@
         <v>0</v>
       </c>
       <c r="H175" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="I175" s="26" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="I175" t="str">
+        <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
     </row>
@@ -58240,11 +58225,11 @@
         <v>0</v>
       </c>
       <c r="H176" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="I176" s="26" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="I176" t="str">
+        <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
     </row>
@@ -58260,11 +58245,11 @@
         <v>0</v>
       </c>
       <c r="H177" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="I177" s="26" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="I177" t="str">
+        <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
     </row>
@@ -58280,11 +58265,11 @@
         <v>0</v>
       </c>
       <c r="H178" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="I178" s="26" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="I178" t="str">
+        <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
     </row>
@@ -58300,11 +58285,11 @@
         <v>0</v>
       </c>
       <c r="H179" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="I179" s="26" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="I179" t="str">
+        <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
     </row>
@@ -58320,11 +58305,11 @@
         <v>0</v>
       </c>
       <c r="H180" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="I180" s="26" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="I180" t="str">
+        <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
     </row>
@@ -58340,11 +58325,11 @@
         <v>0</v>
       </c>
       <c r="H181" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="I181" s="26" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="I181" t="str">
+        <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
     </row>
@@ -58360,44 +58345,44 @@
         <v>0</v>
       </c>
       <c r="H182" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="I182" s="26" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="I182" t="str">
+        <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
     </row>
     <row r="183" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="I183" s="26" t="str">
-        <f t="shared" ca="1" si="7"/>
+      <c r="I183" t="str">
+        <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:H182"/>
   <conditionalFormatting sqref="F2:F182">
-    <cfRule type="expression" dxfId="2" priority="3">
+    <cfRule type="expression" dxfId="1" priority="3">
       <formula>$I2="Vencido"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="1">
+    <cfRule type="expression" dxfId="0" priority="1">
       <formula>$I2="Aviso"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <pageSetup paperSize="9" scale="18" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="18" orientation="landscape"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
+  <sheetPr codeName="Plan6">
     <tabColor theme="4" tint="0.39997558519241921"/>
   </sheetPr>
   <dimension ref="B1:L110"/>
   <sheetViews>
-    <sheetView topLeftCell="A94" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -58408,8 +58393,8 @@
     <col min="4" max="4" width="9.109375" style="26" customWidth="1"/>
     <col min="5" max="5" width="31.33203125" style="26" customWidth="1"/>
     <col min="6" max="6" width="14" style="26" customWidth="1"/>
-    <col min="7" max="89" width="9.109375" style="26" customWidth="1"/>
-    <col min="90" max="16384" width="9.109375" style="26"/>
+    <col min="7" max="94" width="9.109375" style="26" customWidth="1"/>
+    <col min="95" max="16384" width="9.109375" style="26"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -58432,7 +58417,7 @@
       </c>
       <c r="C2" s="5">
         <f>C9-C3-C4-C5</f>
-        <v>193</v>
+        <v>200</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>1375</v>
@@ -58446,7 +58431,7 @@
         <v>1376</v>
       </c>
       <c r="C3" s="5">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E3" s="4" t="s">
         <v>1376</v>
@@ -58488,13 +58473,13 @@
         <v>1898</v>
       </c>
       <c r="C6" s="5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E6" s="4" t="s">
         <v>1898</v>
       </c>
       <c r="F6" s="5">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="2:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -58503,7 +58488,7 @@
       </c>
       <c r="C7" s="5">
         <f>C9-C8</f>
-        <v>255</v>
+        <v>263</v>
       </c>
       <c r="E7" s="4" t="s">
         <v>1379</v>
@@ -58531,7 +58516,7 @@
         <v>1381</v>
       </c>
       <c r="C9" s="5">
-        <v>261</v>
+        <v>269</v>
       </c>
       <c r="E9" s="4" t="s">
         <v>1381</v>

--- a/regs.xlsx
+++ b/regs.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="EstaPasta_de_trabalho"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="7476" windowHeight="4116" tabRatio="600" firstSheet="0" activeTab="5" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="7476" windowHeight="4116" tabRatio="600" firstSheet="0" activeTab="3" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Acts 2021" sheetId="1" state="visible" r:id="rId1"/>
@@ -17,7 +17,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Acts 2021'!$A$1:$E$666</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Acts 2022'!$A$1:$F$505</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'regs'!$A$1:$G$799</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'Em aberto'!$A$1:$H$182</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'Em aberto'!$A$1:$I$182</definedName>
   </definedNames>
   <calcPr calcId="152511" fullCalcOnLoad="1"/>
 </workbook>
@@ -611,7 +611,6 @@
           </a:p>
         </rich>
       </tx>
-      <layout/>
       <overlay val="0"/>
       <spPr>
         <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
@@ -735,7 +734,7 @@
                   <v>203</v>
                 </pt>
                 <pt idx="1">
-                  <v>69</v>
+                  <v>71</v>
                 </pt>
               </numCache>
             </numRef>
@@ -845,7 +844,6 @@
           </a:p>
         </rich>
       </tx>
-      <layout/>
       <overlay val="0"/>
       <spPr>
         <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
@@ -966,7 +964,7 @@
                 <formatCode>General</formatCode>
                 <ptCount val="2"/>
                 <pt idx="0">
-                  <v>272</v>
+                  <v>274</v>
                 </pt>
                 <pt idx="1">
                   <v>6</v>
@@ -1156,7 +1154,7 @@
                   <v>203</v>
                 </pt>
                 <pt idx="1">
-                  <v>69</v>
+                  <v>71</v>
                 </pt>
                 <pt idx="2">
                   <v>3</v>
@@ -1168,13 +1166,13 @@
                   <v>4</v>
                 </pt>
                 <pt idx="5">
-                  <v>272</v>
+                  <v>274</v>
                 </pt>
                 <pt idx="6">
                   <v>6</v>
                 </pt>
                 <pt idx="7">
-                  <v>278</v>
+                  <v>280</v>
                 </pt>
               </numCache>
             </numRef>
@@ -1280,11 +1278,11 @@
         </dLbls>
         <gapWidth val="219"/>
         <overlap val="-27"/>
-        <axId val="253213472"/>
-        <axId val="253217784"/>
+        <axId val="253254168"/>
+        <axId val="253254560"/>
       </barChart>
       <catAx>
-        <axId val="253213472"/>
+        <axId val="253254168"/>
         <scaling>
           <orientation val="minMax"/>
         </scaling>
@@ -1330,7 +1328,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </txPr>
-        <crossAx val="253217784"/>
+        <crossAx val="253254560"/>
         <crosses val="autoZero"/>
         <auto val="1"/>
         <lblAlgn val="ctr"/>
@@ -1338,7 +1336,7 @@
         <noMultiLvlLbl val="0"/>
       </catAx>
       <valAx>
-        <axId val="253217784"/>
+        <axId val="253254560"/>
         <scaling>
           <orientation val="minMax"/>
         </scaling>
@@ -1392,7 +1390,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </txPr>
-        <crossAx val="253213472"/>
+        <crossAx val="253254168"/>
         <crosses val="autoZero"/>
         <crossBetween val="between"/>
       </valAx>
@@ -1467,7 +1465,6 @@
           </a:p>
         </rich>
       </tx>
-      <layout/>
       <overlay val="0"/>
       <spPr>
         <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
@@ -1701,7 +1698,6 @@
           </a:p>
         </rich>
       </tx>
-      <layout/>
       <overlay val="0"/>
       <spPr>
         <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
@@ -1930,7 +1926,6 @@
           </a:p>
         </rich>
       </tx>
-      <layout/>
       <overlay val="0"/>
       <spPr>
         <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
@@ -2103,7 +2098,7 @@
                 <formatCode>General</formatCode>
                 <ptCount val="1"/>
                 <pt idx="0">
-                  <v>278</v>
+                  <v>280</v>
                 </pt>
               </numCache>
             </numRef>
@@ -2120,11 +2115,11 @@
         </dLbls>
         <gapWidth val="219"/>
         <overlap val="-27"/>
-        <axId val="356120416"/>
-        <axId val="356115712"/>
+        <axId val="253251816"/>
+        <axId val="253256128"/>
       </barChart>
       <catAx>
-        <axId val="356120416"/>
+        <axId val="253251816"/>
         <scaling>
           <orientation val="minMax"/>
         </scaling>
@@ -2134,7 +2129,7 @@
         <majorTickMark val="none"/>
         <minorTickMark val="none"/>
         <tickLblPos val="nextTo"/>
-        <crossAx val="356115712"/>
+        <crossAx val="253256128"/>
         <crosses val="autoZero"/>
         <auto val="1"/>
         <lblAlgn val="ctr"/>
@@ -2142,7 +2137,7 @@
         <noMultiLvlLbl val="0"/>
       </catAx>
       <valAx>
-        <axId val="356115712"/>
+        <axId val="253256128"/>
         <scaling>
           <orientation val="minMax"/>
         </scaling>
@@ -2196,7 +2191,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </txPr>
-        <crossAx val="356120416"/>
+        <crossAx val="253251816"/>
         <crosses val="autoZero"/>
         <crossBetween val="between"/>
       </valAx>
@@ -2282,7 +2277,6 @@
           </a:p>
         </rich>
       </tx>
-      <layout/>
       <overlay val="0"/>
       <spPr>
         <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
@@ -2455,7 +2449,7 @@
                 <formatCode>General</formatCode>
                 <ptCount val="1"/>
                 <pt idx="0">
-                  <v>69</v>
+                  <v>71</v>
                 </pt>
               </numCache>
             </numRef>
@@ -2472,11 +2466,11 @@
         </dLbls>
         <gapWidth val="219"/>
         <overlap val="-27"/>
-        <axId val="356116104"/>
-        <axId val="356114536"/>
+        <axId val="253252992"/>
+        <axId val="253253384"/>
       </barChart>
       <catAx>
-        <axId val="356116104"/>
+        <axId val="253252992"/>
         <scaling>
           <orientation val="minMax"/>
         </scaling>
@@ -2486,7 +2480,7 @@
         <majorTickMark val="none"/>
         <minorTickMark val="none"/>
         <tickLblPos val="nextTo"/>
-        <crossAx val="356114536"/>
+        <crossAx val="253253384"/>
         <crosses val="autoZero"/>
         <auto val="1"/>
         <lblAlgn val="ctr"/>
@@ -2494,7 +2488,7 @@
         <noMultiLvlLbl val="0"/>
       </catAx>
       <valAx>
-        <axId val="356114536"/>
+        <axId val="253253384"/>
         <scaling>
           <orientation val="minMax"/>
         </scaling>
@@ -2548,7 +2542,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </txPr>
-        <crossAx val="356116104"/>
+        <crossAx val="253252992"/>
         <crosses val="autoZero"/>
         <crossBetween val="between"/>
       </valAx>
@@ -2634,7 +2628,6 @@
           </a:p>
         </rich>
       </tx>
-      <layout/>
       <overlay val="0"/>
       <spPr>
         <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
@@ -2824,11 +2817,11 @@
         </dLbls>
         <gapWidth val="219"/>
         <overlap val="-27"/>
-        <axId val="356119240"/>
-        <axId val="356114928"/>
+        <axId val="338272240"/>
+        <axId val="338271848"/>
       </barChart>
       <catAx>
-        <axId val="356119240"/>
+        <axId val="338272240"/>
         <scaling>
           <orientation val="minMax"/>
         </scaling>
@@ -2838,7 +2831,7 @@
         <majorTickMark val="none"/>
         <minorTickMark val="none"/>
         <tickLblPos val="nextTo"/>
-        <crossAx val="356114928"/>
+        <crossAx val="338271848"/>
         <crosses val="autoZero"/>
         <auto val="1"/>
         <lblAlgn val="ctr"/>
@@ -2846,7 +2839,7 @@
         <noMultiLvlLbl val="0"/>
       </catAx>
       <valAx>
-        <axId val="356114928"/>
+        <axId val="338271848"/>
         <scaling>
           <orientation val="minMax"/>
         </scaling>
@@ -2900,7 +2893,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </txPr>
-        <crossAx val="356119240"/>
+        <crossAx val="338272240"/>
         <crosses val="autoZero"/>
         <crossBetween val="between"/>
       </valAx>
@@ -2986,7 +2979,6 @@
           </a:p>
         </rich>
       </tx>
-      <layout/>
       <overlay val="0"/>
       <spPr>
         <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
@@ -3176,11 +3168,11 @@
         </dLbls>
         <gapWidth val="219"/>
         <overlap val="-27"/>
-        <axId val="356119632"/>
-        <axId val="356115320"/>
+        <axId val="338269104"/>
+        <axId val="338269496"/>
       </barChart>
       <catAx>
-        <axId val="356119632"/>
+        <axId val="338269104"/>
         <scaling>
           <orientation val="minMax"/>
         </scaling>
@@ -3190,7 +3182,7 @@
         <majorTickMark val="none"/>
         <minorTickMark val="none"/>
         <tickLblPos val="nextTo"/>
-        <crossAx val="356115320"/>
+        <crossAx val="338269496"/>
         <crosses val="autoZero"/>
         <auto val="1"/>
         <lblAlgn val="ctr"/>
@@ -3198,7 +3190,7 @@
         <noMultiLvlLbl val="0"/>
       </catAx>
       <valAx>
-        <axId val="356115320"/>
+        <axId val="338269496"/>
         <scaling>
           <orientation val="minMax"/>
         </scaling>
@@ -3252,14 +3244,13 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </txPr>
-        <crossAx val="356119632"/>
+        <crossAx val="338269104"/>
         <crosses val="autoZero"/>
         <crossBetween val="between"/>
       </valAx>
     </plotArea>
     <legend>
       <legendPos val="b"/>
-      <layout/>
       <overlay val="0"/>
       <spPr>
         <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
@@ -3753,11 +3744,11 @@
         </dLbls>
         <gapWidth val="219"/>
         <overlap val="-27"/>
-        <axId val="254696752"/>
-        <axId val="254798312"/>
+        <axId val="252783800"/>
+        <axId val="253401008"/>
       </barChart>
       <catAx>
-        <axId val="254696752"/>
+        <axId val="252783800"/>
         <scaling>
           <orientation val="minMax"/>
         </scaling>
@@ -3803,7 +3794,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </txPr>
-        <crossAx val="254798312"/>
+        <crossAx val="253401008"/>
         <crosses val="autoZero"/>
         <auto val="1"/>
         <lblAlgn val="ctr"/>
@@ -3811,7 +3802,7 @@
         <noMultiLvlLbl val="0"/>
       </catAx>
       <valAx>
-        <axId val="254798312"/>
+        <axId val="253401008"/>
         <scaling>
           <orientation val="minMax"/>
         </scaling>
@@ -3865,7 +3856,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </txPr>
-        <crossAx val="254696752"/>
+        <crossAx val="252783800"/>
         <crosses val="autoZero"/>
         <crossBetween val="between"/>
       </valAx>
@@ -4589,11 +4580,11 @@
         </dLbls>
         <gapWidth val="219"/>
         <overlap val="-27"/>
-        <axId val="255157544"/>
-        <axId val="255213416"/>
+        <axId val="253265048"/>
+        <axId val="253265432"/>
       </barChart>
       <catAx>
-        <axId val="255157544"/>
+        <axId val="253265048"/>
         <scaling>
           <orientation val="minMax"/>
         </scaling>
@@ -4603,7 +4594,7 @@
         <majorTickMark val="none"/>
         <minorTickMark val="none"/>
         <tickLblPos val="nextTo"/>
-        <crossAx val="255213416"/>
+        <crossAx val="253265432"/>
         <crosses val="autoZero"/>
         <auto val="1"/>
         <lblAlgn val="ctr"/>
@@ -4611,7 +4602,7 @@
         <noMultiLvlLbl val="0"/>
       </catAx>
       <valAx>
-        <axId val="255213416"/>
+        <axId val="253265432"/>
         <scaling>
           <orientation val="minMax"/>
         </scaling>
@@ -4665,7 +4656,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </txPr>
-        <crossAx val="255157544"/>
+        <crossAx val="253265048"/>
         <crosses val="autoZero"/>
         <crossBetween val="between"/>
       </valAx>
@@ -4940,11 +4931,11 @@
         </dLbls>
         <gapWidth val="219"/>
         <overlap val="-27"/>
-        <axId val="255293288"/>
-        <axId val="253214256"/>
+        <axId val="253955144"/>
+        <axId val="253255344"/>
       </barChart>
       <catAx>
-        <axId val="255293288"/>
+        <axId val="253955144"/>
         <scaling>
           <orientation val="minMax"/>
         </scaling>
@@ -4954,7 +4945,7 @@
         <majorTickMark val="none"/>
         <minorTickMark val="none"/>
         <tickLblPos val="nextTo"/>
-        <crossAx val="253214256"/>
+        <crossAx val="253255344"/>
         <crosses val="autoZero"/>
         <auto val="1"/>
         <lblAlgn val="ctr"/>
@@ -4962,7 +4953,7 @@
         <noMultiLvlLbl val="0"/>
       </catAx>
       <valAx>
-        <axId val="253214256"/>
+        <axId val="253255344"/>
         <scaling>
           <orientation val="minMax"/>
         </scaling>
@@ -5016,7 +5007,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </txPr>
-        <crossAx val="255293288"/>
+        <crossAx val="253955144"/>
         <crosses val="autoZero"/>
         <crossBetween val="between"/>
       </valAx>
@@ -5291,11 +5282,11 @@
         </dLbls>
         <gapWidth val="219"/>
         <overlap val="-27"/>
-        <axId val="253220528"/>
-        <axId val="253218960"/>
+        <axId val="253250640"/>
+        <axId val="253257304"/>
       </barChart>
       <catAx>
-        <axId val="253220528"/>
+        <axId val="253250640"/>
         <scaling>
           <orientation val="minMax"/>
         </scaling>
@@ -5305,7 +5296,7 @@
         <majorTickMark val="none"/>
         <minorTickMark val="none"/>
         <tickLblPos val="nextTo"/>
-        <crossAx val="253218960"/>
+        <crossAx val="253257304"/>
         <crosses val="autoZero"/>
         <auto val="1"/>
         <lblAlgn val="ctr"/>
@@ -5313,7 +5304,7 @@
         <noMultiLvlLbl val="0"/>
       </catAx>
       <valAx>
-        <axId val="253218960"/>
+        <axId val="253257304"/>
         <scaling>
           <orientation val="minMax"/>
         </scaling>
@@ -5367,7 +5358,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </txPr>
-        <crossAx val="253220528"/>
+        <crossAx val="253250640"/>
         <crosses val="autoZero"/>
         <crossBetween val="between"/>
       </valAx>
@@ -5642,11 +5633,11 @@
         </dLbls>
         <gapWidth val="219"/>
         <overlap val="-27"/>
-        <axId val="253220136"/>
-        <axId val="253213080"/>
+        <axId val="253256520"/>
+        <axId val="253249856"/>
       </barChart>
       <catAx>
-        <axId val="253220136"/>
+        <axId val="253256520"/>
         <scaling>
           <orientation val="minMax"/>
         </scaling>
@@ -5656,7 +5647,7 @@
         <majorTickMark val="none"/>
         <minorTickMark val="none"/>
         <tickLblPos val="nextTo"/>
-        <crossAx val="253213080"/>
+        <crossAx val="253249856"/>
         <crosses val="autoZero"/>
         <auto val="1"/>
         <lblAlgn val="ctr"/>
@@ -5664,7 +5655,7 @@
         <noMultiLvlLbl val="0"/>
       </catAx>
       <valAx>
-        <axId val="253213080"/>
+        <axId val="253249856"/>
         <scaling>
           <orientation val="minMax"/>
         </scaling>
@@ -5718,7 +5709,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </txPr>
-        <crossAx val="253220136"/>
+        <crossAx val="253256520"/>
         <crosses val="autoZero"/>
         <crossBetween val="between"/>
       </valAx>
@@ -23201,8 +23192,8 @@
     <col width="21.6640625" customWidth="1" style="1" min="4" max="4"/>
     <col width="15.109375" customWidth="1" style="1" min="5" max="5"/>
     <col width="19.6640625" customWidth="1" style="1" min="6" max="6"/>
-    <col width="9.109375" customWidth="1" style="1" min="7" max="132"/>
-    <col width="9.109375" customWidth="1" style="1" min="133" max="16384"/>
+    <col width="9.109375" customWidth="1" style="1" min="7" max="145"/>
+    <col width="9.109375" customWidth="1" style="1" min="146" max="16384"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -37735,9 +37726,9 @@
   </sheetPr>
   <dimension ref="A1:P799"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A389" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C305" sqref="C305"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A380" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C401" sqref="C401"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9.109375" defaultRowHeight="14.4" outlineLevelCol="0"/>
@@ -37745,13 +37736,13 @@
     <col width="47.6640625" customWidth="1" style="1" min="1" max="1"/>
     <col width="19.44140625" customWidth="1" style="1" min="2" max="2"/>
     <col width="17.88671875" customWidth="1" style="1" min="3" max="3"/>
-    <col width="21.6640625" customWidth="1" style="1" min="4" max="4"/>
+    <col width="20" customWidth="1" style="1" min="4" max="4"/>
     <col width="15.109375" customWidth="1" style="1" min="5" max="5"/>
     <col width="23.44140625" customWidth="1" style="1" min="6" max="6"/>
-    <col width="19.6640625" customWidth="1" style="1" min="7" max="7"/>
+    <col width="16.88671875" customWidth="1" style="1" min="7" max="7"/>
     <col hidden="1" width="9.109375" customWidth="1" style="1" min="8" max="9"/>
-    <col width="9.109375" customWidth="1" style="1" min="10" max="145"/>
-    <col width="9.109375" customWidth="1" style="1" min="146" max="16384"/>
+    <col width="9.109375" customWidth="1" style="1" min="10" max="158"/>
+    <col width="9.109375" customWidth="1" style="1" min="159" max="16384"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -37791,7 +37782,7 @@
         </is>
       </c>
       <c r="P1" s="1" t="n">
-        <v>401</v>
+        <v>403</v>
       </c>
     </row>
     <row r="2">
@@ -54154,13 +54145,37 @@
       </c>
     </row>
     <row r="401">
-      <c r="A401" s="16" t="n"/>
-      <c r="B401" s="2" t="n"/>
-      <c r="C401" s="16" t="n"/>
-      <c r="D401" s="16" t="n"/>
-      <c r="E401" s="16" t="n"/>
-      <c r="F401" s="21" t="n"/>
-      <c r="G401" s="14" t="n"/>
+      <c r="A401" s="16" t="inlineStr">
+        <is>
+          <t>DISUL SUPERMERCADO LTDA</t>
+        </is>
+      </c>
+      <c r="B401" s="2" t="n">
+        <v>19435152000145</v>
+      </c>
+      <c r="C401" s="16" t="inlineStr">
+        <is>
+          <t>MR004507/2023</t>
+        </is>
+      </c>
+      <c r="D401" s="16" t="inlineStr">
+        <is>
+          <t>Domingos e feriados</t>
+        </is>
+      </c>
+      <c r="E401" s="16" t="inlineStr">
+        <is>
+          <t>Mercado</t>
+        </is>
+      </c>
+      <c r="F401" s="21" t="inlineStr">
+        <is>
+          <t>01/11/2022 - 31/12/2023</t>
+        </is>
+      </c>
+      <c r="G401" s="22" t="n">
+        <v>45072</v>
+      </c>
       <c r="H401" s="1">
         <f>LEFT(B401,8)</f>
         <v/>
@@ -54171,13 +54186,37 @@
       </c>
     </row>
     <row r="402">
-      <c r="A402" s="16" t="n"/>
-      <c r="B402" s="2" t="n"/>
-      <c r="C402" s="16" t="n"/>
-      <c r="D402" s="16" t="n"/>
-      <c r="E402" s="16" t="n"/>
-      <c r="F402" s="21" t="n"/>
-      <c r="G402" s="14" t="n"/>
+      <c r="A402" s="16" t="inlineStr">
+        <is>
+          <t>SLL SERVICOS DE INTERMEDIACAO E NEGOCIOS LTDA</t>
+        </is>
+      </c>
+      <c r="B402" s="2" t="n">
+        <v>6121357000104</v>
+      </c>
+      <c r="C402" s="16" t="inlineStr">
+        <is>
+          <t>MR022194/2023</t>
+        </is>
+      </c>
+      <c r="D402" s="16" t="inlineStr">
+        <is>
+          <t>Domingos e feriados</t>
+        </is>
+      </c>
+      <c r="E402" s="16" t="inlineStr">
+        <is>
+          <t>Mercado</t>
+        </is>
+      </c>
+      <c r="F402" s="21" t="inlineStr">
+        <is>
+          <t>01/11/2022 - 31/12/2023</t>
+        </is>
+      </c>
+      <c r="G402" s="22" t="n">
+        <v>45077</v>
+      </c>
       <c r="H402" s="1">
         <f>LEFT(B402,8)</f>
         <v/>
@@ -61338,6 +61377,8 @@
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C398" r:id="rId397"/>
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C399" r:id="rId398"/>
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C400" r:id="rId399"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C401" r:id="rId400"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C402" r:id="rId401"/>
   </hyperlinks>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" paperSize="9"/>
@@ -61351,10 +61392,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:S183"/>
+  <dimension ref="A1:T183"/>
   <sheetViews>
-    <sheetView topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="M69" sqref="M69"/>
+    <sheetView topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="C89" sqref="C89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4" outlineLevelCol="0"/>
@@ -61364,10 +61405,11 @@
     <col width="17.88671875" customWidth="1" style="32" min="3" max="3"/>
     <col width="13.77734375" customWidth="1" style="32" min="4" max="4"/>
     <col width="20.6640625" customWidth="1" style="32" min="5" max="5"/>
-    <col width="14.109375" customWidth="1" style="32" min="6" max="6"/>
-    <col width="16.6640625" customWidth="1" style="32" min="7" max="7"/>
-    <col hidden="1" width="15" customWidth="1" style="32" min="8" max="8"/>
-    <col hidden="1" width="12" customWidth="1" style="32" min="9" max="9"/>
+    <col width="14.77734375" customWidth="1" style="32" min="6" max="6"/>
+    <col width="14.109375" customWidth="1" style="32" min="7" max="7"/>
+    <col width="16.6640625" customWidth="1" style="32" min="8" max="8"/>
+    <col hidden="1" width="15" customWidth="1" style="32" min="9" max="9"/>
+    <col hidden="1" width="12" customWidth="1" style="32" min="10" max="10"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -61396,21 +61438,26 @@
           <t>Acordo tipo</t>
         </is>
       </c>
-      <c r="F1" s="16" t="inlineStr">
+      <c r="F1" s="5" t="inlineStr">
+        <is>
+          <t>Categoria</t>
+        </is>
+      </c>
+      <c r="G1" s="16" t="inlineStr">
         <is>
           <t>Data Req</t>
         </is>
       </c>
-      <c r="G1" s="16" t="inlineStr">
+      <c r="H1" s="16" t="inlineStr">
         <is>
           <t>Em duplicidade</t>
         </is>
       </c>
-      <c r="R1" t="n">
-        <v>26274</v>
-      </c>
       <c r="S1" t="n">
-        <v>87</v>
+        <v>27914</v>
+      </c>
+      <c r="T1" t="n">
+        <v>86</v>
       </c>
     </row>
     <row r="2">
@@ -61437,19 +61484,24 @@
           <t>Domingos e feriados</t>
         </is>
       </c>
-      <c r="F2" s="22" t="n">
+      <c r="F2" s="5" t="inlineStr">
+        <is>
+          <t>Mercado</t>
+        </is>
+      </c>
+      <c r="G2" s="22" t="n">
         <v>44915</v>
       </c>
-      <c r="G2" s="5">
-        <f>IFERROR(VLOOKUP(H2,regs!H:I,2,0),"")</f>
-        <v/>
-      </c>
-      <c r="H2">
+      <c r="H2" s="5">
+        <f>IFERROR(VLOOKUP(I2,regs!H:I,2,0),"")</f>
+        <v/>
+      </c>
+      <c r="I2">
         <f>LEFT(B2,8)</f>
         <v/>
       </c>
-      <c r="I2">
-        <f>IF(F2&lt;&gt; "",IF(DATEDIF(F2,TODAY(),"D")&gt;60,"Vencido",IF(DATEDIF(F2,TODAY(),"D")&gt;30,"Aviso")),"")</f>
+      <c r="J2">
+        <f>IF(G2&lt;&gt; "",IF(DATEDIF(G2,TODAY(),"D")&gt;60,"Vencido",IF(DATEDIF(G2,TODAY(),"D")&gt;30,"Aviso")),"")</f>
         <v/>
       </c>
     </row>
@@ -61477,19 +61529,24 @@
           <t>Outros</t>
         </is>
       </c>
-      <c r="F3" s="22" t="n">
+      <c r="F3" s="5" t="inlineStr">
+        <is>
+          <t>Lojista</t>
+        </is>
+      </c>
+      <c r="G3" s="22" t="n">
         <v>44929</v>
       </c>
-      <c r="G3" s="5">
-        <f>IFERROR(VLOOKUP(H3,regs!H:I,2,0),"")</f>
-        <v/>
-      </c>
-      <c r="H3">
+      <c r="H3" s="5">
+        <f>IFERROR(VLOOKUP(I3,regs!H:I,2,0),"")</f>
+        <v/>
+      </c>
+      <c r="I3">
         <f>LEFT(B3,8)</f>
         <v/>
       </c>
-      <c r="I3">
-        <f>IF(F3&lt;&gt; "",IF(DATEDIF(F3,TODAY(),"D")&gt;60,"Vencido",IF(DATEDIF(F3,TODAY(),"D")&gt;30,"Aviso")),"")</f>
+      <c r="J3">
+        <f>IF(G3&lt;&gt; "",IF(DATEDIF(G3,TODAY(),"D")&gt;60,"Vencido",IF(DATEDIF(G3,TODAY(),"D")&gt;30,"Aviso")),"")</f>
         <v/>
       </c>
     </row>
@@ -61517,17 +61574,22 @@
           <t>Domingos e feriados</t>
         </is>
       </c>
-      <c r="F4" s="22" t="n"/>
-      <c r="G4" s="5">
-        <f>IFERROR(VLOOKUP(H4,regs!H:I,2,0),"")</f>
-        <v/>
-      </c>
-      <c r="H4">
+      <c r="F4" s="5" t="inlineStr">
+        <is>
+          <t>Lojista</t>
+        </is>
+      </c>
+      <c r="G4" s="22" t="n"/>
+      <c r="H4" s="5">
+        <f>IFERROR(VLOOKUP(I4,regs!H:I,2,0),"")</f>
+        <v/>
+      </c>
+      <c r="I4">
         <f>LEFT(B4,8)</f>
         <v/>
       </c>
-      <c r="I4">
-        <f>IF(F4&lt;&gt; "",IF(DATEDIF(F4,TODAY(),"D")&gt;60,"Vencido",IF(DATEDIF(F4,TODAY(),"D")&gt;30,"Aviso")),"")</f>
+      <c r="J4">
+        <f>IF(G4&lt;&gt; "",IF(DATEDIF(G4,TODAY(),"D")&gt;60,"Vencido",IF(DATEDIF(G4,TODAY(),"D")&gt;30,"Aviso")),"")</f>
         <v/>
       </c>
     </row>
@@ -61555,17 +61617,22 @@
           <t>Domingos e feriados</t>
         </is>
       </c>
-      <c r="F5" s="22" t="n"/>
-      <c r="G5" s="5">
-        <f>IFERROR(VLOOKUP(H5,regs!H:I,2,0),"")</f>
-        <v/>
-      </c>
-      <c r="H5">
+      <c r="F5" s="5" t="inlineStr">
+        <is>
+          <t>Atacadista</t>
+        </is>
+      </c>
+      <c r="G5" s="22" t="n"/>
+      <c r="H5" s="5">
+        <f>IFERROR(VLOOKUP(I5,regs!H:I,2,0),"")</f>
+        <v/>
+      </c>
+      <c r="I5">
         <f>LEFT(B5,8)</f>
         <v/>
       </c>
-      <c r="I5">
-        <f>IF(F5&lt;&gt; "",IF(DATEDIF(F5,TODAY(),"D")&gt;60,"Vencido",IF(DATEDIF(F5,TODAY(),"D")&gt;30,"Aviso")),"")</f>
+      <c r="J5">
+        <f>IF(G5&lt;&gt; "",IF(DATEDIF(G5,TODAY(),"D")&gt;60,"Vencido",IF(DATEDIF(G5,TODAY(),"D")&gt;30,"Aviso")),"")</f>
         <v/>
       </c>
     </row>
@@ -61593,19 +61660,24 @@
           <t>Domingos e feriados</t>
         </is>
       </c>
-      <c r="F6" s="22" t="n">
+      <c r="F6" s="5" t="inlineStr">
+        <is>
+          <t>Lojista</t>
+        </is>
+      </c>
+      <c r="G6" s="22" t="n">
         <v>44930</v>
       </c>
-      <c r="G6" s="5">
-        <f>IFERROR(VLOOKUP(H6,regs!H:I,2,0),"")</f>
-        <v/>
-      </c>
-      <c r="H6">
+      <c r="H6" s="5">
+        <f>IFERROR(VLOOKUP(I6,regs!H:I,2,0),"")</f>
+        <v/>
+      </c>
+      <c r="I6">
         <f>LEFT(B6,8)</f>
         <v/>
       </c>
-      <c r="I6">
-        <f>IF(F6&lt;&gt; "",IF(DATEDIF(F6,TODAY(),"D")&gt;60,"Vencido",IF(DATEDIF(F6,TODAY(),"D")&gt;30,"Aviso")),"")</f>
+      <c r="J6">
+        <f>IF(G6&lt;&gt; "",IF(DATEDIF(G6,TODAY(),"D")&gt;60,"Vencido",IF(DATEDIF(G6,TODAY(),"D")&gt;30,"Aviso")),"")</f>
         <v/>
       </c>
     </row>
@@ -61633,19 +61705,24 @@
           <t>Domingos e feriados</t>
         </is>
       </c>
-      <c r="F7" s="22" t="n">
+      <c r="F7" s="5" t="inlineStr">
+        <is>
+          <t>Lojista</t>
+        </is>
+      </c>
+      <c r="G7" s="22" t="n">
         <v>44931</v>
       </c>
-      <c r="G7" s="5">
-        <f>IFERROR(VLOOKUP(H7,regs!H:I,2,0),"")</f>
-        <v/>
-      </c>
-      <c r="H7">
+      <c r="H7" s="5">
+        <f>IFERROR(VLOOKUP(I7,regs!H:I,2,0),"")</f>
+        <v/>
+      </c>
+      <c r="I7">
         <f>LEFT(B7,8)</f>
         <v/>
       </c>
-      <c r="I7">
-        <f>IF(F7&lt;&gt; "",IF(DATEDIF(F7,TODAY(),"D")&gt;60,"Vencido",IF(DATEDIF(F7,TODAY(),"D")&gt;30,"Aviso")),"")</f>
+      <c r="J7">
+        <f>IF(G7&lt;&gt; "",IF(DATEDIF(G7,TODAY(),"D")&gt;60,"Vencido",IF(DATEDIF(G7,TODAY(),"D")&gt;30,"Aviso")),"")</f>
         <v/>
       </c>
     </row>
@@ -61673,19 +61750,24 @@
           <t>Domingos e feriados</t>
         </is>
       </c>
-      <c r="F8" s="22" t="n">
+      <c r="F8" s="5" t="inlineStr">
+        <is>
+          <t>Lojista</t>
+        </is>
+      </c>
+      <c r="G8" s="22" t="n">
         <v>44932</v>
       </c>
-      <c r="G8" s="5">
-        <f>IFERROR(VLOOKUP(H8,regs!H:I,2,0),"")</f>
-        <v/>
-      </c>
-      <c r="H8">
+      <c r="H8" s="5">
+        <f>IFERROR(VLOOKUP(I8,regs!H:I,2,0),"")</f>
+        <v/>
+      </c>
+      <c r="I8">
         <f>LEFT(B8,8)</f>
         <v/>
       </c>
-      <c r="I8">
-        <f>IF(F8&lt;&gt; "",IF(DATEDIF(F8,TODAY(),"D")&gt;60,"Vencido",IF(DATEDIF(F8,TODAY(),"D")&gt;30,"Aviso")),"")</f>
+      <c r="J8">
+        <f>IF(G8&lt;&gt; "",IF(DATEDIF(G8,TODAY(),"D")&gt;60,"Vencido",IF(DATEDIF(G8,TODAY(),"D")&gt;30,"Aviso")),"")</f>
         <v/>
       </c>
     </row>
@@ -61713,19 +61795,24 @@
           <t>Domingos e feriados</t>
         </is>
       </c>
-      <c r="F9" s="22" t="n">
+      <c r="F9" s="5" t="inlineStr">
+        <is>
+          <t>Lojista</t>
+        </is>
+      </c>
+      <c r="G9" s="22" t="n">
         <v>44932</v>
       </c>
-      <c r="G9" s="5">
-        <f>IFERROR(VLOOKUP(H9,regs!H:I,2,0),"")</f>
-        <v/>
-      </c>
-      <c r="H9">
+      <c r="H9" s="5">
+        <f>IFERROR(VLOOKUP(I9,regs!H:I,2,0),"")</f>
+        <v/>
+      </c>
+      <c r="I9">
         <f>LEFT(B9,8)</f>
         <v/>
       </c>
-      <c r="I9">
-        <f>IF(F9&lt;&gt; "",IF(DATEDIF(F9,TODAY(),"D")&gt;60,"Vencido",IF(DATEDIF(F9,TODAY(),"D")&gt;30,"Aviso")),"")</f>
+      <c r="J9">
+        <f>IF(G9&lt;&gt; "",IF(DATEDIF(G9,TODAY(),"D")&gt;60,"Vencido",IF(DATEDIF(G9,TODAY(),"D")&gt;30,"Aviso")),"")</f>
         <v/>
       </c>
     </row>
@@ -61753,19 +61840,24 @@
           <t>Domingos e feriados</t>
         </is>
       </c>
-      <c r="F10" s="22" t="n">
+      <c r="F10" s="5" t="inlineStr">
+        <is>
+          <t>Lojista</t>
+        </is>
+      </c>
+      <c r="G10" s="22" t="n">
         <v>44932</v>
       </c>
-      <c r="G10" s="5">
-        <f>IFERROR(VLOOKUP(H10,regs!H:I,2,0),"")</f>
-        <v/>
-      </c>
-      <c r="H10">
+      <c r="H10" s="5">
+        <f>IFERROR(VLOOKUP(I10,regs!H:I,2,0),"")</f>
+        <v/>
+      </c>
+      <c r="I10">
         <f>LEFT(B10,8)</f>
         <v/>
       </c>
-      <c r="I10">
-        <f>IF(F10&lt;&gt; "",IF(DATEDIF(F10,TODAY(),"D")&gt;60,"Vencido",IF(DATEDIF(F10,TODAY(),"D")&gt;30,"Aviso")),"")</f>
+      <c r="J10">
+        <f>IF(G10&lt;&gt; "",IF(DATEDIF(G10,TODAY(),"D")&gt;60,"Vencido",IF(DATEDIF(G10,TODAY(),"D")&gt;30,"Aviso")),"")</f>
         <v/>
       </c>
     </row>
@@ -61793,17 +61885,22 @@
           <t>Domingos e feriados</t>
         </is>
       </c>
-      <c r="F11" s="22" t="n"/>
-      <c r="G11" s="5">
-        <f>IFERROR(VLOOKUP(H11,regs!H:I,2,0),"")</f>
-        <v/>
-      </c>
-      <c r="H11">
+      <c r="F11" s="5" t="inlineStr">
+        <is>
+          <t>Atacadista</t>
+        </is>
+      </c>
+      <c r="G11" s="22" t="n"/>
+      <c r="H11" s="5">
+        <f>IFERROR(VLOOKUP(I11,regs!H:I,2,0),"")</f>
+        <v/>
+      </c>
+      <c r="I11">
         <f>LEFT(B11,8)</f>
         <v/>
       </c>
-      <c r="I11">
-        <f>IF(F11&lt;&gt; "",IF(DATEDIF(F11,TODAY(),"D")&gt;60,"Vencido",IF(DATEDIF(F11,TODAY(),"D")&gt;30,"Aviso")),"")</f>
+      <c r="J11">
+        <f>IF(G11&lt;&gt; "",IF(DATEDIF(G11,TODAY(),"D")&gt;60,"Vencido",IF(DATEDIF(G11,TODAY(),"D")&gt;30,"Aviso")),"")</f>
         <v/>
       </c>
     </row>
@@ -61831,19 +61928,24 @@
           <t>Domingos e feriados</t>
         </is>
       </c>
-      <c r="F12" s="22" t="n">
+      <c r="F12" s="5" t="inlineStr">
+        <is>
+          <t>Lojista</t>
+        </is>
+      </c>
+      <c r="G12" s="22" t="n">
         <v>44931</v>
       </c>
-      <c r="G12" s="5">
-        <f>IFERROR(VLOOKUP(H12,regs!H:I,2,0),"")</f>
-        <v/>
-      </c>
-      <c r="H12">
+      <c r="H12" s="5">
+        <f>IFERROR(VLOOKUP(I12,regs!H:I,2,0),"")</f>
+        <v/>
+      </c>
+      <c r="I12">
         <f>LEFT(B12,8)</f>
         <v/>
       </c>
-      <c r="I12">
-        <f>IF(F12&lt;&gt; "",IF(DATEDIF(F12,TODAY(),"D")&gt;60,"Vencido",IF(DATEDIF(F12,TODAY(),"D")&gt;30,"Aviso")),"")</f>
+      <c r="J12">
+        <f>IF(G12&lt;&gt; "",IF(DATEDIF(G12,TODAY(),"D")&gt;60,"Vencido",IF(DATEDIF(G12,TODAY(),"D")&gt;30,"Aviso")),"")</f>
         <v/>
       </c>
     </row>
@@ -61871,17 +61973,22 @@
           <t>Domingos e feriados</t>
         </is>
       </c>
-      <c r="F13" s="22" t="n"/>
-      <c r="G13" s="5">
-        <f>IFERROR(VLOOKUP(H13,regs!H:I,2,0),"")</f>
-        <v/>
-      </c>
-      <c r="H13">
+      <c r="F13" s="5" t="inlineStr">
+        <is>
+          <t>Lojista</t>
+        </is>
+      </c>
+      <c r="G13" s="22" t="n"/>
+      <c r="H13" s="5">
+        <f>IFERROR(VLOOKUP(I13,regs!H:I,2,0),"")</f>
+        <v/>
+      </c>
+      <c r="I13">
         <f>LEFT(B13,8)</f>
         <v/>
       </c>
-      <c r="I13">
-        <f>IF(F13&lt;&gt; "",IF(DATEDIF(F13,TODAY(),"D")&gt;60,"Vencido",IF(DATEDIF(F13,TODAY(),"D")&gt;30,"Aviso")),"")</f>
+      <c r="J13">
+        <f>IF(G13&lt;&gt; "",IF(DATEDIF(G13,TODAY(),"D")&gt;60,"Vencido",IF(DATEDIF(G13,TODAY(),"D")&gt;30,"Aviso")),"")</f>
         <v/>
       </c>
     </row>
@@ -61909,17 +62016,22 @@
           <t>Domingos e feriados</t>
         </is>
       </c>
-      <c r="F14" s="22" t="n"/>
-      <c r="G14" s="5">
-        <f>IFERROR(VLOOKUP(H14,regs!H:I,2,0),"")</f>
-        <v/>
-      </c>
-      <c r="H14">
+      <c r="F14" s="5" t="inlineStr">
+        <is>
+          <t>Lojista</t>
+        </is>
+      </c>
+      <c r="G14" s="22" t="n"/>
+      <c r="H14" s="5">
+        <f>IFERROR(VLOOKUP(I14,regs!H:I,2,0),"")</f>
+        <v/>
+      </c>
+      <c r="I14">
         <f>LEFT(B14,8)</f>
         <v/>
       </c>
-      <c r="I14">
-        <f>IF(F14&lt;&gt; "",IF(DATEDIF(F14,TODAY(),"D")&gt;60,"Vencido",IF(DATEDIF(F14,TODAY(),"D")&gt;30,"Aviso")),"")</f>
+      <c r="J14">
+        <f>IF(G14&lt;&gt; "",IF(DATEDIF(G14,TODAY(),"D")&gt;60,"Vencido",IF(DATEDIF(G14,TODAY(),"D")&gt;30,"Aviso")),"")</f>
         <v/>
       </c>
     </row>
@@ -61947,17 +62059,22 @@
           <t>Domingos e feriados</t>
         </is>
       </c>
-      <c r="F15" s="22" t="n"/>
-      <c r="G15" s="5">
-        <f>IFERROR(VLOOKUP(H15,regs!H:I,2,0),"")</f>
-        <v/>
-      </c>
-      <c r="H15">
+      <c r="F15" s="5" t="inlineStr">
+        <is>
+          <t>Mercado</t>
+        </is>
+      </c>
+      <c r="G15" s="22" t="n"/>
+      <c r="H15" s="5">
+        <f>IFERROR(VLOOKUP(I15,regs!H:I,2,0),"")</f>
+        <v/>
+      </c>
+      <c r="I15">
         <f>LEFT(B15,8)</f>
         <v/>
       </c>
-      <c r="I15">
-        <f>IF(F15&lt;&gt; "",IF(DATEDIF(F15,TODAY(),"D")&gt;60,"Vencido",IF(DATEDIF(F15,TODAY(),"D")&gt;30,"Aviso")),"")</f>
+      <c r="J15">
+        <f>IF(G15&lt;&gt; "",IF(DATEDIF(G15,TODAY(),"D")&gt;60,"Vencido",IF(DATEDIF(G15,TODAY(),"D")&gt;30,"Aviso")),"")</f>
         <v/>
       </c>
     </row>
@@ -61985,19 +62102,24 @@
           <t>Domingos e feriados</t>
         </is>
       </c>
-      <c r="F16" s="22" t="n">
+      <c r="F16" s="5" t="inlineStr">
+        <is>
+          <t>Lojista</t>
+        </is>
+      </c>
+      <c r="G16" s="22" t="n">
         <v>44963</v>
       </c>
-      <c r="G16" s="5">
-        <f>IFERROR(VLOOKUP(H16,regs!H:I,2,0),"")</f>
-        <v/>
-      </c>
-      <c r="H16">
+      <c r="H16" s="5">
+        <f>IFERROR(VLOOKUP(I16,regs!H:I,2,0),"")</f>
+        <v/>
+      </c>
+      <c r="I16">
         <f>LEFT(B16,8)</f>
         <v/>
       </c>
-      <c r="I16">
-        <f>IF(F16&lt;&gt; "",IF(DATEDIF(F16,TODAY(),"D")&gt;60,"Vencido",IF(DATEDIF(F16,TODAY(),"D")&gt;30,"Aviso")),"")</f>
+      <c r="J16">
+        <f>IF(G16&lt;&gt; "",IF(DATEDIF(G16,TODAY(),"D")&gt;60,"Vencido",IF(DATEDIF(G16,TODAY(),"D")&gt;30,"Aviso")),"")</f>
         <v/>
       </c>
     </row>
@@ -62025,19 +62147,24 @@
           <t>Domingos e feriados</t>
         </is>
       </c>
-      <c r="F17" s="22" t="n">
+      <c r="F17" s="5" t="inlineStr">
+        <is>
+          <t>Lojista</t>
+        </is>
+      </c>
+      <c r="G17" s="22" t="n">
         <v>44935</v>
       </c>
-      <c r="G17" s="5">
-        <f>IFERROR(VLOOKUP(H17,regs!H:I,2,0),"")</f>
-        <v/>
-      </c>
-      <c r="H17">
+      <c r="H17" s="5">
+        <f>IFERROR(VLOOKUP(I17,regs!H:I,2,0),"")</f>
+        <v/>
+      </c>
+      <c r="I17">
         <f>LEFT(B17,8)</f>
         <v/>
       </c>
-      <c r="I17">
-        <f>IF(F17&lt;&gt; "",IF(DATEDIF(F17,TODAY(),"D")&gt;60,"Vencido",IF(DATEDIF(F17,TODAY(),"D")&gt;30,"Aviso")),"")</f>
+      <c r="J17">
+        <f>IF(G17&lt;&gt; "",IF(DATEDIF(G17,TODAY(),"D")&gt;60,"Vencido",IF(DATEDIF(G17,TODAY(),"D")&gt;30,"Aviso")),"")</f>
         <v/>
       </c>
     </row>
@@ -62065,19 +62192,24 @@
           <t>Domingos e feriados</t>
         </is>
       </c>
-      <c r="F18" s="22" t="n">
+      <c r="F18" s="5" t="inlineStr">
+        <is>
+          <t>Lojista</t>
+        </is>
+      </c>
+      <c r="G18" s="22" t="n">
         <v>44964</v>
       </c>
-      <c r="G18" s="5">
-        <f>IFERROR(VLOOKUP(H18,regs!H:I,2,0),"")</f>
-        <v/>
-      </c>
-      <c r="H18">
+      <c r="H18" s="5">
+        <f>IFERROR(VLOOKUP(I18,regs!H:I,2,0),"")</f>
+        <v/>
+      </c>
+      <c r="I18">
         <f>LEFT(B18,8)</f>
         <v/>
       </c>
-      <c r="I18">
-        <f>IF(F18&lt;&gt; "",IF(DATEDIF(F18,TODAY(),"D")&gt;60,"Vencido",IF(DATEDIF(F18,TODAY(),"D")&gt;30,"Aviso")),"")</f>
+      <c r="J18">
+        <f>IF(G18&lt;&gt; "",IF(DATEDIF(G18,TODAY(),"D")&gt;60,"Vencido",IF(DATEDIF(G18,TODAY(),"D")&gt;30,"Aviso")),"")</f>
         <v/>
       </c>
     </row>
@@ -62105,19 +62237,24 @@
           <t>Outros</t>
         </is>
       </c>
-      <c r="F19" s="22" t="n">
+      <c r="F19" s="5" t="inlineStr">
+        <is>
+          <t>Lojista</t>
+        </is>
+      </c>
+      <c r="G19" s="22" t="n">
         <v>44944</v>
       </c>
-      <c r="G19" s="5">
-        <f>IFERROR(VLOOKUP(H19,regs!H:I,2,0),"")</f>
-        <v/>
-      </c>
-      <c r="H19">
+      <c r="H19" s="5">
+        <f>IFERROR(VLOOKUP(I19,regs!H:I,2,0),"")</f>
+        <v/>
+      </c>
+      <c r="I19">
         <f>LEFT(B19,8)</f>
         <v/>
       </c>
-      <c r="I19">
-        <f>IF(F19&lt;&gt; "",IF(DATEDIF(F19,TODAY(),"D")&gt;60,"Vencido",IF(DATEDIF(F19,TODAY(),"D")&gt;30,"Aviso")),"")</f>
+      <c r="J19">
+        <f>IF(G19&lt;&gt; "",IF(DATEDIF(G19,TODAY(),"D")&gt;60,"Vencido",IF(DATEDIF(G19,TODAY(),"D")&gt;30,"Aviso")),"")</f>
         <v/>
       </c>
     </row>
@@ -62145,17 +62282,22 @@
           <t>Domingos e feriados</t>
         </is>
       </c>
-      <c r="F20" s="22" t="n"/>
-      <c r="G20" s="5">
-        <f>IFERROR(VLOOKUP(H20,regs!H:I,2,0),"")</f>
-        <v/>
-      </c>
-      <c r="H20">
+      <c r="F20" s="5" t="inlineStr">
+        <is>
+          <t>Lojista</t>
+        </is>
+      </c>
+      <c r="G20" s="22" t="n"/>
+      <c r="H20" s="5">
+        <f>IFERROR(VLOOKUP(I20,regs!H:I,2,0),"")</f>
+        <v/>
+      </c>
+      <c r="I20">
         <f>LEFT(B20,8)</f>
         <v/>
       </c>
-      <c r="I20">
-        <f>IF(F20&lt;&gt; "",IF(DATEDIF(F20,TODAY(),"D")&gt;60,"Vencido",IF(DATEDIF(F20,TODAY(),"D")&gt;30,"Aviso")),"")</f>
+      <c r="J20">
+        <f>IF(G20&lt;&gt; "",IF(DATEDIF(G20,TODAY(),"D")&gt;60,"Vencido",IF(DATEDIF(G20,TODAY(),"D")&gt;30,"Aviso")),"")</f>
         <v/>
       </c>
     </row>
@@ -62183,19 +62325,24 @@
           <t>Domingos e feriados</t>
         </is>
       </c>
-      <c r="F21" s="22" t="n">
+      <c r="F21" s="5" t="inlineStr">
+        <is>
+          <t>Lojista</t>
+        </is>
+      </c>
+      <c r="G21" s="22" t="n">
         <v>44943</v>
       </c>
-      <c r="G21" s="5">
-        <f>IFERROR(VLOOKUP(H21,regs!H:I,2,0),"")</f>
-        <v/>
-      </c>
-      <c r="H21">
+      <c r="H21" s="5">
+        <f>IFERROR(VLOOKUP(I21,regs!H:I,2,0),"")</f>
+        <v/>
+      </c>
+      <c r="I21">
         <f>LEFT(B21,8)</f>
         <v/>
       </c>
-      <c r="I21">
-        <f>IF(F21&lt;&gt; "",IF(DATEDIF(F21,TODAY(),"D")&gt;60,"Vencido",IF(DATEDIF(F21,TODAY(),"D")&gt;30,"Aviso")),"")</f>
+      <c r="J21">
+        <f>IF(G21&lt;&gt; "",IF(DATEDIF(G21,TODAY(),"D")&gt;60,"Vencido",IF(DATEDIF(G21,TODAY(),"D")&gt;30,"Aviso")),"")</f>
         <v/>
       </c>
     </row>
@@ -62223,19 +62370,24 @@
           <t>Domingos e feriados</t>
         </is>
       </c>
-      <c r="F22" s="22" t="n">
+      <c r="F22" s="5" t="inlineStr">
+        <is>
+          <t>Lojista</t>
+        </is>
+      </c>
+      <c r="G22" s="22" t="n">
         <v>44943</v>
       </c>
-      <c r="G22" s="5">
-        <f>IFERROR(VLOOKUP(H22,regs!H:I,2,0),"")</f>
-        <v/>
-      </c>
-      <c r="H22">
+      <c r="H22" s="5">
+        <f>IFERROR(VLOOKUP(I22,regs!H:I,2,0),"")</f>
+        <v/>
+      </c>
+      <c r="I22">
         <f>LEFT(B22,8)</f>
         <v/>
       </c>
-      <c r="I22">
-        <f>IF(F22&lt;&gt; "",IF(DATEDIF(F22,TODAY(),"D")&gt;60,"Vencido",IF(DATEDIF(F22,TODAY(),"D")&gt;30,"Aviso")),"")</f>
+      <c r="J22">
+        <f>IF(G22&lt;&gt; "",IF(DATEDIF(G22,TODAY(),"D")&gt;60,"Vencido",IF(DATEDIF(G22,TODAY(),"D")&gt;30,"Aviso")),"")</f>
         <v/>
       </c>
     </row>
@@ -62263,19 +62415,24 @@
           <t>Domingos e feriados</t>
         </is>
       </c>
-      <c r="F23" s="22" t="n">
+      <c r="F23" s="5" t="inlineStr">
+        <is>
+          <t>Farmácia</t>
+        </is>
+      </c>
+      <c r="G23" s="22" t="n">
         <v>44958</v>
       </c>
-      <c r="G23" s="5">
-        <f>IFERROR(VLOOKUP(H23,regs!H:I,2,0),"")</f>
-        <v/>
-      </c>
-      <c r="H23">
+      <c r="H23" s="5">
+        <f>IFERROR(VLOOKUP(I23,regs!H:I,2,0),"")</f>
+        <v/>
+      </c>
+      <c r="I23">
         <f>LEFT(B23,8)</f>
         <v/>
       </c>
-      <c r="I23">
-        <f>IF(F23&lt;&gt; "",IF(DATEDIF(F23,TODAY(),"D")&gt;60,"Vencido",IF(DATEDIF(F23,TODAY(),"D")&gt;30,"Aviso")),"")</f>
+      <c r="J23">
+        <f>IF(G23&lt;&gt; "",IF(DATEDIF(G23,TODAY(),"D")&gt;60,"Vencido",IF(DATEDIF(G23,TODAY(),"D")&gt;30,"Aviso")),"")</f>
         <v/>
       </c>
     </row>
@@ -62303,17 +62460,22 @@
           <t>Domingos e feriados</t>
         </is>
       </c>
-      <c r="F24" s="22" t="n"/>
-      <c r="G24" s="5">
-        <f>IFERROR(VLOOKUP(H24,regs!H:I,2,0),"")</f>
-        <v/>
-      </c>
-      <c r="H24">
+      <c r="F24" s="5" t="inlineStr">
+        <is>
+          <t>Lojista</t>
+        </is>
+      </c>
+      <c r="G24" s="22" t="n"/>
+      <c r="H24" s="5">
+        <f>IFERROR(VLOOKUP(I24,regs!H:I,2,0),"")</f>
+        <v/>
+      </c>
+      <c r="I24">
         <f>LEFT(B24,8)</f>
         <v/>
       </c>
-      <c r="I24">
-        <f>IF(F24&lt;&gt; "",IF(DATEDIF(F24,TODAY(),"D")&gt;60,"Vencido",IF(DATEDIF(F24,TODAY(),"D")&gt;30,"Aviso")),"")</f>
+      <c r="J24">
+        <f>IF(G24&lt;&gt; "",IF(DATEDIF(G24,TODAY(),"D")&gt;60,"Vencido",IF(DATEDIF(G24,TODAY(),"D")&gt;30,"Aviso")),"")</f>
         <v/>
       </c>
     </row>
@@ -62341,17 +62503,22 @@
           <t>Domingos e feriados</t>
         </is>
       </c>
-      <c r="F25" s="22" t="n"/>
-      <c r="G25" s="5">
-        <f>IFERROR(VLOOKUP(H25,regs!H:I,2,0),"")</f>
-        <v/>
-      </c>
-      <c r="H25">
+      <c r="F25" s="5" t="inlineStr">
+        <is>
+          <t>Lojista</t>
+        </is>
+      </c>
+      <c r="G25" s="22" t="n"/>
+      <c r="H25" s="5">
+        <f>IFERROR(VLOOKUP(I25,regs!H:I,2,0),"")</f>
+        <v/>
+      </c>
+      <c r="I25">
         <f>LEFT(B25,8)</f>
         <v/>
       </c>
-      <c r="I25">
-        <f>IF(F25&lt;&gt; "",IF(DATEDIF(F25,TODAY(),"D")&gt;60,"Vencido",IF(DATEDIF(F25,TODAY(),"D")&gt;30,"Aviso")),"")</f>
+      <c r="J25">
+        <f>IF(G25&lt;&gt; "",IF(DATEDIF(G25,TODAY(),"D")&gt;60,"Vencido",IF(DATEDIF(G25,TODAY(),"D")&gt;30,"Aviso")),"")</f>
         <v/>
       </c>
     </row>
@@ -62379,19 +62546,24 @@
           <t>Domingos e feriados</t>
         </is>
       </c>
-      <c r="F26" s="22" t="n">
+      <c r="F26" s="5" t="inlineStr">
+        <is>
+          <t>Lojista</t>
+        </is>
+      </c>
+      <c r="G26" s="22" t="n">
         <v>44958</v>
       </c>
-      <c r="G26" s="5">
-        <f>IFERROR(VLOOKUP(H26,regs!H:I,2,0),"")</f>
-        <v/>
-      </c>
-      <c r="H26">
+      <c r="H26" s="5">
+        <f>IFERROR(VLOOKUP(I26,regs!H:I,2,0),"")</f>
+        <v/>
+      </c>
+      <c r="I26">
         <f>LEFT(B26,8)</f>
         <v/>
       </c>
-      <c r="I26">
-        <f>IF(F26&lt;&gt; "",IF(DATEDIF(F26,TODAY(),"D")&gt;60,"Vencido",IF(DATEDIF(F26,TODAY(),"D")&gt;30,"Aviso")),"")</f>
+      <c r="J26">
+        <f>IF(G26&lt;&gt; "",IF(DATEDIF(G26,TODAY(),"D")&gt;60,"Vencido",IF(DATEDIF(G26,TODAY(),"D")&gt;30,"Aviso")),"")</f>
         <v/>
       </c>
     </row>
@@ -62419,19 +62591,24 @@
           <t>Domingos e feriados</t>
         </is>
       </c>
-      <c r="F27" s="22" t="n">
+      <c r="F27" s="5" t="inlineStr">
+        <is>
+          <t>Lojista</t>
+        </is>
+      </c>
+      <c r="G27" s="22" t="n">
         <v>44951</v>
       </c>
-      <c r="G27" s="5">
-        <f>IFERROR(VLOOKUP(H27,regs!H:I,2,0),"")</f>
-        <v/>
-      </c>
-      <c r="H27">
+      <c r="H27" s="5">
+        <f>IFERROR(VLOOKUP(I27,regs!H:I,2,0),"")</f>
+        <v/>
+      </c>
+      <c r="I27">
         <f>LEFT(B27,8)</f>
         <v/>
       </c>
-      <c r="I27">
-        <f>IF(F27&lt;&gt; "",IF(DATEDIF(F27,TODAY(),"D")&gt;60,"Vencido",IF(DATEDIF(F27,TODAY(),"D")&gt;30,"Aviso")),"")</f>
+      <c r="J27">
+        <f>IF(G27&lt;&gt; "",IF(DATEDIF(G27,TODAY(),"D")&gt;60,"Vencido",IF(DATEDIF(G27,TODAY(),"D")&gt;30,"Aviso")),"")</f>
         <v/>
       </c>
     </row>
@@ -62459,19 +62636,24 @@
           <t>Domingos e feriados</t>
         </is>
       </c>
-      <c r="F28" s="22" t="n">
+      <c r="F28" s="5" t="inlineStr">
+        <is>
+          <t>Lojista</t>
+        </is>
+      </c>
+      <c r="G28" s="22" t="n">
         <v>44952</v>
       </c>
-      <c r="G28" s="5">
-        <f>IFERROR(VLOOKUP(H28,regs!H:I,2,0),"")</f>
-        <v/>
-      </c>
-      <c r="H28">
+      <c r="H28" s="5">
+        <f>IFERROR(VLOOKUP(I28,regs!H:I,2,0),"")</f>
+        <v/>
+      </c>
+      <c r="I28">
         <f>LEFT(B28,8)</f>
         <v/>
       </c>
-      <c r="I28">
-        <f>IF(F28&lt;&gt; "",IF(DATEDIF(F28,TODAY(),"D")&gt;60,"Vencido",IF(DATEDIF(F28,TODAY(),"D")&gt;30,"Aviso")),"")</f>
+      <c r="J28">
+        <f>IF(G28&lt;&gt; "",IF(DATEDIF(G28,TODAY(),"D")&gt;60,"Vencido",IF(DATEDIF(G28,TODAY(),"D")&gt;30,"Aviso")),"")</f>
         <v/>
       </c>
     </row>
@@ -62499,19 +62681,24 @@
           <t>Domingos e feriados</t>
         </is>
       </c>
-      <c r="F29" s="22" t="n">
+      <c r="F29" s="5" t="inlineStr">
+        <is>
+          <t>Lojista</t>
+        </is>
+      </c>
+      <c r="G29" s="22" t="n">
         <v>44952</v>
       </c>
-      <c r="G29" s="5">
-        <f>IFERROR(VLOOKUP(H29,regs!H:I,2,0),"")</f>
-        <v/>
-      </c>
-      <c r="H29">
+      <c r="H29" s="5">
+        <f>IFERROR(VLOOKUP(I29,regs!H:I,2,0),"")</f>
+        <v/>
+      </c>
+      <c r="I29">
         <f>LEFT(B29,8)</f>
         <v/>
       </c>
-      <c r="I29">
-        <f>IF(F29&lt;&gt; "",IF(DATEDIF(F29,TODAY(),"D")&gt;60,"Vencido",IF(DATEDIF(F29,TODAY(),"D")&gt;30,"Aviso")),"")</f>
+      <c r="J29">
+        <f>IF(G29&lt;&gt; "",IF(DATEDIF(G29,TODAY(),"D")&gt;60,"Vencido",IF(DATEDIF(G29,TODAY(),"D")&gt;30,"Aviso")),"")</f>
         <v/>
       </c>
     </row>
@@ -62539,19 +62726,24 @@
           <t>Domingos e feriados</t>
         </is>
       </c>
-      <c r="F30" s="22" t="n">
+      <c r="F30" s="5" t="inlineStr">
+        <is>
+          <t>Lojista</t>
+        </is>
+      </c>
+      <c r="G30" s="22" t="n">
         <v>44952</v>
       </c>
-      <c r="G30" s="5">
-        <f>IFERROR(VLOOKUP(H30,regs!H:I,2,0),"")</f>
-        <v/>
-      </c>
-      <c r="H30">
+      <c r="H30" s="5">
+        <f>IFERROR(VLOOKUP(I30,regs!H:I,2,0),"")</f>
+        <v/>
+      </c>
+      <c r="I30">
         <f>LEFT(B30,8)</f>
         <v/>
       </c>
-      <c r="I30">
-        <f>IF(F30&lt;&gt; "",IF(DATEDIF(F30,TODAY(),"D")&gt;60,"Vencido",IF(DATEDIF(F30,TODAY(),"D")&gt;30,"Aviso")),"")</f>
+      <c r="J30">
+        <f>IF(G30&lt;&gt; "",IF(DATEDIF(G30,TODAY(),"D")&gt;60,"Vencido",IF(DATEDIF(G30,TODAY(),"D")&gt;30,"Aviso")),"")</f>
         <v/>
       </c>
     </row>
@@ -62579,19 +62771,24 @@
           <t>Domingos e feriados</t>
         </is>
       </c>
-      <c r="F31" s="22" t="n">
+      <c r="F31" s="5" t="inlineStr">
+        <is>
+          <t>Lojista</t>
+        </is>
+      </c>
+      <c r="G31" s="22" t="n">
         <v>44952</v>
       </c>
-      <c r="G31" s="5">
-        <f>IFERROR(VLOOKUP(H31,regs!H:I,2,0),"")</f>
-        <v/>
-      </c>
-      <c r="H31">
+      <c r="H31" s="5">
+        <f>IFERROR(VLOOKUP(I31,regs!H:I,2,0),"")</f>
+        <v/>
+      </c>
+      <c r="I31">
         <f>LEFT(B31,8)</f>
         <v/>
       </c>
-      <c r="I31">
-        <f>IF(F31&lt;&gt; "",IF(DATEDIF(F31,TODAY(),"D")&gt;60,"Vencido",IF(DATEDIF(F31,TODAY(),"D")&gt;30,"Aviso")),"")</f>
+      <c r="J31">
+        <f>IF(G31&lt;&gt; "",IF(DATEDIF(G31,TODAY(),"D")&gt;60,"Vencido",IF(DATEDIF(G31,TODAY(),"D")&gt;30,"Aviso")),"")</f>
         <v/>
       </c>
     </row>
@@ -62619,19 +62816,24 @@
           <t>Domingos e feriados</t>
         </is>
       </c>
-      <c r="F32" s="22" t="n">
+      <c r="F32" s="5" t="inlineStr">
+        <is>
+          <t>Lojista</t>
+        </is>
+      </c>
+      <c r="G32" s="22" t="n">
         <v>44952</v>
       </c>
-      <c r="G32" s="5">
-        <f>IFERROR(VLOOKUP(H32,regs!H:I,2,0),"")</f>
-        <v/>
-      </c>
-      <c r="H32">
+      <c r="H32" s="5">
+        <f>IFERROR(VLOOKUP(I32,regs!H:I,2,0),"")</f>
+        <v/>
+      </c>
+      <c r="I32">
         <f>LEFT(B32,8)</f>
         <v/>
       </c>
-      <c r="I32">
-        <f>IF(F32&lt;&gt; "",IF(DATEDIF(F32,TODAY(),"D")&gt;60,"Vencido",IF(DATEDIF(F32,TODAY(),"D")&gt;30,"Aviso")),"")</f>
+      <c r="J32">
+        <f>IF(G32&lt;&gt; "",IF(DATEDIF(G32,TODAY(),"D")&gt;60,"Vencido",IF(DATEDIF(G32,TODAY(),"D")&gt;30,"Aviso")),"")</f>
         <v/>
       </c>
     </row>
@@ -62659,19 +62861,24 @@
           <t>Domingos e feriados</t>
         </is>
       </c>
-      <c r="F33" s="22" t="n">
+      <c r="F33" s="5" t="inlineStr">
+        <is>
+          <t>Lojista</t>
+        </is>
+      </c>
+      <c r="G33" s="22" t="n">
         <v>44971</v>
       </c>
-      <c r="G33" s="5">
-        <f>IFERROR(VLOOKUP(H33,regs!H:I,2,0),"")</f>
-        <v/>
-      </c>
-      <c r="H33">
+      <c r="H33" s="5">
+        <f>IFERROR(VLOOKUP(I33,regs!H:I,2,0),"")</f>
+        <v/>
+      </c>
+      <c r="I33">
         <f>LEFT(B33,8)</f>
         <v/>
       </c>
-      <c r="I33">
-        <f>IF(F33&lt;&gt; "",IF(DATEDIF(F33,TODAY(),"D")&gt;60,"Vencido",IF(DATEDIF(F33,TODAY(),"D")&gt;30,"Aviso")),"")</f>
+      <c r="J33">
+        <f>IF(G33&lt;&gt; "",IF(DATEDIF(G33,TODAY(),"D")&gt;60,"Vencido",IF(DATEDIF(G33,TODAY(),"D")&gt;30,"Aviso")),"")</f>
         <v/>
       </c>
     </row>
@@ -62699,19 +62906,24 @@
           <t>Domingos e feriados</t>
         </is>
       </c>
-      <c r="F34" s="22" t="n">
+      <c r="F34" s="5" t="inlineStr">
+        <is>
+          <t>Lojista</t>
+        </is>
+      </c>
+      <c r="G34" s="22" t="n">
         <v>44953</v>
       </c>
-      <c r="G34" s="5">
-        <f>IFERROR(VLOOKUP(H34,regs!H:I,2,0),"")</f>
-        <v/>
-      </c>
-      <c r="H34">
+      <c r="H34" s="5">
+        <f>IFERROR(VLOOKUP(I34,regs!H:I,2,0),"")</f>
+        <v/>
+      </c>
+      <c r="I34">
         <f>LEFT(B34,8)</f>
         <v/>
       </c>
-      <c r="I34">
-        <f>IF(F34&lt;&gt; "",IF(DATEDIF(F34,TODAY(),"D")&gt;60,"Vencido",IF(DATEDIF(F34,TODAY(),"D")&gt;30,"Aviso")),"")</f>
+      <c r="J34">
+        <f>IF(G34&lt;&gt; "",IF(DATEDIF(G34,TODAY(),"D")&gt;60,"Vencido",IF(DATEDIF(G34,TODAY(),"D")&gt;30,"Aviso")),"")</f>
         <v/>
       </c>
     </row>
@@ -62739,19 +62951,24 @@
           <t>Domingos e feriados</t>
         </is>
       </c>
-      <c r="F35" s="22" t="n">
+      <c r="F35" s="5" t="inlineStr">
+        <is>
+          <t>Lojista</t>
+        </is>
+      </c>
+      <c r="G35" s="22" t="n">
         <v>44953</v>
       </c>
-      <c r="G35" s="5">
-        <f>IFERROR(VLOOKUP(H35,regs!H:I,2,0),"")</f>
-        <v/>
-      </c>
-      <c r="H35">
+      <c r="H35" s="5">
+        <f>IFERROR(VLOOKUP(I35,regs!H:I,2,0),"")</f>
+        <v/>
+      </c>
+      <c r="I35">
         <f>LEFT(B35,8)</f>
         <v/>
       </c>
-      <c r="I35">
-        <f>IF(F35&lt;&gt; "",IF(DATEDIF(F35,TODAY(),"D")&gt;60,"Vencido",IF(DATEDIF(F35,TODAY(),"D")&gt;30,"Aviso")),"")</f>
+      <c r="J35">
+        <f>IF(G35&lt;&gt; "",IF(DATEDIF(G35,TODAY(),"D")&gt;60,"Vencido",IF(DATEDIF(G35,TODAY(),"D")&gt;30,"Aviso")),"")</f>
         <v/>
       </c>
     </row>
@@ -62779,19 +62996,24 @@
           <t>Domingos e feriados</t>
         </is>
       </c>
-      <c r="F36" s="22" t="n">
+      <c r="F36" s="5" t="inlineStr">
+        <is>
+          <t>Lojista</t>
+        </is>
+      </c>
+      <c r="G36" s="22" t="n">
         <v>44953</v>
       </c>
-      <c r="G36" s="5">
-        <f>IFERROR(VLOOKUP(H36,regs!H:I,2,0),"")</f>
-        <v/>
-      </c>
-      <c r="H36">
+      <c r="H36" s="5">
+        <f>IFERROR(VLOOKUP(I36,regs!H:I,2,0),"")</f>
+        <v/>
+      </c>
+      <c r="I36">
         <f>LEFT(B36,8)</f>
         <v/>
       </c>
-      <c r="I36">
-        <f>IF(F36&lt;&gt; "",IF(DATEDIF(F36,TODAY(),"D")&gt;60,"Vencido",IF(DATEDIF(F36,TODAY(),"D")&gt;30,"Aviso")),"")</f>
+      <c r="J36">
+        <f>IF(G36&lt;&gt; "",IF(DATEDIF(G36,TODAY(),"D")&gt;60,"Vencido",IF(DATEDIF(G36,TODAY(),"D")&gt;30,"Aviso")),"")</f>
         <v/>
       </c>
     </row>
@@ -62819,19 +63041,24 @@
           <t>Domingos e feriados</t>
         </is>
       </c>
-      <c r="F37" s="22" t="n">
+      <c r="F37" s="5" t="inlineStr">
+        <is>
+          <t>Lojista</t>
+        </is>
+      </c>
+      <c r="G37" s="22" t="n">
         <v>44953</v>
       </c>
-      <c r="G37" s="5">
-        <f>IFERROR(VLOOKUP(H37,regs!H:I,2,0),"")</f>
-        <v/>
-      </c>
-      <c r="H37">
+      <c r="H37" s="5">
+        <f>IFERROR(VLOOKUP(I37,regs!H:I,2,0),"")</f>
+        <v/>
+      </c>
+      <c r="I37">
         <f>LEFT(B37,8)</f>
         <v/>
       </c>
-      <c r="I37">
-        <f>IF(F37&lt;&gt; "",IF(DATEDIF(F37,TODAY(),"D")&gt;60,"Vencido",IF(DATEDIF(F37,TODAY(),"D")&gt;30,"Aviso")),"")</f>
+      <c r="J37">
+        <f>IF(G37&lt;&gt; "",IF(DATEDIF(G37,TODAY(),"D")&gt;60,"Vencido",IF(DATEDIF(G37,TODAY(),"D")&gt;30,"Aviso")),"")</f>
         <v/>
       </c>
     </row>
@@ -62859,19 +63086,24 @@
           <t>Domingos e feriados</t>
         </is>
       </c>
-      <c r="F38" s="22" t="n">
+      <c r="F38" s="5" t="inlineStr">
+        <is>
+          <t>Lojista</t>
+        </is>
+      </c>
+      <c r="G38" s="22" t="n">
         <v>44953</v>
       </c>
-      <c r="G38" s="5">
-        <f>IFERROR(VLOOKUP(H38,regs!H:I,2,0),"")</f>
-        <v/>
-      </c>
-      <c r="H38">
+      <c r="H38" s="5">
+        <f>IFERROR(VLOOKUP(I38,regs!H:I,2,0),"")</f>
+        <v/>
+      </c>
+      <c r="I38">
         <f>LEFT(B38,8)</f>
         <v/>
       </c>
-      <c r="I38">
-        <f>IF(F38&lt;&gt; "",IF(DATEDIF(F38,TODAY(),"D")&gt;60,"Vencido",IF(DATEDIF(F38,TODAY(),"D")&gt;30,"Aviso")),"")</f>
+      <c r="J38">
+        <f>IF(G38&lt;&gt; "",IF(DATEDIF(G38,TODAY(),"D")&gt;60,"Vencido",IF(DATEDIF(G38,TODAY(),"D")&gt;30,"Aviso")),"")</f>
         <v/>
       </c>
     </row>
@@ -62899,34 +63131,39 @@
           <t>Domingos e feriados</t>
         </is>
       </c>
-      <c r="F39" s="22" t="n">
+      <c r="F39" s="5" t="inlineStr">
+        <is>
+          <t>Lojista</t>
+        </is>
+      </c>
+      <c r="G39" s="22" t="n">
         <v>45049</v>
       </c>
-      <c r="G39" s="5">
-        <f>IFERROR(VLOOKUP(H39,regs!H:I,2,0),"")</f>
-        <v/>
-      </c>
-      <c r="H39">
+      <c r="H39" s="5">
+        <f>IFERROR(VLOOKUP(I39,regs!H:I,2,0),"")</f>
+        <v/>
+      </c>
+      <c r="I39">
         <f>LEFT(B39,8)</f>
         <v/>
       </c>
-      <c r="I39">
-        <f>IF(F39&lt;&gt; "",IF(DATEDIF(F39,TODAY(),"D")&gt;60,"Vencido",IF(DATEDIF(F39,TODAY(),"D")&gt;30,"Aviso")),"")</f>
+      <c r="J39">
+        <f>IF(G39&lt;&gt; "",IF(DATEDIF(G39,TODAY(),"D")&gt;60,"Vencido",IF(DATEDIF(G39,TODAY(),"D")&gt;30,"Aviso")),"")</f>
         <v/>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="16" t="inlineStr">
         <is>
-          <t xml:space="preserve">DISUL SUPERMERCADO LTDA </t>
+          <t>PBTECH COMERCIO E SERVICOS DE REVESTIMENTOS CERAMICOS LTDA.</t>
         </is>
       </c>
       <c r="B40" s="2" t="n">
-        <v>19435152000145</v>
+        <v>5876012001170</v>
       </c>
       <c r="C40" s="16" t="inlineStr">
         <is>
-          <t>MR004507/2023</t>
+          <t>MR004838/2023</t>
         </is>
       </c>
       <c r="D40" s="5" t="inlineStr">
@@ -62939,34 +63176,39 @@
           <t>Domingos e feriados</t>
         </is>
       </c>
-      <c r="F40" s="22" t="n">
-        <v>45042</v>
-      </c>
-      <c r="G40" s="5">
-        <f>IFERROR(VLOOKUP(H40,regs!H:I,2,0),"")</f>
-        <v/>
-      </c>
-      <c r="H40">
+      <c r="F40" s="5" t="inlineStr">
+        <is>
+          <t>Lojista</t>
+        </is>
+      </c>
+      <c r="G40" s="22" t="n">
+        <v>44964</v>
+      </c>
+      <c r="H40" s="5">
+        <f>IFERROR(VLOOKUP(I40,regs!H:I,2,0),"")</f>
+        <v/>
+      </c>
+      <c r="I40">
         <f>LEFT(B40,8)</f>
         <v/>
       </c>
-      <c r="I40">
-        <f>IF(F40&lt;&gt; "",IF(DATEDIF(F40,TODAY(),"D")&gt;60,"Vencido",IF(DATEDIF(F40,TODAY(),"D")&gt;30,"Aviso")),"")</f>
+      <c r="J40">
+        <f>IF(G40&lt;&gt; "",IF(DATEDIF(G40,TODAY(),"D")&gt;60,"Vencido",IF(DATEDIF(G40,TODAY(),"D")&gt;30,"Aviso")),"")</f>
         <v/>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="16" t="inlineStr">
         <is>
-          <t>PBTECH COMERCIO E SERVICOS DE REVESTIMENTOS CERAMICOS LTDA.</t>
+          <t>C&amp;A MODAS S.A.</t>
         </is>
       </c>
       <c r="B41" s="2" t="n">
-        <v>5876012001170</v>
+        <v>45242914006308</v>
       </c>
       <c r="C41" s="16" t="inlineStr">
         <is>
-          <t>MR004838/2023</t>
+          <t>MR004883/2023</t>
         </is>
       </c>
       <c r="D41" s="5" t="inlineStr">
@@ -62979,34 +63221,39 @@
           <t>Domingos e feriados</t>
         </is>
       </c>
-      <c r="F41" s="22" t="n">
-        <v>44964</v>
-      </c>
-      <c r="G41" s="5">
-        <f>IFERROR(VLOOKUP(H41,regs!H:I,2,0),"")</f>
-        <v/>
-      </c>
-      <c r="H41">
+      <c r="F41" s="5" t="inlineStr">
+        <is>
+          <t>Lojista</t>
+        </is>
+      </c>
+      <c r="G41" s="22" t="n">
+        <v>45077</v>
+      </c>
+      <c r="H41" s="5">
+        <f>IFERROR(VLOOKUP(I41,regs!H:I,2,0),"")</f>
+        <v/>
+      </c>
+      <c r="I41">
         <f>LEFT(B41,8)</f>
         <v/>
       </c>
-      <c r="I41">
-        <f>IF(F41&lt;&gt; "",IF(DATEDIF(F41,TODAY(),"D")&gt;60,"Vencido",IF(DATEDIF(F41,TODAY(),"D")&gt;30,"Aviso")),"")</f>
+      <c r="J41">
+        <f>IF(G41&lt;&gt; "",IF(DATEDIF(G41,TODAY(),"D")&gt;60,"Vencido",IF(DATEDIF(G41,TODAY(),"D")&gt;30,"Aviso")),"")</f>
         <v/>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="16" t="inlineStr">
         <is>
-          <t>C&amp;A MODAS S.A.</t>
+          <t>VM COMERCIO DE CALCADOS LTDA.</t>
         </is>
       </c>
       <c r="B42" s="2" t="n">
-        <v>45242914006308</v>
+        <v>47908129000247</v>
       </c>
       <c r="C42" s="16" t="inlineStr">
         <is>
-          <t>MR004883/2023</t>
+          <t>MR005359/2023</t>
         </is>
       </c>
       <c r="D42" s="5" t="inlineStr">
@@ -63019,37 +63266,42 @@
           <t>Domingos e feriados</t>
         </is>
       </c>
-      <c r="F42" s="22" t="n"/>
-      <c r="G42" s="5">
-        <f>IFERROR(VLOOKUP(H42,regs!H:I,2,0),"")</f>
-        <v/>
-      </c>
-      <c r="H42">
+      <c r="F42" s="5" t="inlineStr">
+        <is>
+          <t>Lojista</t>
+        </is>
+      </c>
+      <c r="G42" s="22" t="n"/>
+      <c r="H42" s="5">
+        <f>IFERROR(VLOOKUP(I42,regs!H:I,2,0),"")</f>
+        <v/>
+      </c>
+      <c r="I42">
         <f>LEFT(B42,8)</f>
         <v/>
       </c>
-      <c r="I42">
-        <f>IF(F42&lt;&gt; "",IF(DATEDIF(F42,TODAY(),"D")&gt;60,"Vencido",IF(DATEDIF(F42,TODAY(),"D")&gt;30,"Aviso")),"")</f>
+      <c r="J42">
+        <f>IF(G42&lt;&gt; "",IF(DATEDIF(G42,TODAY(),"D")&gt;60,"Vencido",IF(DATEDIF(G42,TODAY(),"D")&gt;30,"Aviso")),"")</f>
         <v/>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="16" t="inlineStr">
         <is>
-          <t>VM COMERCIO DE CALCADOS LTDA.</t>
+          <t>CENTERMASTERSUL DISTRIBUIDORA DE ALIMENTOS LTDA</t>
         </is>
       </c>
       <c r="B43" s="2" t="n">
-        <v>47908129000247</v>
+        <v>5964784000353</v>
       </c>
       <c r="C43" s="16" t="inlineStr">
         <is>
-          <t>MR005359/2023</t>
+          <t>MR005453/2023</t>
         </is>
       </c>
       <c r="D43" s="5" t="inlineStr">
         <is>
-          <t>NÃO</t>
+          <t>SIM</t>
         </is>
       </c>
       <c r="E43" s="5" t="inlineStr">
@@ -63057,37 +63309,44 @@
           <t>Domingos e feriados</t>
         </is>
       </c>
-      <c r="F43" s="22" t="n"/>
-      <c r="G43" s="5">
-        <f>IFERROR(VLOOKUP(H43,regs!H:I,2,0),"")</f>
-        <v/>
-      </c>
-      <c r="H43">
+      <c r="F43" s="5" t="inlineStr">
+        <is>
+          <t>Atacadista</t>
+        </is>
+      </c>
+      <c r="G43" s="22" t="n">
+        <v>44960</v>
+      </c>
+      <c r="H43" s="5">
+        <f>IFERROR(VLOOKUP(I43,regs!H:I,2,0),"")</f>
+        <v/>
+      </c>
+      <c r="I43">
         <f>LEFT(B43,8)</f>
         <v/>
       </c>
-      <c r="I43">
-        <f>IF(F43&lt;&gt; "",IF(DATEDIF(F43,TODAY(),"D")&gt;60,"Vencido",IF(DATEDIF(F43,TODAY(),"D")&gt;30,"Aviso")),"")</f>
+      <c r="J43">
+        <f>IF(G43&lt;&gt; "",IF(DATEDIF(G43,TODAY(),"D")&gt;60,"Vencido",IF(DATEDIF(G43,TODAY(),"D")&gt;30,"Aviso")),"")</f>
         <v/>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="16" t="inlineStr">
         <is>
-          <t>CENTERMASTERSUL DISTRIBUIDORA DE ALIMENTOS LTDA</t>
+          <t>TRACK &amp; FIELD CO S.A.</t>
         </is>
       </c>
       <c r="B44" s="2" t="n">
-        <v>5964784000353</v>
+        <v>59418806002948</v>
       </c>
       <c r="C44" s="16" t="inlineStr">
         <is>
-          <t>MR005453/2023</t>
+          <t>MR006014/2023</t>
         </is>
       </c>
       <c r="D44" s="5" t="inlineStr">
         <is>
-          <t>SIM</t>
+          <t>NÃO</t>
         </is>
       </c>
       <c r="E44" s="5" t="inlineStr">
@@ -63095,34 +63354,37 @@
           <t>Domingos e feriados</t>
         </is>
       </c>
-      <c r="F44" s="22" t="n">
-        <v>44960</v>
-      </c>
-      <c r="G44" s="5">
-        <f>IFERROR(VLOOKUP(H44,regs!H:I,2,0),"")</f>
-        <v/>
-      </c>
-      <c r="H44">
+      <c r="F44" s="5" t="inlineStr">
+        <is>
+          <t>Lojista</t>
+        </is>
+      </c>
+      <c r="G44" s="22" t="n"/>
+      <c r="H44" s="5">
+        <f>IFERROR(VLOOKUP(I44,regs!H:I,2,0),"")</f>
+        <v/>
+      </c>
+      <c r="I44">
         <f>LEFT(B44,8)</f>
         <v/>
       </c>
-      <c r="I44">
-        <f>IF(F44&lt;&gt; "",IF(DATEDIF(F44,TODAY(),"D")&gt;60,"Vencido",IF(DATEDIF(F44,TODAY(),"D")&gt;30,"Aviso")),"")</f>
+      <c r="J44">
+        <f>IF(G44&lt;&gt; "",IF(DATEDIF(G44,TODAY(),"D")&gt;60,"Vencido",IF(DATEDIF(G44,TODAY(),"D")&gt;30,"Aviso")),"")</f>
         <v/>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="16" t="inlineStr">
         <is>
-          <t>TRACK &amp; FIELD CO S.A.</t>
+          <t>NBA STORE PORTO ALEGRE COMERCIO DE PRODUTOS ESPORTIVOS E VESTUARIO LTDA</t>
         </is>
       </c>
       <c r="B45" s="2" t="n">
-        <v>59418806002948</v>
+        <v>41371454000156</v>
       </c>
       <c r="C45" s="16" t="inlineStr">
         <is>
-          <t>MR006014/2023</t>
+          <t>MR006445/2023</t>
         </is>
       </c>
       <c r="D45" s="5" t="inlineStr">
@@ -63135,32 +63397,37 @@
           <t>Domingos e feriados</t>
         </is>
       </c>
-      <c r="F45" s="22" t="n"/>
-      <c r="G45" s="5">
-        <f>IFERROR(VLOOKUP(H45,regs!H:I,2,0),"")</f>
-        <v/>
-      </c>
-      <c r="H45">
+      <c r="F45" s="5" t="inlineStr">
+        <is>
+          <t>Lojista</t>
+        </is>
+      </c>
+      <c r="G45" s="22" t="n"/>
+      <c r="H45" s="5">
+        <f>IFERROR(VLOOKUP(I45,regs!H:I,2,0),"")</f>
+        <v/>
+      </c>
+      <c r="I45">
         <f>LEFT(B45,8)</f>
         <v/>
       </c>
-      <c r="I45">
-        <f>IF(F45&lt;&gt; "",IF(DATEDIF(F45,TODAY(),"D")&gt;60,"Vencido",IF(DATEDIF(F45,TODAY(),"D")&gt;30,"Aviso")),"")</f>
+      <c r="J45">
+        <f>IF(G45&lt;&gt; "",IF(DATEDIF(G45,TODAY(),"D")&gt;60,"Vencido",IF(DATEDIF(G45,TODAY(),"D")&gt;30,"Aviso")),"")</f>
         <v/>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="16" t="inlineStr">
         <is>
-          <t>NBA STORE PORTO ALEGRE COMERCIO DE PRODUTOS ESPORTIVOS E VESTUARIO LTDA</t>
+          <t>COMERCIAL ZAFFARI LTDA</t>
         </is>
       </c>
       <c r="B46" s="2" t="n">
-        <v>41371454000156</v>
+        <v>92016757000191</v>
       </c>
       <c r="C46" s="16" t="inlineStr">
         <is>
-          <t>MR006445/2023</t>
+          <t>MR006488/2023</t>
         </is>
       </c>
       <c r="D46" s="5" t="inlineStr">
@@ -63173,37 +63440,42 @@
           <t>Domingos e feriados</t>
         </is>
       </c>
-      <c r="F46" s="22" t="n"/>
-      <c r="G46" s="5">
-        <f>IFERROR(VLOOKUP(H46,regs!H:I,2,0),"")</f>
-        <v/>
-      </c>
-      <c r="H46">
+      <c r="F46" s="5" t="inlineStr">
+        <is>
+          <t>Mercado</t>
+        </is>
+      </c>
+      <c r="G46" s="22" t="n"/>
+      <c r="H46" s="5">
+        <f>IFERROR(VLOOKUP(I46,regs!H:I,2,0),"")</f>
+        <v/>
+      </c>
+      <c r="I46">
         <f>LEFT(B46,8)</f>
         <v/>
       </c>
-      <c r="I46">
-        <f>IF(F46&lt;&gt; "",IF(DATEDIF(F46,TODAY(),"D")&gt;60,"Vencido",IF(DATEDIF(F46,TODAY(),"D")&gt;30,"Aviso")),"")</f>
+      <c r="J46">
+        <f>IF(G46&lt;&gt; "",IF(DATEDIF(G46,TODAY(),"D")&gt;60,"Vencido",IF(DATEDIF(G46,TODAY(),"D")&gt;30,"Aviso")),"")</f>
         <v/>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="16" t="inlineStr">
         <is>
-          <t>COMERCIAL ZAFFARI LTDA</t>
+          <t>KARINA KRUSE VESTUARIO LTDA</t>
         </is>
       </c>
       <c r="B47" s="2" t="n">
-        <v>92016757000191</v>
+        <v>10987804000180</v>
       </c>
       <c r="C47" s="16" t="inlineStr">
         <is>
-          <t>MR006488/2023</t>
+          <t>MR006919/2023</t>
         </is>
       </c>
       <c r="D47" s="5" t="inlineStr">
         <is>
-          <t>NÃO</t>
+          <t>SIM</t>
         </is>
       </c>
       <c r="E47" s="5" t="inlineStr">
@@ -63211,32 +63483,39 @@
           <t>Domingos e feriados</t>
         </is>
       </c>
-      <c r="F47" s="22" t="n"/>
-      <c r="G47" s="5">
-        <f>IFERROR(VLOOKUP(H47,regs!H:I,2,0),"")</f>
-        <v/>
-      </c>
-      <c r="H47">
+      <c r="F47" s="5" t="inlineStr">
+        <is>
+          <t>Lojista</t>
+        </is>
+      </c>
+      <c r="G47" s="22" t="n">
+        <v>45051</v>
+      </c>
+      <c r="H47" s="5">
+        <f>IFERROR(VLOOKUP(I47,regs!H:I,2,0),"")</f>
+        <v/>
+      </c>
+      <c r="I47">
         <f>LEFT(B47,8)</f>
         <v/>
       </c>
-      <c r="I47">
-        <f>IF(F47&lt;&gt; "",IF(DATEDIF(F47,TODAY(),"D")&gt;60,"Vencido",IF(DATEDIF(F47,TODAY(),"D")&gt;30,"Aviso")),"")</f>
+      <c r="J47">
+        <f>IF(G47&lt;&gt; "",IF(DATEDIF(G47,TODAY(),"D")&gt;60,"Vencido",IF(DATEDIF(G47,TODAY(),"D")&gt;30,"Aviso")),"")</f>
         <v/>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="16" t="inlineStr">
         <is>
-          <t>KARINA KRUSE VESTUARIO LTDA</t>
+          <t>NEW FEIRA DE TAPETES CENTER LTDA</t>
         </is>
       </c>
       <c r="B48" s="2" t="n">
-        <v>10987804000180</v>
+        <v>8808556000382</v>
       </c>
       <c r="C48" s="16" t="inlineStr">
         <is>
-          <t>MR006919/2023</t>
+          <t>MR008002/2023</t>
         </is>
       </c>
       <c r="D48" s="5" t="inlineStr">
@@ -63249,39 +63528,44 @@
           <t>Domingos e feriados</t>
         </is>
       </c>
-      <c r="F48" s="22" t="n">
-        <v>45051</v>
-      </c>
-      <c r="G48" s="5">
-        <f>IFERROR(VLOOKUP(H48,regs!H:I,2,0),"")</f>
-        <v/>
-      </c>
-      <c r="H48">
+      <c r="F48" s="5" t="inlineStr">
+        <is>
+          <t>Lojista</t>
+        </is>
+      </c>
+      <c r="G48" s="22" t="n">
+        <v>44981</v>
+      </c>
+      <c r="H48" s="5">
+        <f>IFERROR(VLOOKUP(I48,regs!H:I,2,0),"")</f>
+        <v/>
+      </c>
+      <c r="I48">
         <f>LEFT(B48,8)</f>
         <v/>
       </c>
-      <c r="I48">
-        <f>IF(F48&lt;&gt; "",IF(DATEDIF(F48,TODAY(),"D")&gt;60,"Vencido",IF(DATEDIF(F48,TODAY(),"D")&gt;30,"Aviso")),"")</f>
+      <c r="J48">
+        <f>IF(G48&lt;&gt; "",IF(DATEDIF(G48,TODAY(),"D")&gt;60,"Vencido",IF(DATEDIF(G48,TODAY(),"D")&gt;30,"Aviso")),"")</f>
         <v/>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="16" t="inlineStr">
         <is>
-          <t>NEW FEIRA DE TAPETES CENTER LTDA</t>
+          <t>JANAINE CRUZ ROQUE</t>
         </is>
       </c>
       <c r="B49" s="2" t="n">
-        <v>8808556000382</v>
+        <v>34292047000198</v>
       </c>
       <c r="C49" s="16" t="inlineStr">
         <is>
-          <t>MR008002/2023</t>
+          <t>MR009243/2023</t>
         </is>
       </c>
       <c r="D49" s="5" t="inlineStr">
         <is>
-          <t>SIM</t>
+          <t>NÃO</t>
         </is>
       </c>
       <c r="E49" s="5" t="inlineStr">
@@ -63289,34 +63573,37 @@
           <t>Domingos e feriados</t>
         </is>
       </c>
-      <c r="F49" s="22" t="n">
-        <v>44981</v>
-      </c>
-      <c r="G49" s="5">
-        <f>IFERROR(VLOOKUP(H49,regs!H:I,2,0),"")</f>
-        <v/>
-      </c>
-      <c r="H49">
+      <c r="F49" s="5" t="inlineStr">
+        <is>
+          <t>Lojista</t>
+        </is>
+      </c>
+      <c r="G49" s="22" t="n"/>
+      <c r="H49" s="5">
+        <f>IFERROR(VLOOKUP(I49,regs!H:I,2,0),"")</f>
+        <v/>
+      </c>
+      <c r="I49">
         <f>LEFT(B49,8)</f>
         <v/>
       </c>
-      <c r="I49">
-        <f>IF(F49&lt;&gt; "",IF(DATEDIF(F49,TODAY(),"D")&gt;60,"Vencido",IF(DATEDIF(F49,TODAY(),"D")&gt;30,"Aviso")),"")</f>
+      <c r="J49">
+        <f>IF(G49&lt;&gt; "",IF(DATEDIF(G49,TODAY(),"D")&gt;60,"Vencido",IF(DATEDIF(G49,TODAY(),"D")&gt;30,"Aviso")),"")</f>
         <v/>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="16" t="inlineStr">
         <is>
-          <t>JANAINE CRUZ ROQUE</t>
+          <t>VIA S.A.</t>
         </is>
       </c>
       <c r="B50" s="2" t="n">
-        <v>34292047000198</v>
+        <v>33041260022303</v>
       </c>
       <c r="C50" s="16" t="inlineStr">
         <is>
-          <t>MR009243/2023</t>
+          <t>MR009720/2023</t>
         </is>
       </c>
       <c r="D50" s="5" t="inlineStr">
@@ -63329,37 +63616,42 @@
           <t>Domingos e feriados</t>
         </is>
       </c>
-      <c r="F50" s="22" t="n"/>
-      <c r="G50" s="5">
-        <f>IFERROR(VLOOKUP(H50,regs!H:I,2,0),"")</f>
-        <v/>
-      </c>
-      <c r="H50">
+      <c r="F50" s="5" t="inlineStr">
+        <is>
+          <t>Lojista</t>
+        </is>
+      </c>
+      <c r="G50" s="22" t="n"/>
+      <c r="H50" s="5">
+        <f>IFERROR(VLOOKUP(I50,regs!H:I,2,0),"")</f>
+        <v/>
+      </c>
+      <c r="I50">
         <f>LEFT(B50,8)</f>
         <v/>
       </c>
-      <c r="I50">
-        <f>IF(F50&lt;&gt; "",IF(DATEDIF(F50,TODAY(),"D")&gt;60,"Vencido",IF(DATEDIF(F50,TODAY(),"D")&gt;30,"Aviso")),"")</f>
+      <c r="J50">
+        <f>IF(G50&lt;&gt; "",IF(DATEDIF(G50,TODAY(),"D")&gt;60,"Vencido",IF(DATEDIF(G50,TODAY(),"D")&gt;30,"Aviso")),"")</f>
         <v/>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="16" t="inlineStr">
         <is>
-          <t>VIA S.A.</t>
+          <t>PET CENTER COMERCIO E PARTICIPACOES S.A.</t>
         </is>
       </c>
       <c r="B51" s="2" t="n">
-        <v>33041260022303</v>
+        <v>18328118011496</v>
       </c>
       <c r="C51" s="16" t="inlineStr">
         <is>
-          <t>MR009720/2023</t>
+          <t>MR010934/2023</t>
         </is>
       </c>
       <c r="D51" s="5" t="inlineStr">
         <is>
-          <t>NÃO</t>
+          <t>SIM</t>
         </is>
       </c>
       <c r="E51" s="5" t="inlineStr">
@@ -63367,37 +63659,44 @@
           <t>Domingos e feriados</t>
         </is>
       </c>
-      <c r="F51" s="22" t="n"/>
-      <c r="G51" s="5">
-        <f>IFERROR(VLOOKUP(H51,regs!H:I,2,0),"")</f>
-        <v/>
-      </c>
-      <c r="H51">
+      <c r="F51" s="5" t="inlineStr">
+        <is>
+          <t>Lojista</t>
+        </is>
+      </c>
+      <c r="G51" s="22" t="n">
+        <v>45054</v>
+      </c>
+      <c r="H51" s="5">
+        <f>IFERROR(VLOOKUP(I51,regs!H:I,2,0),"")</f>
+        <v/>
+      </c>
+      <c r="I51">
         <f>LEFT(B51,8)</f>
         <v/>
       </c>
-      <c r="I51">
-        <f>IF(F51&lt;&gt; "",IF(DATEDIF(F51,TODAY(),"D")&gt;60,"Vencido",IF(DATEDIF(F51,TODAY(),"D")&gt;30,"Aviso")),"")</f>
+      <c r="J51">
+        <f>IF(G51&lt;&gt; "",IF(DATEDIF(G51,TODAY(),"D")&gt;60,"Vencido",IF(DATEDIF(G51,TODAY(),"D")&gt;30,"Aviso")),"")</f>
         <v/>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="16" t="inlineStr">
         <is>
-          <t>PET CENTER COMERCIO E PARTICIPACOES S.A.</t>
+          <t>PAQUETA CALCADOS LTDA - EM RECUPERACAO JUDICIAL</t>
         </is>
       </c>
       <c r="B52" s="2" t="n">
-        <v>18328118011496</v>
+        <v>1098983010680</v>
       </c>
       <c r="C52" s="16" t="inlineStr">
         <is>
-          <t>MR010934/2023</t>
+          <t>MR011399/2023</t>
         </is>
       </c>
       <c r="D52" s="5" t="inlineStr">
         <is>
-          <t>SIM</t>
+          <t>NÃO</t>
         </is>
       </c>
       <c r="E52" s="5" t="inlineStr">
@@ -63405,39 +63704,42 @@
           <t>Domingos e feriados</t>
         </is>
       </c>
-      <c r="F52" s="22" t="n">
-        <v>45054</v>
-      </c>
-      <c r="G52" s="5">
-        <f>IFERROR(VLOOKUP(H52,regs!H:I,2,0),"")</f>
-        <v/>
-      </c>
-      <c r="H52">
+      <c r="F52" s="5" t="inlineStr">
+        <is>
+          <t>Lojista</t>
+        </is>
+      </c>
+      <c r="G52" s="22" t="n"/>
+      <c r="H52" s="5">
+        <f>IFERROR(VLOOKUP(I52,regs!H:I,2,0),"")</f>
+        <v/>
+      </c>
+      <c r="I52">
         <f>LEFT(B52,8)</f>
         <v/>
       </c>
-      <c r="I52">
-        <f>IF(F52&lt;&gt; "",IF(DATEDIF(F52,TODAY(),"D")&gt;60,"Vencido",IF(DATEDIF(F52,TODAY(),"D")&gt;30,"Aviso")),"")</f>
+      <c r="J52">
+        <f>IF(G52&lt;&gt; "",IF(DATEDIF(G52,TODAY(),"D")&gt;60,"Vencido",IF(DATEDIF(G52,TODAY(),"D")&gt;30,"Aviso")),"")</f>
         <v/>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="16" t="inlineStr">
         <is>
-          <t>PAQUETA CALCADOS LTDA - EM RECUPERACAO JUDICIAL</t>
+          <t>MARISA LOJAS S.A.</t>
         </is>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1098983010680</v>
+        <v>61189288001908</v>
       </c>
       <c r="C53" s="16" t="inlineStr">
         <is>
-          <t>MR011399/2023</t>
+          <t>MR011905/2023</t>
         </is>
       </c>
       <c r="D53" s="5" t="inlineStr">
         <is>
-          <t>NÃO</t>
+          <t>SIM</t>
         </is>
       </c>
       <c r="E53" s="5" t="inlineStr">
@@ -63445,37 +63747,44 @@
           <t>Domingos e feriados</t>
         </is>
       </c>
-      <c r="F53" s="22" t="n"/>
-      <c r="G53" s="5">
-        <f>IFERROR(VLOOKUP(H53,regs!H:I,2,0),"")</f>
-        <v/>
-      </c>
-      <c r="H53">
+      <c r="F53" s="5" t="inlineStr">
+        <is>
+          <t>Lojista</t>
+        </is>
+      </c>
+      <c r="G53" s="22" t="n">
+        <v>45001</v>
+      </c>
+      <c r="H53" s="5">
+        <f>IFERROR(VLOOKUP(I53,regs!H:I,2,0),"")</f>
+        <v/>
+      </c>
+      <c r="I53">
         <f>LEFT(B53,8)</f>
         <v/>
       </c>
-      <c r="I53">
-        <f>IF(F53&lt;&gt; "",IF(DATEDIF(F53,TODAY(),"D")&gt;60,"Vencido",IF(DATEDIF(F53,TODAY(),"D")&gt;30,"Aviso")),"")</f>
+      <c r="J53">
+        <f>IF(G53&lt;&gt; "",IF(DATEDIF(G53,TODAY(),"D")&gt;60,"Vencido",IF(DATEDIF(G53,TODAY(),"D")&gt;30,"Aviso")),"")</f>
         <v/>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="16" t="inlineStr">
         <is>
-          <t>MARISA LOJAS S.A.</t>
+          <t>AVENUE HOCHE COMERCIO VAREJISTA DE PRODUTOS LTDA</t>
         </is>
       </c>
       <c r="B54" s="2" t="n">
-        <v>61189288001908</v>
+        <v>15048124002753</v>
       </c>
       <c r="C54" s="16" t="inlineStr">
         <is>
-          <t>MR011905/2023</t>
+          <t>MR012240/2023</t>
         </is>
       </c>
       <c r="D54" s="5" t="inlineStr">
         <is>
-          <t>SIM</t>
+          <t>NÃO</t>
         </is>
       </c>
       <c r="E54" s="5" t="inlineStr">
@@ -63483,34 +63792,37 @@
           <t>Domingos e feriados</t>
         </is>
       </c>
-      <c r="F54" s="22" t="n">
-        <v>45001</v>
-      </c>
-      <c r="G54" s="5">
-        <f>IFERROR(VLOOKUP(H54,regs!H:I,2,0),"")</f>
-        <v/>
-      </c>
-      <c r="H54">
+      <c r="F54" s="5" t="inlineStr">
+        <is>
+          <t>Lojista</t>
+        </is>
+      </c>
+      <c r="G54" s="22" t="n"/>
+      <c r="H54" s="5">
+        <f>IFERROR(VLOOKUP(I54,regs!H:I,2,0),"")</f>
+        <v/>
+      </c>
+      <c r="I54">
         <f>LEFT(B54,8)</f>
         <v/>
       </c>
-      <c r="I54">
-        <f>IF(F54&lt;&gt; "",IF(DATEDIF(F54,TODAY(),"D")&gt;60,"Vencido",IF(DATEDIF(F54,TODAY(),"D")&gt;30,"Aviso")),"")</f>
+      <c r="J54">
+        <f>IF(G54&lt;&gt; "",IF(DATEDIF(G54,TODAY(),"D")&gt;60,"Vencido",IF(DATEDIF(G54,TODAY(),"D")&gt;30,"Aviso")),"")</f>
         <v/>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="16" t="inlineStr">
         <is>
-          <t>AVENUE HOCHE COMERCIO VAREJISTA DE PRODUTOS LTDA</t>
+          <t>IGUASPORT LTDA</t>
         </is>
       </c>
       <c r="B55" s="2" t="n">
-        <v>15048124002753</v>
+        <v>2314041003101</v>
       </c>
       <c r="C55" s="16" t="inlineStr">
         <is>
-          <t>MR012240/2023</t>
+          <t>MR012260/2023</t>
         </is>
       </c>
       <c r="D55" s="5" t="inlineStr">
@@ -63523,32 +63835,37 @@
           <t>Domingos e feriados</t>
         </is>
       </c>
-      <c r="F55" s="22" t="n"/>
-      <c r="G55" s="5">
-        <f>IFERROR(VLOOKUP(H55,regs!H:I,2,0),"")</f>
-        <v/>
-      </c>
-      <c r="H55">
+      <c r="F55" s="5" t="inlineStr">
+        <is>
+          <t>Lojista</t>
+        </is>
+      </c>
+      <c r="G55" s="22" t="n"/>
+      <c r="H55" s="5">
+        <f>IFERROR(VLOOKUP(I55,regs!H:I,2,0),"")</f>
+        <v/>
+      </c>
+      <c r="I55">
         <f>LEFT(B55,8)</f>
         <v/>
       </c>
-      <c r="I55">
-        <f>IF(F55&lt;&gt; "",IF(DATEDIF(F55,TODAY(),"D")&gt;60,"Vencido",IF(DATEDIF(F55,TODAY(),"D")&gt;30,"Aviso")),"")</f>
+      <c r="J55">
+        <f>IF(G55&lt;&gt; "",IF(DATEDIF(G55,TODAY(),"D")&gt;60,"Vencido",IF(DATEDIF(G55,TODAY(),"D")&gt;30,"Aviso")),"")</f>
         <v/>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="16" t="inlineStr">
         <is>
-          <t>IGUASPORT LTDA</t>
+          <t>TELLERINA COMERCIO DE PRESENTES E ARTIGOS PARA DECORACAO S.A.</t>
         </is>
       </c>
       <c r="B56" s="2" t="n">
-        <v>2314041003101</v>
+        <v>84453844046412</v>
       </c>
       <c r="C56" s="16" t="inlineStr">
         <is>
-          <t>MR012260/2023</t>
+          <t>MR012288/2023</t>
         </is>
       </c>
       <c r="D56" s="5" t="inlineStr">
@@ -63561,32 +63878,37 @@
           <t>Domingos e feriados</t>
         </is>
       </c>
-      <c r="F56" s="22" t="n"/>
-      <c r="G56" s="5">
-        <f>IFERROR(VLOOKUP(H56,regs!H:I,2,0),"")</f>
-        <v/>
-      </c>
-      <c r="H56">
+      <c r="F56" s="5" t="inlineStr">
+        <is>
+          <t>Lojista</t>
+        </is>
+      </c>
+      <c r="G56" s="22" t="n"/>
+      <c r="H56" s="5">
+        <f>IFERROR(VLOOKUP(I56,regs!H:I,2,0),"")</f>
+        <v/>
+      </c>
+      <c r="I56">
         <f>LEFT(B56,8)</f>
         <v/>
       </c>
-      <c r="I56">
-        <f>IF(F56&lt;&gt; "",IF(DATEDIF(F56,TODAY(),"D")&gt;60,"Vencido",IF(DATEDIF(F56,TODAY(),"D")&gt;30,"Aviso")),"")</f>
+      <c r="J56">
+        <f>IF(G56&lt;&gt; "",IF(DATEDIF(G56,TODAY(),"D")&gt;60,"Vencido",IF(DATEDIF(G56,TODAY(),"D")&gt;30,"Aviso")),"")</f>
         <v/>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="16" t="inlineStr">
         <is>
-          <t>TELLERINA COMERCIO DE PRESENTES E ARTIGOS PARA DECORACAO S.A.</t>
+          <t>BROOKSDONNA COMERCIO DE ROUPAS LTDA.</t>
         </is>
       </c>
       <c r="B57" s="2" t="n">
-        <v>84453844046412</v>
+        <v>11014557000955</v>
       </c>
       <c r="C57" s="16" t="inlineStr">
         <is>
-          <t>MR012288/2023</t>
+          <t>MR012294/2023</t>
         </is>
       </c>
       <c r="D57" s="5" t="inlineStr">
@@ -63599,37 +63921,42 @@
           <t>Domingos e feriados</t>
         </is>
       </c>
-      <c r="F57" s="22" t="n"/>
-      <c r="G57" s="5">
-        <f>IFERROR(VLOOKUP(H57,regs!H:I,2,0),"")</f>
-        <v/>
-      </c>
-      <c r="H57">
+      <c r="F57" s="5" t="inlineStr">
+        <is>
+          <t>Lojista</t>
+        </is>
+      </c>
+      <c r="G57" s="22" t="n"/>
+      <c r="H57" s="5">
+        <f>IFERROR(VLOOKUP(I57,regs!H:I,2,0),"")</f>
+        <v/>
+      </c>
+      <c r="I57">
         <f>LEFT(B57,8)</f>
         <v/>
       </c>
-      <c r="I57">
-        <f>IF(F57&lt;&gt; "",IF(DATEDIF(F57,TODAY(),"D")&gt;60,"Vencido",IF(DATEDIF(F57,TODAY(),"D")&gt;30,"Aviso")),"")</f>
+      <c r="J57">
+        <f>IF(G57&lt;&gt; "",IF(DATEDIF(G57,TODAY(),"D")&gt;60,"Vencido",IF(DATEDIF(G57,TODAY(),"D")&gt;30,"Aviso")),"")</f>
         <v/>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="16" t="inlineStr">
         <is>
-          <t>BROOKSDONNA COMERCIO DE ROUPAS LTDA.</t>
+          <t>VIA VENETO ROUPAS LTDA</t>
         </is>
       </c>
       <c r="B58" s="2" t="n">
-        <v>11014557000955</v>
+        <v>47100110002566</v>
       </c>
       <c r="C58" s="16" t="inlineStr">
         <is>
-          <t>MR012294/2023</t>
+          <t>MR012306/2023</t>
         </is>
       </c>
       <c r="D58" s="5" t="inlineStr">
         <is>
-          <t>NÃO</t>
+          <t>SIM</t>
         </is>
       </c>
       <c r="E58" s="5" t="inlineStr">
@@ -63637,37 +63964,44 @@
           <t>Domingos e feriados</t>
         </is>
       </c>
-      <c r="F58" s="22" t="n"/>
-      <c r="G58" s="5">
-        <f>IFERROR(VLOOKUP(H58,regs!H:I,2,0),"")</f>
-        <v/>
-      </c>
-      <c r="H58">
+      <c r="F58" s="5" t="inlineStr">
+        <is>
+          <t>Lojista</t>
+        </is>
+      </c>
+      <c r="G58" s="22" t="n">
+        <v>45065</v>
+      </c>
+      <c r="H58" s="5">
+        <f>IFERROR(VLOOKUP(I58,regs!H:I,2,0),"")</f>
+        <v/>
+      </c>
+      <c r="I58">
         <f>LEFT(B58,8)</f>
         <v/>
       </c>
-      <c r="I58">
-        <f>IF(F58&lt;&gt; "",IF(DATEDIF(F58,TODAY(),"D")&gt;60,"Vencido",IF(DATEDIF(F58,TODAY(),"D")&gt;30,"Aviso")),"")</f>
+      <c r="J58">
+        <f>IF(G58&lt;&gt; "",IF(DATEDIF(G58,TODAY(),"D")&gt;60,"Vencido",IF(DATEDIF(G58,TODAY(),"D")&gt;30,"Aviso")),"")</f>
         <v/>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="16" t="inlineStr">
         <is>
-          <t>VIA VENETO ROUPAS LTDA</t>
+          <t>MR AGUIAR PET SHOP LTDA.</t>
         </is>
       </c>
       <c r="B59" s="2" t="n">
-        <v>47100110002566</v>
+        <v>17574281000199</v>
       </c>
       <c r="C59" s="16" t="inlineStr">
         <is>
-          <t>MR012306/2023</t>
+          <t>MR012796/2023</t>
         </is>
       </c>
       <c r="D59" s="5" t="inlineStr">
         <is>
-          <t>SIM</t>
+          <t>NÃO</t>
         </is>
       </c>
       <c r="E59" s="5" t="inlineStr">
@@ -63675,39 +64009,42 @@
           <t>Domingos e feriados</t>
         </is>
       </c>
-      <c r="F59" s="22" t="n">
-        <v>45065</v>
-      </c>
-      <c r="G59" s="5">
-        <f>IFERROR(VLOOKUP(H59,regs!H:I,2,0),"")</f>
-        <v/>
-      </c>
-      <c r="H59">
+      <c r="F59" s="5" t="inlineStr">
+        <is>
+          <t>Lojista</t>
+        </is>
+      </c>
+      <c r="G59" s="22" t="n"/>
+      <c r="H59" s="5">
+        <f>IFERROR(VLOOKUP(I59,regs!H:I,2,0),"")</f>
+        <v/>
+      </c>
+      <c r="I59">
         <f>LEFT(B59,8)</f>
         <v/>
       </c>
-      <c r="I59">
-        <f>IF(F59&lt;&gt; "",IF(DATEDIF(F59,TODAY(),"D")&gt;60,"Vencido",IF(DATEDIF(F59,TODAY(),"D")&gt;30,"Aviso")),"")</f>
+      <c r="J59">
+        <f>IF(G59&lt;&gt; "",IF(DATEDIF(G59,TODAY(),"D")&gt;60,"Vencido",IF(DATEDIF(G59,TODAY(),"D")&gt;30,"Aviso")),"")</f>
         <v/>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="16" t="inlineStr">
         <is>
-          <t>MR AGUIAR PET SHOP LTDA.</t>
+          <t>ISLA COMERCIO DE CONFECCOES LTDA</t>
         </is>
       </c>
       <c r="B60" s="2" t="n">
-        <v>17574281000199</v>
+        <v>20593518000274</v>
       </c>
       <c r="C60" s="16" t="inlineStr">
         <is>
-          <t>MR012796/2023</t>
+          <t>MR012976/2023</t>
         </is>
       </c>
       <c r="D60" s="5" t="inlineStr">
         <is>
-          <t>NÃO</t>
+          <t>SIM</t>
         </is>
       </c>
       <c r="E60" s="5" t="inlineStr">
@@ -63715,37 +64052,44 @@
           <t>Domingos e feriados</t>
         </is>
       </c>
-      <c r="F60" s="22" t="n"/>
-      <c r="G60" s="5">
-        <f>IFERROR(VLOOKUP(H60,regs!H:I,2,0),"")</f>
-        <v/>
-      </c>
-      <c r="H60">
+      <c r="F60" s="5" t="inlineStr">
+        <is>
+          <t>Lojista</t>
+        </is>
+      </c>
+      <c r="G60" s="22" t="n">
+        <v>45021</v>
+      </c>
+      <c r="H60" s="5">
+        <f>IFERROR(VLOOKUP(I60,regs!H:I,2,0),"")</f>
+        <v/>
+      </c>
+      <c r="I60">
         <f>LEFT(B60,8)</f>
         <v/>
       </c>
-      <c r="I60">
-        <f>IF(F60&lt;&gt; "",IF(DATEDIF(F60,TODAY(),"D")&gt;60,"Vencido",IF(DATEDIF(F60,TODAY(),"D")&gt;30,"Aviso")),"")</f>
+      <c r="J60">
+        <f>IF(G60&lt;&gt; "",IF(DATEDIF(G60,TODAY(),"D")&gt;60,"Vencido",IF(DATEDIF(G60,TODAY(),"D")&gt;30,"Aviso")),"")</f>
         <v/>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="16" t="inlineStr">
         <is>
-          <t>ISLA COMERCIO DE CONFECCOES LTDA</t>
+          <t>ELSAN COMERCIO VAREJISTA DE MOVEIS LTDA</t>
         </is>
       </c>
       <c r="B61" s="2" t="n">
-        <v>20593518000274</v>
+        <v>44496590000160</v>
       </c>
       <c r="C61" s="16" t="inlineStr">
         <is>
-          <t>MR012976/2023</t>
+          <t>MR014682/2023</t>
         </is>
       </c>
       <c r="D61" s="5" t="inlineStr">
         <is>
-          <t>SIM</t>
+          <t>NÃO</t>
         </is>
       </c>
       <c r="E61" s="5" t="inlineStr">
@@ -63753,34 +64097,37 @@
           <t>Domingos e feriados</t>
         </is>
       </c>
-      <c r="F61" s="22" t="n">
-        <v>45021</v>
-      </c>
-      <c r="G61" s="5">
-        <f>IFERROR(VLOOKUP(H61,regs!H:I,2,0),"")</f>
-        <v/>
-      </c>
-      <c r="H61">
+      <c r="F61" s="5" t="inlineStr">
+        <is>
+          <t>Lojista</t>
+        </is>
+      </c>
+      <c r="G61" s="22" t="n"/>
+      <c r="H61" s="5">
+        <f>IFERROR(VLOOKUP(I61,regs!H:I,2,0),"")</f>
+        <v/>
+      </c>
+      <c r="I61">
         <f>LEFT(B61,8)</f>
         <v/>
       </c>
-      <c r="I61">
-        <f>IF(F61&lt;&gt; "",IF(DATEDIF(F61,TODAY(),"D")&gt;60,"Vencido",IF(DATEDIF(F61,TODAY(),"D")&gt;30,"Aviso")),"")</f>
+      <c r="J61">
+        <f>IF(G61&lt;&gt; "",IF(DATEDIF(G61,TODAY(),"D")&gt;60,"Vencido",IF(DATEDIF(G61,TODAY(),"D")&gt;30,"Aviso")),"")</f>
         <v/>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="16" t="inlineStr">
         <is>
-          <t>ELSAN COMERCIO VAREJISTA DE MOVEIS LTDA</t>
+          <t>ALIDAN COMERCIO VAREJISTA DE MOVEIS LTDA</t>
         </is>
       </c>
       <c r="B62" s="2" t="n">
-        <v>44496590000160</v>
+        <v>44571005000140</v>
       </c>
       <c r="C62" s="16" t="inlineStr">
         <is>
-          <t>MR014682/2023</t>
+          <t>MR014684/2023</t>
         </is>
       </c>
       <c r="D62" s="5" t="inlineStr">
@@ -63793,32 +64140,37 @@
           <t>Domingos e feriados</t>
         </is>
       </c>
-      <c r="F62" s="22" t="n"/>
-      <c r="G62" s="5">
-        <f>IFERROR(VLOOKUP(H62,regs!H:I,2,0),"")</f>
-        <v/>
-      </c>
-      <c r="H62">
+      <c r="F62" s="5" t="inlineStr">
+        <is>
+          <t>Lojista</t>
+        </is>
+      </c>
+      <c r="G62" s="22" t="n"/>
+      <c r="H62" s="5">
+        <f>IFERROR(VLOOKUP(I62,regs!H:I,2,0),"")</f>
+        <v/>
+      </c>
+      <c r="I62">
         <f>LEFT(B62,8)</f>
         <v/>
       </c>
-      <c r="I62">
-        <f>IF(F62&lt;&gt; "",IF(DATEDIF(F62,TODAY(),"D")&gt;60,"Vencido",IF(DATEDIF(F62,TODAY(),"D")&gt;30,"Aviso")),"")</f>
+      <c r="J62">
+        <f>IF(G62&lt;&gt; "",IF(DATEDIF(G62,TODAY(),"D")&gt;60,"Vencido",IF(DATEDIF(G62,TODAY(),"D")&gt;30,"Aviso")),"")</f>
         <v/>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="16" t="inlineStr">
         <is>
-          <t>ALIDAN COMERCIO VAREJISTA DE MOVEIS LTDA</t>
+          <t>G A RAMOS COMERCIO VAREJISTA DE MOVEIS LTDA</t>
         </is>
       </c>
       <c r="B63" s="2" t="n">
-        <v>44571005000140</v>
+        <v>40740267000130</v>
       </c>
       <c r="C63" s="16" t="inlineStr">
         <is>
-          <t>MR014684/2023</t>
+          <t>MR014685/2023</t>
         </is>
       </c>
       <c r="D63" s="5" t="inlineStr">
@@ -63831,32 +64183,37 @@
           <t>Domingos e feriados</t>
         </is>
       </c>
-      <c r="F63" s="22" t="n"/>
-      <c r="G63" s="5">
-        <f>IFERROR(VLOOKUP(H63,regs!H:I,2,0),"")</f>
-        <v/>
-      </c>
-      <c r="H63">
+      <c r="F63" s="5" t="inlineStr">
+        <is>
+          <t>Lojista</t>
+        </is>
+      </c>
+      <c r="G63" s="22" t="n"/>
+      <c r="H63" s="5">
+        <f>IFERROR(VLOOKUP(I63,regs!H:I,2,0),"")</f>
+        <v/>
+      </c>
+      <c r="I63">
         <f>LEFT(B63,8)</f>
         <v/>
       </c>
-      <c r="I63">
-        <f>IF(F63&lt;&gt; "",IF(DATEDIF(F63,TODAY(),"D")&gt;60,"Vencido",IF(DATEDIF(F63,TODAY(),"D")&gt;30,"Aviso")),"")</f>
+      <c r="J63">
+        <f>IF(G63&lt;&gt; "",IF(DATEDIF(G63,TODAY(),"D")&gt;60,"Vencido",IF(DATEDIF(G63,TODAY(),"D")&gt;30,"Aviso")),"")</f>
         <v/>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="16" t="inlineStr">
         <is>
-          <t>G A RAMOS COMERCIO VAREJISTA DE MOVEIS LTDA</t>
+          <t>ANPIN COMERCIO VAREJISTA DE MOVEIS LTDA</t>
         </is>
       </c>
       <c r="B64" s="2" t="n">
-        <v>40740267000130</v>
+        <v>44579574000131</v>
       </c>
       <c r="C64" s="16" t="inlineStr">
         <is>
-          <t>MR014685/2023</t>
+          <t>MR014687/2023</t>
         </is>
       </c>
       <c r="D64" s="5" t="inlineStr">
@@ -63869,32 +64226,37 @@
           <t>Domingos e feriados</t>
         </is>
       </c>
-      <c r="F64" s="22" t="n"/>
-      <c r="G64" s="5">
-        <f>IFERROR(VLOOKUP(H64,regs!H:I,2,0),"")</f>
-        <v/>
-      </c>
-      <c r="H64">
+      <c r="F64" s="5" t="inlineStr">
+        <is>
+          <t>Lojista</t>
+        </is>
+      </c>
+      <c r="G64" s="22" t="n"/>
+      <c r="H64" s="5">
+        <f>IFERROR(VLOOKUP(I64,regs!H:I,2,0),"")</f>
+        <v/>
+      </c>
+      <c r="I64">
         <f>LEFT(B64,8)</f>
         <v/>
       </c>
-      <c r="I64">
-        <f>IF(F64&lt;&gt; "",IF(DATEDIF(F64,TODAY(),"D")&gt;60,"Vencido",IF(DATEDIF(F64,TODAY(),"D")&gt;30,"Aviso")),"")</f>
+      <c r="J64">
+        <f>IF(G64&lt;&gt; "",IF(DATEDIF(G64,TODAY(),"D")&gt;60,"Vencido",IF(DATEDIF(G64,TODAY(),"D")&gt;30,"Aviso")),"")</f>
         <v/>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="16" t="inlineStr">
         <is>
-          <t>ANPIN COMERCIO VAREJISTA DE MOVEIS LTDA</t>
+          <t>LUFEO COMERCIO VAREJISTA DE MOVEIS LTDA</t>
         </is>
       </c>
       <c r="B65" s="2" t="n">
-        <v>44579574000131</v>
+        <v>39158117000133</v>
       </c>
       <c r="C65" s="16" t="inlineStr">
         <is>
-          <t>MR014687/2023</t>
+          <t>MR014688/2023</t>
         </is>
       </c>
       <c r="D65" s="5" t="inlineStr">
@@ -63907,37 +64269,42 @@
           <t>Domingos e feriados</t>
         </is>
       </c>
-      <c r="F65" s="22" t="n"/>
-      <c r="G65" s="5">
-        <f>IFERROR(VLOOKUP(H65,regs!H:I,2,0),"")</f>
-        <v/>
-      </c>
-      <c r="H65">
+      <c r="F65" s="5" t="inlineStr">
+        <is>
+          <t>Lojista</t>
+        </is>
+      </c>
+      <c r="G65" s="22" t="n"/>
+      <c r="H65" s="5">
+        <f>IFERROR(VLOOKUP(I65,regs!H:I,2,0),"")</f>
+        <v/>
+      </c>
+      <c r="I65">
         <f>LEFT(B65,8)</f>
         <v/>
       </c>
-      <c r="I65">
-        <f>IF(F65&lt;&gt; "",IF(DATEDIF(F65,TODAY(),"D")&gt;60,"Vencido",IF(DATEDIF(F65,TODAY(),"D")&gt;30,"Aviso")),"")</f>
+      <c r="J65">
+        <f>IF(G65&lt;&gt; "",IF(DATEDIF(G65,TODAY(),"D")&gt;60,"Vencido",IF(DATEDIF(G65,TODAY(),"D")&gt;30,"Aviso")),"")</f>
         <v/>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="16" t="inlineStr">
         <is>
-          <t>LUFEO COMERCIO VAREJISTA DE MOVEIS LTDA</t>
+          <t>NATURA COMERCIAL LTDA.</t>
         </is>
       </c>
       <c r="B66" s="2" t="n">
-        <v>39158117000133</v>
+        <v>24276833006189</v>
       </c>
       <c r="C66" s="16" t="inlineStr">
         <is>
-          <t>MR014688/2023</t>
+          <t>MR016279/2023</t>
         </is>
       </c>
       <c r="D66" s="5" t="inlineStr">
         <is>
-          <t>NÃO</t>
+          <t>SIM</t>
         </is>
       </c>
       <c r="E66" s="5" t="inlineStr">
@@ -63945,37 +64312,44 @@
           <t>Domingos e feriados</t>
         </is>
       </c>
-      <c r="F66" s="22" t="n"/>
-      <c r="G66" s="5">
-        <f>IFERROR(VLOOKUP(H66,regs!H:I,2,0),"")</f>
-        <v/>
-      </c>
-      <c r="H66">
+      <c r="F66" s="5" t="inlineStr">
+        <is>
+          <t>Lojista</t>
+        </is>
+      </c>
+      <c r="G66" s="22" t="n">
+        <v>45077</v>
+      </c>
+      <c r="H66" s="5">
+        <f>IFERROR(VLOOKUP(I66,regs!H:I,2,0),"")</f>
+        <v/>
+      </c>
+      <c r="I66">
         <f>LEFT(B66,8)</f>
         <v/>
       </c>
-      <c r="I66">
-        <f>IF(F66&lt;&gt; "",IF(DATEDIF(F66,TODAY(),"D")&gt;60,"Vencido",IF(DATEDIF(F66,TODAY(),"D")&gt;30,"Aviso")),"")</f>
+      <c r="J66">
+        <f>IF(G66&lt;&gt; "",IF(DATEDIF(G66,TODAY(),"D")&gt;60,"Vencido",IF(DATEDIF(G66,TODAY(),"D")&gt;30,"Aviso")),"")</f>
         <v/>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="16" t="inlineStr">
         <is>
-          <t>NATURA COMERCIAL LTDA.</t>
+          <t>AFA - INDUSTRIA E COMERCIO DE ARTIGOS ESPORTIVOS LTDA</t>
         </is>
       </c>
       <c r="B67" s="2" t="n">
-        <v>24276833006189</v>
+        <v>4038697000140</v>
       </c>
       <c r="C67" s="16" t="inlineStr">
         <is>
-          <t>MR016279/2023</t>
+          <t>MR019110/2023</t>
         </is>
       </c>
       <c r="D67" s="5" t="inlineStr">
         <is>
-          <t>NÃO</t>
+          <t>SIM</t>
         </is>
       </c>
       <c r="E67" s="5" t="inlineStr">
@@ -63983,37 +64357,44 @@
           <t>Domingos e feriados</t>
         </is>
       </c>
-      <c r="F67" s="22" t="n"/>
-      <c r="G67" s="5">
-        <f>IFERROR(VLOOKUP(H67,regs!H:I,2,0),"")</f>
-        <v/>
-      </c>
-      <c r="H67">
+      <c r="F67" s="5" t="inlineStr">
+        <is>
+          <t>Lojista</t>
+        </is>
+      </c>
+      <c r="G67" s="22" t="n">
+        <v>45043</v>
+      </c>
+      <c r="H67" s="5">
+        <f>IFERROR(VLOOKUP(I67,regs!H:I,2,0),"")</f>
+        <v/>
+      </c>
+      <c r="I67">
         <f>LEFT(B67,8)</f>
         <v/>
       </c>
-      <c r="I67">
-        <f>IF(F67&lt;&gt; "",IF(DATEDIF(F67,TODAY(),"D")&gt;60,"Vencido",IF(DATEDIF(F67,TODAY(),"D")&gt;30,"Aviso")),"")</f>
+      <c r="J67">
+        <f>IF(G67&lt;&gt; "",IF(DATEDIF(G67,TODAY(),"D")&gt;60,"Vencido",IF(DATEDIF(G67,TODAY(),"D")&gt;30,"Aviso")),"")</f>
         <v/>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="16" t="inlineStr">
         <is>
-          <t>AFA - INDUSTRIA E COMERCIO DE ARTIGOS ESPORTIVOS LTDA</t>
+          <t>AWA APOIO ADMINISTRATIVO E COMERCIO DE ELETRONICOS LTDA</t>
         </is>
       </c>
       <c r="B68" s="2" t="n">
-        <v>4038697000140</v>
+        <v>33534067000750</v>
       </c>
       <c r="C68" s="16" t="inlineStr">
         <is>
-          <t>MR019110/2023</t>
+          <t>MR020698/2023</t>
         </is>
       </c>
       <c r="D68" s="5" t="inlineStr">
         <is>
-          <t>SIM</t>
+          <t>NÃO</t>
         </is>
       </c>
       <c r="E68" s="5" t="inlineStr">
@@ -64021,34 +64402,37 @@
           <t>Domingos e feriados</t>
         </is>
       </c>
-      <c r="F68" s="22" t="n">
-        <v>45043</v>
-      </c>
-      <c r="G68" s="5">
-        <f>IFERROR(VLOOKUP(H68,regs!H:I,2,0),"")</f>
-        <v/>
-      </c>
-      <c r="H68">
+      <c r="F68" s="5" t="inlineStr">
+        <is>
+          <t>Lojista</t>
+        </is>
+      </c>
+      <c r="G68" s="22" t="n"/>
+      <c r="H68" s="5">
+        <f>IFERROR(VLOOKUP(I68,regs!H:I,2,0),"")</f>
+        <v/>
+      </c>
+      <c r="I68">
         <f>LEFT(B68,8)</f>
         <v/>
       </c>
-      <c r="I68">
-        <f>IF(F68&lt;&gt; "",IF(DATEDIF(F68,TODAY(),"D")&gt;60,"Vencido",IF(DATEDIF(F68,TODAY(),"D")&gt;30,"Aviso")),"")</f>
+      <c r="J68">
+        <f>IF(G68&lt;&gt; "",IF(DATEDIF(G68,TODAY(),"D")&gt;60,"Vencido",IF(DATEDIF(G68,TODAY(),"D")&gt;30,"Aviso")),"")</f>
         <v/>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="16" t="inlineStr">
         <is>
-          <t>AWA APOIO ADMINISTRATIVO E COMERCIO DE ELETRONICOS LTDA</t>
+          <t>KALI SHOES COMERCIO DE CALCADOS LTDA</t>
         </is>
       </c>
       <c r="B69" s="2" t="n">
-        <v>33534067000750</v>
+        <v>46494237000177</v>
       </c>
       <c r="C69" s="16" t="inlineStr">
         <is>
-          <t>MR020698/2023</t>
+          <t>MR020745/2023</t>
         </is>
       </c>
       <c r="D69" s="5" t="inlineStr">
@@ -64061,37 +64445,42 @@
           <t>Domingos e feriados</t>
         </is>
       </c>
-      <c r="F69" s="22" t="n"/>
-      <c r="G69" s="5">
-        <f>IFERROR(VLOOKUP(H69,regs!H:I,2,0),"")</f>
-        <v/>
-      </c>
-      <c r="H69">
+      <c r="F69" s="5" t="inlineStr">
+        <is>
+          <t>Lojista</t>
+        </is>
+      </c>
+      <c r="G69" s="22" t="n"/>
+      <c r="H69" s="5">
+        <f>IFERROR(VLOOKUP(I69,regs!H:I,2,0),"")</f>
+        <v/>
+      </c>
+      <c r="I69">
         <f>LEFT(B69,8)</f>
         <v/>
       </c>
-      <c r="I69">
-        <f>IF(F69&lt;&gt; "",IF(DATEDIF(F69,TODAY(),"D")&gt;60,"Vencido",IF(DATEDIF(F69,TODAY(),"D")&gt;30,"Aviso")),"")</f>
+      <c r="J69">
+        <f>IF(G69&lt;&gt; "",IF(DATEDIF(G69,TODAY(),"D")&gt;60,"Vencido",IF(DATEDIF(G69,TODAY(),"D")&gt;30,"Aviso")),"")</f>
         <v/>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="16" t="inlineStr">
         <is>
-          <t>KALI SHOES COMERCIO DE CALCADOS LTDA</t>
+          <t>BEL PERFUMES, COSMETICOS E PRESENTES LTDA</t>
         </is>
       </c>
       <c r="B70" s="2" t="n">
-        <v>46494237000177</v>
+        <v>10413732000167</v>
       </c>
       <c r="C70" s="16" t="inlineStr">
         <is>
-          <t>MR020745/2023</t>
+          <t>MR021095/2023</t>
         </is>
       </c>
       <c r="D70" s="5" t="inlineStr">
         <is>
-          <t>NÃO</t>
+          <t>SIM</t>
         </is>
       </c>
       <c r="E70" s="5" t="inlineStr">
@@ -64099,37 +64488,44 @@
           <t>Domingos e feriados</t>
         </is>
       </c>
-      <c r="F70" s="22" t="n"/>
-      <c r="G70" s="5">
-        <f>IFERROR(VLOOKUP(H70,regs!H:I,2,0),"")</f>
-        <v/>
-      </c>
-      <c r="H70">
+      <c r="F70" s="5" t="inlineStr">
+        <is>
+          <t>Lojista</t>
+        </is>
+      </c>
+      <c r="G70" s="22" t="n">
+        <v>45048</v>
+      </c>
+      <c r="H70" s="5">
+        <f>IFERROR(VLOOKUP(I70,regs!H:I,2,0),"")</f>
+        <v/>
+      </c>
+      <c r="I70">
         <f>LEFT(B70,8)</f>
         <v/>
       </c>
-      <c r="I70">
-        <f>IF(F70&lt;&gt; "",IF(DATEDIF(F70,TODAY(),"D")&gt;60,"Vencido",IF(DATEDIF(F70,TODAY(),"D")&gt;30,"Aviso")),"")</f>
+      <c r="J70">
+        <f>IF(G70&lt;&gt; "",IF(DATEDIF(G70,TODAY(),"D")&gt;60,"Vencido",IF(DATEDIF(G70,TODAY(),"D")&gt;30,"Aviso")),"")</f>
         <v/>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="16" t="inlineStr">
         <is>
-          <t>BEL PERFUMES, COSMETICOS E PRESENTES LTDA</t>
+          <t>RI HAPPY BRINQUEDOS S.A.</t>
         </is>
       </c>
       <c r="B71" s="2" t="n">
-        <v>10413732000167</v>
+        <v>58731662010184</v>
       </c>
       <c r="C71" s="16" t="inlineStr">
         <is>
-          <t>MR021095/2023</t>
+          <t>MR021212/2023</t>
         </is>
       </c>
       <c r="D71" s="5" t="inlineStr">
         <is>
-          <t>SIM</t>
+          <t>NÃO</t>
         </is>
       </c>
       <c r="E71" s="5" t="inlineStr">
@@ -64137,34 +64533,37 @@
           <t>Domingos e feriados</t>
         </is>
       </c>
-      <c r="F71" s="22" t="n">
-        <v>45048</v>
-      </c>
-      <c r="G71" s="5">
-        <f>IFERROR(VLOOKUP(H71,regs!H:I,2,0),"")</f>
-        <v/>
-      </c>
-      <c r="H71">
+      <c r="F71" s="5" t="inlineStr">
+        <is>
+          <t>Lojista</t>
+        </is>
+      </c>
+      <c r="G71" s="22" t="n"/>
+      <c r="H71" s="5">
+        <f>IFERROR(VLOOKUP(I71,regs!H:I,2,0),"")</f>
+        <v/>
+      </c>
+      <c r="I71">
         <f>LEFT(B71,8)</f>
         <v/>
       </c>
-      <c r="I71">
-        <f>IF(F71&lt;&gt; "",IF(DATEDIF(F71,TODAY(),"D")&gt;60,"Vencido",IF(DATEDIF(F71,TODAY(),"D")&gt;30,"Aviso")),"")</f>
+      <c r="J71">
+        <f>IF(G71&lt;&gt; "",IF(DATEDIF(G71,TODAY(),"D")&gt;60,"Vencido",IF(DATEDIF(G71,TODAY(),"D")&gt;30,"Aviso")),"")</f>
         <v/>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="16" t="inlineStr">
         <is>
-          <t>RI HAPPY BRINQUEDOS S.A.</t>
+          <t>SUPERMERCADO F &amp; K LTDA</t>
         </is>
       </c>
       <c r="B72" s="2" t="n">
-        <v>58731662010184</v>
+        <v>9416879000121</v>
       </c>
       <c r="C72" s="16" t="inlineStr">
         <is>
-          <t>MR021212/2023</t>
+          <t>MR022190/2023</t>
         </is>
       </c>
       <c r="D72" s="5" t="inlineStr">
@@ -64177,32 +64576,37 @@
           <t>Domingos e feriados</t>
         </is>
       </c>
-      <c r="F72" s="22" t="n"/>
-      <c r="G72" s="5">
-        <f>IFERROR(VLOOKUP(H72,regs!H:I,2,0),"")</f>
-        <v/>
-      </c>
-      <c r="H72">
+      <c r="F72" s="5" t="inlineStr">
+        <is>
+          <t>Mercado</t>
+        </is>
+      </c>
+      <c r="G72" s="22" t="n"/>
+      <c r="H72" s="5">
+        <f>IFERROR(VLOOKUP(I72,regs!H:I,2,0),"")</f>
+        <v/>
+      </c>
+      <c r="I72">
         <f>LEFT(B72,8)</f>
         <v/>
       </c>
-      <c r="I72">
-        <f>IF(F72&lt;&gt; "",IF(DATEDIF(F72,TODAY(),"D")&gt;60,"Vencido",IF(DATEDIF(F72,TODAY(),"D")&gt;30,"Aviso")),"")</f>
+      <c r="J72">
+        <f>IF(G72&lt;&gt; "",IF(DATEDIF(G72,TODAY(),"D")&gt;60,"Vencido",IF(DATEDIF(G72,TODAY(),"D")&gt;30,"Aviso")),"")</f>
         <v/>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="16" t="inlineStr">
         <is>
-          <t>SUPERMERCADO F &amp; K LTDA</t>
+          <t>MERCADO ANUAR LTDA</t>
         </is>
       </c>
       <c r="B73" s="2" t="n">
-        <v>9416879000121</v>
+        <v>30088971000104</v>
       </c>
       <c r="C73" s="16" t="inlineStr">
         <is>
-          <t>MR022190/2023</t>
+          <t>MR022242/2023</t>
         </is>
       </c>
       <c r="D73" s="5" t="inlineStr">
@@ -64215,32 +64619,37 @@
           <t>Domingos e feriados</t>
         </is>
       </c>
-      <c r="F73" s="22" t="n"/>
-      <c r="G73" s="5">
-        <f>IFERROR(VLOOKUP(H73,regs!H:I,2,0),"")</f>
-        <v/>
-      </c>
-      <c r="H73">
+      <c r="F73" s="5" t="inlineStr">
+        <is>
+          <t>Mercado</t>
+        </is>
+      </c>
+      <c r="G73" s="22" t="n"/>
+      <c r="H73" s="5">
+        <f>IFERROR(VLOOKUP(I73,regs!H:I,2,0),"")</f>
+        <v/>
+      </c>
+      <c r="I73">
         <f>LEFT(B73,8)</f>
         <v/>
       </c>
-      <c r="I73">
-        <f>IF(F73&lt;&gt; "",IF(DATEDIF(F73,TODAY(),"D")&gt;60,"Vencido",IF(DATEDIF(F73,TODAY(),"D")&gt;30,"Aviso")),"")</f>
+      <c r="J73">
+        <f>IF(G73&lt;&gt; "",IF(DATEDIF(G73,TODAY(),"D")&gt;60,"Vencido",IF(DATEDIF(G73,TODAY(),"D")&gt;30,"Aviso")),"")</f>
         <v/>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="16" t="inlineStr">
         <is>
-          <t>SLL SERVICOS DE INTERMEDIACAO E NEGOCIOS LTDA</t>
+          <t>FAST SHOP S.A</t>
         </is>
       </c>
       <c r="B74" s="2" t="n">
-        <v>6121357000104</v>
+        <v>43708379005675</v>
       </c>
       <c r="C74" s="16" t="inlineStr">
         <is>
-          <t>MR022194/2023</t>
+          <t>MR022253/2023</t>
         </is>
       </c>
       <c r="D74" s="5" t="inlineStr">
@@ -64253,34 +64662,39 @@
           <t>Domingos e feriados</t>
         </is>
       </c>
-      <c r="F74" s="22" t="n">
-        <v>45056</v>
-      </c>
-      <c r="G74" s="5">
-        <f>IFERROR(VLOOKUP(H74,regs!H:I,2,0),"")</f>
-        <v/>
-      </c>
-      <c r="H74">
+      <c r="F74" s="5" t="inlineStr">
+        <is>
+          <t>Lojista</t>
+        </is>
+      </c>
+      <c r="G74" s="22" t="n">
+        <v>45070</v>
+      </c>
+      <c r="H74" s="5">
+        <f>IFERROR(VLOOKUP(I74,regs!H:I,2,0),"")</f>
+        <v/>
+      </c>
+      <c r="I74">
         <f>LEFT(B74,8)</f>
         <v/>
       </c>
-      <c r="I74">
-        <f>IF(F74&lt;&gt; "",IF(DATEDIF(F74,TODAY(),"D")&gt;60,"Vencido",IF(DATEDIF(F74,TODAY(),"D")&gt;30,"Aviso")),"")</f>
+      <c r="J74">
+        <f>IF(G74&lt;&gt; "",IF(DATEDIF(G74,TODAY(),"D")&gt;60,"Vencido",IF(DATEDIF(G74,TODAY(),"D")&gt;30,"Aviso")),"")</f>
         <v/>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="16" t="inlineStr">
         <is>
-          <t>MERCADO ANUAR LTDA</t>
+          <t>MERCADO MINAS GERAIS LTDA</t>
         </is>
       </c>
       <c r="B75" s="2" t="n">
-        <v>30088971000104</v>
+        <v>5520581000106</v>
       </c>
       <c r="C75" s="16" t="inlineStr">
         <is>
-          <t>MR022242/2023</t>
+          <t>MR022285/2023</t>
         </is>
       </c>
       <c r="D75" s="5" t="inlineStr">
@@ -64293,37 +64707,42 @@
           <t>Domingos e feriados</t>
         </is>
       </c>
-      <c r="F75" s="22" t="n"/>
-      <c r="G75" s="5">
-        <f>IFERROR(VLOOKUP(H75,regs!H:I,2,0),"")</f>
-        <v/>
-      </c>
-      <c r="H75">
+      <c r="F75" s="5" t="inlineStr">
+        <is>
+          <t>Mercado</t>
+        </is>
+      </c>
+      <c r="G75" s="22" t="n"/>
+      <c r="H75" s="5">
+        <f>IFERROR(VLOOKUP(I75,regs!H:I,2,0),"")</f>
+        <v/>
+      </c>
+      <c r="I75">
         <f>LEFT(B75,8)</f>
         <v/>
       </c>
-      <c r="I75">
-        <f>IF(F75&lt;&gt; "",IF(DATEDIF(F75,TODAY(),"D")&gt;60,"Vencido",IF(DATEDIF(F75,TODAY(),"D")&gt;30,"Aviso")),"")</f>
+      <c r="J75">
+        <f>IF(G75&lt;&gt; "",IF(DATEDIF(G75,TODAY(),"D")&gt;60,"Vencido",IF(DATEDIF(G75,TODAY(),"D")&gt;30,"Aviso")),"")</f>
         <v/>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="16" t="inlineStr">
         <is>
-          <t>FAST SHOP S.A</t>
+          <t>CHOCOLATERIA PONTAL LTDA.</t>
         </is>
       </c>
       <c r="B76" s="2" t="n">
-        <v>43708379005675</v>
+        <v>50233143000111</v>
       </c>
       <c r="C76" s="16" t="inlineStr">
         <is>
-          <t>MR022253/2023</t>
+          <t>MR022288/2023</t>
         </is>
       </c>
       <c r="D76" s="5" t="inlineStr">
         <is>
-          <t>SIM</t>
+          <t>NÃO</t>
         </is>
       </c>
       <c r="E76" s="5" t="inlineStr">
@@ -64331,34 +64750,37 @@
           <t>Domingos e feriados</t>
         </is>
       </c>
-      <c r="F76" s="22" t="n">
-        <v>45070</v>
-      </c>
-      <c r="G76" s="5">
-        <f>IFERROR(VLOOKUP(H76,regs!H:I,2,0),"")</f>
-        <v/>
-      </c>
-      <c r="H76">
+      <c r="F76" s="5" t="inlineStr">
+        <is>
+          <t>Mercado</t>
+        </is>
+      </c>
+      <c r="G76" s="22" t="n"/>
+      <c r="H76" s="5">
+        <f>IFERROR(VLOOKUP(I76,regs!H:I,2,0),"")</f>
+        <v/>
+      </c>
+      <c r="I76">
         <f>LEFT(B76,8)</f>
         <v/>
       </c>
-      <c r="I76">
-        <f>IF(F76&lt;&gt; "",IF(DATEDIF(F76,TODAY(),"D")&gt;60,"Vencido",IF(DATEDIF(F76,TODAY(),"D")&gt;30,"Aviso")),"")</f>
+      <c r="J76">
+        <f>IF(G76&lt;&gt; "",IF(DATEDIF(G76,TODAY(),"D")&gt;60,"Vencido",IF(DATEDIF(G76,TODAY(),"D")&gt;30,"Aviso")),"")</f>
         <v/>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="16" t="inlineStr">
         <is>
-          <t>MERCADO MINAS GERAIS LTDA</t>
+          <t>CESRAN RECRUTAMENTO E SELECAO DE PESSOAL LTDA</t>
         </is>
       </c>
       <c r="B77" s="2" t="n">
-        <v>5520581000106</v>
+        <v>49995556000154</v>
       </c>
       <c r="C77" s="16" t="inlineStr">
         <is>
-          <t>MR022285/2023</t>
+          <t>MR022523/2023</t>
         </is>
       </c>
       <c r="D77" s="5" t="inlineStr">
@@ -64371,32 +64793,37 @@
           <t>Domingos e feriados</t>
         </is>
       </c>
-      <c r="F77" s="22" t="n"/>
-      <c r="G77" s="5">
-        <f>IFERROR(VLOOKUP(H77,regs!H:I,2,0),"")</f>
-        <v/>
-      </c>
-      <c r="H77">
+      <c r="F77" s="5" t="inlineStr">
+        <is>
+          <t>Lojista</t>
+        </is>
+      </c>
+      <c r="G77" s="22" t="n"/>
+      <c r="H77" s="5">
+        <f>IFERROR(VLOOKUP(I77,regs!H:I,2,0),"")</f>
+        <v/>
+      </c>
+      <c r="I77">
         <f>LEFT(B77,8)</f>
         <v/>
       </c>
-      <c r="I77">
-        <f>IF(F77&lt;&gt; "",IF(DATEDIF(F77,TODAY(),"D")&gt;60,"Vencido",IF(DATEDIF(F77,TODAY(),"D")&gt;30,"Aviso")),"")</f>
+      <c r="J77">
+        <f>IF(G77&lt;&gt; "",IF(DATEDIF(G77,TODAY(),"D")&gt;60,"Vencido",IF(DATEDIF(G77,TODAY(),"D")&gt;30,"Aviso")),"")</f>
         <v/>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="16" t="inlineStr">
         <is>
-          <t>CHOCOLATERIA PONTAL LTDA.</t>
+          <t>CRISTALL MIX LTDA</t>
         </is>
       </c>
       <c r="B78" s="2" t="n">
-        <v>50233143000111</v>
+        <v>48453787000173</v>
       </c>
       <c r="C78" s="16" t="inlineStr">
         <is>
-          <t>MR022288/2023</t>
+          <t>MR022751/2023</t>
         </is>
       </c>
       <c r="D78" s="5" t="inlineStr">
@@ -64409,37 +64836,42 @@
           <t>Domingos e feriados</t>
         </is>
       </c>
-      <c r="F78" s="22" t="n"/>
-      <c r="G78" s="5">
-        <f>IFERROR(VLOOKUP(H78,regs!H:I,2,0),"")</f>
-        <v/>
-      </c>
-      <c r="H78">
+      <c r="F78" s="5" t="inlineStr">
+        <is>
+          <t>Lojista</t>
+        </is>
+      </c>
+      <c r="G78" s="22" t="n"/>
+      <c r="H78" s="5">
+        <f>IFERROR(VLOOKUP(I78,regs!H:I,2,0),"")</f>
+        <v/>
+      </c>
+      <c r="I78">
         <f>LEFT(B78,8)</f>
         <v/>
       </c>
-      <c r="I78">
-        <f>IF(F78&lt;&gt; "",IF(DATEDIF(F78,TODAY(),"D")&gt;60,"Vencido",IF(DATEDIF(F78,TODAY(),"D")&gt;30,"Aviso")),"")</f>
+      <c r="J78">
+        <f>IF(G78&lt;&gt; "",IF(DATEDIF(G78,TODAY(),"D")&gt;60,"Vencido",IF(DATEDIF(G78,TODAY(),"D")&gt;30,"Aviso")),"")</f>
         <v/>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="16" t="inlineStr">
         <is>
-          <t>CESRAN RECRUTAMENTO E SELECAO DE PESSOAL LTDA</t>
+          <t>ARMAZEM BOMGADO GA LTDA</t>
         </is>
       </c>
       <c r="B79" s="2" t="n">
-        <v>49995556000154</v>
+        <v>38824899000130</v>
       </c>
       <c r="C79" s="16" t="inlineStr">
         <is>
-          <t>MR022523/2023</t>
+          <t>MR022759/2023</t>
         </is>
       </c>
       <c r="D79" s="5" t="inlineStr">
         <is>
-          <t>NÃO</t>
+          <t>SIM</t>
         </is>
       </c>
       <c r="E79" s="5" t="inlineStr">
@@ -64447,37 +64879,44 @@
           <t>Domingos e feriados</t>
         </is>
       </c>
-      <c r="F79" s="22" t="n"/>
-      <c r="G79" s="5">
-        <f>IFERROR(VLOOKUP(H79,regs!H:I,2,0),"")</f>
-        <v/>
-      </c>
-      <c r="H79">
+      <c r="F79" s="5" t="inlineStr">
+        <is>
+          <t>Mercado</t>
+        </is>
+      </c>
+      <c r="G79" s="22" t="n">
+        <v>45058</v>
+      </c>
+      <c r="H79" s="5">
+        <f>IFERROR(VLOOKUP(I79,regs!H:I,2,0),"")</f>
+        <v/>
+      </c>
+      <c r="I79">
         <f>LEFT(B79,8)</f>
         <v/>
       </c>
-      <c r="I79">
-        <f>IF(F79&lt;&gt; "",IF(DATEDIF(F79,TODAY(),"D")&gt;60,"Vencido",IF(DATEDIF(F79,TODAY(),"D")&gt;30,"Aviso")),"")</f>
+      <c r="J79">
+        <f>IF(G79&lt;&gt; "",IF(DATEDIF(G79,TODAY(),"D")&gt;60,"Vencido",IF(DATEDIF(G79,TODAY(),"D")&gt;30,"Aviso")),"")</f>
         <v/>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="16" t="inlineStr">
         <is>
-          <t>CRISTALL MIX LTDA</t>
+          <t>SUPERMERCADO ROSALEN II LTDA</t>
         </is>
       </c>
       <c r="B80" s="2" t="n">
-        <v>48453787000173</v>
+        <v>39676354000196</v>
       </c>
       <c r="C80" s="16" t="inlineStr">
         <is>
-          <t>MR022751/2023</t>
+          <t>MR022761/2023</t>
         </is>
       </c>
       <c r="D80" s="5" t="inlineStr">
         <is>
-          <t>NÃO</t>
+          <t>SIM</t>
         </is>
       </c>
       <c r="E80" s="5" t="inlineStr">
@@ -64485,32 +64924,39 @@
           <t>Domingos e feriados</t>
         </is>
       </c>
-      <c r="F80" s="22" t="n"/>
-      <c r="G80" s="5">
-        <f>IFERROR(VLOOKUP(H80,regs!H:I,2,0),"")</f>
-        <v/>
-      </c>
-      <c r="H80">
+      <c r="F80" s="5" t="inlineStr">
+        <is>
+          <t>Mercado</t>
+        </is>
+      </c>
+      <c r="G80" s="22" t="n">
+        <v>45072</v>
+      </c>
+      <c r="H80" s="5">
+        <f>IFERROR(VLOOKUP(I80,regs!H:I,2,0),"")</f>
+        <v/>
+      </c>
+      <c r="I80">
         <f>LEFT(B80,8)</f>
         <v/>
       </c>
-      <c r="I80">
-        <f>IF(F80&lt;&gt; "",IF(DATEDIF(F80,TODAY(),"D")&gt;60,"Vencido",IF(DATEDIF(F80,TODAY(),"D")&gt;30,"Aviso")),"")</f>
+      <c r="J80">
+        <f>IF(G80&lt;&gt; "",IF(DATEDIF(G80,TODAY(),"D")&gt;60,"Vencido",IF(DATEDIF(G80,TODAY(),"D")&gt;30,"Aviso")),"")</f>
         <v/>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="16" t="inlineStr">
         <is>
-          <t>ARMAZEM BOMGADO GA LTDA</t>
+          <t>PAULA H OBJETOS DECORATIVOS E PRESENTES LTDA</t>
         </is>
       </c>
       <c r="B81" s="2" t="n">
-        <v>38824899000130</v>
+        <v>2721404000108</v>
       </c>
       <c r="C81" s="16" t="inlineStr">
         <is>
-          <t>MR022759/2023</t>
+          <t>MR022848/2023</t>
         </is>
       </c>
       <c r="D81" s="5" t="inlineStr">
@@ -64523,39 +64969,44 @@
           <t>Domingos e feriados</t>
         </is>
       </c>
-      <c r="F81" s="22" t="n">
-        <v>45058</v>
-      </c>
-      <c r="G81" s="5">
-        <f>IFERROR(VLOOKUP(H81,regs!H:I,2,0),"")</f>
-        <v/>
-      </c>
-      <c r="H81">
+      <c r="F81" s="5" t="inlineStr">
+        <is>
+          <t>Lojista</t>
+        </is>
+      </c>
+      <c r="G81" s="22" t="n">
+        <v>45057</v>
+      </c>
+      <c r="H81" s="5">
+        <f>IFERROR(VLOOKUP(I81,regs!H:I,2,0),"")</f>
+        <v/>
+      </c>
+      <c r="I81">
         <f>LEFT(B81,8)</f>
         <v/>
       </c>
-      <c r="I81">
-        <f>IF(F81&lt;&gt; "",IF(DATEDIF(F81,TODAY(),"D")&gt;60,"Vencido",IF(DATEDIF(F81,TODAY(),"D")&gt;30,"Aviso")),"")</f>
+      <c r="J81">
+        <f>IF(G81&lt;&gt; "",IF(DATEDIF(G81,TODAY(),"D")&gt;60,"Vencido",IF(DATEDIF(G81,TODAY(),"D")&gt;30,"Aviso")),"")</f>
         <v/>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="16" t="inlineStr">
         <is>
-          <t>SUPERMERCADO ROSALEN II LTDA</t>
+          <t>SERGIO PEDRO TONIOLO</t>
         </is>
       </c>
       <c r="B82" s="2" t="n">
-        <v>39676354000196</v>
+        <v>94678224000109</v>
       </c>
       <c r="C82" s="16" t="inlineStr">
         <is>
-          <t>MR022761/2023</t>
+          <t>MR023039/2023</t>
         </is>
       </c>
       <c r="D82" s="5" t="inlineStr">
         <is>
-          <t>NÃO</t>
+          <t>SIM</t>
         </is>
       </c>
       <c r="E82" s="5" t="inlineStr">
@@ -64563,32 +65014,39 @@
           <t>Domingos e feriados</t>
         </is>
       </c>
-      <c r="F82" s="22" t="n"/>
-      <c r="G82" s="5">
-        <f>IFERROR(VLOOKUP(H82,regs!H:I,2,0),"")</f>
-        <v/>
-      </c>
-      <c r="H82">
+      <c r="F82" s="5" t="inlineStr">
+        <is>
+          <t>Mercado</t>
+        </is>
+      </c>
+      <c r="G82" s="22" t="n">
+        <v>45057</v>
+      </c>
+      <c r="H82" s="5">
+        <f>IFERROR(VLOOKUP(I82,regs!H:I,2,0),"")</f>
+        <v/>
+      </c>
+      <c r="I82">
         <f>LEFT(B82,8)</f>
         <v/>
       </c>
-      <c r="I82">
-        <f>IF(F82&lt;&gt; "",IF(DATEDIF(F82,TODAY(),"D")&gt;60,"Vencido",IF(DATEDIF(F82,TODAY(),"D")&gt;30,"Aviso")),"")</f>
+      <c r="J82">
+        <f>IF(G82&lt;&gt; "",IF(DATEDIF(G82,TODAY(),"D")&gt;60,"Vencido",IF(DATEDIF(G82,TODAY(),"D")&gt;30,"Aviso")),"")</f>
         <v/>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="16" t="inlineStr">
         <is>
-          <t>PAULA H OBJETOS DECORATIVOS E PRESENTES LTDA</t>
+          <t>SUPER PRIMAZ LTDA</t>
         </is>
       </c>
       <c r="B83" s="2" t="n">
-        <v>2721404000108</v>
+        <v>25424804000149</v>
       </c>
       <c r="C83" s="16" t="inlineStr">
         <is>
-          <t>MR022848/2023</t>
+          <t>MR023575/2023</t>
         </is>
       </c>
       <c r="D83" s="5" t="inlineStr">
@@ -64601,34 +65059,39 @@
           <t>Domingos e feriados</t>
         </is>
       </c>
-      <c r="F83" s="22" t="n">
-        <v>45057</v>
-      </c>
-      <c r="G83" s="5">
-        <f>IFERROR(VLOOKUP(H83,regs!H:I,2,0),"")</f>
-        <v/>
-      </c>
-      <c r="H83">
+      <c r="F83" s="5" t="inlineStr">
+        <is>
+          <t>Mercado</t>
+        </is>
+      </c>
+      <c r="G83" s="22" t="n">
+        <v>45061</v>
+      </c>
+      <c r="H83" s="5">
+        <f>IFERROR(VLOOKUP(I83,regs!H:I,2,0),"")</f>
+        <v/>
+      </c>
+      <c r="I83">
         <f>LEFT(B83,8)</f>
         <v/>
       </c>
-      <c r="I83">
-        <f>IF(F83&lt;&gt; "",IF(DATEDIF(F83,TODAY(),"D")&gt;60,"Vencido",IF(DATEDIF(F83,TODAY(),"D")&gt;30,"Aviso")),"")</f>
+      <c r="J83">
+        <f>IF(G83&lt;&gt; "",IF(DATEDIF(G83,TODAY(),"D")&gt;60,"Vencido",IF(DATEDIF(G83,TODAY(),"D")&gt;30,"Aviso")),"")</f>
         <v/>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="16" t="inlineStr">
         <is>
-          <t>SERGIO PEDRO TONIOLO</t>
+          <t>ONE UP INDUSTRIA DE MODA LTDA</t>
         </is>
       </c>
       <c r="B84" s="2" t="n">
-        <v>94678224000109</v>
+        <v>48047765001851</v>
       </c>
       <c r="C84" s="16" t="inlineStr">
         <is>
-          <t>MR023039/2023</t>
+          <t>MR024482/2023</t>
         </is>
       </c>
       <c r="D84" s="5" t="inlineStr">
@@ -64641,39 +65104,44 @@
           <t>Domingos e feriados</t>
         </is>
       </c>
-      <c r="F84" s="22" t="n">
-        <v>45057</v>
-      </c>
-      <c r="G84" s="5">
-        <f>IFERROR(VLOOKUP(H84,regs!H:I,2,0),"")</f>
-        <v/>
-      </c>
-      <c r="H84">
+      <c r="F84" s="5" t="inlineStr">
+        <is>
+          <t>Lojista</t>
+        </is>
+      </c>
+      <c r="G84" s="22" t="n">
+        <v>45065</v>
+      </c>
+      <c r="H84" s="5">
+        <f>IFERROR(VLOOKUP(I84,regs!H:I,2,0),"")</f>
+        <v/>
+      </c>
+      <c r="I84">
         <f>LEFT(B84,8)</f>
         <v/>
       </c>
-      <c r="I84">
-        <f>IF(F84&lt;&gt; "",IF(DATEDIF(F84,TODAY(),"D")&gt;60,"Vencido",IF(DATEDIF(F84,TODAY(),"D")&gt;30,"Aviso")),"")</f>
+      <c r="J84">
+        <f>IF(G84&lt;&gt; "",IF(DATEDIF(G84,TODAY(),"D")&gt;60,"Vencido",IF(DATEDIF(G84,TODAY(),"D")&gt;30,"Aviso")),"")</f>
         <v/>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="16" t="inlineStr">
         <is>
-          <t>SUPER PRIMAZ LTDA</t>
+          <t>K2 COMERCIO E INDUSTRIA LTDA</t>
         </is>
       </c>
       <c r="B85" s="2" t="n">
-        <v>25424804000149</v>
+        <v>1167639000714</v>
       </c>
       <c r="C85" s="16" t="inlineStr">
         <is>
-          <t>MR023575/2023</t>
+          <t>MR026862/2023</t>
         </is>
       </c>
       <c r="D85" s="5" t="inlineStr">
         <is>
-          <t>SIM</t>
+          <t>NÃO</t>
         </is>
       </c>
       <c r="E85" s="5" t="inlineStr">
@@ -64681,59 +65149,43 @@
           <t>Domingos e feriados</t>
         </is>
       </c>
-      <c r="F85" s="22" t="n">
-        <v>45061</v>
-      </c>
-      <c r="G85" s="5">
-        <f>IFERROR(VLOOKUP(H85,regs!H:I,2,0),"")</f>
-        <v/>
-      </c>
-      <c r="H85">
+      <c r="F85" s="5" t="inlineStr">
+        <is>
+          <t>Lojista</t>
+        </is>
+      </c>
+      <c r="G85" s="22" t="n"/>
+      <c r="H85" s="5">
+        <f>IFERROR(VLOOKUP(I85,regs!H:I,2,0),"")</f>
+        <v/>
+      </c>
+      <c r="I85">
         <f>LEFT(B85,8)</f>
         <v/>
       </c>
-      <c r="I85">
-        <f>IF(F85&lt;&gt; "",IF(DATEDIF(F85,TODAY(),"D")&gt;60,"Vencido",IF(DATEDIF(F85,TODAY(),"D")&gt;30,"Aviso")),"")</f>
+      <c r="J85">
+        <f>IF(G85&lt;&gt; "",IF(DATEDIF(G85,TODAY(),"D")&gt;60,"Vencido",IF(DATEDIF(G85,TODAY(),"D")&gt;30,"Aviso")),"")</f>
         <v/>
       </c>
     </row>
     <row r="86">
-      <c r="A86" s="16" t="inlineStr">
-        <is>
-          <t>ONE UP INDUSTRIA DE MODA LTDA</t>
-        </is>
-      </c>
-      <c r="B86" s="2" t="n">
-        <v>48047765001851</v>
-      </c>
-      <c r="C86" s="16" t="inlineStr">
-        <is>
-          <t>MR024482/2023</t>
-        </is>
-      </c>
-      <c r="D86" s="5" t="inlineStr">
-        <is>
-          <t>SIM</t>
-        </is>
-      </c>
-      <c r="E86" s="5" t="inlineStr">
-        <is>
-          <t>Domingos e feriados</t>
-        </is>
-      </c>
-      <c r="F86" s="22" t="n">
-        <v>45065</v>
-      </c>
-      <c r="G86" s="5">
-        <f>IFERROR(VLOOKUP(H86,regs!H:I,2,0),"")</f>
-        <v/>
-      </c>
-      <c r="H86">
+      <c r="A86" s="16" t="n"/>
+      <c r="B86" s="2" t="n"/>
+      <c r="C86" s="16" t="n"/>
+      <c r="D86" s="5" t="n"/>
+      <c r="E86" s="5" t="n"/>
+      <c r="F86" s="22" t="n"/>
+      <c r="G86" s="22" t="n"/>
+      <c r="H86" s="5">
+        <f>IFERROR(VLOOKUP(I86,regs!H:I,2,0),"")</f>
+        <v/>
+      </c>
+      <c r="I86">
         <f>LEFT(B86,8)</f>
         <v/>
       </c>
-      <c r="I86">
-        <f>IF(F86&lt;&gt; "",IF(DATEDIF(F86,TODAY(),"D")&gt;60,"Vencido",IF(DATEDIF(F86,TODAY(),"D")&gt;30,"Aviso")),"")</f>
+      <c r="J86">
+        <f>IF(G86&lt;&gt; "",IF(DATEDIF(G86,TODAY(),"D")&gt;60,"Vencido",IF(DATEDIF(G86,TODAY(),"D")&gt;30,"Aviso")),"")</f>
         <v/>
       </c>
     </row>
@@ -64743,17 +65195,18 @@
       <c r="C87" s="16" t="n"/>
       <c r="D87" s="5" t="n"/>
       <c r="E87" s="5" t="n"/>
-      <c r="F87" s="22" t="n"/>
-      <c r="G87" s="5">
-        <f>IFERROR(VLOOKUP(H87,regs!H:I,2,0),"")</f>
-        <v/>
-      </c>
-      <c r="H87">
+      <c r="F87" s="5" t="n"/>
+      <c r="G87" s="22" t="n"/>
+      <c r="H87" s="5">
+        <f>IFERROR(VLOOKUP(I87,regs!H:I,2,0),"")</f>
+        <v/>
+      </c>
+      <c r="I87">
         <f>LEFT(B87,8)</f>
         <v/>
       </c>
-      <c r="I87">
-        <f>IF(F87&lt;&gt; "",IF(DATEDIF(F87,TODAY(),"D")&gt;60,"Vencido",IF(DATEDIF(F87,TODAY(),"D")&gt;30,"Aviso")),"")</f>
+      <c r="J87">
+        <f>IF(G87&lt;&gt; "",IF(DATEDIF(G87,TODAY(),"D")&gt;60,"Vencido",IF(DATEDIF(G87,TODAY(),"D")&gt;30,"Aviso")),"")</f>
         <v/>
       </c>
     </row>
@@ -64763,17 +65216,18 @@
       <c r="C88" s="16" t="n"/>
       <c r="D88" s="5" t="n"/>
       <c r="E88" s="5" t="n"/>
-      <c r="F88" s="22" t="n"/>
-      <c r="G88" s="5">
-        <f>IFERROR(VLOOKUP(H88,regs!H:I,2,0),"")</f>
-        <v/>
-      </c>
-      <c r="H88">
+      <c r="F88" s="5" t="n"/>
+      <c r="G88" s="22" t="n"/>
+      <c r="H88" s="5">
+        <f>IFERROR(VLOOKUP(I88,regs!H:I,2,0),"")</f>
+        <v/>
+      </c>
+      <c r="I88">
         <f>LEFT(B88,8)</f>
         <v/>
       </c>
-      <c r="I88">
-        <f>IF(F88&lt;&gt; "",IF(DATEDIF(F88,TODAY(),"D")&gt;60,"Vencido",IF(DATEDIF(F88,TODAY(),"D")&gt;30,"Aviso")),"")</f>
+      <c r="J88">
+        <f>IF(G88&lt;&gt; "",IF(DATEDIF(G88,TODAY(),"D")&gt;60,"Vencido",IF(DATEDIF(G88,TODAY(),"D")&gt;30,"Aviso")),"")</f>
         <v/>
       </c>
     </row>
@@ -64783,17 +65237,18 @@
       <c r="C89" s="16" t="n"/>
       <c r="D89" s="5" t="n"/>
       <c r="E89" s="5" t="n"/>
-      <c r="F89" s="22" t="n"/>
-      <c r="G89" s="5">
-        <f>IFERROR(VLOOKUP(H89,regs!H:I,2,0),"")</f>
-        <v/>
-      </c>
-      <c r="H89">
+      <c r="F89" s="5" t="n"/>
+      <c r="G89" s="22" t="n"/>
+      <c r="H89" s="5">
+        <f>IFERROR(VLOOKUP(I89,regs!H:I,2,0),"")</f>
+        <v/>
+      </c>
+      <c r="I89">
         <f>LEFT(B89,8)</f>
         <v/>
       </c>
-      <c r="I89">
-        <f>IF(F89&lt;&gt; "",IF(DATEDIF(F89,TODAY(),"D")&gt;60,"Vencido",IF(DATEDIF(F89,TODAY(),"D")&gt;30,"Aviso")),"")</f>
+      <c r="J89">
+        <f>IF(G89&lt;&gt; "",IF(DATEDIF(G89,TODAY(),"D")&gt;60,"Vencido",IF(DATEDIF(G89,TODAY(),"D")&gt;30,"Aviso")),"")</f>
         <v/>
       </c>
     </row>
@@ -64803,17 +65258,18 @@
       <c r="C90" s="16" t="n"/>
       <c r="D90" s="5" t="n"/>
       <c r="E90" s="5" t="n"/>
-      <c r="F90" s="22" t="n"/>
-      <c r="G90" s="5">
-        <f>IFERROR(VLOOKUP(H90,regs!H:I,2,0),"")</f>
-        <v/>
-      </c>
-      <c r="H90">
+      <c r="F90" s="5" t="n"/>
+      <c r="G90" s="22" t="n"/>
+      <c r="H90" s="5">
+        <f>IFERROR(VLOOKUP(I90,regs!H:I,2,0),"")</f>
+        <v/>
+      </c>
+      <c r="I90">
         <f>LEFT(B90,8)</f>
         <v/>
       </c>
-      <c r="I90">
-        <f>IF(F90&lt;&gt; "",IF(DATEDIF(F90,TODAY(),"D")&gt;60,"Vencido",IF(DATEDIF(F90,TODAY(),"D")&gt;30,"Aviso")),"")</f>
+      <c r="J90">
+        <f>IF(G90&lt;&gt; "",IF(DATEDIF(G90,TODAY(),"D")&gt;60,"Vencido",IF(DATEDIF(G90,TODAY(),"D")&gt;30,"Aviso")),"")</f>
         <v/>
       </c>
     </row>
@@ -64823,17 +65279,18 @@
       <c r="C91" s="16" t="n"/>
       <c r="D91" s="5" t="n"/>
       <c r="E91" s="5" t="n"/>
-      <c r="F91" s="22" t="n"/>
-      <c r="G91" s="5">
-        <f>IFERROR(VLOOKUP(H91,regs!H:I,2,0),"")</f>
-        <v/>
-      </c>
-      <c r="H91">
+      <c r="F91" s="5" t="n"/>
+      <c r="G91" s="22" t="n"/>
+      <c r="H91" s="5">
+        <f>IFERROR(VLOOKUP(I91,regs!H:I,2,0),"")</f>
+        <v/>
+      </c>
+      <c r="I91">
         <f>LEFT(B91,8)</f>
         <v/>
       </c>
-      <c r="I91">
-        <f>IF(F91&lt;&gt; "",IF(DATEDIF(F91,TODAY(),"D")&gt;60,"Vencido",IF(DATEDIF(F91,TODAY(),"D")&gt;30,"Aviso")),"")</f>
+      <c r="J91">
+        <f>IF(G91&lt;&gt; "",IF(DATEDIF(G91,TODAY(),"D")&gt;60,"Vencido",IF(DATEDIF(G91,TODAY(),"D")&gt;30,"Aviso")),"")</f>
         <v/>
       </c>
     </row>
@@ -64843,17 +65300,18 @@
       <c r="C92" s="16" t="n"/>
       <c r="D92" s="5" t="n"/>
       <c r="E92" s="5" t="n"/>
-      <c r="F92" s="22" t="n"/>
-      <c r="G92" s="5">
-        <f>IFERROR(VLOOKUP(H92,regs!H:I,2,0),"")</f>
-        <v/>
-      </c>
-      <c r="H92">
+      <c r="F92" s="5" t="n"/>
+      <c r="G92" s="22" t="n"/>
+      <c r="H92" s="5">
+        <f>IFERROR(VLOOKUP(I92,regs!H:I,2,0),"")</f>
+        <v/>
+      </c>
+      <c r="I92">
         <f>LEFT(B92,8)</f>
         <v/>
       </c>
-      <c r="I92">
-        <f>IF(F92&lt;&gt; "",IF(DATEDIF(F92,TODAY(),"D")&gt;60,"Vencido",IF(DATEDIF(F92,TODAY(),"D")&gt;30,"Aviso")),"")</f>
+      <c r="J92">
+        <f>IF(G92&lt;&gt; "",IF(DATEDIF(G92,TODAY(),"D")&gt;60,"Vencido",IF(DATEDIF(G92,TODAY(),"D")&gt;30,"Aviso")),"")</f>
         <v/>
       </c>
     </row>
@@ -64863,17 +65321,18 @@
       <c r="C93" s="16" t="n"/>
       <c r="D93" s="5" t="n"/>
       <c r="E93" s="5" t="n"/>
-      <c r="F93" s="22" t="n"/>
-      <c r="G93" s="5">
-        <f>IFERROR(VLOOKUP(H93,regs!H:I,2,0),"")</f>
-        <v/>
-      </c>
-      <c r="H93">
+      <c r="F93" s="5" t="n"/>
+      <c r="G93" s="22" t="n"/>
+      <c r="H93" s="5">
+        <f>IFERROR(VLOOKUP(I93,regs!H:I,2,0),"")</f>
+        <v/>
+      </c>
+      <c r="I93">
         <f>LEFT(B93,8)</f>
         <v/>
       </c>
-      <c r="I93">
-        <f>IF(F93&lt;&gt; "",IF(DATEDIF(F93,TODAY(),"D")&gt;60,"Vencido",IF(DATEDIF(F93,TODAY(),"D")&gt;30,"Aviso")),"")</f>
+      <c r="J93">
+        <f>IF(G93&lt;&gt; "",IF(DATEDIF(G93,TODAY(),"D")&gt;60,"Vencido",IF(DATEDIF(G93,TODAY(),"D")&gt;30,"Aviso")),"")</f>
         <v/>
       </c>
     </row>
@@ -64883,17 +65342,18 @@
       <c r="C94" s="16" t="n"/>
       <c r="D94" s="5" t="n"/>
       <c r="E94" s="5" t="n"/>
-      <c r="F94" s="22" t="n"/>
-      <c r="G94" s="5">
-        <f>IFERROR(VLOOKUP(H94,regs!H:I,2,0),"")</f>
-        <v/>
-      </c>
-      <c r="H94">
+      <c r="F94" s="5" t="n"/>
+      <c r="G94" s="22" t="n"/>
+      <c r="H94" s="5">
+        <f>IFERROR(VLOOKUP(I94,regs!H:I,2,0),"")</f>
+        <v/>
+      </c>
+      <c r="I94">
         <f>LEFT(B94,8)</f>
         <v/>
       </c>
-      <c r="I94">
-        <f>IF(F94&lt;&gt; "",IF(DATEDIF(F94,TODAY(),"D")&gt;60,"Vencido",IF(DATEDIF(F94,TODAY(),"D")&gt;30,"Aviso")),"")</f>
+      <c r="J94">
+        <f>IF(G94&lt;&gt; "",IF(DATEDIF(G94,TODAY(),"D")&gt;60,"Vencido",IF(DATEDIF(G94,TODAY(),"D")&gt;30,"Aviso")),"")</f>
         <v/>
       </c>
     </row>
@@ -64903,17 +65363,18 @@
       <c r="C95" s="16" t="n"/>
       <c r="D95" s="5" t="n"/>
       <c r="E95" s="5" t="n"/>
-      <c r="F95" s="22" t="n"/>
-      <c r="G95" s="5">
-        <f>IFERROR(VLOOKUP(H95,regs!H:I,2,0),"")</f>
-        <v/>
-      </c>
-      <c r="H95">
+      <c r="F95" s="5" t="n"/>
+      <c r="G95" s="22" t="n"/>
+      <c r="H95" s="5">
+        <f>IFERROR(VLOOKUP(I95,regs!H:I,2,0),"")</f>
+        <v/>
+      </c>
+      <c r="I95">
         <f>LEFT(B95,8)</f>
         <v/>
       </c>
-      <c r="I95">
-        <f>IF(F95&lt;&gt; "",IF(DATEDIF(F95,TODAY(),"D")&gt;60,"Vencido",IF(DATEDIF(F95,TODAY(),"D")&gt;30,"Aviso")),"")</f>
+      <c r="J95">
+        <f>IF(G95&lt;&gt; "",IF(DATEDIF(G95,TODAY(),"D")&gt;60,"Vencido",IF(DATEDIF(G95,TODAY(),"D")&gt;30,"Aviso")),"")</f>
         <v/>
       </c>
     </row>
@@ -64923,17 +65384,18 @@
       <c r="C96" s="16" t="n"/>
       <c r="D96" s="5" t="n"/>
       <c r="E96" s="5" t="n"/>
-      <c r="F96" s="22" t="n"/>
-      <c r="G96" s="5">
-        <f>IFERROR(VLOOKUP(H96,regs!H:I,2,0),"")</f>
-        <v/>
-      </c>
-      <c r="H96">
+      <c r="F96" s="5" t="n"/>
+      <c r="G96" s="22" t="n"/>
+      <c r="H96" s="5">
+        <f>IFERROR(VLOOKUP(I96,regs!H:I,2,0),"")</f>
+        <v/>
+      </c>
+      <c r="I96">
         <f>LEFT(B96,8)</f>
         <v/>
       </c>
-      <c r="I96">
-        <f>IF(F96&lt;&gt; "",IF(DATEDIF(F96,TODAY(),"D")&gt;60,"Vencido",IF(DATEDIF(F96,TODAY(),"D")&gt;30,"Aviso")),"")</f>
+      <c r="J96">
+        <f>IF(G96&lt;&gt; "",IF(DATEDIF(G96,TODAY(),"D")&gt;60,"Vencido",IF(DATEDIF(G96,TODAY(),"D")&gt;30,"Aviso")),"")</f>
         <v/>
       </c>
     </row>
@@ -64943,17 +65405,18 @@
       <c r="C97" s="16" t="n"/>
       <c r="D97" s="5" t="n"/>
       <c r="E97" s="5" t="n"/>
-      <c r="F97" s="22" t="n"/>
-      <c r="G97" s="5">
-        <f>IFERROR(VLOOKUP(H97,regs!H:I,2,0),"")</f>
-        <v/>
-      </c>
-      <c r="H97">
+      <c r="F97" s="5" t="n"/>
+      <c r="G97" s="22" t="n"/>
+      <c r="H97" s="5">
+        <f>IFERROR(VLOOKUP(I97,regs!H:I,2,0),"")</f>
+        <v/>
+      </c>
+      <c r="I97">
         <f>LEFT(B97,8)</f>
         <v/>
       </c>
-      <c r="I97">
-        <f>IF(F97&lt;&gt; "",IF(DATEDIF(F97,TODAY(),"D")&gt;60,"Vencido",IF(DATEDIF(F97,TODAY(),"D")&gt;30,"Aviso")),"")</f>
+      <c r="J97">
+        <f>IF(G97&lt;&gt; "",IF(DATEDIF(G97,TODAY(),"D")&gt;60,"Vencido",IF(DATEDIF(G97,TODAY(),"D")&gt;30,"Aviso")),"")</f>
         <v/>
       </c>
     </row>
@@ -64963,17 +65426,18 @@
       <c r="C98" s="16" t="n"/>
       <c r="D98" s="5" t="n"/>
       <c r="E98" s="5" t="n"/>
-      <c r="F98" s="22" t="n"/>
-      <c r="G98" s="5">
-        <f>IFERROR(VLOOKUP(H98,regs!H:I,2,0),"")</f>
-        <v/>
-      </c>
-      <c r="H98">
+      <c r="F98" s="5" t="n"/>
+      <c r="G98" s="22" t="n"/>
+      <c r="H98" s="5">
+        <f>IFERROR(VLOOKUP(I98,regs!H:I,2,0),"")</f>
+        <v/>
+      </c>
+      <c r="I98">
         <f>LEFT(B98,8)</f>
         <v/>
       </c>
-      <c r="I98">
-        <f>IF(F98&lt;&gt; "",IF(DATEDIF(F98,TODAY(),"D")&gt;60,"Vencido",IF(DATEDIF(F98,TODAY(),"D")&gt;30,"Aviso")),"")</f>
+      <c r="J98">
+        <f>IF(G98&lt;&gt; "",IF(DATEDIF(G98,TODAY(),"D")&gt;60,"Vencido",IF(DATEDIF(G98,TODAY(),"D")&gt;30,"Aviso")),"")</f>
         <v/>
       </c>
     </row>
@@ -64983,17 +65447,18 @@
       <c r="C99" s="16" t="n"/>
       <c r="D99" s="5" t="n"/>
       <c r="E99" s="5" t="n"/>
-      <c r="F99" s="22" t="n"/>
-      <c r="G99" s="5">
-        <f>IFERROR(VLOOKUP(H99,regs!H:I,2,0),"")</f>
-        <v/>
-      </c>
-      <c r="H99">
+      <c r="F99" s="5" t="n"/>
+      <c r="G99" s="22" t="n"/>
+      <c r="H99" s="5">
+        <f>IFERROR(VLOOKUP(I99,regs!H:I,2,0),"")</f>
+        <v/>
+      </c>
+      <c r="I99">
         <f>LEFT(B99,8)</f>
         <v/>
       </c>
-      <c r="I99">
-        <f>IF(F99&lt;&gt; "",IF(DATEDIF(F99,TODAY(),"D")&gt;60,"Vencido",IF(DATEDIF(F99,TODAY(),"D")&gt;30,"Aviso")),"")</f>
+      <c r="J99">
+        <f>IF(G99&lt;&gt; "",IF(DATEDIF(G99,TODAY(),"D")&gt;60,"Vencido",IF(DATEDIF(G99,TODAY(),"D")&gt;30,"Aviso")),"")</f>
         <v/>
       </c>
     </row>
@@ -65003,17 +65468,18 @@
       <c r="C100" s="16" t="n"/>
       <c r="D100" s="5" t="n"/>
       <c r="E100" s="5" t="n"/>
-      <c r="F100" s="22" t="n"/>
-      <c r="G100" s="5">
-        <f>IFERROR(VLOOKUP(H100,regs!H:I,2,0),"")</f>
-        <v/>
-      </c>
-      <c r="H100">
+      <c r="F100" s="5" t="n"/>
+      <c r="G100" s="22" t="n"/>
+      <c r="H100" s="5">
+        <f>IFERROR(VLOOKUP(I100,regs!H:I,2,0),"")</f>
+        <v/>
+      </c>
+      <c r="I100">
         <f>LEFT(B100,8)</f>
         <v/>
       </c>
-      <c r="I100">
-        <f>IF(F100&lt;&gt; "",IF(DATEDIF(F100,TODAY(),"D")&gt;60,"Vencido",IF(DATEDIF(F100,TODAY(),"D")&gt;30,"Aviso")),"")</f>
+      <c r="J100">
+        <f>IF(G100&lt;&gt; "",IF(DATEDIF(G100,TODAY(),"D")&gt;60,"Vencido",IF(DATEDIF(G100,TODAY(),"D")&gt;30,"Aviso")),"")</f>
         <v/>
       </c>
     </row>
@@ -65023,17 +65489,18 @@
       <c r="C101" s="16" t="n"/>
       <c r="D101" s="5" t="n"/>
       <c r="E101" s="5" t="n"/>
-      <c r="F101" s="22" t="n"/>
-      <c r="G101" s="5">
-        <f>IFERROR(VLOOKUP(H101,regs!H:I,2,0),"")</f>
-        <v/>
-      </c>
-      <c r="H101">
+      <c r="F101" s="5" t="n"/>
+      <c r="G101" s="22" t="n"/>
+      <c r="H101" s="5">
+        <f>IFERROR(VLOOKUP(I101,regs!H:I,2,0),"")</f>
+        <v/>
+      </c>
+      <c r="I101">
         <f>LEFT(B101,8)</f>
         <v/>
       </c>
-      <c r="I101">
-        <f>IF(F101&lt;&gt; "",IF(DATEDIF(F101,TODAY(),"D")&gt;60,"Vencido",IF(DATEDIF(F101,TODAY(),"D")&gt;30,"Aviso")),"")</f>
+      <c r="J101">
+        <f>IF(G101&lt;&gt; "",IF(DATEDIF(G101,TODAY(),"D")&gt;60,"Vencido",IF(DATEDIF(G101,TODAY(),"D")&gt;30,"Aviso")),"")</f>
         <v/>
       </c>
     </row>
@@ -65043,17 +65510,18 @@
       <c r="C102" s="16" t="n"/>
       <c r="D102" s="5" t="n"/>
       <c r="E102" s="5" t="n"/>
-      <c r="F102" s="22" t="n"/>
-      <c r="G102" s="5">
-        <f>IFERROR(VLOOKUP(H102,regs!H:I,2,0),"")</f>
-        <v/>
-      </c>
-      <c r="H102">
+      <c r="F102" s="5" t="n"/>
+      <c r="G102" s="22" t="n"/>
+      <c r="H102" s="5">
+        <f>IFERROR(VLOOKUP(I102,regs!H:I,2,0),"")</f>
+        <v/>
+      </c>
+      <c r="I102">
         <f>LEFT(B102,8)</f>
         <v/>
       </c>
-      <c r="I102">
-        <f>IF(F102&lt;&gt; "",IF(DATEDIF(F102,TODAY(),"D")&gt;60,"Vencido",IF(DATEDIF(F102,TODAY(),"D")&gt;30,"Aviso")),"")</f>
+      <c r="J102">
+        <f>IF(G102&lt;&gt; "",IF(DATEDIF(G102,TODAY(),"D")&gt;60,"Vencido",IF(DATEDIF(G102,TODAY(),"D")&gt;30,"Aviso")),"")</f>
         <v/>
       </c>
     </row>
@@ -65063,17 +65531,18 @@
       <c r="C103" s="16" t="n"/>
       <c r="D103" s="5" t="n"/>
       <c r="E103" s="5" t="n"/>
-      <c r="F103" s="22" t="n"/>
-      <c r="G103" s="5">
-        <f>IFERROR(VLOOKUP(H103,regs!H:I,2,0),"")</f>
-        <v/>
-      </c>
-      <c r="H103">
+      <c r="F103" s="5" t="n"/>
+      <c r="G103" s="22" t="n"/>
+      <c r="H103" s="5">
+        <f>IFERROR(VLOOKUP(I103,regs!H:I,2,0),"")</f>
+        <v/>
+      </c>
+      <c r="I103">
         <f>LEFT(B103,8)</f>
         <v/>
       </c>
-      <c r="I103">
-        <f>IF(F103&lt;&gt; "",IF(DATEDIF(F103,TODAY(),"D")&gt;60,"Vencido",IF(DATEDIF(F103,TODAY(),"D")&gt;30,"Aviso")),"")</f>
+      <c r="J103">
+        <f>IF(G103&lt;&gt; "",IF(DATEDIF(G103,TODAY(),"D")&gt;60,"Vencido",IF(DATEDIF(G103,TODAY(),"D")&gt;30,"Aviso")),"")</f>
         <v/>
       </c>
     </row>
@@ -65083,17 +65552,18 @@
       <c r="C104" s="16" t="n"/>
       <c r="D104" s="5" t="n"/>
       <c r="E104" s="5" t="n"/>
-      <c r="F104" s="22" t="n"/>
-      <c r="G104" s="5">
-        <f>IFERROR(VLOOKUP(H104,regs!H:I,2,0),"")</f>
-        <v/>
-      </c>
-      <c r="H104">
+      <c r="F104" s="5" t="n"/>
+      <c r="G104" s="22" t="n"/>
+      <c r="H104" s="5">
+        <f>IFERROR(VLOOKUP(I104,regs!H:I,2,0),"")</f>
+        <v/>
+      </c>
+      <c r="I104">
         <f>LEFT(B104,8)</f>
         <v/>
       </c>
-      <c r="I104">
-        <f>IF(F104&lt;&gt; "",IF(DATEDIF(F104,TODAY(),"D")&gt;60,"Vencido",IF(DATEDIF(F104,TODAY(),"D")&gt;30,"Aviso")),"")</f>
+      <c r="J104">
+        <f>IF(G104&lt;&gt; "",IF(DATEDIF(G104,TODAY(),"D")&gt;60,"Vencido",IF(DATEDIF(G104,TODAY(),"D")&gt;30,"Aviso")),"")</f>
         <v/>
       </c>
     </row>
@@ -65103,17 +65573,18 @@
       <c r="C105" s="16" t="n"/>
       <c r="D105" s="5" t="n"/>
       <c r="E105" s="5" t="n"/>
-      <c r="F105" s="22" t="n"/>
-      <c r="G105" s="5">
-        <f>IFERROR(VLOOKUP(H105,regs!H:I,2,0),"")</f>
-        <v/>
-      </c>
-      <c r="H105">
+      <c r="F105" s="5" t="n"/>
+      <c r="G105" s="22" t="n"/>
+      <c r="H105" s="5">
+        <f>IFERROR(VLOOKUP(I105,regs!H:I,2,0),"")</f>
+        <v/>
+      </c>
+      <c r="I105">
         <f>LEFT(B105,8)</f>
         <v/>
       </c>
-      <c r="I105">
-        <f>IF(F105&lt;&gt; "",IF(DATEDIF(F105,TODAY(),"D")&gt;60,"Vencido",IF(DATEDIF(F105,TODAY(),"D")&gt;30,"Aviso")),"")</f>
+      <c r="J105">
+        <f>IF(G105&lt;&gt; "",IF(DATEDIF(G105,TODAY(),"D")&gt;60,"Vencido",IF(DATEDIF(G105,TODAY(),"D")&gt;30,"Aviso")),"")</f>
         <v/>
       </c>
     </row>
@@ -65123,17 +65594,18 @@
       <c r="C106" s="16" t="n"/>
       <c r="D106" s="5" t="n"/>
       <c r="E106" s="5" t="n"/>
-      <c r="F106" s="22" t="n"/>
-      <c r="G106" s="5">
-        <f>IFERROR(VLOOKUP(H106,regs!H:I,2,0),"")</f>
-        <v/>
-      </c>
-      <c r="H106">
+      <c r="F106" s="5" t="n"/>
+      <c r="G106" s="22" t="n"/>
+      <c r="H106" s="5">
+        <f>IFERROR(VLOOKUP(I106,regs!H:I,2,0),"")</f>
+        <v/>
+      </c>
+      <c r="I106">
         <f>LEFT(B106,8)</f>
         <v/>
       </c>
-      <c r="I106">
-        <f>IF(F106&lt;&gt; "",IF(DATEDIF(F106,TODAY(),"D")&gt;60,"Vencido",IF(DATEDIF(F106,TODAY(),"D")&gt;30,"Aviso")),"")</f>
+      <c r="J106">
+        <f>IF(G106&lt;&gt; "",IF(DATEDIF(G106,TODAY(),"D")&gt;60,"Vencido",IF(DATEDIF(G106,TODAY(),"D")&gt;30,"Aviso")),"")</f>
         <v/>
       </c>
     </row>
@@ -65143,17 +65615,18 @@
       <c r="C107" s="16" t="n"/>
       <c r="D107" s="5" t="n"/>
       <c r="E107" s="5" t="n"/>
-      <c r="F107" s="22" t="n"/>
-      <c r="G107" s="5">
-        <f>IFERROR(VLOOKUP(H107,regs!H:I,2,0),"")</f>
-        <v/>
-      </c>
-      <c r="H107">
+      <c r="F107" s="5" t="n"/>
+      <c r="G107" s="22" t="n"/>
+      <c r="H107" s="5">
+        <f>IFERROR(VLOOKUP(I107,regs!H:I,2,0),"")</f>
+        <v/>
+      </c>
+      <c r="I107">
         <f>LEFT(B107,8)</f>
         <v/>
       </c>
-      <c r="I107">
-        <f>IF(F107&lt;&gt; "",IF(DATEDIF(F107,TODAY(),"D")&gt;60,"Vencido",IF(DATEDIF(F107,TODAY(),"D")&gt;30,"Aviso")),"")</f>
+      <c r="J107">
+        <f>IF(G107&lt;&gt; "",IF(DATEDIF(G107,TODAY(),"D")&gt;60,"Vencido",IF(DATEDIF(G107,TODAY(),"D")&gt;30,"Aviso")),"")</f>
         <v/>
       </c>
     </row>
@@ -65163,17 +65636,18 @@
       <c r="C108" s="16" t="n"/>
       <c r="D108" s="5" t="n"/>
       <c r="E108" s="5" t="n"/>
-      <c r="F108" s="22" t="n"/>
-      <c r="G108" s="5">
-        <f>IFERROR(VLOOKUP(H108,regs!H:I,2,0),"")</f>
-        <v/>
-      </c>
-      <c r="H108">
+      <c r="F108" s="5" t="n"/>
+      <c r="G108" s="22" t="n"/>
+      <c r="H108" s="5">
+        <f>IFERROR(VLOOKUP(I108,regs!H:I,2,0),"")</f>
+        <v/>
+      </c>
+      <c r="I108">
         <f>LEFT(B108,8)</f>
         <v/>
       </c>
-      <c r="I108">
-        <f>IF(F108&lt;&gt; "",IF(DATEDIF(F108,TODAY(),"D")&gt;60,"Vencido",IF(DATEDIF(F108,TODAY(),"D")&gt;30,"Aviso")),"")</f>
+      <c r="J108">
+        <f>IF(G108&lt;&gt; "",IF(DATEDIF(G108,TODAY(),"D")&gt;60,"Vencido",IF(DATEDIF(G108,TODAY(),"D")&gt;30,"Aviso")),"")</f>
         <v/>
       </c>
     </row>
@@ -65183,17 +65657,18 @@
       <c r="C109" s="16" t="n"/>
       <c r="D109" s="5" t="n"/>
       <c r="E109" s="5" t="n"/>
-      <c r="F109" s="22" t="n"/>
-      <c r="G109" s="5">
-        <f>IFERROR(VLOOKUP(H109,regs!H:I,2,0),"")</f>
-        <v/>
-      </c>
-      <c r="H109">
+      <c r="F109" s="5" t="n"/>
+      <c r="G109" s="22" t="n"/>
+      <c r="H109" s="5">
+        <f>IFERROR(VLOOKUP(I109,regs!H:I,2,0),"")</f>
+        <v/>
+      </c>
+      <c r="I109">
         <f>LEFT(B109,8)</f>
         <v/>
       </c>
-      <c r="I109">
-        <f>IF(F109&lt;&gt; "",IF(DATEDIF(F109,TODAY(),"D")&gt;60,"Vencido",IF(DATEDIF(F109,TODAY(),"D")&gt;30,"Aviso")),"")</f>
+      <c r="J109">
+        <f>IF(G109&lt;&gt; "",IF(DATEDIF(G109,TODAY(),"D")&gt;60,"Vencido",IF(DATEDIF(G109,TODAY(),"D")&gt;30,"Aviso")),"")</f>
         <v/>
       </c>
     </row>
@@ -65203,17 +65678,18 @@
       <c r="C110" s="16" t="n"/>
       <c r="D110" s="5" t="n"/>
       <c r="E110" s="5" t="n"/>
-      <c r="F110" s="22" t="n"/>
-      <c r="G110" s="5">
-        <f>IFERROR(VLOOKUP(H110,regs!H:I,2,0),"")</f>
-        <v/>
-      </c>
-      <c r="H110">
+      <c r="F110" s="5" t="n"/>
+      <c r="G110" s="22" t="n"/>
+      <c r="H110" s="5">
+        <f>IFERROR(VLOOKUP(I110,regs!H:I,2,0),"")</f>
+        <v/>
+      </c>
+      <c r="I110">
         <f>LEFT(B110,8)</f>
         <v/>
       </c>
-      <c r="I110">
-        <f>IF(F110&lt;&gt; "",IF(DATEDIF(F110,TODAY(),"D")&gt;60,"Vencido",IF(DATEDIF(F110,TODAY(),"D")&gt;30,"Aviso")),"")</f>
+      <c r="J110">
+        <f>IF(G110&lt;&gt; "",IF(DATEDIF(G110,TODAY(),"D")&gt;60,"Vencido",IF(DATEDIF(G110,TODAY(),"D")&gt;30,"Aviso")),"")</f>
         <v/>
       </c>
     </row>
@@ -65223,17 +65699,18 @@
       <c r="C111" s="16" t="n"/>
       <c r="D111" s="5" t="n"/>
       <c r="E111" s="5" t="n"/>
-      <c r="F111" s="22" t="n"/>
-      <c r="G111" s="5">
-        <f>IFERROR(VLOOKUP(H111,regs!H:I,2,0),"")</f>
-        <v/>
-      </c>
-      <c r="H111">
+      <c r="F111" s="5" t="n"/>
+      <c r="G111" s="22" t="n"/>
+      <c r="H111" s="5">
+        <f>IFERROR(VLOOKUP(I111,regs!H:I,2,0),"")</f>
+        <v/>
+      </c>
+      <c r="I111">
         <f>LEFT(B111,8)</f>
         <v/>
       </c>
-      <c r="I111">
-        <f>IF(F111&lt;&gt; "",IF(DATEDIF(F111,TODAY(),"D")&gt;60,"Vencido",IF(DATEDIF(F111,TODAY(),"D")&gt;30,"Aviso")),"")</f>
+      <c r="J111">
+        <f>IF(G111&lt;&gt; "",IF(DATEDIF(G111,TODAY(),"D")&gt;60,"Vencido",IF(DATEDIF(G111,TODAY(),"D")&gt;30,"Aviso")),"")</f>
         <v/>
       </c>
     </row>
@@ -65243,17 +65720,18 @@
       <c r="C112" s="16" t="n"/>
       <c r="D112" s="5" t="n"/>
       <c r="E112" s="5" t="n"/>
-      <c r="F112" s="22" t="n"/>
-      <c r="G112" s="5">
-        <f>IFERROR(VLOOKUP(H112,regs!H:I,2,0),"")</f>
-        <v/>
-      </c>
-      <c r="H112">
+      <c r="F112" s="5" t="n"/>
+      <c r="G112" s="22" t="n"/>
+      <c r="H112" s="5">
+        <f>IFERROR(VLOOKUP(I112,regs!H:I,2,0),"")</f>
+        <v/>
+      </c>
+      <c r="I112">
         <f>LEFT(B112,8)</f>
         <v/>
       </c>
-      <c r="I112">
-        <f>IF(F112&lt;&gt; "",IF(DATEDIF(F112,TODAY(),"D")&gt;60,"Vencido",IF(DATEDIF(F112,TODAY(),"D")&gt;30,"Aviso")),"")</f>
+      <c r="J112">
+        <f>IF(G112&lt;&gt; "",IF(DATEDIF(G112,TODAY(),"D")&gt;60,"Vencido",IF(DATEDIF(G112,TODAY(),"D")&gt;30,"Aviso")),"")</f>
         <v/>
       </c>
     </row>
@@ -65263,17 +65741,18 @@
       <c r="C113" s="16" t="n"/>
       <c r="D113" s="5" t="n"/>
       <c r="E113" s="5" t="n"/>
-      <c r="F113" s="22" t="n"/>
-      <c r="G113" s="5">
-        <f>IFERROR(VLOOKUP(H113,regs!H:I,2,0),"")</f>
-        <v/>
-      </c>
-      <c r="H113">
+      <c r="F113" s="5" t="n"/>
+      <c r="G113" s="22" t="n"/>
+      <c r="H113" s="5">
+        <f>IFERROR(VLOOKUP(I113,regs!H:I,2,0),"")</f>
+        <v/>
+      </c>
+      <c r="I113">
         <f>LEFT(B113,8)</f>
         <v/>
       </c>
-      <c r="I113">
-        <f>IF(F113&lt;&gt; "",IF(DATEDIF(F113,TODAY(),"D")&gt;60,"Vencido",IF(DATEDIF(F113,TODAY(),"D")&gt;30,"Aviso")),"")</f>
+      <c r="J113">
+        <f>IF(G113&lt;&gt; "",IF(DATEDIF(G113,TODAY(),"D")&gt;60,"Vencido",IF(DATEDIF(G113,TODAY(),"D")&gt;30,"Aviso")),"")</f>
         <v/>
       </c>
     </row>
@@ -65283,17 +65762,18 @@
       <c r="C114" s="16" t="n"/>
       <c r="D114" s="5" t="n"/>
       <c r="E114" s="5" t="n"/>
-      <c r="F114" s="22" t="n"/>
-      <c r="G114" s="5">
-        <f>IFERROR(VLOOKUP(H114,regs!H:I,2,0),"")</f>
-        <v/>
-      </c>
-      <c r="H114">
+      <c r="F114" s="5" t="n"/>
+      <c r="G114" s="22" t="n"/>
+      <c r="H114" s="5">
+        <f>IFERROR(VLOOKUP(I114,regs!H:I,2,0),"")</f>
+        <v/>
+      </c>
+      <c r="I114">
         <f>LEFT(B114,8)</f>
         <v/>
       </c>
-      <c r="I114">
-        <f>IF(F114&lt;&gt; "",IF(DATEDIF(F114,TODAY(),"D")&gt;60,"Vencido",IF(DATEDIF(F114,TODAY(),"D")&gt;30,"Aviso")),"")</f>
+      <c r="J114">
+        <f>IF(G114&lt;&gt; "",IF(DATEDIF(G114,TODAY(),"D")&gt;60,"Vencido",IF(DATEDIF(G114,TODAY(),"D")&gt;30,"Aviso")),"")</f>
         <v/>
       </c>
     </row>
@@ -65303,17 +65783,18 @@
       <c r="C115" s="16" t="n"/>
       <c r="D115" s="5" t="n"/>
       <c r="E115" s="5" t="n"/>
-      <c r="F115" s="22" t="n"/>
-      <c r="G115" s="5">
-        <f>IFERROR(VLOOKUP(H115,regs!H:I,2,0),"")</f>
-        <v/>
-      </c>
-      <c r="H115">
+      <c r="F115" s="5" t="n"/>
+      <c r="G115" s="22" t="n"/>
+      <c r="H115" s="5">
+        <f>IFERROR(VLOOKUP(I115,regs!H:I,2,0),"")</f>
+        <v/>
+      </c>
+      <c r="I115">
         <f>LEFT(B115,8)</f>
         <v/>
       </c>
-      <c r="I115">
-        <f>IF(F115&lt;&gt; "",IF(DATEDIF(F115,TODAY(),"D")&gt;60,"Vencido",IF(DATEDIF(F115,TODAY(),"D")&gt;30,"Aviso")),"")</f>
+      <c r="J115">
+        <f>IF(G115&lt;&gt; "",IF(DATEDIF(G115,TODAY(),"D")&gt;60,"Vencido",IF(DATEDIF(G115,TODAY(),"D")&gt;30,"Aviso")),"")</f>
         <v/>
       </c>
     </row>
@@ -65323,17 +65804,18 @@
       <c r="C116" s="16" t="n"/>
       <c r="D116" s="5" t="n"/>
       <c r="E116" s="5" t="n"/>
-      <c r="F116" s="22" t="n"/>
-      <c r="G116" s="5">
-        <f>IFERROR(VLOOKUP(H116,regs!H:I,2,0),"")</f>
-        <v/>
-      </c>
-      <c r="H116">
+      <c r="F116" s="5" t="n"/>
+      <c r="G116" s="22" t="n"/>
+      <c r="H116" s="5">
+        <f>IFERROR(VLOOKUP(I116,regs!H:I,2,0),"")</f>
+        <v/>
+      </c>
+      <c r="I116">
         <f>LEFT(B116,8)</f>
         <v/>
       </c>
-      <c r="I116">
-        <f>IF(F116&lt;&gt; "",IF(DATEDIF(F116,TODAY(),"D")&gt;60,"Vencido",IF(DATEDIF(F116,TODAY(),"D")&gt;30,"Aviso")),"")</f>
+      <c r="J116">
+        <f>IF(G116&lt;&gt; "",IF(DATEDIF(G116,TODAY(),"D")&gt;60,"Vencido",IF(DATEDIF(G116,TODAY(),"D")&gt;30,"Aviso")),"")</f>
         <v/>
       </c>
     </row>
@@ -65343,17 +65825,18 @@
       <c r="C117" s="16" t="n"/>
       <c r="D117" s="5" t="n"/>
       <c r="E117" s="5" t="n"/>
-      <c r="F117" s="22" t="n"/>
-      <c r="G117" s="5">
-        <f>IFERROR(VLOOKUP(H117,regs!H:I,2,0),"")</f>
-        <v/>
-      </c>
-      <c r="H117">
+      <c r="F117" s="5" t="n"/>
+      <c r="G117" s="22" t="n"/>
+      <c r="H117" s="5">
+        <f>IFERROR(VLOOKUP(I117,regs!H:I,2,0),"")</f>
+        <v/>
+      </c>
+      <c r="I117">
         <f>LEFT(B117,8)</f>
         <v/>
       </c>
-      <c r="I117">
-        <f>IF(F117&lt;&gt; "",IF(DATEDIF(F117,TODAY(),"D")&gt;60,"Vencido",IF(DATEDIF(F117,TODAY(),"D")&gt;30,"Aviso")),"")</f>
+      <c r="J117">
+        <f>IF(G117&lt;&gt; "",IF(DATEDIF(G117,TODAY(),"D")&gt;60,"Vencido",IF(DATEDIF(G117,TODAY(),"D")&gt;30,"Aviso")),"")</f>
         <v/>
       </c>
     </row>
@@ -65363,17 +65846,18 @@
       <c r="C118" s="16" t="n"/>
       <c r="D118" s="5" t="n"/>
       <c r="E118" s="5" t="n"/>
-      <c r="F118" s="22" t="n"/>
-      <c r="G118" s="5">
-        <f>IFERROR(VLOOKUP(H118,regs!H:I,2,0),"")</f>
-        <v/>
-      </c>
-      <c r="H118">
+      <c r="F118" s="5" t="n"/>
+      <c r="G118" s="22" t="n"/>
+      <c r="H118" s="5">
+        <f>IFERROR(VLOOKUP(I118,regs!H:I,2,0),"")</f>
+        <v/>
+      </c>
+      <c r="I118">
         <f>LEFT(B118,8)</f>
         <v/>
       </c>
-      <c r="I118">
-        <f>IF(F118&lt;&gt; "",IF(DATEDIF(F118,TODAY(),"D")&gt;60,"Vencido",IF(DATEDIF(F118,TODAY(),"D")&gt;30,"Aviso")),"")</f>
+      <c r="J118">
+        <f>IF(G118&lt;&gt; "",IF(DATEDIF(G118,TODAY(),"D")&gt;60,"Vencido",IF(DATEDIF(G118,TODAY(),"D")&gt;30,"Aviso")),"")</f>
         <v/>
       </c>
     </row>
@@ -65383,17 +65867,18 @@
       <c r="C119" s="16" t="n"/>
       <c r="D119" s="5" t="n"/>
       <c r="E119" s="5" t="n"/>
-      <c r="F119" s="22" t="n"/>
-      <c r="G119" s="5">
-        <f>IFERROR(VLOOKUP(H119,regs!H:I,2,0),"")</f>
-        <v/>
-      </c>
-      <c r="H119">
+      <c r="F119" s="5" t="n"/>
+      <c r="G119" s="22" t="n"/>
+      <c r="H119" s="5">
+        <f>IFERROR(VLOOKUP(I119,regs!H:I,2,0),"")</f>
+        <v/>
+      </c>
+      <c r="I119">
         <f>LEFT(B119,8)</f>
         <v/>
       </c>
-      <c r="I119">
-        <f>IF(F119&lt;&gt; "",IF(DATEDIF(F119,TODAY(),"D")&gt;60,"Vencido",IF(DATEDIF(F119,TODAY(),"D")&gt;30,"Aviso")),"")</f>
+      <c r="J119">
+        <f>IF(G119&lt;&gt; "",IF(DATEDIF(G119,TODAY(),"D")&gt;60,"Vencido",IF(DATEDIF(G119,TODAY(),"D")&gt;30,"Aviso")),"")</f>
         <v/>
       </c>
     </row>
@@ -65403,17 +65888,18 @@
       <c r="C120" s="16" t="n"/>
       <c r="D120" s="5" t="n"/>
       <c r="E120" s="5" t="n"/>
-      <c r="F120" s="22" t="n"/>
-      <c r="G120" s="5">
-        <f>IFERROR(VLOOKUP(H120,regs!H:I,2,0),"")</f>
-        <v/>
-      </c>
-      <c r="H120">
+      <c r="F120" s="5" t="n"/>
+      <c r="G120" s="22" t="n"/>
+      <c r="H120" s="5">
+        <f>IFERROR(VLOOKUP(I120,regs!H:I,2,0),"")</f>
+        <v/>
+      </c>
+      <c r="I120">
         <f>LEFT(B120,8)</f>
         <v/>
       </c>
-      <c r="I120">
-        <f>IF(F120&lt;&gt; "",IF(DATEDIF(F120,TODAY(),"D")&gt;60,"Vencido",IF(DATEDIF(F120,TODAY(),"D")&gt;30,"Aviso")),"")</f>
+      <c r="J120">
+        <f>IF(G120&lt;&gt; "",IF(DATEDIF(G120,TODAY(),"D")&gt;60,"Vencido",IF(DATEDIF(G120,TODAY(),"D")&gt;30,"Aviso")),"")</f>
         <v/>
       </c>
     </row>
@@ -65423,17 +65909,18 @@
       <c r="C121" s="16" t="n"/>
       <c r="D121" s="5" t="n"/>
       <c r="E121" s="5" t="n"/>
-      <c r="F121" s="22" t="n"/>
-      <c r="G121" s="5">
-        <f>IFERROR(VLOOKUP(H121,regs!H:I,2,0),"")</f>
-        <v/>
-      </c>
-      <c r="H121">
+      <c r="F121" s="5" t="n"/>
+      <c r="G121" s="22" t="n"/>
+      <c r="H121" s="5">
+        <f>IFERROR(VLOOKUP(I121,regs!H:I,2,0),"")</f>
+        <v/>
+      </c>
+      <c r="I121">
         <f>LEFT(B121,8)</f>
         <v/>
       </c>
-      <c r="I121">
-        <f>IF(F121&lt;&gt; "",IF(DATEDIF(F121,TODAY(),"D")&gt;60,"Vencido",IF(DATEDIF(F121,TODAY(),"D")&gt;30,"Aviso")),"")</f>
+      <c r="J121">
+        <f>IF(G121&lt;&gt; "",IF(DATEDIF(G121,TODAY(),"D")&gt;60,"Vencido",IF(DATEDIF(G121,TODAY(),"D")&gt;30,"Aviso")),"")</f>
         <v/>
       </c>
     </row>
@@ -65443,17 +65930,18 @@
       <c r="C122" s="16" t="n"/>
       <c r="D122" s="5" t="n"/>
       <c r="E122" s="5" t="n"/>
-      <c r="F122" s="22" t="n"/>
-      <c r="G122" s="5">
-        <f>IFERROR(VLOOKUP(H122,regs!H:I,2,0),"")</f>
-        <v/>
-      </c>
-      <c r="H122">
+      <c r="F122" s="5" t="n"/>
+      <c r="G122" s="22" t="n"/>
+      <c r="H122" s="5">
+        <f>IFERROR(VLOOKUP(I122,regs!H:I,2,0),"")</f>
+        <v/>
+      </c>
+      <c r="I122">
         <f>LEFT(B122,8)</f>
         <v/>
       </c>
-      <c r="I122">
-        <f>IF(F122&lt;&gt; "",IF(DATEDIF(F122,TODAY(),"D")&gt;60,"Vencido",IF(DATEDIF(F122,TODAY(),"D")&gt;30,"Aviso")),"")</f>
+      <c r="J122">
+        <f>IF(G122&lt;&gt; "",IF(DATEDIF(G122,TODAY(),"D")&gt;60,"Vencido",IF(DATEDIF(G122,TODAY(),"D")&gt;30,"Aviso")),"")</f>
         <v/>
       </c>
     </row>
@@ -65463,17 +65951,18 @@
       <c r="C123" s="16" t="n"/>
       <c r="D123" s="5" t="n"/>
       <c r="E123" s="5" t="n"/>
-      <c r="F123" s="22" t="n"/>
-      <c r="G123" s="5">
-        <f>IFERROR(VLOOKUP(H123,regs!H:I,2,0),"")</f>
-        <v/>
-      </c>
-      <c r="H123">
+      <c r="F123" s="5" t="n"/>
+      <c r="G123" s="22" t="n"/>
+      <c r="H123" s="5">
+        <f>IFERROR(VLOOKUP(I123,regs!H:I,2,0),"")</f>
+        <v/>
+      </c>
+      <c r="I123">
         <f>LEFT(B123,8)</f>
         <v/>
       </c>
-      <c r="I123">
-        <f>IF(F123&lt;&gt; "",IF(DATEDIF(F123,TODAY(),"D")&gt;60,"Vencido",IF(DATEDIF(F123,TODAY(),"D")&gt;30,"Aviso")),"")</f>
+      <c r="J123">
+        <f>IF(G123&lt;&gt; "",IF(DATEDIF(G123,TODAY(),"D")&gt;60,"Vencido",IF(DATEDIF(G123,TODAY(),"D")&gt;30,"Aviso")),"")</f>
         <v/>
       </c>
     </row>
@@ -65483,17 +65972,18 @@
       <c r="C124" s="16" t="n"/>
       <c r="D124" s="5" t="n"/>
       <c r="E124" s="5" t="n"/>
-      <c r="F124" s="22" t="n"/>
-      <c r="G124" s="5">
-        <f>IFERROR(VLOOKUP(H124,regs!H:I,2,0),"")</f>
-        <v/>
-      </c>
-      <c r="H124">
+      <c r="F124" s="5" t="n"/>
+      <c r="G124" s="22" t="n"/>
+      <c r="H124" s="5">
+        <f>IFERROR(VLOOKUP(I124,regs!H:I,2,0),"")</f>
+        <v/>
+      </c>
+      <c r="I124">
         <f>LEFT(B124,8)</f>
         <v/>
       </c>
-      <c r="I124">
-        <f>IF(F124&lt;&gt; "",IF(DATEDIF(F124,TODAY(),"D")&gt;60,"Vencido",IF(DATEDIF(F124,TODAY(),"D")&gt;30,"Aviso")),"")</f>
+      <c r="J124">
+        <f>IF(G124&lt;&gt; "",IF(DATEDIF(G124,TODAY(),"D")&gt;60,"Vencido",IF(DATEDIF(G124,TODAY(),"D")&gt;30,"Aviso")),"")</f>
         <v/>
       </c>
     </row>
@@ -65503,17 +65993,18 @@
       <c r="C125" s="16" t="n"/>
       <c r="D125" s="5" t="n"/>
       <c r="E125" s="5" t="n"/>
-      <c r="F125" s="22" t="n"/>
-      <c r="G125" s="5">
-        <f>IFERROR(VLOOKUP(H125,regs!H:I,2,0),"")</f>
-        <v/>
-      </c>
-      <c r="H125">
+      <c r="F125" s="5" t="n"/>
+      <c r="G125" s="22" t="n"/>
+      <c r="H125" s="5">
+        <f>IFERROR(VLOOKUP(I125,regs!H:I,2,0),"")</f>
+        <v/>
+      </c>
+      <c r="I125">
         <f>LEFT(B125,8)</f>
         <v/>
       </c>
-      <c r="I125">
-        <f>IF(F125&lt;&gt; "",IF(DATEDIF(F125,TODAY(),"D")&gt;60,"Vencido",IF(DATEDIF(F125,TODAY(),"D")&gt;30,"Aviso")),"")</f>
+      <c r="J125">
+        <f>IF(G125&lt;&gt; "",IF(DATEDIF(G125,TODAY(),"D")&gt;60,"Vencido",IF(DATEDIF(G125,TODAY(),"D")&gt;30,"Aviso")),"")</f>
         <v/>
       </c>
     </row>
@@ -65523,17 +66014,18 @@
       <c r="C126" s="16" t="n"/>
       <c r="D126" s="5" t="n"/>
       <c r="E126" s="5" t="n"/>
-      <c r="F126" s="22" t="n"/>
-      <c r="G126" s="5">
-        <f>IFERROR(VLOOKUP(H126,regs!H:I,2,0),"")</f>
-        <v/>
-      </c>
-      <c r="H126">
+      <c r="F126" s="5" t="n"/>
+      <c r="G126" s="22" t="n"/>
+      <c r="H126" s="5">
+        <f>IFERROR(VLOOKUP(I126,regs!H:I,2,0),"")</f>
+        <v/>
+      </c>
+      <c r="I126">
         <f>LEFT(B126,8)</f>
         <v/>
       </c>
-      <c r="I126">
-        <f>IF(F126&lt;&gt; "",IF(DATEDIF(F126,TODAY(),"D")&gt;60,"Vencido",IF(DATEDIF(F126,TODAY(),"D")&gt;30,"Aviso")),"")</f>
+      <c r="J126">
+        <f>IF(G126&lt;&gt; "",IF(DATEDIF(G126,TODAY(),"D")&gt;60,"Vencido",IF(DATEDIF(G126,TODAY(),"D")&gt;30,"Aviso")),"")</f>
         <v/>
       </c>
     </row>
@@ -65543,17 +66035,18 @@
       <c r="C127" s="16" t="n"/>
       <c r="D127" s="5" t="n"/>
       <c r="E127" s="5" t="n"/>
-      <c r="F127" s="22" t="n"/>
-      <c r="G127" s="5">
-        <f>IFERROR(VLOOKUP(H127,regs!H:I,2,0),"")</f>
-        <v/>
-      </c>
-      <c r="H127">
+      <c r="F127" s="5" t="n"/>
+      <c r="G127" s="22" t="n"/>
+      <c r="H127" s="5">
+        <f>IFERROR(VLOOKUP(I127,regs!H:I,2,0),"")</f>
+        <v/>
+      </c>
+      <c r="I127">
         <f>LEFT(B127,8)</f>
         <v/>
       </c>
-      <c r="I127">
-        <f>IF(F127&lt;&gt; "",IF(DATEDIF(F127,TODAY(),"D")&gt;60,"Vencido",IF(DATEDIF(F127,TODAY(),"D")&gt;30,"Aviso")),"")</f>
+      <c r="J127">
+        <f>IF(G127&lt;&gt; "",IF(DATEDIF(G127,TODAY(),"D")&gt;60,"Vencido",IF(DATEDIF(G127,TODAY(),"D")&gt;30,"Aviso")),"")</f>
         <v/>
       </c>
     </row>
@@ -65563,17 +66056,18 @@
       <c r="C128" s="16" t="n"/>
       <c r="D128" s="5" t="n"/>
       <c r="E128" s="5" t="n"/>
-      <c r="F128" s="22" t="n"/>
-      <c r="G128" s="5">
-        <f>IFERROR(VLOOKUP(H128,regs!H:I,2,0),"")</f>
-        <v/>
-      </c>
-      <c r="H128">
+      <c r="F128" s="5" t="n"/>
+      <c r="G128" s="22" t="n"/>
+      <c r="H128" s="5">
+        <f>IFERROR(VLOOKUP(I128,regs!H:I,2,0),"")</f>
+        <v/>
+      </c>
+      <c r="I128">
         <f>LEFT(B128,8)</f>
         <v/>
       </c>
-      <c r="I128">
-        <f>IF(F128&lt;&gt; "",IF(DATEDIF(F128,TODAY(),"D")&gt;60,"Vencido",IF(DATEDIF(F128,TODAY(),"D")&gt;30,"Aviso")),"")</f>
+      <c r="J128">
+        <f>IF(G128&lt;&gt; "",IF(DATEDIF(G128,TODAY(),"D")&gt;60,"Vencido",IF(DATEDIF(G128,TODAY(),"D")&gt;30,"Aviso")),"")</f>
         <v/>
       </c>
     </row>
@@ -65583,17 +66077,18 @@
       <c r="C129" s="16" t="n"/>
       <c r="D129" s="5" t="n"/>
       <c r="E129" s="5" t="n"/>
-      <c r="F129" s="22" t="n"/>
-      <c r="G129" s="5">
-        <f>IFERROR(VLOOKUP(H129,regs!H:I,2,0),"")</f>
-        <v/>
-      </c>
-      <c r="H129">
+      <c r="F129" s="5" t="n"/>
+      <c r="G129" s="22" t="n"/>
+      <c r="H129" s="5">
+        <f>IFERROR(VLOOKUP(I129,regs!H:I,2,0),"")</f>
+        <v/>
+      </c>
+      <c r="I129">
         <f>LEFT(B129,8)</f>
         <v/>
       </c>
-      <c r="I129">
-        <f>IF(F129&lt;&gt; "",IF(DATEDIF(F129,TODAY(),"D")&gt;60,"Vencido",IF(DATEDIF(F129,TODAY(),"D")&gt;30,"Aviso")),"")</f>
+      <c r="J129">
+        <f>IF(G129&lt;&gt; "",IF(DATEDIF(G129,TODAY(),"D")&gt;60,"Vencido",IF(DATEDIF(G129,TODAY(),"D")&gt;30,"Aviso")),"")</f>
         <v/>
       </c>
     </row>
@@ -65603,17 +66098,18 @@
       <c r="C130" s="16" t="n"/>
       <c r="D130" s="5" t="n"/>
       <c r="E130" s="5" t="n"/>
-      <c r="F130" s="22" t="n"/>
-      <c r="G130" s="5">
-        <f>IFERROR(VLOOKUP(H130,regs!H:I,2,0),"")</f>
-        <v/>
-      </c>
-      <c r="H130">
+      <c r="F130" s="5" t="n"/>
+      <c r="G130" s="22" t="n"/>
+      <c r="H130" s="5">
+        <f>IFERROR(VLOOKUP(I130,regs!H:I,2,0),"")</f>
+        <v/>
+      </c>
+      <c r="I130">
         <f>LEFT(B130,8)</f>
         <v/>
       </c>
-      <c r="I130">
-        <f>IF(F130&lt;&gt; "",IF(DATEDIF(F130,TODAY(),"D")&gt;60,"Vencido",IF(DATEDIF(F130,TODAY(),"D")&gt;30,"Aviso")),"")</f>
+      <c r="J130">
+        <f>IF(G130&lt;&gt; "",IF(DATEDIF(G130,TODAY(),"D")&gt;60,"Vencido",IF(DATEDIF(G130,TODAY(),"D")&gt;30,"Aviso")),"")</f>
         <v/>
       </c>
     </row>
@@ -65623,17 +66119,18 @@
       <c r="C131" s="16" t="n"/>
       <c r="D131" s="5" t="n"/>
       <c r="E131" s="5" t="n"/>
-      <c r="F131" s="22" t="n"/>
-      <c r="G131" s="5">
-        <f>IFERROR(VLOOKUP(H131,regs!H:I,2,0),"")</f>
-        <v/>
-      </c>
-      <c r="H131">
+      <c r="F131" s="5" t="n"/>
+      <c r="G131" s="22" t="n"/>
+      <c r="H131" s="5">
+        <f>IFERROR(VLOOKUP(I131,regs!H:I,2,0),"")</f>
+        <v/>
+      </c>
+      <c r="I131">
         <f>LEFT(B131,8)</f>
         <v/>
       </c>
-      <c r="I131">
-        <f>IF(F131&lt;&gt; "",IF(DATEDIF(F131,TODAY(),"D")&gt;60,"Vencido",IF(DATEDIF(F131,TODAY(),"D")&gt;30,"Aviso")),"")</f>
+      <c r="J131">
+        <f>IF(G131&lt;&gt; "",IF(DATEDIF(G131,TODAY(),"D")&gt;60,"Vencido",IF(DATEDIF(G131,TODAY(),"D")&gt;30,"Aviso")),"")</f>
         <v/>
       </c>
     </row>
@@ -65643,17 +66140,18 @@
       <c r="C132" s="16" t="n"/>
       <c r="D132" s="5" t="n"/>
       <c r="E132" s="5" t="n"/>
-      <c r="F132" s="22" t="n"/>
-      <c r="G132" s="5">
-        <f>IFERROR(VLOOKUP(H132,regs!H:I,2,0),"")</f>
-        <v/>
-      </c>
-      <c r="H132">
+      <c r="F132" s="5" t="n"/>
+      <c r="G132" s="22" t="n"/>
+      <c r="H132" s="5">
+        <f>IFERROR(VLOOKUP(I132,regs!H:I,2,0),"")</f>
+        <v/>
+      </c>
+      <c r="I132">
         <f>LEFT(B132,8)</f>
         <v/>
       </c>
-      <c r="I132">
-        <f>IF(F132&lt;&gt; "",IF(DATEDIF(F132,TODAY(),"D")&gt;60,"Vencido",IF(DATEDIF(F132,TODAY(),"D")&gt;30,"Aviso")),"")</f>
+      <c r="J132">
+        <f>IF(G132&lt;&gt; "",IF(DATEDIF(G132,TODAY(),"D")&gt;60,"Vencido",IF(DATEDIF(G132,TODAY(),"D")&gt;30,"Aviso")),"")</f>
         <v/>
       </c>
     </row>
@@ -65663,17 +66161,18 @@
       <c r="C133" s="16" t="n"/>
       <c r="D133" s="5" t="n"/>
       <c r="E133" s="5" t="n"/>
-      <c r="F133" s="22" t="n"/>
-      <c r="G133" s="5">
-        <f>IFERROR(VLOOKUP(H133,regs!H:I,2,0),"")</f>
-        <v/>
-      </c>
-      <c r="H133">
+      <c r="F133" s="5" t="n"/>
+      <c r="G133" s="22" t="n"/>
+      <c r="H133" s="5">
+        <f>IFERROR(VLOOKUP(I133,regs!H:I,2,0),"")</f>
+        <v/>
+      </c>
+      <c r="I133">
         <f>LEFT(B133,8)</f>
         <v/>
       </c>
-      <c r="I133">
-        <f>IF(F133&lt;&gt; "",IF(DATEDIF(F133,TODAY(),"D")&gt;60,"Vencido",IF(DATEDIF(F133,TODAY(),"D")&gt;30,"Aviso")),"")</f>
+      <c r="J133">
+        <f>IF(G133&lt;&gt; "",IF(DATEDIF(G133,TODAY(),"D")&gt;60,"Vencido",IF(DATEDIF(G133,TODAY(),"D")&gt;30,"Aviso")),"")</f>
         <v/>
       </c>
     </row>
@@ -65683,17 +66182,18 @@
       <c r="C134" s="16" t="n"/>
       <c r="D134" s="5" t="n"/>
       <c r="E134" s="5" t="n"/>
-      <c r="F134" s="22" t="n"/>
-      <c r="G134" s="5">
-        <f>IFERROR(VLOOKUP(H134,regs!H:I,2,0),"")</f>
-        <v/>
-      </c>
-      <c r="H134">
+      <c r="F134" s="5" t="n"/>
+      <c r="G134" s="22" t="n"/>
+      <c r="H134" s="5">
+        <f>IFERROR(VLOOKUP(I134,regs!H:I,2,0),"")</f>
+        <v/>
+      </c>
+      <c r="I134">
         <f>LEFT(B134,8)</f>
         <v/>
       </c>
-      <c r="I134">
-        <f>IF(F134&lt;&gt; "",IF(DATEDIF(F134,TODAY(),"D")&gt;60,"Vencido",IF(DATEDIF(F134,TODAY(),"D")&gt;30,"Aviso")),"")</f>
+      <c r="J134">
+        <f>IF(G134&lt;&gt; "",IF(DATEDIF(G134,TODAY(),"D")&gt;60,"Vencido",IF(DATEDIF(G134,TODAY(),"D")&gt;30,"Aviso")),"")</f>
         <v/>
       </c>
     </row>
@@ -65703,17 +66203,18 @@
       <c r="C135" s="16" t="n"/>
       <c r="D135" s="5" t="n"/>
       <c r="E135" s="5" t="n"/>
-      <c r="F135" s="22" t="n"/>
-      <c r="G135" s="5">
-        <f>IFERROR(VLOOKUP(H135,regs!H:I,2,0),"")</f>
-        <v/>
-      </c>
-      <c r="H135">
+      <c r="F135" s="5" t="n"/>
+      <c r="G135" s="22" t="n"/>
+      <c r="H135" s="5">
+        <f>IFERROR(VLOOKUP(I135,regs!H:I,2,0),"")</f>
+        <v/>
+      </c>
+      <c r="I135">
         <f>LEFT(B135,8)</f>
         <v/>
       </c>
-      <c r="I135">
-        <f>IF(F135&lt;&gt; "",IF(DATEDIF(F135,TODAY(),"D")&gt;60,"Vencido",IF(DATEDIF(F135,TODAY(),"D")&gt;30,"Aviso")),"")</f>
+      <c r="J135">
+        <f>IF(G135&lt;&gt; "",IF(DATEDIF(G135,TODAY(),"D")&gt;60,"Vencido",IF(DATEDIF(G135,TODAY(),"D")&gt;30,"Aviso")),"")</f>
         <v/>
       </c>
     </row>
@@ -65723,17 +66224,18 @@
       <c r="C136" s="16" t="n"/>
       <c r="D136" s="5" t="n"/>
       <c r="E136" s="5" t="n"/>
-      <c r="F136" s="22" t="n"/>
-      <c r="G136" s="5">
-        <f>IFERROR(VLOOKUP(H136,regs!H:I,2,0),"")</f>
-        <v/>
-      </c>
-      <c r="H136">
+      <c r="F136" s="5" t="n"/>
+      <c r="G136" s="22" t="n"/>
+      <c r="H136" s="5">
+        <f>IFERROR(VLOOKUP(I136,regs!H:I,2,0),"")</f>
+        <v/>
+      </c>
+      <c r="I136">
         <f>LEFT(B136,8)</f>
         <v/>
       </c>
-      <c r="I136">
-        <f>IF(F136&lt;&gt; "",IF(DATEDIF(F136,TODAY(),"D")&gt;60,"Vencido",IF(DATEDIF(F136,TODAY(),"D")&gt;30,"Aviso")),"")</f>
+      <c r="J136">
+        <f>IF(G136&lt;&gt; "",IF(DATEDIF(G136,TODAY(),"D")&gt;60,"Vencido",IF(DATEDIF(G136,TODAY(),"D")&gt;30,"Aviso")),"")</f>
         <v/>
       </c>
     </row>
@@ -65743,17 +66245,18 @@
       <c r="C137" s="16" t="n"/>
       <c r="D137" s="5" t="n"/>
       <c r="E137" s="5" t="n"/>
-      <c r="F137" s="22" t="n"/>
-      <c r="G137" s="5">
-        <f>IFERROR(VLOOKUP(H137,regs!H:I,2,0),"")</f>
-        <v/>
-      </c>
-      <c r="H137">
+      <c r="F137" s="5" t="n"/>
+      <c r="G137" s="22" t="n"/>
+      <c r="H137" s="5">
+        <f>IFERROR(VLOOKUP(I137,regs!H:I,2,0),"")</f>
+        <v/>
+      </c>
+      <c r="I137">
         <f>LEFT(B137,8)</f>
         <v/>
       </c>
-      <c r="I137">
-        <f>IF(F137&lt;&gt; "",IF(DATEDIF(F137,TODAY(),"D")&gt;60,"Vencido",IF(DATEDIF(F137,TODAY(),"D")&gt;30,"Aviso")),"")</f>
+      <c r="J137">
+        <f>IF(G137&lt;&gt; "",IF(DATEDIF(G137,TODAY(),"D")&gt;60,"Vencido",IF(DATEDIF(G137,TODAY(),"D")&gt;30,"Aviso")),"")</f>
         <v/>
       </c>
     </row>
@@ -65763,17 +66266,18 @@
       <c r="C138" s="16" t="n"/>
       <c r="D138" s="5" t="n"/>
       <c r="E138" s="5" t="n"/>
-      <c r="F138" s="22" t="n"/>
-      <c r="G138" s="5">
-        <f>IFERROR(VLOOKUP(H138,regs!H:I,2,0),"")</f>
-        <v/>
-      </c>
-      <c r="H138">
+      <c r="F138" s="5" t="n"/>
+      <c r="G138" s="22" t="n"/>
+      <c r="H138" s="5">
+        <f>IFERROR(VLOOKUP(I138,regs!H:I,2,0),"")</f>
+        <v/>
+      </c>
+      <c r="I138">
         <f>LEFT(B138,8)</f>
         <v/>
       </c>
-      <c r="I138">
-        <f>IF(F138&lt;&gt; "",IF(DATEDIF(F138,TODAY(),"D")&gt;60,"Vencido",IF(DATEDIF(F138,TODAY(),"D")&gt;30,"Aviso")),"")</f>
+      <c r="J138">
+        <f>IF(G138&lt;&gt; "",IF(DATEDIF(G138,TODAY(),"D")&gt;60,"Vencido",IF(DATEDIF(G138,TODAY(),"D")&gt;30,"Aviso")),"")</f>
         <v/>
       </c>
     </row>
@@ -65783,17 +66287,18 @@
       <c r="C139" s="16" t="n"/>
       <c r="D139" s="5" t="n"/>
       <c r="E139" s="5" t="n"/>
-      <c r="F139" s="22" t="n"/>
-      <c r="G139" s="5">
-        <f>IFERROR(VLOOKUP(H139,regs!H:I,2,0),"")</f>
-        <v/>
-      </c>
-      <c r="H139">
+      <c r="F139" s="5" t="n"/>
+      <c r="G139" s="22" t="n"/>
+      <c r="H139" s="5">
+        <f>IFERROR(VLOOKUP(I139,regs!H:I,2,0),"")</f>
+        <v/>
+      </c>
+      <c r="I139">
         <f>LEFT(B139,8)</f>
         <v/>
       </c>
-      <c r="I139">
-        <f>IF(F139&lt;&gt; "",IF(DATEDIF(F139,TODAY(),"D")&gt;60,"Vencido",IF(DATEDIF(F139,TODAY(),"D")&gt;30,"Aviso")),"")</f>
+      <c r="J139">
+        <f>IF(G139&lt;&gt; "",IF(DATEDIF(G139,TODAY(),"D")&gt;60,"Vencido",IF(DATEDIF(G139,TODAY(),"D")&gt;30,"Aviso")),"")</f>
         <v/>
       </c>
     </row>
@@ -65803,17 +66308,18 @@
       <c r="C140" s="16" t="n"/>
       <c r="D140" s="5" t="n"/>
       <c r="E140" s="5" t="n"/>
-      <c r="F140" s="22" t="n"/>
-      <c r="G140" s="5">
-        <f>IFERROR(VLOOKUP(H140,regs!H:I,2,0),"")</f>
-        <v/>
-      </c>
-      <c r="H140">
+      <c r="F140" s="5" t="n"/>
+      <c r="G140" s="22" t="n"/>
+      <c r="H140" s="5">
+        <f>IFERROR(VLOOKUP(I140,regs!H:I,2,0),"")</f>
+        <v/>
+      </c>
+      <c r="I140">
         <f>LEFT(B140,8)</f>
         <v/>
       </c>
-      <c r="I140">
-        <f>IF(F140&lt;&gt; "",IF(DATEDIF(F140,TODAY(),"D")&gt;60,"Vencido",IF(DATEDIF(F140,TODAY(),"D")&gt;30,"Aviso")),"")</f>
+      <c r="J140">
+        <f>IF(G140&lt;&gt; "",IF(DATEDIF(G140,TODAY(),"D")&gt;60,"Vencido",IF(DATEDIF(G140,TODAY(),"D")&gt;30,"Aviso")),"")</f>
         <v/>
       </c>
     </row>
@@ -65823,17 +66329,18 @@
       <c r="C141" s="16" t="n"/>
       <c r="D141" s="5" t="n"/>
       <c r="E141" s="5" t="n"/>
-      <c r="F141" s="22" t="n"/>
-      <c r="G141" s="5">
-        <f>IFERROR(VLOOKUP(H141,regs!H:I,2,0),"")</f>
-        <v/>
-      </c>
-      <c r="H141">
+      <c r="F141" s="5" t="n"/>
+      <c r="G141" s="22" t="n"/>
+      <c r="H141" s="5">
+        <f>IFERROR(VLOOKUP(I141,regs!H:I,2,0),"")</f>
+        <v/>
+      </c>
+      <c r="I141">
         <f>LEFT(B141,8)</f>
         <v/>
       </c>
-      <c r="I141">
-        <f>IF(F141&lt;&gt; "",IF(DATEDIF(F141,TODAY(),"D")&gt;60,"Vencido",IF(DATEDIF(F141,TODAY(),"D")&gt;30,"Aviso")),"")</f>
+      <c r="J141">
+        <f>IF(G141&lt;&gt; "",IF(DATEDIF(G141,TODAY(),"D")&gt;60,"Vencido",IF(DATEDIF(G141,TODAY(),"D")&gt;30,"Aviso")),"")</f>
         <v/>
       </c>
     </row>
@@ -65843,17 +66350,18 @@
       <c r="C142" s="16" t="n"/>
       <c r="D142" s="5" t="n"/>
       <c r="E142" s="5" t="n"/>
-      <c r="F142" s="22" t="n"/>
-      <c r="G142" s="5">
-        <f>IFERROR(VLOOKUP(H142,regs!H:I,2,0),"")</f>
-        <v/>
-      </c>
-      <c r="H142">
+      <c r="F142" s="5" t="n"/>
+      <c r="G142" s="22" t="n"/>
+      <c r="H142" s="5">
+        <f>IFERROR(VLOOKUP(I142,regs!H:I,2,0),"")</f>
+        <v/>
+      </c>
+      <c r="I142">
         <f>LEFT(B142,8)</f>
         <v/>
       </c>
-      <c r="I142">
-        <f>IF(F142&lt;&gt; "",IF(DATEDIF(F142,TODAY(),"D")&gt;60,"Vencido",IF(DATEDIF(F142,TODAY(),"D")&gt;30,"Aviso")),"")</f>
+      <c r="J142">
+        <f>IF(G142&lt;&gt; "",IF(DATEDIF(G142,TODAY(),"D")&gt;60,"Vencido",IF(DATEDIF(G142,TODAY(),"D")&gt;30,"Aviso")),"")</f>
         <v/>
       </c>
     </row>
@@ -65863,17 +66371,18 @@
       <c r="C143" s="16" t="n"/>
       <c r="D143" s="5" t="n"/>
       <c r="E143" s="5" t="n"/>
-      <c r="F143" s="22" t="n"/>
-      <c r="G143" s="5">
-        <f>IFERROR(VLOOKUP(H143,regs!H:I,2,0),"")</f>
-        <v/>
-      </c>
-      <c r="H143">
+      <c r="F143" s="5" t="n"/>
+      <c r="G143" s="22" t="n"/>
+      <c r="H143" s="5">
+        <f>IFERROR(VLOOKUP(I143,regs!H:I,2,0),"")</f>
+        <v/>
+      </c>
+      <c r="I143">
         <f>LEFT(B143,8)</f>
         <v/>
       </c>
-      <c r="I143">
-        <f>IF(F143&lt;&gt; "",IF(DATEDIF(F143,TODAY(),"D")&gt;60,"Vencido",IF(DATEDIF(F143,TODAY(),"D")&gt;30,"Aviso")),"")</f>
+      <c r="J143">
+        <f>IF(G143&lt;&gt; "",IF(DATEDIF(G143,TODAY(),"D")&gt;60,"Vencido",IF(DATEDIF(G143,TODAY(),"D")&gt;30,"Aviso")),"")</f>
         <v/>
       </c>
     </row>
@@ -65883,17 +66392,18 @@
       <c r="C144" s="16" t="n"/>
       <c r="D144" s="5" t="n"/>
       <c r="E144" s="5" t="n"/>
-      <c r="F144" s="22" t="n"/>
-      <c r="G144" s="5">
-        <f>IFERROR(VLOOKUP(H144,regs!H:I,2,0),"")</f>
-        <v/>
-      </c>
-      <c r="H144">
+      <c r="F144" s="5" t="n"/>
+      <c r="G144" s="22" t="n"/>
+      <c r="H144" s="5">
+        <f>IFERROR(VLOOKUP(I144,regs!H:I,2,0),"")</f>
+        <v/>
+      </c>
+      <c r="I144">
         <f>LEFT(B144,8)</f>
         <v/>
       </c>
-      <c r="I144">
-        <f>IF(F144&lt;&gt; "",IF(DATEDIF(F144,TODAY(),"D")&gt;60,"Vencido",IF(DATEDIF(F144,TODAY(),"D")&gt;30,"Aviso")),"")</f>
+      <c r="J144">
+        <f>IF(G144&lt;&gt; "",IF(DATEDIF(G144,TODAY(),"D")&gt;60,"Vencido",IF(DATEDIF(G144,TODAY(),"D")&gt;30,"Aviso")),"")</f>
         <v/>
       </c>
     </row>
@@ -65903,17 +66413,18 @@
       <c r="C145" s="16" t="n"/>
       <c r="D145" s="5" t="n"/>
       <c r="E145" s="5" t="n"/>
-      <c r="F145" s="22" t="n"/>
-      <c r="G145" s="5">
-        <f>IFERROR(VLOOKUP(H145,regs!H:I,2,0),"")</f>
-        <v/>
-      </c>
-      <c r="H145">
+      <c r="F145" s="5" t="n"/>
+      <c r="G145" s="22" t="n"/>
+      <c r="H145" s="5">
+        <f>IFERROR(VLOOKUP(I145,regs!H:I,2,0),"")</f>
+        <v/>
+      </c>
+      <c r="I145">
         <f>LEFT(B145,8)</f>
         <v/>
       </c>
-      <c r="I145">
-        <f>IF(F145&lt;&gt; "",IF(DATEDIF(F145,TODAY(),"D")&gt;60,"Vencido",IF(DATEDIF(F145,TODAY(),"D")&gt;30,"Aviso")),"")</f>
+      <c r="J145">
+        <f>IF(G145&lt;&gt; "",IF(DATEDIF(G145,TODAY(),"D")&gt;60,"Vencido",IF(DATEDIF(G145,TODAY(),"D")&gt;30,"Aviso")),"")</f>
         <v/>
       </c>
     </row>
@@ -65923,17 +66434,18 @@
       <c r="C146" s="16" t="n"/>
       <c r="D146" s="5" t="n"/>
       <c r="E146" s="5" t="n"/>
-      <c r="F146" s="22" t="n"/>
-      <c r="G146" s="5">
-        <f>IFERROR(VLOOKUP(H146,regs!H:I,2,0),"")</f>
-        <v/>
-      </c>
-      <c r="H146">
+      <c r="F146" s="5" t="n"/>
+      <c r="G146" s="22" t="n"/>
+      <c r="H146" s="5">
+        <f>IFERROR(VLOOKUP(I146,regs!H:I,2,0),"")</f>
+        <v/>
+      </c>
+      <c r="I146">
         <f>LEFT(B146,8)</f>
         <v/>
       </c>
-      <c r="I146">
-        <f>IF(F146&lt;&gt; "",IF(DATEDIF(F146,TODAY(),"D")&gt;60,"Vencido",IF(DATEDIF(F146,TODAY(),"D")&gt;30,"Aviso")),"")</f>
+      <c r="J146">
+        <f>IF(G146&lt;&gt; "",IF(DATEDIF(G146,TODAY(),"D")&gt;60,"Vencido",IF(DATEDIF(G146,TODAY(),"D")&gt;30,"Aviso")),"")</f>
         <v/>
       </c>
     </row>
@@ -65943,17 +66455,18 @@
       <c r="C147" s="16" t="n"/>
       <c r="D147" s="5" t="n"/>
       <c r="E147" s="5" t="n"/>
-      <c r="F147" s="22" t="n"/>
-      <c r="G147" s="5">
-        <f>IFERROR(VLOOKUP(H147,regs!H:I,2,0),"")</f>
-        <v/>
-      </c>
-      <c r="H147">
+      <c r="F147" s="5" t="n"/>
+      <c r="G147" s="22" t="n"/>
+      <c r="H147" s="5">
+        <f>IFERROR(VLOOKUP(I147,regs!H:I,2,0),"")</f>
+        <v/>
+      </c>
+      <c r="I147">
         <f>LEFT(B147,8)</f>
         <v/>
       </c>
-      <c r="I147">
-        <f>IF(F147&lt;&gt; "",IF(DATEDIF(F147,TODAY(),"D")&gt;60,"Vencido",IF(DATEDIF(F147,TODAY(),"D")&gt;30,"Aviso")),"")</f>
+      <c r="J147">
+        <f>IF(G147&lt;&gt; "",IF(DATEDIF(G147,TODAY(),"D")&gt;60,"Vencido",IF(DATEDIF(G147,TODAY(),"D")&gt;30,"Aviso")),"")</f>
         <v/>
       </c>
     </row>
@@ -65963,17 +66476,18 @@
       <c r="C148" s="16" t="n"/>
       <c r="D148" s="5" t="n"/>
       <c r="E148" s="5" t="n"/>
-      <c r="F148" s="22" t="n"/>
-      <c r="G148" s="5">
-        <f>IFERROR(VLOOKUP(H148,regs!H:I,2,0),"")</f>
-        <v/>
-      </c>
-      <c r="H148">
+      <c r="F148" s="5" t="n"/>
+      <c r="G148" s="22" t="n"/>
+      <c r="H148" s="5">
+        <f>IFERROR(VLOOKUP(I148,regs!H:I,2,0),"")</f>
+        <v/>
+      </c>
+      <c r="I148">
         <f>LEFT(B148,8)</f>
         <v/>
       </c>
-      <c r="I148">
-        <f>IF(F148&lt;&gt; "",IF(DATEDIF(F148,TODAY(),"D")&gt;60,"Vencido",IF(DATEDIF(F148,TODAY(),"D")&gt;30,"Aviso")),"")</f>
+      <c r="J148">
+        <f>IF(G148&lt;&gt; "",IF(DATEDIF(G148,TODAY(),"D")&gt;60,"Vencido",IF(DATEDIF(G148,TODAY(),"D")&gt;30,"Aviso")),"")</f>
         <v/>
       </c>
     </row>
@@ -65983,17 +66497,18 @@
       <c r="C149" s="16" t="n"/>
       <c r="D149" s="5" t="n"/>
       <c r="E149" s="5" t="n"/>
-      <c r="F149" s="22" t="n"/>
-      <c r="G149" s="5">
-        <f>IFERROR(VLOOKUP(H149,regs!H:I,2,0),"")</f>
-        <v/>
-      </c>
-      <c r="H149">
+      <c r="F149" s="5" t="n"/>
+      <c r="G149" s="22" t="n"/>
+      <c r="H149" s="5">
+        <f>IFERROR(VLOOKUP(I149,regs!H:I,2,0),"")</f>
+        <v/>
+      </c>
+      <c r="I149">
         <f>LEFT(B149,8)</f>
         <v/>
       </c>
-      <c r="I149">
-        <f>IF(F149&lt;&gt; "",IF(DATEDIF(F149,TODAY(),"D")&gt;60,"Vencido",IF(DATEDIF(F149,TODAY(),"D")&gt;30,"Aviso")),"")</f>
+      <c r="J149">
+        <f>IF(G149&lt;&gt; "",IF(DATEDIF(G149,TODAY(),"D")&gt;60,"Vencido",IF(DATEDIF(G149,TODAY(),"D")&gt;30,"Aviso")),"")</f>
         <v/>
       </c>
     </row>
@@ -66003,17 +66518,18 @@
       <c r="C150" s="16" t="n"/>
       <c r="D150" s="5" t="n"/>
       <c r="E150" s="5" t="n"/>
-      <c r="F150" s="22" t="n"/>
-      <c r="G150" s="5">
-        <f>IFERROR(VLOOKUP(H150,regs!H:I,2,0),"")</f>
-        <v/>
-      </c>
-      <c r="H150">
+      <c r="F150" s="5" t="n"/>
+      <c r="G150" s="22" t="n"/>
+      <c r="H150" s="5">
+        <f>IFERROR(VLOOKUP(I150,regs!H:I,2,0),"")</f>
+        <v/>
+      </c>
+      <c r="I150">
         <f>LEFT(B150,8)</f>
         <v/>
       </c>
-      <c r="I150">
-        <f>IF(F150&lt;&gt; "",IF(DATEDIF(F150,TODAY(),"D")&gt;60,"Vencido",IF(DATEDIF(F150,TODAY(),"D")&gt;30,"Aviso")),"")</f>
+      <c r="J150">
+        <f>IF(G150&lt;&gt; "",IF(DATEDIF(G150,TODAY(),"D")&gt;60,"Vencido",IF(DATEDIF(G150,TODAY(),"D")&gt;30,"Aviso")),"")</f>
         <v/>
       </c>
     </row>
@@ -66023,17 +66539,18 @@
       <c r="C151" s="16" t="n"/>
       <c r="D151" s="5" t="n"/>
       <c r="E151" s="5" t="n"/>
-      <c r="F151" s="22" t="n"/>
-      <c r="G151" s="5">
-        <f>IFERROR(VLOOKUP(H151,regs!H:I,2,0),"")</f>
-        <v/>
-      </c>
-      <c r="H151">
+      <c r="F151" s="5" t="n"/>
+      <c r="G151" s="22" t="n"/>
+      <c r="H151" s="5">
+        <f>IFERROR(VLOOKUP(I151,regs!H:I,2,0),"")</f>
+        <v/>
+      </c>
+      <c r="I151">
         <f>LEFT(B151,8)</f>
         <v/>
       </c>
-      <c r="I151">
-        <f>IF(F151&lt;&gt; "",IF(DATEDIF(F151,TODAY(),"D")&gt;60,"Vencido",IF(DATEDIF(F151,TODAY(),"D")&gt;30,"Aviso")),"")</f>
+      <c r="J151">
+        <f>IF(G151&lt;&gt; "",IF(DATEDIF(G151,TODAY(),"D")&gt;60,"Vencido",IF(DATEDIF(G151,TODAY(),"D")&gt;30,"Aviso")),"")</f>
         <v/>
       </c>
     </row>
@@ -66043,17 +66560,18 @@
       <c r="C152" s="16" t="n"/>
       <c r="D152" s="5" t="n"/>
       <c r="E152" s="5" t="n"/>
-      <c r="F152" s="22" t="n"/>
-      <c r="G152" s="5">
-        <f>IFERROR(VLOOKUP(H152,regs!H:I,2,0),"")</f>
-        <v/>
-      </c>
-      <c r="H152">
+      <c r="F152" s="5" t="n"/>
+      <c r="G152" s="22" t="n"/>
+      <c r="H152" s="5">
+        <f>IFERROR(VLOOKUP(I152,regs!H:I,2,0),"")</f>
+        <v/>
+      </c>
+      <c r="I152">
         <f>LEFT(B152,8)</f>
         <v/>
       </c>
-      <c r="I152">
-        <f>IF(F152&lt;&gt; "",IF(DATEDIF(F152,TODAY(),"D")&gt;60,"Vencido",IF(DATEDIF(F152,TODAY(),"D")&gt;30,"Aviso")),"")</f>
+      <c r="J152">
+        <f>IF(G152&lt;&gt; "",IF(DATEDIF(G152,TODAY(),"D")&gt;60,"Vencido",IF(DATEDIF(G152,TODAY(),"D")&gt;30,"Aviso")),"")</f>
         <v/>
       </c>
     </row>
@@ -66063,17 +66581,18 @@
       <c r="C153" s="16" t="n"/>
       <c r="D153" s="5" t="n"/>
       <c r="E153" s="5" t="n"/>
-      <c r="F153" s="22" t="n"/>
-      <c r="G153" s="5">
-        <f>IFERROR(VLOOKUP(H153,regs!H:I,2,0),"")</f>
-        <v/>
-      </c>
-      <c r="H153">
+      <c r="F153" s="5" t="n"/>
+      <c r="G153" s="22" t="n"/>
+      <c r="H153" s="5">
+        <f>IFERROR(VLOOKUP(I153,regs!H:I,2,0),"")</f>
+        <v/>
+      </c>
+      <c r="I153">
         <f>LEFT(B153,8)</f>
         <v/>
       </c>
-      <c r="I153">
-        <f>IF(F153&lt;&gt; "",IF(DATEDIF(F153,TODAY(),"D")&gt;60,"Vencido",IF(DATEDIF(F153,TODAY(),"D")&gt;30,"Aviso")),"")</f>
+      <c r="J153">
+        <f>IF(G153&lt;&gt; "",IF(DATEDIF(G153,TODAY(),"D")&gt;60,"Vencido",IF(DATEDIF(G153,TODAY(),"D")&gt;30,"Aviso")),"")</f>
         <v/>
       </c>
     </row>
@@ -66083,17 +66602,18 @@
       <c r="C154" s="16" t="n"/>
       <c r="D154" s="5" t="n"/>
       <c r="E154" s="5" t="n"/>
-      <c r="F154" s="22" t="n"/>
-      <c r="G154" s="5">
-        <f>IFERROR(VLOOKUP(H154,regs!H:I,2,0),"")</f>
-        <v/>
-      </c>
-      <c r="H154">
+      <c r="F154" s="5" t="n"/>
+      <c r="G154" s="22" t="n"/>
+      <c r="H154" s="5">
+        <f>IFERROR(VLOOKUP(I154,regs!H:I,2,0),"")</f>
+        <v/>
+      </c>
+      <c r="I154">
         <f>LEFT(B154,8)</f>
         <v/>
       </c>
-      <c r="I154">
-        <f>IF(F154&lt;&gt; "",IF(DATEDIF(F154,TODAY(),"D")&gt;60,"Vencido",IF(DATEDIF(F154,TODAY(),"D")&gt;30,"Aviso")),"")</f>
+      <c r="J154">
+        <f>IF(G154&lt;&gt; "",IF(DATEDIF(G154,TODAY(),"D")&gt;60,"Vencido",IF(DATEDIF(G154,TODAY(),"D")&gt;30,"Aviso")),"")</f>
         <v/>
       </c>
     </row>
@@ -66103,17 +66623,18 @@
       <c r="C155" s="16" t="n"/>
       <c r="D155" s="5" t="n"/>
       <c r="E155" s="5" t="n"/>
-      <c r="F155" s="22" t="n"/>
-      <c r="G155" s="5">
-        <f>IFERROR(VLOOKUP(H155,regs!H:I,2,0),"")</f>
-        <v/>
-      </c>
-      <c r="H155">
+      <c r="F155" s="5" t="n"/>
+      <c r="G155" s="22" t="n"/>
+      <c r="H155" s="5">
+        <f>IFERROR(VLOOKUP(I155,regs!H:I,2,0),"")</f>
+        <v/>
+      </c>
+      <c r="I155">
         <f>LEFT(B155,8)</f>
         <v/>
       </c>
-      <c r="I155">
-        <f>IF(F155&lt;&gt; "",IF(DATEDIF(F155,TODAY(),"D")&gt;60,"Vencido",IF(DATEDIF(F155,TODAY(),"D")&gt;30,"Aviso")),"")</f>
+      <c r="J155">
+        <f>IF(G155&lt;&gt; "",IF(DATEDIF(G155,TODAY(),"D")&gt;60,"Vencido",IF(DATEDIF(G155,TODAY(),"D")&gt;30,"Aviso")),"")</f>
         <v/>
       </c>
     </row>
@@ -66123,17 +66644,18 @@
       <c r="C156" s="16" t="n"/>
       <c r="D156" s="5" t="n"/>
       <c r="E156" s="5" t="n"/>
-      <c r="F156" s="22" t="n"/>
-      <c r="G156" s="5">
-        <f>IFERROR(VLOOKUP(H156,regs!H:I,2,0),"")</f>
-        <v/>
-      </c>
-      <c r="H156">
+      <c r="F156" s="5" t="n"/>
+      <c r="G156" s="22" t="n"/>
+      <c r="H156" s="5">
+        <f>IFERROR(VLOOKUP(I156,regs!H:I,2,0),"")</f>
+        <v/>
+      </c>
+      <c r="I156">
         <f>LEFT(B156,8)</f>
         <v/>
       </c>
-      <c r="I156">
-        <f>IF(F156&lt;&gt; "",IF(DATEDIF(F156,TODAY(),"D")&gt;60,"Vencido",IF(DATEDIF(F156,TODAY(),"D")&gt;30,"Aviso")),"")</f>
+      <c r="J156">
+        <f>IF(G156&lt;&gt; "",IF(DATEDIF(G156,TODAY(),"D")&gt;60,"Vencido",IF(DATEDIF(G156,TODAY(),"D")&gt;30,"Aviso")),"")</f>
         <v/>
       </c>
     </row>
@@ -66143,17 +66665,18 @@
       <c r="C157" s="16" t="n"/>
       <c r="D157" s="5" t="n"/>
       <c r="E157" s="5" t="n"/>
-      <c r="F157" s="22" t="n"/>
-      <c r="G157" s="5">
-        <f>IFERROR(VLOOKUP(H157,regs!H:I,2,0),"")</f>
-        <v/>
-      </c>
-      <c r="H157">
+      <c r="F157" s="5" t="n"/>
+      <c r="G157" s="22" t="n"/>
+      <c r="H157" s="5">
+        <f>IFERROR(VLOOKUP(I157,regs!H:I,2,0),"")</f>
+        <v/>
+      </c>
+      <c r="I157">
         <f>LEFT(B157,8)</f>
         <v/>
       </c>
-      <c r="I157">
-        <f>IF(F157&lt;&gt; "",IF(DATEDIF(F157,TODAY(),"D")&gt;60,"Vencido",IF(DATEDIF(F157,TODAY(),"D")&gt;30,"Aviso")),"")</f>
+      <c r="J157">
+        <f>IF(G157&lt;&gt; "",IF(DATEDIF(G157,TODAY(),"D")&gt;60,"Vencido",IF(DATEDIF(G157,TODAY(),"D")&gt;30,"Aviso")),"")</f>
         <v/>
       </c>
     </row>
@@ -66163,17 +66686,18 @@
       <c r="C158" s="16" t="n"/>
       <c r="D158" s="5" t="n"/>
       <c r="E158" s="5" t="n"/>
-      <c r="F158" s="22" t="n"/>
-      <c r="G158" s="5">
-        <f>IFERROR(VLOOKUP(H158,regs!H:I,2,0),"")</f>
-        <v/>
-      </c>
-      <c r="H158">
+      <c r="F158" s="5" t="n"/>
+      <c r="G158" s="22" t="n"/>
+      <c r="H158" s="5">
+        <f>IFERROR(VLOOKUP(I158,regs!H:I,2,0),"")</f>
+        <v/>
+      </c>
+      <c r="I158">
         <f>LEFT(B158,8)</f>
         <v/>
       </c>
-      <c r="I158">
-        <f>IF(F158&lt;&gt; "",IF(DATEDIF(F158,TODAY(),"D")&gt;60,"Vencido",IF(DATEDIF(F158,TODAY(),"D")&gt;30,"Aviso")),"")</f>
+      <c r="J158">
+        <f>IF(G158&lt;&gt; "",IF(DATEDIF(G158,TODAY(),"D")&gt;60,"Vencido",IF(DATEDIF(G158,TODAY(),"D")&gt;30,"Aviso")),"")</f>
         <v/>
       </c>
     </row>
@@ -66183,17 +66707,18 @@
       <c r="C159" s="16" t="n"/>
       <c r="D159" s="5" t="n"/>
       <c r="E159" s="5" t="n"/>
-      <c r="F159" s="22" t="n"/>
-      <c r="G159" s="5">
-        <f>IFERROR(VLOOKUP(H159,regs!H:I,2,0),"")</f>
-        <v/>
-      </c>
-      <c r="H159">
+      <c r="F159" s="5" t="n"/>
+      <c r="G159" s="22" t="n"/>
+      <c r="H159" s="5">
+        <f>IFERROR(VLOOKUP(I159,regs!H:I,2,0),"")</f>
+        <v/>
+      </c>
+      <c r="I159">
         <f>LEFT(B159,8)</f>
         <v/>
       </c>
-      <c r="I159">
-        <f>IF(F159&lt;&gt; "",IF(DATEDIF(F159,TODAY(),"D")&gt;60,"Vencido",IF(DATEDIF(F159,TODAY(),"D")&gt;30,"Aviso")),"")</f>
+      <c r="J159">
+        <f>IF(G159&lt;&gt; "",IF(DATEDIF(G159,TODAY(),"D")&gt;60,"Vencido",IF(DATEDIF(G159,TODAY(),"D")&gt;30,"Aviso")),"")</f>
         <v/>
       </c>
     </row>
@@ -66203,17 +66728,18 @@
       <c r="C160" s="16" t="n"/>
       <c r="D160" s="5" t="n"/>
       <c r="E160" s="5" t="n"/>
-      <c r="F160" s="22" t="n"/>
-      <c r="G160" s="5">
-        <f>IFERROR(VLOOKUP(H160,regs!H:I,2,0),"")</f>
-        <v/>
-      </c>
-      <c r="H160">
+      <c r="F160" s="5" t="n"/>
+      <c r="G160" s="22" t="n"/>
+      <c r="H160" s="5">
+        <f>IFERROR(VLOOKUP(I160,regs!H:I,2,0),"")</f>
+        <v/>
+      </c>
+      <c r="I160">
         <f>LEFT(B160,8)</f>
         <v/>
       </c>
-      <c r="I160">
-        <f>IF(F160&lt;&gt; "",IF(DATEDIF(F160,TODAY(),"D")&gt;60,"Vencido",IF(DATEDIF(F160,TODAY(),"D")&gt;30,"Aviso")),"")</f>
+      <c r="J160">
+        <f>IF(G160&lt;&gt; "",IF(DATEDIF(G160,TODAY(),"D")&gt;60,"Vencido",IF(DATEDIF(G160,TODAY(),"D")&gt;30,"Aviso")),"")</f>
         <v/>
       </c>
     </row>
@@ -66223,17 +66749,18 @@
       <c r="C161" s="16" t="n"/>
       <c r="D161" s="5" t="n"/>
       <c r="E161" s="5" t="n"/>
-      <c r="F161" s="22" t="n"/>
-      <c r="G161" s="5">
-        <f>IFERROR(VLOOKUP(H161,regs!H:I,2,0),"")</f>
-        <v/>
-      </c>
-      <c r="H161">
+      <c r="F161" s="5" t="n"/>
+      <c r="G161" s="22" t="n"/>
+      <c r="H161" s="5">
+        <f>IFERROR(VLOOKUP(I161,regs!H:I,2,0),"")</f>
+        <v/>
+      </c>
+      <c r="I161">
         <f>LEFT(B161,8)</f>
         <v/>
       </c>
-      <c r="I161">
-        <f>IF(F161&lt;&gt; "",IF(DATEDIF(F161,TODAY(),"D")&gt;60,"Vencido",IF(DATEDIF(F161,TODAY(),"D")&gt;30,"Aviso")),"")</f>
+      <c r="J161">
+        <f>IF(G161&lt;&gt; "",IF(DATEDIF(G161,TODAY(),"D")&gt;60,"Vencido",IF(DATEDIF(G161,TODAY(),"D")&gt;30,"Aviso")),"")</f>
         <v/>
       </c>
     </row>
@@ -66243,17 +66770,18 @@
       <c r="C162" s="16" t="n"/>
       <c r="D162" s="5" t="n"/>
       <c r="E162" s="5" t="n"/>
-      <c r="F162" s="22" t="n"/>
-      <c r="G162" s="5">
-        <f>IFERROR(VLOOKUP(H162,regs!H:I,2,0),"")</f>
-        <v/>
-      </c>
-      <c r="H162">
+      <c r="F162" s="5" t="n"/>
+      <c r="G162" s="22" t="n"/>
+      <c r="H162" s="5">
+        <f>IFERROR(VLOOKUP(I162,regs!H:I,2,0),"")</f>
+        <v/>
+      </c>
+      <c r="I162">
         <f>LEFT(B162,8)</f>
         <v/>
       </c>
-      <c r="I162">
-        <f>IF(F162&lt;&gt; "",IF(DATEDIF(F162,TODAY(),"D")&gt;60,"Vencido",IF(DATEDIF(F162,TODAY(),"D")&gt;30,"Aviso")),"")</f>
+      <c r="J162">
+        <f>IF(G162&lt;&gt; "",IF(DATEDIF(G162,TODAY(),"D")&gt;60,"Vencido",IF(DATEDIF(G162,TODAY(),"D")&gt;30,"Aviso")),"")</f>
         <v/>
       </c>
     </row>
@@ -66263,17 +66791,18 @@
       <c r="C163" s="16" t="n"/>
       <c r="D163" s="5" t="n"/>
       <c r="E163" s="5" t="n"/>
-      <c r="F163" s="22" t="n"/>
-      <c r="G163" s="5">
-        <f>IFERROR(VLOOKUP(H163,regs!H:I,2,0),"")</f>
-        <v/>
-      </c>
-      <c r="H163">
+      <c r="F163" s="5" t="n"/>
+      <c r="G163" s="22" t="n"/>
+      <c r="H163" s="5">
+        <f>IFERROR(VLOOKUP(I163,regs!H:I,2,0),"")</f>
+        <v/>
+      </c>
+      <c r="I163">
         <f>LEFT(B163,8)</f>
         <v/>
       </c>
-      <c r="I163">
-        <f>IF(F163&lt;&gt; "",IF(DATEDIF(F163,TODAY(),"D")&gt;60,"Vencido",IF(DATEDIF(F163,TODAY(),"D")&gt;30,"Aviso")),"")</f>
+      <c r="J163">
+        <f>IF(G163&lt;&gt; "",IF(DATEDIF(G163,TODAY(),"D")&gt;60,"Vencido",IF(DATEDIF(G163,TODAY(),"D")&gt;30,"Aviso")),"")</f>
         <v/>
       </c>
     </row>
@@ -66283,17 +66812,18 @@
       <c r="C164" s="16" t="n"/>
       <c r="D164" s="5" t="n"/>
       <c r="E164" s="5" t="n"/>
-      <c r="F164" s="22" t="n"/>
-      <c r="G164" s="5">
-        <f>IFERROR(VLOOKUP(H164,regs!H:I,2,0),"")</f>
-        <v/>
-      </c>
-      <c r="H164">
+      <c r="F164" s="5" t="n"/>
+      <c r="G164" s="22" t="n"/>
+      <c r="H164" s="5">
+        <f>IFERROR(VLOOKUP(I164,regs!H:I,2,0),"")</f>
+        <v/>
+      </c>
+      <c r="I164">
         <f>LEFT(B164,8)</f>
         <v/>
       </c>
-      <c r="I164">
-        <f>IF(F164&lt;&gt; "",IF(DATEDIF(F164,TODAY(),"D")&gt;60,"Vencido",IF(DATEDIF(F164,TODAY(),"D")&gt;30,"Aviso")),"")</f>
+      <c r="J164">
+        <f>IF(G164&lt;&gt; "",IF(DATEDIF(G164,TODAY(),"D")&gt;60,"Vencido",IF(DATEDIF(G164,TODAY(),"D")&gt;30,"Aviso")),"")</f>
         <v/>
       </c>
     </row>
@@ -66303,17 +66833,18 @@
       <c r="C165" s="16" t="n"/>
       <c r="D165" s="5" t="n"/>
       <c r="E165" s="5" t="n"/>
-      <c r="F165" s="22" t="n"/>
-      <c r="G165" s="5">
-        <f>IFERROR(VLOOKUP(H165,regs!H:I,2,0),"")</f>
-        <v/>
-      </c>
-      <c r="H165">
+      <c r="F165" s="5" t="n"/>
+      <c r="G165" s="22" t="n"/>
+      <c r="H165" s="5">
+        <f>IFERROR(VLOOKUP(I165,regs!H:I,2,0),"")</f>
+        <v/>
+      </c>
+      <c r="I165">
         <f>LEFT(B165,8)</f>
         <v/>
       </c>
-      <c r="I165">
-        <f>IF(F165&lt;&gt; "",IF(DATEDIF(F165,TODAY(),"D")&gt;60,"Vencido",IF(DATEDIF(F165,TODAY(),"D")&gt;30,"Aviso")),"")</f>
+      <c r="J165">
+        <f>IF(G165&lt;&gt; "",IF(DATEDIF(G165,TODAY(),"D")&gt;60,"Vencido",IF(DATEDIF(G165,TODAY(),"D")&gt;30,"Aviso")),"")</f>
         <v/>
       </c>
     </row>
@@ -66323,17 +66854,18 @@
       <c r="C166" s="16" t="n"/>
       <c r="D166" s="5" t="n"/>
       <c r="E166" s="5" t="n"/>
-      <c r="F166" s="22" t="n"/>
-      <c r="G166" s="5">
-        <f>IFERROR(VLOOKUP(H166,regs!H:I,2,0),"")</f>
-        <v/>
-      </c>
-      <c r="H166">
+      <c r="F166" s="5" t="n"/>
+      <c r="G166" s="22" t="n"/>
+      <c r="H166" s="5">
+        <f>IFERROR(VLOOKUP(I166,regs!H:I,2,0),"")</f>
+        <v/>
+      </c>
+      <c r="I166">
         <f>LEFT(B166,8)</f>
         <v/>
       </c>
-      <c r="I166">
-        <f>IF(F166&lt;&gt; "",IF(DATEDIF(F166,TODAY(),"D")&gt;60,"Vencido",IF(DATEDIF(F166,TODAY(),"D")&gt;30,"Aviso")),"")</f>
+      <c r="J166">
+        <f>IF(G166&lt;&gt; "",IF(DATEDIF(G166,TODAY(),"D")&gt;60,"Vencido",IF(DATEDIF(G166,TODAY(),"D")&gt;30,"Aviso")),"")</f>
         <v/>
       </c>
     </row>
@@ -66343,17 +66875,18 @@
       <c r="C167" s="16" t="n"/>
       <c r="D167" s="5" t="n"/>
       <c r="E167" s="5" t="n"/>
-      <c r="F167" s="22" t="n"/>
-      <c r="G167" s="5">
-        <f>IFERROR(VLOOKUP(H167,regs!H:I,2,0),"")</f>
-        <v/>
-      </c>
-      <c r="H167">
+      <c r="F167" s="5" t="n"/>
+      <c r="G167" s="22" t="n"/>
+      <c r="H167" s="5">
+        <f>IFERROR(VLOOKUP(I167,regs!H:I,2,0),"")</f>
+        <v/>
+      </c>
+      <c r="I167">
         <f>LEFT(B167,8)</f>
         <v/>
       </c>
-      <c r="I167">
-        <f>IF(F167&lt;&gt; "",IF(DATEDIF(F167,TODAY(),"D")&gt;60,"Vencido",IF(DATEDIF(F167,TODAY(),"D")&gt;30,"Aviso")),"")</f>
+      <c r="J167">
+        <f>IF(G167&lt;&gt; "",IF(DATEDIF(G167,TODAY(),"D")&gt;60,"Vencido",IF(DATEDIF(G167,TODAY(),"D")&gt;30,"Aviso")),"")</f>
         <v/>
       </c>
     </row>
@@ -66363,17 +66896,18 @@
       <c r="C168" s="16" t="n"/>
       <c r="D168" s="5" t="n"/>
       <c r="E168" s="5" t="n"/>
-      <c r="F168" s="22" t="n"/>
-      <c r="G168" s="5">
-        <f>IFERROR(VLOOKUP(H168,regs!H:I,2,0),"")</f>
-        <v/>
-      </c>
-      <c r="H168">
+      <c r="F168" s="5" t="n"/>
+      <c r="G168" s="22" t="n"/>
+      <c r="H168" s="5">
+        <f>IFERROR(VLOOKUP(I168,regs!H:I,2,0),"")</f>
+        <v/>
+      </c>
+      <c r="I168">
         <f>LEFT(B168,8)</f>
         <v/>
       </c>
-      <c r="I168">
-        <f>IF(F168&lt;&gt; "",IF(DATEDIF(F168,TODAY(),"D")&gt;60,"Vencido",IF(DATEDIF(F168,TODAY(),"D")&gt;30,"Aviso")),"")</f>
+      <c r="J168">
+        <f>IF(G168&lt;&gt; "",IF(DATEDIF(G168,TODAY(),"D")&gt;60,"Vencido",IF(DATEDIF(G168,TODAY(),"D")&gt;30,"Aviso")),"")</f>
         <v/>
       </c>
     </row>
@@ -66383,17 +66917,18 @@
       <c r="C169" s="16" t="n"/>
       <c r="D169" s="5" t="n"/>
       <c r="E169" s="5" t="n"/>
-      <c r="F169" s="22" t="n"/>
-      <c r="G169" s="5">
-        <f>IFERROR(VLOOKUP(H169,regs!H:I,2,0),"")</f>
-        <v/>
-      </c>
-      <c r="H169">
+      <c r="F169" s="5" t="n"/>
+      <c r="G169" s="22" t="n"/>
+      <c r="H169" s="5">
+        <f>IFERROR(VLOOKUP(I169,regs!H:I,2,0),"")</f>
+        <v/>
+      </c>
+      <c r="I169">
         <f>LEFT(B169,8)</f>
         <v/>
       </c>
-      <c r="I169">
-        <f>IF(F169&lt;&gt; "",IF(DATEDIF(F169,TODAY(),"D")&gt;60,"Vencido",IF(DATEDIF(F169,TODAY(),"D")&gt;30,"Aviso")),"")</f>
+      <c r="J169">
+        <f>IF(G169&lt;&gt; "",IF(DATEDIF(G169,TODAY(),"D")&gt;60,"Vencido",IF(DATEDIF(G169,TODAY(),"D")&gt;30,"Aviso")),"")</f>
         <v/>
       </c>
     </row>
@@ -66403,17 +66938,18 @@
       <c r="C170" s="16" t="n"/>
       <c r="D170" s="5" t="n"/>
       <c r="E170" s="5" t="n"/>
-      <c r="F170" s="22" t="n"/>
-      <c r="G170" s="5">
-        <f>IFERROR(VLOOKUP(H170,regs!H:I,2,0),"")</f>
-        <v/>
-      </c>
-      <c r="H170">
+      <c r="F170" s="5" t="n"/>
+      <c r="G170" s="22" t="n"/>
+      <c r="H170" s="5">
+        <f>IFERROR(VLOOKUP(I170,regs!H:I,2,0),"")</f>
+        <v/>
+      </c>
+      <c r="I170">
         <f>LEFT(B170,8)</f>
         <v/>
       </c>
-      <c r="I170">
-        <f>IF(F170&lt;&gt; "",IF(DATEDIF(F170,TODAY(),"D")&gt;60,"Vencido",IF(DATEDIF(F170,TODAY(),"D")&gt;30,"Aviso")),"")</f>
+      <c r="J170">
+        <f>IF(G170&lt;&gt; "",IF(DATEDIF(G170,TODAY(),"D")&gt;60,"Vencido",IF(DATEDIF(G170,TODAY(),"D")&gt;30,"Aviso")),"")</f>
         <v/>
       </c>
     </row>
@@ -66423,17 +66959,18 @@
       <c r="C171" s="16" t="n"/>
       <c r="D171" s="5" t="n"/>
       <c r="E171" s="5" t="n"/>
-      <c r="F171" s="22" t="n"/>
-      <c r="G171" s="5">
-        <f>IFERROR(VLOOKUP(H171,regs!H:I,2,0),"")</f>
-        <v/>
-      </c>
-      <c r="H171">
+      <c r="F171" s="5" t="n"/>
+      <c r="G171" s="22" t="n"/>
+      <c r="H171" s="5">
+        <f>IFERROR(VLOOKUP(I171,regs!H:I,2,0),"")</f>
+        <v/>
+      </c>
+      <c r="I171">
         <f>LEFT(B171,8)</f>
         <v/>
       </c>
-      <c r="I171">
-        <f>IF(F171&lt;&gt; "",IF(DATEDIF(F171,TODAY(),"D")&gt;60,"Vencido",IF(DATEDIF(F171,TODAY(),"D")&gt;30,"Aviso")),"")</f>
+      <c r="J171">
+        <f>IF(G171&lt;&gt; "",IF(DATEDIF(G171,TODAY(),"D")&gt;60,"Vencido",IF(DATEDIF(G171,TODAY(),"D")&gt;30,"Aviso")),"")</f>
         <v/>
       </c>
     </row>
@@ -66443,17 +66980,18 @@
       <c r="C172" s="16" t="n"/>
       <c r="D172" s="5" t="n"/>
       <c r="E172" s="5" t="n"/>
-      <c r="F172" s="22" t="n"/>
-      <c r="G172" s="5">
-        <f>IFERROR(VLOOKUP(H172,regs!H:I,2,0),"")</f>
-        <v/>
-      </c>
-      <c r="H172">
+      <c r="F172" s="5" t="n"/>
+      <c r="G172" s="22" t="n"/>
+      <c r="H172" s="5">
+        <f>IFERROR(VLOOKUP(I172,regs!H:I,2,0),"")</f>
+        <v/>
+      </c>
+      <c r="I172">
         <f>LEFT(B172,8)</f>
         <v/>
       </c>
-      <c r="I172">
-        <f>IF(F172&lt;&gt; "",IF(DATEDIF(F172,TODAY(),"D")&gt;60,"Vencido",IF(DATEDIF(F172,TODAY(),"D")&gt;30,"Aviso")),"")</f>
+      <c r="J172">
+        <f>IF(G172&lt;&gt; "",IF(DATEDIF(G172,TODAY(),"D")&gt;60,"Vencido",IF(DATEDIF(G172,TODAY(),"D")&gt;30,"Aviso")),"")</f>
         <v/>
       </c>
     </row>
@@ -66463,17 +67001,18 @@
       <c r="C173" s="16" t="n"/>
       <c r="D173" s="5" t="n"/>
       <c r="E173" s="5" t="n"/>
-      <c r="F173" s="22" t="n"/>
-      <c r="G173" s="5">
-        <f>IFERROR(VLOOKUP(H173,regs!H:I,2,0),"")</f>
-        <v/>
-      </c>
-      <c r="H173">
+      <c r="F173" s="5" t="n"/>
+      <c r="G173" s="22" t="n"/>
+      <c r="H173" s="5">
+        <f>IFERROR(VLOOKUP(I173,regs!H:I,2,0),"")</f>
+        <v/>
+      </c>
+      <c r="I173">
         <f>LEFT(B173,8)</f>
         <v/>
       </c>
-      <c r="I173">
-        <f>IF(F173&lt;&gt; "",IF(DATEDIF(F173,TODAY(),"D")&gt;60,"Vencido",IF(DATEDIF(F173,TODAY(),"D")&gt;30,"Aviso")),"")</f>
+      <c r="J173">
+        <f>IF(G173&lt;&gt; "",IF(DATEDIF(G173,TODAY(),"D")&gt;60,"Vencido",IF(DATEDIF(G173,TODAY(),"D")&gt;30,"Aviso")),"")</f>
         <v/>
       </c>
     </row>
@@ -66483,17 +67022,18 @@
       <c r="C174" s="16" t="n"/>
       <c r="D174" s="5" t="n"/>
       <c r="E174" s="5" t="n"/>
-      <c r="F174" s="22" t="n"/>
-      <c r="G174" s="5">
-        <f>IFERROR(VLOOKUP(H174,regs!H:I,2,0),"")</f>
-        <v/>
-      </c>
-      <c r="H174">
+      <c r="F174" s="5" t="n"/>
+      <c r="G174" s="22" t="n"/>
+      <c r="H174" s="5">
+        <f>IFERROR(VLOOKUP(I174,regs!H:I,2,0),"")</f>
+        <v/>
+      </c>
+      <c r="I174">
         <f>LEFT(B174,8)</f>
         <v/>
       </c>
-      <c r="I174">
-        <f>IF(F174&lt;&gt; "",IF(DATEDIF(F174,TODAY(),"D")&gt;60,"Vencido",IF(DATEDIF(F174,TODAY(),"D")&gt;30,"Aviso")),"")</f>
+      <c r="J174">
+        <f>IF(G174&lt;&gt; "",IF(DATEDIF(G174,TODAY(),"D")&gt;60,"Vencido",IF(DATEDIF(G174,TODAY(),"D")&gt;30,"Aviso")),"")</f>
         <v/>
       </c>
     </row>
@@ -66503,17 +67043,18 @@
       <c r="C175" s="16" t="n"/>
       <c r="D175" s="5" t="n"/>
       <c r="E175" s="5" t="n"/>
-      <c r="F175" s="22" t="n"/>
-      <c r="G175" s="5">
-        <f>IFERROR(VLOOKUP(H175,regs!H:I,2,0),"")</f>
-        <v/>
-      </c>
-      <c r="H175">
+      <c r="F175" s="5" t="n"/>
+      <c r="G175" s="22" t="n"/>
+      <c r="H175" s="5">
+        <f>IFERROR(VLOOKUP(I175,regs!H:I,2,0),"")</f>
+        <v/>
+      </c>
+      <c r="I175">
         <f>LEFT(B175,8)</f>
         <v/>
       </c>
-      <c r="I175">
-        <f>IF(F175&lt;&gt; "",IF(DATEDIF(F175,TODAY(),"D")&gt;60,"Vencido",IF(DATEDIF(F175,TODAY(),"D")&gt;30,"Aviso")),"")</f>
+      <c r="J175">
+        <f>IF(G175&lt;&gt; "",IF(DATEDIF(G175,TODAY(),"D")&gt;60,"Vencido",IF(DATEDIF(G175,TODAY(),"D")&gt;30,"Aviso")),"")</f>
         <v/>
       </c>
     </row>
@@ -66523,17 +67064,18 @@
       <c r="C176" s="16" t="n"/>
       <c r="D176" s="5" t="n"/>
       <c r="E176" s="5" t="n"/>
-      <c r="F176" s="22" t="n"/>
-      <c r="G176" s="5">
-        <f>IFERROR(VLOOKUP(H176,regs!H:I,2,0),"")</f>
-        <v/>
-      </c>
-      <c r="H176">
+      <c r="F176" s="5" t="n"/>
+      <c r="G176" s="22" t="n"/>
+      <c r="H176" s="5">
+        <f>IFERROR(VLOOKUP(I176,regs!H:I,2,0),"")</f>
+        <v/>
+      </c>
+      <c r="I176">
         <f>LEFT(B176,8)</f>
         <v/>
       </c>
-      <c r="I176">
-        <f>IF(F176&lt;&gt; "",IF(DATEDIF(F176,TODAY(),"D")&gt;60,"Vencido",IF(DATEDIF(F176,TODAY(),"D")&gt;30,"Aviso")),"")</f>
+      <c r="J176">
+        <f>IF(G176&lt;&gt; "",IF(DATEDIF(G176,TODAY(),"D")&gt;60,"Vencido",IF(DATEDIF(G176,TODAY(),"D")&gt;30,"Aviso")),"")</f>
         <v/>
       </c>
     </row>
@@ -66543,17 +67085,18 @@
       <c r="C177" s="16" t="n"/>
       <c r="D177" s="5" t="n"/>
       <c r="E177" s="5" t="n"/>
-      <c r="F177" s="22" t="n"/>
-      <c r="G177" s="5">
-        <f>IFERROR(VLOOKUP(H177,regs!H:I,2,0),"")</f>
-        <v/>
-      </c>
-      <c r="H177">
+      <c r="F177" s="5" t="n"/>
+      <c r="G177" s="22" t="n"/>
+      <c r="H177" s="5">
+        <f>IFERROR(VLOOKUP(I177,regs!H:I,2,0),"")</f>
+        <v/>
+      </c>
+      <c r="I177">
         <f>LEFT(B177,8)</f>
         <v/>
       </c>
-      <c r="I177">
-        <f>IF(F177&lt;&gt; "",IF(DATEDIF(F177,TODAY(),"D")&gt;60,"Vencido",IF(DATEDIF(F177,TODAY(),"D")&gt;30,"Aviso")),"")</f>
+      <c r="J177">
+        <f>IF(G177&lt;&gt; "",IF(DATEDIF(G177,TODAY(),"D")&gt;60,"Vencido",IF(DATEDIF(G177,TODAY(),"D")&gt;30,"Aviso")),"")</f>
         <v/>
       </c>
     </row>
@@ -66563,17 +67106,18 @@
       <c r="C178" s="16" t="n"/>
       <c r="D178" s="5" t="n"/>
       <c r="E178" s="5" t="n"/>
-      <c r="F178" s="22" t="n"/>
-      <c r="G178" s="5">
-        <f>IFERROR(VLOOKUP(H178,regs!H:I,2,0),"")</f>
-        <v/>
-      </c>
-      <c r="H178">
+      <c r="F178" s="5" t="n"/>
+      <c r="G178" s="22" t="n"/>
+      <c r="H178" s="5">
+        <f>IFERROR(VLOOKUP(I178,regs!H:I,2,0),"")</f>
+        <v/>
+      </c>
+      <c r="I178">
         <f>LEFT(B178,8)</f>
         <v/>
       </c>
-      <c r="I178">
-        <f>IF(F178&lt;&gt; "",IF(DATEDIF(F178,TODAY(),"D")&gt;60,"Vencido",IF(DATEDIF(F178,TODAY(),"D")&gt;30,"Aviso")),"")</f>
+      <c r="J178">
+        <f>IF(G178&lt;&gt; "",IF(DATEDIF(G178,TODAY(),"D")&gt;60,"Vencido",IF(DATEDIF(G178,TODAY(),"D")&gt;30,"Aviso")),"")</f>
         <v/>
       </c>
     </row>
@@ -66583,17 +67127,18 @@
       <c r="C179" s="16" t="n"/>
       <c r="D179" s="5" t="n"/>
       <c r="E179" s="5" t="n"/>
-      <c r="F179" s="22" t="n"/>
-      <c r="G179" s="5">
-        <f>IFERROR(VLOOKUP(H179,regs!H:I,2,0),"")</f>
-        <v/>
-      </c>
-      <c r="H179">
+      <c r="F179" s="5" t="n"/>
+      <c r="G179" s="22" t="n"/>
+      <c r="H179" s="5">
+        <f>IFERROR(VLOOKUP(I179,regs!H:I,2,0),"")</f>
+        <v/>
+      </c>
+      <c r="I179">
         <f>LEFT(B179,8)</f>
         <v/>
       </c>
-      <c r="I179">
-        <f>IF(F179&lt;&gt; "",IF(DATEDIF(F179,TODAY(),"D")&gt;60,"Vencido",IF(DATEDIF(F179,TODAY(),"D")&gt;30,"Aviso")),"")</f>
+      <c r="J179">
+        <f>IF(G179&lt;&gt; "",IF(DATEDIF(G179,TODAY(),"D")&gt;60,"Vencido",IF(DATEDIF(G179,TODAY(),"D")&gt;30,"Aviso")),"")</f>
         <v/>
       </c>
     </row>
@@ -66603,17 +67148,18 @@
       <c r="C180" s="16" t="n"/>
       <c r="D180" s="5" t="n"/>
       <c r="E180" s="5" t="n"/>
-      <c r="F180" s="22" t="n"/>
-      <c r="G180" s="5">
-        <f>IFERROR(VLOOKUP(H180,regs!H:I,2,0),"")</f>
-        <v/>
-      </c>
-      <c r="H180">
+      <c r="F180" s="5" t="n"/>
+      <c r="G180" s="22" t="n"/>
+      <c r="H180" s="5">
+        <f>IFERROR(VLOOKUP(I180,regs!H:I,2,0),"")</f>
+        <v/>
+      </c>
+      <c r="I180">
         <f>LEFT(B180,8)</f>
         <v/>
       </c>
-      <c r="I180">
-        <f>IF(F180&lt;&gt; "",IF(DATEDIF(F180,TODAY(),"D")&gt;60,"Vencido",IF(DATEDIF(F180,TODAY(),"D")&gt;30,"Aviso")),"")</f>
+      <c r="J180">
+        <f>IF(G180&lt;&gt; "",IF(DATEDIF(G180,TODAY(),"D")&gt;60,"Vencido",IF(DATEDIF(G180,TODAY(),"D")&gt;30,"Aviso")),"")</f>
         <v/>
       </c>
     </row>
@@ -66623,17 +67169,18 @@
       <c r="C181" s="16" t="n"/>
       <c r="D181" s="5" t="n"/>
       <c r="E181" s="5" t="n"/>
-      <c r="F181" s="22" t="n"/>
-      <c r="G181" s="5">
-        <f>IFERROR(VLOOKUP(H181,regs!H:I,2,0),"")</f>
-        <v/>
-      </c>
-      <c r="H181">
+      <c r="F181" s="5" t="n"/>
+      <c r="G181" s="22" t="n"/>
+      <c r="H181" s="5">
+        <f>IFERROR(VLOOKUP(I181,regs!H:I,2,0),"")</f>
+        <v/>
+      </c>
+      <c r="I181">
         <f>LEFT(B181,8)</f>
         <v/>
       </c>
-      <c r="I181">
-        <f>IF(F181&lt;&gt; "",IF(DATEDIF(F181,TODAY(),"D")&gt;60,"Vencido",IF(DATEDIF(F181,TODAY(),"D")&gt;30,"Aviso")),"")</f>
+      <c r="J181">
+        <f>IF(G181&lt;&gt; "",IF(DATEDIF(G181,TODAY(),"D")&gt;60,"Vencido",IF(DATEDIF(G181,TODAY(),"D")&gt;30,"Aviso")),"")</f>
         <v/>
       </c>
     </row>
@@ -66643,34 +67190,35 @@
       <c r="C182" s="16" t="n"/>
       <c r="D182" s="5" t="n"/>
       <c r="E182" s="5" t="n"/>
-      <c r="F182" s="22" t="n"/>
-      <c r="G182" s="5">
-        <f>IFERROR(VLOOKUP(H182,regs!H:I,2,0),"")</f>
-        <v/>
-      </c>
-      <c r="H182">
+      <c r="F182" s="5" t="n"/>
+      <c r="G182" s="22" t="n"/>
+      <c r="H182" s="5">
+        <f>IFERROR(VLOOKUP(I182,regs!H:I,2,0),"")</f>
+        <v/>
+      </c>
+      <c r="I182">
         <f>LEFT(B182,8)</f>
         <v/>
       </c>
-      <c r="I182">
-        <f>IF(F182&lt;&gt; "",IF(DATEDIF(F182,TODAY(),"D")&gt;60,"Vencido",IF(DATEDIF(F182,TODAY(),"D")&gt;30,"Aviso")),"")</f>
+      <c r="J182">
+        <f>IF(G182&lt;&gt; "",IF(DATEDIF(G182,TODAY(),"D")&gt;60,"Vencido",IF(DATEDIF(G182,TODAY(),"D")&gt;30,"Aviso")),"")</f>
         <v/>
       </c>
     </row>
     <row r="183">
-      <c r="I183">
-        <f>IF(F183&lt;&gt; "",IF(DATEDIF(F183,TODAY(),"D")&gt;60,"Vencido",IF(DATEDIF(F183,TODAY(),"D")&gt;30,"Aviso")),"")</f>
+      <c r="J183">
+        <f>IF(G183&lt;&gt; "",IF(DATEDIF(G183,TODAY(),"D")&gt;60,"Vencido",IF(DATEDIF(G183,TODAY(),"D")&gt;30,"Aviso")),"")</f>
         <v/>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H182"/>
-  <conditionalFormatting sqref="F2:F182">
+  <autoFilter ref="A1:I182"/>
+  <conditionalFormatting sqref="G2:G182">
     <cfRule type="expression" priority="1" dxfId="1">
-      <formula>$I2="Aviso"</formula>
+      <formula>$J2="Aviso"</formula>
     </cfRule>
     <cfRule type="expression" priority="3" dxfId="0">
-      <formula>$I2="Vencido"</formula>
+      <formula>$J2="Vencido"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.787401575" bottom="0.787401575" header="0.31496062" footer="0.31496062"/>
@@ -66687,7 +67235,7 @@
   </sheetPr>
   <dimension ref="A1:L97"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
@@ -66703,8 +67251,8 @@
     <col width="14" customWidth="1" style="32" min="8" max="8"/>
     <col width="9.109375" customWidth="1" style="32" min="9" max="9"/>
     <col width="5.33203125" customWidth="1" style="32" min="10" max="10"/>
-    <col width="9.109375" customWidth="1" style="32" min="11" max="101"/>
-    <col width="9.109375" customWidth="1" style="32" min="102" max="16384"/>
+    <col width="9.109375" customWidth="1" style="32" min="11" max="114"/>
+    <col width="9.109375" customWidth="1" style="32" min="115" max="16384"/>
   </cols>
   <sheetData>
     <row r="1" ht="25.5" customHeight="1" s="32">
@@ -66757,7 +67305,7 @@
         </is>
       </c>
       <c r="C3" s="5" t="n">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="G3" s="4" t="inlineStr">
         <is>
@@ -66866,7 +67414,7 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="G9" s="4" t="inlineStr">
         <is>

--- a/regs.xlsx
+++ b/regs.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="EstaPasta_de_trabalho"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="7476" windowHeight="4116" tabRatio="600" firstSheet="0" activeTab="3" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="7476" windowHeight="4116" tabRatio="600" firstSheet="0" activeTab="4" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Acts 2021" sheetId="1" state="visible" r:id="rId1"/>
@@ -731,10 +731,10 @@
                 <formatCode>General</formatCode>
                 <ptCount val="2"/>
                 <pt idx="0">
-                  <v>203</v>
+                  <v>205</v>
                 </pt>
                 <pt idx="1">
-                  <v>71</v>
+                  <v>72</v>
                 </pt>
               </numCache>
             </numRef>
@@ -964,7 +964,7 @@
                 <formatCode>General</formatCode>
                 <ptCount val="2"/>
                 <pt idx="0">
-                  <v>274</v>
+                  <v>277</v>
                 </pt>
                 <pt idx="1">
                   <v>6</v>
@@ -1072,7 +1072,6 @@
           </a:p>
         </rich>
       </tx>
-      <layout/>
       <overlay val="0"/>
       <spPr>
         <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
@@ -1151,10 +1150,10 @@
                 <formatCode>General</formatCode>
                 <ptCount val="8"/>
                 <pt idx="0">
-                  <v>203</v>
+                  <v>205</v>
                 </pt>
                 <pt idx="1">
-                  <v>71</v>
+                  <v>72</v>
                 </pt>
                 <pt idx="2">
                   <v>3</v>
@@ -1166,13 +1165,13 @@
                   <v>4</v>
                 </pt>
                 <pt idx="5">
-                  <v>274</v>
+                  <v>277</v>
                 </pt>
                 <pt idx="6">
                   <v>6</v>
                 </pt>
                 <pt idx="7">
-                  <v>280</v>
+                  <v>283</v>
                 </pt>
               </numCache>
             </numRef>
@@ -1278,11 +1277,11 @@
         </dLbls>
         <gapWidth val="219"/>
         <overlap val="-27"/>
-        <axId val="253254168"/>
-        <axId val="253254560"/>
+        <axId val="255580768"/>
+        <axId val="255577632"/>
       </barChart>
       <catAx>
-        <axId val="253254168"/>
+        <axId val="255580768"/>
         <scaling>
           <orientation val="minMax"/>
         </scaling>
@@ -1328,7 +1327,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </txPr>
-        <crossAx val="253254560"/>
+        <crossAx val="255577632"/>
         <crosses val="autoZero"/>
         <auto val="1"/>
         <lblAlgn val="ctr"/>
@@ -1336,7 +1335,7 @@
         <noMultiLvlLbl val="0"/>
       </catAx>
       <valAx>
-        <axId val="253254560"/>
+        <axId val="255577632"/>
         <scaling>
           <orientation val="minMax"/>
         </scaling>
@@ -1390,14 +1389,13 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </txPr>
-        <crossAx val="253254168"/>
+        <crossAx val="255580768"/>
         <crosses val="autoZero"/>
         <crossBetween val="between"/>
       </valAx>
     </plotArea>
     <legend>
       <legendPos val="b"/>
-      <layout/>
       <overlay val="0"/>
       <spPr>
         <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
@@ -2098,7 +2096,7 @@
                 <formatCode>General</formatCode>
                 <ptCount val="1"/>
                 <pt idx="0">
-                  <v>280</v>
+                  <v>283</v>
                 </pt>
               </numCache>
             </numRef>
@@ -2115,11 +2113,11 @@
         </dLbls>
         <gapWidth val="219"/>
         <overlap val="-27"/>
-        <axId val="253251816"/>
-        <axId val="253256128"/>
+        <axId val="255577240"/>
+        <axId val="255578024"/>
       </barChart>
       <catAx>
-        <axId val="253251816"/>
+        <axId val="255577240"/>
         <scaling>
           <orientation val="minMax"/>
         </scaling>
@@ -2129,7 +2127,7 @@
         <majorTickMark val="none"/>
         <minorTickMark val="none"/>
         <tickLblPos val="nextTo"/>
-        <crossAx val="253256128"/>
+        <crossAx val="255578024"/>
         <crosses val="autoZero"/>
         <auto val="1"/>
         <lblAlgn val="ctr"/>
@@ -2137,7 +2135,7 @@
         <noMultiLvlLbl val="0"/>
       </catAx>
       <valAx>
-        <axId val="253256128"/>
+        <axId val="255578024"/>
         <scaling>
           <orientation val="minMax"/>
         </scaling>
@@ -2191,7 +2189,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </txPr>
-        <crossAx val="253251816"/>
+        <crossAx val="255577240"/>
         <crosses val="autoZero"/>
         <crossBetween val="between"/>
       </valAx>
@@ -2449,7 +2447,7 @@
                 <formatCode>General</formatCode>
                 <ptCount val="1"/>
                 <pt idx="0">
-                  <v>71</v>
+                  <v>72</v>
                 </pt>
               </numCache>
             </numRef>
@@ -2466,11 +2464,11 @@
         </dLbls>
         <gapWidth val="219"/>
         <overlap val="-27"/>
-        <axId val="253252992"/>
-        <axId val="253253384"/>
+        <axId val="255576456"/>
+        <axId val="255574104"/>
       </barChart>
       <catAx>
-        <axId val="253252992"/>
+        <axId val="255576456"/>
         <scaling>
           <orientation val="minMax"/>
         </scaling>
@@ -2480,7 +2478,7 @@
         <majorTickMark val="none"/>
         <minorTickMark val="none"/>
         <tickLblPos val="nextTo"/>
-        <crossAx val="253253384"/>
+        <crossAx val="255574104"/>
         <crosses val="autoZero"/>
         <auto val="1"/>
         <lblAlgn val="ctr"/>
@@ -2488,7 +2486,7 @@
         <noMultiLvlLbl val="0"/>
       </catAx>
       <valAx>
-        <axId val="253253384"/>
+        <axId val="255574104"/>
         <scaling>
           <orientation val="minMax"/>
         </scaling>
@@ -2542,7 +2540,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </txPr>
-        <crossAx val="253252992"/>
+        <crossAx val="255576456"/>
         <crosses val="autoZero"/>
         <crossBetween val="between"/>
       </valAx>
@@ -2800,7 +2798,7 @@
                 <formatCode>General</formatCode>
                 <ptCount val="1"/>
                 <pt idx="0">
-                  <v>203</v>
+                  <v>205</v>
                 </pt>
               </numCache>
             </numRef>
@@ -2817,11 +2815,11 @@
         </dLbls>
         <gapWidth val="219"/>
         <overlap val="-27"/>
-        <axId val="338272240"/>
-        <axId val="338271848"/>
+        <axId val="255575672"/>
+        <axId val="255579200"/>
       </barChart>
       <catAx>
-        <axId val="338272240"/>
+        <axId val="255575672"/>
         <scaling>
           <orientation val="minMax"/>
         </scaling>
@@ -2831,7 +2829,7 @@
         <majorTickMark val="none"/>
         <minorTickMark val="none"/>
         <tickLblPos val="nextTo"/>
-        <crossAx val="338271848"/>
+        <crossAx val="255579200"/>
         <crosses val="autoZero"/>
         <auto val="1"/>
         <lblAlgn val="ctr"/>
@@ -2839,7 +2837,7 @@
         <noMultiLvlLbl val="0"/>
       </catAx>
       <valAx>
-        <axId val="338271848"/>
+        <axId val="255579200"/>
         <scaling>
           <orientation val="minMax"/>
         </scaling>
@@ -2893,7 +2891,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </txPr>
-        <crossAx val="338272240"/>
+        <crossAx val="255575672"/>
         <crosses val="autoZero"/>
         <crossBetween val="between"/>
       </valAx>
@@ -3168,11 +3166,11 @@
         </dLbls>
         <gapWidth val="219"/>
         <overlap val="-27"/>
-        <axId val="338269104"/>
-        <axId val="338269496"/>
+        <axId val="255579592"/>
+        <axId val="255579984"/>
       </barChart>
       <catAx>
-        <axId val="338269104"/>
+        <axId val="255579592"/>
         <scaling>
           <orientation val="minMax"/>
         </scaling>
@@ -3182,7 +3180,7 @@
         <majorTickMark val="none"/>
         <minorTickMark val="none"/>
         <tickLblPos val="nextTo"/>
-        <crossAx val="338269496"/>
+        <crossAx val="255579984"/>
         <crosses val="autoZero"/>
         <auto val="1"/>
         <lblAlgn val="ctr"/>
@@ -3190,7 +3188,7 @@
         <noMultiLvlLbl val="0"/>
       </catAx>
       <valAx>
-        <axId val="338269496"/>
+        <axId val="255579984"/>
         <scaling>
           <orientation val="minMax"/>
         </scaling>
@@ -3244,7 +3242,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </txPr>
-        <crossAx val="338269104"/>
+        <crossAx val="255579592"/>
         <crosses val="autoZero"/>
         <crossBetween val="between"/>
       </valAx>
@@ -3744,11 +3742,11 @@
         </dLbls>
         <gapWidth val="219"/>
         <overlap val="-27"/>
-        <axId val="252783800"/>
-        <axId val="253401008"/>
+        <axId val="253792528"/>
+        <axId val="125315704"/>
       </barChart>
       <catAx>
-        <axId val="252783800"/>
+        <axId val="253792528"/>
         <scaling>
           <orientation val="minMax"/>
         </scaling>
@@ -3794,7 +3792,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </txPr>
-        <crossAx val="253401008"/>
+        <crossAx val="125315704"/>
         <crosses val="autoZero"/>
         <auto val="1"/>
         <lblAlgn val="ctr"/>
@@ -3802,7 +3800,7 @@
         <noMultiLvlLbl val="0"/>
       </catAx>
       <valAx>
-        <axId val="253401008"/>
+        <axId val="125315704"/>
         <scaling>
           <orientation val="minMax"/>
         </scaling>
@@ -3856,7 +3854,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </txPr>
-        <crossAx val="252783800"/>
+        <crossAx val="253792528"/>
         <crosses val="autoZero"/>
         <crossBetween val="between"/>
       </valAx>
@@ -4580,11 +4578,11 @@
         </dLbls>
         <gapWidth val="219"/>
         <overlap val="-27"/>
-        <axId val="253265048"/>
-        <axId val="253265432"/>
+        <axId val="255232776"/>
+        <axId val="255263128"/>
       </barChart>
       <catAx>
-        <axId val="253265048"/>
+        <axId val="255232776"/>
         <scaling>
           <orientation val="minMax"/>
         </scaling>
@@ -4594,7 +4592,7 @@
         <majorTickMark val="none"/>
         <minorTickMark val="none"/>
         <tickLblPos val="nextTo"/>
-        <crossAx val="253265432"/>
+        <crossAx val="255263128"/>
         <crosses val="autoZero"/>
         <auto val="1"/>
         <lblAlgn val="ctr"/>
@@ -4602,7 +4600,7 @@
         <noMultiLvlLbl val="0"/>
       </catAx>
       <valAx>
-        <axId val="253265432"/>
+        <axId val="255263128"/>
         <scaling>
           <orientation val="minMax"/>
         </scaling>
@@ -4656,7 +4654,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </txPr>
-        <crossAx val="253265048"/>
+        <crossAx val="255232776"/>
         <crosses val="autoZero"/>
         <crossBetween val="between"/>
       </valAx>
@@ -4931,11 +4929,11 @@
         </dLbls>
         <gapWidth val="219"/>
         <overlap val="-27"/>
-        <axId val="253955144"/>
-        <axId val="253255344"/>
+        <axId val="255265088"/>
+        <axId val="255265480"/>
       </barChart>
       <catAx>
-        <axId val="253955144"/>
+        <axId val="255265088"/>
         <scaling>
           <orientation val="minMax"/>
         </scaling>
@@ -4945,7 +4943,7 @@
         <majorTickMark val="none"/>
         <minorTickMark val="none"/>
         <tickLblPos val="nextTo"/>
-        <crossAx val="253255344"/>
+        <crossAx val="255265480"/>
         <crosses val="autoZero"/>
         <auto val="1"/>
         <lblAlgn val="ctr"/>
@@ -4953,7 +4951,7 @@
         <noMultiLvlLbl val="0"/>
       </catAx>
       <valAx>
-        <axId val="253255344"/>
+        <axId val="255265480"/>
         <scaling>
           <orientation val="minMax"/>
         </scaling>
@@ -5007,7 +5005,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </txPr>
-        <crossAx val="253955144"/>
+        <crossAx val="255265088"/>
         <crosses val="autoZero"/>
         <crossBetween val="between"/>
       </valAx>
@@ -5282,11 +5280,11 @@
         </dLbls>
         <gapWidth val="219"/>
         <overlap val="-27"/>
-        <axId val="253250640"/>
-        <axId val="253257304"/>
+        <axId val="255269792"/>
+        <axId val="255266264"/>
       </barChart>
       <catAx>
-        <axId val="253250640"/>
+        <axId val="255269792"/>
         <scaling>
           <orientation val="minMax"/>
         </scaling>
@@ -5296,7 +5294,7 @@
         <majorTickMark val="none"/>
         <minorTickMark val="none"/>
         <tickLblPos val="nextTo"/>
-        <crossAx val="253257304"/>
+        <crossAx val="255266264"/>
         <crosses val="autoZero"/>
         <auto val="1"/>
         <lblAlgn val="ctr"/>
@@ -5304,7 +5302,7 @@
         <noMultiLvlLbl val="0"/>
       </catAx>
       <valAx>
-        <axId val="253257304"/>
+        <axId val="255266264"/>
         <scaling>
           <orientation val="minMax"/>
         </scaling>
@@ -5358,7 +5356,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </txPr>
-        <crossAx val="253250640"/>
+        <crossAx val="255269792"/>
         <crosses val="autoZero"/>
         <crossBetween val="between"/>
       </valAx>
@@ -5633,11 +5631,11 @@
         </dLbls>
         <gapWidth val="219"/>
         <overlap val="-27"/>
-        <axId val="253256520"/>
-        <axId val="253249856"/>
+        <axId val="255262736"/>
+        <axId val="255267832"/>
       </barChart>
       <catAx>
-        <axId val="253256520"/>
+        <axId val="255262736"/>
         <scaling>
           <orientation val="minMax"/>
         </scaling>
@@ -5647,7 +5645,7 @@
         <majorTickMark val="none"/>
         <minorTickMark val="none"/>
         <tickLblPos val="nextTo"/>
-        <crossAx val="253249856"/>
+        <crossAx val="255267832"/>
         <crosses val="autoZero"/>
         <auto val="1"/>
         <lblAlgn val="ctr"/>
@@ -5655,7 +5653,7 @@
         <noMultiLvlLbl val="0"/>
       </catAx>
       <valAx>
-        <axId val="253249856"/>
+        <axId val="255267832"/>
         <scaling>
           <orientation val="minMax"/>
         </scaling>
@@ -5709,7 +5707,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </txPr>
-        <crossAx val="253256520"/>
+        <crossAx val="255262736"/>
         <crosses val="autoZero"/>
         <crossBetween val="between"/>
       </valAx>
@@ -23192,8 +23190,8 @@
     <col width="21.6640625" customWidth="1" style="1" min="4" max="4"/>
     <col width="15.109375" customWidth="1" style="1" min="5" max="5"/>
     <col width="19.6640625" customWidth="1" style="1" min="6" max="6"/>
-    <col width="9.109375" customWidth="1" style="1" min="7" max="145"/>
-    <col width="9.109375" customWidth="1" style="1" min="146" max="16384"/>
+    <col width="9.109375" customWidth="1" style="1" min="7" max="148"/>
+    <col width="9.109375" customWidth="1" style="1" min="149" max="16384"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -37726,7 +37724,7 @@
   </sheetPr>
   <dimension ref="A1:P799"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A380" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C401" sqref="C401"/>
     </sheetView>
@@ -37741,8 +37739,8 @@
     <col width="23.44140625" customWidth="1" style="1" min="6" max="6"/>
     <col width="16.88671875" customWidth="1" style="1" min="7" max="7"/>
     <col hidden="1" width="9.109375" customWidth="1" style="1" min="8" max="9"/>
-    <col width="9.109375" customWidth="1" style="1" min="10" max="158"/>
-    <col width="9.109375" customWidth="1" style="1" min="159" max="16384"/>
+    <col width="9.109375" customWidth="1" style="1" min="10" max="161"/>
+    <col width="9.109375" customWidth="1" style="1" min="162" max="16384"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -37782,7 +37780,7 @@
         </is>
       </c>
       <c r="P1" s="1" t="n">
-        <v>403</v>
+        <v>418</v>
       </c>
     </row>
     <row r="2">
@@ -54227,13 +54225,37 @@
       </c>
     </row>
     <row r="403">
-      <c r="A403" s="16" t="n"/>
-      <c r="B403" s="2" t="n"/>
-      <c r="C403" s="16" t="n"/>
-      <c r="D403" s="16" t="n"/>
-      <c r="E403" s="16" t="n"/>
-      <c r="F403" s="21" t="n"/>
-      <c r="G403" s="14" t="n"/>
+      <c r="A403" s="16" t="inlineStr">
+        <is>
+          <t>ONE UP INDUSTRIA DE MODA LTDA</t>
+        </is>
+      </c>
+      <c r="B403" s="2" t="n">
+        <v>48047765001851</v>
+      </c>
+      <c r="C403" s="16" t="inlineStr">
+        <is>
+          <t>MR024482/2023</t>
+        </is>
+      </c>
+      <c r="D403" s="16" t="inlineStr">
+        <is>
+          <t>Domingos e feriados</t>
+        </is>
+      </c>
+      <c r="E403" s="16" t="inlineStr">
+        <is>
+          <t>Lojista</t>
+        </is>
+      </c>
+      <c r="F403" s="21" t="inlineStr">
+        <is>
+          <t>01/11/2022 - 31/12/2023</t>
+        </is>
+      </c>
+      <c r="G403" s="22" t="n">
+        <v>45078</v>
+      </c>
       <c r="H403" s="1">
         <f>LEFT(B403,8)</f>
         <v/>
@@ -54244,13 +54266,37 @@
       </c>
     </row>
     <row r="404">
-      <c r="A404" s="16" t="n"/>
-      <c r="B404" s="2" t="n"/>
-      <c r="C404" s="16" t="n"/>
-      <c r="D404" s="16" t="n"/>
-      <c r="E404" s="16" t="n"/>
-      <c r="F404" s="21" t="n"/>
-      <c r="G404" s="14" t="n"/>
+      <c r="A404" s="16" t="inlineStr">
+        <is>
+          <t>SUPERMERCADO ROSALEN II LTDA</t>
+        </is>
+      </c>
+      <c r="B404" s="2" t="n">
+        <v>39676354000196</v>
+      </c>
+      <c r="C404" s="16" t="inlineStr">
+        <is>
+          <t>MR022761/2023</t>
+        </is>
+      </c>
+      <c r="D404" s="16" t="inlineStr">
+        <is>
+          <t>Domingos e feriados</t>
+        </is>
+      </c>
+      <c r="E404" s="16" t="inlineStr">
+        <is>
+          <t>Mercado</t>
+        </is>
+      </c>
+      <c r="F404" s="21" t="inlineStr">
+        <is>
+          <t>01/11/2022 - 31/12/2023</t>
+        </is>
+      </c>
+      <c r="G404" s="22" t="n">
+        <v>45079</v>
+      </c>
       <c r="H404" s="1">
         <f>LEFT(B404,8)</f>
         <v/>
@@ -54261,13 +54307,37 @@
       </c>
     </row>
     <row r="405">
-      <c r="A405" s="16" t="n"/>
-      <c r="B405" s="2" t="n"/>
-      <c r="C405" s="16" t="n"/>
-      <c r="D405" s="16" t="n"/>
-      <c r="E405" s="16" t="n"/>
-      <c r="F405" s="21" t="n"/>
-      <c r="G405" s="14" t="n"/>
+      <c r="A405" s="16" t="inlineStr">
+        <is>
+          <t>AWA APOIO ADMINISTRATIVO E COMERCIO DE ELETRONICOS LTDA</t>
+        </is>
+      </c>
+      <c r="B405" s="2" t="n">
+        <v>33534067000750</v>
+      </c>
+      <c r="C405" s="16" t="inlineStr">
+        <is>
+          <t>MR020698/2023</t>
+        </is>
+      </c>
+      <c r="D405" s="16" t="inlineStr">
+        <is>
+          <t>Domingos e feriados</t>
+        </is>
+      </c>
+      <c r="E405" s="16" t="inlineStr">
+        <is>
+          <t>Lojista</t>
+        </is>
+      </c>
+      <c r="F405" s="21" t="inlineStr">
+        <is>
+          <t>01/11/2022 - 31/12/2023</t>
+        </is>
+      </c>
+      <c r="G405" s="22" t="n">
+        <v>45083</v>
+      </c>
       <c r="H405" s="1">
         <f>LEFT(B405,8)</f>
         <v/>
@@ -54278,13 +54348,37 @@
       </c>
     </row>
     <row r="406">
-      <c r="A406" s="16" t="n"/>
-      <c r="B406" s="2" t="n"/>
-      <c r="C406" s="16" t="n"/>
-      <c r="D406" s="16" t="n"/>
-      <c r="E406" s="16" t="n"/>
-      <c r="F406" s="21" t="n"/>
-      <c r="G406" s="14" t="n"/>
+      <c r="A406" s="16" t="inlineStr">
+        <is>
+          <t>MERCADO ANUAR LTDA</t>
+        </is>
+      </c>
+      <c r="B406" s="2" t="n">
+        <v>30088971000104</v>
+      </c>
+      <c r="C406" s="16" t="inlineStr">
+        <is>
+          <t>MR022242/2023</t>
+        </is>
+      </c>
+      <c r="D406" s="16" t="inlineStr">
+        <is>
+          <t>Domingos e feriados</t>
+        </is>
+      </c>
+      <c r="E406" s="16" t="inlineStr">
+        <is>
+          <t>Mercado</t>
+        </is>
+      </c>
+      <c r="F406" s="21" t="inlineStr">
+        <is>
+          <t>01/11/2022 - 31/12/2023</t>
+        </is>
+      </c>
+      <c r="G406" s="22" t="n">
+        <v>45089</v>
+      </c>
       <c r="H406" s="1">
         <f>LEFT(B406,8)</f>
         <v/>
@@ -54295,13 +54389,37 @@
       </c>
     </row>
     <row r="407">
-      <c r="A407" s="16" t="n"/>
-      <c r="B407" s="2" t="n"/>
-      <c r="C407" s="16" t="n"/>
-      <c r="D407" s="16" t="n"/>
-      <c r="E407" s="16" t="n"/>
-      <c r="F407" s="21" t="n"/>
-      <c r="G407" s="14" t="n"/>
+      <c r="A407" s="16" t="inlineStr">
+        <is>
+          <t>KILTY CONFECCOES DE ROUPAS FITNESS LTDA</t>
+        </is>
+      </c>
+      <c r="B407" s="2" t="n">
+        <v>26970989000400</v>
+      </c>
+      <c r="C407" s="16" t="inlineStr">
+        <is>
+          <t>MR029616/2023</t>
+        </is>
+      </c>
+      <c r="D407" s="16" t="inlineStr">
+        <is>
+          <t>Domingos e feriados</t>
+        </is>
+      </c>
+      <c r="E407" s="16" t="inlineStr">
+        <is>
+          <t>Lojista</t>
+        </is>
+      </c>
+      <c r="F407" s="21" t="inlineStr">
+        <is>
+          <t>01/11/2022 - 31/12/2023</t>
+        </is>
+      </c>
+      <c r="G407" s="22" t="n">
+        <v>45091</v>
+      </c>
       <c r="H407" s="1">
         <f>LEFT(B407,8)</f>
         <v/>
@@ -54312,13 +54430,37 @@
       </c>
     </row>
     <row r="408">
-      <c r="A408" s="16" t="n"/>
-      <c r="B408" s="2" t="n"/>
-      <c r="C408" s="16" t="n"/>
-      <c r="D408" s="16" t="n"/>
-      <c r="E408" s="16" t="n"/>
-      <c r="F408" s="21" t="n"/>
-      <c r="G408" s="14" t="n"/>
+      <c r="A408" s="16" t="inlineStr">
+        <is>
+          <t>PET CENTER COMERCIO E PARTICIPACOES S.A.</t>
+        </is>
+      </c>
+      <c r="B408" s="2" t="n">
+        <v>18328118005330</v>
+      </c>
+      <c r="C408" s="16" t="inlineStr">
+        <is>
+          <t>MR010934/2023</t>
+        </is>
+      </c>
+      <c r="D408" s="16" t="inlineStr">
+        <is>
+          <t>Domingos e feriados</t>
+        </is>
+      </c>
+      <c r="E408" s="16" t="inlineStr">
+        <is>
+          <t>Lojista</t>
+        </is>
+      </c>
+      <c r="F408" s="21" t="inlineStr">
+        <is>
+          <t>01/11/2022 - 31/12/2023</t>
+        </is>
+      </c>
+      <c r="G408" s="22" t="n">
+        <v>45092</v>
+      </c>
       <c r="H408" s="1">
         <f>LEFT(B408,8)</f>
         <v/>
@@ -54329,13 +54471,37 @@
       </c>
     </row>
     <row r="409">
-      <c r="A409" s="16" t="n"/>
-      <c r="B409" s="2" t="n"/>
-      <c r="C409" s="16" t="n"/>
-      <c r="D409" s="16" t="n"/>
-      <c r="E409" s="16" t="n"/>
-      <c r="F409" s="21" t="n"/>
-      <c r="G409" s="14" t="n"/>
+      <c r="A409" s="16" t="inlineStr">
+        <is>
+          <t>PET CENTER COMERCIO E PARTICIPACOES S.A.</t>
+        </is>
+      </c>
+      <c r="B409" s="2" t="n">
+        <v>18328118008274</v>
+      </c>
+      <c r="C409" s="16" t="inlineStr">
+        <is>
+          <t>MR010934/2023</t>
+        </is>
+      </c>
+      <c r="D409" s="16" t="inlineStr">
+        <is>
+          <t>Domingos e feriados</t>
+        </is>
+      </c>
+      <c r="E409" s="16" t="inlineStr">
+        <is>
+          <t>Lojista</t>
+        </is>
+      </c>
+      <c r="F409" s="21" t="inlineStr">
+        <is>
+          <t>01/11/2022 - 31/12/2023</t>
+        </is>
+      </c>
+      <c r="G409" s="22" t="n">
+        <v>45092</v>
+      </c>
       <c r="H409" s="1">
         <f>LEFT(B409,8)</f>
         <v/>
@@ -54346,13 +54512,37 @@
       </c>
     </row>
     <row r="410">
-      <c r="A410" s="16" t="n"/>
-      <c r="B410" s="2" t="n"/>
-      <c r="C410" s="16" t="n"/>
-      <c r="D410" s="16" t="n"/>
-      <c r="E410" s="16" t="n"/>
-      <c r="F410" s="21" t="n"/>
-      <c r="G410" s="14" t="n"/>
+      <c r="A410" s="16" t="inlineStr">
+        <is>
+          <t>PET CENTER COMERCIO E PARTICIPACOES S.A.</t>
+        </is>
+      </c>
+      <c r="B410" s="2" t="n">
+        <v>18328118000109</v>
+      </c>
+      <c r="C410" s="16" t="inlineStr">
+        <is>
+          <t>MR010934/2023</t>
+        </is>
+      </c>
+      <c r="D410" s="16" t="inlineStr">
+        <is>
+          <t>Domingos e feriados</t>
+        </is>
+      </c>
+      <c r="E410" s="16" t="inlineStr">
+        <is>
+          <t>Lojista</t>
+        </is>
+      </c>
+      <c r="F410" s="21" t="inlineStr">
+        <is>
+          <t>01/11/2022 - 31/12/2023</t>
+        </is>
+      </c>
+      <c r="G410" s="22" t="n">
+        <v>45092</v>
+      </c>
       <c r="H410" s="1">
         <f>LEFT(B410,8)</f>
         <v/>
@@ -54363,13 +54553,37 @@
       </c>
     </row>
     <row r="411">
-      <c r="A411" s="16" t="n"/>
-      <c r="B411" s="2" t="n"/>
-      <c r="C411" s="16" t="n"/>
-      <c r="D411" s="16" t="n"/>
-      <c r="E411" s="16" t="n"/>
-      <c r="F411" s="21" t="n"/>
-      <c r="G411" s="14" t="n"/>
+      <c r="A411" s="16" t="inlineStr">
+        <is>
+          <t>PET CENTER COMERCIO E PARTICIPACOES S.A.</t>
+        </is>
+      </c>
+      <c r="B411" s="2" t="n">
+        <v>18328118005925</v>
+      </c>
+      <c r="C411" s="16" t="inlineStr">
+        <is>
+          <t>MR010934/2023</t>
+        </is>
+      </c>
+      <c r="D411" s="16" t="inlineStr">
+        <is>
+          <t>Domingos e feriados</t>
+        </is>
+      </c>
+      <c r="E411" s="16" t="inlineStr">
+        <is>
+          <t>Lojista</t>
+        </is>
+      </c>
+      <c r="F411" s="21" t="inlineStr">
+        <is>
+          <t>01/11/2022 - 31/12/2023</t>
+        </is>
+      </c>
+      <c r="G411" s="22" t="n">
+        <v>45092</v>
+      </c>
       <c r="H411" s="1">
         <f>LEFT(B411,8)</f>
         <v/>
@@ -54380,13 +54594,37 @@
       </c>
     </row>
     <row r="412">
-      <c r="A412" s="16" t="n"/>
-      <c r="B412" s="2" t="n"/>
-      <c r="C412" s="16" t="n"/>
-      <c r="D412" s="16" t="n"/>
-      <c r="E412" s="16" t="n"/>
-      <c r="F412" s="21" t="n"/>
-      <c r="G412" s="14" t="n"/>
+      <c r="A412" s="16" t="inlineStr">
+        <is>
+          <t>PET CENTER COMERCIO E PARTICIPACOES S.A.</t>
+        </is>
+      </c>
+      <c r="B412" s="2" t="n">
+        <v>18328118011496</v>
+      </c>
+      <c r="C412" s="16" t="inlineStr">
+        <is>
+          <t>MR010934/2023</t>
+        </is>
+      </c>
+      <c r="D412" s="16" t="inlineStr">
+        <is>
+          <t>Domingos e feriados</t>
+        </is>
+      </c>
+      <c r="E412" s="16" t="inlineStr">
+        <is>
+          <t>Lojista</t>
+        </is>
+      </c>
+      <c r="F412" s="21" t="inlineStr">
+        <is>
+          <t>01/11/2022 - 31/12/2023</t>
+        </is>
+      </c>
+      <c r="G412" s="22" t="n">
+        <v>45092</v>
+      </c>
       <c r="H412" s="1">
         <f>LEFT(B412,8)</f>
         <v/>
@@ -54397,13 +54635,37 @@
       </c>
     </row>
     <row r="413">
-      <c r="A413" s="16" t="n"/>
-      <c r="B413" s="2" t="n"/>
-      <c r="C413" s="16" t="n"/>
-      <c r="D413" s="16" t="n"/>
-      <c r="E413" s="16" t="n"/>
-      <c r="F413" s="21" t="n"/>
-      <c r="G413" s="14" t="n"/>
+      <c r="A413" s="16" t="inlineStr">
+        <is>
+          <t>PET CENTER COMERCIO E PARTICIPACOES S.A.</t>
+        </is>
+      </c>
+      <c r="B413" s="2" t="n">
+        <v>18328118021610</v>
+      </c>
+      <c r="C413" s="16" t="inlineStr">
+        <is>
+          <t>MR010934/2023</t>
+        </is>
+      </c>
+      <c r="D413" s="16" t="inlineStr">
+        <is>
+          <t>Domingos e feriados</t>
+        </is>
+      </c>
+      <c r="E413" s="16" t="inlineStr">
+        <is>
+          <t>Lojista</t>
+        </is>
+      </c>
+      <c r="F413" s="21" t="inlineStr">
+        <is>
+          <t>01/11/2022 - 31/12/2023</t>
+        </is>
+      </c>
+      <c r="G413" s="22" t="n">
+        <v>45092</v>
+      </c>
       <c r="H413" s="1">
         <f>LEFT(B413,8)</f>
         <v/>
@@ -54414,13 +54676,37 @@
       </c>
     </row>
     <row r="414">
-      <c r="A414" s="16" t="n"/>
-      <c r="B414" s="2" t="n"/>
-      <c r="C414" s="16" t="n"/>
-      <c r="D414" s="16" t="n"/>
-      <c r="E414" s="16" t="n"/>
-      <c r="F414" s="21" t="n"/>
-      <c r="G414" s="14" t="n"/>
+      <c r="A414" s="16" t="inlineStr">
+        <is>
+          <t>FAST SHOP S.A</t>
+        </is>
+      </c>
+      <c r="B414" s="2" t="n">
+        <v>43708379008348</v>
+      </c>
+      <c r="C414" s="16" t="inlineStr">
+        <is>
+          <t>MR022253/2023</t>
+        </is>
+      </c>
+      <c r="D414" s="16" t="inlineStr">
+        <is>
+          <t>Domingos e feriados</t>
+        </is>
+      </c>
+      <c r="E414" s="16" t="inlineStr">
+        <is>
+          <t>Lojista</t>
+        </is>
+      </c>
+      <c r="F414" s="21" t="inlineStr">
+        <is>
+          <t>01/11/2022 - 31/12/2023</t>
+        </is>
+      </c>
+      <c r="G414" s="22" t="n">
+        <v>45093</v>
+      </c>
       <c r="H414" s="1">
         <f>LEFT(B414,8)</f>
         <v/>
@@ -54431,13 +54717,37 @@
       </c>
     </row>
     <row r="415">
-      <c r="A415" s="16" t="n"/>
-      <c r="B415" s="2" t="n"/>
-      <c r="C415" s="16" t="n"/>
-      <c r="D415" s="16" t="n"/>
-      <c r="E415" s="16" t="n"/>
-      <c r="F415" s="21" t="n"/>
-      <c r="G415" s="14" t="n"/>
+      <c r="A415" s="16" t="inlineStr">
+        <is>
+          <t>FAST SHOP S.A</t>
+        </is>
+      </c>
+      <c r="B415" s="2" t="n">
+        <v>43708379005675</v>
+      </c>
+      <c r="C415" s="16" t="inlineStr">
+        <is>
+          <t>MR022253/2023</t>
+        </is>
+      </c>
+      <c r="D415" s="16" t="inlineStr">
+        <is>
+          <t>Domingos e feriados</t>
+        </is>
+      </c>
+      <c r="E415" s="16" t="inlineStr">
+        <is>
+          <t>Lojista</t>
+        </is>
+      </c>
+      <c r="F415" s="21" t="inlineStr">
+        <is>
+          <t>01/11/2022 - 31/12/2023</t>
+        </is>
+      </c>
+      <c r="G415" s="22" t="n">
+        <v>45093</v>
+      </c>
       <c r="H415" s="1">
         <f>LEFT(B415,8)</f>
         <v/>
@@ -54448,13 +54758,37 @@
       </c>
     </row>
     <row r="416">
-      <c r="A416" s="16" t="n"/>
-      <c r="B416" s="2" t="n"/>
-      <c r="C416" s="16" t="n"/>
-      <c r="D416" s="16" t="n"/>
-      <c r="E416" s="16" t="n"/>
-      <c r="F416" s="21" t="n"/>
-      <c r="G416" s="14" t="n"/>
+      <c r="A416" s="16" t="inlineStr">
+        <is>
+          <t>CF8 CONFECCOES LTDA.</t>
+        </is>
+      </c>
+      <c r="B416" s="2" t="n">
+        <v>19836211000863</v>
+      </c>
+      <c r="C416" s="16" t="inlineStr">
+        <is>
+          <t>MR031086/2023</t>
+        </is>
+      </c>
+      <c r="D416" s="16" t="inlineStr">
+        <is>
+          <t>Domingos e feriados</t>
+        </is>
+      </c>
+      <c r="E416" s="16" t="inlineStr">
+        <is>
+          <t>Lojista</t>
+        </is>
+      </c>
+      <c r="F416" s="21" t="inlineStr">
+        <is>
+          <t>01/11/2022 - 31/12/2023</t>
+        </is>
+      </c>
+      <c r="G416" s="22" t="n">
+        <v>45096</v>
+      </c>
       <c r="H416" s="1">
         <f>LEFT(B416,8)</f>
         <v/>
@@ -54465,13 +54799,37 @@
       </c>
     </row>
     <row r="417">
-      <c r="A417" s="16" t="n"/>
-      <c r="B417" s="2" t="n"/>
-      <c r="C417" s="16" t="n"/>
-      <c r="D417" s="16" t="n"/>
-      <c r="E417" s="16" t="n"/>
-      <c r="F417" s="21" t="n"/>
-      <c r="G417" s="14" t="n"/>
+      <c r="A417" s="16" t="inlineStr">
+        <is>
+          <t>ELENNA EMPORIO DE AROMAS LTDA</t>
+        </is>
+      </c>
+      <c r="B417" s="2" t="n">
+        <v>37611234000428</v>
+      </c>
+      <c r="C417" s="16" t="inlineStr">
+        <is>
+          <t>MR029863/2023</t>
+        </is>
+      </c>
+      <c r="D417" s="16" t="inlineStr">
+        <is>
+          <t>Domingos e feriados</t>
+        </is>
+      </c>
+      <c r="E417" s="16" t="inlineStr">
+        <is>
+          <t>Lojista</t>
+        </is>
+      </c>
+      <c r="F417" s="21" t="inlineStr">
+        <is>
+          <t>01/11/2022 - 31/12/2023</t>
+        </is>
+      </c>
+      <c r="G417" s="22" t="n">
+        <v>45096</v>
+      </c>
       <c r="H417" s="1">
         <f>LEFT(B417,8)</f>
         <v/>
@@ -61379,6 +61737,21 @@
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C400" r:id="rId399"/>
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C401" r:id="rId400"/>
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C402" r:id="rId401"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C403" r:id="rId402"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C404" r:id="rId403"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C405" r:id="rId404"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C406" r:id="rId405"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C407" r:id="rId406"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C408" r:id="rId407"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C409" r:id="rId408"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C410" r:id="rId409"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C411" r:id="rId410"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C412" r:id="rId411"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C413" r:id="rId412"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C414" r:id="rId413"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C415" r:id="rId414"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C416" r:id="rId415"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C417" r:id="rId416"/>
   </hyperlinks>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" paperSize="9"/>
@@ -61394,8 +61767,8 @@
   </sheetPr>
   <dimension ref="A1:T183"/>
   <sheetViews>
-    <sheetView topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="C89" sqref="C89"/>
+    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="C88" sqref="C88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4" outlineLevelCol="0"/>
@@ -61454,10 +61827,10 @@
         </is>
       </c>
       <c r="S1" t="n">
-        <v>27914</v>
+        <v>30114</v>
       </c>
       <c r="T1" t="n">
-        <v>86</v>
+        <v>89</v>
       </c>
     </row>
     <row r="2">
@@ -64381,15 +64754,15 @@
     <row r="68">
       <c r="A68" s="16" t="inlineStr">
         <is>
-          <t>AWA APOIO ADMINISTRATIVO E COMERCIO DE ELETRONICOS LTDA</t>
+          <t>KALI SHOES COMERCIO DE CALCADOS LTDA</t>
         </is>
       </c>
       <c r="B68" s="2" t="n">
-        <v>33534067000750</v>
+        <v>46494237000177</v>
       </c>
       <c r="C68" s="16" t="inlineStr">
         <is>
-          <t>MR020698/2023</t>
+          <t>MR020745/2023</t>
         </is>
       </c>
       <c r="D68" s="5" t="inlineStr">
@@ -64424,20 +64797,20 @@
     <row r="69">
       <c r="A69" s="16" t="inlineStr">
         <is>
-          <t>KALI SHOES COMERCIO DE CALCADOS LTDA</t>
+          <t>BEL PERFUMES, COSMETICOS E PRESENTES LTDA</t>
         </is>
       </c>
       <c r="B69" s="2" t="n">
-        <v>46494237000177</v>
+        <v>10413732000167</v>
       </c>
       <c r="C69" s="16" t="inlineStr">
         <is>
-          <t>MR020745/2023</t>
+          <t>MR021095/2023</t>
         </is>
       </c>
       <c r="D69" s="5" t="inlineStr">
         <is>
-          <t>NÃO</t>
+          <t>SIM</t>
         </is>
       </c>
       <c r="E69" s="5" t="inlineStr">
@@ -64450,7 +64823,9 @@
           <t>Lojista</t>
         </is>
       </c>
-      <c r="G69" s="22" t="n"/>
+      <c r="G69" s="22" t="n">
+        <v>45048</v>
+      </c>
       <c r="H69" s="5">
         <f>IFERROR(VLOOKUP(I69,regs!H:I,2,0),"")</f>
         <v/>
@@ -64467,20 +64842,20 @@
     <row r="70">
       <c r="A70" s="16" t="inlineStr">
         <is>
-          <t>BEL PERFUMES, COSMETICOS E PRESENTES LTDA</t>
+          <t>RI HAPPY BRINQUEDOS S.A.</t>
         </is>
       </c>
       <c r="B70" s="2" t="n">
-        <v>10413732000167</v>
+        <v>58731662010184</v>
       </c>
       <c r="C70" s="16" t="inlineStr">
         <is>
-          <t>MR021095/2023</t>
+          <t>MR021212/2023</t>
         </is>
       </c>
       <c r="D70" s="5" t="inlineStr">
         <is>
-          <t>SIM</t>
+          <t>NÃO</t>
         </is>
       </c>
       <c r="E70" s="5" t="inlineStr">
@@ -64493,9 +64868,7 @@
           <t>Lojista</t>
         </is>
       </c>
-      <c r="G70" s="22" t="n">
-        <v>45048</v>
-      </c>
+      <c r="G70" s="22" t="n"/>
       <c r="H70" s="5">
         <f>IFERROR(VLOOKUP(I70,regs!H:I,2,0),"")</f>
         <v/>
@@ -64512,15 +64885,15 @@
     <row r="71">
       <c r="A71" s="16" t="inlineStr">
         <is>
-          <t>RI HAPPY BRINQUEDOS S.A.</t>
+          <t>SUPERMERCADO F &amp; K LTDA</t>
         </is>
       </c>
       <c r="B71" s="2" t="n">
-        <v>58731662010184</v>
+        <v>9416879000121</v>
       </c>
       <c r="C71" s="16" t="inlineStr">
         <is>
-          <t>MR021212/2023</t>
+          <t>MR022190/2023</t>
         </is>
       </c>
       <c r="D71" s="5" t="inlineStr">
@@ -64535,7 +64908,7 @@
       </c>
       <c r="F71" s="5" t="inlineStr">
         <is>
-          <t>Lojista</t>
+          <t>Mercado</t>
         </is>
       </c>
       <c r="G71" s="22" t="n"/>
@@ -64555,20 +64928,20 @@
     <row r="72">
       <c r="A72" s="16" t="inlineStr">
         <is>
-          <t>SUPERMERCADO F &amp; K LTDA</t>
+          <t>MERCADO ANUAR LTDA</t>
         </is>
       </c>
       <c r="B72" s="2" t="n">
-        <v>9416879000121</v>
+        <v>30088971000104</v>
       </c>
       <c r="C72" s="16" t="inlineStr">
         <is>
-          <t>MR022190/2023</t>
+          <t>MR022242/2023</t>
         </is>
       </c>
       <c r="D72" s="5" t="inlineStr">
         <is>
-          <t>NÃO</t>
+          <t>SIM</t>
         </is>
       </c>
       <c r="E72" s="5" t="inlineStr">
@@ -64581,7 +64954,9 @@
           <t>Mercado</t>
         </is>
       </c>
-      <c r="G72" s="22" t="n"/>
+      <c r="G72" s="22" t="n">
+        <v>45077</v>
+      </c>
       <c r="H72" s="5">
         <f>IFERROR(VLOOKUP(I72,regs!H:I,2,0),"")</f>
         <v/>
@@ -64598,20 +64973,20 @@
     <row r="73">
       <c r="A73" s="16" t="inlineStr">
         <is>
-          <t>MERCADO ANUAR LTDA</t>
+          <t>FAST SHOP S.A</t>
         </is>
       </c>
       <c r="B73" s="2" t="n">
-        <v>30088971000104</v>
+        <v>43708379005675</v>
       </c>
       <c r="C73" s="16" t="inlineStr">
         <is>
-          <t>MR022242/2023</t>
+          <t>MR022253/2023</t>
         </is>
       </c>
       <c r="D73" s="5" t="inlineStr">
         <is>
-          <t>NÃO</t>
+          <t>SIM</t>
         </is>
       </c>
       <c r="E73" s="5" t="inlineStr">
@@ -64621,10 +64996,12 @@
       </c>
       <c r="F73" s="5" t="inlineStr">
         <is>
-          <t>Mercado</t>
-        </is>
-      </c>
-      <c r="G73" s="22" t="n"/>
+          <t>Lojista</t>
+        </is>
+      </c>
+      <c r="G73" s="22" t="n">
+        <v>45070</v>
+      </c>
       <c r="H73" s="5">
         <f>IFERROR(VLOOKUP(I73,regs!H:I,2,0),"")</f>
         <v/>
@@ -64641,20 +65018,20 @@
     <row r="74">
       <c r="A74" s="16" t="inlineStr">
         <is>
-          <t>FAST SHOP S.A</t>
+          <t>MERCADO MINAS GERAIS LTDA</t>
         </is>
       </c>
       <c r="B74" s="2" t="n">
-        <v>43708379005675</v>
+        <v>5520581000106</v>
       </c>
       <c r="C74" s="16" t="inlineStr">
         <is>
-          <t>MR022253/2023</t>
+          <t>MR022285/2023</t>
         </is>
       </c>
       <c r="D74" s="5" t="inlineStr">
         <is>
-          <t>SIM</t>
+          <t>NÃO</t>
         </is>
       </c>
       <c r="E74" s="5" t="inlineStr">
@@ -64664,12 +65041,10 @@
       </c>
       <c r="F74" s="5" t="inlineStr">
         <is>
-          <t>Lojista</t>
-        </is>
-      </c>
-      <c r="G74" s="22" t="n">
-        <v>45070</v>
-      </c>
+          <t>Mercado</t>
+        </is>
+      </c>
+      <c r="G74" s="22" t="n"/>
       <c r="H74" s="5">
         <f>IFERROR(VLOOKUP(I74,regs!H:I,2,0),"")</f>
         <v/>
@@ -64686,20 +65061,20 @@
     <row r="75">
       <c r="A75" s="16" t="inlineStr">
         <is>
-          <t>MERCADO MINAS GERAIS LTDA</t>
+          <t>CHOCOLATERIA PONTAL LTDA.</t>
         </is>
       </c>
       <c r="B75" s="2" t="n">
-        <v>5520581000106</v>
+        <v>50233143000111</v>
       </c>
       <c r="C75" s="16" t="inlineStr">
         <is>
-          <t>MR022285/2023</t>
+          <t>MR022288/2023</t>
         </is>
       </c>
       <c r="D75" s="5" t="inlineStr">
         <is>
-          <t>NÃO</t>
+          <t>SIM</t>
         </is>
       </c>
       <c r="E75" s="5" t="inlineStr">
@@ -64712,7 +65087,9 @@
           <t>Mercado</t>
         </is>
       </c>
-      <c r="G75" s="22" t="n"/>
+      <c r="G75" s="22" t="n">
+        <v>45083</v>
+      </c>
       <c r="H75" s="5">
         <f>IFERROR(VLOOKUP(I75,regs!H:I,2,0),"")</f>
         <v/>
@@ -64729,15 +65106,15 @@
     <row r="76">
       <c r="A76" s="16" t="inlineStr">
         <is>
-          <t>CHOCOLATERIA PONTAL LTDA.</t>
+          <t>CESRAN RECRUTAMENTO E SELECAO DE PESSOAL LTDA</t>
         </is>
       </c>
       <c r="B76" s="2" t="n">
-        <v>50233143000111</v>
+        <v>49995556000154</v>
       </c>
       <c r="C76" s="16" t="inlineStr">
         <is>
-          <t>MR022288/2023</t>
+          <t>MR022523/2023</t>
         </is>
       </c>
       <c r="D76" s="5" t="inlineStr">
@@ -64752,7 +65129,7 @@
       </c>
       <c r="F76" s="5" t="inlineStr">
         <is>
-          <t>Mercado</t>
+          <t>Lojista</t>
         </is>
       </c>
       <c r="G76" s="22" t="n"/>
@@ -64772,15 +65149,15 @@
     <row r="77">
       <c r="A77" s="16" t="inlineStr">
         <is>
-          <t>CESRAN RECRUTAMENTO E SELECAO DE PESSOAL LTDA</t>
+          <t>CRISTALL MIX LTDA</t>
         </is>
       </c>
       <c r="B77" s="2" t="n">
-        <v>49995556000154</v>
+        <v>48453787000173</v>
       </c>
       <c r="C77" s="16" t="inlineStr">
         <is>
-          <t>MR022523/2023</t>
+          <t>MR022751/2023</t>
         </is>
       </c>
       <c r="D77" s="5" t="inlineStr">
@@ -64815,20 +65192,20 @@
     <row r="78">
       <c r="A78" s="16" t="inlineStr">
         <is>
-          <t>CRISTALL MIX LTDA</t>
+          <t>ARMAZEM BOMGADO GA LTDA</t>
         </is>
       </c>
       <c r="B78" s="2" t="n">
-        <v>48453787000173</v>
+        <v>38824899000130</v>
       </c>
       <c r="C78" s="16" t="inlineStr">
         <is>
-          <t>MR022751/2023</t>
+          <t>MR022759/2023</t>
         </is>
       </c>
       <c r="D78" s="5" t="inlineStr">
         <is>
-          <t>NÃO</t>
+          <t>SIM</t>
         </is>
       </c>
       <c r="E78" s="5" t="inlineStr">
@@ -64838,10 +65215,12 @@
       </c>
       <c r="F78" s="5" t="inlineStr">
         <is>
-          <t>Lojista</t>
-        </is>
-      </c>
-      <c r="G78" s="22" t="n"/>
+          <t>Mercado</t>
+        </is>
+      </c>
+      <c r="G78" s="22" t="n">
+        <v>45058</v>
+      </c>
       <c r="H78" s="5">
         <f>IFERROR(VLOOKUP(I78,regs!H:I,2,0),"")</f>
         <v/>
@@ -64858,15 +65237,15 @@
     <row r="79">
       <c r="A79" s="16" t="inlineStr">
         <is>
-          <t>ARMAZEM BOMGADO GA LTDA</t>
+          <t>PAULA H OBJETOS DECORATIVOS E PRESENTES LTDA</t>
         </is>
       </c>
       <c r="B79" s="2" t="n">
-        <v>38824899000130</v>
+        <v>2721404000108</v>
       </c>
       <c r="C79" s="16" t="inlineStr">
         <is>
-          <t>MR022759/2023</t>
+          <t>MR022848/2023</t>
         </is>
       </c>
       <c r="D79" s="5" t="inlineStr">
@@ -64881,11 +65260,11 @@
       </c>
       <c r="F79" s="5" t="inlineStr">
         <is>
-          <t>Mercado</t>
+          <t>Lojista</t>
         </is>
       </c>
       <c r="G79" s="22" t="n">
-        <v>45058</v>
+        <v>45057</v>
       </c>
       <c r="H79" s="5">
         <f>IFERROR(VLOOKUP(I79,regs!H:I,2,0),"")</f>
@@ -64903,15 +65282,15 @@
     <row r="80">
       <c r="A80" s="16" t="inlineStr">
         <is>
-          <t>SUPERMERCADO ROSALEN II LTDA</t>
+          <t>SERGIO PEDRO TONIOLO</t>
         </is>
       </c>
       <c r="B80" s="2" t="n">
-        <v>39676354000196</v>
+        <v>94678224000109</v>
       </c>
       <c r="C80" s="16" t="inlineStr">
         <is>
-          <t>MR022761/2023</t>
+          <t>MR023039/2023</t>
         </is>
       </c>
       <c r="D80" s="5" t="inlineStr">
@@ -64930,7 +65309,7 @@
         </is>
       </c>
       <c r="G80" s="22" t="n">
-        <v>45072</v>
+        <v>45057</v>
       </c>
       <c r="H80" s="5">
         <f>IFERROR(VLOOKUP(I80,regs!H:I,2,0),"")</f>
@@ -64948,15 +65327,15 @@
     <row r="81">
       <c r="A81" s="16" t="inlineStr">
         <is>
-          <t>PAULA H OBJETOS DECORATIVOS E PRESENTES LTDA</t>
+          <t>SUPER PRIMAZ LTDA</t>
         </is>
       </c>
       <c r="B81" s="2" t="n">
-        <v>2721404000108</v>
+        <v>25424804000149</v>
       </c>
       <c r="C81" s="16" t="inlineStr">
         <is>
-          <t>MR022848/2023</t>
+          <t>MR023575/2023</t>
         </is>
       </c>
       <c r="D81" s="5" t="inlineStr">
@@ -64971,11 +65350,11 @@
       </c>
       <c r="F81" s="5" t="inlineStr">
         <is>
-          <t>Lojista</t>
+          <t>Mercado</t>
         </is>
       </c>
       <c r="G81" s="22" t="n">
-        <v>45057</v>
+        <v>45061</v>
       </c>
       <c r="H81" s="5">
         <f>IFERROR(VLOOKUP(I81,regs!H:I,2,0),"")</f>
@@ -64993,20 +65372,20 @@
     <row r="82">
       <c r="A82" s="16" t="inlineStr">
         <is>
-          <t>SERGIO PEDRO TONIOLO</t>
+          <t>K2 COMERCIO E INDUSTRIA LTDA</t>
         </is>
       </c>
       <c r="B82" s="2" t="n">
-        <v>94678224000109</v>
+        <v>1167639000714</v>
       </c>
       <c r="C82" s="16" t="inlineStr">
         <is>
-          <t>MR023039/2023</t>
+          <t>MR026862/2023</t>
         </is>
       </c>
       <c r="D82" s="5" t="inlineStr">
         <is>
-          <t>SIM</t>
+          <t>NÃO</t>
         </is>
       </c>
       <c r="E82" s="5" t="inlineStr">
@@ -65016,12 +65395,10 @@
       </c>
       <c r="F82" s="5" t="inlineStr">
         <is>
-          <t>Mercado</t>
-        </is>
-      </c>
-      <c r="G82" s="22" t="n">
-        <v>45057</v>
-      </c>
+          <t>Lojista</t>
+        </is>
+      </c>
+      <c r="G82" s="22" t="n"/>
       <c r="H82" s="5">
         <f>IFERROR(VLOOKUP(I82,regs!H:I,2,0),"")</f>
         <v/>
@@ -65038,20 +65415,20 @@
     <row r="83">
       <c r="A83" s="16" t="inlineStr">
         <is>
-          <t>SUPER PRIMAZ LTDA</t>
+          <t>HUGO BOSS DO BRASIL LTDA</t>
         </is>
       </c>
       <c r="B83" s="2" t="n">
-        <v>25424804000149</v>
+        <v>57621054002135</v>
       </c>
       <c r="C83" s="16" t="inlineStr">
         <is>
-          <t>MR023575/2023</t>
+          <t>MR028821/2023</t>
         </is>
       </c>
       <c r="D83" s="5" t="inlineStr">
         <is>
-          <t>SIM</t>
+          <t>NÃO</t>
         </is>
       </c>
       <c r="E83" s="5" t="inlineStr">
@@ -65061,12 +65438,10 @@
       </c>
       <c r="F83" s="5" t="inlineStr">
         <is>
-          <t>Mercado</t>
-        </is>
-      </c>
-      <c r="G83" s="22" t="n">
-        <v>45061</v>
-      </c>
+          <t>Lojista</t>
+        </is>
+      </c>
+      <c r="G83" s="22" t="n"/>
       <c r="H83" s="5">
         <f>IFERROR(VLOOKUP(I83,regs!H:I,2,0),"")</f>
         <v/>
@@ -65083,15 +65458,15 @@
     <row r="84">
       <c r="A84" s="16" t="inlineStr">
         <is>
-          <t>ONE UP INDUSTRIA DE MODA LTDA</t>
+          <t>SINDICATO DOS CONCESSIONARIOS E DISTRIBUIDORES DE VEICULOS NO ESTADO DO RIO GRANDE DO SUL - SINCODIV/RS</t>
         </is>
       </c>
       <c r="B84" s="2" t="n">
-        <v>48047765001851</v>
+        <v>4243203000160</v>
       </c>
       <c r="C84" s="16" t="inlineStr">
         <is>
-          <t>MR024482/2023</t>
+          <t>MR029222/2023</t>
         </is>
       </c>
       <c r="D84" s="5" t="inlineStr">
@@ -65101,16 +65476,16 @@
       </c>
       <c r="E84" s="5" t="inlineStr">
         <is>
-          <t>Domingos e feriados</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="F84" s="5" t="inlineStr">
         <is>
-          <t>Lojista</t>
+          <t>Indeterminado</t>
         </is>
       </c>
       <c r="G84" s="22" t="n">
-        <v>45065</v>
+        <v>45084</v>
       </c>
       <c r="H84" s="5">
         <f>IFERROR(VLOOKUP(I84,regs!H:I,2,0),"")</f>
@@ -65128,20 +65503,20 @@
     <row r="85">
       <c r="A85" s="16" t="inlineStr">
         <is>
-          <t>K2 COMERCIO E INDUSTRIA LTDA</t>
+          <t>KILTY CONFECCOES DE ROUPAS FITNESS LTDA</t>
         </is>
       </c>
       <c r="B85" s="2" t="n">
-        <v>1167639000714</v>
+        <v>26970989000400</v>
       </c>
       <c r="C85" s="16" t="inlineStr">
         <is>
-          <t>MR026862/2023</t>
+          <t>MR029616/2023</t>
         </is>
       </c>
       <c r="D85" s="5" t="inlineStr">
         <is>
-          <t>NÃO</t>
+          <t>SIM</t>
         </is>
       </c>
       <c r="E85" s="5" t="inlineStr">
@@ -65154,7 +65529,9 @@
           <t>Lojista</t>
         </is>
       </c>
-      <c r="G85" s="22" t="n"/>
+      <c r="G85" s="22" t="n">
+        <v>45086</v>
+      </c>
       <c r="H85" s="5">
         <f>IFERROR(VLOOKUP(I85,regs!H:I,2,0),"")</f>
         <v/>
@@ -65169,13 +65546,37 @@
       </c>
     </row>
     <row r="86">
-      <c r="A86" s="16" t="n"/>
-      <c r="B86" s="2" t="n"/>
-      <c r="C86" s="16" t="n"/>
-      <c r="D86" s="5" t="n"/>
-      <c r="E86" s="5" t="n"/>
-      <c r="F86" s="22" t="n"/>
-      <c r="G86" s="22" t="n"/>
+      <c r="A86" s="16" t="inlineStr">
+        <is>
+          <t>SINDICATO DOS CONCESSIONARIOS E DISTRIBUIDORES DE VEICULOS NO ESTADO DO RIO GRANDE DO SUL - SINCODIV/RS</t>
+        </is>
+      </c>
+      <c r="B86" s="2" t="n">
+        <v>4243203000160</v>
+      </c>
+      <c r="C86" s="16" t="inlineStr">
+        <is>
+          <t>MR029758/2023</t>
+        </is>
+      </c>
+      <c r="D86" s="5" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+      <c r="E86" s="5" t="inlineStr">
+        <is>
+          <t>Outros</t>
+        </is>
+      </c>
+      <c r="F86" s="22" t="inlineStr">
+        <is>
+          <t>Indeterminado</t>
+        </is>
+      </c>
+      <c r="G86" s="22" t="n">
+        <v>45084</v>
+      </c>
       <c r="H86" s="5">
         <f>IFERROR(VLOOKUP(I86,regs!H:I,2,0),"")</f>
         <v/>
@@ -65190,13 +65591,37 @@
       </c>
     </row>
     <row r="87">
-      <c r="A87" s="16" t="n"/>
-      <c r="B87" s="2" t="n"/>
-      <c r="C87" s="16" t="n"/>
-      <c r="D87" s="5" t="n"/>
-      <c r="E87" s="5" t="n"/>
-      <c r="F87" s="5" t="n"/>
-      <c r="G87" s="22" t="n"/>
+      <c r="A87" s="16" t="inlineStr">
+        <is>
+          <t>ELENNA EMPORIO DE AROMAS LTDA</t>
+        </is>
+      </c>
+      <c r="B87" s="2" t="n">
+        <v>37611234000428</v>
+      </c>
+      <c r="C87" s="16" t="inlineStr">
+        <is>
+          <t>MR029863/2023</t>
+        </is>
+      </c>
+      <c r="D87" s="5" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+      <c r="E87" s="5" t="inlineStr">
+        <is>
+          <t>Domingos e feriados</t>
+        </is>
+      </c>
+      <c r="F87" s="22" t="inlineStr">
+        <is>
+          <t>Lojista</t>
+        </is>
+      </c>
+      <c r="G87" s="22" t="n">
+        <v>45086</v>
+      </c>
       <c r="H87" s="5">
         <f>IFERROR(VLOOKUP(I87,regs!H:I,2,0),"")</f>
         <v/>
@@ -65211,13 +65636,37 @@
       </c>
     </row>
     <row r="88">
-      <c r="A88" s="16" t="n"/>
-      <c r="B88" s="2" t="n"/>
-      <c r="C88" s="16" t="n"/>
-      <c r="D88" s="5" t="n"/>
-      <c r="E88" s="5" t="n"/>
-      <c r="F88" s="5" t="n"/>
-      <c r="G88" s="22" t="n"/>
+      <c r="A88" s="16" t="inlineStr">
+        <is>
+          <t>ELENNA AROMAS LTDA</t>
+        </is>
+      </c>
+      <c r="B88" s="2" t="n">
+        <v>46089244000193</v>
+      </c>
+      <c r="C88" s="16" t="inlineStr">
+        <is>
+          <t>MR029884/2023</t>
+        </is>
+      </c>
+      <c r="D88" s="5" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+      <c r="E88" s="5" t="inlineStr">
+        <is>
+          <t>Domingos e feriados</t>
+        </is>
+      </c>
+      <c r="F88" s="22" t="inlineStr">
+        <is>
+          <t>Lojista</t>
+        </is>
+      </c>
+      <c r="G88" s="22" t="n">
+        <v>45086</v>
+      </c>
       <c r="H88" s="5">
         <f>IFERROR(VLOOKUP(I88,regs!H:I,2,0),"")</f>
         <v/>
@@ -67233,10 +67682,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L97"/>
+  <dimension ref="A1:L108"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView topLeftCell="A71" workbookViewId="0">
+      <selection activeCell="M65" sqref="M65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9.109375" defaultRowHeight="14.4" outlineLevelCol="0"/>
@@ -67251,8 +67700,8 @@
     <col width="14" customWidth="1" style="32" min="8" max="8"/>
     <col width="9.109375" customWidth="1" style="32" min="9" max="9"/>
     <col width="5.33203125" customWidth="1" style="32" min="10" max="10"/>
-    <col width="9.109375" customWidth="1" style="32" min="11" max="114"/>
-    <col width="9.109375" customWidth="1" style="32" min="115" max="16384"/>
+    <col width="9.109375" customWidth="1" style="32" min="11" max="117"/>
+    <col width="9.109375" customWidth="1" style="32" min="118" max="16384"/>
   </cols>
   <sheetData>
     <row r="1" ht="25.5" customHeight="1" s="32">
@@ -67305,7 +67754,7 @@
         </is>
       </c>
       <c r="C3" s="5" t="n">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="G3" s="4" t="inlineStr">
         <is>
@@ -67414,7 +67863,7 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>280</v>
+        <v>289</v>
       </c>
       <c r="G9" s="4" t="inlineStr">
         <is>
@@ -67614,24 +68063,191 @@
       <c r="J66" s="13" t="n"/>
     </row>
     <row r="68" ht="14.4" customHeight="1" s="32">
-      <c r="B68" s="27" t="n"/>
-      <c r="C68" s="27" t="n"/>
-      <c r="D68" s="33" t="inlineStr">
+      <c r="A68" s="7" t="n"/>
+      <c r="B68" s="26" t="n"/>
+      <c r="C68" s="26" t="n"/>
+      <c r="D68" s="30" t="inlineStr">
         <is>
           <t>2022 x 2023</t>
         </is>
       </c>
+      <c r="E68" s="31" t="n"/>
+      <c r="F68" s="31" t="n"/>
+      <c r="G68" s="31" t="n"/>
+      <c r="H68" s="31" t="n"/>
+      <c r="I68" s="8" t="n"/>
     </row>
     <row r="69" ht="14.4" customHeight="1" s="32">
+      <c r="A69" s="9" t="n"/>
       <c r="B69" s="27" t="n"/>
       <c r="C69" s="27" t="n"/>
+      <c r="I69" s="10" t="n"/>
     </row>
     <row r="70" ht="14.4" customHeight="1" s="32">
+      <c r="A70" s="9" t="n"/>
       <c r="B70" s="27" t="n"/>
       <c r="C70" s="27" t="n"/>
+      <c r="I70" s="10" t="n"/>
+    </row>
+    <row r="71">
+      <c r="A71" s="9" t="n"/>
+      <c r="I71" s="10" t="n"/>
+    </row>
+    <row r="72">
+      <c r="A72" s="9" t="n"/>
+      <c r="I72" s="10" t="n"/>
+    </row>
+    <row r="73">
+      <c r="A73" s="9" t="n"/>
+      <c r="I73" s="10" t="n"/>
+    </row>
+    <row r="74">
+      <c r="A74" s="9" t="n"/>
+      <c r="I74" s="10" t="n"/>
+    </row>
+    <row r="75">
+      <c r="A75" s="9" t="n"/>
+      <c r="I75" s="10" t="n"/>
+    </row>
+    <row r="76">
+      <c r="A76" s="9" t="n"/>
+      <c r="I76" s="10" t="n"/>
+    </row>
+    <row r="77">
+      <c r="A77" s="9" t="n"/>
+      <c r="I77" s="10" t="n"/>
+    </row>
+    <row r="78">
+      <c r="A78" s="9" t="n"/>
+      <c r="I78" s="10" t="n"/>
+    </row>
+    <row r="79">
+      <c r="A79" s="9" t="n"/>
+      <c r="I79" s="10" t="n"/>
+    </row>
+    <row r="80">
+      <c r="A80" s="9" t="n"/>
+      <c r="I80" s="10" t="n"/>
+    </row>
+    <row r="81">
+      <c r="A81" s="9" t="n"/>
+      <c r="I81" s="10" t="n"/>
+    </row>
+    <row r="82">
+      <c r="A82" s="9" t="n"/>
+      <c r="I82" s="10" t="n"/>
+    </row>
+    <row r="83">
+      <c r="A83" s="9" t="n"/>
+      <c r="I83" s="10" t="n"/>
+    </row>
+    <row r="84">
+      <c r="A84" s="9" t="n"/>
+      <c r="I84" s="10" t="n"/>
+    </row>
+    <row r="85">
+      <c r="A85" s="9" t="n"/>
+      <c r="I85" s="10" t="n"/>
+    </row>
+    <row r="86">
+      <c r="A86" s="9" t="n"/>
+      <c r="I86" s="10" t="n"/>
+    </row>
+    <row r="87">
+      <c r="A87" s="9" t="n"/>
+      <c r="I87" s="10" t="n"/>
+    </row>
+    <row r="88">
+      <c r="A88" s="9" t="n"/>
+      <c r="I88" s="10" t="n"/>
+    </row>
+    <row r="89">
+      <c r="A89" s="9" t="n"/>
+      <c r="I89" s="10" t="n"/>
+    </row>
+    <row r="90">
+      <c r="A90" s="9" t="n"/>
+      <c r="I90" s="10" t="n"/>
+    </row>
+    <row r="91">
+      <c r="A91" s="9" t="n"/>
+      <c r="I91" s="10" t="n"/>
+    </row>
+    <row r="92">
+      <c r="A92" s="9" t="n"/>
+      <c r="I92" s="10" t="n"/>
+    </row>
+    <row r="93">
+      <c r="A93" s="9" t="n"/>
+      <c r="I93" s="10" t="n"/>
+    </row>
+    <row r="94">
+      <c r="A94" s="9" t="n"/>
+      <c r="I94" s="10" t="n"/>
+    </row>
+    <row r="95">
+      <c r="A95" s="9" t="n"/>
+      <c r="I95" s="10" t="n"/>
+    </row>
+    <row r="96">
+      <c r="A96" s="9" t="n"/>
+      <c r="I96" s="10" t="n"/>
     </row>
     <row r="97">
+      <c r="A97" s="9" t="n"/>
+      <c r="I97" s="10" t="n"/>
       <c r="L97" s="15" t="n"/>
+    </row>
+    <row r="98">
+      <c r="A98" s="9" t="n"/>
+      <c r="I98" s="10" t="n"/>
+    </row>
+    <row r="99">
+      <c r="A99" s="9" t="n"/>
+      <c r="I99" s="10" t="n"/>
+    </row>
+    <row r="100">
+      <c r="A100" s="9" t="n"/>
+      <c r="I100" s="10" t="n"/>
+    </row>
+    <row r="101">
+      <c r="A101" s="9" t="n"/>
+      <c r="I101" s="10" t="n"/>
+    </row>
+    <row r="102">
+      <c r="A102" s="9" t="n"/>
+      <c r="I102" s="10" t="n"/>
+    </row>
+    <row r="103">
+      <c r="A103" s="9" t="n"/>
+      <c r="I103" s="10" t="n"/>
+    </row>
+    <row r="104">
+      <c r="A104" s="9" t="n"/>
+      <c r="I104" s="10" t="n"/>
+    </row>
+    <row r="105">
+      <c r="A105" s="9" t="n"/>
+      <c r="I105" s="10" t="n"/>
+    </row>
+    <row r="106">
+      <c r="A106" s="9" t="n"/>
+      <c r="I106" s="10" t="n"/>
+    </row>
+    <row r="107">
+      <c r="A107" s="9" t="n"/>
+      <c r="I107" s="10" t="n"/>
+    </row>
+    <row r="108">
+      <c r="A108" s="11" t="n"/>
+      <c r="B108" s="12" t="n"/>
+      <c r="C108" s="12" t="n"/>
+      <c r="D108" s="12" t="n"/>
+      <c r="E108" s="12" t="n"/>
+      <c r="F108" s="12" t="n"/>
+      <c r="G108" s="12" t="n"/>
+      <c r="H108" s="12" t="n"/>
+      <c r="I108" s="13" t="n"/>
     </row>
     <row r="110" ht="15" customHeight="1" s="32"/>
   </sheetData>

--- a/regs.xlsx
+++ b/regs.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="EstaPasta_de_trabalho"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="7476" windowHeight="4116" tabRatio="600" firstSheet="0" activeTab="4" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="7476" windowHeight="4116" tabRatio="600" firstSheet="0" activeTab="3" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Acts 2021" sheetId="1" state="visible" r:id="rId1"/>
@@ -731,10 +731,10 @@
                 <formatCode>General</formatCode>
                 <ptCount val="2"/>
                 <pt idx="0">
-                  <v>205</v>
+                  <v>214</v>
                 </pt>
                 <pt idx="1">
-                  <v>72</v>
+                  <v>74</v>
                 </pt>
               </numCache>
             </numRef>
@@ -964,7 +964,7 @@
                 <formatCode>General</formatCode>
                 <ptCount val="2"/>
                 <pt idx="0">
-                  <v>277</v>
+                  <v>288</v>
                 </pt>
                 <pt idx="1">
                   <v>6</v>
@@ -1150,10 +1150,10 @@
                 <formatCode>General</formatCode>
                 <ptCount val="8"/>
                 <pt idx="0">
-                  <v>205</v>
+                  <v>214</v>
                 </pt>
                 <pt idx="1">
-                  <v>72</v>
+                  <v>74</v>
                 </pt>
                 <pt idx="2">
                   <v>3</v>
@@ -1165,13 +1165,13 @@
                   <v>4</v>
                 </pt>
                 <pt idx="5">
-                  <v>277</v>
+                  <v>288</v>
                 </pt>
                 <pt idx="6">
                   <v>6</v>
                 </pt>
                 <pt idx="7">
-                  <v>283</v>
+                  <v>294</v>
                 </pt>
               </numCache>
             </numRef>
@@ -1277,11 +1277,11 @@
         </dLbls>
         <gapWidth val="219"/>
         <overlap val="-27"/>
-        <axId val="255580768"/>
-        <axId val="255577632"/>
+        <axId val="254137304"/>
+        <axId val="254137696"/>
       </barChart>
       <catAx>
-        <axId val="255580768"/>
+        <axId val="254137304"/>
         <scaling>
           <orientation val="minMax"/>
         </scaling>
@@ -1327,7 +1327,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </txPr>
-        <crossAx val="255577632"/>
+        <crossAx val="254137696"/>
         <crosses val="autoZero"/>
         <auto val="1"/>
         <lblAlgn val="ctr"/>
@@ -1335,7 +1335,7 @@
         <noMultiLvlLbl val="0"/>
       </catAx>
       <valAx>
-        <axId val="255577632"/>
+        <axId val="254137696"/>
         <scaling>
           <orientation val="minMax"/>
         </scaling>
@@ -1389,7 +1389,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </txPr>
-        <crossAx val="255580768"/>
+        <crossAx val="254137304"/>
         <crosses val="autoZero"/>
         <crossBetween val="between"/>
       </valAx>
@@ -2096,7 +2096,7 @@
                 <formatCode>General</formatCode>
                 <ptCount val="1"/>
                 <pt idx="0">
-                  <v>283</v>
+                  <v>294</v>
                 </pt>
               </numCache>
             </numRef>
@@ -2113,11 +2113,11 @@
         </dLbls>
         <gapWidth val="219"/>
         <overlap val="-27"/>
-        <axId val="255577240"/>
-        <axId val="255578024"/>
+        <axId val="254131816"/>
+        <axId val="254132600"/>
       </barChart>
       <catAx>
-        <axId val="255577240"/>
+        <axId val="254131816"/>
         <scaling>
           <orientation val="minMax"/>
         </scaling>
@@ -2127,7 +2127,7 @@
         <majorTickMark val="none"/>
         <minorTickMark val="none"/>
         <tickLblPos val="nextTo"/>
-        <crossAx val="255578024"/>
+        <crossAx val="254132600"/>
         <crosses val="autoZero"/>
         <auto val="1"/>
         <lblAlgn val="ctr"/>
@@ -2135,7 +2135,7 @@
         <noMultiLvlLbl val="0"/>
       </catAx>
       <valAx>
-        <axId val="255578024"/>
+        <axId val="254132600"/>
         <scaling>
           <orientation val="minMax"/>
         </scaling>
@@ -2189,7 +2189,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </txPr>
-        <crossAx val="255577240"/>
+        <crossAx val="254131816"/>
         <crosses val="autoZero"/>
         <crossBetween val="between"/>
       </valAx>
@@ -2447,7 +2447,7 @@
                 <formatCode>General</formatCode>
                 <ptCount val="1"/>
                 <pt idx="0">
-                  <v>72</v>
+                  <v>74</v>
                 </pt>
               </numCache>
             </numRef>
@@ -2464,11 +2464,11 @@
         </dLbls>
         <gapWidth val="219"/>
         <overlap val="-27"/>
-        <axId val="255576456"/>
-        <axId val="255574104"/>
+        <axId val="254134952"/>
+        <axId val="254135344"/>
       </barChart>
       <catAx>
-        <axId val="255576456"/>
+        <axId val="254134952"/>
         <scaling>
           <orientation val="minMax"/>
         </scaling>
@@ -2478,7 +2478,7 @@
         <majorTickMark val="none"/>
         <minorTickMark val="none"/>
         <tickLblPos val="nextTo"/>
-        <crossAx val="255574104"/>
+        <crossAx val="254135344"/>
         <crosses val="autoZero"/>
         <auto val="1"/>
         <lblAlgn val="ctr"/>
@@ -2486,7 +2486,7 @@
         <noMultiLvlLbl val="0"/>
       </catAx>
       <valAx>
-        <axId val="255574104"/>
+        <axId val="254135344"/>
         <scaling>
           <orientation val="minMax"/>
         </scaling>
@@ -2540,7 +2540,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </txPr>
-        <crossAx val="255576456"/>
+        <crossAx val="254134952"/>
         <crosses val="autoZero"/>
         <crossBetween val="between"/>
       </valAx>
@@ -2798,7 +2798,7 @@
                 <formatCode>General</formatCode>
                 <ptCount val="1"/>
                 <pt idx="0">
-                  <v>205</v>
+                  <v>214</v>
                 </pt>
               </numCache>
             </numRef>
@@ -2815,11 +2815,11 @@
         </dLbls>
         <gapWidth val="219"/>
         <overlap val="-27"/>
-        <axId val="255575672"/>
-        <axId val="255579200"/>
+        <axId val="338978536"/>
+        <axId val="338980104"/>
       </barChart>
       <catAx>
-        <axId val="255575672"/>
+        <axId val="338978536"/>
         <scaling>
           <orientation val="minMax"/>
         </scaling>
@@ -2829,7 +2829,7 @@
         <majorTickMark val="none"/>
         <minorTickMark val="none"/>
         <tickLblPos val="nextTo"/>
-        <crossAx val="255579200"/>
+        <crossAx val="338980104"/>
         <crosses val="autoZero"/>
         <auto val="1"/>
         <lblAlgn val="ctr"/>
@@ -2837,7 +2837,7 @@
         <noMultiLvlLbl val="0"/>
       </catAx>
       <valAx>
-        <axId val="255579200"/>
+        <axId val="338980104"/>
         <scaling>
           <orientation val="minMax"/>
         </scaling>
@@ -2891,7 +2891,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </txPr>
-        <crossAx val="255575672"/>
+        <crossAx val="338978536"/>
         <crosses val="autoZero"/>
         <crossBetween val="between"/>
       </valAx>
@@ -3166,11 +3166,11 @@
         </dLbls>
         <gapWidth val="219"/>
         <overlap val="-27"/>
-        <axId val="255579592"/>
-        <axId val="255579984"/>
+        <axId val="338980888"/>
+        <axId val="338981280"/>
       </barChart>
       <catAx>
-        <axId val="255579592"/>
+        <axId val="338980888"/>
         <scaling>
           <orientation val="minMax"/>
         </scaling>
@@ -3180,7 +3180,7 @@
         <majorTickMark val="none"/>
         <minorTickMark val="none"/>
         <tickLblPos val="nextTo"/>
-        <crossAx val="255579984"/>
+        <crossAx val="338981280"/>
         <crosses val="autoZero"/>
         <auto val="1"/>
         <lblAlgn val="ctr"/>
@@ -3188,7 +3188,7 @@
         <noMultiLvlLbl val="0"/>
       </catAx>
       <valAx>
-        <axId val="255579984"/>
+        <axId val="338981280"/>
         <scaling>
           <orientation val="minMax"/>
         </scaling>
@@ -3242,7 +3242,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </txPr>
-        <crossAx val="255579592"/>
+        <crossAx val="338980888"/>
         <crosses val="autoZero"/>
         <crossBetween val="between"/>
       </valAx>
@@ -3742,11 +3742,11 @@
         </dLbls>
         <gapWidth val="219"/>
         <overlap val="-27"/>
-        <axId val="253792528"/>
-        <axId val="125315704"/>
+        <axId val="254203512"/>
+        <axId val="254212096"/>
       </barChart>
       <catAx>
-        <axId val="253792528"/>
+        <axId val="254203512"/>
         <scaling>
           <orientation val="minMax"/>
         </scaling>
@@ -3792,7 +3792,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </txPr>
-        <crossAx val="125315704"/>
+        <crossAx val="254212096"/>
         <crosses val="autoZero"/>
         <auto val="1"/>
         <lblAlgn val="ctr"/>
@@ -3800,7 +3800,7 @@
         <noMultiLvlLbl val="0"/>
       </catAx>
       <valAx>
-        <axId val="125315704"/>
+        <axId val="254212096"/>
         <scaling>
           <orientation val="minMax"/>
         </scaling>
@@ -3854,7 +3854,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </txPr>
-        <crossAx val="253792528"/>
+        <crossAx val="254203512"/>
         <crosses val="autoZero"/>
         <crossBetween val="between"/>
       </valAx>
@@ -4578,11 +4578,11 @@
         </dLbls>
         <gapWidth val="219"/>
         <overlap val="-27"/>
-        <axId val="255232776"/>
-        <axId val="255263128"/>
+        <axId val="254041552"/>
+        <axId val="254061496"/>
       </barChart>
       <catAx>
-        <axId val="255232776"/>
+        <axId val="254041552"/>
         <scaling>
           <orientation val="minMax"/>
         </scaling>
@@ -4592,7 +4592,7 @@
         <majorTickMark val="none"/>
         <minorTickMark val="none"/>
         <tickLblPos val="nextTo"/>
-        <crossAx val="255263128"/>
+        <crossAx val="254061496"/>
         <crosses val="autoZero"/>
         <auto val="1"/>
         <lblAlgn val="ctr"/>
@@ -4600,7 +4600,7 @@
         <noMultiLvlLbl val="0"/>
       </catAx>
       <valAx>
-        <axId val="255263128"/>
+        <axId val="254061496"/>
         <scaling>
           <orientation val="minMax"/>
         </scaling>
@@ -4654,7 +4654,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </txPr>
-        <crossAx val="255232776"/>
+        <crossAx val="254041552"/>
         <crosses val="autoZero"/>
         <crossBetween val="between"/>
       </valAx>
@@ -4929,11 +4929,11 @@
         </dLbls>
         <gapWidth val="219"/>
         <overlap val="-27"/>
-        <axId val="255265088"/>
-        <axId val="255265480"/>
+        <axId val="254106240"/>
+        <axId val="122964168"/>
       </barChart>
       <catAx>
-        <axId val="255265088"/>
+        <axId val="254106240"/>
         <scaling>
           <orientation val="minMax"/>
         </scaling>
@@ -4943,7 +4943,7 @@
         <majorTickMark val="none"/>
         <minorTickMark val="none"/>
         <tickLblPos val="nextTo"/>
-        <crossAx val="255265480"/>
+        <crossAx val="122964168"/>
         <crosses val="autoZero"/>
         <auto val="1"/>
         <lblAlgn val="ctr"/>
@@ -4951,7 +4951,7 @@
         <noMultiLvlLbl val="0"/>
       </catAx>
       <valAx>
-        <axId val="255265480"/>
+        <axId val="122964168"/>
         <scaling>
           <orientation val="minMax"/>
         </scaling>
@@ -5005,7 +5005,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </txPr>
-        <crossAx val="255265088"/>
+        <crossAx val="254106240"/>
         <crosses val="autoZero"/>
         <crossBetween val="between"/>
       </valAx>
@@ -5280,11 +5280,11 @@
         </dLbls>
         <gapWidth val="219"/>
         <overlap val="-27"/>
-        <axId val="255269792"/>
-        <axId val="255266264"/>
+        <axId val="254139264"/>
+        <axId val="254138480"/>
       </barChart>
       <catAx>
-        <axId val="255269792"/>
+        <axId val="254139264"/>
         <scaling>
           <orientation val="minMax"/>
         </scaling>
@@ -5294,7 +5294,7 @@
         <majorTickMark val="none"/>
         <minorTickMark val="none"/>
         <tickLblPos val="nextTo"/>
-        <crossAx val="255266264"/>
+        <crossAx val="254138480"/>
         <crosses val="autoZero"/>
         <auto val="1"/>
         <lblAlgn val="ctr"/>
@@ -5302,7 +5302,7 @@
         <noMultiLvlLbl val="0"/>
       </catAx>
       <valAx>
-        <axId val="255266264"/>
+        <axId val="254138480"/>
         <scaling>
           <orientation val="minMax"/>
         </scaling>
@@ -5356,7 +5356,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </txPr>
-        <crossAx val="255269792"/>
+        <crossAx val="254139264"/>
         <crosses val="autoZero"/>
         <crossBetween val="between"/>
       </valAx>
@@ -5631,11 +5631,11 @@
         </dLbls>
         <gapWidth val="219"/>
         <overlap val="-27"/>
-        <axId val="255262736"/>
-        <axId val="255267832"/>
+        <axId val="254136912"/>
+        <axId val="254132208"/>
       </barChart>
       <catAx>
-        <axId val="255262736"/>
+        <axId val="254136912"/>
         <scaling>
           <orientation val="minMax"/>
         </scaling>
@@ -5645,7 +5645,7 @@
         <majorTickMark val="none"/>
         <minorTickMark val="none"/>
         <tickLblPos val="nextTo"/>
-        <crossAx val="255267832"/>
+        <crossAx val="254132208"/>
         <crosses val="autoZero"/>
         <auto val="1"/>
         <lblAlgn val="ctr"/>
@@ -5653,7 +5653,7 @@
         <noMultiLvlLbl val="0"/>
       </catAx>
       <valAx>
-        <axId val="255267832"/>
+        <axId val="254132208"/>
         <scaling>
           <orientation val="minMax"/>
         </scaling>
@@ -5707,7 +5707,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </txPr>
-        <crossAx val="255262736"/>
+        <crossAx val="254136912"/>
         <crosses val="autoZero"/>
         <crossBetween val="between"/>
       </valAx>
@@ -23190,8 +23190,8 @@
     <col width="21.6640625" customWidth="1" style="1" min="4" max="4"/>
     <col width="15.109375" customWidth="1" style="1" min="5" max="5"/>
     <col width="19.6640625" customWidth="1" style="1" min="6" max="6"/>
-    <col width="9.109375" customWidth="1" style="1" min="7" max="148"/>
-    <col width="9.109375" customWidth="1" style="1" min="149" max="16384"/>
+    <col width="9.109375" customWidth="1" style="1" min="7" max="150"/>
+    <col width="9.109375" customWidth="1" style="1" min="151" max="16384"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -37724,9 +37724,9 @@
   </sheetPr>
   <dimension ref="A1:P799"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A380" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C401" sqref="C401"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A398" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B420" sqref="B420"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9.109375" defaultRowHeight="14.4" outlineLevelCol="0"/>
@@ -37739,8 +37739,8 @@
     <col width="23.44140625" customWidth="1" style="1" min="6" max="6"/>
     <col width="16.88671875" customWidth="1" style="1" min="7" max="7"/>
     <col hidden="1" width="9.109375" customWidth="1" style="1" min="8" max="9"/>
-    <col width="9.109375" customWidth="1" style="1" min="10" max="161"/>
-    <col width="9.109375" customWidth="1" style="1" min="162" max="16384"/>
+    <col width="9.109375" customWidth="1" style="1" min="10" max="163"/>
+    <col width="9.109375" customWidth="1" style="1" min="164" max="16384"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -37780,7 +37780,7 @@
         </is>
       </c>
       <c r="P1" s="1" t="n">
-        <v>418</v>
+        <v>424</v>
       </c>
     </row>
     <row r="2">
@@ -54840,13 +54840,37 @@
       </c>
     </row>
     <row r="418">
-      <c r="A418" s="16" t="n"/>
-      <c r="B418" s="2" t="n"/>
-      <c r="C418" s="16" t="n"/>
-      <c r="D418" s="16" t="n"/>
-      <c r="E418" s="16" t="n"/>
-      <c r="F418" s="21" t="n"/>
-      <c r="G418" s="14" t="n"/>
+      <c r="A418" s="16" t="inlineStr">
+        <is>
+          <t>ELENNA AROMAS LTDA</t>
+        </is>
+      </c>
+      <c r="B418" s="2" t="n">
+        <v>46089244000193</v>
+      </c>
+      <c r="C418" s="16" t="inlineStr">
+        <is>
+          <t>MR029884/2023</t>
+        </is>
+      </c>
+      <c r="D418" s="16" t="inlineStr">
+        <is>
+          <t>Domingos e feriados</t>
+        </is>
+      </c>
+      <c r="E418" s="16" t="inlineStr">
+        <is>
+          <t>Lojista</t>
+        </is>
+      </c>
+      <c r="F418" s="21" t="inlineStr">
+        <is>
+          <t>01/11/2022 - 31/12/2023</t>
+        </is>
+      </c>
+      <c r="G418" s="22" t="n">
+        <v>45096</v>
+      </c>
       <c r="H418" s="1">
         <f>LEFT(B418,8)</f>
         <v/>
@@ -54857,13 +54881,37 @@
       </c>
     </row>
     <row r="419">
-      <c r="A419" s="16" t="n"/>
-      <c r="B419" s="2" t="n"/>
-      <c r="C419" s="16" t="n"/>
-      <c r="D419" s="16" t="n"/>
-      <c r="E419" s="16" t="n"/>
-      <c r="F419" s="21" t="n"/>
-      <c r="G419" s="14" t="n"/>
+      <c r="A419" s="16" t="inlineStr">
+        <is>
+          <t>CALCADOS TOMAZZINI LTDA</t>
+        </is>
+      </c>
+      <c r="B419" s="2" t="n">
+        <v>47612500000229</v>
+      </c>
+      <c r="C419" s="16" t="inlineStr">
+        <is>
+          <t>MR032336/2023</t>
+        </is>
+      </c>
+      <c r="D419" s="16" t="inlineStr">
+        <is>
+          <t>Domingos e feriados</t>
+        </is>
+      </c>
+      <c r="E419" s="16" t="inlineStr">
+        <is>
+          <t>Lojista</t>
+        </is>
+      </c>
+      <c r="F419" s="21" t="inlineStr">
+        <is>
+          <t>01/11/2022 - 31/12/2023</t>
+        </is>
+      </c>
+      <c r="G419" s="22" t="n">
+        <v>45098</v>
+      </c>
       <c r="H419" s="1">
         <f>LEFT(B419,8)</f>
         <v/>
@@ -54874,13 +54922,37 @@
       </c>
     </row>
     <row r="420">
-      <c r="A420" s="16" t="n"/>
-      <c r="B420" s="2" t="n"/>
-      <c r="C420" s="16" t="n"/>
-      <c r="D420" s="16" t="n"/>
-      <c r="E420" s="16" t="n"/>
-      <c r="F420" s="21" t="n"/>
-      <c r="G420" s="14" t="n"/>
+      <c r="A420" s="16" t="inlineStr">
+        <is>
+          <t>CHOCOLATERIA PONTAL LTDA.</t>
+        </is>
+      </c>
+      <c r="B420" s="2" t="n">
+        <v>50233143000111</v>
+      </c>
+      <c r="C420" s="16" t="inlineStr">
+        <is>
+          <t>MR022288/2023</t>
+        </is>
+      </c>
+      <c r="D420" s="16" t="inlineStr">
+        <is>
+          <t>Domingos e feriados</t>
+        </is>
+      </c>
+      <c r="E420" s="16" t="inlineStr">
+        <is>
+          <t>Mercado</t>
+        </is>
+      </c>
+      <c r="F420" s="21" t="inlineStr">
+        <is>
+          <t>01/11/2022 - 31/12/2023</t>
+        </is>
+      </c>
+      <c r="G420" s="22" t="n">
+        <v>45099</v>
+      </c>
       <c r="H420" s="1">
         <f>LEFT(B420,8)</f>
         <v/>
@@ -54891,13 +54963,37 @@
       </c>
     </row>
     <row r="421">
-      <c r="A421" s="16" t="n"/>
-      <c r="B421" s="2" t="n"/>
-      <c r="C421" s="16" t="n"/>
-      <c r="D421" s="16" t="n"/>
-      <c r="E421" s="16" t="n"/>
-      <c r="F421" s="21" t="n"/>
-      <c r="G421" s="14" t="n"/>
+      <c r="A421" s="16" t="inlineStr">
+        <is>
+          <t>NATURA COMERCIAL LTDA.</t>
+        </is>
+      </c>
+      <c r="B421" s="2" t="n">
+        <v>24276833006189</v>
+      </c>
+      <c r="C421" s="16" t="inlineStr">
+        <is>
+          <t>MR016279/2023</t>
+        </is>
+      </c>
+      <c r="D421" s="16" t="inlineStr">
+        <is>
+          <t>Domingos e feriados</t>
+        </is>
+      </c>
+      <c r="E421" s="16" t="inlineStr">
+        <is>
+          <t>Lojista</t>
+        </is>
+      </c>
+      <c r="F421" s="21" t="inlineStr">
+        <is>
+          <t>01/11/2022 - 31/12/2023</t>
+        </is>
+      </c>
+      <c r="G421" s="22" t="n">
+        <v>45100</v>
+      </c>
       <c r="H421" s="1">
         <f>LEFT(B421,8)</f>
         <v/>
@@ -54908,13 +55004,37 @@
       </c>
     </row>
     <row r="422">
-      <c r="A422" s="16" t="n"/>
-      <c r="B422" s="2" t="n"/>
-      <c r="C422" s="16" t="n"/>
-      <c r="D422" s="16" t="n"/>
-      <c r="E422" s="16" t="n"/>
-      <c r="F422" s="21" t="n"/>
-      <c r="G422" s="14" t="n"/>
+      <c r="A422" s="16" t="inlineStr">
+        <is>
+          <t>NATURA COMERCIAL LTDA.</t>
+        </is>
+      </c>
+      <c r="B422" s="2" t="n">
+        <v>24276833003830</v>
+      </c>
+      <c r="C422" s="16" t="inlineStr">
+        <is>
+          <t>MR016279/2023</t>
+        </is>
+      </c>
+      <c r="D422" s="16" t="inlineStr">
+        <is>
+          <t>Domingos e feriados</t>
+        </is>
+      </c>
+      <c r="E422" s="16" t="inlineStr">
+        <is>
+          <t>Lojista</t>
+        </is>
+      </c>
+      <c r="F422" s="21" t="inlineStr">
+        <is>
+          <t>01/11/2022 - 31/12/2023</t>
+        </is>
+      </c>
+      <c r="G422" s="22" t="n">
+        <v>45100</v>
+      </c>
       <c r="H422" s="1">
         <f>LEFT(B422,8)</f>
         <v/>
@@ -54925,13 +55045,37 @@
       </c>
     </row>
     <row r="423">
-      <c r="A423" s="16" t="n"/>
-      <c r="B423" s="2" t="n"/>
-      <c r="C423" s="16" t="n"/>
-      <c r="D423" s="16" t="n"/>
-      <c r="E423" s="16" t="n"/>
-      <c r="F423" s="21" t="n"/>
-      <c r="G423" s="14" t="n"/>
+      <c r="A423" s="16" t="inlineStr">
+        <is>
+          <t>TNG COMERCIO E INDUSTRIA DE ROUPAS LTDA EM RECUPERACAO JUDICIAL</t>
+        </is>
+      </c>
+      <c r="B423" s="2" t="n">
+        <v>53966834005181</v>
+      </c>
+      <c r="C423" s="16" t="inlineStr">
+        <is>
+          <t>MR032543/2023</t>
+        </is>
+      </c>
+      <c r="D423" s="16" t="inlineStr">
+        <is>
+          <t>Domingos e feriados</t>
+        </is>
+      </c>
+      <c r="E423" s="16" t="inlineStr">
+        <is>
+          <t>Lojista</t>
+        </is>
+      </c>
+      <c r="F423" s="21" t="inlineStr">
+        <is>
+          <t>01/11/2022 - 31/12/2023</t>
+        </is>
+      </c>
+      <c r="G423" s="22" t="n">
+        <v>45103</v>
+      </c>
       <c r="H423" s="1">
         <f>LEFT(B423,8)</f>
         <v/>
@@ -61752,6 +61896,12 @@
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C415" r:id="rId414"/>
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C416" r:id="rId415"/>
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C417" r:id="rId416"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C418" r:id="rId417"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C419" r:id="rId418"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C420" r:id="rId419"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C421" r:id="rId420"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C422" r:id="rId421"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C423" r:id="rId422"/>
   </hyperlinks>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" paperSize="9"/>
@@ -61767,7 +61917,7 @@
   </sheetPr>
   <dimension ref="A1:T183"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
+    <sheetView topLeftCell="A61" workbookViewId="0">
       <selection activeCell="C88" sqref="C88"/>
     </sheetView>
   </sheetViews>
@@ -61827,10 +61977,10 @@
         </is>
       </c>
       <c r="S1" t="n">
-        <v>30114</v>
+        <v>35020</v>
       </c>
       <c r="T1" t="n">
-        <v>89</v>
+        <v>92</v>
       </c>
     </row>
     <row r="2">
@@ -63631,7 +63781,7 @@
       </c>
       <c r="D42" s="5" t="inlineStr">
         <is>
-          <t>NÃO</t>
+          <t>SIM</t>
         </is>
       </c>
       <c r="E42" s="5" t="inlineStr">
@@ -63644,7 +63794,9 @@
           <t>Lojista</t>
         </is>
       </c>
-      <c r="G42" s="22" t="n"/>
+      <c r="G42" s="22" t="n">
+        <v>45096</v>
+      </c>
       <c r="H42" s="5">
         <f>IFERROR(VLOOKUP(I42,regs!H:I,2,0),"")</f>
         <v/>
@@ -64011,20 +64163,20 @@
     <row r="51">
       <c r="A51" s="16" t="inlineStr">
         <is>
-          <t>PET CENTER COMERCIO E PARTICIPACOES S.A.</t>
+          <t>PAQUETA CALCADOS LTDA - EM RECUPERACAO JUDICIAL</t>
         </is>
       </c>
       <c r="B51" s="2" t="n">
-        <v>18328118011496</v>
+        <v>1098983010680</v>
       </c>
       <c r="C51" s="16" t="inlineStr">
         <is>
-          <t>MR010934/2023</t>
+          <t>MR011399/2023</t>
         </is>
       </c>
       <c r="D51" s="5" t="inlineStr">
         <is>
-          <t>SIM</t>
+          <t>NÃO</t>
         </is>
       </c>
       <c r="E51" s="5" t="inlineStr">
@@ -64037,9 +64189,7 @@
           <t>Lojista</t>
         </is>
       </c>
-      <c r="G51" s="22" t="n">
-        <v>45054</v>
-      </c>
+      <c r="G51" s="22" t="n"/>
       <c r="H51" s="5">
         <f>IFERROR(VLOOKUP(I51,regs!H:I,2,0),"")</f>
         <v/>
@@ -64056,20 +64206,20 @@
     <row r="52">
       <c r="A52" s="16" t="inlineStr">
         <is>
-          <t>PAQUETA CALCADOS LTDA - EM RECUPERACAO JUDICIAL</t>
+          <t>MARISA LOJAS S.A.</t>
         </is>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1098983010680</v>
+        <v>61189288001908</v>
       </c>
       <c r="C52" s="16" t="inlineStr">
         <is>
-          <t>MR011399/2023</t>
+          <t>MR011905/2023</t>
         </is>
       </c>
       <c r="D52" s="5" t="inlineStr">
         <is>
-          <t>NÃO</t>
+          <t>SIM</t>
         </is>
       </c>
       <c r="E52" s="5" t="inlineStr">
@@ -64082,7 +64232,9 @@
           <t>Lojista</t>
         </is>
       </c>
-      <c r="G52" s="22" t="n"/>
+      <c r="G52" s="22" t="n">
+        <v>45001</v>
+      </c>
       <c r="H52" s="5">
         <f>IFERROR(VLOOKUP(I52,regs!H:I,2,0),"")</f>
         <v/>
@@ -64099,20 +64251,20 @@
     <row r="53">
       <c r="A53" s="16" t="inlineStr">
         <is>
-          <t>MARISA LOJAS S.A.</t>
+          <t>AVENUE HOCHE COMERCIO VAREJISTA DE PRODUTOS LTDA</t>
         </is>
       </c>
       <c r="B53" s="2" t="n">
-        <v>61189288001908</v>
+        <v>15048124002753</v>
       </c>
       <c r="C53" s="16" t="inlineStr">
         <is>
-          <t>MR011905/2023</t>
+          <t>MR012240/2023</t>
         </is>
       </c>
       <c r="D53" s="5" t="inlineStr">
         <is>
-          <t>SIM</t>
+          <t>NÃO</t>
         </is>
       </c>
       <c r="E53" s="5" t="inlineStr">
@@ -64125,9 +64277,7 @@
           <t>Lojista</t>
         </is>
       </c>
-      <c r="G53" s="22" t="n">
-        <v>45001</v>
-      </c>
+      <c r="G53" s="22" t="n"/>
       <c r="H53" s="5">
         <f>IFERROR(VLOOKUP(I53,regs!H:I,2,0),"")</f>
         <v/>
@@ -64144,15 +64294,15 @@
     <row r="54">
       <c r="A54" s="16" t="inlineStr">
         <is>
-          <t>AVENUE HOCHE COMERCIO VAREJISTA DE PRODUTOS LTDA</t>
+          <t>IGUASPORT LTDA</t>
         </is>
       </c>
       <c r="B54" s="2" t="n">
-        <v>15048124002753</v>
+        <v>2314041003101</v>
       </c>
       <c r="C54" s="16" t="inlineStr">
         <is>
-          <t>MR012240/2023</t>
+          <t>MR012260/2023</t>
         </is>
       </c>
       <c r="D54" s="5" t="inlineStr">
@@ -64187,15 +64337,15 @@
     <row r="55">
       <c r="A55" s="16" t="inlineStr">
         <is>
-          <t>IGUASPORT LTDA</t>
+          <t>TELLERINA COMERCIO DE PRESENTES E ARTIGOS PARA DECORACAO S.A.</t>
         </is>
       </c>
       <c r="B55" s="2" t="n">
-        <v>2314041003101</v>
+        <v>84453844046412</v>
       </c>
       <c r="C55" s="16" t="inlineStr">
         <is>
-          <t>MR012260/2023</t>
+          <t>MR012288/2023</t>
         </is>
       </c>
       <c r="D55" s="5" t="inlineStr">
@@ -64230,15 +64380,15 @@
     <row r="56">
       <c r="A56" s="16" t="inlineStr">
         <is>
-          <t>TELLERINA COMERCIO DE PRESENTES E ARTIGOS PARA DECORACAO S.A.</t>
+          <t>BROOKSDONNA COMERCIO DE ROUPAS LTDA.</t>
         </is>
       </c>
       <c r="B56" s="2" t="n">
-        <v>84453844046412</v>
+        <v>11014557000955</v>
       </c>
       <c r="C56" s="16" t="inlineStr">
         <is>
-          <t>MR012288/2023</t>
+          <t>MR012294/2023</t>
         </is>
       </c>
       <c r="D56" s="5" t="inlineStr">
@@ -64273,20 +64423,20 @@
     <row r="57">
       <c r="A57" s="16" t="inlineStr">
         <is>
-          <t>BROOKSDONNA COMERCIO DE ROUPAS LTDA.</t>
+          <t>VIA VENETO ROUPAS LTDA</t>
         </is>
       </c>
       <c r="B57" s="2" t="n">
-        <v>11014557000955</v>
+        <v>47100110002566</v>
       </c>
       <c r="C57" s="16" t="inlineStr">
         <is>
-          <t>MR012294/2023</t>
+          <t>MR012306/2023</t>
         </is>
       </c>
       <c r="D57" s="5" t="inlineStr">
         <is>
-          <t>NÃO</t>
+          <t>SIM</t>
         </is>
       </c>
       <c r="E57" s="5" t="inlineStr">
@@ -64299,7 +64449,9 @@
           <t>Lojista</t>
         </is>
       </c>
-      <c r="G57" s="22" t="n"/>
+      <c r="G57" s="22" t="n">
+        <v>45065</v>
+      </c>
       <c r="H57" s="5">
         <f>IFERROR(VLOOKUP(I57,regs!H:I,2,0),"")</f>
         <v/>
@@ -64316,20 +64468,20 @@
     <row r="58">
       <c r="A58" s="16" t="inlineStr">
         <is>
-          <t>VIA VENETO ROUPAS LTDA</t>
+          <t>MR AGUIAR PET SHOP LTDA.</t>
         </is>
       </c>
       <c r="B58" s="2" t="n">
-        <v>47100110002566</v>
+        <v>17574281000199</v>
       </c>
       <c r="C58" s="16" t="inlineStr">
         <is>
-          <t>MR012306/2023</t>
+          <t>MR012796/2023</t>
         </is>
       </c>
       <c r="D58" s="5" t="inlineStr">
         <is>
-          <t>SIM</t>
+          <t>NÃO</t>
         </is>
       </c>
       <c r="E58" s="5" t="inlineStr">
@@ -64342,9 +64494,7 @@
           <t>Lojista</t>
         </is>
       </c>
-      <c r="G58" s="22" t="n">
-        <v>45065</v>
-      </c>
+      <c r="G58" s="22" t="n"/>
       <c r="H58" s="5">
         <f>IFERROR(VLOOKUP(I58,regs!H:I,2,0),"")</f>
         <v/>
@@ -64361,20 +64511,20 @@
     <row r="59">
       <c r="A59" s="16" t="inlineStr">
         <is>
-          <t>MR AGUIAR PET SHOP LTDA.</t>
+          <t>ISLA COMERCIO DE CONFECCOES LTDA</t>
         </is>
       </c>
       <c r="B59" s="2" t="n">
-        <v>17574281000199</v>
+        <v>20593518000274</v>
       </c>
       <c r="C59" s="16" t="inlineStr">
         <is>
-          <t>MR012796/2023</t>
+          <t>MR012976/2023</t>
         </is>
       </c>
       <c r="D59" s="5" t="inlineStr">
         <is>
-          <t>NÃO</t>
+          <t>SIM</t>
         </is>
       </c>
       <c r="E59" s="5" t="inlineStr">
@@ -64387,7 +64537,9 @@
           <t>Lojista</t>
         </is>
       </c>
-      <c r="G59" s="22" t="n"/>
+      <c r="G59" s="22" t="n">
+        <v>45021</v>
+      </c>
       <c r="H59" s="5">
         <f>IFERROR(VLOOKUP(I59,regs!H:I,2,0),"")</f>
         <v/>
@@ -64404,20 +64556,20 @@
     <row r="60">
       <c r="A60" s="16" t="inlineStr">
         <is>
-          <t>ISLA COMERCIO DE CONFECCOES LTDA</t>
+          <t>ELSAN COMERCIO VAREJISTA DE MOVEIS LTDA</t>
         </is>
       </c>
       <c r="B60" s="2" t="n">
-        <v>20593518000274</v>
+        <v>44496590000160</v>
       </c>
       <c r="C60" s="16" t="inlineStr">
         <is>
-          <t>MR012976/2023</t>
+          <t>MR014682/2023</t>
         </is>
       </c>
       <c r="D60" s="5" t="inlineStr">
         <is>
-          <t>SIM</t>
+          <t>NÃO</t>
         </is>
       </c>
       <c r="E60" s="5" t="inlineStr">
@@ -64430,9 +64582,7 @@
           <t>Lojista</t>
         </is>
       </c>
-      <c r="G60" s="22" t="n">
-        <v>45021</v>
-      </c>
+      <c r="G60" s="22" t="n"/>
       <c r="H60" s="5">
         <f>IFERROR(VLOOKUP(I60,regs!H:I,2,0),"")</f>
         <v/>
@@ -64449,15 +64599,15 @@
     <row r="61">
       <c r="A61" s="16" t="inlineStr">
         <is>
-          <t>ELSAN COMERCIO VAREJISTA DE MOVEIS LTDA</t>
+          <t>ALIDAN COMERCIO VAREJISTA DE MOVEIS LTDA</t>
         </is>
       </c>
       <c r="B61" s="2" t="n">
-        <v>44496590000160</v>
+        <v>44571005000140</v>
       </c>
       <c r="C61" s="16" t="inlineStr">
         <is>
-          <t>MR014682/2023</t>
+          <t>MR014684/2023</t>
         </is>
       </c>
       <c r="D61" s="5" t="inlineStr">
@@ -64492,15 +64642,15 @@
     <row r="62">
       <c r="A62" s="16" t="inlineStr">
         <is>
-          <t>ALIDAN COMERCIO VAREJISTA DE MOVEIS LTDA</t>
+          <t>G A RAMOS COMERCIO VAREJISTA DE MOVEIS LTDA</t>
         </is>
       </c>
       <c r="B62" s="2" t="n">
-        <v>44571005000140</v>
+        <v>40740267000130</v>
       </c>
       <c r="C62" s="16" t="inlineStr">
         <is>
-          <t>MR014684/2023</t>
+          <t>MR014685/2023</t>
         </is>
       </c>
       <c r="D62" s="5" t="inlineStr">
@@ -64535,15 +64685,15 @@
     <row r="63">
       <c r="A63" s="16" t="inlineStr">
         <is>
-          <t>G A RAMOS COMERCIO VAREJISTA DE MOVEIS LTDA</t>
+          <t>ANPIN COMERCIO VAREJISTA DE MOVEIS LTDA</t>
         </is>
       </c>
       <c r="B63" s="2" t="n">
-        <v>40740267000130</v>
+        <v>44579574000131</v>
       </c>
       <c r="C63" s="16" t="inlineStr">
         <is>
-          <t>MR014685/2023</t>
+          <t>MR014687/2023</t>
         </is>
       </c>
       <c r="D63" s="5" t="inlineStr">
@@ -64578,15 +64728,15 @@
     <row r="64">
       <c r="A64" s="16" t="inlineStr">
         <is>
-          <t>ANPIN COMERCIO VAREJISTA DE MOVEIS LTDA</t>
+          <t>LUFEO COMERCIO VAREJISTA DE MOVEIS LTDA</t>
         </is>
       </c>
       <c r="B64" s="2" t="n">
-        <v>44579574000131</v>
+        <v>39158117000133</v>
       </c>
       <c r="C64" s="16" t="inlineStr">
         <is>
-          <t>MR014687/2023</t>
+          <t>MR014688/2023</t>
         </is>
       </c>
       <c r="D64" s="5" t="inlineStr">
@@ -64621,20 +64771,20 @@
     <row r="65">
       <c r="A65" s="16" t="inlineStr">
         <is>
-          <t>LUFEO COMERCIO VAREJISTA DE MOVEIS LTDA</t>
+          <t>AFA - INDUSTRIA E COMERCIO DE ARTIGOS ESPORTIVOS LTDA</t>
         </is>
       </c>
       <c r="B65" s="2" t="n">
-        <v>39158117000133</v>
+        <v>4038697000140</v>
       </c>
       <c r="C65" s="16" t="inlineStr">
         <is>
-          <t>MR014688/2023</t>
+          <t>MR019110/2023</t>
         </is>
       </c>
       <c r="D65" s="5" t="inlineStr">
         <is>
-          <t>NÃO</t>
+          <t>SIM</t>
         </is>
       </c>
       <c r="E65" s="5" t="inlineStr">
@@ -64647,7 +64797,9 @@
           <t>Lojista</t>
         </is>
       </c>
-      <c r="G65" s="22" t="n"/>
+      <c r="G65" s="22" t="n">
+        <v>45043</v>
+      </c>
       <c r="H65" s="5">
         <f>IFERROR(VLOOKUP(I65,regs!H:I,2,0),"")</f>
         <v/>
@@ -64664,20 +64816,20 @@
     <row r="66">
       <c r="A66" s="16" t="inlineStr">
         <is>
-          <t>NATURA COMERCIAL LTDA.</t>
+          <t>KALI SHOES COMERCIO DE CALCADOS LTDA</t>
         </is>
       </c>
       <c r="B66" s="2" t="n">
-        <v>24276833006189</v>
+        <v>46494237000177</v>
       </c>
       <c r="C66" s="16" t="inlineStr">
         <is>
-          <t>MR016279/2023</t>
+          <t>MR020745/2023</t>
         </is>
       </c>
       <c r="D66" s="5" t="inlineStr">
         <is>
-          <t>SIM</t>
+          <t>NÃO</t>
         </is>
       </c>
       <c r="E66" s="5" t="inlineStr">
@@ -64690,9 +64842,7 @@
           <t>Lojista</t>
         </is>
       </c>
-      <c r="G66" s="22" t="n">
-        <v>45077</v>
-      </c>
+      <c r="G66" s="22" t="n"/>
       <c r="H66" s="5">
         <f>IFERROR(VLOOKUP(I66,regs!H:I,2,0),"")</f>
         <v/>
@@ -64709,15 +64859,15 @@
     <row r="67">
       <c r="A67" s="16" t="inlineStr">
         <is>
-          <t>AFA - INDUSTRIA E COMERCIO DE ARTIGOS ESPORTIVOS LTDA</t>
+          <t>BEL PERFUMES, COSMETICOS E PRESENTES LTDA</t>
         </is>
       </c>
       <c r="B67" s="2" t="n">
-        <v>4038697000140</v>
+        <v>10413732000167</v>
       </c>
       <c r="C67" s="16" t="inlineStr">
         <is>
-          <t>MR019110/2023</t>
+          <t>MR021095/2023</t>
         </is>
       </c>
       <c r="D67" s="5" t="inlineStr">
@@ -64736,7 +64886,7 @@
         </is>
       </c>
       <c r="G67" s="22" t="n">
-        <v>45043</v>
+        <v>45048</v>
       </c>
       <c r="H67" s="5">
         <f>IFERROR(VLOOKUP(I67,regs!H:I,2,0),"")</f>
@@ -64754,15 +64904,15 @@
     <row r="68">
       <c r="A68" s="16" t="inlineStr">
         <is>
-          <t>KALI SHOES COMERCIO DE CALCADOS LTDA</t>
+          <t>RI HAPPY BRINQUEDOS S.A.</t>
         </is>
       </c>
       <c r="B68" s="2" t="n">
-        <v>46494237000177</v>
+        <v>58731662010184</v>
       </c>
       <c r="C68" s="16" t="inlineStr">
         <is>
-          <t>MR020745/2023</t>
+          <t>MR021212/2023</t>
         </is>
       </c>
       <c r="D68" s="5" t="inlineStr">
@@ -64797,20 +64947,20 @@
     <row r="69">
       <c r="A69" s="16" t="inlineStr">
         <is>
-          <t>BEL PERFUMES, COSMETICOS E PRESENTES LTDA</t>
+          <t>SUPERMERCADO F &amp; K LTDA</t>
         </is>
       </c>
       <c r="B69" s="2" t="n">
-        <v>10413732000167</v>
+        <v>9416879000121</v>
       </c>
       <c r="C69" s="16" t="inlineStr">
         <is>
-          <t>MR021095/2023</t>
+          <t>MR022190/2023</t>
         </is>
       </c>
       <c r="D69" s="5" t="inlineStr">
         <is>
-          <t>SIM</t>
+          <t>NÃO</t>
         </is>
       </c>
       <c r="E69" s="5" t="inlineStr">
@@ -64820,12 +64970,10 @@
       </c>
       <c r="F69" s="5" t="inlineStr">
         <is>
-          <t>Lojista</t>
-        </is>
-      </c>
-      <c r="G69" s="22" t="n">
-        <v>45048</v>
-      </c>
+          <t>Mercado</t>
+        </is>
+      </c>
+      <c r="G69" s="22" t="n"/>
       <c r="H69" s="5">
         <f>IFERROR(VLOOKUP(I69,regs!H:I,2,0),"")</f>
         <v/>
@@ -64842,15 +64990,15 @@
     <row r="70">
       <c r="A70" s="16" t="inlineStr">
         <is>
-          <t>RI HAPPY BRINQUEDOS S.A.</t>
+          <t>MERCADO MINAS GERAIS LTDA</t>
         </is>
       </c>
       <c r="B70" s="2" t="n">
-        <v>58731662010184</v>
+        <v>5520581000106</v>
       </c>
       <c r="C70" s="16" t="inlineStr">
         <is>
-          <t>MR021212/2023</t>
+          <t>MR022285/2023</t>
         </is>
       </c>
       <c r="D70" s="5" t="inlineStr">
@@ -64865,7 +65013,7 @@
       </c>
       <c r="F70" s="5" t="inlineStr">
         <is>
-          <t>Lojista</t>
+          <t>Mercado</t>
         </is>
       </c>
       <c r="G70" s="22" t="n"/>
@@ -64885,15 +65033,15 @@
     <row r="71">
       <c r="A71" s="16" t="inlineStr">
         <is>
-          <t>SUPERMERCADO F &amp; K LTDA</t>
+          <t>CESRAN RECRUTAMENTO E SELECAO DE PESSOAL LTDA</t>
         </is>
       </c>
       <c r="B71" s="2" t="n">
-        <v>9416879000121</v>
+        <v>49995556000154</v>
       </c>
       <c r="C71" s="16" t="inlineStr">
         <is>
-          <t>MR022190/2023</t>
+          <t>MR022523/2023</t>
         </is>
       </c>
       <c r="D71" s="5" t="inlineStr">
@@ -64908,7 +65056,7 @@
       </c>
       <c r="F71" s="5" t="inlineStr">
         <is>
-          <t>Mercado</t>
+          <t>Lojista</t>
         </is>
       </c>
       <c r="G71" s="22" t="n"/>
@@ -64928,20 +65076,20 @@
     <row r="72">
       <c r="A72" s="16" t="inlineStr">
         <is>
-          <t>MERCADO ANUAR LTDA</t>
+          <t>CRISTALL MIX LTDA</t>
         </is>
       </c>
       <c r="B72" s="2" t="n">
-        <v>30088971000104</v>
+        <v>48453787000173</v>
       </c>
       <c r="C72" s="16" t="inlineStr">
         <is>
-          <t>MR022242/2023</t>
+          <t>MR022751/2023</t>
         </is>
       </c>
       <c r="D72" s="5" t="inlineStr">
         <is>
-          <t>SIM</t>
+          <t>NÃO</t>
         </is>
       </c>
       <c r="E72" s="5" t="inlineStr">
@@ -64951,12 +65099,10 @@
       </c>
       <c r="F72" s="5" t="inlineStr">
         <is>
-          <t>Mercado</t>
-        </is>
-      </c>
-      <c r="G72" s="22" t="n">
-        <v>45077</v>
-      </c>
+          <t>Lojista</t>
+        </is>
+      </c>
+      <c r="G72" s="22" t="n"/>
       <c r="H72" s="5">
         <f>IFERROR(VLOOKUP(I72,regs!H:I,2,0),"")</f>
         <v/>
@@ -64973,15 +65119,15 @@
     <row r="73">
       <c r="A73" s="16" t="inlineStr">
         <is>
-          <t>FAST SHOP S.A</t>
+          <t>ARMAZEM BOMGADO GA LTDA</t>
         </is>
       </c>
       <c r="B73" s="2" t="n">
-        <v>43708379005675</v>
+        <v>38824899000130</v>
       </c>
       <c r="C73" s="16" t="inlineStr">
         <is>
-          <t>MR022253/2023</t>
+          <t>MR022759/2023</t>
         </is>
       </c>
       <c r="D73" s="5" t="inlineStr">
@@ -64996,11 +65142,11 @@
       </c>
       <c r="F73" s="5" t="inlineStr">
         <is>
-          <t>Lojista</t>
+          <t>Mercado</t>
         </is>
       </c>
       <c r="G73" s="22" t="n">
-        <v>45070</v>
+        <v>45058</v>
       </c>
       <c r="H73" s="5">
         <f>IFERROR(VLOOKUP(I73,regs!H:I,2,0),"")</f>
@@ -65018,20 +65164,20 @@
     <row r="74">
       <c r="A74" s="16" t="inlineStr">
         <is>
-          <t>MERCADO MINAS GERAIS LTDA</t>
+          <t>PAULA H OBJETOS DECORATIVOS E PRESENTES LTDA</t>
         </is>
       </c>
       <c r="B74" s="2" t="n">
-        <v>5520581000106</v>
+        <v>2721404000108</v>
       </c>
       <c r="C74" s="16" t="inlineStr">
         <is>
-          <t>MR022285/2023</t>
+          <t>MR022848/2023</t>
         </is>
       </c>
       <c r="D74" s="5" t="inlineStr">
         <is>
-          <t>NÃO</t>
+          <t>SIM</t>
         </is>
       </c>
       <c r="E74" s="5" t="inlineStr">
@@ -65041,10 +65187,12 @@
       </c>
       <c r="F74" s="5" t="inlineStr">
         <is>
-          <t>Mercado</t>
-        </is>
-      </c>
-      <c r="G74" s="22" t="n"/>
+          <t>Lojista</t>
+        </is>
+      </c>
+      <c r="G74" s="22" t="n">
+        <v>45057</v>
+      </c>
       <c r="H74" s="5">
         <f>IFERROR(VLOOKUP(I74,regs!H:I,2,0),"")</f>
         <v/>
@@ -65061,15 +65209,15 @@
     <row r="75">
       <c r="A75" s="16" t="inlineStr">
         <is>
-          <t>CHOCOLATERIA PONTAL LTDA.</t>
+          <t>SERGIO PEDRO TONIOLO</t>
         </is>
       </c>
       <c r="B75" s="2" t="n">
-        <v>50233143000111</v>
+        <v>94678224000109</v>
       </c>
       <c r="C75" s="16" t="inlineStr">
         <is>
-          <t>MR022288/2023</t>
+          <t>MR023039/2023</t>
         </is>
       </c>
       <c r="D75" s="5" t="inlineStr">
@@ -65088,7 +65236,7 @@
         </is>
       </c>
       <c r="G75" s="22" t="n">
-        <v>45083</v>
+        <v>45057</v>
       </c>
       <c r="H75" s="5">
         <f>IFERROR(VLOOKUP(I75,regs!H:I,2,0),"")</f>
@@ -65106,20 +65254,20 @@
     <row r="76">
       <c r="A76" s="16" t="inlineStr">
         <is>
-          <t>CESRAN RECRUTAMENTO E SELECAO DE PESSOAL LTDA</t>
+          <t>SUPER PRIMAZ LTDA</t>
         </is>
       </c>
       <c r="B76" s="2" t="n">
-        <v>49995556000154</v>
+        <v>25424804000149</v>
       </c>
       <c r="C76" s="16" t="inlineStr">
         <is>
-          <t>MR022523/2023</t>
+          <t>MR023575/2023</t>
         </is>
       </c>
       <c r="D76" s="5" t="inlineStr">
         <is>
-          <t>NÃO</t>
+          <t>SIM</t>
         </is>
       </c>
       <c r="E76" s="5" t="inlineStr">
@@ -65129,10 +65277,12 @@
       </c>
       <c r="F76" s="5" t="inlineStr">
         <is>
-          <t>Lojista</t>
-        </is>
-      </c>
-      <c r="G76" s="22" t="n"/>
+          <t>Mercado</t>
+        </is>
+      </c>
+      <c r="G76" s="22" t="n">
+        <v>45061</v>
+      </c>
       <c r="H76" s="5">
         <f>IFERROR(VLOOKUP(I76,regs!H:I,2,0),"")</f>
         <v/>
@@ -65149,15 +65299,15 @@
     <row r="77">
       <c r="A77" s="16" t="inlineStr">
         <is>
-          <t>CRISTALL MIX LTDA</t>
+          <t>K2 COMERCIO E INDUSTRIA LTDA</t>
         </is>
       </c>
       <c r="B77" s="2" t="n">
-        <v>48453787000173</v>
+        <v>1167639000714</v>
       </c>
       <c r="C77" s="16" t="inlineStr">
         <is>
-          <t>MR022751/2023</t>
+          <t>MR026862/2023</t>
         </is>
       </c>
       <c r="D77" s="5" t="inlineStr">
@@ -65192,15 +65342,15 @@
     <row r="78">
       <c r="A78" s="16" t="inlineStr">
         <is>
-          <t>ARMAZEM BOMGADO GA LTDA</t>
+          <t>HUGO BOSS DO BRASIL LTDA</t>
         </is>
       </c>
       <c r="B78" s="2" t="n">
-        <v>38824899000130</v>
+        <v>57621054002135</v>
       </c>
       <c r="C78" s="16" t="inlineStr">
         <is>
-          <t>MR022759/2023</t>
+          <t>MR028821/2023</t>
         </is>
       </c>
       <c r="D78" s="5" t="inlineStr">
@@ -65215,11 +65365,11 @@
       </c>
       <c r="F78" s="5" t="inlineStr">
         <is>
-          <t>Mercado</t>
+          <t>Lojista</t>
         </is>
       </c>
       <c r="G78" s="22" t="n">
-        <v>45058</v>
+        <v>45090</v>
       </c>
       <c r="H78" s="5">
         <f>IFERROR(VLOOKUP(I78,regs!H:I,2,0),"")</f>
@@ -65237,15 +65387,15 @@
     <row r="79">
       <c r="A79" s="16" t="inlineStr">
         <is>
-          <t>PAULA H OBJETOS DECORATIVOS E PRESENTES LTDA</t>
+          <t>SINDICATO DOS CONCESSIONARIOS E DISTRIBUIDORES DE VEICULOS NO ESTADO DO RIO GRANDE DO SUL - SINCODIV/RS</t>
         </is>
       </c>
       <c r="B79" s="2" t="n">
-        <v>2721404000108</v>
+        <v>4243203000160</v>
       </c>
       <c r="C79" s="16" t="inlineStr">
         <is>
-          <t>MR022848/2023</t>
+          <t>MR029222/2023</t>
         </is>
       </c>
       <c r="D79" s="5" t="inlineStr">
@@ -65255,16 +65405,16 @@
       </c>
       <c r="E79" s="5" t="inlineStr">
         <is>
-          <t>Domingos e feriados</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="F79" s="5" t="inlineStr">
         <is>
-          <t>Lojista</t>
+          <t>Indeterminado</t>
         </is>
       </c>
       <c r="G79" s="22" t="n">
-        <v>45057</v>
+        <v>45084</v>
       </c>
       <c r="H79" s="5">
         <f>IFERROR(VLOOKUP(I79,regs!H:I,2,0),"")</f>
@@ -65282,20 +65432,20 @@
     <row r="80">
       <c r="A80" s="16" t="inlineStr">
         <is>
-          <t>SERGIO PEDRO TONIOLO</t>
+          <t>JFAV COMERCIO DO VESTUARIO E ACESSORIOS INFANTIS LTDA</t>
         </is>
       </c>
       <c r="B80" s="2" t="n">
-        <v>94678224000109</v>
+        <v>45004810000154</v>
       </c>
       <c r="C80" s="16" t="inlineStr">
         <is>
-          <t>MR023039/2023</t>
+          <t>MR030430/2023</t>
         </is>
       </c>
       <c r="D80" s="5" t="inlineStr">
         <is>
-          <t>SIM</t>
+          <t>NÃO</t>
         </is>
       </c>
       <c r="E80" s="5" t="inlineStr">
@@ -65305,12 +65455,10 @@
       </c>
       <c r="F80" s="5" t="inlineStr">
         <is>
-          <t>Mercado</t>
-        </is>
-      </c>
-      <c r="G80" s="22" t="n">
-        <v>45057</v>
-      </c>
+          <t>Lojista</t>
+        </is>
+      </c>
+      <c r="G80" s="22" t="n"/>
       <c r="H80" s="5">
         <f>IFERROR(VLOOKUP(I80,regs!H:I,2,0),"")</f>
         <v/>
@@ -65327,15 +65475,15 @@
     <row r="81">
       <c r="A81" s="16" t="inlineStr">
         <is>
-          <t>SUPER PRIMAZ LTDA</t>
+          <t>VISSOMZ ABASTE ESPECIAL DE ESSENCIAS ROGE COMERCIO LTDA</t>
         </is>
       </c>
       <c r="B81" s="2" t="n">
-        <v>25424804000149</v>
+        <v>93866739000161</v>
       </c>
       <c r="C81" s="16" t="inlineStr">
         <is>
-          <t>MR023575/2023</t>
+          <t>MR030541/2023</t>
         </is>
       </c>
       <c r="D81" s="5" t="inlineStr">
@@ -65348,13 +65496,13 @@
           <t>Domingos e feriados</t>
         </is>
       </c>
-      <c r="F81" s="5" t="inlineStr">
-        <is>
-          <t>Mercado</t>
+      <c r="F81" s="22" t="inlineStr">
+        <is>
+          <t>Lojista</t>
         </is>
       </c>
       <c r="G81" s="22" t="n">
-        <v>45061</v>
+        <v>45103</v>
       </c>
       <c r="H81" s="5">
         <f>IFERROR(VLOOKUP(I81,regs!H:I,2,0),"")</f>
@@ -65372,15 +65520,15 @@
     <row r="82">
       <c r="A82" s="16" t="inlineStr">
         <is>
-          <t>K2 COMERCIO E INDUSTRIA LTDA</t>
+          <t>QDBVISS - ABASTECIMENTO ESPECIAL DE PRODUTOS DE BELEZA LTDA</t>
         </is>
       </c>
       <c r="B82" s="2" t="n">
-        <v>1167639000714</v>
+        <v>19187523000117</v>
       </c>
       <c r="C82" s="16" t="inlineStr">
         <is>
-          <t>MR026862/2023</t>
+          <t>MR030545/2023</t>
         </is>
       </c>
       <c r="D82" s="5" t="inlineStr">
@@ -65390,7 +65538,7 @@
       </c>
       <c r="E82" s="5" t="inlineStr">
         <is>
-          <t>Domingos e feriados</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="F82" s="5" t="inlineStr">
@@ -65415,15 +65563,15 @@
     <row r="83">
       <c r="A83" s="16" t="inlineStr">
         <is>
-          <t>HUGO BOSS DO BRASIL LTDA</t>
+          <t>QDBVISS - ABASTECIMENTO ESPECIAL DE PRODUTOS DE BELEZA LTDA</t>
         </is>
       </c>
       <c r="B83" s="2" t="n">
-        <v>57621054002135</v>
+        <v>19187523000206</v>
       </c>
       <c r="C83" s="16" t="inlineStr">
         <is>
-          <t>MR028821/2023</t>
+          <t>MR030896/2023</t>
         </is>
       </c>
       <c r="D83" s="5" t="inlineStr">
@@ -65458,15 +65606,15 @@
     <row r="84">
       <c r="A84" s="16" t="inlineStr">
         <is>
-          <t>SINDICATO DOS CONCESSIONARIOS E DISTRIBUIDORES DE VEICULOS NO ESTADO DO RIO GRANDE DO SUL - SINCODIV/RS</t>
+          <t>MBM CIA LTDA</t>
         </is>
       </c>
       <c r="B84" s="2" t="n">
-        <v>4243203000160</v>
+        <v>49741072000189</v>
       </c>
       <c r="C84" s="16" t="inlineStr">
         <is>
-          <t>MR029222/2023</t>
+          <t>MR031021/2023</t>
         </is>
       </c>
       <c r="D84" s="5" t="inlineStr">
@@ -65476,16 +65624,16 @@
       </c>
       <c r="E84" s="5" t="inlineStr">
         <is>
-          <t>Outros</t>
-        </is>
-      </c>
-      <c r="F84" s="5" t="inlineStr">
-        <is>
-          <t>Indeterminado</t>
+          <t>Domingos e feriados</t>
+        </is>
+      </c>
+      <c r="F84" s="22" t="inlineStr">
+        <is>
+          <t>Lojista</t>
         </is>
       </c>
       <c r="G84" s="22" t="n">
-        <v>45084</v>
+        <v>45097</v>
       </c>
       <c r="H84" s="5">
         <f>IFERROR(VLOOKUP(I84,regs!H:I,2,0),"")</f>
@@ -65503,15 +65651,15 @@
     <row r="85">
       <c r="A85" s="16" t="inlineStr">
         <is>
-          <t>KILTY CONFECCOES DE ROUPAS FITNESS LTDA</t>
+          <t>AGENSUL - COMERCIO DE PERFUMARIA LTDA</t>
         </is>
       </c>
       <c r="B85" s="2" t="n">
-        <v>26970989000400</v>
+        <v>92916907000113</v>
       </c>
       <c r="C85" s="16" t="inlineStr">
         <is>
-          <t>MR029616/2023</t>
+          <t>MR031783/2023</t>
         </is>
       </c>
       <c r="D85" s="5" t="inlineStr">
@@ -65524,13 +65672,13 @@
           <t>Domingos e feriados</t>
         </is>
       </c>
-      <c r="F85" s="5" t="inlineStr">
+      <c r="F85" s="22" t="inlineStr">
         <is>
           <t>Lojista</t>
         </is>
       </c>
       <c r="G85" s="22" t="n">
-        <v>45086</v>
+        <v>45097</v>
       </c>
       <c r="H85" s="5">
         <f>IFERROR(VLOOKUP(I85,regs!H:I,2,0),"")</f>
@@ -65548,15 +65696,15 @@
     <row r="86">
       <c r="A86" s="16" t="inlineStr">
         <is>
-          <t>SINDICATO DOS CONCESSIONARIOS E DISTRIBUIDORES DE VEICULOS NO ESTADO DO RIO GRANDE DO SUL - SINCODIV/RS</t>
+          <t>DOM COMERCIO DE PERFUMARIA E COSMETICOS LTDA</t>
         </is>
       </c>
       <c r="B86" s="2" t="n">
-        <v>4243203000160</v>
+        <v>14335320000298</v>
       </c>
       <c r="C86" s="16" t="inlineStr">
         <is>
-          <t>MR029758/2023</t>
+          <t>MR031797/2023</t>
         </is>
       </c>
       <c r="D86" s="5" t="inlineStr">
@@ -65566,16 +65714,16 @@
       </c>
       <c r="E86" s="5" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Domingos e feriados</t>
         </is>
       </c>
       <c r="F86" s="22" t="inlineStr">
         <is>
-          <t>Indeterminado</t>
+          <t>Lojista</t>
         </is>
       </c>
       <c r="G86" s="22" t="n">
-        <v>45084</v>
+        <v>45097</v>
       </c>
       <c r="H86" s="5">
         <f>IFERROR(VLOOKUP(I86,regs!H:I,2,0),"")</f>
@@ -65593,15 +65741,15 @@
     <row r="87">
       <c r="A87" s="16" t="inlineStr">
         <is>
-          <t>ELENNA EMPORIO DE AROMAS LTDA</t>
+          <t>CH COMERCIO DE PERFUMARIA E COSMETICOS LTDA</t>
         </is>
       </c>
       <c r="B87" s="2" t="n">
-        <v>37611234000428</v>
+        <v>14327879000195</v>
       </c>
       <c r="C87" s="16" t="inlineStr">
         <is>
-          <t>MR029863/2023</t>
+          <t>MR031802/2023</t>
         </is>
       </c>
       <c r="D87" s="5" t="inlineStr">
@@ -65620,7 +65768,7 @@
         </is>
       </c>
       <c r="G87" s="22" t="n">
-        <v>45086</v>
+        <v>45097</v>
       </c>
       <c r="H87" s="5">
         <f>IFERROR(VLOOKUP(I87,regs!H:I,2,0),"")</f>
@@ -65638,15 +65786,15 @@
     <row r="88">
       <c r="A88" s="16" t="inlineStr">
         <is>
-          <t>ELENNA AROMAS LTDA</t>
+          <t>CSW POA LTDA</t>
         </is>
       </c>
       <c r="B88" s="2" t="n">
-        <v>46089244000193</v>
+        <v>42739885000195</v>
       </c>
       <c r="C88" s="16" t="inlineStr">
         <is>
-          <t>MR029884/2023</t>
+          <t>MR034076/2023</t>
         </is>
       </c>
       <c r="D88" s="5" t="inlineStr">
@@ -65665,7 +65813,7 @@
         </is>
       </c>
       <c r="G88" s="22" t="n">
-        <v>45086</v>
+        <v>45104</v>
       </c>
       <c r="H88" s="5">
         <f>IFERROR(VLOOKUP(I88,regs!H:I,2,0),"")</f>
@@ -65681,13 +65829,37 @@
       </c>
     </row>
     <row r="89">
-      <c r="A89" s="16" t="n"/>
-      <c r="B89" s="2" t="n"/>
-      <c r="C89" s="16" t="n"/>
-      <c r="D89" s="5" t="n"/>
-      <c r="E89" s="5" t="n"/>
-      <c r="F89" s="5" t="n"/>
-      <c r="G89" s="22" t="n"/>
+      <c r="A89" s="16" t="inlineStr">
+        <is>
+          <t>PULZ COMERCIO DE IMPORTADOS LTDA</t>
+        </is>
+      </c>
+      <c r="B89" s="2" t="n">
+        <v>6051394000860</v>
+      </c>
+      <c r="C89" s="16" t="inlineStr">
+        <is>
+          <t>MR034380/2023</t>
+        </is>
+      </c>
+      <c r="D89" s="5" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+      <c r="E89" s="5" t="inlineStr">
+        <is>
+          <t>Domingos e feriados</t>
+        </is>
+      </c>
+      <c r="F89" s="22" t="inlineStr">
+        <is>
+          <t>Lojista</t>
+        </is>
+      </c>
+      <c r="G89" s="22" t="n">
+        <v>45104</v>
+      </c>
       <c r="H89" s="5">
         <f>IFERROR(VLOOKUP(I89,regs!H:I,2,0),"")</f>
         <v/>
@@ -65702,12 +65874,34 @@
       </c>
     </row>
     <row r="90">
-      <c r="A90" s="16" t="n"/>
-      <c r="B90" s="2" t="n"/>
-      <c r="C90" s="16" t="n"/>
-      <c r="D90" s="5" t="n"/>
-      <c r="E90" s="5" t="n"/>
-      <c r="F90" s="5" t="n"/>
+      <c r="A90" s="16" t="inlineStr">
+        <is>
+          <t>PITUCHINHUS INDUSTRIA E COMERCIO DE CONFECCOES LTDA</t>
+        </is>
+      </c>
+      <c r="B90" s="2" t="n">
+        <v>68765825000564</v>
+      </c>
+      <c r="C90" s="16" t="inlineStr">
+        <is>
+          <t>MR034407/2023</t>
+        </is>
+      </c>
+      <c r="D90" s="5" t="inlineStr">
+        <is>
+          <t>NÃO</t>
+        </is>
+      </c>
+      <c r="E90" s="5" t="inlineStr">
+        <is>
+          <t>Domingos e feriados</t>
+        </is>
+      </c>
+      <c r="F90" s="5" t="inlineStr">
+        <is>
+          <t>Lojista</t>
+        </is>
+      </c>
       <c r="G90" s="22" t="n"/>
       <c r="H90" s="5">
         <f>IFERROR(VLOOKUP(I90,regs!H:I,2,0),"")</f>
@@ -65723,12 +65917,34 @@
       </c>
     </row>
     <row r="91">
-      <c r="A91" s="16" t="n"/>
-      <c r="B91" s="2" t="n"/>
-      <c r="C91" s="16" t="n"/>
-      <c r="D91" s="5" t="n"/>
-      <c r="E91" s="5" t="n"/>
-      <c r="F91" s="5" t="n"/>
+      <c r="A91" s="16" t="inlineStr">
+        <is>
+          <t>CENTRAIS DE ABASTECIMENTO DO RIO GRANDE DO SUL SA</t>
+        </is>
+      </c>
+      <c r="B91" s="2" t="n">
+        <v>92983147000167</v>
+      </c>
+      <c r="C91" s="16" t="inlineStr">
+        <is>
+          <t>MR034899/2023</t>
+        </is>
+      </c>
+      <c r="D91" s="5" t="inlineStr">
+        <is>
+          <t>NÃO</t>
+        </is>
+      </c>
+      <c r="E91" s="5" t="inlineStr">
+        <is>
+          <t>Outros</t>
+        </is>
+      </c>
+      <c r="F91" s="5" t="inlineStr">
+        <is>
+          <t>Atacadista</t>
+        </is>
+      </c>
       <c r="G91" s="22" t="n"/>
       <c r="H91" s="5">
         <f>IFERROR(VLOOKUP(I91,regs!H:I,2,0),"")</f>
@@ -67700,8 +67916,8 @@
     <col width="14" customWidth="1" style="32" min="8" max="8"/>
     <col width="9.109375" customWidth="1" style="32" min="9" max="9"/>
     <col width="5.33203125" customWidth="1" style="32" min="10" max="10"/>
-    <col width="9.109375" customWidth="1" style="32" min="11" max="117"/>
-    <col width="9.109375" customWidth="1" style="32" min="118" max="16384"/>
+    <col width="9.109375" customWidth="1" style="32" min="11" max="119"/>
+    <col width="9.109375" customWidth="1" style="32" min="120" max="16384"/>
   </cols>
   <sheetData>
     <row r="1" ht="25.5" customHeight="1" s="32">
@@ -67754,7 +67970,7 @@
         </is>
       </c>
       <c r="C3" s="5" t="n">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G3" s="4" t="inlineStr">
         <is>
@@ -67863,7 +68079,7 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>289</v>
+        <v>294</v>
       </c>
       <c r="G9" s="4" t="inlineStr">
         <is>

--- a/regs.xlsx
+++ b/regs.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="EstaPasta_de_trabalho"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="7476" windowHeight="4116" tabRatio="600" firstSheet="0" activeTab="3" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="7476" windowHeight="4116" tabRatio="600" firstSheet="0" activeTab="4" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Acts 2021" sheetId="1" state="visible" r:id="rId1"/>
@@ -1277,11 +1277,11 @@
         </dLbls>
         <gapWidth val="219"/>
         <overlap val="-27"/>
-        <axId val="254137304"/>
-        <axId val="254137696"/>
+        <axId val="258341200"/>
+        <axId val="258345512"/>
       </barChart>
       <catAx>
-        <axId val="254137304"/>
+        <axId val="258341200"/>
         <scaling>
           <orientation val="minMax"/>
         </scaling>
@@ -1327,7 +1327,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </txPr>
-        <crossAx val="254137696"/>
+        <crossAx val="258345512"/>
         <crosses val="autoZero"/>
         <auto val="1"/>
         <lblAlgn val="ctr"/>
@@ -1335,7 +1335,7 @@
         <noMultiLvlLbl val="0"/>
       </catAx>
       <valAx>
-        <axId val="254137696"/>
+        <axId val="258345512"/>
         <scaling>
           <orientation val="minMax"/>
         </scaling>
@@ -1389,7 +1389,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </txPr>
-        <crossAx val="254137304"/>
+        <crossAx val="258341200"/>
         <crosses val="autoZero"/>
         <crossBetween val="between"/>
       </valAx>
@@ -2113,11 +2113,11 @@
         </dLbls>
         <gapWidth val="219"/>
         <overlap val="-27"/>
-        <axId val="254131816"/>
-        <axId val="254132600"/>
+        <axId val="258341592"/>
+        <axId val="258340416"/>
       </barChart>
       <catAx>
-        <axId val="254131816"/>
+        <axId val="258341592"/>
         <scaling>
           <orientation val="minMax"/>
         </scaling>
@@ -2127,7 +2127,7 @@
         <majorTickMark val="none"/>
         <minorTickMark val="none"/>
         <tickLblPos val="nextTo"/>
-        <crossAx val="254132600"/>
+        <crossAx val="258340416"/>
         <crosses val="autoZero"/>
         <auto val="1"/>
         <lblAlgn val="ctr"/>
@@ -2135,7 +2135,7 @@
         <noMultiLvlLbl val="0"/>
       </catAx>
       <valAx>
-        <axId val="254132600"/>
+        <axId val="258340416"/>
         <scaling>
           <orientation val="minMax"/>
         </scaling>
@@ -2189,7 +2189,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </txPr>
-        <crossAx val="254131816"/>
+        <crossAx val="258341592"/>
         <crosses val="autoZero"/>
         <crossBetween val="between"/>
       </valAx>
@@ -2464,11 +2464,11 @@
         </dLbls>
         <gapWidth val="219"/>
         <overlap val="-27"/>
-        <axId val="254134952"/>
-        <axId val="254135344"/>
+        <axId val="258341984"/>
+        <axId val="258342376"/>
       </barChart>
       <catAx>
-        <axId val="254134952"/>
+        <axId val="258341984"/>
         <scaling>
           <orientation val="minMax"/>
         </scaling>
@@ -2478,7 +2478,7 @@
         <majorTickMark val="none"/>
         <minorTickMark val="none"/>
         <tickLblPos val="nextTo"/>
-        <crossAx val="254135344"/>
+        <crossAx val="258342376"/>
         <crosses val="autoZero"/>
         <auto val="1"/>
         <lblAlgn val="ctr"/>
@@ -2486,7 +2486,7 @@
         <noMultiLvlLbl val="0"/>
       </catAx>
       <valAx>
-        <axId val="254135344"/>
+        <axId val="258342376"/>
         <scaling>
           <orientation val="minMax"/>
         </scaling>
@@ -2540,7 +2540,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </txPr>
-        <crossAx val="254134952"/>
+        <crossAx val="258341984"/>
         <crosses val="autoZero"/>
         <crossBetween val="between"/>
       </valAx>
@@ -2815,11 +2815,11 @@
         </dLbls>
         <gapWidth val="219"/>
         <overlap val="-27"/>
-        <axId val="338978536"/>
-        <axId val="338980104"/>
+        <axId val="344110176"/>
+        <axId val="344107040"/>
       </barChart>
       <catAx>
-        <axId val="338978536"/>
+        <axId val="344110176"/>
         <scaling>
           <orientation val="minMax"/>
         </scaling>
@@ -2829,7 +2829,7 @@
         <majorTickMark val="none"/>
         <minorTickMark val="none"/>
         <tickLblPos val="nextTo"/>
-        <crossAx val="338980104"/>
+        <crossAx val="344107040"/>
         <crosses val="autoZero"/>
         <auto val="1"/>
         <lblAlgn val="ctr"/>
@@ -2837,7 +2837,7 @@
         <noMultiLvlLbl val="0"/>
       </catAx>
       <valAx>
-        <axId val="338980104"/>
+        <axId val="344107040"/>
         <scaling>
           <orientation val="minMax"/>
         </scaling>
@@ -2891,7 +2891,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </txPr>
-        <crossAx val="338978536"/>
+        <crossAx val="344110176"/>
         <crosses val="autoZero"/>
         <crossBetween val="between"/>
       </valAx>
@@ -3166,11 +3166,11 @@
         </dLbls>
         <gapWidth val="219"/>
         <overlap val="-27"/>
-        <axId val="338980888"/>
-        <axId val="338981280"/>
+        <axId val="344108608"/>
+        <axId val="344107432"/>
       </barChart>
       <catAx>
-        <axId val="338980888"/>
+        <axId val="344108608"/>
         <scaling>
           <orientation val="minMax"/>
         </scaling>
@@ -3180,7 +3180,7 @@
         <majorTickMark val="none"/>
         <minorTickMark val="none"/>
         <tickLblPos val="nextTo"/>
-        <crossAx val="338981280"/>
+        <crossAx val="344107432"/>
         <crosses val="autoZero"/>
         <auto val="1"/>
         <lblAlgn val="ctr"/>
@@ -3188,7 +3188,7 @@
         <noMultiLvlLbl val="0"/>
       </catAx>
       <valAx>
-        <axId val="338981280"/>
+        <axId val="344107432"/>
         <scaling>
           <orientation val="minMax"/>
         </scaling>
@@ -3242,7 +3242,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </txPr>
-        <crossAx val="338980888"/>
+        <crossAx val="344108608"/>
         <crosses val="autoZero"/>
         <crossBetween val="between"/>
       </valAx>
@@ -3742,11 +3742,11 @@
         </dLbls>
         <gapWidth val="219"/>
         <overlap val="-27"/>
-        <axId val="254203512"/>
-        <axId val="254212096"/>
+        <axId val="258114744"/>
+        <axId val="258134976"/>
       </barChart>
       <catAx>
-        <axId val="254203512"/>
+        <axId val="258114744"/>
         <scaling>
           <orientation val="minMax"/>
         </scaling>
@@ -3792,7 +3792,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </txPr>
-        <crossAx val="254212096"/>
+        <crossAx val="258134976"/>
         <crosses val="autoZero"/>
         <auto val="1"/>
         <lblAlgn val="ctr"/>
@@ -3800,7 +3800,7 @@
         <noMultiLvlLbl val="0"/>
       </catAx>
       <valAx>
-        <axId val="254212096"/>
+        <axId val="258134976"/>
         <scaling>
           <orientation val="minMax"/>
         </scaling>
@@ -3854,7 +3854,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </txPr>
-        <crossAx val="254203512"/>
+        <crossAx val="258114744"/>
         <crosses val="autoZero"/>
         <crossBetween val="between"/>
       </valAx>
@@ -4578,11 +4578,11 @@
         </dLbls>
         <gapWidth val="219"/>
         <overlap val="-27"/>
-        <axId val="254041552"/>
-        <axId val="254061496"/>
+        <axId val="258604336"/>
+        <axId val="258555280"/>
       </barChart>
       <catAx>
-        <axId val="254041552"/>
+        <axId val="258604336"/>
         <scaling>
           <orientation val="minMax"/>
         </scaling>
@@ -4592,7 +4592,7 @@
         <majorTickMark val="none"/>
         <minorTickMark val="none"/>
         <tickLblPos val="nextTo"/>
-        <crossAx val="254061496"/>
+        <crossAx val="258555280"/>
         <crosses val="autoZero"/>
         <auto val="1"/>
         <lblAlgn val="ctr"/>
@@ -4600,7 +4600,7 @@
         <noMultiLvlLbl val="0"/>
       </catAx>
       <valAx>
-        <axId val="254061496"/>
+        <axId val="258555280"/>
         <scaling>
           <orientation val="minMax"/>
         </scaling>
@@ -4654,7 +4654,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </txPr>
-        <crossAx val="254041552"/>
+        <crossAx val="258604336"/>
         <crosses val="autoZero"/>
         <crossBetween val="between"/>
       </valAx>
@@ -4929,11 +4929,11 @@
         </dLbls>
         <gapWidth val="219"/>
         <overlap val="-27"/>
-        <axId val="254106240"/>
-        <axId val="122964168"/>
+        <axId val="258540704"/>
+        <axId val="127338824"/>
       </barChart>
       <catAx>
-        <axId val="254106240"/>
+        <axId val="258540704"/>
         <scaling>
           <orientation val="minMax"/>
         </scaling>
@@ -4943,7 +4943,7 @@
         <majorTickMark val="none"/>
         <minorTickMark val="none"/>
         <tickLblPos val="nextTo"/>
-        <crossAx val="122964168"/>
+        <crossAx val="127338824"/>
         <crosses val="autoZero"/>
         <auto val="1"/>
         <lblAlgn val="ctr"/>
@@ -4951,7 +4951,7 @@
         <noMultiLvlLbl val="0"/>
       </catAx>
       <valAx>
-        <axId val="122964168"/>
+        <axId val="127338824"/>
         <scaling>
           <orientation val="minMax"/>
         </scaling>
@@ -5005,7 +5005,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </txPr>
-        <crossAx val="254106240"/>
+        <crossAx val="258540704"/>
         <crosses val="autoZero"/>
         <crossBetween val="between"/>
       </valAx>
@@ -5280,11 +5280,11 @@
         </dLbls>
         <gapWidth val="219"/>
         <overlap val="-27"/>
-        <axId val="254139264"/>
-        <axId val="254138480"/>
+        <axId val="258343944"/>
+        <axId val="258343552"/>
       </barChart>
       <catAx>
-        <axId val="254139264"/>
+        <axId val="258343944"/>
         <scaling>
           <orientation val="minMax"/>
         </scaling>
@@ -5294,7 +5294,7 @@
         <majorTickMark val="none"/>
         <minorTickMark val="none"/>
         <tickLblPos val="nextTo"/>
-        <crossAx val="254138480"/>
+        <crossAx val="258343552"/>
         <crosses val="autoZero"/>
         <auto val="1"/>
         <lblAlgn val="ctr"/>
@@ -5302,7 +5302,7 @@
         <noMultiLvlLbl val="0"/>
       </catAx>
       <valAx>
-        <axId val="254138480"/>
+        <axId val="258343552"/>
         <scaling>
           <orientation val="minMax"/>
         </scaling>
@@ -5356,7 +5356,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </txPr>
-        <crossAx val="254139264"/>
+        <crossAx val="258343944"/>
         <crosses val="autoZero"/>
         <crossBetween val="between"/>
       </valAx>
@@ -5631,11 +5631,11 @@
         </dLbls>
         <gapWidth val="219"/>
         <overlap val="-27"/>
-        <axId val="254136912"/>
-        <axId val="254132208"/>
+        <axId val="258344728"/>
+        <axId val="258344336"/>
       </barChart>
       <catAx>
-        <axId val="254136912"/>
+        <axId val="258344728"/>
         <scaling>
           <orientation val="minMax"/>
         </scaling>
@@ -5645,7 +5645,7 @@
         <majorTickMark val="none"/>
         <minorTickMark val="none"/>
         <tickLblPos val="nextTo"/>
-        <crossAx val="254132208"/>
+        <crossAx val="258344336"/>
         <crosses val="autoZero"/>
         <auto val="1"/>
         <lblAlgn val="ctr"/>
@@ -5653,7 +5653,7 @@
         <noMultiLvlLbl val="0"/>
       </catAx>
       <valAx>
-        <axId val="254132208"/>
+        <axId val="258344336"/>
         <scaling>
           <orientation val="minMax"/>
         </scaling>
@@ -5707,7 +5707,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </txPr>
-        <crossAx val="254136912"/>
+        <crossAx val="258344728"/>
         <crosses val="autoZero"/>
         <crossBetween val="between"/>
       </valAx>
@@ -23190,8 +23190,8 @@
     <col width="21.6640625" customWidth="1" style="1" min="4" max="4"/>
     <col width="15.109375" customWidth="1" style="1" min="5" max="5"/>
     <col width="19.6640625" customWidth="1" style="1" min="6" max="6"/>
-    <col width="9.109375" customWidth="1" style="1" min="7" max="150"/>
-    <col width="9.109375" customWidth="1" style="1" min="151" max="16384"/>
+    <col width="9.109375" customWidth="1" style="1" min="7" max="151"/>
+    <col width="9.109375" customWidth="1" style="1" min="152" max="16384"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -37724,7 +37724,7 @@
   </sheetPr>
   <dimension ref="A1:P799"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A398" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B420" sqref="B420"/>
     </sheetView>
@@ -37739,8 +37739,8 @@
     <col width="23.44140625" customWidth="1" style="1" min="6" max="6"/>
     <col width="16.88671875" customWidth="1" style="1" min="7" max="7"/>
     <col hidden="1" width="9.109375" customWidth="1" style="1" min="8" max="9"/>
-    <col width="9.109375" customWidth="1" style="1" min="10" max="163"/>
-    <col width="9.109375" customWidth="1" style="1" min="164" max="16384"/>
+    <col width="9.109375" customWidth="1" style="1" min="10" max="164"/>
+    <col width="9.109375" customWidth="1" style="1" min="165" max="16384"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -37780,7 +37780,7 @@
         </is>
       </c>
       <c r="P1" s="1" t="n">
-        <v>424</v>
+        <v>438</v>
       </c>
     </row>
     <row r="2">
@@ -55086,13 +55086,37 @@
       </c>
     </row>
     <row r="424">
-      <c r="A424" s="16" t="n"/>
-      <c r="B424" s="2" t="n"/>
-      <c r="C424" s="16" t="n"/>
-      <c r="D424" s="16" t="n"/>
-      <c r="E424" s="16" t="n"/>
-      <c r="F424" s="21" t="n"/>
-      <c r="G424" s="14" t="n"/>
+      <c r="A424" s="16" t="inlineStr">
+        <is>
+          <t>HUGO BOSS DO BRASIL LTDA</t>
+        </is>
+      </c>
+      <c r="B424" s="2" t="n">
+        <v>57621054002135</v>
+      </c>
+      <c r="C424" s="16" t="inlineStr">
+        <is>
+          <t>MR028821/2023</t>
+        </is>
+      </c>
+      <c r="D424" s="16" t="inlineStr">
+        <is>
+          <t>Domingos e feriados</t>
+        </is>
+      </c>
+      <c r="E424" s="16" t="inlineStr">
+        <is>
+          <t>Lojista</t>
+        </is>
+      </c>
+      <c r="F424" s="21" t="inlineStr">
+        <is>
+          <t>01/11/2022 - 31/12/2023</t>
+        </is>
+      </c>
+      <c r="G424" s="22" t="n">
+        <v>45110</v>
+      </c>
       <c r="H424" s="1">
         <f>LEFT(B424,8)</f>
         <v/>
@@ -55103,13 +55127,37 @@
       </c>
     </row>
     <row r="425">
-      <c r="A425" s="16" t="n"/>
-      <c r="B425" s="2" t="n"/>
-      <c r="C425" s="16" t="n"/>
-      <c r="D425" s="16" t="n"/>
-      <c r="E425" s="16" t="n"/>
-      <c r="F425" s="21" t="n"/>
-      <c r="G425" s="14" t="n"/>
+      <c r="A425" s="16" t="inlineStr">
+        <is>
+          <t>CSW POA LTDA</t>
+        </is>
+      </c>
+      <c r="B425" s="2" t="n">
+        <v>42739885000195</v>
+      </c>
+      <c r="C425" s="16" t="inlineStr">
+        <is>
+          <t>MR034076/2023</t>
+        </is>
+      </c>
+      <c r="D425" s="16" t="inlineStr">
+        <is>
+          <t>Domingos e feriados</t>
+        </is>
+      </c>
+      <c r="E425" s="16" t="inlineStr">
+        <is>
+          <t>Lojista</t>
+        </is>
+      </c>
+      <c r="F425" s="21" t="inlineStr">
+        <is>
+          <t>01/11/2022 - 31/12/2023</t>
+        </is>
+      </c>
+      <c r="G425" s="22" t="n">
+        <v>45111</v>
+      </c>
       <c r="H425" s="1">
         <f>LEFT(B425,8)</f>
         <v/>
@@ -55120,13 +55168,37 @@
       </c>
     </row>
     <row r="426">
-      <c r="A426" s="16" t="n"/>
-      <c r="B426" s="2" t="n"/>
-      <c r="C426" s="16" t="n"/>
-      <c r="D426" s="16" t="n"/>
-      <c r="E426" s="16" t="n"/>
-      <c r="F426" s="21" t="n"/>
-      <c r="G426" s="14" t="n"/>
+      <c r="A426" s="16" t="inlineStr">
+        <is>
+          <t>MBM CIA LTDA</t>
+        </is>
+      </c>
+      <c r="B426" s="2" t="n">
+        <v>49741072000189</v>
+      </c>
+      <c r="C426" s="16" t="inlineStr">
+        <is>
+          <t>MR031021/2023</t>
+        </is>
+      </c>
+      <c r="D426" s="16" t="inlineStr">
+        <is>
+          <t>Domingos e feriados</t>
+        </is>
+      </c>
+      <c r="E426" s="16" t="inlineStr">
+        <is>
+          <t>Lojista</t>
+        </is>
+      </c>
+      <c r="F426" s="21" t="inlineStr">
+        <is>
+          <t>01/11/2022 - 31/12/2023</t>
+        </is>
+      </c>
+      <c r="G426" s="22" t="n">
+        <v>45111</v>
+      </c>
       <c r="H426" s="1">
         <f>LEFT(B426,8)</f>
         <v/>
@@ -55137,13 +55209,37 @@
       </c>
     </row>
     <row r="427">
-      <c r="A427" s="16" t="n"/>
-      <c r="B427" s="2" t="n"/>
-      <c r="C427" s="16" t="n"/>
-      <c r="D427" s="16" t="n"/>
-      <c r="E427" s="16" t="n"/>
-      <c r="F427" s="21" t="n"/>
-      <c r="G427" s="14" t="n"/>
+      <c r="A427" s="16" t="inlineStr">
+        <is>
+          <t>VIA S.A.</t>
+        </is>
+      </c>
+      <c r="B427" s="2" t="n">
+        <v>33041260126427</v>
+      </c>
+      <c r="C427" s="16" t="inlineStr">
+        <is>
+          <t>MR009720/2023</t>
+        </is>
+      </c>
+      <c r="D427" s="16" t="inlineStr">
+        <is>
+          <t>Domingos e feriados</t>
+        </is>
+      </c>
+      <c r="E427" s="16" t="inlineStr">
+        <is>
+          <t>Lojista</t>
+        </is>
+      </c>
+      <c r="F427" s="21" t="inlineStr">
+        <is>
+          <t>01/11/2022 - 31/12/2023</t>
+        </is>
+      </c>
+      <c r="G427" s="22" t="n">
+        <v>45112</v>
+      </c>
       <c r="H427" s="1">
         <f>LEFT(B427,8)</f>
         <v/>
@@ -55154,13 +55250,37 @@
       </c>
     </row>
     <row r="428">
-      <c r="A428" s="16" t="n"/>
-      <c r="B428" s="2" t="n"/>
-      <c r="C428" s="16" t="n"/>
-      <c r="D428" s="16" t="n"/>
-      <c r="E428" s="16" t="n"/>
-      <c r="F428" s="21" t="n"/>
-      <c r="G428" s="14" t="n"/>
+      <c r="A428" s="16" t="inlineStr">
+        <is>
+          <t>VIA S.A.</t>
+        </is>
+      </c>
+      <c r="B428" s="2" t="n">
+        <v>33041260039885</v>
+      </c>
+      <c r="C428" s="16" t="inlineStr">
+        <is>
+          <t>MR009720/2023</t>
+        </is>
+      </c>
+      <c r="D428" s="16" t="inlineStr">
+        <is>
+          <t>Domingos e feriados</t>
+        </is>
+      </c>
+      <c r="E428" s="16" t="inlineStr">
+        <is>
+          <t>Lojista</t>
+        </is>
+      </c>
+      <c r="F428" s="21" t="inlineStr">
+        <is>
+          <t>01/11/2022 - 31/12/2023</t>
+        </is>
+      </c>
+      <c r="G428" s="22" t="n">
+        <v>45112</v>
+      </c>
       <c r="H428" s="1">
         <f>LEFT(B428,8)</f>
         <v/>
@@ -55171,13 +55291,37 @@
       </c>
     </row>
     <row r="429">
-      <c r="A429" s="16" t="n"/>
-      <c r="B429" s="2" t="n"/>
-      <c r="C429" s="16" t="n"/>
-      <c r="D429" s="16" t="n"/>
-      <c r="E429" s="16" t="n"/>
-      <c r="F429" s="21" t="n"/>
-      <c r="G429" s="14" t="n"/>
+      <c r="A429" s="16" t="inlineStr">
+        <is>
+          <t>VIA S.A.</t>
+        </is>
+      </c>
+      <c r="B429" s="2" t="n">
+        <v>33041260022303</v>
+      </c>
+      <c r="C429" s="16" t="inlineStr">
+        <is>
+          <t>MR009720/2023</t>
+        </is>
+      </c>
+      <c r="D429" s="16" t="inlineStr">
+        <is>
+          <t>Domingos e feriados</t>
+        </is>
+      </c>
+      <c r="E429" s="16" t="inlineStr">
+        <is>
+          <t>Lojista</t>
+        </is>
+      </c>
+      <c r="F429" s="21" t="inlineStr">
+        <is>
+          <t>01/11/2022 - 31/12/2023</t>
+        </is>
+      </c>
+      <c r="G429" s="22" t="n">
+        <v>45112</v>
+      </c>
       <c r="H429" s="1">
         <f>LEFT(B429,8)</f>
         <v/>
@@ -55188,13 +55332,37 @@
       </c>
     </row>
     <row r="430">
-      <c r="A430" s="16" t="n"/>
-      <c r="B430" s="2" t="n"/>
-      <c r="C430" s="16" t="n"/>
-      <c r="D430" s="16" t="n"/>
-      <c r="E430" s="16" t="n"/>
-      <c r="F430" s="21" t="n"/>
-      <c r="G430" s="14" t="n"/>
+      <c r="A430" s="16" t="inlineStr">
+        <is>
+          <t>VIA S.A.</t>
+        </is>
+      </c>
+      <c r="B430" s="2" t="n">
+        <v>33041260039370</v>
+      </c>
+      <c r="C430" s="16" t="inlineStr">
+        <is>
+          <t>MR009720/2023</t>
+        </is>
+      </c>
+      <c r="D430" s="16" t="inlineStr">
+        <is>
+          <t>Domingos e feriados</t>
+        </is>
+      </c>
+      <c r="E430" s="16" t="inlineStr">
+        <is>
+          <t>Lojista</t>
+        </is>
+      </c>
+      <c r="F430" s="21" t="inlineStr">
+        <is>
+          <t>01/11/2022 - 31/12/2023</t>
+        </is>
+      </c>
+      <c r="G430" s="22" t="n">
+        <v>45112</v>
+      </c>
       <c r="H430" s="1">
         <f>LEFT(B430,8)</f>
         <v/>
@@ -55205,13 +55373,37 @@
       </c>
     </row>
     <row r="431">
-      <c r="A431" s="16" t="n"/>
-      <c r="B431" s="2" t="n"/>
-      <c r="C431" s="16" t="n"/>
-      <c r="D431" s="16" t="n"/>
-      <c r="E431" s="16" t="n"/>
-      <c r="F431" s="21" t="n"/>
-      <c r="G431" s="14" t="n"/>
+      <c r="A431" s="16" t="inlineStr">
+        <is>
+          <t>VIA S.A.</t>
+        </is>
+      </c>
+      <c r="B431" s="2" t="n">
+        <v>33041260170671</v>
+      </c>
+      <c r="C431" s="16" t="inlineStr">
+        <is>
+          <t>MR009720/2023</t>
+        </is>
+      </c>
+      <c r="D431" s="16" t="inlineStr">
+        <is>
+          <t>Domingos e feriados</t>
+        </is>
+      </c>
+      <c r="E431" s="16" t="inlineStr">
+        <is>
+          <t>Lojista</t>
+        </is>
+      </c>
+      <c r="F431" s="21" t="inlineStr">
+        <is>
+          <t>01/11/2022 - 31/12/2023</t>
+        </is>
+      </c>
+      <c r="G431" s="22" t="n">
+        <v>45112</v>
+      </c>
       <c r="H431" s="1">
         <f>LEFT(B431,8)</f>
         <v/>
@@ -55222,13 +55414,37 @@
       </c>
     </row>
     <row r="432">
-      <c r="A432" s="16" t="n"/>
-      <c r="B432" s="2" t="n"/>
-      <c r="C432" s="16" t="n"/>
-      <c r="D432" s="16" t="n"/>
-      <c r="E432" s="16" t="n"/>
-      <c r="F432" s="21" t="n"/>
-      <c r="G432" s="14" t="n"/>
+      <c r="A432" s="16" t="inlineStr">
+        <is>
+          <t>VIA S.A.</t>
+        </is>
+      </c>
+      <c r="B432" s="2" t="n">
+        <v>33041260034220</v>
+      </c>
+      <c r="C432" s="16" t="inlineStr">
+        <is>
+          <t>MR009720/2023</t>
+        </is>
+      </c>
+      <c r="D432" s="16" t="inlineStr">
+        <is>
+          <t>Domingos e feriados</t>
+        </is>
+      </c>
+      <c r="E432" s="16" t="inlineStr">
+        <is>
+          <t>Lojista</t>
+        </is>
+      </c>
+      <c r="F432" s="21" t="inlineStr">
+        <is>
+          <t>01/11/2022 - 31/12/2023</t>
+        </is>
+      </c>
+      <c r="G432" s="22" t="n">
+        <v>45112</v>
+      </c>
       <c r="H432" s="1">
         <f>LEFT(B432,8)</f>
         <v/>
@@ -55239,13 +55455,37 @@
       </c>
     </row>
     <row r="433">
-      <c r="A433" s="16" t="n"/>
-      <c r="B433" s="2" t="n"/>
-      <c r="C433" s="16" t="n"/>
-      <c r="D433" s="16" t="n"/>
-      <c r="E433" s="16" t="n"/>
-      <c r="F433" s="21" t="n"/>
-      <c r="G433" s="14" t="n"/>
+      <c r="A433" s="16" t="inlineStr">
+        <is>
+          <t>CENTRAIS DE ABASTECIMENTO DO RIO GRANDE DO SUL SA</t>
+        </is>
+      </c>
+      <c r="B433" s="2" t="n">
+        <v>92983147000167</v>
+      </c>
+      <c r="C433" s="16" t="inlineStr">
+        <is>
+          <t>MR034899/2023</t>
+        </is>
+      </c>
+      <c r="D433" s="16" t="inlineStr">
+        <is>
+          <t>Outros</t>
+        </is>
+      </c>
+      <c r="E433" s="16" t="inlineStr">
+        <is>
+          <t>Atacadista</t>
+        </is>
+      </c>
+      <c r="F433" s="21" t="inlineStr">
+        <is>
+          <t>01/11/2022 - 31/10/2023</t>
+        </is>
+      </c>
+      <c r="G433" s="22" t="n">
+        <v>45112</v>
+      </c>
       <c r="H433" s="1">
         <f>LEFT(B433,8)</f>
         <v/>
@@ -55256,13 +55496,37 @@
       </c>
     </row>
     <row r="434">
-      <c r="A434" s="16" t="n"/>
-      <c r="B434" s="2" t="n"/>
-      <c r="C434" s="16" t="n"/>
-      <c r="D434" s="16" t="n"/>
-      <c r="E434" s="16" t="n"/>
-      <c r="F434" s="21" t="n"/>
-      <c r="G434" s="14" t="n"/>
+      <c r="A434" s="16" t="inlineStr">
+        <is>
+          <t>VM COMERCIO DE CALCADOS LTDA.</t>
+        </is>
+      </c>
+      <c r="B434" s="2" t="n">
+        <v>47908129000247</v>
+      </c>
+      <c r="C434" s="16" t="inlineStr">
+        <is>
+          <t>MR005359/2023</t>
+        </is>
+      </c>
+      <c r="D434" s="16" t="inlineStr">
+        <is>
+          <t>Domingos e feriados</t>
+        </is>
+      </c>
+      <c r="E434" s="16" t="inlineStr">
+        <is>
+          <t>Lojista</t>
+        </is>
+      </c>
+      <c r="F434" s="21" t="inlineStr">
+        <is>
+          <t>01/11/2022 - 31/12/2023</t>
+        </is>
+      </c>
+      <c r="G434" s="22" t="n">
+        <v>45118</v>
+      </c>
       <c r="H434" s="1">
         <f>LEFT(B434,8)</f>
         <v/>
@@ -55273,13 +55537,37 @@
       </c>
     </row>
     <row r="435">
-      <c r="A435" s="16" t="n"/>
-      <c r="B435" s="2" t="n"/>
-      <c r="C435" s="16" t="n"/>
-      <c r="D435" s="16" t="n"/>
-      <c r="E435" s="16" t="n"/>
-      <c r="F435" s="21" t="n"/>
-      <c r="G435" s="14" t="n"/>
+      <c r="A435" s="16" t="inlineStr">
+        <is>
+          <t>ISLA SEMENTES LTDA.</t>
+        </is>
+      </c>
+      <c r="B435" s="2" t="n">
+        <v>92666056000106</v>
+      </c>
+      <c r="C435" s="16" t="inlineStr">
+        <is>
+          <t>MR035314/2023</t>
+        </is>
+      </c>
+      <c r="D435" s="16" t="inlineStr">
+        <is>
+          <t>Domingos e feriados</t>
+        </is>
+      </c>
+      <c r="E435" s="16" t="inlineStr">
+        <is>
+          <t>Mercado</t>
+        </is>
+      </c>
+      <c r="F435" s="21" t="inlineStr">
+        <is>
+          <t>01/11/2022 - 31/12/2023</t>
+        </is>
+      </c>
+      <c r="G435" s="22" t="n">
+        <v>45118</v>
+      </c>
       <c r="H435" s="1">
         <f>LEFT(B435,8)</f>
         <v/>
@@ -55290,13 +55578,37 @@
       </c>
     </row>
     <row r="436">
-      <c r="A436" s="16" t="n"/>
-      <c r="B436" s="2" t="n"/>
-      <c r="C436" s="16" t="n"/>
-      <c r="D436" s="16" t="n"/>
-      <c r="E436" s="16" t="n"/>
-      <c r="F436" s="21" t="n"/>
-      <c r="G436" s="14" t="n"/>
+      <c r="A436" s="16" t="inlineStr">
+        <is>
+          <t>FELIX &amp; AYDOS LTDA</t>
+        </is>
+      </c>
+      <c r="B436" s="2" t="n">
+        <v>8537223000285</v>
+      </c>
+      <c r="C436" s="16" t="inlineStr">
+        <is>
+          <t>MR036745/2023</t>
+        </is>
+      </c>
+      <c r="D436" s="16" t="inlineStr">
+        <is>
+          <t>Domingos e feriados</t>
+        </is>
+      </c>
+      <c r="E436" s="16" t="inlineStr">
+        <is>
+          <t>Lojista</t>
+        </is>
+      </c>
+      <c r="F436" s="21" t="inlineStr">
+        <is>
+          <t>01/11/2022 - 31/12/2023</t>
+        </is>
+      </c>
+      <c r="G436" s="22" t="n">
+        <v>45118</v>
+      </c>
       <c r="H436" s="1">
         <f>LEFT(B436,8)</f>
         <v/>
@@ -55307,13 +55619,37 @@
       </c>
     </row>
     <row r="437">
-      <c r="A437" s="16" t="n"/>
-      <c r="B437" s="2" t="n"/>
-      <c r="C437" s="16" t="n"/>
-      <c r="D437" s="16" t="n"/>
-      <c r="E437" s="16" t="n"/>
-      <c r="F437" s="21" t="n"/>
-      <c r="G437" s="14" t="n"/>
+      <c r="A437" s="16" t="inlineStr">
+        <is>
+          <t>SUPER PRIMAZ LTDA</t>
+        </is>
+      </c>
+      <c r="B437" s="2" t="n">
+        <v>25424804000149</v>
+      </c>
+      <c r="C437" s="16" t="inlineStr">
+        <is>
+          <t>MR023575/2023</t>
+        </is>
+      </c>
+      <c r="D437" s="16" t="inlineStr">
+        <is>
+          <t>Domingos e feriados</t>
+        </is>
+      </c>
+      <c r="E437" s="16" t="inlineStr">
+        <is>
+          <t>Mercado</t>
+        </is>
+      </c>
+      <c r="F437" s="21" t="inlineStr">
+        <is>
+          <t>01/11/2022 - 31/12/2023</t>
+        </is>
+      </c>
+      <c r="G437" s="22" t="n">
+        <v>45118</v>
+      </c>
       <c r="H437" s="1">
         <f>LEFT(B437,8)</f>
         <v/>
@@ -61902,6 +62238,20 @@
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C421" r:id="rId420"/>
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C422" r:id="rId421"/>
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C423" r:id="rId422"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C424" r:id="rId423"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C425" r:id="rId424"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C426" r:id="rId425"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C427" r:id="rId426"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C428" r:id="rId427"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C429" r:id="rId428"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C430" r:id="rId429"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C431" r:id="rId430"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C432" r:id="rId431"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C433" r:id="rId432"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C434" r:id="rId433"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C435" r:id="rId434"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C436" r:id="rId435"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C437" r:id="rId436"/>
   </hyperlinks>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" paperSize="9"/>
@@ -61917,8 +62267,8 @@
   </sheetPr>
   <dimension ref="A1:T183"/>
   <sheetViews>
-    <sheetView topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="C88" sqref="C88"/>
+    <sheetView tabSelected="1" topLeftCell="A69" workbookViewId="0">
+      <selection activeCell="C89" sqref="C89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4" outlineLevelCol="0"/>
@@ -61977,7 +62327,7 @@
         </is>
       </c>
       <c r="S1" t="n">
-        <v>35020</v>
+        <v>38141</v>
       </c>
       <c r="T1" t="n">
         <v>92</v>
@@ -63768,15 +64118,15 @@
     <row r="42">
       <c r="A42" s="16" t="inlineStr">
         <is>
-          <t>VM COMERCIO DE CALCADOS LTDA.</t>
+          <t>CENTERMASTERSUL DISTRIBUIDORA DE ALIMENTOS LTDA</t>
         </is>
       </c>
       <c r="B42" s="2" t="n">
-        <v>47908129000247</v>
+        <v>5964784000353</v>
       </c>
       <c r="C42" s="16" t="inlineStr">
         <is>
-          <t>MR005359/2023</t>
+          <t>MR005453/2023</t>
         </is>
       </c>
       <c r="D42" s="5" t="inlineStr">
@@ -63791,11 +64141,11 @@
       </c>
       <c r="F42" s="5" t="inlineStr">
         <is>
-          <t>Lojista</t>
+          <t>Atacadista</t>
         </is>
       </c>
       <c r="G42" s="22" t="n">
-        <v>45096</v>
+        <v>44960</v>
       </c>
       <c r="H42" s="5">
         <f>IFERROR(VLOOKUP(I42,regs!H:I,2,0),"")</f>
@@ -63813,20 +64163,20 @@
     <row r="43">
       <c r="A43" s="16" t="inlineStr">
         <is>
-          <t>CENTERMASTERSUL DISTRIBUIDORA DE ALIMENTOS LTDA</t>
+          <t>TRACK &amp; FIELD CO S.A.</t>
         </is>
       </c>
       <c r="B43" s="2" t="n">
-        <v>5964784000353</v>
+        <v>59418806002948</v>
       </c>
       <c r="C43" s="16" t="inlineStr">
         <is>
-          <t>MR005453/2023</t>
+          <t>MR006014/2023</t>
         </is>
       </c>
       <c r="D43" s="5" t="inlineStr">
         <is>
-          <t>SIM</t>
+          <t>NÃO</t>
         </is>
       </c>
       <c r="E43" s="5" t="inlineStr">
@@ -63836,12 +64186,10 @@
       </c>
       <c r="F43" s="5" t="inlineStr">
         <is>
-          <t>Atacadista</t>
-        </is>
-      </c>
-      <c r="G43" s="22" t="n">
-        <v>44960</v>
-      </c>
+          <t>Lojista</t>
+        </is>
+      </c>
+      <c r="G43" s="22" t="n"/>
       <c r="H43" s="5">
         <f>IFERROR(VLOOKUP(I43,regs!H:I,2,0),"")</f>
         <v/>
@@ -63858,15 +64206,15 @@
     <row r="44">
       <c r="A44" s="16" t="inlineStr">
         <is>
-          <t>TRACK &amp; FIELD CO S.A.</t>
+          <t>NBA STORE PORTO ALEGRE COMERCIO DE PRODUTOS ESPORTIVOS E VESTUARIO LTDA</t>
         </is>
       </c>
       <c r="B44" s="2" t="n">
-        <v>59418806002948</v>
+        <v>41371454000156</v>
       </c>
       <c r="C44" s="16" t="inlineStr">
         <is>
-          <t>MR006014/2023</t>
+          <t>MR006445/2023</t>
         </is>
       </c>
       <c r="D44" s="5" t="inlineStr">
@@ -63901,15 +64249,15 @@
     <row r="45">
       <c r="A45" s="16" t="inlineStr">
         <is>
-          <t>NBA STORE PORTO ALEGRE COMERCIO DE PRODUTOS ESPORTIVOS E VESTUARIO LTDA</t>
+          <t>COMERCIAL ZAFFARI LTDA</t>
         </is>
       </c>
       <c r="B45" s="2" t="n">
-        <v>41371454000156</v>
+        <v>92016757000191</v>
       </c>
       <c r="C45" s="16" t="inlineStr">
         <is>
-          <t>MR006445/2023</t>
+          <t>MR006488/2023</t>
         </is>
       </c>
       <c r="D45" s="5" t="inlineStr">
@@ -63924,7 +64272,7 @@
       </c>
       <c r="F45" s="5" t="inlineStr">
         <is>
-          <t>Lojista</t>
+          <t>Mercado</t>
         </is>
       </c>
       <c r="G45" s="22" t="n"/>
@@ -63944,20 +64292,20 @@
     <row r="46">
       <c r="A46" s="16" t="inlineStr">
         <is>
-          <t>COMERCIAL ZAFFARI LTDA</t>
+          <t>KARINA KRUSE VESTUARIO LTDA</t>
         </is>
       </c>
       <c r="B46" s="2" t="n">
-        <v>92016757000191</v>
+        <v>10987804000180</v>
       </c>
       <c r="C46" s="16" t="inlineStr">
         <is>
-          <t>MR006488/2023</t>
+          <t>MR006919/2023</t>
         </is>
       </c>
       <c r="D46" s="5" t="inlineStr">
         <is>
-          <t>NÃO</t>
+          <t>SIM</t>
         </is>
       </c>
       <c r="E46" s="5" t="inlineStr">
@@ -63967,10 +64315,12 @@
       </c>
       <c r="F46" s="5" t="inlineStr">
         <is>
-          <t>Mercado</t>
-        </is>
-      </c>
-      <c r="G46" s="22" t="n"/>
+          <t>Lojista</t>
+        </is>
+      </c>
+      <c r="G46" s="22" t="n">
+        <v>45051</v>
+      </c>
       <c r="H46" s="5">
         <f>IFERROR(VLOOKUP(I46,regs!H:I,2,0),"")</f>
         <v/>
@@ -63987,15 +64337,15 @@
     <row r="47">
       <c r="A47" s="16" t="inlineStr">
         <is>
-          <t>KARINA KRUSE VESTUARIO LTDA</t>
+          <t>NEW FEIRA DE TAPETES CENTER LTDA</t>
         </is>
       </c>
       <c r="B47" s="2" t="n">
-        <v>10987804000180</v>
+        <v>8808556000382</v>
       </c>
       <c r="C47" s="16" t="inlineStr">
         <is>
-          <t>MR006919/2023</t>
+          <t>MR008002/2023</t>
         </is>
       </c>
       <c r="D47" s="5" t="inlineStr">
@@ -64014,7 +64364,7 @@
         </is>
       </c>
       <c r="G47" s="22" t="n">
-        <v>45051</v>
+        <v>44981</v>
       </c>
       <c r="H47" s="5">
         <f>IFERROR(VLOOKUP(I47,regs!H:I,2,0),"")</f>
@@ -64032,20 +64382,20 @@
     <row r="48">
       <c r="A48" s="16" t="inlineStr">
         <is>
-          <t>NEW FEIRA DE TAPETES CENTER LTDA</t>
+          <t>JANAINE CRUZ ROQUE</t>
         </is>
       </c>
       <c r="B48" s="2" t="n">
-        <v>8808556000382</v>
+        <v>34292047000198</v>
       </c>
       <c r="C48" s="16" t="inlineStr">
         <is>
-          <t>MR008002/2023</t>
+          <t>MR009243/2023</t>
         </is>
       </c>
       <c r="D48" s="5" t="inlineStr">
         <is>
-          <t>SIM</t>
+          <t>NÃO</t>
         </is>
       </c>
       <c r="E48" s="5" t="inlineStr">
@@ -64058,9 +64408,7 @@
           <t>Lojista</t>
         </is>
       </c>
-      <c r="G48" s="22" t="n">
-        <v>44981</v>
-      </c>
+      <c r="G48" s="22" t="n"/>
       <c r="H48" s="5">
         <f>IFERROR(VLOOKUP(I48,regs!H:I,2,0),"")</f>
         <v/>
@@ -64077,15 +64425,15 @@
     <row r="49">
       <c r="A49" s="16" t="inlineStr">
         <is>
-          <t>JANAINE CRUZ ROQUE</t>
+          <t>PAQUETA CALCADOS LTDA - EM RECUPERACAO JUDICIAL</t>
         </is>
       </c>
       <c r="B49" s="2" t="n">
-        <v>34292047000198</v>
+        <v>1098983010680</v>
       </c>
       <c r="C49" s="16" t="inlineStr">
         <is>
-          <t>MR009243/2023</t>
+          <t>MR011399/2023</t>
         </is>
       </c>
       <c r="D49" s="5" t="inlineStr">
@@ -64120,20 +64468,20 @@
     <row r="50">
       <c r="A50" s="16" t="inlineStr">
         <is>
-          <t>VIA S.A.</t>
+          <t>MARISA LOJAS S.A.</t>
         </is>
       </c>
       <c r="B50" s="2" t="n">
-        <v>33041260022303</v>
+        <v>61189288001908</v>
       </c>
       <c r="C50" s="16" t="inlineStr">
         <is>
-          <t>MR009720/2023</t>
+          <t>MR011905/2023</t>
         </is>
       </c>
       <c r="D50" s="5" t="inlineStr">
         <is>
-          <t>NÃO</t>
+          <t>SIM</t>
         </is>
       </c>
       <c r="E50" s="5" t="inlineStr">
@@ -64146,7 +64494,9 @@
           <t>Lojista</t>
         </is>
       </c>
-      <c r="G50" s="22" t="n"/>
+      <c r="G50" s="22" t="n">
+        <v>45001</v>
+      </c>
       <c r="H50" s="5">
         <f>IFERROR(VLOOKUP(I50,regs!H:I,2,0),"")</f>
         <v/>
@@ -64163,15 +64513,15 @@
     <row r="51">
       <c r="A51" s="16" t="inlineStr">
         <is>
-          <t>PAQUETA CALCADOS LTDA - EM RECUPERACAO JUDICIAL</t>
+          <t>AVENUE HOCHE COMERCIO VAREJISTA DE PRODUTOS LTDA</t>
         </is>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1098983010680</v>
+        <v>15048124002753</v>
       </c>
       <c r="C51" s="16" t="inlineStr">
         <is>
-          <t>MR011399/2023</t>
+          <t>MR012240/2023</t>
         </is>
       </c>
       <c r="D51" s="5" t="inlineStr">
@@ -64206,20 +64556,20 @@
     <row r="52">
       <c r="A52" s="16" t="inlineStr">
         <is>
-          <t>MARISA LOJAS S.A.</t>
+          <t>IGUASPORT LTDA</t>
         </is>
       </c>
       <c r="B52" s="2" t="n">
-        <v>61189288001908</v>
+        <v>2314041003101</v>
       </c>
       <c r="C52" s="16" t="inlineStr">
         <is>
-          <t>MR011905/2023</t>
+          <t>MR012260/2023</t>
         </is>
       </c>
       <c r="D52" s="5" t="inlineStr">
         <is>
-          <t>SIM</t>
+          <t>NÃO</t>
         </is>
       </c>
       <c r="E52" s="5" t="inlineStr">
@@ -64232,9 +64582,7 @@
           <t>Lojista</t>
         </is>
       </c>
-      <c r="G52" s="22" t="n">
-        <v>45001</v>
-      </c>
+      <c r="G52" s="22" t="n"/>
       <c r="H52" s="5">
         <f>IFERROR(VLOOKUP(I52,regs!H:I,2,0),"")</f>
         <v/>
@@ -64251,15 +64599,15 @@
     <row r="53">
       <c r="A53" s="16" t="inlineStr">
         <is>
-          <t>AVENUE HOCHE COMERCIO VAREJISTA DE PRODUTOS LTDA</t>
+          <t>TELLERINA COMERCIO DE PRESENTES E ARTIGOS PARA DECORACAO S.A.</t>
         </is>
       </c>
       <c r="B53" s="2" t="n">
-        <v>15048124002753</v>
+        <v>84453844046412</v>
       </c>
       <c r="C53" s="16" t="inlineStr">
         <is>
-          <t>MR012240/2023</t>
+          <t>MR012288/2023</t>
         </is>
       </c>
       <c r="D53" s="5" t="inlineStr">
@@ -64294,15 +64642,15 @@
     <row r="54">
       <c r="A54" s="16" t="inlineStr">
         <is>
-          <t>IGUASPORT LTDA</t>
+          <t>BROOKSDONNA COMERCIO DE ROUPAS LTDA.</t>
         </is>
       </c>
       <c r="B54" s="2" t="n">
-        <v>2314041003101</v>
+        <v>11014557000955</v>
       </c>
       <c r="C54" s="16" t="inlineStr">
         <is>
-          <t>MR012260/2023</t>
+          <t>MR012294/2023</t>
         </is>
       </c>
       <c r="D54" s="5" t="inlineStr">
@@ -64337,20 +64685,20 @@
     <row r="55">
       <c r="A55" s="16" t="inlineStr">
         <is>
-          <t>TELLERINA COMERCIO DE PRESENTES E ARTIGOS PARA DECORACAO S.A.</t>
+          <t>VIA VENETO ROUPAS LTDA</t>
         </is>
       </c>
       <c r="B55" s="2" t="n">
-        <v>84453844046412</v>
+        <v>47100110002566</v>
       </c>
       <c r="C55" s="16" t="inlineStr">
         <is>
-          <t>MR012288/2023</t>
+          <t>MR012306/2023</t>
         </is>
       </c>
       <c r="D55" s="5" t="inlineStr">
         <is>
-          <t>NÃO</t>
+          <t>SIM</t>
         </is>
       </c>
       <c r="E55" s="5" t="inlineStr">
@@ -64363,7 +64711,9 @@
           <t>Lojista</t>
         </is>
       </c>
-      <c r="G55" s="22" t="n"/>
+      <c r="G55" s="22" t="n">
+        <v>45065</v>
+      </c>
       <c r="H55" s="5">
         <f>IFERROR(VLOOKUP(I55,regs!H:I,2,0),"")</f>
         <v/>
@@ -64380,15 +64730,15 @@
     <row r="56">
       <c r="A56" s="16" t="inlineStr">
         <is>
-          <t>BROOKSDONNA COMERCIO DE ROUPAS LTDA.</t>
+          <t>MR AGUIAR PET SHOP LTDA.</t>
         </is>
       </c>
       <c r="B56" s="2" t="n">
-        <v>11014557000955</v>
+        <v>17574281000199</v>
       </c>
       <c r="C56" s="16" t="inlineStr">
         <is>
-          <t>MR012294/2023</t>
+          <t>MR012796/2023</t>
         </is>
       </c>
       <c r="D56" s="5" t="inlineStr">
@@ -64423,15 +64773,15 @@
     <row r="57">
       <c r="A57" s="16" t="inlineStr">
         <is>
-          <t>VIA VENETO ROUPAS LTDA</t>
+          <t>ISLA COMERCIO DE CONFECCOES LTDA</t>
         </is>
       </c>
       <c r="B57" s="2" t="n">
-        <v>47100110002566</v>
+        <v>20593518000274</v>
       </c>
       <c r="C57" s="16" t="inlineStr">
         <is>
-          <t>MR012306/2023</t>
+          <t>MR012976/2023</t>
         </is>
       </c>
       <c r="D57" s="5" t="inlineStr">
@@ -64450,7 +64800,7 @@
         </is>
       </c>
       <c r="G57" s="22" t="n">
-        <v>45065</v>
+        <v>45021</v>
       </c>
       <c r="H57" s="5">
         <f>IFERROR(VLOOKUP(I57,regs!H:I,2,0),"")</f>
@@ -64468,15 +64818,15 @@
     <row r="58">
       <c r="A58" s="16" t="inlineStr">
         <is>
-          <t>MR AGUIAR PET SHOP LTDA.</t>
+          <t>ELSAN COMERCIO VAREJISTA DE MOVEIS LTDA</t>
         </is>
       </c>
       <c r="B58" s="2" t="n">
-        <v>17574281000199</v>
+        <v>44496590000160</v>
       </c>
       <c r="C58" s="16" t="inlineStr">
         <is>
-          <t>MR012796/2023</t>
+          <t>MR014682/2023</t>
         </is>
       </c>
       <c r="D58" s="5" t="inlineStr">
@@ -64511,20 +64861,20 @@
     <row r="59">
       <c r="A59" s="16" t="inlineStr">
         <is>
-          <t>ISLA COMERCIO DE CONFECCOES LTDA</t>
+          <t>ALIDAN COMERCIO VAREJISTA DE MOVEIS LTDA</t>
         </is>
       </c>
       <c r="B59" s="2" t="n">
-        <v>20593518000274</v>
+        <v>44571005000140</v>
       </c>
       <c r="C59" s="16" t="inlineStr">
         <is>
-          <t>MR012976/2023</t>
+          <t>MR014684/2023</t>
         </is>
       </c>
       <c r="D59" s="5" t="inlineStr">
         <is>
-          <t>SIM</t>
+          <t>NÃO</t>
         </is>
       </c>
       <c r="E59" s="5" t="inlineStr">
@@ -64537,9 +64887,7 @@
           <t>Lojista</t>
         </is>
       </c>
-      <c r="G59" s="22" t="n">
-        <v>45021</v>
-      </c>
+      <c r="G59" s="22" t="n"/>
       <c r="H59" s="5">
         <f>IFERROR(VLOOKUP(I59,regs!H:I,2,0),"")</f>
         <v/>
@@ -64556,15 +64904,15 @@
     <row r="60">
       <c r="A60" s="16" t="inlineStr">
         <is>
-          <t>ELSAN COMERCIO VAREJISTA DE MOVEIS LTDA</t>
+          <t>G A RAMOS COMERCIO VAREJISTA DE MOVEIS LTDA</t>
         </is>
       </c>
       <c r="B60" s="2" t="n">
-        <v>44496590000160</v>
+        <v>40740267000130</v>
       </c>
       <c r="C60" s="16" t="inlineStr">
         <is>
-          <t>MR014682/2023</t>
+          <t>MR014685/2023</t>
         </is>
       </c>
       <c r="D60" s="5" t="inlineStr">
@@ -64599,15 +64947,15 @@
     <row r="61">
       <c r="A61" s="16" t="inlineStr">
         <is>
-          <t>ALIDAN COMERCIO VAREJISTA DE MOVEIS LTDA</t>
+          <t>ANPIN COMERCIO VAREJISTA DE MOVEIS LTDA</t>
         </is>
       </c>
       <c r="B61" s="2" t="n">
-        <v>44571005000140</v>
+        <v>44579574000131</v>
       </c>
       <c r="C61" s="16" t="inlineStr">
         <is>
-          <t>MR014684/2023</t>
+          <t>MR014687/2023</t>
         </is>
       </c>
       <c r="D61" s="5" t="inlineStr">
@@ -64642,15 +64990,15 @@
     <row r="62">
       <c r="A62" s="16" t="inlineStr">
         <is>
-          <t>G A RAMOS COMERCIO VAREJISTA DE MOVEIS LTDA</t>
+          <t>LUFEO COMERCIO VAREJISTA DE MOVEIS LTDA</t>
         </is>
       </c>
       <c r="B62" s="2" t="n">
-        <v>40740267000130</v>
+        <v>39158117000133</v>
       </c>
       <c r="C62" s="16" t="inlineStr">
         <is>
-          <t>MR014685/2023</t>
+          <t>MR014688/2023</t>
         </is>
       </c>
       <c r="D62" s="5" t="inlineStr">
@@ -64685,20 +65033,20 @@
     <row r="63">
       <c r="A63" s="16" t="inlineStr">
         <is>
-          <t>ANPIN COMERCIO VAREJISTA DE MOVEIS LTDA</t>
+          <t>AFA - INDUSTRIA E COMERCIO DE ARTIGOS ESPORTIVOS LTDA</t>
         </is>
       </c>
       <c r="B63" s="2" t="n">
-        <v>44579574000131</v>
+        <v>4038697000140</v>
       </c>
       <c r="C63" s="16" t="inlineStr">
         <is>
-          <t>MR014687/2023</t>
+          <t>MR019110/2023</t>
         </is>
       </c>
       <c r="D63" s="5" t="inlineStr">
         <is>
-          <t>NÃO</t>
+          <t>SIM</t>
         </is>
       </c>
       <c r="E63" s="5" t="inlineStr">
@@ -64711,7 +65059,9 @@
           <t>Lojista</t>
         </is>
       </c>
-      <c r="G63" s="22" t="n"/>
+      <c r="G63" s="22" t="n">
+        <v>45043</v>
+      </c>
       <c r="H63" s="5">
         <f>IFERROR(VLOOKUP(I63,regs!H:I,2,0),"")</f>
         <v/>
@@ -64728,15 +65078,15 @@
     <row r="64">
       <c r="A64" s="16" t="inlineStr">
         <is>
-          <t>LUFEO COMERCIO VAREJISTA DE MOVEIS LTDA</t>
+          <t>KALI SHOES COMERCIO DE CALCADOS LTDA</t>
         </is>
       </c>
       <c r="B64" s="2" t="n">
-        <v>39158117000133</v>
+        <v>46494237000177</v>
       </c>
       <c r="C64" s="16" t="inlineStr">
         <is>
-          <t>MR014688/2023</t>
+          <t>MR020745/2023</t>
         </is>
       </c>
       <c r="D64" s="5" t="inlineStr">
@@ -64771,15 +65121,15 @@
     <row r="65">
       <c r="A65" s="16" t="inlineStr">
         <is>
-          <t>AFA - INDUSTRIA E COMERCIO DE ARTIGOS ESPORTIVOS LTDA</t>
+          <t>BEL PERFUMES, COSMETICOS E PRESENTES LTDA</t>
         </is>
       </c>
       <c r="B65" s="2" t="n">
-        <v>4038697000140</v>
+        <v>10413732000167</v>
       </c>
       <c r="C65" s="16" t="inlineStr">
         <is>
-          <t>MR019110/2023</t>
+          <t>MR021095/2023</t>
         </is>
       </c>
       <c r="D65" s="5" t="inlineStr">
@@ -64798,7 +65148,7 @@
         </is>
       </c>
       <c r="G65" s="22" t="n">
-        <v>45043</v>
+        <v>45048</v>
       </c>
       <c r="H65" s="5">
         <f>IFERROR(VLOOKUP(I65,regs!H:I,2,0),"")</f>
@@ -64816,15 +65166,15 @@
     <row r="66">
       <c r="A66" s="16" t="inlineStr">
         <is>
-          <t>KALI SHOES COMERCIO DE CALCADOS LTDA</t>
+          <t>RI HAPPY BRINQUEDOS S.A.</t>
         </is>
       </c>
       <c r="B66" s="2" t="n">
-        <v>46494237000177</v>
+        <v>58731662010184</v>
       </c>
       <c r="C66" s="16" t="inlineStr">
         <is>
-          <t>MR020745/2023</t>
+          <t>MR021212/2023</t>
         </is>
       </c>
       <c r="D66" s="5" t="inlineStr">
@@ -64859,20 +65209,20 @@
     <row r="67">
       <c r="A67" s="16" t="inlineStr">
         <is>
-          <t>BEL PERFUMES, COSMETICOS E PRESENTES LTDA</t>
+          <t>SUPERMERCADO F &amp; K LTDA</t>
         </is>
       </c>
       <c r="B67" s="2" t="n">
-        <v>10413732000167</v>
+        <v>9416879000121</v>
       </c>
       <c r="C67" s="16" t="inlineStr">
         <is>
-          <t>MR021095/2023</t>
+          <t>MR022190/2023</t>
         </is>
       </c>
       <c r="D67" s="5" t="inlineStr">
         <is>
-          <t>SIM</t>
+          <t>NÃO</t>
         </is>
       </c>
       <c r="E67" s="5" t="inlineStr">
@@ -64882,12 +65232,10 @@
       </c>
       <c r="F67" s="5" t="inlineStr">
         <is>
-          <t>Lojista</t>
-        </is>
-      </c>
-      <c r="G67" s="22" t="n">
-        <v>45048</v>
-      </c>
+          <t>Mercado</t>
+        </is>
+      </c>
+      <c r="G67" s="22" t="n"/>
       <c r="H67" s="5">
         <f>IFERROR(VLOOKUP(I67,regs!H:I,2,0),"")</f>
         <v/>
@@ -64904,15 +65252,15 @@
     <row r="68">
       <c r="A68" s="16" t="inlineStr">
         <is>
-          <t>RI HAPPY BRINQUEDOS S.A.</t>
+          <t>MERCADO MINAS GERAIS LTDA</t>
         </is>
       </c>
       <c r="B68" s="2" t="n">
-        <v>58731662010184</v>
+        <v>5520581000106</v>
       </c>
       <c r="C68" s="16" t="inlineStr">
         <is>
-          <t>MR021212/2023</t>
+          <t>MR022285/2023</t>
         </is>
       </c>
       <c r="D68" s="5" t="inlineStr">
@@ -64927,7 +65275,7 @@
       </c>
       <c r="F68" s="5" t="inlineStr">
         <is>
-          <t>Lojista</t>
+          <t>Mercado</t>
         </is>
       </c>
       <c r="G68" s="22" t="n"/>
@@ -64947,15 +65295,15 @@
     <row r="69">
       <c r="A69" s="16" t="inlineStr">
         <is>
-          <t>SUPERMERCADO F &amp; K LTDA</t>
+          <t>CESRAN RECRUTAMENTO E SELECAO DE PESSOAL LTDA</t>
         </is>
       </c>
       <c r="B69" s="2" t="n">
-        <v>9416879000121</v>
+        <v>49995556000154</v>
       </c>
       <c r="C69" s="16" t="inlineStr">
         <is>
-          <t>MR022190/2023</t>
+          <t>MR022523/2023</t>
         </is>
       </c>
       <c r="D69" s="5" t="inlineStr">
@@ -64970,7 +65318,7 @@
       </c>
       <c r="F69" s="5" t="inlineStr">
         <is>
-          <t>Mercado</t>
+          <t>Lojista</t>
         </is>
       </c>
       <c r="G69" s="22" t="n"/>
@@ -64990,20 +65338,20 @@
     <row r="70">
       <c r="A70" s="16" t="inlineStr">
         <is>
-          <t>MERCADO MINAS GERAIS LTDA</t>
+          <t>CRISTALL MIX LTDA</t>
         </is>
       </c>
       <c r="B70" s="2" t="n">
-        <v>5520581000106</v>
+        <v>48453787000173</v>
       </c>
       <c r="C70" s="16" t="inlineStr">
         <is>
-          <t>MR022285/2023</t>
+          <t>MR022751/2023</t>
         </is>
       </c>
       <c r="D70" s="5" t="inlineStr">
         <is>
-          <t>NÃO</t>
+          <t>SIM</t>
         </is>
       </c>
       <c r="E70" s="5" t="inlineStr">
@@ -65013,10 +65361,12 @@
       </c>
       <c r="F70" s="5" t="inlineStr">
         <is>
-          <t>Mercado</t>
-        </is>
-      </c>
-      <c r="G70" s="22" t="n"/>
+          <t>Lojista</t>
+        </is>
+      </c>
+      <c r="G70" s="22" t="n">
+        <v>45114</v>
+      </c>
       <c r="H70" s="5">
         <f>IFERROR(VLOOKUP(I70,regs!H:I,2,0),"")</f>
         <v/>
@@ -65033,20 +65383,20 @@
     <row r="71">
       <c r="A71" s="16" t="inlineStr">
         <is>
-          <t>CESRAN RECRUTAMENTO E SELECAO DE PESSOAL LTDA</t>
+          <t>ARMAZEM BOMGADO GA LTDA</t>
         </is>
       </c>
       <c r="B71" s="2" t="n">
-        <v>49995556000154</v>
+        <v>38824899000130</v>
       </c>
       <c r="C71" s="16" t="inlineStr">
         <is>
-          <t>MR022523/2023</t>
+          <t>MR022759/2023</t>
         </is>
       </c>
       <c r="D71" s="5" t="inlineStr">
         <is>
-          <t>NÃO</t>
+          <t>SIM</t>
         </is>
       </c>
       <c r="E71" s="5" t="inlineStr">
@@ -65056,10 +65406,12 @@
       </c>
       <c r="F71" s="5" t="inlineStr">
         <is>
-          <t>Lojista</t>
-        </is>
-      </c>
-      <c r="G71" s="22" t="n"/>
+          <t>Mercado</t>
+        </is>
+      </c>
+      <c r="G71" s="22" t="n">
+        <v>45058</v>
+      </c>
       <c r="H71" s="5">
         <f>IFERROR(VLOOKUP(I71,regs!H:I,2,0),"")</f>
         <v/>
@@ -65076,20 +65428,20 @@
     <row r="72">
       <c r="A72" s="16" t="inlineStr">
         <is>
-          <t>CRISTALL MIX LTDA</t>
+          <t>PAULA H OBJETOS DECORATIVOS E PRESENTES LTDA</t>
         </is>
       </c>
       <c r="B72" s="2" t="n">
-        <v>48453787000173</v>
+        <v>2721404000108</v>
       </c>
       <c r="C72" s="16" t="inlineStr">
         <is>
-          <t>MR022751/2023</t>
+          <t>MR022848/2023</t>
         </is>
       </c>
       <c r="D72" s="5" t="inlineStr">
         <is>
-          <t>NÃO</t>
+          <t>SIM</t>
         </is>
       </c>
       <c r="E72" s="5" t="inlineStr">
@@ -65102,7 +65454,9 @@
           <t>Lojista</t>
         </is>
       </c>
-      <c r="G72" s="22" t="n"/>
+      <c r="G72" s="22" t="n">
+        <v>45057</v>
+      </c>
       <c r="H72" s="5">
         <f>IFERROR(VLOOKUP(I72,regs!H:I,2,0),"")</f>
         <v/>
@@ -65119,15 +65473,15 @@
     <row r="73">
       <c r="A73" s="16" t="inlineStr">
         <is>
-          <t>ARMAZEM BOMGADO GA LTDA</t>
+          <t>SERGIO PEDRO TONIOLO</t>
         </is>
       </c>
       <c r="B73" s="2" t="n">
-        <v>38824899000130</v>
+        <v>94678224000109</v>
       </c>
       <c r="C73" s="16" t="inlineStr">
         <is>
-          <t>MR022759/2023</t>
+          <t>MR023039/2023</t>
         </is>
       </c>
       <c r="D73" s="5" t="inlineStr">
@@ -65146,7 +65500,7 @@
         </is>
       </c>
       <c r="G73" s="22" t="n">
-        <v>45058</v>
+        <v>45057</v>
       </c>
       <c r="H73" s="5">
         <f>IFERROR(VLOOKUP(I73,regs!H:I,2,0),"")</f>
@@ -65164,20 +65518,20 @@
     <row r="74">
       <c r="A74" s="16" t="inlineStr">
         <is>
-          <t>PAULA H OBJETOS DECORATIVOS E PRESENTES LTDA</t>
+          <t>K2 COMERCIO E INDUSTRIA LTDA</t>
         </is>
       </c>
       <c r="B74" s="2" t="n">
-        <v>2721404000108</v>
+        <v>1167639000714</v>
       </c>
       <c r="C74" s="16" t="inlineStr">
         <is>
-          <t>MR022848/2023</t>
+          <t>MR026862/2023</t>
         </is>
       </c>
       <c r="D74" s="5" t="inlineStr">
         <is>
-          <t>SIM</t>
+          <t>NÃO</t>
         </is>
       </c>
       <c r="E74" s="5" t="inlineStr">
@@ -65190,9 +65544,7 @@
           <t>Lojista</t>
         </is>
       </c>
-      <c r="G74" s="22" t="n">
-        <v>45057</v>
-      </c>
+      <c r="G74" s="22" t="n"/>
       <c r="H74" s="5">
         <f>IFERROR(VLOOKUP(I74,regs!H:I,2,0),"")</f>
         <v/>
@@ -65209,15 +65561,15 @@
     <row r="75">
       <c r="A75" s="16" t="inlineStr">
         <is>
-          <t>SERGIO PEDRO TONIOLO</t>
+          <t>SINDICATO DOS CONCESSIONARIOS E DISTRIBUIDORES DE VEICULOS NO ESTADO DO RIO GRANDE DO SUL - SINCODIV/RS</t>
         </is>
       </c>
       <c r="B75" s="2" t="n">
-        <v>94678224000109</v>
+        <v>4243203000160</v>
       </c>
       <c r="C75" s="16" t="inlineStr">
         <is>
-          <t>MR023039/2023</t>
+          <t>MR029222/2023</t>
         </is>
       </c>
       <c r="D75" s="5" t="inlineStr">
@@ -65227,16 +65579,16 @@
       </c>
       <c r="E75" s="5" t="inlineStr">
         <is>
-          <t>Domingos e feriados</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="F75" s="5" t="inlineStr">
         <is>
-          <t>Mercado</t>
+          <t>Indeterminado</t>
         </is>
       </c>
       <c r="G75" s="22" t="n">
-        <v>45057</v>
+        <v>45084</v>
       </c>
       <c r="H75" s="5">
         <f>IFERROR(VLOOKUP(I75,regs!H:I,2,0),"")</f>
@@ -65254,20 +65606,20 @@
     <row r="76">
       <c r="A76" s="16" t="inlineStr">
         <is>
-          <t>SUPER PRIMAZ LTDA</t>
+          <t>JFAV COMERCIO DO VESTUARIO E ACESSORIOS INFANTIS LTDA</t>
         </is>
       </c>
       <c r="B76" s="2" t="n">
-        <v>25424804000149</v>
+        <v>45004810000154</v>
       </c>
       <c r="C76" s="16" t="inlineStr">
         <is>
-          <t>MR023575/2023</t>
+          <t>MR030430/2023</t>
         </is>
       </c>
       <c r="D76" s="5" t="inlineStr">
         <is>
-          <t>SIM</t>
+          <t>NÃO</t>
         </is>
       </c>
       <c r="E76" s="5" t="inlineStr">
@@ -65277,12 +65629,10 @@
       </c>
       <c r="F76" s="5" t="inlineStr">
         <is>
-          <t>Mercado</t>
-        </is>
-      </c>
-      <c r="G76" s="22" t="n">
-        <v>45061</v>
-      </c>
+          <t>Lojista</t>
+        </is>
+      </c>
+      <c r="G76" s="22" t="n"/>
       <c r="H76" s="5">
         <f>IFERROR(VLOOKUP(I76,regs!H:I,2,0),"")</f>
         <v/>
@@ -65299,20 +65649,20 @@
     <row r="77">
       <c r="A77" s="16" t="inlineStr">
         <is>
-          <t>K2 COMERCIO E INDUSTRIA LTDA</t>
+          <t>VISSOMZ ABASTE ESPECIAL DE ESSENCIAS ROGE COMERCIO LTDA</t>
         </is>
       </c>
       <c r="B77" s="2" t="n">
-        <v>1167639000714</v>
+        <v>93866739000161</v>
       </c>
       <c r="C77" s="16" t="inlineStr">
         <is>
-          <t>MR026862/2023</t>
+          <t>MR030541/2023</t>
         </is>
       </c>
       <c r="D77" s="5" t="inlineStr">
         <is>
-          <t>NÃO</t>
+          <t>SIM</t>
         </is>
       </c>
       <c r="E77" s="5" t="inlineStr">
@@ -65325,7 +65675,9 @@
           <t>Lojista</t>
         </is>
       </c>
-      <c r="G77" s="22" t="n"/>
+      <c r="G77" s="22" t="n">
+        <v>45103</v>
+      </c>
       <c r="H77" s="5">
         <f>IFERROR(VLOOKUP(I77,regs!H:I,2,0),"")</f>
         <v/>
@@ -65342,25 +65694,25 @@
     <row r="78">
       <c r="A78" s="16" t="inlineStr">
         <is>
-          <t>HUGO BOSS DO BRASIL LTDA</t>
+          <t>QDBVISS - ABASTECIMENTO ESPECIAL DE PRODUTOS DE BELEZA LTDA</t>
         </is>
       </c>
       <c r="B78" s="2" t="n">
-        <v>57621054002135</v>
+        <v>19187523000117</v>
       </c>
       <c r="C78" s="16" t="inlineStr">
         <is>
-          <t>MR028821/2023</t>
+          <t>MR030545/2023</t>
         </is>
       </c>
       <c r="D78" s="5" t="inlineStr">
         <is>
-          <t>SIM</t>
+          <t>NÃO</t>
         </is>
       </c>
       <c r="E78" s="5" t="inlineStr">
         <is>
-          <t>Domingos e feriados</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="F78" s="5" t="inlineStr">
@@ -65368,9 +65720,7 @@
           <t>Lojista</t>
         </is>
       </c>
-      <c r="G78" s="22" t="n">
-        <v>45090</v>
-      </c>
+      <c r="G78" s="22" t="n"/>
       <c r="H78" s="5">
         <f>IFERROR(VLOOKUP(I78,regs!H:I,2,0),"")</f>
         <v/>
@@ -65387,35 +65737,33 @@
     <row r="79">
       <c r="A79" s="16" t="inlineStr">
         <is>
-          <t>SINDICATO DOS CONCESSIONARIOS E DISTRIBUIDORES DE VEICULOS NO ESTADO DO RIO GRANDE DO SUL - SINCODIV/RS</t>
+          <t>QDBVISS - ABASTECIMENTO ESPECIAL DE PRODUTOS DE BELEZA LTDA</t>
         </is>
       </c>
       <c r="B79" s="2" t="n">
-        <v>4243203000160</v>
+        <v>19187523000206</v>
       </c>
       <c r="C79" s="16" t="inlineStr">
         <is>
-          <t>MR029222/2023</t>
+          <t>MR030896/2023</t>
         </is>
       </c>
       <c r="D79" s="5" t="inlineStr">
         <is>
-          <t>SIM</t>
+          <t>NÃO</t>
         </is>
       </c>
       <c r="E79" s="5" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Domingos e feriados</t>
         </is>
       </c>
       <c r="F79" s="5" t="inlineStr">
         <is>
-          <t>Indeterminado</t>
-        </is>
-      </c>
-      <c r="G79" s="22" t="n">
-        <v>45084</v>
-      </c>
+          <t>Lojista</t>
+        </is>
+      </c>
+      <c r="G79" s="22" t="n"/>
       <c r="H79" s="5">
         <f>IFERROR(VLOOKUP(I79,regs!H:I,2,0),"")</f>
         <v/>
@@ -65432,20 +65780,20 @@
     <row r="80">
       <c r="A80" s="16" t="inlineStr">
         <is>
-          <t>JFAV COMERCIO DO VESTUARIO E ACESSORIOS INFANTIS LTDA</t>
+          <t>AGENSUL - COMERCIO DE PERFUMARIA LTDA</t>
         </is>
       </c>
       <c r="B80" s="2" t="n">
-        <v>45004810000154</v>
+        <v>92916907000113</v>
       </c>
       <c r="C80" s="16" t="inlineStr">
         <is>
-          <t>MR030430/2023</t>
+          <t>MR031783/2023</t>
         </is>
       </c>
       <c r="D80" s="5" t="inlineStr">
         <is>
-          <t>NÃO</t>
+          <t>SIM</t>
         </is>
       </c>
       <c r="E80" s="5" t="inlineStr">
@@ -65458,7 +65806,9 @@
           <t>Lojista</t>
         </is>
       </c>
-      <c r="G80" s="22" t="n"/>
+      <c r="G80" s="22" t="n">
+        <v>45097</v>
+      </c>
       <c r="H80" s="5">
         <f>IFERROR(VLOOKUP(I80,regs!H:I,2,0),"")</f>
         <v/>
@@ -65475,15 +65825,15 @@
     <row r="81">
       <c r="A81" s="16" t="inlineStr">
         <is>
-          <t>VISSOMZ ABASTE ESPECIAL DE ESSENCIAS ROGE COMERCIO LTDA</t>
+          <t>DOM COMERCIO DE PERFUMARIA E COSMETICOS LTDA</t>
         </is>
       </c>
       <c r="B81" s="2" t="n">
-        <v>93866739000161</v>
+        <v>14335320000298</v>
       </c>
       <c r="C81" s="16" t="inlineStr">
         <is>
-          <t>MR030541/2023</t>
+          <t>MR031797/2023</t>
         </is>
       </c>
       <c r="D81" s="5" t="inlineStr">
@@ -65502,7 +65852,7 @@
         </is>
       </c>
       <c r="G81" s="22" t="n">
-        <v>45103</v>
+        <v>45097</v>
       </c>
       <c r="H81" s="5">
         <f>IFERROR(VLOOKUP(I81,regs!H:I,2,0),"")</f>
@@ -65520,25 +65870,25 @@
     <row r="82">
       <c r="A82" s="16" t="inlineStr">
         <is>
-          <t>QDBVISS - ABASTECIMENTO ESPECIAL DE PRODUTOS DE BELEZA LTDA</t>
+          <t>CH COMERCIO DE PERFUMARIA E COSMETICOS LTDA</t>
         </is>
       </c>
       <c r="B82" s="2" t="n">
-        <v>19187523000117</v>
+        <v>14327879000195</v>
       </c>
       <c r="C82" s="16" t="inlineStr">
         <is>
-          <t>MR030545/2023</t>
+          <t>MR031802/2023</t>
         </is>
       </c>
       <c r="D82" s="5" t="inlineStr">
         <is>
-          <t>NÃO</t>
+          <t>SIM</t>
         </is>
       </c>
       <c r="E82" s="5" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Domingos e feriados</t>
         </is>
       </c>
       <c r="F82" s="5" t="inlineStr">
@@ -65546,7 +65896,9 @@
           <t>Lojista</t>
         </is>
       </c>
-      <c r="G82" s="22" t="n"/>
+      <c r="G82" s="22" t="n">
+        <v>45097</v>
+      </c>
       <c r="H82" s="5">
         <f>IFERROR(VLOOKUP(I82,regs!H:I,2,0),"")</f>
         <v/>
@@ -65563,20 +65915,20 @@
     <row r="83">
       <c r="A83" s="16" t="inlineStr">
         <is>
-          <t>QDBVISS - ABASTECIMENTO ESPECIAL DE PRODUTOS DE BELEZA LTDA</t>
+          <t>PULZ COMERCIO DE IMPORTADOS LTDA</t>
         </is>
       </c>
       <c r="B83" s="2" t="n">
-        <v>19187523000206</v>
+        <v>6051394000860</v>
       </c>
       <c r="C83" s="16" t="inlineStr">
         <is>
-          <t>MR030896/2023</t>
+          <t>MR034380/2023</t>
         </is>
       </c>
       <c r="D83" s="5" t="inlineStr">
         <is>
-          <t>NÃO</t>
+          <t>SIM</t>
         </is>
       </c>
       <c r="E83" s="5" t="inlineStr">
@@ -65589,7 +65941,9 @@
           <t>Lojista</t>
         </is>
       </c>
-      <c r="G83" s="22" t="n"/>
+      <c r="G83" s="22" t="n">
+        <v>45104</v>
+      </c>
       <c r="H83" s="5">
         <f>IFERROR(VLOOKUP(I83,regs!H:I,2,0),"")</f>
         <v/>
@@ -65606,20 +65960,20 @@
     <row r="84">
       <c r="A84" s="16" t="inlineStr">
         <is>
-          <t>MBM CIA LTDA</t>
+          <t>PITUCHINHUS INDUSTRIA E COMERCIO DE CONFECCOES LTDA</t>
         </is>
       </c>
       <c r="B84" s="2" t="n">
-        <v>49741072000189</v>
+        <v>68765825000564</v>
       </c>
       <c r="C84" s="16" t="inlineStr">
         <is>
-          <t>MR031021/2023</t>
+          <t>MR034407/2023</t>
         </is>
       </c>
       <c r="D84" s="5" t="inlineStr">
         <is>
-          <t>SIM</t>
+          <t>NÃO</t>
         </is>
       </c>
       <c r="E84" s="5" t="inlineStr">
@@ -65632,9 +65986,7 @@
           <t>Lojista</t>
         </is>
       </c>
-      <c r="G84" s="22" t="n">
-        <v>45097</v>
-      </c>
+      <c r="G84" s="22" t="n"/>
       <c r="H84" s="5">
         <f>IFERROR(VLOOKUP(I84,regs!H:I,2,0),"")</f>
         <v/>
@@ -65651,20 +66003,20 @@
     <row r="85">
       <c r="A85" s="16" t="inlineStr">
         <is>
-          <t>AGENSUL - COMERCIO DE PERFUMARIA LTDA</t>
+          <t>DIAS &amp; CIA LTDA</t>
         </is>
       </c>
       <c r="B85" s="2" t="n">
-        <v>92916907000113</v>
+        <v>3238893000104</v>
       </c>
       <c r="C85" s="16" t="inlineStr">
         <is>
-          <t>MR031783/2023</t>
+          <t>MR035469/2023</t>
         </is>
       </c>
       <c r="D85" s="5" t="inlineStr">
         <is>
-          <t>SIM</t>
+          <t>NÃO</t>
         </is>
       </c>
       <c r="E85" s="5" t="inlineStr">
@@ -65677,9 +66029,7 @@
           <t>Lojista</t>
         </is>
       </c>
-      <c r="G85" s="22" t="n">
-        <v>45097</v>
-      </c>
+      <c r="G85" s="22" t="n"/>
       <c r="H85" s="5">
         <f>IFERROR(VLOOKUP(I85,regs!H:I,2,0),"")</f>
         <v/>
@@ -65696,20 +66046,20 @@
     <row r="86">
       <c r="A86" s="16" t="inlineStr">
         <is>
-          <t>DOM COMERCIO DE PERFUMARIA E COSMETICOS LTDA</t>
+          <t>TRAMONTINA STORE COMERCIO VAREJISTA LTDA.</t>
         </is>
       </c>
       <c r="B86" s="2" t="n">
-        <v>14335320000298</v>
+        <v>7635498002151</v>
       </c>
       <c r="C86" s="16" t="inlineStr">
         <is>
-          <t>MR031797/2023</t>
+          <t>MR037129/2023</t>
         </is>
       </c>
       <c r="D86" s="5" t="inlineStr">
         <is>
-          <t>SIM</t>
+          <t>NÃO</t>
         </is>
       </c>
       <c r="E86" s="5" t="inlineStr">
@@ -65722,9 +66072,7 @@
           <t>Lojista</t>
         </is>
       </c>
-      <c r="G86" s="22" t="n">
-        <v>45097</v>
-      </c>
+      <c r="G86" s="22" t="n"/>
       <c r="H86" s="5">
         <f>IFERROR(VLOOKUP(I86,regs!H:I,2,0),"")</f>
         <v/>
@@ -65741,20 +66089,20 @@
     <row r="87">
       <c r="A87" s="16" t="inlineStr">
         <is>
-          <t>CH COMERCIO DE PERFUMARIA E COSMETICOS LTDA</t>
+          <t>GW MODA LTDA</t>
         </is>
       </c>
       <c r="B87" s="2" t="n">
-        <v>14327879000195</v>
+        <v>48041675000296</v>
       </c>
       <c r="C87" s="16" t="inlineStr">
         <is>
-          <t>MR031802/2023</t>
+          <t>MR037493/2023</t>
         </is>
       </c>
       <c r="D87" s="5" t="inlineStr">
         <is>
-          <t>SIM</t>
+          <t>NÃO</t>
         </is>
       </c>
       <c r="E87" s="5" t="inlineStr">
@@ -65767,9 +66115,7 @@
           <t>Lojista</t>
         </is>
       </c>
-      <c r="G87" s="22" t="n">
-        <v>45097</v>
-      </c>
+      <c r="G87" s="22" t="n"/>
       <c r="H87" s="5">
         <f>IFERROR(VLOOKUP(I87,regs!H:I,2,0),"")</f>
         <v/>
@@ -65786,20 +66132,20 @@
     <row r="88">
       <c r="A88" s="16" t="inlineStr">
         <is>
-          <t>CSW POA LTDA</t>
+          <t>GISLAYNE CRISTINA DA SILVA</t>
         </is>
       </c>
       <c r="B88" s="2" t="n">
-        <v>42739885000195</v>
+        <v>31924748000104</v>
       </c>
       <c r="C88" s="16" t="inlineStr">
         <is>
-          <t>MR034076/2023</t>
+          <t>MR037627/2023</t>
         </is>
       </c>
       <c r="D88" s="5" t="inlineStr">
         <is>
-          <t>SIM</t>
+          <t>NÃO</t>
         </is>
       </c>
       <c r="E88" s="5" t="inlineStr">
@@ -65812,9 +66158,7 @@
           <t>Lojista</t>
         </is>
       </c>
-      <c r="G88" s="22" t="n">
-        <v>45104</v>
-      </c>
+      <c r="G88" s="22" t="n"/>
       <c r="H88" s="5">
         <f>IFERROR(VLOOKUP(I88,regs!H:I,2,0),"")</f>
         <v/>
@@ -65831,20 +66175,20 @@
     <row r="89">
       <c r="A89" s="16" t="inlineStr">
         <is>
-          <t>PULZ COMERCIO DE IMPORTADOS LTDA</t>
+          <t>MARCELO LEANDRO BEILKE ILHA</t>
         </is>
       </c>
       <c r="B89" s="2" t="n">
-        <v>6051394000860</v>
+        <v>31924769000120</v>
       </c>
       <c r="C89" s="16" t="inlineStr">
         <is>
-          <t>MR034380/2023</t>
+          <t>MR037633/2023</t>
         </is>
       </c>
       <c r="D89" s="5" t="inlineStr">
         <is>
-          <t>SIM</t>
+          <t>NÃO</t>
         </is>
       </c>
       <c r="E89" s="5" t="inlineStr">
@@ -65857,9 +66201,7 @@
           <t>Lojista</t>
         </is>
       </c>
-      <c r="G89" s="22" t="n">
-        <v>45104</v>
-      </c>
+      <c r="G89" s="22" t="n"/>
       <c r="H89" s="5">
         <f>IFERROR(VLOOKUP(I89,regs!H:I,2,0),"")</f>
         <v/>
@@ -65876,15 +66218,15 @@
     <row r="90">
       <c r="A90" s="16" t="inlineStr">
         <is>
-          <t>PITUCHINHUS INDUSTRIA E COMERCIO DE CONFECCOES LTDA</t>
+          <t>BRASILDECOR MOVEIS E DECORACOES LTDA.</t>
         </is>
       </c>
       <c r="B90" s="2" t="n">
-        <v>68765825000564</v>
+        <v>28709695000285</v>
       </c>
       <c r="C90" s="16" t="inlineStr">
         <is>
-          <t>MR034407/2023</t>
+          <t>MR037779/2023</t>
         </is>
       </c>
       <c r="D90" s="5" t="inlineStr">
@@ -65902,7 +66244,7 @@
           <t>Lojista</t>
         </is>
       </c>
-      <c r="G90" s="22" t="n"/>
+      <c r="G90" s="22" t="inlineStr"/>
       <c r="H90" s="5">
         <f>IFERROR(VLOOKUP(I90,regs!H:I,2,0),"")</f>
         <v/>
@@ -65919,15 +66261,15 @@
     <row r="91">
       <c r="A91" s="16" t="inlineStr">
         <is>
-          <t>CENTRAIS DE ABASTECIMENTO DO RIO GRANDE DO SUL SA</t>
+          <t>LVMH FASHION GROUP BRASIL LTDA.</t>
         </is>
       </c>
       <c r="B91" s="2" t="n">
-        <v>92983147000167</v>
+        <v>32331472001942</v>
       </c>
       <c r="C91" s="16" t="inlineStr">
         <is>
-          <t>MR034899/2023</t>
+          <t>MR037799/2023</t>
         </is>
       </c>
       <c r="D91" s="5" t="inlineStr">
@@ -65937,15 +66279,15 @@
       </c>
       <c r="E91" s="5" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Domingos e feriados</t>
         </is>
       </c>
       <c r="F91" s="5" t="inlineStr">
         <is>
-          <t>Atacadista</t>
-        </is>
-      </c>
-      <c r="G91" s="22" t="n"/>
+          <t>Lojista</t>
+        </is>
+      </c>
+      <c r="G91" s="22" t="inlineStr"/>
       <c r="H91" s="5">
         <f>IFERROR(VLOOKUP(I91,regs!H:I,2,0),"")</f>
         <v/>
@@ -67916,8 +68258,8 @@
     <col width="14" customWidth="1" style="32" min="8" max="8"/>
     <col width="9.109375" customWidth="1" style="32" min="9" max="9"/>
     <col width="5.33203125" customWidth="1" style="32" min="10" max="10"/>
-    <col width="9.109375" customWidth="1" style="32" min="11" max="119"/>
-    <col width="9.109375" customWidth="1" style="32" min="120" max="16384"/>
+    <col width="9.109375" customWidth="1" style="32" min="11" max="120"/>
+    <col width="9.109375" customWidth="1" style="32" min="121" max="16384"/>
   </cols>
   <sheetData>
     <row r="1" ht="25.5" customHeight="1" s="32">
@@ -67970,7 +68312,7 @@
         </is>
       </c>
       <c r="C3" s="5" t="n">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="G3" s="4" t="inlineStr">
         <is>
@@ -68024,7 +68366,7 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G6" s="4" t="inlineStr">
         <is>
@@ -68061,7 +68403,7 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G8" s="4" t="inlineStr">
         <is>
@@ -68079,7 +68421,7 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>294</v>
+        <v>303</v>
       </c>
       <c r="G9" s="4" t="inlineStr">
         <is>

--- a/regs.xlsx
+++ b/regs.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr codeName="EstaPasta_de_trabalho"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Program Files (x86)\ACTS Sindec\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E0BD54C-3724-45CD-AD87-93D4EFD84F90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{800D9A9B-16DB-484E-8501-78496E27460C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="780" windowWidth="21840" windowHeight="13140" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7464" uniqueCount="1978">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7489" uniqueCount="1988">
   <si>
     <t>Razão Social</t>
   </si>
@@ -5500,6 +5500,30 @@
     <t>MR042292/2023</t>
   </si>
   <si>
+    <t>MR037633/2023</t>
+  </si>
+  <si>
+    <t>RUN MORE INDUSTRIA DE CONFECCOES LTDA</t>
+  </si>
+  <si>
+    <t>MR045221/2023</t>
+  </si>
+  <si>
+    <t>28/06/2023 - 31/12/2023</t>
+  </si>
+  <si>
+    <t>MR037627/2023</t>
+  </si>
+  <si>
+    <t>LVMH FASHION GROUP BRASIL LTDA.</t>
+  </si>
+  <si>
+    <t>MR037799/2023</t>
+  </si>
+  <si>
+    <t>MR048818/2023</t>
+  </si>
+  <si>
     <t>Possui Req</t>
   </si>
   <si>
@@ -5890,24 +5914,12 @@
     <t>MR035469/2023</t>
   </si>
   <si>
-    <t>MR037627/2023</t>
-  </si>
-  <si>
-    <t>MR037633/2023</t>
-  </si>
-  <si>
     <t>BRASILDECOR MOVEIS E DECORACOES LTDA.</t>
   </si>
   <si>
     <t>MR037779/2023</t>
   </si>
   <si>
-    <t>LVMH FASHION GROUP BRASIL LTDA.</t>
-  </si>
-  <si>
-    <t>MR037799/2023</t>
-  </si>
-  <si>
     <t>MOMENTUS TABACARIA LTDA</t>
   </si>
   <si>
@@ -5953,12 +5965,6 @@
     <t>MR044212/2023</t>
   </si>
   <si>
-    <t>RUN MORE INDUSTRIA DE CONFECCOES LTDA</t>
-  </si>
-  <si>
-    <t>MR045221/2023</t>
-  </si>
-  <si>
     <t>MERCADO CEJEC LTDA</t>
   </si>
   <si>
@@ -5968,7 +5974,31 @@
     <t>MR048596/2023</t>
   </si>
   <si>
-    <t>MR048818/2023</t>
+    <t>VIEZZER &amp; CIA LTDA</t>
+  </si>
+  <si>
+    <t>MR049125/2023</t>
+  </si>
+  <si>
+    <t>J. D. JAQUES</t>
+  </si>
+  <si>
+    <t>MR049127/2023</t>
+  </si>
+  <si>
+    <t>L &amp; A COMERCIO DE CALCADOS LTDA</t>
+  </si>
+  <si>
+    <t>MR049502/2023</t>
+  </si>
+  <si>
+    <t>M &amp; S COMERCIO DE ALIMENTOS LTDA</t>
+  </si>
+  <si>
+    <t>MR049614/2023</t>
+  </si>
+  <si>
+    <t>MR050117/2023</t>
   </si>
   <si>
     <t>Estatística 2023</t>
@@ -6328,7 +6358,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000001-F086-45A3-B66A-1FB05F29C8E9}"/>
+                <c16:uniqueId val="{00000001-47AC-40DF-82E8-6D3A4CA7E109}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -6346,7 +6376,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000003-F086-45A3-B66A-1FB05F29C8E9}"/>
+                <c16:uniqueId val="{00000003-47AC-40DF-82E8-6D3A4CA7E109}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -6433,7 +6463,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-F086-45A3-B66A-1FB05F29C8E9}"/>
+              <c16:uniqueId val="{00000004-47AC-40DF-82E8-6D3A4CA7E109}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -6584,7 +6614,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000001-FFE9-45F4-B529-179A47A5D9E4}"/>
+                <c16:uniqueId val="{00000001-AC38-4535-8461-39DC156B8845}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -6602,7 +6632,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000003-FFE9-45F4-B529-179A47A5D9E4}"/>
+                <c16:uniqueId val="{00000003-AC38-4535-8461-39DC156B8845}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -6679,7 +6709,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>228</c:v>
+                  <c:v>233</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>78</c:v>
@@ -6689,7 +6719,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-FFE9-45F4-B529-179A47A5D9E4}"/>
+              <c16:uniqueId val="{00000004-AC38-4535-8461-39DC156B8845}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -6845,7 +6875,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000001-52CC-439F-810C-81DCB8DF2F08}"/>
+                <c16:uniqueId val="{00000001-903E-4A6B-9F3E-29841ADD6FCD}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -6863,7 +6893,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000003-52CC-439F-810C-81DCB8DF2F08}"/>
+                <c16:uniqueId val="{00000003-903E-4A6B-9F3E-29841ADD6FCD}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -6940,7 +6970,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>304</c:v>
+                  <c:v>309</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>8</c:v>
@@ -6950,7 +6980,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-52CC-439F-810C-81DCB8DF2F08}"/>
+              <c16:uniqueId val="{00000004-903E-4A6B-9F3E-29841ADD6FCD}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -7166,7 +7196,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>228</c:v>
+                  <c:v>233</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>78</c:v>
@@ -7181,20 +7211,20 @@
                   <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>304</c:v>
+                  <c:v>309</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>312</c:v>
+                  <c:v>317</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-3C54-45B7-A60F-9603082FE5D9}"/>
+              <c16:uniqueId val="{00000000-B444-4E1D-823C-DDE11DB90E3E}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -7311,7 +7341,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-3C54-45B7-A60F-9603082FE5D9}"/>
+              <c16:uniqueId val="{00000001-B444-4E1D-823C-DDE11DB90E3E}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -7556,7 +7586,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000001-EB4A-4562-B73D-4F9DCCDB75EB}"/>
+                <c16:uniqueId val="{00000001-CB85-463E-899B-6D759007A36F}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -7574,7 +7604,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000003-EB4A-4562-B73D-4F9DCCDB75EB}"/>
+                <c16:uniqueId val="{00000003-CB85-463E-899B-6D759007A36F}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -7661,7 +7691,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-EB4A-4562-B73D-4F9DCCDB75EB}"/>
+              <c16:uniqueId val="{00000004-CB85-463E-899B-6D759007A36F}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -7817,7 +7847,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000001-12B8-46A8-A776-FE26274041DA}"/>
+                <c16:uniqueId val="{00000001-A3F4-4069-9F67-21161DCFE697}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -7835,7 +7865,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000003-12B8-46A8-A776-FE26274041DA}"/>
+                <c16:uniqueId val="{00000003-A3F4-4069-9F67-21161DCFE697}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -7922,7 +7952,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-12B8-46A8-A776-FE26274041DA}"/>
+              <c16:uniqueId val="{00000004-A3F4-4069-9F67-21161DCFE697}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -8146,7 +8176,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-E408-415C-8331-F22F6C13C692}"/>
+              <c16:uniqueId val="{00000000-8E52-496D-83A7-72BF983A6B2C}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -8217,14 +8247,14 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>312</c:v>
+                  <c:v>317</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-E408-415C-8331-F22F6C13C692}"/>
+              <c16:uniqueId val="{00000001-8E52-496D-83A7-72BF983A6B2C}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -8519,7 +8549,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-2333-4DC5-963B-62E132A1052E}"/>
+              <c16:uniqueId val="{00000000-3631-4DAB-B757-DDB8C24068D2}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -8597,7 +8627,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-2333-4DC5-963B-62E132A1052E}"/>
+              <c16:uniqueId val="{00000001-3631-4DAB-B757-DDB8C24068D2}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -8892,7 +8922,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-8591-4A0E-8791-2F7F193C9FD5}"/>
+              <c16:uniqueId val="{00000000-9CF9-4EE3-8687-55D9626CA18C}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -8963,14 +8993,14 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>228</c:v>
+                  <c:v>233</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-8591-4A0E-8791-2F7F193C9FD5}"/>
+              <c16:uniqueId val="{00000001-9CF9-4EE3-8687-55D9626CA18C}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -9265,7 +9295,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-7DF5-4C90-A02A-3DF7186EF106}"/>
+              <c16:uniqueId val="{00000000-59A5-4376-AF76-E4E3021E4BF3}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -9343,7 +9373,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-7DF5-4C90-A02A-3DF7186EF106}"/>
+              <c16:uniqueId val="{00000001-59A5-4376-AF76-E4E3021E4BF3}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -9560,7 +9590,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000001-004A-4F39-8C39-D11DF74FE5C2}"/>
+                <c16:uniqueId val="{00000001-3975-45C2-8E62-41AE5FA93E65}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -9578,7 +9608,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000003-004A-4F39-8C39-D11DF74FE5C2}"/>
+                <c16:uniqueId val="{00000003-3975-45C2-8E62-41AE5FA93E65}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -9665,7 +9695,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-004A-4F39-8C39-D11DF74FE5C2}"/>
+              <c16:uniqueId val="{00000004-3975-45C2-8E62-41AE5FA93E65}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -9881,7 +9911,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-782B-40D6-890A-8E7407F237DC}"/>
+              <c16:uniqueId val="{00000000-28BA-4DD1-AC5E-E367E134C88A}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -9970,7 +10000,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-782B-40D6-890A-8E7407F237DC}"/>
+              <c16:uniqueId val="{00000001-28BA-4DD1-AC5E-E367E134C88A}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -10214,7 +10244,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000001-4199-47D4-A0CB-D6B709CA0DCF}"/>
+                <c16:uniqueId val="{00000001-79D4-45C5-A917-1DD201184B22}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -10232,7 +10262,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000003-4199-47D4-A0CB-D6B709CA0DCF}"/>
+                <c16:uniqueId val="{00000003-79D4-45C5-A917-1DD201184B22}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -10319,7 +10349,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-4199-47D4-A0CB-D6B709CA0DCF}"/>
+              <c16:uniqueId val="{00000004-79D4-45C5-A917-1DD201184B22}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -10475,7 +10505,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000001-A531-4500-B83D-CA3F38670F44}"/>
+                <c16:uniqueId val="{00000001-5854-4F64-A26C-A72FAA06102F}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -10493,7 +10523,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000003-A531-4500-B83D-CA3F38670F44}"/>
+                <c16:uniqueId val="{00000003-5854-4F64-A26C-A72FAA06102F}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -10580,7 +10610,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-A531-4500-B83D-CA3F38670F44}"/>
+              <c16:uniqueId val="{00000004-5854-4F64-A26C-A72FAA06102F}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -10804,7 +10834,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-7C52-4E92-B412-332E65E64116}"/>
+              <c16:uniqueId val="{00000000-27C6-45BA-A7D9-DF01FFF9E1B1}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -10882,7 +10912,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-7C52-4E92-B412-332E65E64116}"/>
+              <c16:uniqueId val="{00000001-27C6-45BA-A7D9-DF01FFF9E1B1}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -11177,7 +11207,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-BCC2-4BD1-8BBB-6E3F25EB9310}"/>
+              <c16:uniqueId val="{00000000-8235-4CC4-86BD-42AD196658C3}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -11255,7 +11285,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-BCC2-4BD1-8BBB-6E3F25EB9310}"/>
+              <c16:uniqueId val="{00000001-8235-4CC4-86BD-42AD196658C3}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -11550,7 +11580,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-2BA4-47B4-89FC-869EE2D3402F}"/>
+              <c16:uniqueId val="{00000000-56DC-4A28-B0B4-B69E11792FDD}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -11628,7 +11658,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-2BA4-47B4-89FC-869EE2D3402F}"/>
+              <c16:uniqueId val="{00000001-56DC-4A28-B0B4-B69E11792FDD}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -11923,7 +11953,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-24EF-4B49-99EA-BA5F452B6A2C}"/>
+              <c16:uniqueId val="{00000000-1A6D-4775-AEB4-894E1D6256CF}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -12001,7 +12031,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-24EF-4B49-99EA-BA5F452B6A2C}"/>
+              <c16:uniqueId val="{00000001-1A6D-4775-AEB4-894E1D6256CF}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -24437,8 +24467,8 @@
   <dimension ref="A1:F505"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A406" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A392" sqref="A392"/>
+      <pane ySplit="1" topLeftCell="A270" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B270" sqref="B270"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -24449,8 +24479,8 @@
     <col min="4" max="4" width="21.6640625" style="1" customWidth="1"/>
     <col min="5" max="5" width="15.109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="19.6640625" style="1" customWidth="1"/>
-    <col min="7" max="165" width="9.109375" style="1" customWidth="1"/>
-    <col min="166" max="16384" width="9.109375" style="1"/>
+    <col min="7" max="167" width="9.109375" style="1" customWidth="1"/>
+    <col min="168" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
@@ -34927,8 +34957,8 @@
   <dimension ref="A1:P799"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A438" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B450" sqref="B450"/>
+      <pane ySplit="1" topLeftCell="A445" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L445" sqref="L445"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -34941,8 +34971,8 @@
     <col min="6" max="6" width="23.44140625" style="1" customWidth="1"/>
     <col min="7" max="7" width="16.88671875" style="1" customWidth="1"/>
     <col min="8" max="9" width="9.109375" style="1" hidden="1" customWidth="1"/>
-    <col min="10" max="178" width="9.109375" style="1" customWidth="1"/>
-    <col min="179" max="16384" width="9.109375" style="1"/>
+    <col min="10" max="180" width="9.109375" style="1" customWidth="1"/>
+    <col min="181" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.3">
@@ -34968,7 +34998,7 @@
         <v>887</v>
       </c>
       <c r="P1" s="1">
-        <v>455</v>
+        <v>460</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.3">
@@ -49015,88 +49045,158 @@
       </c>
     </row>
     <row r="455" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A455" s="16"/>
-      <c r="B455" s="2"/>
-      <c r="C455" s="16"/>
-      <c r="D455" s="16"/>
-      <c r="E455" s="16"/>
-      <c r="F455" s="21"/>
-      <c r="G455" s="14"/>
+      <c r="A455" s="16" t="s">
+        <v>1290</v>
+      </c>
+      <c r="B455" s="2">
+        <v>31924769000120</v>
+      </c>
+      <c r="C455" s="16" t="s">
+        <v>1818</v>
+      </c>
+      <c r="D455" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="E455" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="F455" s="21" t="s">
+        <v>1386</v>
+      </c>
+      <c r="G455" s="22">
+        <v>45169</v>
+      </c>
       <c r="H455" s="1" t="str">
         <f t="shared" si="14"/>
-        <v/>
-      </c>
-      <c r="I455" s="1">
+        <v>31924769</v>
+      </c>
+      <c r="I455" s="1" t="str">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>MR037633/2023</v>
       </c>
     </row>
     <row r="456" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A456" s="16"/>
-      <c r="B456" s="2"/>
-      <c r="C456" s="16"/>
-      <c r="D456" s="16"/>
-      <c r="E456" s="16"/>
-      <c r="F456" s="21"/>
-      <c r="G456" s="14"/>
+      <c r="A456" s="16" t="s">
+        <v>1819</v>
+      </c>
+      <c r="B456" s="2">
+        <v>1218495000869</v>
+      </c>
+      <c r="C456" s="16" t="s">
+        <v>1820</v>
+      </c>
+      <c r="D456" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="E456" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="F456" s="21" t="s">
+        <v>1821</v>
+      </c>
+      <c r="G456" s="22">
+        <v>45170</v>
+      </c>
       <c r="H456" s="1" t="str">
         <f t="shared" si="14"/>
-        <v/>
-      </c>
-      <c r="I456" s="1">
+        <v>12184950</v>
+      </c>
+      <c r="I456" s="1" t="str">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>MR045221/2023</v>
       </c>
     </row>
     <row r="457" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A457" s="16"/>
-      <c r="B457" s="2"/>
-      <c r="C457" s="16"/>
-      <c r="D457" s="16"/>
-      <c r="E457" s="16"/>
-      <c r="F457" s="21"/>
-      <c r="G457" s="14"/>
+      <c r="A457" s="16" t="s">
+        <v>1292</v>
+      </c>
+      <c r="B457" s="2">
+        <v>31924748000104</v>
+      </c>
+      <c r="C457" s="16" t="s">
+        <v>1822</v>
+      </c>
+      <c r="D457" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="E457" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="F457" s="21" t="s">
+        <v>1386</v>
+      </c>
+      <c r="G457" s="22">
+        <v>45170</v>
+      </c>
       <c r="H457" s="1" t="str">
         <f t="shared" si="14"/>
-        <v/>
-      </c>
-      <c r="I457" s="1">
+        <v>31924748</v>
+      </c>
+      <c r="I457" s="1" t="str">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>MR037627/2023</v>
       </c>
     </row>
     <row r="458" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A458" s="16"/>
-      <c r="B458" s="2"/>
-      <c r="C458" s="16"/>
-      <c r="D458" s="16"/>
-      <c r="E458" s="16"/>
-      <c r="F458" s="21"/>
-      <c r="G458" s="14"/>
+      <c r="A458" s="16" t="s">
+        <v>1823</v>
+      </c>
+      <c r="B458" s="2">
+        <v>32331472001942</v>
+      </c>
+      <c r="C458" s="16" t="s">
+        <v>1824</v>
+      </c>
+      <c r="D458" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="E458" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="F458" s="21" t="s">
+        <v>1386</v>
+      </c>
+      <c r="G458" s="22">
+        <v>45175</v>
+      </c>
       <c r="H458" s="1" t="str">
         <f t="shared" si="14"/>
-        <v/>
-      </c>
-      <c r="I458" s="1">
+        <v>32331472</v>
+      </c>
+      <c r="I458" s="1" t="str">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>MR037799/2023</v>
       </c>
     </row>
     <row r="459" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A459" s="16"/>
-      <c r="B459" s="2"/>
-      <c r="C459" s="16"/>
-      <c r="D459" s="16"/>
-      <c r="E459" s="16"/>
-      <c r="F459" s="21"/>
-      <c r="G459" s="14"/>
+      <c r="A459" s="16" t="s">
+        <v>1007</v>
+      </c>
+      <c r="B459" s="2">
+        <v>36616512000205</v>
+      </c>
+      <c r="C459" s="16" t="s">
+        <v>1825</v>
+      </c>
+      <c r="D459" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="E459" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="F459" s="21" t="s">
+        <v>1386</v>
+      </c>
+      <c r="G459" s="22">
+        <v>45175</v>
+      </c>
       <c r="H459" s="1" t="str">
         <f t="shared" si="14"/>
-        <v/>
-      </c>
-      <c r="I459" s="1">
+        <v>36616512</v>
+      </c>
+      <c r="I459" s="1" t="str">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>MR048818/2023</v>
       </c>
     </row>
     <row r="460" spans="1:9" x14ac:dyDescent="0.3">
@@ -55335,6 +55435,11 @@
     <hyperlink ref="C452" r:id="rId451" xr:uid="{00000000-0004-0000-0300-0000C2010000}"/>
     <hyperlink ref="C453" r:id="rId452" xr:uid="{00000000-0004-0000-0300-0000C3010000}"/>
     <hyperlink ref="C454" r:id="rId453" xr:uid="{00000000-0004-0000-0300-0000C4010000}"/>
+    <hyperlink ref="C455" r:id="rId454" xr:uid="{00000000-0004-0000-0300-0000C5010000}"/>
+    <hyperlink ref="C456" r:id="rId455" xr:uid="{00000000-0004-0000-0300-0000C6010000}"/>
+    <hyperlink ref="C457" r:id="rId456" xr:uid="{00000000-0004-0000-0300-0000C7010000}"/>
+    <hyperlink ref="C458" r:id="rId457" xr:uid="{00000000-0004-0000-0300-0000C8010000}"/>
+    <hyperlink ref="C459" r:id="rId458" xr:uid="{00000000-0004-0000-0300-0000C9010000}"/>
   </hyperlinks>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape"/>
@@ -55349,8 +55454,8 @@
   </sheetPr>
   <dimension ref="A1:T183"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -55378,7 +55483,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>1818</v>
+        <v>1826</v>
       </c>
       <c r="E1" s="5" t="s">
         <v>3</v>
@@ -55387,13 +55492,13 @@
         <v>4</v>
       </c>
       <c r="G1" s="16" t="s">
-        <v>1819</v>
+        <v>1827</v>
       </c>
       <c r="H1" s="16" t="s">
-        <v>1820</v>
+        <v>1828</v>
       </c>
       <c r="S1">
-        <v>48886</v>
+        <v>51670</v>
       </c>
       <c r="T1">
         <v>98</v>
@@ -55407,10 +55512,10 @@
         <v>22301742000190</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>1821</v>
+        <v>1829</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>1822</v>
+        <v>1830</v>
       </c>
       <c r="E2" s="5" t="s">
         <v>11</v>
@@ -55436,16 +55541,16 @@
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A3" s="16" t="s">
-        <v>1823</v>
+        <v>1831</v>
       </c>
       <c r="B3" s="2">
         <v>91212951000775</v>
       </c>
       <c r="C3" s="16" t="s">
-        <v>1824</v>
+        <v>1832</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>1822</v>
+        <v>1830</v>
       </c>
       <c r="E3" s="5" t="s">
         <v>7</v>
@@ -55471,16 +55576,16 @@
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A4" s="16" t="s">
-        <v>1825</v>
+        <v>1833</v>
       </c>
       <c r="B4" s="2">
         <v>46584048000195</v>
       </c>
       <c r="C4" s="16" t="s">
-        <v>1826</v>
+        <v>1834</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>1827</v>
+        <v>1835</v>
       </c>
       <c r="E4" s="5" t="s">
         <v>11</v>
@@ -55504,16 +55609,16 @@
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A5" s="16" t="s">
-        <v>1828</v>
+        <v>1836</v>
       </c>
       <c r="B5" s="2">
         <v>7295822000196</v>
       </c>
       <c r="C5" s="16" t="s">
-        <v>1829</v>
+        <v>1837</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>1827</v>
+        <v>1835</v>
       </c>
       <c r="E5" s="5" t="s">
         <v>11</v>
@@ -55537,16 +55642,16 @@
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A6" s="16" t="s">
-        <v>1830</v>
+        <v>1838</v>
       </c>
       <c r="B6" s="2">
         <v>90312133001915</v>
       </c>
       <c r="C6" s="16" t="s">
-        <v>1831</v>
+        <v>1839</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>1822</v>
+        <v>1830</v>
       </c>
       <c r="E6" s="5" t="s">
         <v>11</v>
@@ -55572,16 +55677,16 @@
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A7" s="16" t="s">
-        <v>1832</v>
+        <v>1840</v>
       </c>
       <c r="B7" s="2">
         <v>46377727008330</v>
       </c>
       <c r="C7" s="16" t="s">
-        <v>1833</v>
+        <v>1841</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>1822</v>
+        <v>1830</v>
       </c>
       <c r="E7" s="5" t="s">
         <v>11</v>
@@ -55607,16 +55712,16 @@
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A8" s="16" t="s">
-        <v>1834</v>
+        <v>1842</v>
       </c>
       <c r="B8" s="2">
         <v>39795960000120</v>
       </c>
       <c r="C8" s="16" t="s">
-        <v>1835</v>
+        <v>1843</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>1822</v>
+        <v>1830</v>
       </c>
       <c r="E8" s="5" t="s">
         <v>11</v>
@@ -55642,16 +55747,16 @@
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A9" s="16" t="s">
-        <v>1836</v>
+        <v>1844</v>
       </c>
       <c r="B9" s="2">
         <v>35949173000135</v>
       </c>
       <c r="C9" s="16" t="s">
-        <v>1837</v>
+        <v>1845</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>1822</v>
+        <v>1830</v>
       </c>
       <c r="E9" s="5" t="s">
         <v>11</v>
@@ -55677,16 +55782,16 @@
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A10" s="16" t="s">
-        <v>1838</v>
+        <v>1846</v>
       </c>
       <c r="B10" s="2">
         <v>46227562000173</v>
       </c>
       <c r="C10" s="16" t="s">
-        <v>1839</v>
+        <v>1847</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>1822</v>
+        <v>1830</v>
       </c>
       <c r="E10" s="5" t="s">
         <v>11</v>
@@ -55712,16 +55817,16 @@
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A11" s="16" t="s">
-        <v>1840</v>
+        <v>1848</v>
       </c>
       <c r="B11" s="2">
         <v>91928127000120</v>
       </c>
       <c r="C11" s="16" t="s">
-        <v>1841</v>
+        <v>1849</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>1827</v>
+        <v>1835</v>
       </c>
       <c r="E11" s="5" t="s">
         <v>11</v>
@@ -55745,16 +55850,16 @@
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A12" s="16" t="s">
-        <v>1842</v>
+        <v>1850</v>
       </c>
       <c r="B12" s="2">
         <v>36494972000127</v>
       </c>
       <c r="C12" s="16" t="s">
-        <v>1843</v>
+        <v>1851</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>1822</v>
+        <v>1830</v>
       </c>
       <c r="E12" s="5" t="s">
         <v>11</v>
@@ -55780,16 +55885,16 @@
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A13" s="16" t="s">
-        <v>1844</v>
+        <v>1852</v>
       </c>
       <c r="B13" s="2">
         <v>72505977000171</v>
       </c>
       <c r="C13" s="16" t="s">
-        <v>1845</v>
+        <v>1853</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>1827</v>
+        <v>1835</v>
       </c>
       <c r="E13" s="5" t="s">
         <v>11</v>
@@ -55813,16 +55918,16 @@
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A14" s="16" t="s">
-        <v>1846</v>
+        <v>1854</v>
       </c>
       <c r="B14" s="2">
         <v>7581009000182</v>
       </c>
       <c r="C14" s="16" t="s">
-        <v>1847</v>
+        <v>1855</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>1827</v>
+        <v>1830</v>
       </c>
       <c r="E14" s="5" t="s">
         <v>11</v>
@@ -55830,7 +55935,9 @@
       <c r="F14" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G14" s="22"/>
+      <c r="G14" s="22">
+        <v>45177</v>
+      </c>
       <c r="H14" s="5" t="str">
         <f>IFERROR(VLOOKUP(I14,regs!H:I,2,0),"")</f>
         <v/>
@@ -55839,23 +55946,23 @@
         <f t="shared" si="0"/>
         <v>75810090</v>
       </c>
-      <c r="J14" t="str">
+      <c r="J14" t="b">
         <f t="shared" ca="1" si="1"/>
-        <v/>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A15" s="16" t="s">
-        <v>1848</v>
+        <v>1856</v>
       </c>
       <c r="B15" s="2">
         <v>1618146000168</v>
       </c>
       <c r="C15" s="16" t="s">
-        <v>1849</v>
+        <v>1857</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>1827</v>
+        <v>1835</v>
       </c>
       <c r="E15" s="5" t="s">
         <v>11</v>
@@ -55879,16 +55986,16 @@
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A16" s="16" t="s">
-        <v>1850</v>
+        <v>1858</v>
       </c>
       <c r="B16" s="2">
         <v>5027195019368</v>
       </c>
       <c r="C16" s="16" t="s">
-        <v>1851</v>
+        <v>1859</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>1822</v>
+        <v>1830</v>
       </c>
       <c r="E16" s="5" t="s">
         <v>11</v>
@@ -55914,16 +56021,16 @@
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" s="16" t="s">
-        <v>1852</v>
+        <v>1860</v>
       </c>
       <c r="B17" s="2">
         <v>26893767000180</v>
       </c>
       <c r="C17" s="16" t="s">
-        <v>1853</v>
+        <v>1861</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>1822</v>
+        <v>1830</v>
       </c>
       <c r="E17" s="5" t="s">
         <v>11</v>
@@ -55949,16 +56056,16 @@
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" s="16" t="s">
-        <v>1854</v>
+        <v>1862</v>
       </c>
       <c r="B18" s="2">
         <v>7500399000119</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>1855</v>
+        <v>1863</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>1822</v>
+        <v>1830</v>
       </c>
       <c r="E18" s="5" t="s">
         <v>11</v>
@@ -55984,16 +56091,16 @@
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" s="16" t="s">
-        <v>1856</v>
+        <v>1864</v>
       </c>
       <c r="B19" s="2">
         <v>3733595000778</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>1857</v>
+        <v>1865</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>1822</v>
+        <v>1830</v>
       </c>
       <c r="E19" s="5" t="s">
         <v>7</v>
@@ -56019,16 +56126,16 @@
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" s="16" t="s">
-        <v>1858</v>
+        <v>1866</v>
       </c>
       <c r="B20" s="2">
         <v>11928659003730</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>1859</v>
+        <v>1867</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>1827</v>
+        <v>1835</v>
       </c>
       <c r="E20" s="5" t="s">
         <v>11</v>
@@ -56052,16 +56159,16 @@
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" s="16" t="s">
-        <v>1860</v>
+        <v>1868</v>
       </c>
       <c r="B21" s="2">
         <v>28552793000251</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>1861</v>
+        <v>1869</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>1822</v>
+        <v>1830</v>
       </c>
       <c r="E21" s="5" t="s">
         <v>11</v>
@@ -56087,16 +56194,16 @@
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" s="16" t="s">
-        <v>1862</v>
+        <v>1870</v>
       </c>
       <c r="B22" s="2">
         <v>46856594000138</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>1863</v>
+        <v>1871</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>1822</v>
+        <v>1830</v>
       </c>
       <c r="E22" s="5" t="s">
         <v>11</v>
@@ -56128,10 +56235,10 @@
         <v>89735070000100</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>1864</v>
+        <v>1872</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>1822</v>
+        <v>1830</v>
       </c>
       <c r="E23" s="5" t="s">
         <v>11</v>
@@ -56157,16 +56264,16 @@
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24" s="16" t="s">
-        <v>1865</v>
+        <v>1873</v>
       </c>
       <c r="B24" s="2">
         <v>8929216000148</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>1866</v>
+        <v>1874</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>1827</v>
+        <v>1835</v>
       </c>
       <c r="E24" s="5" t="s">
         <v>11</v>
@@ -56190,16 +56297,16 @@
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25" s="16" t="s">
-        <v>1867</v>
+        <v>1875</v>
       </c>
       <c r="B25" s="2">
         <v>10241083000164</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>1868</v>
+        <v>1876</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>1827</v>
+        <v>1835</v>
       </c>
       <c r="E25" s="5" t="s">
         <v>11</v>
@@ -56223,16 +56330,16 @@
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26" s="16" t="s">
-        <v>1869</v>
+        <v>1877</v>
       </c>
       <c r="B26" s="2">
         <v>28893453000294</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>1870</v>
+        <v>1878</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>1822</v>
+        <v>1830</v>
       </c>
       <c r="E26" s="5" t="s">
         <v>11</v>
@@ -56258,16 +56365,16 @@
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27" s="16" t="s">
-        <v>1871</v>
+        <v>1879</v>
       </c>
       <c r="B27" s="2">
         <v>28322122000113</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>1872</v>
+        <v>1880</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>1822</v>
+        <v>1830</v>
       </c>
       <c r="E27" s="5" t="s">
         <v>11</v>
@@ -56293,16 +56400,16 @@
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A28" s="16" t="s">
-        <v>1873</v>
+        <v>1881</v>
       </c>
       <c r="B28" s="2">
         <v>24527824000182</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>1874</v>
+        <v>1882</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>1822</v>
+        <v>1830</v>
       </c>
       <c r="E28" s="5" t="s">
         <v>11</v>
@@ -56328,16 +56435,16 @@
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29" s="16" t="s">
-        <v>1875</v>
+        <v>1883</v>
       </c>
       <c r="B29" s="2">
         <v>24524587000104</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>1876</v>
+        <v>1884</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>1822</v>
+        <v>1830</v>
       </c>
       <c r="E29" s="5" t="s">
         <v>11</v>
@@ -56363,16 +56470,16 @@
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30" s="16" t="s">
-        <v>1877</v>
+        <v>1885</v>
       </c>
       <c r="B30" s="2">
         <v>30836797000122</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>1878</v>
+        <v>1886</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>1822</v>
+        <v>1830</v>
       </c>
       <c r="E30" s="5" t="s">
         <v>11</v>
@@ -56398,16 +56505,16 @@
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A31" s="16" t="s">
-        <v>1879</v>
+        <v>1887</v>
       </c>
       <c r="B31" s="2">
         <v>32588442000197</v>
       </c>
       <c r="C31" s="16" t="s">
-        <v>1880</v>
+        <v>1888</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>1822</v>
+        <v>1830</v>
       </c>
       <c r="E31" s="5" t="s">
         <v>11</v>
@@ -56433,16 +56540,16 @@
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A32" s="16" t="s">
-        <v>1881</v>
+        <v>1889</v>
       </c>
       <c r="B32" s="2">
         <v>35698575000104</v>
       </c>
       <c r="C32" s="16" t="s">
-        <v>1882</v>
+        <v>1890</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>1822</v>
+        <v>1830</v>
       </c>
       <c r="E32" s="5" t="s">
         <v>11</v>
@@ -56474,10 +56581,10 @@
         <v>46227562000173</v>
       </c>
       <c r="C33" s="16" t="s">
-        <v>1883</v>
+        <v>1891</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>1822</v>
+        <v>1830</v>
       </c>
       <c r="E33" s="5" t="s">
         <v>11</v>
@@ -56503,16 +56610,16 @@
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A34" s="16" t="s">
-        <v>1873</v>
+        <v>1881</v>
       </c>
       <c r="B34" s="2">
         <v>24527824000182</v>
       </c>
       <c r="C34" s="16" t="s">
-        <v>1884</v>
+        <v>1892</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>1822</v>
+        <v>1830</v>
       </c>
       <c r="E34" s="5" t="s">
         <v>11</v>
@@ -56538,16 +56645,16 @@
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A35" s="16" t="s">
-        <v>1875</v>
+        <v>1883</v>
       </c>
       <c r="B35" s="2">
         <v>24524587000104</v>
       </c>
       <c r="C35" s="16" t="s">
-        <v>1885</v>
+        <v>1893</v>
       </c>
       <c r="D35" s="5" t="s">
-        <v>1822</v>
+        <v>1830</v>
       </c>
       <c r="E35" s="5" t="s">
         <v>11</v>
@@ -56573,16 +56680,16 @@
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A36" s="16" t="s">
-        <v>1877</v>
+        <v>1885</v>
       </c>
       <c r="B36" s="2">
         <v>30836797000122</v>
       </c>
       <c r="C36" s="16" t="s">
-        <v>1886</v>
+        <v>1894</v>
       </c>
       <c r="D36" s="5" t="s">
-        <v>1822</v>
+        <v>1830</v>
       </c>
       <c r="E36" s="5" t="s">
         <v>11</v>
@@ -56608,16 +56715,16 @@
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A37" s="16" t="s">
-        <v>1879</v>
+        <v>1887</v>
       </c>
       <c r="B37" s="2">
         <v>32588442000197</v>
       </c>
       <c r="C37" s="16" t="s">
-        <v>1887</v>
+        <v>1895</v>
       </c>
       <c r="D37" s="5" t="s">
-        <v>1822</v>
+        <v>1830</v>
       </c>
       <c r="E37" s="5" t="s">
         <v>11</v>
@@ -56643,16 +56750,16 @@
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A38" s="16" t="s">
-        <v>1881</v>
+        <v>1889</v>
       </c>
       <c r="B38" s="2">
         <v>35698575000104</v>
       </c>
       <c r="C38" s="16" t="s">
-        <v>1888</v>
+        <v>1896</v>
       </c>
       <c r="D38" s="5" t="s">
-        <v>1822</v>
+        <v>1830</v>
       </c>
       <c r="E38" s="5" t="s">
         <v>11</v>
@@ -56684,10 +56791,10 @@
         <v>28452061000109</v>
       </c>
       <c r="C39" s="16" t="s">
-        <v>1889</v>
+        <v>1897</v>
       </c>
       <c r="D39" s="5" t="s">
-        <v>1822</v>
+        <v>1830</v>
       </c>
       <c r="E39" s="5" t="s">
         <v>11</v>
@@ -56713,16 +56820,16 @@
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A40" s="16" t="s">
-        <v>1890</v>
+        <v>1898</v>
       </c>
       <c r="B40" s="2">
         <v>5876012001170</v>
       </c>
       <c r="C40" s="16" t="s">
-        <v>1891</v>
+        <v>1899</v>
       </c>
       <c r="D40" s="5" t="s">
-        <v>1822</v>
+        <v>1830</v>
       </c>
       <c r="E40" s="5" t="s">
         <v>11</v>
@@ -56754,10 +56861,10 @@
         <v>5964784000353</v>
       </c>
       <c r="C41" s="16" t="s">
-        <v>1892</v>
+        <v>1900</v>
       </c>
       <c r="D41" s="5" t="s">
-        <v>1822</v>
+        <v>1830</v>
       </c>
       <c r="E41" s="5" t="s">
         <v>11</v>
@@ -56789,10 +56896,10 @@
         <v>59418806002948</v>
       </c>
       <c r="C42" s="16" t="s">
-        <v>1893</v>
+        <v>1901</v>
       </c>
       <c r="D42" s="5" t="s">
-        <v>1827</v>
+        <v>1835</v>
       </c>
       <c r="E42" s="5" t="s">
         <v>11</v>
@@ -56822,10 +56929,10 @@
         <v>41371454000156</v>
       </c>
       <c r="C43" s="16" t="s">
-        <v>1894</v>
+        <v>1902</v>
       </c>
       <c r="D43" s="5" t="s">
-        <v>1827</v>
+        <v>1835</v>
       </c>
       <c r="E43" s="5" t="s">
         <v>11</v>
@@ -56855,10 +56962,10 @@
         <v>92016757000191</v>
       </c>
       <c r="C44" s="16" t="s">
-        <v>1895</v>
+        <v>1903</v>
       </c>
       <c r="D44" s="5" t="s">
-        <v>1827</v>
+        <v>1835</v>
       </c>
       <c r="E44" s="5" t="s">
         <v>11</v>
@@ -56888,10 +56995,10 @@
         <v>10987804000180</v>
       </c>
       <c r="C45" s="16" t="s">
-        <v>1896</v>
+        <v>1904</v>
       </c>
       <c r="D45" s="5" t="s">
-        <v>1822</v>
+        <v>1830</v>
       </c>
       <c r="E45" s="5" t="s">
         <v>11</v>
@@ -56923,10 +57030,10 @@
         <v>8808556000382</v>
       </c>
       <c r="C46" s="16" t="s">
-        <v>1897</v>
+        <v>1905</v>
       </c>
       <c r="D46" s="5" t="s">
-        <v>1822</v>
+        <v>1830</v>
       </c>
       <c r="E46" s="5" t="s">
         <v>11</v>
@@ -56952,16 +57059,16 @@
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A47" s="16" t="s">
-        <v>1898</v>
+        <v>1906</v>
       </c>
       <c r="B47" s="2">
         <v>34292047000198</v>
       </c>
       <c r="C47" s="16" t="s">
-        <v>1899</v>
+        <v>1907</v>
       </c>
       <c r="D47" s="5" t="s">
-        <v>1827</v>
+        <v>1835</v>
       </c>
       <c r="E47" s="5" t="s">
         <v>11</v>
@@ -56991,10 +57098,10 @@
         <v>1098983010680</v>
       </c>
       <c r="C48" s="16" t="s">
-        <v>1900</v>
+        <v>1908</v>
       </c>
       <c r="D48" s="5" t="s">
-        <v>1827</v>
+        <v>1835</v>
       </c>
       <c r="E48" s="5" t="s">
         <v>11</v>
@@ -57024,10 +57131,10 @@
         <v>61189288001908</v>
       </c>
       <c r="C49" s="16" t="s">
-        <v>1901</v>
+        <v>1909</v>
       </c>
       <c r="D49" s="5" t="s">
-        <v>1822</v>
+        <v>1830</v>
       </c>
       <c r="E49" s="5" t="s">
         <v>11</v>
@@ -57053,16 +57160,16 @@
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A50" s="16" t="s">
-        <v>1902</v>
+        <v>1910</v>
       </c>
       <c r="B50" s="2">
         <v>15048124002753</v>
       </c>
       <c r="C50" s="16" t="s">
-        <v>1903</v>
+        <v>1911</v>
       </c>
       <c r="D50" s="5" t="s">
-        <v>1827</v>
+        <v>1835</v>
       </c>
       <c r="E50" s="5" t="s">
         <v>11</v>
@@ -57092,10 +57199,10 @@
         <v>2314041003101</v>
       </c>
       <c r="C51" s="16" t="s">
-        <v>1904</v>
+        <v>1912</v>
       </c>
       <c r="D51" s="5" t="s">
-        <v>1827</v>
+        <v>1835</v>
       </c>
       <c r="E51" s="5" t="s">
         <v>11</v>
@@ -57125,10 +57232,10 @@
         <v>84453844046412</v>
       </c>
       <c r="C52" s="16" t="s">
-        <v>1905</v>
+        <v>1913</v>
       </c>
       <c r="D52" s="5" t="s">
-        <v>1827</v>
+        <v>1835</v>
       </c>
       <c r="E52" s="5" t="s">
         <v>11</v>
@@ -57158,10 +57265,10 @@
         <v>11014557000955</v>
       </c>
       <c r="C53" s="16" t="s">
-        <v>1906</v>
+        <v>1914</v>
       </c>
       <c r="D53" s="5" t="s">
-        <v>1827</v>
+        <v>1835</v>
       </c>
       <c r="E53" s="5" t="s">
         <v>11</v>
@@ -57191,10 +57298,10 @@
         <v>47100110002566</v>
       </c>
       <c r="C54" s="16" t="s">
-        <v>1907</v>
+        <v>1915</v>
       </c>
       <c r="D54" s="5" t="s">
-        <v>1822</v>
+        <v>1830</v>
       </c>
       <c r="E54" s="5" t="s">
         <v>11</v>
@@ -57226,10 +57333,10 @@
         <v>17574281000199</v>
       </c>
       <c r="C55" s="16" t="s">
-        <v>1908</v>
+        <v>1916</v>
       </c>
       <c r="D55" s="5" t="s">
-        <v>1822</v>
+        <v>1830</v>
       </c>
       <c r="E55" s="5" t="s">
         <v>11</v>
@@ -57261,10 +57368,10 @@
         <v>20593518000274</v>
       </c>
       <c r="C56" s="16" t="s">
-        <v>1909</v>
+        <v>1917</v>
       </c>
       <c r="D56" s="5" t="s">
-        <v>1822</v>
+        <v>1830</v>
       </c>
       <c r="E56" s="5" t="s">
         <v>11</v>
@@ -57290,16 +57397,16 @@
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A57" s="16" t="s">
-        <v>1910</v>
+        <v>1918</v>
       </c>
       <c r="B57" s="2">
         <v>44496590000160</v>
       </c>
       <c r="C57" s="16" t="s">
-        <v>1911</v>
+        <v>1919</v>
       </c>
       <c r="D57" s="5" t="s">
-        <v>1827</v>
+        <v>1835</v>
       </c>
       <c r="E57" s="5" t="s">
         <v>11</v>
@@ -57329,10 +57436,10 @@
         <v>44571005000140</v>
       </c>
       <c r="C58" s="16" t="s">
-        <v>1912</v>
+        <v>1920</v>
       </c>
       <c r="D58" s="5" t="s">
-        <v>1827</v>
+        <v>1835</v>
       </c>
       <c r="E58" s="5" t="s">
         <v>11</v>
@@ -57362,10 +57469,10 @@
         <v>40740267000130</v>
       </c>
       <c r="C59" s="16" t="s">
-        <v>1913</v>
+        <v>1921</v>
       </c>
       <c r="D59" s="5" t="s">
-        <v>1827</v>
+        <v>1835</v>
       </c>
       <c r="E59" s="5" t="s">
         <v>11</v>
@@ -57395,10 +57502,10 @@
         <v>44579574000131</v>
       </c>
       <c r="C60" s="16" t="s">
-        <v>1914</v>
+        <v>1922</v>
       </c>
       <c r="D60" s="5" t="s">
-        <v>1827</v>
+        <v>1835</v>
       </c>
       <c r="E60" s="5" t="s">
         <v>11</v>
@@ -57428,10 +57535,10 @@
         <v>39158117000133</v>
       </c>
       <c r="C61" s="16" t="s">
-        <v>1915</v>
+        <v>1923</v>
       </c>
       <c r="D61" s="5" t="s">
-        <v>1827</v>
+        <v>1835</v>
       </c>
       <c r="E61" s="5" t="s">
         <v>11</v>
@@ -57461,10 +57568,10 @@
         <v>4038697000140</v>
       </c>
       <c r="C62" s="16" t="s">
-        <v>1916</v>
+        <v>1924</v>
       </c>
       <c r="D62" s="5" t="s">
-        <v>1822</v>
+        <v>1830</v>
       </c>
       <c r="E62" s="5" t="s">
         <v>11</v>
@@ -57490,16 +57597,16 @@
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A63" s="16" t="s">
-        <v>1917</v>
+        <v>1925</v>
       </c>
       <c r="B63" s="2">
         <v>46494237000177</v>
       </c>
       <c r="C63" s="16" t="s">
-        <v>1918</v>
+        <v>1926</v>
       </c>
       <c r="D63" s="5" t="s">
-        <v>1827</v>
+        <v>1835</v>
       </c>
       <c r="E63" s="5" t="s">
         <v>11</v>
@@ -57523,16 +57630,16 @@
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A64" s="16" t="s">
-        <v>1919</v>
+        <v>1927</v>
       </c>
       <c r="B64" s="2">
         <v>10413732000167</v>
       </c>
       <c r="C64" s="16" t="s">
-        <v>1920</v>
+        <v>1928</v>
       </c>
       <c r="D64" s="5" t="s">
-        <v>1822</v>
+        <v>1830</v>
       </c>
       <c r="E64" s="5" t="s">
         <v>11</v>
@@ -57564,10 +57671,10 @@
         <v>58731662010184</v>
       </c>
       <c r="C65" s="16" t="s">
-        <v>1921</v>
+        <v>1929</v>
       </c>
       <c r="D65" s="5" t="s">
-        <v>1827</v>
+        <v>1835</v>
       </c>
       <c r="E65" s="5" t="s">
         <v>11</v>
@@ -57591,16 +57698,16 @@
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A66" s="16" t="s">
-        <v>1922</v>
+        <v>1930</v>
       </c>
       <c r="B66" s="2">
         <v>5520581000106</v>
       </c>
       <c r="C66" s="16" t="s">
-        <v>1923</v>
+        <v>1931</v>
       </c>
       <c r="D66" s="5" t="s">
-        <v>1827</v>
+        <v>1835</v>
       </c>
       <c r="E66" s="5" t="s">
         <v>11</v>
@@ -57624,16 +57731,16 @@
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A67" s="16" t="s">
-        <v>1924</v>
+        <v>1932</v>
       </c>
       <c r="B67" s="2">
         <v>49995556000154</v>
       </c>
       <c r="C67" s="16" t="s">
-        <v>1925</v>
+        <v>1933</v>
       </c>
       <c r="D67" s="5" t="s">
-        <v>1827</v>
+        <v>1835</v>
       </c>
       <c r="E67" s="5" t="s">
         <v>11</v>
@@ -57657,16 +57764,16 @@
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A68" s="16" t="s">
-        <v>1926</v>
+        <v>1934</v>
       </c>
       <c r="B68" s="2">
         <v>38824899000130</v>
       </c>
       <c r="C68" s="16" t="s">
-        <v>1927</v>
+        <v>1935</v>
       </c>
       <c r="D68" s="5" t="s">
-        <v>1822</v>
+        <v>1830</v>
       </c>
       <c r="E68" s="5" t="s">
         <v>11</v>
@@ -57698,10 +57805,10 @@
         <v>2721404000108</v>
       </c>
       <c r="C69" s="16" t="s">
-        <v>1928</v>
+        <v>1936</v>
       </c>
       <c r="D69" s="5" t="s">
-        <v>1822</v>
+        <v>1830</v>
       </c>
       <c r="E69" s="5" t="s">
         <v>11</v>
@@ -57733,10 +57840,10 @@
         <v>94678224000109</v>
       </c>
       <c r="C70" s="16" t="s">
-        <v>1929</v>
+        <v>1937</v>
       </c>
       <c r="D70" s="5" t="s">
-        <v>1822</v>
+        <v>1830</v>
       </c>
       <c r="E70" s="5" t="s">
         <v>11</v>
@@ -57762,16 +57869,16 @@
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A71" s="16" t="s">
-        <v>1930</v>
+        <v>1938</v>
       </c>
       <c r="B71" s="2">
         <v>1167639000714</v>
       </c>
       <c r="C71" s="16" t="s">
-        <v>1931</v>
+        <v>1939</v>
       </c>
       <c r="D71" s="5" t="s">
-        <v>1827</v>
+        <v>1835</v>
       </c>
       <c r="E71" s="5" t="s">
         <v>11</v>
@@ -57795,22 +57902,22 @@
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A72" s="16" t="s">
-        <v>1932</v>
+        <v>1940</v>
       </c>
       <c r="B72" s="2">
         <v>4243203000160</v>
       </c>
       <c r="C72" s="16" t="s">
-        <v>1933</v>
+        <v>1941</v>
       </c>
       <c r="D72" s="5" t="s">
-        <v>1822</v>
+        <v>1830</v>
       </c>
       <c r="E72" s="5" t="s">
         <v>7</v>
       </c>
       <c r="F72" s="5" t="s">
-        <v>1934</v>
+        <v>1942</v>
       </c>
       <c r="G72" s="22">
         <v>45084</v>
@@ -57836,10 +57943,10 @@
         <v>93866739000161</v>
       </c>
       <c r="C73" s="16" t="s">
-        <v>1935</v>
+        <v>1943</v>
       </c>
       <c r="D73" s="5" t="s">
-        <v>1822</v>
+        <v>1830</v>
       </c>
       <c r="E73" s="5" t="s">
         <v>11</v>
@@ -57871,10 +57978,10 @@
         <v>19187523000117</v>
       </c>
       <c r="C74" s="16" t="s">
-        <v>1936</v>
+        <v>1944</v>
       </c>
       <c r="D74" s="5" t="s">
-        <v>1822</v>
+        <v>1830</v>
       </c>
       <c r="E74" s="5" t="s">
         <v>7</v>
@@ -57906,10 +58013,10 @@
         <v>19187523000206</v>
       </c>
       <c r="C75" s="16" t="s">
-        <v>1937</v>
+        <v>1945</v>
       </c>
       <c r="D75" s="5" t="s">
-        <v>1827</v>
+        <v>1835</v>
       </c>
       <c r="E75" s="5" t="s">
         <v>11</v>
@@ -57933,16 +58040,16 @@
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A76" s="16" t="s">
-        <v>1938</v>
+        <v>1946</v>
       </c>
       <c r="B76" s="2">
         <v>92916907000113</v>
       </c>
       <c r="C76" s="16" t="s">
-        <v>1939</v>
+        <v>1947</v>
       </c>
       <c r="D76" s="5" t="s">
-        <v>1822</v>
+        <v>1830</v>
       </c>
       <c r="E76" s="5" t="s">
         <v>11</v>
@@ -57968,16 +58075,16 @@
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A77" s="16" t="s">
-        <v>1940</v>
+        <v>1948</v>
       </c>
       <c r="B77" s="2">
         <v>14335320000298</v>
       </c>
       <c r="C77" s="16" t="s">
-        <v>1941</v>
+        <v>1949</v>
       </c>
       <c r="D77" s="5" t="s">
-        <v>1822</v>
+        <v>1830</v>
       </c>
       <c r="E77" s="5" t="s">
         <v>11</v>
@@ -58003,16 +58110,16 @@
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A78" s="16" t="s">
-        <v>1942</v>
+        <v>1950</v>
       </c>
       <c r="B78" s="2">
         <v>14327879000195</v>
       </c>
       <c r="C78" s="16" t="s">
-        <v>1943</v>
+        <v>1951</v>
       </c>
       <c r="D78" s="5" t="s">
-        <v>1822</v>
+        <v>1830</v>
       </c>
       <c r="E78" s="5" t="s">
         <v>11</v>
@@ -58038,16 +58145,16 @@
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A79" s="16" t="s">
-        <v>1944</v>
+        <v>1952</v>
       </c>
       <c r="B79" s="2">
         <v>68765825000564</v>
       </c>
       <c r="C79" s="16" t="s">
-        <v>1945</v>
+        <v>1953</v>
       </c>
       <c r="D79" s="5" t="s">
-        <v>1827</v>
+        <v>1835</v>
       </c>
       <c r="E79" s="5" t="s">
         <v>11</v>
@@ -58071,16 +58178,16 @@
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A80" s="16" t="s">
-        <v>1946</v>
+        <v>1954</v>
       </c>
       <c r="B80" s="2">
         <v>3238893000104</v>
       </c>
       <c r="C80" s="16" t="s">
-        <v>1947</v>
+        <v>1955</v>
       </c>
       <c r="D80" s="5" t="s">
-        <v>1827</v>
+        <v>1835</v>
       </c>
       <c r="E80" s="5" t="s">
         <v>11</v>
@@ -58104,16 +58211,16 @@
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A81" s="16" t="s">
-        <v>1292</v>
+        <v>1956</v>
       </c>
       <c r="B81" s="2">
-        <v>31924748000104</v>
+        <v>28709695000285</v>
       </c>
       <c r="C81" s="16" t="s">
-        <v>1948</v>
+        <v>1957</v>
       </c>
       <c r="D81" s="5" t="s">
-        <v>1822</v>
+        <v>1835</v>
       </c>
       <c r="E81" s="5" t="s">
         <v>11</v>
@@ -58121,34 +58228,32 @@
       <c r="F81" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="G81" s="22">
-        <v>45166</v>
-      </c>
+      <c r="G81" s="22"/>
       <c r="H81" s="5" t="str">
         <f>IFERROR(VLOOKUP(I81,regs!H:I,2,0),"")</f>
         <v/>
       </c>
       <c r="I81" t="str">
         <f t="shared" si="4"/>
-        <v>31924748</v>
-      </c>
-      <c r="J81" t="b">
+        <v>28709695</v>
+      </c>
+      <c r="J81" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>0</v>
+        <v/>
       </c>
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A82" s="16" t="s">
-        <v>1290</v>
+        <v>1958</v>
       </c>
       <c r="B82" s="2">
-        <v>31924769000120</v>
+        <v>44731167000106</v>
       </c>
       <c r="C82" s="16" t="s">
-        <v>1949</v>
+        <v>1959</v>
       </c>
       <c r="D82" s="5" t="s">
-        <v>1822</v>
+        <v>1830</v>
       </c>
       <c r="E82" s="5" t="s">
         <v>11</v>
@@ -58157,7 +58262,7 @@
         <v>8</v>
       </c>
       <c r="G82" s="22">
-        <v>45166</v>
+        <v>45068</v>
       </c>
       <c r="H82" s="5" t="str">
         <f>IFERROR(VLOOKUP(I82,regs!H:I,2,0),"")</f>
@@ -58165,31 +58270,31 @@
       </c>
       <c r="I82" t="str">
         <f t="shared" si="4"/>
-        <v>31924769</v>
-      </c>
-      <c r="J82" t="b">
+        <v>44731167</v>
+      </c>
+      <c r="J82" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>0</v>
+        <v>Vencido</v>
       </c>
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A83" s="16" t="s">
-        <v>1950</v>
+        <v>1960</v>
       </c>
       <c r="B83" s="2">
-        <v>28709695000285</v>
+        <v>10646336000180</v>
       </c>
       <c r="C83" s="16" t="s">
-        <v>1951</v>
+        <v>1961</v>
       </c>
       <c r="D83" s="5" t="s">
-        <v>1827</v>
+        <v>1835</v>
       </c>
       <c r="E83" s="5" t="s">
         <v>11</v>
       </c>
       <c r="F83" s="5" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="G83" s="22"/>
       <c r="H83" s="5" t="str">
@@ -58198,7 +58303,7 @@
       </c>
       <c r="I83" t="str">
         <f t="shared" si="4"/>
-        <v>28709695</v>
+        <v>10646336</v>
       </c>
       <c r="J83" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -58207,16 +58312,16 @@
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A84" s="16" t="s">
-        <v>1952</v>
+        <v>1962</v>
       </c>
       <c r="B84" s="2">
-        <v>32331472001942</v>
+        <v>37902619000100</v>
       </c>
       <c r="C84" s="16" t="s">
-        <v>1953</v>
+        <v>1963</v>
       </c>
       <c r="D84" s="5" t="s">
-        <v>1827</v>
+        <v>1835</v>
       </c>
       <c r="E84" s="5" t="s">
         <v>11</v>
@@ -58231,7 +58336,7 @@
       </c>
       <c r="I84" t="str">
         <f t="shared" si="4"/>
-        <v>32331472</v>
+        <v>37902619</v>
       </c>
       <c r="J84" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -58240,16 +58345,16 @@
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A85" s="16" t="s">
-        <v>1954</v>
+        <v>1964</v>
       </c>
       <c r="B85" s="2">
-        <v>44731167000106</v>
+        <v>48462686000169</v>
       </c>
       <c r="C85" s="16" t="s">
-        <v>1955</v>
+        <v>1965</v>
       </c>
       <c r="D85" s="5" t="s">
-        <v>1822</v>
+        <v>1835</v>
       </c>
       <c r="E85" s="5" t="s">
         <v>11</v>
@@ -58257,73 +58362,73 @@
       <c r="F85" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="G85" s="22">
-        <v>45068</v>
-      </c>
+      <c r="G85" s="22"/>
       <c r="H85" s="5" t="str">
         <f>IFERROR(VLOOKUP(I85,regs!H:I,2,0),"")</f>
         <v/>
       </c>
       <c r="I85" t="str">
         <f t="shared" si="4"/>
-        <v>44731167</v>
+        <v>48462686</v>
       </c>
       <c r="J85" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>Vencido</v>
+        <v/>
       </c>
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A86" s="16" t="s">
-        <v>1956</v>
+        <v>117</v>
       </c>
       <c r="B86" s="2">
-        <v>10646336000180</v>
+        <v>8846951000198</v>
       </c>
       <c r="C86" s="16" t="s">
-        <v>1957</v>
+        <v>1966</v>
       </c>
       <c r="D86" s="5" t="s">
-        <v>1827</v>
+        <v>1830</v>
       </c>
       <c r="E86" s="5" t="s">
         <v>11</v>
       </c>
       <c r="F86" s="22" t="s">
-        <v>18</v>
-      </c>
-      <c r="G86" s="22"/>
+        <v>8</v>
+      </c>
+      <c r="G86" s="22">
+        <v>45139</v>
+      </c>
       <c r="H86" s="5" t="str">
         <f>IFERROR(VLOOKUP(I86,regs!H:I,2,0),"")</f>
         <v/>
       </c>
       <c r="I86" t="str">
         <f t="shared" si="4"/>
-        <v>10646336</v>
+        <v>88469510</v>
       </c>
       <c r="J86" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v/>
+        <v>Aviso</v>
       </c>
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A87" s="16" t="s">
-        <v>1958</v>
+        <v>1967</v>
       </c>
       <c r="B87" s="2">
-        <v>37902619000100</v>
+        <v>9248776000108</v>
       </c>
       <c r="C87" s="16" t="s">
-        <v>1959</v>
+        <v>1968</v>
       </c>
       <c r="D87" s="5" t="s">
-        <v>1827</v>
+        <v>1835</v>
       </c>
       <c r="E87" s="5" t="s">
         <v>11</v>
       </c>
       <c r="F87" s="22" t="s">
-        <v>8</v>
+        <v>1269</v>
       </c>
       <c r="G87" s="22"/>
       <c r="H87" s="5" t="str">
@@ -58332,7 +58437,7 @@
       </c>
       <c r="I87" t="str">
         <f t="shared" si="4"/>
-        <v>37902619</v>
+        <v>92487760</v>
       </c>
       <c r="J87" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -58341,22 +58446,22 @@
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A88" s="16" t="s">
-        <v>1960</v>
+        <v>822</v>
       </c>
       <c r="B88" s="2">
-        <v>48462686000169</v>
+        <v>13257648000190</v>
       </c>
       <c r="C88" s="16" t="s">
-        <v>1961</v>
+        <v>1969</v>
       </c>
       <c r="D88" s="5" t="s">
-        <v>1827</v>
+        <v>1835</v>
       </c>
       <c r="E88" s="5" t="s">
         <v>11</v>
       </c>
       <c r="F88" s="22" t="s">
-        <v>8</v>
+        <v>1269</v>
       </c>
       <c r="G88" s="22"/>
       <c r="H88" s="5" t="str">
@@ -58365,7 +58470,7 @@
       </c>
       <c r="I88" t="str">
         <f t="shared" si="4"/>
-        <v>48462686</v>
+        <v>13257648</v>
       </c>
       <c r="J88" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -58374,16 +58479,16 @@
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A89" s="16" t="s">
-        <v>117</v>
+        <v>1970</v>
       </c>
       <c r="B89" s="2">
-        <v>8846951000198</v>
+        <v>27248361000370</v>
       </c>
       <c r="C89" s="16" t="s">
-        <v>1962</v>
+        <v>1971</v>
       </c>
       <c r="D89" s="5" t="s">
-        <v>1822</v>
+        <v>1830</v>
       </c>
       <c r="E89" s="5" t="s">
         <v>11</v>
@@ -58392,7 +58497,7 @@
         <v>8</v>
       </c>
       <c r="G89" s="22">
-        <v>45139</v>
+        <v>45145</v>
       </c>
       <c r="H89" s="5" t="str">
         <f>IFERROR(VLOOKUP(I89,regs!H:I,2,0),"")</f>
@@ -58400,91 +58505,95 @@
       </c>
       <c r="I89" t="str">
         <f t="shared" si="4"/>
-        <v>88469510</v>
-      </c>
-      <c r="J89" t="b">
+        <v>27248361</v>
+      </c>
+      <c r="J89" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v>Aviso</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A90" s="16" t="s">
+        <v>1934</v>
+      </c>
+      <c r="B90" s="2">
+        <v>38824899000130</v>
+      </c>
+      <c r="C90" s="16" t="s">
+        <v>1972</v>
+      </c>
+      <c r="D90" s="5" t="s">
+        <v>1830</v>
+      </c>
+      <c r="E90" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F90" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G90" s="22">
+        <v>45145</v>
+      </c>
+      <c r="H90" s="5" t="str">
+        <f>IFERROR(VLOOKUP(I90,regs!H:I,2,0),"")</f>
+        <v/>
+      </c>
+      <c r="I90" t="str">
+        <f t="shared" si="4"/>
+        <v>38824899</v>
+      </c>
+      <c r="J90" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v>Aviso</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A91" s="16" t="s">
+        <v>1973</v>
+      </c>
+      <c r="B91" s="2">
+        <v>6249091000180</v>
+      </c>
+      <c r="C91" s="16" t="s">
+        <v>1974</v>
+      </c>
+      <c r="D91" s="5" t="s">
+        <v>1830</v>
+      </c>
+      <c r="E91" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F91" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G91" s="22">
+        <v>45162</v>
+      </c>
+      <c r="H91" s="5" t="str">
+        <f>IFERROR(VLOOKUP(I91,regs!H:I,2,0),"")</f>
+        <v/>
+      </c>
+      <c r="I91" t="str">
+        <f t="shared" si="4"/>
+        <v>62490910</v>
+      </c>
+      <c r="J91" t="b">
         <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A90" s="16" t="s">
-        <v>1963</v>
-      </c>
-      <c r="B90" s="2">
-        <v>9248776000108</v>
-      </c>
-      <c r="C90" s="16" t="s">
-        <v>1964</v>
-      </c>
-      <c r="D90" s="5" t="s">
-        <v>1827</v>
-      </c>
-      <c r="E90" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F90" s="5" t="s">
-        <v>1269</v>
-      </c>
-      <c r="G90" s="22"/>
-      <c r="H90" s="5" t="str">
-        <f>IFERROR(VLOOKUP(I90,regs!H:I,2,0),"")</f>
-        <v/>
-      </c>
-      <c r="I90" t="str">
-        <f t="shared" si="4"/>
-        <v>92487760</v>
-      </c>
-      <c r="J90" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A91" s="16" t="s">
-        <v>822</v>
-      </c>
-      <c r="B91" s="2">
-        <v>13257648000190</v>
-      </c>
-      <c r="C91" s="16" t="s">
-        <v>1965</v>
-      </c>
-      <c r="D91" s="5" t="s">
-        <v>1827</v>
-      </c>
-      <c r="E91" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F91" s="5" t="s">
-        <v>1269</v>
-      </c>
-      <c r="G91" s="22"/>
-      <c r="H91" s="5" t="str">
-        <f>IFERROR(VLOOKUP(I91,regs!H:I,2,0),"")</f>
-        <v/>
-      </c>
-      <c r="I91" t="str">
-        <f t="shared" si="4"/>
-        <v>13257648</v>
-      </c>
-      <c r="J91" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v/>
-      </c>
-    </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A92" s="16" t="s">
-        <v>1966</v>
+        <v>1810</v>
       </c>
       <c r="B92" s="2">
-        <v>27248361000370</v>
+        <v>7635498002232</v>
       </c>
       <c r="C92" s="16" t="s">
-        <v>1967</v>
+        <v>1975</v>
       </c>
       <c r="D92" s="5" t="s">
-        <v>1822</v>
+        <v>1835</v>
       </c>
       <c r="E92" s="5" t="s">
         <v>11</v>
@@ -58492,34 +58601,32 @@
       <c r="F92" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="G92" s="22">
-        <v>45145</v>
-      </c>
+      <c r="G92" s="22"/>
       <c r="H92" s="5" t="str">
         <f>IFERROR(VLOOKUP(I92,regs!H:I,2,0),"")</f>
-        <v/>
+        <v>MR037129/2023</v>
       </c>
       <c r="I92" t="str">
         <f t="shared" si="4"/>
-        <v>27248361</v>
-      </c>
-      <c r="J92" t="b">
+        <v>76354980</v>
+      </c>
+      <c r="J92" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>0</v>
+        <v/>
       </c>
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A93" s="16" t="s">
-        <v>1926</v>
+        <v>1976</v>
       </c>
       <c r="B93" s="2">
-        <v>38824899000130</v>
+        <v>90964172000178</v>
       </c>
       <c r="C93" s="16" t="s">
-        <v>1968</v>
+        <v>1977</v>
       </c>
       <c r="D93" s="5" t="s">
-        <v>1822</v>
+        <v>1835</v>
       </c>
       <c r="E93" s="5" t="s">
         <v>11</v>
@@ -58527,34 +58634,32 @@
       <c r="F93" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="G93" s="22">
-        <v>45145</v>
-      </c>
+      <c r="G93" s="22"/>
       <c r="H93" s="5" t="str">
         <f>IFERROR(VLOOKUP(I93,regs!H:I,2,0),"")</f>
         <v/>
       </c>
       <c r="I93" t="str">
         <f t="shared" si="4"/>
-        <v>38824899</v>
-      </c>
-      <c r="J93" t="b">
+        <v>90964172</v>
+      </c>
+      <c r="J93" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>0</v>
+        <v/>
       </c>
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A94" s="16" t="s">
-        <v>1969</v>
+        <v>1978</v>
       </c>
       <c r="B94" s="2">
-        <v>1218495000869</v>
+        <v>49312585000174</v>
       </c>
       <c r="C94" s="16" t="s">
-        <v>1970</v>
+        <v>1979</v>
       </c>
       <c r="D94" s="5" t="s">
-        <v>1822</v>
+        <v>1830</v>
       </c>
       <c r="E94" s="5" t="s">
         <v>11</v>
@@ -58563,7 +58668,7 @@
         <v>8</v>
       </c>
       <c r="G94" s="22">
-        <v>45163</v>
+        <v>45173</v>
       </c>
       <c r="H94" s="5" t="str">
         <f>IFERROR(VLOOKUP(I94,regs!H:I,2,0),"")</f>
@@ -58571,7 +58676,7 @@
       </c>
       <c r="I94" t="str">
         <f t="shared" si="4"/>
-        <v>12184950</v>
+        <v>49312585</v>
       </c>
       <c r="J94" t="b">
         <f t="shared" ca="1" si="5"/>
@@ -58580,66 +58685,64 @@
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A95" s="16" t="s">
-        <v>1971</v>
+        <v>1980</v>
       </c>
       <c r="B95" s="2">
-        <v>6249091000180</v>
+        <v>48748393000223</v>
       </c>
       <c r="C95" s="16" t="s">
-        <v>1972</v>
+        <v>1981</v>
       </c>
       <c r="D95" s="5" t="s">
-        <v>1822</v>
+        <v>1835</v>
       </c>
       <c r="E95" s="5" t="s">
         <v>11</v>
       </c>
       <c r="F95" s="22" t="s">
-        <v>18</v>
-      </c>
-      <c r="G95" s="22">
-        <v>45162</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="G95" s="22"/>
       <c r="H95" s="5" t="str">
         <f>IFERROR(VLOOKUP(I95,regs!H:I,2,0),"")</f>
         <v/>
       </c>
       <c r="I95" t="str">
         <f t="shared" si="4"/>
-        <v>62490910</v>
-      </c>
-      <c r="J95" t="b">
+        <v>48748393</v>
+      </c>
+      <c r="J95" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>0</v>
+        <v/>
       </c>
     </row>
     <row r="96" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A96" s="16" t="s">
-        <v>1810</v>
+        <v>1982</v>
       </c>
       <c r="B96" s="2">
-        <v>7635498002232</v>
+        <v>44663036000120</v>
       </c>
       <c r="C96" s="16" t="s">
-        <v>1973</v>
+        <v>1983</v>
       </c>
       <c r="D96" s="5" t="s">
-        <v>1827</v>
+        <v>1835</v>
       </c>
       <c r="E96" s="5" t="s">
         <v>11</v>
       </c>
       <c r="F96" s="22" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="G96" s="22"/>
       <c r="H96" s="5" t="str">
         <f>IFERROR(VLOOKUP(I96,regs!H:I,2,0),"")</f>
-        <v>MR037129/2023</v>
+        <v/>
       </c>
       <c r="I96" t="str">
         <f t="shared" si="4"/>
-        <v>76354980</v>
+        <v>44663036</v>
       </c>
       <c r="J96" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -58648,16 +58751,16 @@
     </row>
     <row r="97" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A97" s="16" t="s">
-        <v>1007</v>
+        <v>117</v>
       </c>
       <c r="B97" s="2">
-        <v>36616512000205</v>
+        <v>8846951000198</v>
       </c>
       <c r="C97" s="16" t="s">
-        <v>1974</v>
+        <v>1984</v>
       </c>
       <c r="D97" s="5" t="s">
-        <v>1822</v>
+        <v>1835</v>
       </c>
       <c r="E97" s="5" t="s">
         <v>11</v>
@@ -58665,20 +58768,18 @@
       <c r="F97" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="G97" s="22">
-        <v>45166</v>
-      </c>
+      <c r="G97" s="22"/>
       <c r="H97" s="5" t="str">
         <f>IFERROR(VLOOKUP(I97,regs!H:I,2,0),"")</f>
         <v/>
       </c>
       <c r="I97" t="str">
         <f t="shared" si="4"/>
-        <v>36616512</v>
-      </c>
-      <c r="J97" t="b">
+        <v>88469510</v>
+      </c>
+      <c r="J97" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>0</v>
+        <v/>
       </c>
     </row>
     <row r="98" spans="1:10" x14ac:dyDescent="0.3">
@@ -60515,7 +60616,7 @@
   <sheetData>
     <row r="1" spans="2:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B1" s="3" t="s">
-        <v>1975</v>
+        <v>1985</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>1374</v>
@@ -60535,7 +60636,7 @@
       </c>
       <c r="C2" s="5">
         <f>C9-C3-C4-C5</f>
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="G2" s="4" t="s">
         <v>1376</v>
@@ -60588,13 +60689,13 @@
     </row>
     <row r="6" spans="2:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="4" t="s">
-        <v>1976</v>
+        <v>1986</v>
       </c>
       <c r="C6" s="5">
         <v>6</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>1976</v>
+        <v>1986</v>
       </c>
       <c r="H6" s="5">
         <v>3</v>
@@ -60606,7 +60707,7 @@
       </c>
       <c r="C7" s="5">
         <f>C9-C8</f>
-        <v>304</v>
+        <v>309</v>
       </c>
       <c r="G7" s="4" t="s">
         <v>1380</v>
@@ -60634,7 +60735,7 @@
         <v>1382</v>
       </c>
       <c r="C9" s="5">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="G9" s="4" t="s">
         <v>1382</v>
@@ -60848,7 +60949,7 @@
       <c r="B68" s="26"/>
       <c r="C68" s="26"/>
       <c r="D68" s="29" t="s">
-        <v>1977</v>
+        <v>1987</v>
       </c>
       <c r="E68" s="30"/>
       <c r="F68" s="30"/>

--- a/regs.xlsx
+++ b/regs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Program Files (x86)\ACTS Sindec\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{800D9A9B-16DB-484E-8501-78496E27460C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{752CC920-5E4D-4CA2-9942-83F88D8F8214}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="780" windowWidth="21840" windowHeight="13140" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="780" windowWidth="21840" windowHeight="13140" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Acts 2021" sheetId="1" r:id="rId1"/>
@@ -6358,7 +6358,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000001-47AC-40DF-82E8-6D3A4CA7E109}"/>
+                <c16:uniqueId val="{00000001-697A-416A-AE07-3E0D38916EF8}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -6376,7 +6376,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000003-47AC-40DF-82E8-6D3A4CA7E109}"/>
+                <c16:uniqueId val="{00000003-697A-416A-AE07-3E0D38916EF8}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -6463,7 +6463,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-47AC-40DF-82E8-6D3A4CA7E109}"/>
+              <c16:uniqueId val="{00000004-697A-416A-AE07-3E0D38916EF8}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -6614,7 +6614,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000001-AC38-4535-8461-39DC156B8845}"/>
+                <c16:uniqueId val="{00000001-5CDB-4812-ADDB-D31FCFBA0474}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -6632,7 +6632,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000003-AC38-4535-8461-39DC156B8845}"/>
+                <c16:uniqueId val="{00000003-5CDB-4812-ADDB-D31FCFBA0474}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -6719,7 +6719,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-AC38-4535-8461-39DC156B8845}"/>
+              <c16:uniqueId val="{00000004-5CDB-4812-ADDB-D31FCFBA0474}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -6875,7 +6875,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000001-903E-4A6B-9F3E-29841ADD6FCD}"/>
+                <c16:uniqueId val="{00000001-563C-42EB-9F4F-5B78101DA2AC}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -6893,7 +6893,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000003-903E-4A6B-9F3E-29841ADD6FCD}"/>
+                <c16:uniqueId val="{00000003-563C-42EB-9F4F-5B78101DA2AC}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -6980,7 +6980,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-903E-4A6B-9F3E-29841ADD6FCD}"/>
+              <c16:uniqueId val="{00000004-563C-42EB-9F4F-5B78101DA2AC}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -7224,7 +7224,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-B444-4E1D-823C-DDE11DB90E3E}"/>
+              <c16:uniqueId val="{00000000-C69A-4124-AA82-BA21FB7204F2}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -7341,7 +7341,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-B444-4E1D-823C-DDE11DB90E3E}"/>
+              <c16:uniqueId val="{00000001-C69A-4124-AA82-BA21FB7204F2}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -7586,7 +7586,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000001-CB85-463E-899B-6D759007A36F}"/>
+                <c16:uniqueId val="{00000001-8C6A-40B7-A137-5F076C51F988}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -7604,7 +7604,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000003-CB85-463E-899B-6D759007A36F}"/>
+                <c16:uniqueId val="{00000003-8C6A-40B7-A137-5F076C51F988}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -7691,7 +7691,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-CB85-463E-899B-6D759007A36F}"/>
+              <c16:uniqueId val="{00000004-8C6A-40B7-A137-5F076C51F988}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -7847,7 +7847,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000001-A3F4-4069-9F67-21161DCFE697}"/>
+                <c16:uniqueId val="{00000001-E55C-47FE-8B90-704347E2AEA8}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -7865,7 +7865,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000003-A3F4-4069-9F67-21161DCFE697}"/>
+                <c16:uniqueId val="{00000003-E55C-47FE-8B90-704347E2AEA8}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -7952,7 +7952,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-A3F4-4069-9F67-21161DCFE697}"/>
+              <c16:uniqueId val="{00000004-E55C-47FE-8B90-704347E2AEA8}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -8176,7 +8176,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-8E52-496D-83A7-72BF983A6B2C}"/>
+              <c16:uniqueId val="{00000000-09D6-43FD-B88B-87F0699C4CD4}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -8254,7 +8254,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-8E52-496D-83A7-72BF983A6B2C}"/>
+              <c16:uniqueId val="{00000001-09D6-43FD-B88B-87F0699C4CD4}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -8549,7 +8549,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-3631-4DAB-B757-DDB8C24068D2}"/>
+              <c16:uniqueId val="{00000000-0E93-4B28-93D8-03A82374B852}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -8627,7 +8627,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-3631-4DAB-B757-DDB8C24068D2}"/>
+              <c16:uniqueId val="{00000001-0E93-4B28-93D8-03A82374B852}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -8922,7 +8922,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-9CF9-4EE3-8687-55D9626CA18C}"/>
+              <c16:uniqueId val="{00000000-040D-48CB-ADD7-34E814AE608A}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -9000,7 +9000,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-9CF9-4EE3-8687-55D9626CA18C}"/>
+              <c16:uniqueId val="{00000001-040D-48CB-ADD7-34E814AE608A}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -9295,7 +9295,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-59A5-4376-AF76-E4E3021E4BF3}"/>
+              <c16:uniqueId val="{00000000-1E47-496A-9C2A-AEF5C69A4E46}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -9373,7 +9373,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-59A5-4376-AF76-E4E3021E4BF3}"/>
+              <c16:uniqueId val="{00000001-1E47-496A-9C2A-AEF5C69A4E46}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -9590,7 +9590,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000001-3975-45C2-8E62-41AE5FA93E65}"/>
+                <c16:uniqueId val="{00000001-A072-408B-A2C2-CE5F8051CEB5}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -9608,7 +9608,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000003-3975-45C2-8E62-41AE5FA93E65}"/>
+                <c16:uniqueId val="{00000003-A072-408B-A2C2-CE5F8051CEB5}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -9695,7 +9695,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-3975-45C2-8E62-41AE5FA93E65}"/>
+              <c16:uniqueId val="{00000004-A072-408B-A2C2-CE5F8051CEB5}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -9911,7 +9911,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-28BA-4DD1-AC5E-E367E134C88A}"/>
+              <c16:uniqueId val="{00000000-49DE-4B8D-A2C3-FA0BCC3B6AFE}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -10000,7 +10000,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-28BA-4DD1-AC5E-E367E134C88A}"/>
+              <c16:uniqueId val="{00000001-49DE-4B8D-A2C3-FA0BCC3B6AFE}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -10244,7 +10244,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000001-79D4-45C5-A917-1DD201184B22}"/>
+                <c16:uniqueId val="{00000001-D380-4887-AB6F-C48F9EA78017}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -10262,7 +10262,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000003-79D4-45C5-A917-1DD201184B22}"/>
+                <c16:uniqueId val="{00000003-D380-4887-AB6F-C48F9EA78017}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -10349,7 +10349,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-79D4-45C5-A917-1DD201184B22}"/>
+              <c16:uniqueId val="{00000004-D380-4887-AB6F-C48F9EA78017}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -10505,7 +10505,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000001-5854-4F64-A26C-A72FAA06102F}"/>
+                <c16:uniqueId val="{00000001-B387-40B1-92E9-716C5D745FD8}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -10523,7 +10523,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000003-5854-4F64-A26C-A72FAA06102F}"/>
+                <c16:uniqueId val="{00000003-B387-40B1-92E9-716C5D745FD8}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -10610,7 +10610,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-5854-4F64-A26C-A72FAA06102F}"/>
+              <c16:uniqueId val="{00000004-B387-40B1-92E9-716C5D745FD8}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -10834,7 +10834,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-27C6-45BA-A7D9-DF01FFF9E1B1}"/>
+              <c16:uniqueId val="{00000000-FF0F-4E3D-9BEA-976C1E953FC5}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -10912,7 +10912,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-27C6-45BA-A7D9-DF01FFF9E1B1}"/>
+              <c16:uniqueId val="{00000001-FF0F-4E3D-9BEA-976C1E953FC5}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -11207,7 +11207,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-8235-4CC4-86BD-42AD196658C3}"/>
+              <c16:uniqueId val="{00000000-09BA-4D63-A76E-F92B0B7E4391}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -11285,7 +11285,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-8235-4CC4-86BD-42AD196658C3}"/>
+              <c16:uniqueId val="{00000001-09BA-4D63-A76E-F92B0B7E4391}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -11580,7 +11580,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-56DC-4A28-B0B4-B69E11792FDD}"/>
+              <c16:uniqueId val="{00000000-92FB-4A24-B7D7-C39A95C531A0}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -11658,7 +11658,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-56DC-4A28-B0B4-B69E11792FDD}"/>
+              <c16:uniqueId val="{00000001-92FB-4A24-B7D7-C39A95C531A0}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -11953,7 +11953,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-1A6D-4775-AEB4-894E1D6256CF}"/>
+              <c16:uniqueId val="{00000000-4673-41E1-B5BB-8F96917D3F8D}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -12031,7 +12031,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-1A6D-4775-AEB4-894E1D6256CF}"/>
+              <c16:uniqueId val="{00000001-4673-41E1-B5BB-8F96917D3F8D}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -24479,8 +24479,8 @@
     <col min="4" max="4" width="21.6640625" style="1" customWidth="1"/>
     <col min="5" max="5" width="15.109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="19.6640625" style="1" customWidth="1"/>
-    <col min="7" max="167" width="9.109375" style="1" customWidth="1"/>
-    <col min="168" max="16384" width="9.109375" style="1"/>
+    <col min="7" max="170" width="9.109375" style="1" customWidth="1"/>
+    <col min="171" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
@@ -34956,9 +34956,9 @@
   </sheetPr>
   <dimension ref="A1:P799"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A445" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L445" sqref="L445"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A439" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B279" sqref="B279"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -34971,8 +34971,8 @@
     <col min="6" max="6" width="23.44140625" style="1" customWidth="1"/>
     <col min="7" max="7" width="16.88671875" style="1" customWidth="1"/>
     <col min="8" max="9" width="9.109375" style="1" hidden="1" customWidth="1"/>
-    <col min="10" max="180" width="9.109375" style="1" customWidth="1"/>
-    <col min="181" max="16384" width="9.109375" style="1"/>
+    <col min="10" max="183" width="9.109375" style="1" customWidth="1"/>
+    <col min="184" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.3">
@@ -43562,7 +43562,7 @@
         <v>1164</v>
       </c>
       <c r="B278" s="2">
-        <v>10400614000114</v>
+        <v>88212113011640</v>
       </c>
       <c r="C278" s="16" t="s">
         <v>1634</v>
@@ -43581,7 +43581,7 @@
       </c>
       <c r="H278" s="1" t="str">
         <f t="shared" si="8"/>
-        <v>10400614</v>
+        <v>88212113</v>
       </c>
       <c r="I278" s="1" t="str">
         <f t="shared" si="9"/>
@@ -55454,8 +55454,8 @@
   </sheetPr>
   <dimension ref="A1:T183"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView topLeftCell="A76" workbookViewId="0">
+      <selection activeCell="E95" sqref="E95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -55498,7 +55498,7 @@
         <v>1828</v>
       </c>
       <c r="S1">
-        <v>51670</v>
+        <v>52602</v>
       </c>
       <c r="T1">
         <v>98</v>
@@ -58593,7 +58593,7 @@
         <v>1975</v>
       </c>
       <c r="D92" s="5" t="s">
-        <v>1835</v>
+        <v>1830</v>
       </c>
       <c r="E92" s="5" t="s">
         <v>11</v>
@@ -58601,7 +58601,9 @@
       <c r="F92" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="G92" s="22"/>
+      <c r="G92" s="22">
+        <v>45181</v>
+      </c>
       <c r="H92" s="5" t="str">
         <f>IFERROR(VLOOKUP(I92,regs!H:I,2,0),"")</f>
         <v>MR037129/2023</v>
@@ -58610,9 +58612,9 @@
         <f t="shared" si="4"/>
         <v>76354980</v>
       </c>
-      <c r="J92" t="str">
+      <c r="J92" t="b">
         <f t="shared" ca="1" si="5"/>
-        <v/>
+        <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.3">
@@ -60595,7 +60597,7 @@
   </sheetPr>
   <dimension ref="A1:L110"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A52" workbookViewId="0">
       <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>

--- a/regs.xlsx
+++ b/regs.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="EstaPasta_de_trabalho"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="28680" yWindow="780" windowWidth="21840" windowHeight="13140" tabRatio="600" firstSheet="0" activeTab="3" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="600" firstSheet="0" activeTab="3" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Acts 2021" sheetId="1" state="visible" r:id="rId1"/>
@@ -730,10 +730,10 @@
                 <formatCode>General</formatCode>
                 <ptCount val="2"/>
                 <pt idx="0">
-                  <v>233</v>
+                  <v>243</v>
                 </pt>
                 <pt idx="1">
-                  <v>78</v>
+                  <v>79</v>
                 </pt>
               </numCache>
             </numRef>
@@ -963,7 +963,7 @@
                 <formatCode>General</formatCode>
                 <ptCount val="2"/>
                 <pt idx="0">
-                  <v>309</v>
+                  <v>320</v>
                 </pt>
                 <pt idx="1">
                   <v>8</v>
@@ -1166,10 +1166,10 @@
                 <formatCode>General</formatCode>
                 <ptCount val="8"/>
                 <pt idx="0">
-                  <v>233</v>
+                  <v>243</v>
                 </pt>
                 <pt idx="1">
-                  <v>78</v>
+                  <v>79</v>
                 </pt>
                 <pt idx="2">
                   <v>3</v>
@@ -1181,13 +1181,13 @@
                   <v>6</v>
                 </pt>
                 <pt idx="5">
-                  <v>309</v>
+                  <v>320</v>
                 </pt>
                 <pt idx="6">
                   <v>8</v>
                 </pt>
                 <pt idx="7">
-                  <v>317</v>
+                  <v>328</v>
                 </pt>
               </numCache>
             </numRef>
@@ -2130,7 +2130,7 @@
                 <formatCode>General</formatCode>
                 <ptCount val="1"/>
                 <pt idx="0">
-                  <v>317</v>
+                  <v>328</v>
                 </pt>
               </numCache>
             </numRef>
@@ -2481,7 +2481,7 @@
                 <formatCode>General</formatCode>
                 <ptCount val="1"/>
                 <pt idx="0">
-                  <v>78</v>
+                  <v>79</v>
                 </pt>
               </numCache>
             </numRef>
@@ -2832,7 +2832,7 @@
                 <formatCode>General</formatCode>
                 <ptCount val="1"/>
                 <pt idx="0">
-                  <v>233</v>
+                  <v>243</v>
                 </pt>
               </numCache>
             </numRef>
@@ -23224,8 +23224,8 @@
     <col width="21.6640625" customWidth="1" style="1" min="4" max="4"/>
     <col width="15.109375" customWidth="1" style="1" min="5" max="5"/>
     <col width="19.6640625" customWidth="1" style="1" min="6" max="6"/>
-    <col width="9.109375" customWidth="1" style="1" min="7" max="170"/>
-    <col width="9.109375" customWidth="1" style="1" min="171" max="16384"/>
+    <col width="9.109375" customWidth="1" style="1" min="7" max="171"/>
+    <col width="9.109375" customWidth="1" style="1" min="172" max="16384"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -37759,7 +37759,7 @@
   <dimension ref="A1:P799"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A439" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A454" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B279" sqref="B279"/>
     </sheetView>
   </sheetViews>
@@ -37773,8 +37773,8 @@
     <col width="23.44140625" customWidth="1" style="1" min="6" max="6"/>
     <col width="16.88671875" customWidth="1" style="1" min="7" max="7"/>
     <col hidden="1" width="9.109375" customWidth="1" style="1" min="8" max="9"/>
-    <col width="9.109375" customWidth="1" style="1" min="10" max="183"/>
-    <col width="9.109375" customWidth="1" style="1" min="184" max="16384"/>
+    <col width="9.109375" customWidth="1" style="1" min="10" max="184"/>
+    <col width="9.109375" customWidth="1" style="1" min="185" max="16384"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -37814,7 +37814,7 @@
         </is>
       </c>
       <c r="P1" s="1" t="n">
-        <v>465</v>
+        <v>510</v>
       </c>
     </row>
     <row r="2">
@@ -56801,13 +56801,37 @@
       </c>
     </row>
     <row r="465">
-      <c r="A465" s="16" t="n"/>
-      <c r="B465" s="2" t="n"/>
-      <c r="C465" s="16" t="n"/>
-      <c r="D465" s="16" t="n"/>
-      <c r="E465" s="16" t="n"/>
-      <c r="F465" s="21" t="n"/>
-      <c r="G465" s="14" t="n"/>
+      <c r="A465" s="16" t="inlineStr">
+        <is>
+          <t>HR CAFE GRAMADO LTDA</t>
+        </is>
+      </c>
+      <c r="B465" s="2" t="n">
+        <v>29576141000210</v>
+      </c>
+      <c r="C465" s="16" t="inlineStr">
+        <is>
+          <t>MR055056/2023</t>
+        </is>
+      </c>
+      <c r="D465" s="16" t="inlineStr">
+        <is>
+          <t>Domingos e feriados</t>
+        </is>
+      </c>
+      <c r="E465" s="16" t="inlineStr">
+        <is>
+          <t>Lojista</t>
+        </is>
+      </c>
+      <c r="F465" s="21" t="inlineStr">
+        <is>
+          <t>01/11/2022 - 31/12/2023</t>
+        </is>
+      </c>
+      <c r="G465" s="22" t="n">
+        <v>45201</v>
+      </c>
       <c r="H465" s="1">
         <f>LEFT(B465,8)</f>
         <v/>
@@ -56818,13 +56842,37 @@
       </c>
     </row>
     <row r="466">
-      <c r="A466" s="16" t="n"/>
-      <c r="B466" s="2" t="n"/>
-      <c r="C466" s="16" t="n"/>
-      <c r="D466" s="16" t="n"/>
-      <c r="E466" s="16" t="n"/>
-      <c r="F466" s="21" t="n"/>
-      <c r="G466" s="14" t="n"/>
+      <c r="A466" s="16" t="inlineStr">
+        <is>
+          <t>R T PESSANO LTDA</t>
+        </is>
+      </c>
+      <c r="B466" s="2" t="n">
+        <v>51266942000157</v>
+      </c>
+      <c r="C466" s="16" t="inlineStr">
+        <is>
+          <t>MR054382/2023</t>
+        </is>
+      </c>
+      <c r="D466" s="16" t="inlineStr">
+        <is>
+          <t>Domingos e feriados</t>
+        </is>
+      </c>
+      <c r="E466" s="16" t="inlineStr">
+        <is>
+          <t>Lojista</t>
+        </is>
+      </c>
+      <c r="F466" s="21" t="inlineStr">
+        <is>
+          <t>01/11/2022 - 31/12/2023</t>
+        </is>
+      </c>
+      <c r="G466" s="22" t="n">
+        <v>45201</v>
+      </c>
       <c r="H466" s="1">
         <f>LEFT(B466,8)</f>
         <v/>
@@ -56835,13 +56883,37 @@
       </c>
     </row>
     <row r="467">
-      <c r="A467" s="16" t="n"/>
-      <c r="B467" s="2" t="n"/>
-      <c r="C467" s="16" t="n"/>
-      <c r="D467" s="16" t="n"/>
-      <c r="E467" s="16" t="n"/>
-      <c r="F467" s="21" t="n"/>
-      <c r="G467" s="14" t="n"/>
+      <c r="A467" s="16" t="inlineStr">
+        <is>
+          <t>M A P PET SHOP LTDA</t>
+        </is>
+      </c>
+      <c r="B467" s="2" t="n">
+        <v>51057734000148</v>
+      </c>
+      <c r="C467" s="16" t="inlineStr">
+        <is>
+          <t>MR054372/2023</t>
+        </is>
+      </c>
+      <c r="D467" s="16" t="inlineStr">
+        <is>
+          <t>Domingos e feriados</t>
+        </is>
+      </c>
+      <c r="E467" s="16" t="inlineStr">
+        <is>
+          <t>Lojista</t>
+        </is>
+      </c>
+      <c r="F467" s="21" t="inlineStr">
+        <is>
+          <t>01/11/2022 - 31/12/2023</t>
+        </is>
+      </c>
+      <c r="G467" s="22" t="n">
+        <v>45201</v>
+      </c>
       <c r="H467" s="1">
         <f>LEFT(B467,8)</f>
         <v/>
@@ -56852,13 +56924,37 @@
       </c>
     </row>
     <row r="468">
-      <c r="A468" s="16" t="n"/>
-      <c r="B468" s="2" t="n"/>
-      <c r="C468" s="16" t="n"/>
-      <c r="D468" s="16" t="n"/>
-      <c r="E468" s="16" t="n"/>
-      <c r="F468" s="21" t="n"/>
-      <c r="G468" s="14" t="n"/>
+      <c r="A468" s="16" t="inlineStr">
+        <is>
+          <t>RI HAPPY BRINQUEDOS S.A.</t>
+        </is>
+      </c>
+      <c r="B468" s="2" t="n">
+        <v>58731662022190</v>
+      </c>
+      <c r="C468" s="16" t="inlineStr">
+        <is>
+          <t>MR021212/2023</t>
+        </is>
+      </c>
+      <c r="D468" s="16" t="inlineStr">
+        <is>
+          <t>Domingos e feriados</t>
+        </is>
+      </c>
+      <c r="E468" s="16" t="inlineStr">
+        <is>
+          <t>Lojista</t>
+        </is>
+      </c>
+      <c r="F468" s="21" t="inlineStr">
+        <is>
+          <t>01/11/2022 - 31/12/2023</t>
+        </is>
+      </c>
+      <c r="G468" s="22" t="n">
+        <v>45201</v>
+      </c>
       <c r="H468" s="1">
         <f>LEFT(B468,8)</f>
         <v/>
@@ -56869,13 +56965,37 @@
       </c>
     </row>
     <row r="469">
-      <c r="A469" s="16" t="n"/>
-      <c r="B469" s="2" t="n"/>
-      <c r="C469" s="16" t="n"/>
-      <c r="D469" s="16" t="n"/>
-      <c r="E469" s="16" t="n"/>
-      <c r="F469" s="21" t="n"/>
-      <c r="G469" s="14" t="n"/>
+      <c r="A469" s="16" t="inlineStr">
+        <is>
+          <t>RI HAPPY BRINQUEDOS S.A.</t>
+        </is>
+      </c>
+      <c r="B469" s="2" t="n">
+        <v>58731662017197</v>
+      </c>
+      <c r="C469" s="16" t="inlineStr">
+        <is>
+          <t>MR021212/2023</t>
+        </is>
+      </c>
+      <c r="D469" s="16" t="inlineStr">
+        <is>
+          <t>Domingos e feriados</t>
+        </is>
+      </c>
+      <c r="E469" s="16" t="inlineStr">
+        <is>
+          <t>Lojista</t>
+        </is>
+      </c>
+      <c r="F469" s="21" t="inlineStr">
+        <is>
+          <t>01/11/2022 - 31/12/2023</t>
+        </is>
+      </c>
+      <c r="G469" s="22" t="n">
+        <v>45201</v>
+      </c>
       <c r="H469" s="1">
         <f>LEFT(B469,8)</f>
         <v/>
@@ -56886,13 +57006,37 @@
       </c>
     </row>
     <row r="470">
-      <c r="A470" s="16" t="n"/>
-      <c r="B470" s="2" t="n"/>
-      <c r="C470" s="16" t="n"/>
-      <c r="D470" s="16" t="n"/>
-      <c r="E470" s="16" t="n"/>
-      <c r="F470" s="21" t="n"/>
-      <c r="G470" s="14" t="n"/>
+      <c r="A470" s="16" t="inlineStr">
+        <is>
+          <t>RI HAPPY BRINQUEDOS S.A.</t>
+        </is>
+      </c>
+      <c r="B470" s="2" t="n">
+        <v>58731662010184</v>
+      </c>
+      <c r="C470" s="16" t="inlineStr">
+        <is>
+          <t>MR021212/2023</t>
+        </is>
+      </c>
+      <c r="D470" s="16" t="inlineStr">
+        <is>
+          <t>Domingos e feriados</t>
+        </is>
+      </c>
+      <c r="E470" s="16" t="inlineStr">
+        <is>
+          <t>Lojista</t>
+        </is>
+      </c>
+      <c r="F470" s="21" t="inlineStr">
+        <is>
+          <t>01/11/2022 - 31/12/2023</t>
+        </is>
+      </c>
+      <c r="G470" s="22" t="n">
+        <v>45201</v>
+      </c>
       <c r="H470" s="1">
         <f>LEFT(B470,8)</f>
         <v/>
@@ -56903,13 +57047,37 @@
       </c>
     </row>
     <row r="471">
-      <c r="A471" s="16" t="n"/>
-      <c r="B471" s="2" t="n"/>
-      <c r="C471" s="16" t="n"/>
-      <c r="D471" s="16" t="n"/>
-      <c r="E471" s="16" t="n"/>
-      <c r="F471" s="21" t="n"/>
-      <c r="G471" s="14" t="n"/>
+      <c r="A471" s="16" t="inlineStr">
+        <is>
+          <t>VISSOMZ ABASTE ESPECIAL DE ESSENCIAS ROGE COMERCIO LTDA</t>
+        </is>
+      </c>
+      <c r="B471" s="2" t="n">
+        <v>93866739000161</v>
+      </c>
+      <c r="C471" s="16" t="inlineStr">
+        <is>
+          <t>MR054339/2023</t>
+        </is>
+      </c>
+      <c r="D471" s="16" t="inlineStr">
+        <is>
+          <t>Domingos e feriados</t>
+        </is>
+      </c>
+      <c r="E471" s="16" t="inlineStr">
+        <is>
+          <t>Lojista</t>
+        </is>
+      </c>
+      <c r="F471" s="21" t="inlineStr">
+        <is>
+          <t>01/11/2022 - 31/12/2023</t>
+        </is>
+      </c>
+      <c r="G471" s="22" t="n">
+        <v>45201</v>
+      </c>
       <c r="H471" s="1">
         <f>LEFT(B471,8)</f>
         <v/>
@@ -56920,13 +57088,37 @@
       </c>
     </row>
     <row r="472">
-      <c r="A472" s="16" t="n"/>
-      <c r="B472" s="2" t="n"/>
-      <c r="C472" s="16" t="n"/>
-      <c r="D472" s="16" t="n"/>
-      <c r="E472" s="16" t="n"/>
-      <c r="F472" s="21" t="n"/>
-      <c r="G472" s="14" t="n"/>
+      <c r="A472" s="16" t="inlineStr">
+        <is>
+          <t>QDBVISS - ABASTECIMENTO ESPECIAL DE PRODUTOS DE BELEZA LTDA</t>
+        </is>
+      </c>
+      <c r="B472" s="2" t="n">
+        <v>19187523000117</v>
+      </c>
+      <c r="C472" s="16" t="inlineStr">
+        <is>
+          <t>MR030545/2023</t>
+        </is>
+      </c>
+      <c r="D472" s="16" t="inlineStr">
+        <is>
+          <t>Domingos e feriados</t>
+        </is>
+      </c>
+      <c r="E472" s="16" t="inlineStr">
+        <is>
+          <t>Lojista</t>
+        </is>
+      </c>
+      <c r="F472" s="21" t="inlineStr">
+        <is>
+          <t>01/11/2022 - 31/12/2023</t>
+        </is>
+      </c>
+      <c r="G472" s="22" t="n">
+        <v>45201</v>
+      </c>
       <c r="H472" s="1">
         <f>LEFT(B472,8)</f>
         <v/>
@@ -56937,13 +57129,37 @@
       </c>
     </row>
     <row r="473">
-      <c r="A473" s="16" t="n"/>
-      <c r="B473" s="2" t="n"/>
-      <c r="C473" s="16" t="n"/>
-      <c r="D473" s="16" t="n"/>
-      <c r="E473" s="16" t="n"/>
-      <c r="F473" s="21" t="n"/>
-      <c r="G473" s="14" t="n"/>
+      <c r="A473" s="16" t="inlineStr">
+        <is>
+          <t>DICO COMERCIAL DE FRUTAS E LEGUMES LTDA</t>
+        </is>
+      </c>
+      <c r="B473" s="2" t="n">
+        <v>89513113000102</v>
+      </c>
+      <c r="C473" s="16" t="inlineStr">
+        <is>
+          <t>MR054121/2023</t>
+        </is>
+      </c>
+      <c r="D473" s="16" t="inlineStr">
+        <is>
+          <t>Domingos e feriados</t>
+        </is>
+      </c>
+      <c r="E473" s="16" t="inlineStr">
+        <is>
+          <t>Mercado</t>
+        </is>
+      </c>
+      <c r="F473" s="21" t="inlineStr">
+        <is>
+          <t>01/11/2022 - 31/12/2023</t>
+        </is>
+      </c>
+      <c r="G473" s="22" t="n">
+        <v>45208</v>
+      </c>
       <c r="H473" s="1">
         <f>LEFT(B473,8)</f>
         <v/>
@@ -56954,13 +57170,37 @@
       </c>
     </row>
     <row r="474">
-      <c r="A474" s="16" t="n"/>
-      <c r="B474" s="2" t="n"/>
-      <c r="C474" s="16" t="n"/>
-      <c r="D474" s="16" t="n"/>
-      <c r="E474" s="16" t="n"/>
-      <c r="F474" s="21" t="n"/>
-      <c r="G474" s="14" t="n"/>
+      <c r="A474" s="16" t="inlineStr">
+        <is>
+          <t>CHS - COMERCIO DE FRUTAS E LEGUMES LTDA</t>
+        </is>
+      </c>
+      <c r="B474" s="2" t="n">
+        <v>11826017000119</v>
+      </c>
+      <c r="C474" s="16" t="inlineStr">
+        <is>
+          <t>MR054368/2023</t>
+        </is>
+      </c>
+      <c r="D474" s="16" t="inlineStr">
+        <is>
+          <t>Domingos e feriados</t>
+        </is>
+      </c>
+      <c r="E474" s="16" t="inlineStr">
+        <is>
+          <t>Mercado</t>
+        </is>
+      </c>
+      <c r="F474" s="21" t="inlineStr">
+        <is>
+          <t>01/11/2022 - 31/12/2023</t>
+        </is>
+      </c>
+      <c r="G474" s="22" t="n">
+        <v>45208</v>
+      </c>
       <c r="H474" s="1">
         <f>LEFT(B474,8)</f>
         <v/>
@@ -56971,13 +57211,37 @@
       </c>
     </row>
     <row r="475">
-      <c r="A475" s="16" t="n"/>
-      <c r="B475" s="2" t="n"/>
-      <c r="C475" s="16" t="n"/>
-      <c r="D475" s="16" t="n"/>
-      <c r="E475" s="16" t="n"/>
-      <c r="F475" s="21" t="n"/>
-      <c r="G475" s="14" t="n"/>
+      <c r="A475" s="16" t="inlineStr">
+        <is>
+          <t>BRIZIAS COMERCIO DE VESTUARIO LTDA</t>
+        </is>
+      </c>
+      <c r="B475" s="2" t="n">
+        <v>4337049000357</v>
+      </c>
+      <c r="C475" s="16" t="inlineStr">
+        <is>
+          <t>MR055741/2023</t>
+        </is>
+      </c>
+      <c r="D475" s="16" t="inlineStr">
+        <is>
+          <t>Domingos e feriados</t>
+        </is>
+      </c>
+      <c r="E475" s="16" t="inlineStr">
+        <is>
+          <t>Lojista</t>
+        </is>
+      </c>
+      <c r="F475" s="21" t="inlineStr">
+        <is>
+          <t>01/11/2022 - 31/12/2023</t>
+        </is>
+      </c>
+      <c r="G475" s="22" t="n">
+        <v>45208</v>
+      </c>
       <c r="H475" s="1">
         <f>LEFT(B475,8)</f>
         <v/>
@@ -56988,13 +57252,37 @@
       </c>
     </row>
     <row r="476">
-      <c r="A476" s="16" t="n"/>
-      <c r="B476" s="2" t="n"/>
-      <c r="C476" s="16" t="n"/>
-      <c r="D476" s="16" t="n"/>
-      <c r="E476" s="16" t="n"/>
-      <c r="F476" s="21" t="n"/>
-      <c r="G476" s="14" t="n"/>
+      <c r="A476" s="16" t="inlineStr">
+        <is>
+          <t>MERCADO CEJEC LTDA</t>
+        </is>
+      </c>
+      <c r="B476" s="2" t="n">
+        <v>6249091000180</v>
+      </c>
+      <c r="C476" s="16" t="inlineStr">
+        <is>
+          <t>MR046441/2023</t>
+        </is>
+      </c>
+      <c r="D476" s="16" t="inlineStr">
+        <is>
+          <t>Domingos e feriados</t>
+        </is>
+      </c>
+      <c r="E476" s="16" t="inlineStr">
+        <is>
+          <t>Mercado</t>
+        </is>
+      </c>
+      <c r="F476" s="21" t="inlineStr">
+        <is>
+          <t>01/11/2022 - 31/12/2023</t>
+        </is>
+      </c>
+      <c r="G476" s="22" t="n">
+        <v>45210</v>
+      </c>
       <c r="H476" s="1">
         <f>LEFT(B476,8)</f>
         <v/>
@@ -57005,13 +57293,37 @@
       </c>
     </row>
     <row r="477">
-      <c r="A477" s="16" t="n"/>
-      <c r="B477" s="2" t="n"/>
-      <c r="C477" s="16" t="n"/>
-      <c r="D477" s="16" t="n"/>
-      <c r="E477" s="16" t="n"/>
-      <c r="F477" s="21" t="n"/>
-      <c r="G477" s="14" t="n"/>
+      <c r="A477" s="16" t="inlineStr">
+        <is>
+          <t>EB COMERCIO DE COLCHOES LTDA</t>
+        </is>
+      </c>
+      <c r="B477" s="2" t="n">
+        <v>27360267000146</v>
+      </c>
+      <c r="C477" s="16" t="inlineStr">
+        <is>
+          <t>MR056705/2023</t>
+        </is>
+      </c>
+      <c r="D477" s="16" t="inlineStr">
+        <is>
+          <t>Domingos e feriados</t>
+        </is>
+      </c>
+      <c r="E477" s="16" t="inlineStr">
+        <is>
+          <t>Lojista</t>
+        </is>
+      </c>
+      <c r="F477" s="21" t="inlineStr">
+        <is>
+          <t>01/11/2022 - 31/12/2023</t>
+        </is>
+      </c>
+      <c r="G477" s="22" t="n">
+        <v>45215</v>
+      </c>
       <c r="H477" s="1">
         <f>LEFT(B477,8)</f>
         <v/>
@@ -57022,13 +57334,37 @@
       </c>
     </row>
     <row r="478">
-      <c r="A478" s="16" t="n"/>
-      <c r="B478" s="2" t="n"/>
-      <c r="C478" s="16" t="n"/>
-      <c r="D478" s="16" t="n"/>
-      <c r="E478" s="16" t="n"/>
-      <c r="F478" s="21" t="n"/>
-      <c r="G478" s="14" t="n"/>
+      <c r="A478" s="16" t="inlineStr">
+        <is>
+          <t>YOLO BRAND COMERCIO DE VESTUARIO LTDA</t>
+        </is>
+      </c>
+      <c r="B478" s="2" t="n">
+        <v>28130205000100</v>
+      </c>
+      <c r="C478" s="16" t="inlineStr">
+        <is>
+          <t>MR056869/2023</t>
+        </is>
+      </c>
+      <c r="D478" s="16" t="inlineStr">
+        <is>
+          <t>Domingos e feriados</t>
+        </is>
+      </c>
+      <c r="E478" s="16" t="inlineStr">
+        <is>
+          <t>Lojista</t>
+        </is>
+      </c>
+      <c r="F478" s="21" t="inlineStr">
+        <is>
+          <t>01/11/2022 - 31/12/2023</t>
+        </is>
+      </c>
+      <c r="G478" s="22" t="n">
+        <v>45215</v>
+      </c>
       <c r="H478" s="1">
         <f>LEFT(B478,8)</f>
         <v/>
@@ -57039,13 +57375,37 @@
       </c>
     </row>
     <row r="479">
-      <c r="A479" s="16" t="n"/>
-      <c r="B479" s="2" t="n"/>
-      <c r="C479" s="16" t="n"/>
-      <c r="D479" s="16" t="n"/>
-      <c r="E479" s="16" t="n"/>
-      <c r="F479" s="21" t="n"/>
-      <c r="G479" s="14" t="n"/>
+      <c r="A479" s="16" t="inlineStr">
+        <is>
+          <t>CPF-COMERCIO DE VESTUARIOS FEMININO LTDA</t>
+        </is>
+      </c>
+      <c r="B479" s="2" t="n">
+        <v>10446214000301</v>
+      </c>
+      <c r="C479" s="16" t="inlineStr">
+        <is>
+          <t>MR056865/2023</t>
+        </is>
+      </c>
+      <c r="D479" s="16" t="inlineStr">
+        <is>
+          <t>Domingos e feriados</t>
+        </is>
+      </c>
+      <c r="E479" s="16" t="inlineStr">
+        <is>
+          <t>Lojista</t>
+        </is>
+      </c>
+      <c r="F479" s="21" t="inlineStr">
+        <is>
+          <t>01/11/2022 - 31/12/2023</t>
+        </is>
+      </c>
+      <c r="G479" s="22" t="n">
+        <v>45215</v>
+      </c>
       <c r="H479" s="1">
         <f>LEFT(B479,8)</f>
         <v/>
@@ -57056,13 +57416,37 @@
       </c>
     </row>
     <row r="480">
-      <c r="A480" s="16" t="n"/>
-      <c r="B480" s="2" t="n"/>
-      <c r="C480" s="16" t="n"/>
-      <c r="D480" s="16" t="n"/>
-      <c r="E480" s="16" t="n"/>
-      <c r="F480" s="21" t="n"/>
-      <c r="G480" s="14" t="n"/>
+      <c r="A480" s="16" t="inlineStr">
+        <is>
+          <t>IRMAS CAUS COMERCIO VAREJISTA DE CONFECCOES LTDA</t>
+        </is>
+      </c>
+      <c r="B480" s="2" t="n">
+        <v>42800499000242</v>
+      </c>
+      <c r="C480" s="16" t="inlineStr">
+        <is>
+          <t>MR057071/2023</t>
+        </is>
+      </c>
+      <c r="D480" s="16" t="inlineStr">
+        <is>
+          <t>Domingos e feriados</t>
+        </is>
+      </c>
+      <c r="E480" s="16" t="inlineStr">
+        <is>
+          <t>Lojista</t>
+        </is>
+      </c>
+      <c r="F480" s="21" t="inlineStr">
+        <is>
+          <t>01/11/2022 - 31/12/2023</t>
+        </is>
+      </c>
+      <c r="G480" s="22" t="n">
+        <v>45215</v>
+      </c>
       <c r="H480" s="1">
         <f>LEFT(B480,8)</f>
         <v/>
@@ -57073,13 +57457,37 @@
       </c>
     </row>
     <row r="481">
-      <c r="A481" s="16" t="n"/>
-      <c r="B481" s="2" t="n"/>
-      <c r="C481" s="16" t="n"/>
-      <c r="D481" s="16" t="n"/>
-      <c r="E481" s="16" t="n"/>
-      <c r="F481" s="21" t="n"/>
-      <c r="G481" s="14" t="n"/>
+      <c r="A481" s="16" t="inlineStr">
+        <is>
+          <t>GUCCI BRASIL IMPORTACAO E EXPORTACAO LTDA.</t>
+        </is>
+      </c>
+      <c r="B481" s="2" t="n">
+        <v>8338986001945</v>
+      </c>
+      <c r="C481" s="16" t="inlineStr">
+        <is>
+          <t>MR058028/2023</t>
+        </is>
+      </c>
+      <c r="D481" s="16" t="inlineStr">
+        <is>
+          <t>Domingos e feriados</t>
+        </is>
+      </c>
+      <c r="E481" s="16" t="inlineStr">
+        <is>
+          <t>Lojista</t>
+        </is>
+      </c>
+      <c r="F481" s="21" t="inlineStr">
+        <is>
+          <t>01/11/2022 - 31/12/2023</t>
+        </is>
+      </c>
+      <c r="G481" s="22" t="n">
+        <v>45217</v>
+      </c>
       <c r="H481" s="1">
         <f>LEFT(B481,8)</f>
         <v/>
@@ -57090,13 +57498,37 @@
       </c>
     </row>
     <row r="482">
-      <c r="A482" s="16" t="n"/>
-      <c r="B482" s="2" t="n"/>
-      <c r="C482" s="16" t="n"/>
-      <c r="D482" s="16" t="n"/>
-      <c r="E482" s="16" t="n"/>
-      <c r="F482" s="21" t="n"/>
-      <c r="G482" s="14" t="n"/>
+      <c r="A482" s="16" t="inlineStr">
+        <is>
+          <t>CALCADOS PEGADA NORDESTE LTDA.</t>
+        </is>
+      </c>
+      <c r="B482" s="2" t="n">
+        <v>6269953002260</v>
+      </c>
+      <c r="C482" s="16" t="inlineStr">
+        <is>
+          <t>MR058993/2023</t>
+        </is>
+      </c>
+      <c r="D482" s="16" t="inlineStr">
+        <is>
+          <t>Domingos e feriados</t>
+        </is>
+      </c>
+      <c r="E482" s="16" t="inlineStr">
+        <is>
+          <t>Lojista</t>
+        </is>
+      </c>
+      <c r="F482" s="21" t="inlineStr">
+        <is>
+          <t>01/11/2022 - 31/12/2023</t>
+        </is>
+      </c>
+      <c r="G482" s="22" t="n">
+        <v>45223</v>
+      </c>
       <c r="H482" s="1">
         <f>LEFT(B482,8)</f>
         <v/>
@@ -57107,13 +57539,37 @@
       </c>
     </row>
     <row r="483">
-      <c r="A483" s="16" t="n"/>
-      <c r="B483" s="2" t="n"/>
-      <c r="C483" s="16" t="n"/>
-      <c r="D483" s="16" t="n"/>
-      <c r="E483" s="16" t="n"/>
-      <c r="F483" s="21" t="n"/>
-      <c r="G483" s="14" t="n"/>
+      <c r="A483" s="16" t="inlineStr">
+        <is>
+          <t>SOL, VIDA E LUZ COMERCIAL LTDA</t>
+        </is>
+      </c>
+      <c r="B483" s="2" t="n">
+        <v>51692363000176</v>
+      </c>
+      <c r="C483" s="16" t="inlineStr">
+        <is>
+          <t>MR054346/2023</t>
+        </is>
+      </c>
+      <c r="D483" s="16" t="inlineStr">
+        <is>
+          <t>Domingos e feriados</t>
+        </is>
+      </c>
+      <c r="E483" s="16" t="inlineStr">
+        <is>
+          <t>Lojista</t>
+        </is>
+      </c>
+      <c r="F483" s="21" t="inlineStr">
+        <is>
+          <t>01/11/2022 - 31/12/2023</t>
+        </is>
+      </c>
+      <c r="G483" s="22" t="n">
+        <v>45223</v>
+      </c>
       <c r="H483" s="1">
         <f>LEFT(B483,8)</f>
         <v/>
@@ -57124,13 +57580,37 @@
       </c>
     </row>
     <row r="484">
-      <c r="A484" s="16" t="n"/>
-      <c r="B484" s="2" t="n"/>
-      <c r="C484" s="16" t="n"/>
-      <c r="D484" s="16" t="n"/>
-      <c r="E484" s="16" t="n"/>
-      <c r="F484" s="21" t="n"/>
-      <c r="G484" s="14" t="n"/>
+      <c r="A484" s="16" t="inlineStr">
+        <is>
+          <t>VIVIANE ESTEVES ALMEIDA LTDA</t>
+        </is>
+      </c>
+      <c r="B484" s="2" t="n">
+        <v>51808544000115</v>
+      </c>
+      <c r="C484" s="16" t="inlineStr">
+        <is>
+          <t>MR058376/2023</t>
+        </is>
+      </c>
+      <c r="D484" s="16" t="inlineStr">
+        <is>
+          <t>Domingos e feriados</t>
+        </is>
+      </c>
+      <c r="E484" s="16" t="inlineStr">
+        <is>
+          <t>Lojista</t>
+        </is>
+      </c>
+      <c r="F484" s="21" t="inlineStr">
+        <is>
+          <t>01/11/2022 - 31/12/2023</t>
+        </is>
+      </c>
+      <c r="G484" s="22" t="n">
+        <v>45223</v>
+      </c>
       <c r="H484" s="1">
         <f>LEFT(B484,8)</f>
         <v/>
@@ -57141,13 +57621,37 @@
       </c>
     </row>
     <row r="485">
-      <c r="A485" s="16" t="n"/>
-      <c r="B485" s="2" t="n"/>
-      <c r="C485" s="16" t="n"/>
-      <c r="D485" s="16" t="n"/>
-      <c r="E485" s="16" t="n"/>
-      <c r="F485" s="21" t="n"/>
-      <c r="G485" s="14" t="n"/>
+      <c r="A485" s="16" t="inlineStr">
+        <is>
+          <t>EVEREST COMERCIO DE COLCHOES E ACESSORIOS LTDA</t>
+        </is>
+      </c>
+      <c r="B485" s="2" t="n">
+        <v>37897021000323</v>
+      </c>
+      <c r="C485" s="16" t="inlineStr">
+        <is>
+          <t>MR057996/2023</t>
+        </is>
+      </c>
+      <c r="D485" s="16" t="inlineStr">
+        <is>
+          <t>Domingos e feriados</t>
+        </is>
+      </c>
+      <c r="E485" s="16" t="inlineStr">
+        <is>
+          <t>Lojista</t>
+        </is>
+      </c>
+      <c r="F485" s="21" t="inlineStr">
+        <is>
+          <t>01/11/2022 - 31/12/2023</t>
+        </is>
+      </c>
+      <c r="G485" s="22" t="n">
+        <v>45223</v>
+      </c>
       <c r="H485" s="1">
         <f>LEFT(B485,8)</f>
         <v/>
@@ -57158,13 +57662,37 @@
       </c>
     </row>
     <row r="486">
-      <c r="A486" s="16" t="n"/>
-      <c r="B486" s="2" t="n"/>
-      <c r="C486" s="16" t="n"/>
-      <c r="D486" s="16" t="n"/>
-      <c r="E486" s="16" t="n"/>
-      <c r="F486" s="21" t="n"/>
-      <c r="G486" s="14" t="n"/>
+      <c r="A486" s="16" t="inlineStr">
+        <is>
+          <t>EVEREST COMERCIO DE COLCHOES E ACESSORIOS LTDA</t>
+        </is>
+      </c>
+      <c r="B486" s="2" t="n">
+        <v>37897021000404</v>
+      </c>
+      <c r="C486" s="16" t="inlineStr">
+        <is>
+          <t>MR057996/2023</t>
+        </is>
+      </c>
+      <c r="D486" s="16" t="inlineStr">
+        <is>
+          <t>Domingos e feriados</t>
+        </is>
+      </c>
+      <c r="E486" s="16" t="inlineStr">
+        <is>
+          <t>Lojista</t>
+        </is>
+      </c>
+      <c r="F486" s="21" t="inlineStr">
+        <is>
+          <t>01/11/2022 - 31/12/2023</t>
+        </is>
+      </c>
+      <c r="G486" s="22" t="n">
+        <v>45223</v>
+      </c>
       <c r="H486" s="1">
         <f>LEFT(B486,8)</f>
         <v/>
@@ -57175,13 +57703,37 @@
       </c>
     </row>
     <row r="487">
-      <c r="A487" s="16" t="n"/>
-      <c r="B487" s="2" t="n"/>
-      <c r="C487" s="16" t="n"/>
-      <c r="D487" s="16" t="n"/>
-      <c r="E487" s="16" t="n"/>
-      <c r="F487" s="21" t="n"/>
-      <c r="G487" s="14" t="n"/>
+      <c r="A487" s="16" t="inlineStr">
+        <is>
+          <t>CLAUDIA R. DE VARGAS LTDA</t>
+        </is>
+      </c>
+      <c r="B487" s="2" t="n">
+        <v>37902619000100</v>
+      </c>
+      <c r="C487" s="16" t="inlineStr">
+        <is>
+          <t>MR057895/2023</t>
+        </is>
+      </c>
+      <c r="D487" s="16" t="inlineStr">
+        <is>
+          <t>Domingos e feriados</t>
+        </is>
+      </c>
+      <c r="E487" s="16" t="inlineStr">
+        <is>
+          <t>Lojista</t>
+        </is>
+      </c>
+      <c r="F487" s="21" t="inlineStr">
+        <is>
+          <t>01/11/2022 - 31/12/2023</t>
+        </is>
+      </c>
+      <c r="G487" s="22" t="n">
+        <v>45223</v>
+      </c>
       <c r="H487" s="1">
         <f>LEFT(B487,8)</f>
         <v/>
@@ -57192,13 +57744,37 @@
       </c>
     </row>
     <row r="488">
-      <c r="A488" s="16" t="n"/>
-      <c r="B488" s="2" t="n"/>
-      <c r="C488" s="16" t="n"/>
-      <c r="D488" s="16" t="n"/>
-      <c r="E488" s="16" t="n"/>
-      <c r="F488" s="21" t="n"/>
-      <c r="G488" s="14" t="n"/>
+      <c r="A488" s="16" t="inlineStr">
+        <is>
+          <t>C. R. DE VARGAS LTDA</t>
+        </is>
+      </c>
+      <c r="B488" s="2" t="n">
+        <v>48462686000169</v>
+      </c>
+      <c r="C488" s="16" t="inlineStr">
+        <is>
+          <t>MR038543/2023</t>
+        </is>
+      </c>
+      <c r="D488" s="16" t="inlineStr">
+        <is>
+          <t>Domingos e feriados</t>
+        </is>
+      </c>
+      <c r="E488" s="16" t="inlineStr">
+        <is>
+          <t>Lojista</t>
+        </is>
+      </c>
+      <c r="F488" s="21" t="inlineStr">
+        <is>
+          <t>01/11/2022 - 31/12/2023</t>
+        </is>
+      </c>
+      <c r="G488" s="22" t="n">
+        <v>45223</v>
+      </c>
       <c r="H488" s="1">
         <f>LEFT(B488,8)</f>
         <v/>
@@ -57209,13 +57785,37 @@
       </c>
     </row>
     <row r="489">
-      <c r="A489" s="16" t="n"/>
-      <c r="B489" s="2" t="n"/>
-      <c r="C489" s="16" t="n"/>
-      <c r="D489" s="16" t="n"/>
-      <c r="E489" s="16" t="n"/>
-      <c r="F489" s="21" t="n"/>
-      <c r="G489" s="14" t="n"/>
+      <c r="A489" s="16" t="inlineStr">
+        <is>
+          <t>FERNANDA CATELAN CALLEGARO CALCADOS LTDA</t>
+        </is>
+      </c>
+      <c r="B489" s="2" t="n">
+        <v>24057449000235</v>
+      </c>
+      <c r="C489" s="16" t="inlineStr">
+        <is>
+          <t>MR057082/2023</t>
+        </is>
+      </c>
+      <c r="D489" s="16" t="inlineStr">
+        <is>
+          <t>Domingos e feriados</t>
+        </is>
+      </c>
+      <c r="E489" s="16" t="inlineStr">
+        <is>
+          <t>Lojista</t>
+        </is>
+      </c>
+      <c r="F489" s="21" t="inlineStr">
+        <is>
+          <t>01/11/2022 - 31/12/2023</t>
+        </is>
+      </c>
+      <c r="G489" s="22" t="n">
+        <v>45223</v>
+      </c>
       <c r="H489" s="1">
         <f>LEFT(B489,8)</f>
         <v/>
@@ -57226,13 +57826,37 @@
       </c>
     </row>
     <row r="490">
-      <c r="A490" s="16" t="n"/>
-      <c r="B490" s="2" t="n"/>
-      <c r="C490" s="16" t="n"/>
-      <c r="D490" s="16" t="n"/>
-      <c r="E490" s="16" t="n"/>
-      <c r="F490" s="21" t="n"/>
-      <c r="G490" s="14" t="n"/>
+      <c r="A490" s="16" t="inlineStr">
+        <is>
+          <t>COMM ARTIGOS PARA O LAR LTDA</t>
+        </is>
+      </c>
+      <c r="B490" s="2" t="n">
+        <v>51050830000164</v>
+      </c>
+      <c r="C490" s="16" t="inlineStr">
+        <is>
+          <t>MR060244/2023</t>
+        </is>
+      </c>
+      <c r="D490" s="16" t="inlineStr">
+        <is>
+          <t>Domingos e feriados</t>
+        </is>
+      </c>
+      <c r="E490" s="16" t="inlineStr">
+        <is>
+          <t>Lojista</t>
+        </is>
+      </c>
+      <c r="F490" s="21" t="inlineStr">
+        <is>
+          <t>01/11/2022 - 31/12/2023</t>
+        </is>
+      </c>
+      <c r="G490" s="22" t="n">
+        <v>45226</v>
+      </c>
       <c r="H490" s="1">
         <f>LEFT(B490,8)</f>
         <v/>
@@ -57243,13 +57867,37 @@
       </c>
     </row>
     <row r="491">
-      <c r="A491" s="16" t="n"/>
-      <c r="B491" s="2" t="n"/>
-      <c r="C491" s="16" t="n"/>
-      <c r="D491" s="16" t="n"/>
-      <c r="E491" s="16" t="n"/>
-      <c r="F491" s="21" t="n"/>
-      <c r="G491" s="14" t="n"/>
+      <c r="A491" s="16" t="inlineStr">
+        <is>
+          <t>COMERCIAL DE ALIMENTOS S H LTDA</t>
+        </is>
+      </c>
+      <c r="B491" s="2" t="n">
+        <v>5597069000168</v>
+      </c>
+      <c r="C491" s="16" t="inlineStr">
+        <is>
+          <t>MR059281/2023</t>
+        </is>
+      </c>
+      <c r="D491" s="16" t="inlineStr">
+        <is>
+          <t>Domingos e feriados</t>
+        </is>
+      </c>
+      <c r="E491" s="16" t="inlineStr">
+        <is>
+          <t>Mercado</t>
+        </is>
+      </c>
+      <c r="F491" s="21" t="inlineStr">
+        <is>
+          <t>01/11/2022 - 31/12/2023</t>
+        </is>
+      </c>
+      <c r="G491" s="22" t="n">
+        <v>45230</v>
+      </c>
       <c r="H491" s="1">
         <f>LEFT(B491,8)</f>
         <v/>
@@ -57260,13 +57908,37 @@
       </c>
     </row>
     <row r="492">
-      <c r="A492" s="16" t="n"/>
-      <c r="B492" s="2" t="n"/>
-      <c r="C492" s="16" t="n"/>
-      <c r="D492" s="16" t="n"/>
-      <c r="E492" s="16" t="n"/>
-      <c r="F492" s="21" t="n"/>
-      <c r="G492" s="14" t="n"/>
+      <c r="A492" s="16" t="inlineStr">
+        <is>
+          <t>O VANTAJAO ATACADO LTDA</t>
+        </is>
+      </c>
+      <c r="B492" s="2" t="n">
+        <v>5700405001390</v>
+      </c>
+      <c r="C492" s="16" t="inlineStr">
+        <is>
+          <t>MR060676/2023</t>
+        </is>
+      </c>
+      <c r="D492" s="16" t="inlineStr">
+        <is>
+          <t>Domingos e feriados</t>
+        </is>
+      </c>
+      <c r="E492" s="16" t="inlineStr">
+        <is>
+          <t>Mercado</t>
+        </is>
+      </c>
+      <c r="F492" s="21" t="inlineStr">
+        <is>
+          <t>01/11/2022 - 31/12/2023</t>
+        </is>
+      </c>
+      <c r="G492" s="22" t="n">
+        <v>45231</v>
+      </c>
       <c r="H492" s="1">
         <f>LEFT(B492,8)</f>
         <v/>
@@ -57277,13 +57949,37 @@
       </c>
     </row>
     <row r="493">
-      <c r="A493" s="16" t="n"/>
-      <c r="B493" s="2" t="n"/>
-      <c r="C493" s="16" t="n"/>
-      <c r="D493" s="16" t="n"/>
-      <c r="E493" s="16" t="n"/>
-      <c r="F493" s="21" t="n"/>
-      <c r="G493" s="14" t="n"/>
+      <c r="A493" s="16" t="inlineStr">
+        <is>
+          <t>SACOLAO DA CHACARA COMERCIO DE ALIMENTOS LTDA</t>
+        </is>
+      </c>
+      <c r="B493" s="2" t="n">
+        <v>7279155000158</v>
+      </c>
+      <c r="C493" s="16" t="inlineStr">
+        <is>
+          <t>MR061052/2023</t>
+        </is>
+      </c>
+      <c r="D493" s="16" t="inlineStr">
+        <is>
+          <t>Domingos e feriados</t>
+        </is>
+      </c>
+      <c r="E493" s="16" t="inlineStr">
+        <is>
+          <t>Mercado</t>
+        </is>
+      </c>
+      <c r="F493" s="21" t="inlineStr">
+        <is>
+          <t>01/11/2022 - 31/12/2023</t>
+        </is>
+      </c>
+      <c r="G493" s="22" t="n">
+        <v>45231</v>
+      </c>
       <c r="H493" s="1">
         <f>LEFT(B493,8)</f>
         <v/>
@@ -57294,13 +57990,37 @@
       </c>
     </row>
     <row r="494">
-      <c r="A494" s="16" t="n"/>
-      <c r="B494" s="2" t="n"/>
-      <c r="C494" s="16" t="n"/>
-      <c r="D494" s="16" t="n"/>
-      <c r="E494" s="16" t="n"/>
-      <c r="F494" s="21" t="n"/>
-      <c r="G494" s="14" t="n"/>
+      <c r="A494" s="16" t="inlineStr">
+        <is>
+          <t>SHOULDER INDUSTRIA E COMERCIO DE CONFECCOES LTDA</t>
+        </is>
+      </c>
+      <c r="B494" s="2" t="n">
+        <v>43470566002486</v>
+      </c>
+      <c r="C494" s="16" t="inlineStr">
+        <is>
+          <t>MR060168/2023</t>
+        </is>
+      </c>
+      <c r="D494" s="16" t="inlineStr">
+        <is>
+          <t>Domingos e feriados</t>
+        </is>
+      </c>
+      <c r="E494" s="16" t="inlineStr">
+        <is>
+          <t>Lojista</t>
+        </is>
+      </c>
+      <c r="F494" s="21" t="inlineStr">
+        <is>
+          <t>01/11/2022 - 31/12/2023</t>
+        </is>
+      </c>
+      <c r="G494" s="22" t="n">
+        <v>45231</v>
+      </c>
       <c r="H494" s="1">
         <f>LEFT(B494,8)</f>
         <v/>
@@ -57311,13 +58031,37 @@
       </c>
     </row>
     <row r="495">
-      <c r="A495" s="16" t="n"/>
-      <c r="B495" s="2" t="n"/>
-      <c r="C495" s="16" t="n"/>
-      <c r="D495" s="16" t="n"/>
-      <c r="E495" s="16" t="n"/>
-      <c r="F495" s="21" t="n"/>
-      <c r="G495" s="14" t="n"/>
+      <c r="A495" s="16" t="inlineStr">
+        <is>
+          <t>SHOULDER INDUSTRIA E COMERCIO DE CONFECCOES LTDA</t>
+        </is>
+      </c>
+      <c r="B495" s="2" t="n">
+        <v>43470566010152</v>
+      </c>
+      <c r="C495" s="16" t="inlineStr">
+        <is>
+          <t>MR060168/2023</t>
+        </is>
+      </c>
+      <c r="D495" s="16" t="inlineStr">
+        <is>
+          <t>Domingos e feriados</t>
+        </is>
+      </c>
+      <c r="E495" s="16" t="inlineStr">
+        <is>
+          <t>Lojista</t>
+        </is>
+      </c>
+      <c r="F495" s="21" t="inlineStr">
+        <is>
+          <t>01/11/2022 - 31/12/2023</t>
+        </is>
+      </c>
+      <c r="G495" s="22" t="n">
+        <v>45231</v>
+      </c>
       <c r="H495" s="1">
         <f>LEFT(B495,8)</f>
         <v/>
@@ -57328,13 +58072,37 @@
       </c>
     </row>
     <row r="496">
-      <c r="A496" s="16" t="n"/>
-      <c r="B496" s="2" t="n"/>
-      <c r="C496" s="16" t="n"/>
-      <c r="D496" s="16" t="n"/>
-      <c r="E496" s="16" t="n"/>
-      <c r="F496" s="21" t="n"/>
-      <c r="G496" s="14" t="n"/>
+      <c r="A496" s="16" t="inlineStr">
+        <is>
+          <t>SHOULDER INDUSTRIA E COMERCIO DE CONFECCOES LTDA</t>
+        </is>
+      </c>
+      <c r="B496" s="2" t="n">
+        <v>43470566004500</v>
+      </c>
+      <c r="C496" s="16" t="inlineStr">
+        <is>
+          <t>MR060168/2023</t>
+        </is>
+      </c>
+      <c r="D496" s="16" t="inlineStr">
+        <is>
+          <t>Domingos e feriados</t>
+        </is>
+      </c>
+      <c r="E496" s="16" t="inlineStr">
+        <is>
+          <t>Lojista</t>
+        </is>
+      </c>
+      <c r="F496" s="21" t="inlineStr">
+        <is>
+          <t>01/11/2022 - 31/12/2023</t>
+        </is>
+      </c>
+      <c r="G496" s="22" t="n">
+        <v>45231</v>
+      </c>
       <c r="H496" s="1">
         <f>LEFT(B496,8)</f>
         <v/>
@@ -57345,13 +58113,37 @@
       </c>
     </row>
     <row r="497">
-      <c r="A497" s="16" t="n"/>
-      <c r="B497" s="2" t="n"/>
-      <c r="C497" s="16" t="n"/>
-      <c r="D497" s="16" t="n"/>
-      <c r="E497" s="16" t="n"/>
-      <c r="F497" s="21" t="n"/>
-      <c r="G497" s="14" t="n"/>
+      <c r="A497" s="16" t="inlineStr">
+        <is>
+          <t>RMR COSMETICOS LTDA</t>
+        </is>
+      </c>
+      <c r="B497" s="2" t="n">
+        <v>50493288000151</v>
+      </c>
+      <c r="C497" s="16" t="inlineStr">
+        <is>
+          <t>MR061452/2023</t>
+        </is>
+      </c>
+      <c r="D497" s="16" t="inlineStr">
+        <is>
+          <t>Domingos e feriados</t>
+        </is>
+      </c>
+      <c r="E497" s="16" t="inlineStr">
+        <is>
+          <t>Lojista</t>
+        </is>
+      </c>
+      <c r="F497" s="21" t="inlineStr">
+        <is>
+          <t>01/11/2022 - 31/12/2023</t>
+        </is>
+      </c>
+      <c r="G497" s="22" t="n">
+        <v>45231</v>
+      </c>
       <c r="H497" s="1">
         <f>LEFT(B497,8)</f>
         <v/>
@@ -57362,13 +58154,37 @@
       </c>
     </row>
     <row r="498">
-      <c r="A498" s="16" t="n"/>
-      <c r="B498" s="2" t="n"/>
-      <c r="C498" s="16" t="n"/>
-      <c r="D498" s="16" t="n"/>
-      <c r="E498" s="16" t="n"/>
-      <c r="F498" s="21" t="n"/>
-      <c r="G498" s="14" t="n"/>
+      <c r="A498" s="16" t="inlineStr">
+        <is>
+          <t>SUBLIME IGUATEMI COMERCIO DE COLCHOES LTDA</t>
+        </is>
+      </c>
+      <c r="B498" s="2" t="n">
+        <v>43205784000105</v>
+      </c>
+      <c r="C498" s="16" t="inlineStr">
+        <is>
+          <t>MR061646/2023</t>
+        </is>
+      </c>
+      <c r="D498" s="16" t="inlineStr">
+        <is>
+          <t>Domingos e feriados</t>
+        </is>
+      </c>
+      <c r="E498" s="16" t="inlineStr">
+        <is>
+          <t>Lojista</t>
+        </is>
+      </c>
+      <c r="F498" s="21" t="inlineStr">
+        <is>
+          <t>01/11/2022 - 31/12/2023</t>
+        </is>
+      </c>
+      <c r="G498" s="22" t="n">
+        <v>45236</v>
+      </c>
       <c r="H498" s="1">
         <f>LEFT(B498,8)</f>
         <v/>
@@ -57379,13 +58195,37 @@
       </c>
     </row>
     <row r="499">
-      <c r="A499" s="16" t="n"/>
-      <c r="B499" s="2" t="n"/>
-      <c r="C499" s="16" t="n"/>
-      <c r="D499" s="16" t="n"/>
-      <c r="E499" s="16" t="n"/>
-      <c r="F499" s="21" t="n"/>
-      <c r="G499" s="14" t="n"/>
+      <c r="A499" s="16" t="inlineStr">
+        <is>
+          <t>LOJAO DO ALEMAO BAZAR LTDA</t>
+        </is>
+      </c>
+      <c r="B499" s="2" t="n">
+        <v>11875165000123</v>
+      </c>
+      <c r="C499" s="16" t="inlineStr">
+        <is>
+          <t>MR061771/2023</t>
+        </is>
+      </c>
+      <c r="D499" s="16" t="inlineStr">
+        <is>
+          <t>Domingos e feriados</t>
+        </is>
+      </c>
+      <c r="E499" s="16" t="inlineStr">
+        <is>
+          <t>Lojista</t>
+        </is>
+      </c>
+      <c r="F499" s="21" t="inlineStr">
+        <is>
+          <t>01/11/2022 - 31/12/2023</t>
+        </is>
+      </c>
+      <c r="G499" s="22" t="n">
+        <v>45236</v>
+      </c>
       <c r="H499" s="1">
         <f>LEFT(B499,8)</f>
         <v/>
@@ -57396,13 +58236,37 @@
       </c>
     </row>
     <row r="500">
-      <c r="A500" s="16" t="n"/>
-      <c r="B500" s="2" t="n"/>
-      <c r="C500" s="16" t="n"/>
-      <c r="D500" s="16" t="n"/>
-      <c r="E500" s="16" t="n"/>
-      <c r="F500" s="21" t="n"/>
-      <c r="G500" s="14" t="n"/>
+      <c r="A500" s="16" t="inlineStr">
+        <is>
+          <t>BAZAR DO ALEMAO COMERCIO DE PRODUTOS ALIMENTICIOS E VARIEDADES LTDA</t>
+        </is>
+      </c>
+      <c r="B500" s="2" t="n">
+        <v>36552328000168</v>
+      </c>
+      <c r="C500" s="16" t="inlineStr">
+        <is>
+          <t>MR061432/2023</t>
+        </is>
+      </c>
+      <c r="D500" s="16" t="inlineStr">
+        <is>
+          <t>Domingos e feriados</t>
+        </is>
+      </c>
+      <c r="E500" s="16" t="inlineStr">
+        <is>
+          <t>Lojista</t>
+        </is>
+      </c>
+      <c r="F500" s="21" t="inlineStr">
+        <is>
+          <t>01/11/2022 - 31/12/2023</t>
+        </is>
+      </c>
+      <c r="G500" s="22" t="n">
+        <v>45236</v>
+      </c>
       <c r="H500" s="1">
         <f>LEFT(B500,8)</f>
         <v/>
@@ -57413,13 +58277,37 @@
       </c>
     </row>
     <row r="501">
-      <c r="A501" s="16" t="n"/>
-      <c r="B501" s="2" t="n"/>
-      <c r="C501" s="16" t="n"/>
-      <c r="D501" s="16" t="n"/>
-      <c r="E501" s="16" t="n"/>
-      <c r="F501" s="21" t="n"/>
-      <c r="G501" s="14" t="n"/>
+      <c r="A501" s="16" t="inlineStr">
+        <is>
+          <t>INBRANDS S.A</t>
+        </is>
+      </c>
+      <c r="B501" s="2" t="n">
+        <v>9054385019325</v>
+      </c>
+      <c r="C501" s="16" t="inlineStr">
+        <is>
+          <t>MR061813/2023</t>
+        </is>
+      </c>
+      <c r="D501" s="16" t="inlineStr">
+        <is>
+          <t>Domingos e feriados</t>
+        </is>
+      </c>
+      <c r="E501" s="16" t="inlineStr">
+        <is>
+          <t>Lojista</t>
+        </is>
+      </c>
+      <c r="F501" s="21" t="inlineStr">
+        <is>
+          <t>01/11/2022 - 31/12/2023</t>
+        </is>
+      </c>
+      <c r="G501" s="22" t="n">
+        <v>45236</v>
+      </c>
       <c r="H501" s="1">
         <f>LEFT(B501,8)</f>
         <v/>
@@ -57430,13 +58318,37 @@
       </c>
     </row>
     <row r="502">
-      <c r="A502" s="16" t="n"/>
-      <c r="B502" s="2" t="n"/>
-      <c r="C502" s="16" t="n"/>
-      <c r="D502" s="16" t="n"/>
-      <c r="E502" s="16" t="n"/>
-      <c r="F502" s="21" t="n"/>
-      <c r="G502" s="14" t="n"/>
+      <c r="A502" s="16" t="inlineStr">
+        <is>
+          <t>INBRANDS S.A</t>
+        </is>
+      </c>
+      <c r="B502" s="2" t="n">
+        <v>9054385019082</v>
+      </c>
+      <c r="C502" s="16" t="inlineStr">
+        <is>
+          <t>MR061813/2023</t>
+        </is>
+      </c>
+      <c r="D502" s="16" t="inlineStr">
+        <is>
+          <t>Domingos e feriados</t>
+        </is>
+      </c>
+      <c r="E502" s="16" t="inlineStr">
+        <is>
+          <t>Lojista</t>
+        </is>
+      </c>
+      <c r="F502" s="21" t="inlineStr">
+        <is>
+          <t>01/11/2022 - 31/12/2023</t>
+        </is>
+      </c>
+      <c r="G502" s="22" t="n">
+        <v>45236</v>
+      </c>
       <c r="H502" s="1">
         <f>LEFT(B502,8)</f>
         <v/>
@@ -57447,13 +58359,37 @@
       </c>
     </row>
     <row r="503">
-      <c r="A503" s="16" t="n"/>
-      <c r="B503" s="2" t="n"/>
-      <c r="C503" s="16" t="n"/>
-      <c r="D503" s="16" t="n"/>
-      <c r="E503" s="16" t="n"/>
-      <c r="F503" s="21" t="n"/>
-      <c r="G503" s="14" t="n"/>
+      <c r="A503" s="16" t="inlineStr">
+        <is>
+          <t>INBRANDS S.A</t>
+        </is>
+      </c>
+      <c r="B503" s="2" t="n">
+        <v>9054385003321</v>
+      </c>
+      <c r="C503" s="16" t="inlineStr">
+        <is>
+          <t>MR061813/2023</t>
+        </is>
+      </c>
+      <c r="D503" s="16" t="inlineStr">
+        <is>
+          <t>Domingos e feriados</t>
+        </is>
+      </c>
+      <c r="E503" s="16" t="inlineStr">
+        <is>
+          <t>Lojista</t>
+        </is>
+      </c>
+      <c r="F503" s="21" t="inlineStr">
+        <is>
+          <t>01/11/2022 - 31/12/2023</t>
+        </is>
+      </c>
+      <c r="G503" s="22" t="n">
+        <v>45236</v>
+      </c>
       <c r="H503" s="1">
         <f>LEFT(B503,8)</f>
         <v/>
@@ -57464,13 +58400,37 @@
       </c>
     </row>
     <row r="504">
-      <c r="A504" s="16" t="n"/>
-      <c r="B504" s="2" t="n"/>
-      <c r="C504" s="16" t="n"/>
-      <c r="D504" s="16" t="n"/>
-      <c r="E504" s="16" t="n"/>
-      <c r="F504" s="21" t="n"/>
-      <c r="G504" s="14" t="n"/>
+      <c r="A504" s="16" t="inlineStr">
+        <is>
+          <t>INBRANDS S.A</t>
+        </is>
+      </c>
+      <c r="B504" s="2" t="n">
+        <v>9054385019597</v>
+      </c>
+      <c r="C504" s="16" t="inlineStr">
+        <is>
+          <t>MR061813/2023</t>
+        </is>
+      </c>
+      <c r="D504" s="16" t="inlineStr">
+        <is>
+          <t>Domingos e feriados</t>
+        </is>
+      </c>
+      <c r="E504" s="16" t="inlineStr">
+        <is>
+          <t>Lojista</t>
+        </is>
+      </c>
+      <c r="F504" s="21" t="inlineStr">
+        <is>
+          <t>01/11/2022 - 31/12/2023</t>
+        </is>
+      </c>
+      <c r="G504" s="22" t="n">
+        <v>45236</v>
+      </c>
       <c r="H504" s="1">
         <f>LEFT(B504,8)</f>
         <v/>
@@ -57481,13 +58441,37 @@
       </c>
     </row>
     <row r="505">
-      <c r="A505" s="16" t="n"/>
-      <c r="B505" s="2" t="n"/>
-      <c r="C505" s="16" t="n"/>
-      <c r="D505" s="16" t="n"/>
-      <c r="E505" s="16" t="n"/>
-      <c r="F505" s="21" t="n"/>
-      <c r="G505" s="14" t="n"/>
+      <c r="A505" s="16" t="inlineStr">
+        <is>
+          <t>INBRANDS S.A</t>
+        </is>
+      </c>
+      <c r="B505" s="2" t="n">
+        <v>9054385018949</v>
+      </c>
+      <c r="C505" s="16" t="inlineStr">
+        <is>
+          <t>MR061813/2023</t>
+        </is>
+      </c>
+      <c r="D505" s="16" t="inlineStr">
+        <is>
+          <t>Domingos e feriados</t>
+        </is>
+      </c>
+      <c r="E505" s="16" t="inlineStr">
+        <is>
+          <t>Lojista</t>
+        </is>
+      </c>
+      <c r="F505" s="21" t="inlineStr">
+        <is>
+          <t>01/11/2022 - 31/12/2023</t>
+        </is>
+      </c>
+      <c r="G505" s="22" t="n">
+        <v>45236</v>
+      </c>
       <c r="H505" s="1">
         <f>LEFT(B505,8)</f>
         <v/>
@@ -57498,13 +58482,37 @@
       </c>
     </row>
     <row r="506">
-      <c r="A506" s="16" t="n"/>
-      <c r="B506" s="2" t="n"/>
-      <c r="C506" s="16" t="n"/>
-      <c r="D506" s="16" t="n"/>
-      <c r="E506" s="16" t="n"/>
-      <c r="F506" s="21" t="n"/>
-      <c r="G506" s="14" t="n"/>
+      <c r="A506" s="16" t="inlineStr">
+        <is>
+          <t>INBRANDS S.A</t>
+        </is>
+      </c>
+      <c r="B506" s="2" t="n">
+        <v>9054385005022</v>
+      </c>
+      <c r="C506" s="16" t="inlineStr">
+        <is>
+          <t>MR061813/2023</t>
+        </is>
+      </c>
+      <c r="D506" s="16" t="inlineStr">
+        <is>
+          <t>Domingos e feriados</t>
+        </is>
+      </c>
+      <c r="E506" s="16" t="inlineStr">
+        <is>
+          <t>Lojista</t>
+        </is>
+      </c>
+      <c r="F506" s="21" t="inlineStr">
+        <is>
+          <t>01/11/2022 - 31/12/2023</t>
+        </is>
+      </c>
+      <c r="G506" s="22" t="n">
+        <v>45236</v>
+      </c>
       <c r="H506" s="1">
         <f>LEFT(B506,8)</f>
         <v/>
@@ -57515,13 +58523,37 @@
       </c>
     </row>
     <row r="507">
-      <c r="A507" s="16" t="n"/>
-      <c r="B507" s="2" t="n"/>
-      <c r="C507" s="16" t="n"/>
-      <c r="D507" s="16" t="n"/>
-      <c r="E507" s="16" t="n"/>
-      <c r="F507" s="21" t="n"/>
-      <c r="G507" s="14" t="n"/>
+      <c r="A507" s="16" t="inlineStr">
+        <is>
+          <t>INBRANDS S.A</t>
+        </is>
+      </c>
+      <c r="B507" s="2" t="n">
+        <v>9054385004999</v>
+      </c>
+      <c r="C507" s="16" t="inlineStr">
+        <is>
+          <t>MR061813/2023</t>
+        </is>
+      </c>
+      <c r="D507" s="16" t="inlineStr">
+        <is>
+          <t>Domingos e feriados</t>
+        </is>
+      </c>
+      <c r="E507" s="16" t="inlineStr">
+        <is>
+          <t>Lojista</t>
+        </is>
+      </c>
+      <c r="F507" s="21" t="inlineStr">
+        <is>
+          <t>01/11/2022 - 31/12/2023</t>
+        </is>
+      </c>
+      <c r="G507" s="22" t="n">
+        <v>45236</v>
+      </c>
       <c r="H507" s="1">
         <f>LEFT(B507,8)</f>
         <v/>
@@ -57532,13 +58564,37 @@
       </c>
     </row>
     <row r="508">
-      <c r="A508" s="16" t="n"/>
-      <c r="B508" s="2" t="n"/>
-      <c r="C508" s="16" t="n"/>
-      <c r="D508" s="16" t="n"/>
-      <c r="E508" s="16" t="n"/>
-      <c r="F508" s="21" t="n"/>
-      <c r="G508" s="14" t="n"/>
+      <c r="A508" s="16" t="inlineStr">
+        <is>
+          <t>SUBLIME PONTAL COMERCIO DE COLHOES LTDA</t>
+        </is>
+      </c>
+      <c r="B508" s="2" t="n">
+        <v>50135022000137</v>
+      </c>
+      <c r="C508" s="16" t="inlineStr">
+        <is>
+          <t>MR061642/2023</t>
+        </is>
+      </c>
+      <c r="D508" s="16" t="inlineStr">
+        <is>
+          <t>Domingos e feriados</t>
+        </is>
+      </c>
+      <c r="E508" s="16" t="inlineStr">
+        <is>
+          <t>Lojista</t>
+        </is>
+      </c>
+      <c r="F508" s="21" t="inlineStr">
+        <is>
+          <t>01/11/2022 - 31/12/2023</t>
+        </is>
+      </c>
+      <c r="G508" s="22" t="n">
+        <v>45236</v>
+      </c>
       <c r="H508" s="1">
         <f>LEFT(B508,8)</f>
         <v/>
@@ -57549,13 +58605,37 @@
       </c>
     </row>
     <row r="509">
-      <c r="A509" s="16" t="n"/>
-      <c r="B509" s="2" t="n"/>
-      <c r="C509" s="16" t="n"/>
-      <c r="D509" s="16" t="n"/>
-      <c r="E509" s="16" t="n"/>
-      <c r="F509" s="21" t="n"/>
-      <c r="G509" s="14" t="n"/>
+      <c r="A509" s="16" t="inlineStr">
+        <is>
+          <t>MINIMERCADO TONIOLO LTDA</t>
+        </is>
+      </c>
+      <c r="B509" s="2" t="n">
+        <v>94678224000109</v>
+      </c>
+      <c r="C509" s="16" t="inlineStr">
+        <is>
+          <t>MR060613/2023</t>
+        </is>
+      </c>
+      <c r="D509" s="16" t="inlineStr">
+        <is>
+          <t>Domingos e feriados</t>
+        </is>
+      </c>
+      <c r="E509" s="16" t="inlineStr">
+        <is>
+          <t>Mercado</t>
+        </is>
+      </c>
+      <c r="F509" s="21" t="inlineStr">
+        <is>
+          <t>01/11/2022 - 31/12/2023</t>
+        </is>
+      </c>
+      <c r="G509" s="22" t="n">
+        <v>45236</v>
+      </c>
       <c r="H509" s="1">
         <f>LEFT(B509,8)</f>
         <v/>
@@ -62961,6 +64041,51 @@
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C462" r:id="rId461"/>
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C463" r:id="rId462"/>
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C464" r:id="rId463"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C465" r:id="rId464"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C466" r:id="rId465"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C467" r:id="rId466"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C468" r:id="rId467"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C469" r:id="rId468"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C470" r:id="rId469"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C471" r:id="rId470"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C472" r:id="rId471"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C473" r:id="rId472"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C474" r:id="rId473"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C475" r:id="rId474"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C476" r:id="rId475"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C477" r:id="rId476"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C478" r:id="rId477"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C479" r:id="rId478"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C480" r:id="rId479"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C481" r:id="rId480"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C482" r:id="rId481"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C483" r:id="rId482"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C484" r:id="rId483"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C485" r:id="rId484"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C486" r:id="rId485"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C487" r:id="rId486"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C488" r:id="rId487"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C489" r:id="rId488"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C490" r:id="rId489"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C491" r:id="rId490"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C492" r:id="rId491"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C493" r:id="rId492"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C494" r:id="rId493"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C495" r:id="rId494"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C496" r:id="rId495"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C497" r:id="rId496"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C498" r:id="rId497"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C499" r:id="rId498"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C500" r:id="rId499"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C501" r:id="rId500"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C502" r:id="rId501"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C503" r:id="rId502"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C504" r:id="rId503"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C505" r:id="rId504"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C506" r:id="rId505"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C507" r:id="rId506"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C508" r:id="rId507"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C509" r:id="rId508"/>
   </hyperlinks>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" paperSize="9"/>
@@ -62976,7 +64101,7 @@
   </sheetPr>
   <dimension ref="A1:T183"/>
   <sheetViews>
-    <sheetView topLeftCell="A76" workbookViewId="0">
+    <sheetView topLeftCell="A85" workbookViewId="0">
       <selection activeCell="E95" sqref="E95"/>
     </sheetView>
   </sheetViews>
@@ -63036,10 +64161,10 @@
         </is>
       </c>
       <c r="S1" t="n">
-        <v>55351</v>
+        <v>62222</v>
       </c>
       <c r="T1" t="n">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="2">
@@ -65744,15 +66869,15 @@
     <row r="63">
       <c r="A63" s="16" t="inlineStr">
         <is>
-          <t>RI HAPPY BRINQUEDOS S.A.</t>
+          <t>MERCADO MINAS GERAIS LTDA</t>
         </is>
       </c>
       <c r="B63" s="2" t="n">
-        <v>58731662010184</v>
+        <v>5520581000106</v>
       </c>
       <c r="C63" s="16" t="inlineStr">
         <is>
-          <t>MR021212/2023</t>
+          <t>MR022285/2023</t>
         </is>
       </c>
       <c r="D63" s="5" t="inlineStr">
@@ -65767,11 +66892,11 @@
       </c>
       <c r="F63" s="5" t="inlineStr">
         <is>
-          <t>Lojista</t>
+          <t>Mercado</t>
         </is>
       </c>
       <c r="G63" s="22" t="n">
-        <v>45194</v>
+        <v>45223</v>
       </c>
       <c r="H63" s="5">
         <f>IFERROR(VLOOKUP(I63,regs!H:I,2,0),"")</f>
@@ -65789,15 +66914,15 @@
     <row r="64">
       <c r="A64" s="16" t="inlineStr">
         <is>
-          <t>MERCADO MINAS GERAIS LTDA</t>
+          <t>CESRAN RECRUTAMENTO E SELECAO DE PESSOAL LTDA</t>
         </is>
       </c>
       <c r="B64" s="2" t="n">
-        <v>5520581000106</v>
+        <v>49995556000154</v>
       </c>
       <c r="C64" s="16" t="inlineStr">
         <is>
-          <t>MR022285/2023</t>
+          <t>MR022523/2023</t>
         </is>
       </c>
       <c r="D64" s="5" t="inlineStr">
@@ -65812,7 +66937,7 @@
       </c>
       <c r="F64" s="5" t="inlineStr">
         <is>
-          <t>Mercado</t>
+          <t>Lojista</t>
         </is>
       </c>
       <c r="G64" s="22" t="n"/>
@@ -65832,20 +66957,20 @@
     <row r="65">
       <c r="A65" s="16" t="inlineStr">
         <is>
-          <t>CESRAN RECRUTAMENTO E SELECAO DE PESSOAL LTDA</t>
+          <t>ARMAZEM BOMGADO GA LTDA</t>
         </is>
       </c>
       <c r="B65" s="2" t="n">
-        <v>49995556000154</v>
+        <v>38824899000130</v>
       </c>
       <c r="C65" s="16" t="inlineStr">
         <is>
-          <t>MR022523/2023</t>
+          <t>MR022759/2023</t>
         </is>
       </c>
       <c r="D65" s="5" t="inlineStr">
         <is>
-          <t>NÃO</t>
+          <t>SIM</t>
         </is>
       </c>
       <c r="E65" s="5" t="inlineStr">
@@ -65855,10 +66980,12 @@
       </c>
       <c r="F65" s="5" t="inlineStr">
         <is>
-          <t>Lojista</t>
-        </is>
-      </c>
-      <c r="G65" s="22" t="n"/>
+          <t>Mercado</t>
+        </is>
+      </c>
+      <c r="G65" s="22" t="n">
+        <v>45058</v>
+      </c>
       <c r="H65" s="5">
         <f>IFERROR(VLOOKUP(I65,regs!H:I,2,0),"")</f>
         <v/>
@@ -65875,15 +67002,15 @@
     <row r="66">
       <c r="A66" s="16" t="inlineStr">
         <is>
-          <t>ARMAZEM BOMGADO GA LTDA</t>
+          <t>PAULA H OBJETOS DECORATIVOS E PRESENTES LTDA</t>
         </is>
       </c>
       <c r="B66" s="2" t="n">
-        <v>38824899000130</v>
+        <v>2721404000108</v>
       </c>
       <c r="C66" s="16" t="inlineStr">
         <is>
-          <t>MR022759/2023</t>
+          <t>MR022848/2023</t>
         </is>
       </c>
       <c r="D66" s="5" t="inlineStr">
@@ -65898,11 +67025,11 @@
       </c>
       <c r="F66" s="5" t="inlineStr">
         <is>
-          <t>Mercado</t>
+          <t>Lojista</t>
         </is>
       </c>
       <c r="G66" s="22" t="n">
-        <v>45058</v>
+        <v>45057</v>
       </c>
       <c r="H66" s="5">
         <f>IFERROR(VLOOKUP(I66,regs!H:I,2,0),"")</f>
@@ -65920,15 +67047,15 @@
     <row r="67">
       <c r="A67" s="16" t="inlineStr">
         <is>
-          <t>PAULA H OBJETOS DECORATIVOS E PRESENTES LTDA</t>
+          <t>SERGIO PEDRO TONIOLO</t>
         </is>
       </c>
       <c r="B67" s="2" t="n">
-        <v>2721404000108</v>
+        <v>94678224000109</v>
       </c>
       <c r="C67" s="16" t="inlineStr">
         <is>
-          <t>MR022848/2023</t>
+          <t>MR023039/2023</t>
         </is>
       </c>
       <c r="D67" s="5" t="inlineStr">
@@ -65943,7 +67070,7 @@
       </c>
       <c r="F67" s="5" t="inlineStr">
         <is>
-          <t>Lojista</t>
+          <t>Mercado</t>
         </is>
       </c>
       <c r="G67" s="22" t="n">
@@ -65965,20 +67092,20 @@
     <row r="68">
       <c r="A68" s="16" t="inlineStr">
         <is>
-          <t>SERGIO PEDRO TONIOLO</t>
+          <t>K2 COMERCIO E INDUSTRIA LTDA</t>
         </is>
       </c>
       <c r="B68" s="2" t="n">
-        <v>94678224000109</v>
+        <v>1167639000714</v>
       </c>
       <c r="C68" s="16" t="inlineStr">
         <is>
-          <t>MR023039/2023</t>
+          <t>MR026862/2023</t>
         </is>
       </c>
       <c r="D68" s="5" t="inlineStr">
         <is>
-          <t>SIM</t>
+          <t>NÃO</t>
         </is>
       </c>
       <c r="E68" s="5" t="inlineStr">
@@ -65988,12 +67115,10 @@
       </c>
       <c r="F68" s="5" t="inlineStr">
         <is>
-          <t>Mercado</t>
-        </is>
-      </c>
-      <c r="G68" s="22" t="n">
-        <v>45057</v>
-      </c>
+          <t>Lojista</t>
+        </is>
+      </c>
+      <c r="G68" s="22" t="n"/>
       <c r="H68" s="5">
         <f>IFERROR(VLOOKUP(I68,regs!H:I,2,0),"")</f>
         <v/>
@@ -66010,33 +67135,35 @@
     <row r="69">
       <c r="A69" s="16" t="inlineStr">
         <is>
-          <t>K2 COMERCIO E INDUSTRIA LTDA</t>
+          <t>SINDICATO DOS CONCESSIONARIOS E DISTRIBUIDORES DE VEICULOS NO ESTADO DO RIO GRANDE DO SUL - SINCODIV/RS</t>
         </is>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1167639000714</v>
+        <v>4243203000160</v>
       </c>
       <c r="C69" s="16" t="inlineStr">
         <is>
-          <t>MR026862/2023</t>
+          <t>MR029222/2023</t>
         </is>
       </c>
       <c r="D69" s="5" t="inlineStr">
         <is>
-          <t>NÃO</t>
+          <t>SIM</t>
         </is>
       </c>
       <c r="E69" s="5" t="inlineStr">
         <is>
-          <t>Domingos e feriados</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="F69" s="5" t="inlineStr">
         <is>
-          <t>Lojista</t>
-        </is>
-      </c>
-      <c r="G69" s="22" t="n"/>
+          <t>Indeterminado</t>
+        </is>
+      </c>
+      <c r="G69" s="22" t="n">
+        <v>45084</v>
+      </c>
       <c r="H69" s="5">
         <f>IFERROR(VLOOKUP(I69,regs!H:I,2,0),"")</f>
         <v/>
@@ -66053,15 +67180,15 @@
     <row r="70">
       <c r="A70" s="16" t="inlineStr">
         <is>
-          <t>SINDICATO DOS CONCESSIONARIOS E DISTRIBUIDORES DE VEICULOS NO ESTADO DO RIO GRANDE DO SUL - SINCODIV/RS</t>
+          <t>VISSOMZ ABASTE ESPECIAL DE ESSENCIAS ROGE COMERCIO LTDA</t>
         </is>
       </c>
       <c r="B70" s="2" t="n">
-        <v>4243203000160</v>
+        <v>93866739000161</v>
       </c>
       <c r="C70" s="16" t="inlineStr">
         <is>
-          <t>MR029222/2023</t>
+          <t>MR030541/2023</t>
         </is>
       </c>
       <c r="D70" s="5" t="inlineStr">
@@ -66071,16 +67198,16 @@
       </c>
       <c r="E70" s="5" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Domingos e feriados</t>
         </is>
       </c>
       <c r="F70" s="5" t="inlineStr">
         <is>
-          <t>Indeterminado</t>
+          <t>Lojista</t>
         </is>
       </c>
       <c r="G70" s="22" t="n">
-        <v>45084</v>
+        <v>45103</v>
       </c>
       <c r="H70" s="5">
         <f>IFERROR(VLOOKUP(I70,regs!H:I,2,0),"")</f>
@@ -66098,20 +67225,20 @@
     <row r="71">
       <c r="A71" s="16" t="inlineStr">
         <is>
-          <t>VISSOMZ ABASTE ESPECIAL DE ESSENCIAS ROGE COMERCIO LTDA</t>
+          <t>QDBVISS - ABASTECIMENTO ESPECIAL DE PRODUTOS DE BELEZA LTDA</t>
         </is>
       </c>
       <c r="B71" s="2" t="n">
-        <v>93866739000161</v>
+        <v>19187523000206</v>
       </c>
       <c r="C71" s="16" t="inlineStr">
         <is>
-          <t>MR030541/2023</t>
+          <t>MR030896/2023</t>
         </is>
       </c>
       <c r="D71" s="5" t="inlineStr">
         <is>
-          <t>SIM</t>
+          <t>NÃO</t>
         </is>
       </c>
       <c r="E71" s="5" t="inlineStr">
@@ -66124,9 +67251,7 @@
           <t>Lojista</t>
         </is>
       </c>
-      <c r="G71" s="22" t="n">
-        <v>45103</v>
-      </c>
+      <c r="G71" s="22" t="n"/>
       <c r="H71" s="5">
         <f>IFERROR(VLOOKUP(I71,regs!H:I,2,0),"")</f>
         <v/>
@@ -66143,15 +67268,15 @@
     <row r="72">
       <c r="A72" s="16" t="inlineStr">
         <is>
-          <t>QDBVISS - ABASTECIMENTO ESPECIAL DE PRODUTOS DE BELEZA LTDA</t>
+          <t>AGENSUL - COMERCIO DE PERFUMARIA LTDA</t>
         </is>
       </c>
       <c r="B72" s="2" t="n">
-        <v>19187523000117</v>
+        <v>92916907000113</v>
       </c>
       <c r="C72" s="16" t="inlineStr">
         <is>
-          <t>MR030545/2023</t>
+          <t>MR031783/2023</t>
         </is>
       </c>
       <c r="D72" s="5" t="inlineStr">
@@ -66161,7 +67286,7 @@
       </c>
       <c r="E72" s="5" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Domingos e feriados</t>
         </is>
       </c>
       <c r="F72" s="5" t="inlineStr">
@@ -66170,7 +67295,7 @@
         </is>
       </c>
       <c r="G72" s="22" t="n">
-        <v>45155</v>
+        <v>45097</v>
       </c>
       <c r="H72" s="5">
         <f>IFERROR(VLOOKUP(I72,regs!H:I,2,0),"")</f>
@@ -66188,20 +67313,20 @@
     <row r="73">
       <c r="A73" s="16" t="inlineStr">
         <is>
-          <t>QDBVISS - ABASTECIMENTO ESPECIAL DE PRODUTOS DE BELEZA LTDA</t>
+          <t>DOM COMERCIO DE PERFUMARIA E COSMETICOS LTDA</t>
         </is>
       </c>
       <c r="B73" s="2" t="n">
-        <v>19187523000206</v>
+        <v>14335320000298</v>
       </c>
       <c r="C73" s="16" t="inlineStr">
         <is>
-          <t>MR030896/2023</t>
+          <t>MR031797/2023</t>
         </is>
       </c>
       <c r="D73" s="5" t="inlineStr">
         <is>
-          <t>NÃO</t>
+          <t>SIM</t>
         </is>
       </c>
       <c r="E73" s="5" t="inlineStr">
@@ -66214,7 +67339,9 @@
           <t>Lojista</t>
         </is>
       </c>
-      <c r="G73" s="22" t="n"/>
+      <c r="G73" s="22" t="n">
+        <v>45097</v>
+      </c>
       <c r="H73" s="5">
         <f>IFERROR(VLOOKUP(I73,regs!H:I,2,0),"")</f>
         <v/>
@@ -66231,15 +67358,15 @@
     <row r="74">
       <c r="A74" s="16" t="inlineStr">
         <is>
-          <t>AGENSUL - COMERCIO DE PERFUMARIA LTDA</t>
+          <t>CH COMERCIO DE PERFUMARIA E COSMETICOS LTDA</t>
         </is>
       </c>
       <c r="B74" s="2" t="n">
-        <v>92916907000113</v>
+        <v>14327879000195</v>
       </c>
       <c r="C74" s="16" t="inlineStr">
         <is>
-          <t>MR031783/2023</t>
+          <t>MR031802/2023</t>
         </is>
       </c>
       <c r="D74" s="5" t="inlineStr">
@@ -66276,20 +67403,20 @@
     <row r="75">
       <c r="A75" s="16" t="inlineStr">
         <is>
-          <t>DOM COMERCIO DE PERFUMARIA E COSMETICOS LTDA</t>
+          <t>PITUCHINHUS INDUSTRIA E COMERCIO DE CONFECCOES LTDA</t>
         </is>
       </c>
       <c r="B75" s="2" t="n">
-        <v>14335320000298</v>
+        <v>68765825000564</v>
       </c>
       <c r="C75" s="16" t="inlineStr">
         <is>
-          <t>MR031797/2023</t>
+          <t>MR034407/2023</t>
         </is>
       </c>
       <c r="D75" s="5" t="inlineStr">
         <is>
-          <t>SIM</t>
+          <t>NÃO</t>
         </is>
       </c>
       <c r="E75" s="5" t="inlineStr">
@@ -66302,9 +67429,7 @@
           <t>Lojista</t>
         </is>
       </c>
-      <c r="G75" s="22" t="n">
-        <v>45097</v>
-      </c>
+      <c r="G75" s="22" t="n"/>
       <c r="H75" s="5">
         <f>IFERROR(VLOOKUP(I75,regs!H:I,2,0),"")</f>
         <v/>
@@ -66321,20 +67446,20 @@
     <row r="76">
       <c r="A76" s="16" t="inlineStr">
         <is>
-          <t>CH COMERCIO DE PERFUMARIA E COSMETICOS LTDA</t>
+          <t>DIAS &amp; CIA LTDA</t>
         </is>
       </c>
       <c r="B76" s="2" t="n">
-        <v>14327879000195</v>
+        <v>3238893000104</v>
       </c>
       <c r="C76" s="16" t="inlineStr">
         <is>
-          <t>MR031802/2023</t>
+          <t>MR035469/2023</t>
         </is>
       </c>
       <c r="D76" s="5" t="inlineStr">
         <is>
-          <t>SIM</t>
+          <t>NÃO</t>
         </is>
       </c>
       <c r="E76" s="5" t="inlineStr">
@@ -66347,9 +67472,7 @@
           <t>Lojista</t>
         </is>
       </c>
-      <c r="G76" s="22" t="n">
-        <v>45097</v>
-      </c>
+      <c r="G76" s="22" t="n"/>
       <c r="H76" s="5">
         <f>IFERROR(VLOOKUP(I76,regs!H:I,2,0),"")</f>
         <v/>
@@ -66366,20 +67489,20 @@
     <row r="77">
       <c r="A77" s="16" t="inlineStr">
         <is>
-          <t>PITUCHINHUS INDUSTRIA E COMERCIO DE CONFECCOES LTDA</t>
+          <t>BRASILDECOR MOVEIS E DECORACOES LTDA.</t>
         </is>
       </c>
       <c r="B77" s="2" t="n">
-        <v>68765825000564</v>
+        <v>28709695000285</v>
       </c>
       <c r="C77" s="16" t="inlineStr">
         <is>
-          <t>MR034407/2023</t>
+          <t>MR037779/2023</t>
         </is>
       </c>
       <c r="D77" s="5" t="inlineStr">
         <is>
-          <t>NÃO</t>
+          <t>SIM</t>
         </is>
       </c>
       <c r="E77" s="5" t="inlineStr">
@@ -66392,7 +67515,9 @@
           <t>Lojista</t>
         </is>
       </c>
-      <c r="G77" s="22" t="n"/>
+      <c r="G77" s="22" t="n">
+        <v>45210</v>
+      </c>
       <c r="H77" s="5">
         <f>IFERROR(VLOOKUP(I77,regs!H:I,2,0),"")</f>
         <v/>
@@ -66409,20 +67534,20 @@
     <row r="78">
       <c r="A78" s="16" t="inlineStr">
         <is>
-          <t>DIAS &amp; CIA LTDA</t>
+          <t>MOMENTUS TABACARIA LTDA</t>
         </is>
       </c>
       <c r="B78" s="2" t="n">
-        <v>3238893000104</v>
+        <v>44731167000106</v>
       </c>
       <c r="C78" s="16" t="inlineStr">
         <is>
-          <t>MR035469/2023</t>
+          <t>MR022177/2023</t>
         </is>
       </c>
       <c r="D78" s="5" t="inlineStr">
         <is>
-          <t>NÃO</t>
+          <t>SIM</t>
         </is>
       </c>
       <c r="E78" s="5" t="inlineStr">
@@ -66435,7 +67560,9 @@
           <t>Lojista</t>
         </is>
       </c>
-      <c r="G78" s="22" t="n"/>
+      <c r="G78" s="22" t="n">
+        <v>45068</v>
+      </c>
       <c r="H78" s="5">
         <f>IFERROR(VLOOKUP(I78,regs!H:I,2,0),"")</f>
         <v/>
@@ -66452,15 +67579,15 @@
     <row r="79">
       <c r="A79" s="16" t="inlineStr">
         <is>
-          <t>BRASILDECOR MOVEIS E DECORACOES LTDA.</t>
+          <t>GABRIELA DA CUNHA BARBOSA LTDA</t>
         </is>
       </c>
       <c r="B79" s="2" t="n">
-        <v>28709695000285</v>
+        <v>10646336000180</v>
       </c>
       <c r="C79" s="16" t="inlineStr">
         <is>
-          <t>MR037779/2023</t>
+          <t>MR038361/2023</t>
         </is>
       </c>
       <c r="D79" s="5" t="inlineStr">
@@ -66475,7 +67602,7 @@
       </c>
       <c r="F79" s="5" t="inlineStr">
         <is>
-          <t>Lojista</t>
+          <t>Mercado</t>
         </is>
       </c>
       <c r="G79" s="22" t="n"/>
@@ -66495,20 +67622,20 @@
     <row r="80">
       <c r="A80" s="16" t="inlineStr">
         <is>
-          <t>MOMENTUS TABACARIA LTDA</t>
+          <t>C.M. ROZALES COMERCIO DE BRINQUEDOS E DOCES LTDA</t>
         </is>
       </c>
       <c r="B80" s="2" t="n">
-        <v>44731167000106</v>
+        <v>37902619000100</v>
       </c>
       <c r="C80" s="16" t="inlineStr">
         <is>
-          <t>MR022177/2023</t>
+          <t>MR038540/2023</t>
         </is>
       </c>
       <c r="D80" s="5" t="inlineStr">
         <is>
-          <t>SIM</t>
+          <t>NÃO</t>
         </is>
       </c>
       <c r="E80" s="5" t="inlineStr">
@@ -66521,9 +67648,7 @@
           <t>Lojista</t>
         </is>
       </c>
-      <c r="G80" s="22" t="n">
-        <v>45068</v>
-      </c>
+      <c r="G80" s="22" t="n"/>
       <c r="H80" s="5">
         <f>IFERROR(VLOOKUP(I80,regs!H:I,2,0),"")</f>
         <v/>
@@ -66540,20 +67665,20 @@
     <row r="81">
       <c r="A81" s="16" t="inlineStr">
         <is>
-          <t>GABRIELA DA CUNHA BARBOSA LTDA</t>
+          <t>MRS COMERCIO DE PRODUTOS REGIONAIS LTDA</t>
         </is>
       </c>
       <c r="B81" s="2" t="n">
-        <v>10646336000180</v>
+        <v>8846951000198</v>
       </c>
       <c r="C81" s="16" t="inlineStr">
         <is>
-          <t>MR038361/2023</t>
+          <t>MR040808/2023</t>
         </is>
       </c>
       <c r="D81" s="5" t="inlineStr">
         <is>
-          <t>NÃO</t>
+          <t>SIM</t>
         </is>
       </c>
       <c r="E81" s="5" t="inlineStr">
@@ -66563,10 +67688,12 @@
       </c>
       <c r="F81" s="22" t="inlineStr">
         <is>
-          <t>Mercado</t>
-        </is>
-      </c>
-      <c r="G81" s="22" t="n"/>
+          <t>Lojista</t>
+        </is>
+      </c>
+      <c r="G81" s="22" t="n">
+        <v>45139</v>
+      </c>
       <c r="H81" s="5">
         <f>IFERROR(VLOOKUP(I81,regs!H:I,2,0),"")</f>
         <v/>
@@ -66583,15 +67710,15 @@
     <row r="82">
       <c r="A82" s="16" t="inlineStr">
         <is>
-          <t>C.M. ROZALES COMERCIO DE BRINQUEDOS E DOCES LTDA</t>
+          <t>CAMPO VISUAL PARTICIPACOES LTDA</t>
         </is>
       </c>
       <c r="B82" s="2" t="n">
-        <v>37902619000100</v>
+        <v>9248776000108</v>
       </c>
       <c r="C82" s="16" t="inlineStr">
         <is>
-          <t>MR038540/2023</t>
+          <t>MR041737/2023</t>
         </is>
       </c>
       <c r="D82" s="5" t="inlineStr">
@@ -66606,7 +67733,7 @@
       </c>
       <c r="F82" s="5" t="inlineStr">
         <is>
-          <t>Lojista</t>
+          <t>Ótica</t>
         </is>
       </c>
       <c r="G82" s="22" t="n"/>
@@ -66626,15 +67753,15 @@
     <row r="83">
       <c r="A83" s="16" t="inlineStr">
         <is>
-          <t>C. R. DE VARGAS LTDA</t>
+          <t>SGH BRASIL COMERCIO DE OCULOS LTDA</t>
         </is>
       </c>
       <c r="B83" s="2" t="n">
-        <v>48462686000169</v>
+        <v>13257648000190</v>
       </c>
       <c r="C83" s="16" t="inlineStr">
         <is>
-          <t>MR038543/2023</t>
+          <t>MR041747/2023</t>
         </is>
       </c>
       <c r="D83" s="5" t="inlineStr">
@@ -66649,7 +67776,7 @@
       </c>
       <c r="F83" s="5" t="inlineStr">
         <is>
-          <t>Lojista</t>
+          <t>Ótica</t>
         </is>
       </c>
       <c r="G83" s="22" t="n"/>
@@ -66669,15 +67796,15 @@
     <row r="84">
       <c r="A84" s="16" t="inlineStr">
         <is>
-          <t>MRS COMERCIO DE PRODUTOS REGIONAIS LTDA</t>
+          <t>JCAM COMERCIO VAREJISTA DE CAPAS E ACESSORIOS LTDA</t>
         </is>
       </c>
       <c r="B84" s="2" t="n">
-        <v>8846951000198</v>
+        <v>27248361000370</v>
       </c>
       <c r="C84" s="16" t="inlineStr">
         <is>
-          <t>MR040808/2023</t>
+          <t>MR042358/2023</t>
         </is>
       </c>
       <c r="D84" s="5" t="inlineStr">
@@ -66696,7 +67823,7 @@
         </is>
       </c>
       <c r="G84" s="22" t="n">
-        <v>45139</v>
+        <v>45145</v>
       </c>
       <c r="H84" s="5">
         <f>IFERROR(VLOOKUP(I84,regs!H:I,2,0),"")</f>
@@ -66714,20 +67841,20 @@
     <row r="85">
       <c r="A85" s="16" t="inlineStr">
         <is>
-          <t>CAMPO VISUAL PARTICIPACOES LTDA</t>
+          <t>ARMAZEM BOMGADO GA LTDA</t>
         </is>
       </c>
       <c r="B85" s="2" t="n">
-        <v>9248776000108</v>
+        <v>38824899000130</v>
       </c>
       <c r="C85" s="16" t="inlineStr">
         <is>
-          <t>MR041737/2023</t>
+          <t>MR044212/2023</t>
         </is>
       </c>
       <c r="D85" s="5" t="inlineStr">
         <is>
-          <t>NÃO</t>
+          <t>SIM</t>
         </is>
       </c>
       <c r="E85" s="5" t="inlineStr">
@@ -66737,10 +67864,12 @@
       </c>
       <c r="F85" s="22" t="inlineStr">
         <is>
-          <t>Ótica</t>
-        </is>
-      </c>
-      <c r="G85" s="22" t="n"/>
+          <t>Mercado</t>
+        </is>
+      </c>
+      <c r="G85" s="22" t="n">
+        <v>45145</v>
+      </c>
       <c r="H85" s="5">
         <f>IFERROR(VLOOKUP(I85,regs!H:I,2,0),"")</f>
         <v/>
@@ -66757,20 +67886,20 @@
     <row r="86">
       <c r="A86" s="16" t="inlineStr">
         <is>
-          <t>SGH BRASIL COMERCIO DE OCULOS LTDA</t>
+          <t>J. D. JAQUES</t>
         </is>
       </c>
       <c r="B86" s="2" t="n">
-        <v>13257648000190</v>
+        <v>49312585000174</v>
       </c>
       <c r="C86" s="16" t="inlineStr">
         <is>
-          <t>MR041747/2023</t>
+          <t>MR049127/2023</t>
         </is>
       </c>
       <c r="D86" s="5" t="inlineStr">
         <is>
-          <t>NÃO</t>
+          <t>SIM</t>
         </is>
       </c>
       <c r="E86" s="5" t="inlineStr">
@@ -66780,10 +67909,12 @@
       </c>
       <c r="F86" s="22" t="inlineStr">
         <is>
-          <t>Ótica</t>
-        </is>
-      </c>
-      <c r="G86" s="22" t="n"/>
+          <t>Lojista</t>
+        </is>
+      </c>
+      <c r="G86" s="22" t="n">
+        <v>45173</v>
+      </c>
       <c r="H86" s="5">
         <f>IFERROR(VLOOKUP(I86,regs!H:I,2,0),"")</f>
         <v/>
@@ -66800,20 +67931,20 @@
     <row r="87">
       <c r="A87" s="16" t="inlineStr">
         <is>
-          <t>JCAM COMERCIO VAREJISTA DE CAPAS E ACESSORIOS LTDA</t>
+          <t>L &amp; A COMERCIO DE CALCADOS LTDA</t>
         </is>
       </c>
       <c r="B87" s="2" t="n">
-        <v>27248361000370</v>
+        <v>48748393000223</v>
       </c>
       <c r="C87" s="16" t="inlineStr">
         <is>
-          <t>MR042358/2023</t>
+          <t>MR049502/2023</t>
         </is>
       </c>
       <c r="D87" s="5" t="inlineStr">
         <is>
-          <t>SIM</t>
+          <t>NÃO</t>
         </is>
       </c>
       <c r="E87" s="5" t="inlineStr">
@@ -66826,9 +67957,7 @@
           <t>Lojista</t>
         </is>
       </c>
-      <c r="G87" s="22" t="n">
-        <v>45145</v>
-      </c>
+      <c r="G87" s="22" t="n"/>
       <c r="H87" s="5">
         <f>IFERROR(VLOOKUP(I87,regs!H:I,2,0),"")</f>
         <v/>
@@ -66845,20 +67974,20 @@
     <row r="88">
       <c r="A88" s="16" t="inlineStr">
         <is>
-          <t>ARMAZEM BOMGADO GA LTDA</t>
+          <t>M &amp; S COMERCIO DE ALIMENTOS LTDA</t>
         </is>
       </c>
       <c r="B88" s="2" t="n">
-        <v>38824899000130</v>
+        <v>44663036000120</v>
       </c>
       <c r="C88" s="16" t="inlineStr">
         <is>
-          <t>MR044212/2023</t>
+          <t>MR049614/2023</t>
         </is>
       </c>
       <c r="D88" s="5" t="inlineStr">
         <is>
-          <t>SIM</t>
+          <t>NÃO</t>
         </is>
       </c>
       <c r="E88" s="5" t="inlineStr">
@@ -66871,9 +68000,7 @@
           <t>Mercado</t>
         </is>
       </c>
-      <c r="G88" s="22" t="n">
-        <v>45145</v>
-      </c>
+      <c r="G88" s="22" t="n"/>
       <c r="H88" s="5">
         <f>IFERROR(VLOOKUP(I88,regs!H:I,2,0),"")</f>
         <v/>
@@ -66890,20 +68017,20 @@
     <row r="89">
       <c r="A89" s="16" t="inlineStr">
         <is>
-          <t>MERCADO CEJEC LTDA</t>
+          <t>MRS COMERCIO DE PRODUTOS REGIONAIS LTDA</t>
         </is>
       </c>
       <c r="B89" s="2" t="n">
-        <v>6249091000180</v>
+        <v>8846951000198</v>
       </c>
       <c r="C89" s="16" t="inlineStr">
         <is>
-          <t>MR046441/2023</t>
+          <t>MR050117/2023</t>
         </is>
       </c>
       <c r="D89" s="5" t="inlineStr">
         <is>
-          <t>SIM</t>
+          <t>NÃO</t>
         </is>
       </c>
       <c r="E89" s="5" t="inlineStr">
@@ -66913,12 +68040,10 @@
       </c>
       <c r="F89" s="22" t="inlineStr">
         <is>
-          <t>Mercado</t>
-        </is>
-      </c>
-      <c r="G89" s="22" t="n">
-        <v>45162</v>
-      </c>
+          <t>Lojista</t>
+        </is>
+      </c>
+      <c r="G89" s="22" t="n"/>
       <c r="H89" s="5">
         <f>IFERROR(VLOOKUP(I89,regs!H:I,2,0),"")</f>
         <v/>
@@ -66935,20 +68060,20 @@
     <row r="90">
       <c r="A90" s="16" t="inlineStr">
         <is>
-          <t>J. D. JAQUES</t>
+          <t>ELTON CHRISTMANN</t>
         </is>
       </c>
       <c r="B90" s="2" t="n">
-        <v>49312585000174</v>
+        <v>41733795000124</v>
       </c>
       <c r="C90" s="16" t="inlineStr">
         <is>
-          <t>MR049127/2023</t>
+          <t>MR054169/2023</t>
         </is>
       </c>
       <c r="D90" s="5" t="inlineStr">
         <is>
-          <t>SIM</t>
+          <t>NÃO</t>
         </is>
       </c>
       <c r="E90" s="5" t="inlineStr">
@@ -66958,12 +68083,10 @@
       </c>
       <c r="F90" s="5" t="inlineStr">
         <is>
-          <t>Lojista</t>
-        </is>
-      </c>
-      <c r="G90" s="22" t="n">
-        <v>45173</v>
-      </c>
+          <t>Mercado</t>
+        </is>
+      </c>
+      <c r="G90" s="22" t="n"/>
       <c r="H90" s="5">
         <f>IFERROR(VLOOKUP(I90,regs!H:I,2,0),"")</f>
         <v/>
@@ -66980,15 +68103,15 @@
     <row r="91">
       <c r="A91" s="16" t="inlineStr">
         <is>
-          <t>L &amp; A COMERCIO DE CALCADOS LTDA</t>
+          <t>TERRAS DE AVENTURA INDUSTRIA DE ARTIGOS ESPORTIVOS S.A</t>
         </is>
       </c>
       <c r="B91" s="2" t="n">
-        <v>48748393000223</v>
+        <v>35943604007916</v>
       </c>
       <c r="C91" s="16" t="inlineStr">
         <is>
-          <t>MR049502/2023</t>
+          <t>MR054255/2023</t>
         </is>
       </c>
       <c r="D91" s="5" t="inlineStr">
@@ -67023,15 +68146,15 @@
     <row r="92">
       <c r="A92" s="16" t="inlineStr">
         <is>
-          <t>M &amp; S COMERCIO DE ALIMENTOS LTDA</t>
+          <t>VISSOMZ ABASTE ESPECIAL DE ESSENCIAS ROGE COMERCIO LTDA</t>
         </is>
       </c>
       <c r="B92" s="2" t="n">
-        <v>44663036000120</v>
+        <v>93866739000161</v>
       </c>
       <c r="C92" s="16" t="inlineStr">
         <is>
-          <t>MR049614/2023</t>
+          <t>MR054321/2023</t>
         </is>
       </c>
       <c r="D92" s="5" t="inlineStr">
@@ -67046,7 +68169,7 @@
       </c>
       <c r="F92" s="22" t="inlineStr">
         <is>
-          <t>Mercado</t>
+          <t>Lojista</t>
         </is>
       </c>
       <c r="G92" s="22" t="n"/>
@@ -67066,15 +68189,15 @@
     <row r="93">
       <c r="A93" s="16" t="inlineStr">
         <is>
-          <t>MRS COMERCIO DE PRODUTOS REGIONAIS LTDA</t>
+          <t>JADORE BIJUTERIAS E ACESSORIOS LTDA</t>
         </is>
       </c>
       <c r="B93" s="2" t="n">
-        <v>8846951000198</v>
+        <v>16950484000501</v>
       </c>
       <c r="C93" s="16" t="inlineStr">
         <is>
-          <t>MR050117/2023</t>
+          <t>MR054507/2023</t>
         </is>
       </c>
       <c r="D93" s="5" t="inlineStr">
@@ -67109,15 +68232,15 @@
     <row r="94">
       <c r="A94" s="16" t="inlineStr">
         <is>
-          <t>DICO COMERCIAL DE FRUTAS E LEGUMES LTDA</t>
+          <t>R. JAQUES DE ANDRADE</t>
         </is>
       </c>
       <c r="B94" s="2" t="n">
-        <v>89513113000102</v>
+        <v>38824968000105</v>
       </c>
       <c r="C94" s="16" t="inlineStr">
         <is>
-          <t>MR054121/2023</t>
+          <t>MR054671/2023</t>
         </is>
       </c>
       <c r="D94" s="5" t="inlineStr">
@@ -67132,10 +68255,10 @@
       </c>
       <c r="F94" s="5" t="inlineStr">
         <is>
-          <t>Mercado</t>
-        </is>
-      </c>
-      <c r="G94" s="22" t="inlineStr"/>
+          <t>Lojista</t>
+        </is>
+      </c>
+      <c r="G94" s="22" t="n"/>
       <c r="H94" s="5">
         <f>IFERROR(VLOOKUP(I94,regs!H:I,2,0),"")</f>
         <v/>
@@ -67152,15 +68275,15 @@
     <row r="95">
       <c r="A95" s="16" t="inlineStr">
         <is>
-          <t>ELTON CHRISTMANN</t>
+          <t>THAIS ANGELICA FOLLMANN BENNEMANN LTDA</t>
         </is>
       </c>
       <c r="B95" s="2" t="n">
-        <v>41733795000124</v>
+        <v>51188904000123</v>
       </c>
       <c r="C95" s="16" t="inlineStr">
         <is>
-          <t>MR054169/2023</t>
+          <t>MR055140/2023</t>
         </is>
       </c>
       <c r="D95" s="5" t="inlineStr">
@@ -67175,10 +68298,10 @@
       </c>
       <c r="F95" s="22" t="inlineStr">
         <is>
-          <t>Mercado</t>
-        </is>
-      </c>
-      <c r="G95" s="22" t="inlineStr"/>
+          <t>Lojista</t>
+        </is>
+      </c>
+      <c r="G95" s="22" t="n"/>
       <c r="H95" s="5">
         <f>IFERROR(VLOOKUP(I95,regs!H:I,2,0),"")</f>
         <v/>
@@ -67195,15 +68318,15 @@
     <row r="96">
       <c r="A96" s="16" t="inlineStr">
         <is>
-          <t>TERRAS DE AVENTURA INDUSTRIA DE ARTIGOS ESPORTIVOS S.A</t>
+          <t>REAL COMERCIAL LTDA</t>
         </is>
       </c>
       <c r="B96" s="2" t="n">
-        <v>35943604007916</v>
+        <v>2780640000197</v>
       </c>
       <c r="C96" s="16" t="inlineStr">
         <is>
-          <t>MR054255/2023</t>
+          <t>MR055548/2023</t>
         </is>
       </c>
       <c r="D96" s="5" t="inlineStr">
@@ -67218,10 +68341,10 @@
       </c>
       <c r="F96" s="22" t="inlineStr">
         <is>
-          <t>Lojista</t>
-        </is>
-      </c>
-      <c r="G96" s="22" t="inlineStr"/>
+          <t>Mercado</t>
+        </is>
+      </c>
+      <c r="G96" s="22" t="n"/>
       <c r="H96" s="5">
         <f>IFERROR(VLOOKUP(I96,regs!H:I,2,0),"")</f>
         <v/>
@@ -67238,15 +68361,15 @@
     <row r="97">
       <c r="A97" s="16" t="inlineStr">
         <is>
-          <t>VISSOMZ ABASTE ESPECIAL DE ESSENCIAS ROGE COMERCIO LTDA</t>
+          <t>FL TECH INFORMATICA LTDA</t>
         </is>
       </c>
       <c r="B97" s="2" t="n">
-        <v>93866739000161</v>
+        <v>46964709000108</v>
       </c>
       <c r="C97" s="16" t="inlineStr">
         <is>
-          <t>MR054321/2023</t>
+          <t>MR055557/2023</t>
         </is>
       </c>
       <c r="D97" s="5" t="inlineStr">
@@ -67264,7 +68387,7 @@
           <t>Lojista</t>
         </is>
       </c>
-      <c r="G97" s="22" t="inlineStr"/>
+      <c r="G97" s="22" t="n"/>
       <c r="H97" s="5">
         <f>IFERROR(VLOOKUP(I97,regs!H:I,2,0),"")</f>
         <v/>
@@ -67281,15 +68404,15 @@
     <row r="98">
       <c r="A98" s="16" t="inlineStr">
         <is>
-          <t>VISSOMZ ABASTE ESPECIAL DE ESSENCIAS ROGE COMERCIO LTDA</t>
+          <t>NIZZA COMERCIO DE CONFECCOES LTDA</t>
         </is>
       </c>
       <c r="B98" s="2" t="n">
-        <v>93866739000161</v>
+        <v>42160869000143</v>
       </c>
       <c r="C98" s="16" t="inlineStr">
         <is>
-          <t>MR054339/2023</t>
+          <t>MR055577/2023</t>
         </is>
       </c>
       <c r="D98" s="5" t="inlineStr">
@@ -67308,7 +68431,7 @@
         </is>
       </c>
       <c r="G98" s="22" t="n">
-        <v>45191</v>
+        <v>45210</v>
       </c>
       <c r="H98" s="5">
         <f>IFERROR(VLOOKUP(I98,regs!H:I,2,0),"")</f>
@@ -67326,20 +68449,20 @@
     <row r="99">
       <c r="A99" s="16" t="inlineStr">
         <is>
-          <t>SOL, VIDA E LUZ COMERCIAL LTDA</t>
+          <t>BOOMER COMERCIO DE CONFECCOES LTDA</t>
         </is>
       </c>
       <c r="B99" s="2" t="n">
-        <v>51692363000176</v>
+        <v>28613652000200</v>
       </c>
       <c r="C99" s="16" t="inlineStr">
         <is>
-          <t>MR054346/2023</t>
+          <t>MR055583/2023</t>
         </is>
       </c>
       <c r="D99" s="5" t="inlineStr">
         <is>
-          <t>NÃO</t>
+          <t>SIM</t>
         </is>
       </c>
       <c r="E99" s="5" t="inlineStr">
@@ -67352,7 +68475,9 @@
           <t>Lojista</t>
         </is>
       </c>
-      <c r="G99" s="22" t="n"/>
+      <c r="G99" s="22" t="n">
+        <v>45210</v>
+      </c>
       <c r="H99" s="5">
         <f>IFERROR(VLOOKUP(I99,regs!H:I,2,0),"")</f>
         <v/>
@@ -67369,20 +68494,20 @@
     <row r="100">
       <c r="A100" s="16" t="inlineStr">
         <is>
-          <t>CHS - COMERCIO DE FRUTAS E LEGUMES LTDA</t>
+          <t>LERNER COMERCIO E ASSISTENCIA TECNICA DE CELULARES LTDA</t>
         </is>
       </c>
       <c r="B100" s="2" t="n">
-        <v>11826017000119</v>
+        <v>50767215000100</v>
       </c>
       <c r="C100" s="16" t="inlineStr">
         <is>
-          <t>MR054368/2023</t>
+          <t>MR056814/2023</t>
         </is>
       </c>
       <c r="D100" s="5" t="inlineStr">
         <is>
-          <t>NÃO</t>
+          <t>SIM</t>
         </is>
       </c>
       <c r="E100" s="5" t="inlineStr">
@@ -67392,10 +68517,12 @@
       </c>
       <c r="F100" s="5" t="inlineStr">
         <is>
-          <t>Mercado</t>
-        </is>
-      </c>
-      <c r="G100" s="22" t="n"/>
+          <t>Lojista</t>
+        </is>
+      </c>
+      <c r="G100" s="22" t="n">
+        <v>45204</v>
+      </c>
       <c r="H100" s="5">
         <f>IFERROR(VLOOKUP(I100,regs!H:I,2,0),"")</f>
         <v/>
@@ -67412,15 +68539,15 @@
     <row r="101">
       <c r="A101" s="16" t="inlineStr">
         <is>
-          <t>M A P PET SHOP LTDA</t>
+          <t>MAX CENTER CENTRO DE COMPRAS LTDA</t>
         </is>
       </c>
       <c r="B101" s="2" t="n">
-        <v>51057734000148</v>
+        <v>8769595000407</v>
       </c>
       <c r="C101" s="16" t="inlineStr">
         <is>
-          <t>MR054372/2023</t>
+          <t>MR059494/2023</t>
         </is>
       </c>
       <c r="D101" s="5" t="inlineStr">
@@ -67435,11 +68562,11 @@
       </c>
       <c r="F101" s="22" t="inlineStr">
         <is>
-          <t>Lojista</t>
+          <t>Mercado</t>
         </is>
       </c>
       <c r="G101" s="22" t="n">
-        <v>45195</v>
+        <v>45233</v>
       </c>
       <c r="H101" s="5">
         <f>IFERROR(VLOOKUP(I101,regs!H:I,2,0),"")</f>
@@ -67457,15 +68584,15 @@
     <row r="102">
       <c r="A102" s="16" t="inlineStr">
         <is>
-          <t>R T PESSANO LTDA</t>
+          <t>SUPERMERCADO FLACH LTDA</t>
         </is>
       </c>
       <c r="B102" s="2" t="n">
-        <v>51266942000157</v>
+        <v>88692314000143</v>
       </c>
       <c r="C102" s="16" t="inlineStr">
         <is>
-          <t>MR054382/2023</t>
+          <t>MR059749/2023</t>
         </is>
       </c>
       <c r="D102" s="5" t="inlineStr">
@@ -67480,11 +68607,11 @@
       </c>
       <c r="F102" s="22" t="inlineStr">
         <is>
-          <t>Lojista</t>
+          <t>Mercado</t>
         </is>
       </c>
       <c r="G102" s="22" t="n">
-        <v>45196</v>
+        <v>45223</v>
       </c>
       <c r="H102" s="5">
         <f>IFERROR(VLOOKUP(I102,regs!H:I,2,0),"")</f>
@@ -67502,20 +68629,20 @@
     <row r="103">
       <c r="A103" s="16" t="inlineStr">
         <is>
-          <t>JADORE BIJUTERIAS E ACESSORIOS LTDA</t>
+          <t>MINIMERCADO ESCADARIA LTDA</t>
         </is>
       </c>
       <c r="B103" s="2" t="n">
-        <v>16950484000501</v>
+        <v>7759399000138</v>
       </c>
       <c r="C103" s="16" t="inlineStr">
         <is>
-          <t>MR054507/2023</t>
+          <t>MR061002/2023</t>
         </is>
       </c>
       <c r="D103" s="5" t="inlineStr">
         <is>
-          <t>NÃO</t>
+          <t>SIM</t>
         </is>
       </c>
       <c r="E103" s="5" t="inlineStr">
@@ -67523,12 +68650,14 @@
           <t>Domingos e feriados</t>
         </is>
       </c>
-      <c r="F103" s="5" t="inlineStr">
-        <is>
-          <t>Lojista</t>
-        </is>
-      </c>
-      <c r="G103" s="22" t="n"/>
+      <c r="F103" s="22" t="inlineStr">
+        <is>
+          <t>Mercado</t>
+        </is>
+      </c>
+      <c r="G103" s="22" t="n">
+        <v>45229</v>
+      </c>
       <c r="H103" s="5">
         <f>IFERROR(VLOOKUP(I103,regs!H:I,2,0),"")</f>
         <v/>
@@ -67545,20 +68674,20 @@
     <row r="104">
       <c r="A104" s="16" t="inlineStr">
         <is>
-          <t>R. JAQUES DE ANDRADE</t>
+          <t>ALBERTI COMERCIO DE ALIMENTOS LTDA</t>
         </is>
       </c>
       <c r="B104" s="2" t="n">
-        <v>38824968000105</v>
+        <v>1254300000160</v>
       </c>
       <c r="C104" s="16" t="inlineStr">
         <is>
-          <t>MR054671/2023</t>
+          <t>MR061063/2023</t>
         </is>
       </c>
       <c r="D104" s="5" t="inlineStr">
         <is>
-          <t>NÃO</t>
+          <t>SIM</t>
         </is>
       </c>
       <c r="E104" s="5" t="inlineStr">
@@ -67566,12 +68695,14 @@
           <t>Domingos e feriados</t>
         </is>
       </c>
-      <c r="F104" s="5" t="inlineStr">
-        <is>
-          <t>Lojista</t>
-        </is>
-      </c>
-      <c r="G104" s="22" t="n"/>
+      <c r="F104" s="22" t="inlineStr">
+        <is>
+          <t>Mercado</t>
+        </is>
+      </c>
+      <c r="G104" s="22" t="n">
+        <v>45229</v>
+      </c>
       <c r="H104" s="5">
         <f>IFERROR(VLOOKUP(I104,regs!H:I,2,0),"")</f>
         <v/>
@@ -67588,15 +68719,15 @@
     <row r="105">
       <c r="A105" s="16" t="inlineStr">
         <is>
-          <t>HR CAFE GRAMADO LTDA</t>
+          <t>J B VIEIRA COMERCIO DE ALIMENTOS LTDA</t>
         </is>
       </c>
       <c r="B105" s="2" t="n">
-        <v>29576141000210</v>
+        <v>25535075000106</v>
       </c>
       <c r="C105" s="16" t="inlineStr">
         <is>
-          <t>MR055056/2023</t>
+          <t>MR061073/2023</t>
         </is>
       </c>
       <c r="D105" s="5" t="inlineStr">
@@ -67611,11 +68742,11 @@
       </c>
       <c r="F105" s="22" t="inlineStr">
         <is>
-          <t>Lojista</t>
+          <t>Mercado</t>
         </is>
       </c>
       <c r="G105" s="22" t="n">
-        <v>45196</v>
+        <v>45229</v>
       </c>
       <c r="H105" s="5">
         <f>IFERROR(VLOOKUP(I105,regs!H:I,2,0),"")</f>
@@ -67633,20 +68764,20 @@
     <row r="106">
       <c r="A106" s="16" t="inlineStr">
         <is>
-          <t>THAIS ANGELICA FOLLMANN BENNEMANN LTDA</t>
+          <t>MADA COMERCIO DE VESTUARIO LTDA</t>
         </is>
       </c>
       <c r="B106" s="2" t="n">
-        <v>51188904000123</v>
+        <v>37947999000190</v>
       </c>
       <c r="C106" s="16" t="inlineStr">
         <is>
-          <t>MR055140/2023</t>
+          <t>MR061242/2023</t>
         </is>
       </c>
       <c r="D106" s="5" t="inlineStr">
         <is>
-          <t>NÃO</t>
+          <t>SIM</t>
         </is>
       </c>
       <c r="E106" s="5" t="inlineStr">
@@ -67654,12 +68785,14 @@
           <t>Domingos e feriados</t>
         </is>
       </c>
-      <c r="F106" s="5" t="inlineStr">
-        <is>
-          <t>Lojista</t>
-        </is>
-      </c>
-      <c r="G106" s="22" t="n"/>
+      <c r="F106" s="22" t="inlineStr">
+        <is>
+          <t>Lojista</t>
+        </is>
+      </c>
+      <c r="G106" s="22" t="n">
+        <v>45230</v>
+      </c>
       <c r="H106" s="5">
         <f>IFERROR(VLOOKUP(I106,regs!H:I,2,0),"")</f>
         <v/>
@@ -67674,13 +68807,35 @@
       </c>
     </row>
     <row r="107">
-      <c r="A107" s="16" t="n"/>
-      <c r="B107" s="2" t="n"/>
-      <c r="C107" s="16" t="n"/>
-      <c r="D107" s="5" t="n"/>
-      <c r="E107" s="5" t="n"/>
-      <c r="F107" s="5" t="n"/>
-      <c r="G107" s="22" t="n"/>
+      <c r="A107" s="16" t="inlineStr">
+        <is>
+          <t>ROZA SERENA COMERCIO DE CALCADOS LTDA</t>
+        </is>
+      </c>
+      <c r="B107" s="2" t="n">
+        <v>52172316000164</v>
+      </c>
+      <c r="C107" s="16" t="inlineStr">
+        <is>
+          <t>MR061404/2023</t>
+        </is>
+      </c>
+      <c r="D107" s="5" t="inlineStr">
+        <is>
+          <t>NÃO</t>
+        </is>
+      </c>
+      <c r="E107" s="5" t="inlineStr">
+        <is>
+          <t>Domingos e feriados</t>
+        </is>
+      </c>
+      <c r="F107" s="22" t="inlineStr">
+        <is>
+          <t>Lojista</t>
+        </is>
+      </c>
+      <c r="G107" s="22" t="inlineStr"/>
       <c r="H107" s="5">
         <f>IFERROR(VLOOKUP(I107,regs!H:I,2,0),"")</f>
         <v/>
@@ -67695,13 +68850,35 @@
       </c>
     </row>
     <row r="108">
-      <c r="A108" s="16" t="n"/>
-      <c r="B108" s="2" t="n"/>
-      <c r="C108" s="16" t="n"/>
-      <c r="D108" s="5" t="n"/>
-      <c r="E108" s="5" t="n"/>
-      <c r="F108" s="5" t="n"/>
-      <c r="G108" s="22" t="n"/>
+      <c r="A108" s="16" t="inlineStr">
+        <is>
+          <t>G. TRICOT POA COMERCIO DE ARTIGOS DE VESTUARIO LTDA</t>
+        </is>
+      </c>
+      <c r="B108" s="2" t="n">
+        <v>51603161000100</v>
+      </c>
+      <c r="C108" s="16" t="inlineStr">
+        <is>
+          <t>MR061715/2023</t>
+        </is>
+      </c>
+      <c r="D108" s="5" t="inlineStr">
+        <is>
+          <t>NÃO</t>
+        </is>
+      </c>
+      <c r="E108" s="5" t="inlineStr">
+        <is>
+          <t>Domingos e feriados</t>
+        </is>
+      </c>
+      <c r="F108" s="5" t="inlineStr">
+        <is>
+          <t>Lojista</t>
+        </is>
+      </c>
+      <c r="G108" s="22" t="inlineStr"/>
       <c r="H108" s="5">
         <f>IFERROR(VLOOKUP(I108,regs!H:I,2,0),"")</f>
         <v/>
@@ -69368,7 +70545,7 @@
         </is>
       </c>
       <c r="C3" s="5" t="n">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="G3" s="4" t="inlineStr">
         <is>
@@ -69477,7 +70654,7 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>322</v>
+        <v>344</v>
       </c>
       <c r="G9" s="4" t="inlineStr">
         <is>

--- a/regs.xlsx
+++ b/regs.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="EstaPasta_de_trabalho"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="600" firstSheet="0" activeTab="3" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="28680" yWindow="780" windowWidth="21840" windowHeight="13140" tabRatio="600" firstSheet="0" activeTab="4" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Acts 2021" sheetId="1" state="visible" r:id="rId1"/>
@@ -730,10 +730,10 @@
                 <formatCode>General</formatCode>
                 <ptCount val="2"/>
                 <pt idx="0">
-                  <v>243</v>
+                  <v>252</v>
                 </pt>
                 <pt idx="1">
-                  <v>79</v>
+                  <v>86</v>
                 </pt>
               </numCache>
             </numRef>
@@ -963,7 +963,7 @@
                 <formatCode>General</formatCode>
                 <ptCount val="2"/>
                 <pt idx="0">
-                  <v>320</v>
+                  <v>336</v>
                 </pt>
                 <pt idx="1">
                   <v>8</v>
@@ -1166,10 +1166,10 @@
                 <formatCode>General</formatCode>
                 <ptCount val="8"/>
                 <pt idx="0">
-                  <v>243</v>
+                  <v>252</v>
                 </pt>
                 <pt idx="1">
-                  <v>79</v>
+                  <v>86</v>
                 </pt>
                 <pt idx="2">
                   <v>3</v>
@@ -1181,13 +1181,13 @@
                   <v>6</v>
                 </pt>
                 <pt idx="5">
-                  <v>320</v>
+                  <v>336</v>
                 </pt>
                 <pt idx="6">
                   <v>8</v>
                 </pt>
                 <pt idx="7">
-                  <v>328</v>
+                  <v>344</v>
                 </pt>
               </numCache>
             </numRef>
@@ -2130,7 +2130,7 @@
                 <formatCode>General</formatCode>
                 <ptCount val="1"/>
                 <pt idx="0">
-                  <v>328</v>
+                  <v>344</v>
                 </pt>
               </numCache>
             </numRef>
@@ -2481,7 +2481,7 @@
                 <formatCode>General</formatCode>
                 <ptCount val="1"/>
                 <pt idx="0">
-                  <v>79</v>
+                  <v>86</v>
                 </pt>
               </numCache>
             </numRef>
@@ -2832,7 +2832,7 @@
                 <formatCode>General</formatCode>
                 <ptCount val="1"/>
                 <pt idx="0">
-                  <v>243</v>
+                  <v>252</v>
                 </pt>
               </numCache>
             </numRef>
@@ -23224,8 +23224,8 @@
     <col width="21.6640625" customWidth="1" style="1" min="4" max="4"/>
     <col width="15.109375" customWidth="1" style="1" min="5" max="5"/>
     <col width="19.6640625" customWidth="1" style="1" min="6" max="6"/>
-    <col width="9.109375" customWidth="1" style="1" min="7" max="171"/>
-    <col width="9.109375" customWidth="1" style="1" min="172" max="16384"/>
+    <col width="9.109375" customWidth="1" style="1" min="7" max="173"/>
+    <col width="9.109375" customWidth="1" style="1" min="174" max="16384"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -37758,8 +37758,8 @@
   </sheetPr>
   <dimension ref="A1:P799"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A454" activePane="bottomLeft" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A496" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B279" sqref="B279"/>
     </sheetView>
   </sheetViews>
@@ -37773,8 +37773,8 @@
     <col width="23.44140625" customWidth="1" style="1" min="6" max="6"/>
     <col width="16.88671875" customWidth="1" style="1" min="7" max="7"/>
     <col hidden="1" width="9.109375" customWidth="1" style="1" min="8" max="9"/>
-    <col width="9.109375" customWidth="1" style="1" min="10" max="184"/>
-    <col width="9.109375" customWidth="1" style="1" min="185" max="16384"/>
+    <col width="9.109375" customWidth="1" style="1" min="10" max="186"/>
+    <col width="9.109375" customWidth="1" style="1" min="187" max="16384"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -37814,7 +37814,7 @@
         </is>
       </c>
       <c r="P1" s="1" t="n">
-        <v>510</v>
+        <v>516</v>
       </c>
     </row>
     <row r="2">
@@ -58646,13 +58646,37 @@
       </c>
     </row>
     <row r="510">
-      <c r="A510" s="16" t="n"/>
-      <c r="B510" s="2" t="n"/>
-      <c r="C510" s="16" t="n"/>
-      <c r="D510" s="16" t="n"/>
-      <c r="E510" s="16" t="n"/>
-      <c r="F510" s="21" t="n"/>
-      <c r="G510" s="14" t="n"/>
+      <c r="A510" s="16" t="inlineStr">
+        <is>
+          <t>SUBLIME MOINHOS COMERCIO DE COLCHOES LTDA</t>
+        </is>
+      </c>
+      <c r="B510" s="2" t="n">
+        <v>48189900000155</v>
+      </c>
+      <c r="C510" s="16" t="inlineStr">
+        <is>
+          <t>MR061645/2023</t>
+        </is>
+      </c>
+      <c r="D510" s="16" t="inlineStr">
+        <is>
+          <t>Domingos e feriados</t>
+        </is>
+      </c>
+      <c r="E510" s="16" t="inlineStr">
+        <is>
+          <t>Lojista</t>
+        </is>
+      </c>
+      <c r="F510" s="21" t="inlineStr">
+        <is>
+          <t>01/11/2022 - 31/12/2023</t>
+        </is>
+      </c>
+      <c r="G510" s="22" t="n">
+        <v>45236</v>
+      </c>
       <c r="H510" s="1">
         <f>LEFT(B510,8)</f>
         <v/>
@@ -58663,13 +58687,37 @@
       </c>
     </row>
     <row r="511">
-      <c r="A511" s="16" t="n"/>
-      <c r="B511" s="2" t="n"/>
-      <c r="C511" s="16" t="n"/>
-      <c r="D511" s="16" t="n"/>
-      <c r="E511" s="16" t="n"/>
-      <c r="F511" s="21" t="n"/>
-      <c r="G511" s="14" t="n"/>
+      <c r="A511" s="16" t="inlineStr">
+        <is>
+          <t>SUPERMERCADO PALMITOS LTDA</t>
+        </is>
+      </c>
+      <c r="B511" s="2" t="n">
+        <v>964821000148</v>
+      </c>
+      <c r="C511" s="16" t="inlineStr">
+        <is>
+          <t>MR061010/2023</t>
+        </is>
+      </c>
+      <c r="D511" s="16" t="inlineStr">
+        <is>
+          <t>Domingos e feriados</t>
+        </is>
+      </c>
+      <c r="E511" s="16" t="inlineStr">
+        <is>
+          <t>Mercado</t>
+        </is>
+      </c>
+      <c r="F511" s="21" t="inlineStr">
+        <is>
+          <t>01/11/2022 - 31/12/2023</t>
+        </is>
+      </c>
+      <c r="G511" s="22" t="n">
+        <v>45236</v>
+      </c>
       <c r="H511" s="1">
         <f>LEFT(B511,8)</f>
         <v/>
@@ -58680,13 +58728,37 @@
       </c>
     </row>
     <row r="512">
-      <c r="A512" s="16" t="n"/>
-      <c r="B512" s="2" t="n"/>
-      <c r="C512" s="16" t="n"/>
-      <c r="D512" s="16" t="n"/>
-      <c r="E512" s="16" t="n"/>
-      <c r="F512" s="21" t="n"/>
-      <c r="G512" s="14" t="n"/>
+      <c r="A512" s="16" t="inlineStr">
+        <is>
+          <t>MINIMERCADO ESCADARIA LTDA</t>
+        </is>
+      </c>
+      <c r="B512" s="2" t="n">
+        <v>7759399000138</v>
+      </c>
+      <c r="C512" s="16" t="inlineStr">
+        <is>
+          <t>MR061002/2023</t>
+        </is>
+      </c>
+      <c r="D512" s="16" t="inlineStr">
+        <is>
+          <t>Domingos e feriados</t>
+        </is>
+      </c>
+      <c r="E512" s="16" t="inlineStr">
+        <is>
+          <t>Mercado</t>
+        </is>
+      </c>
+      <c r="F512" s="21" t="inlineStr">
+        <is>
+          <t>01/11/2022 - 31/12/2023</t>
+        </is>
+      </c>
+      <c r="G512" s="22" t="n">
+        <v>45236</v>
+      </c>
       <c r="H512" s="1">
         <f>LEFT(B512,8)</f>
         <v/>
@@ -58697,13 +58769,37 @@
       </c>
     </row>
     <row r="513">
-      <c r="A513" s="16" t="n"/>
-      <c r="B513" s="2" t="n"/>
-      <c r="C513" s="16" t="n"/>
-      <c r="D513" s="16" t="n"/>
-      <c r="E513" s="16" t="n"/>
-      <c r="F513" s="21" t="n"/>
-      <c r="G513" s="14" t="n"/>
+      <c r="A513" s="16" t="inlineStr">
+        <is>
+          <t>MADA COMERCIO DE VESTUARIO LTDA</t>
+        </is>
+      </c>
+      <c r="B513" s="2" t="n">
+        <v>37947999000190</v>
+      </c>
+      <c r="C513" s="16" t="inlineStr">
+        <is>
+          <t>MR061242/2023</t>
+        </is>
+      </c>
+      <c r="D513" s="16" t="inlineStr">
+        <is>
+          <t>Domingos e feriados</t>
+        </is>
+      </c>
+      <c r="E513" s="16" t="inlineStr">
+        <is>
+          <t>Lojista</t>
+        </is>
+      </c>
+      <c r="F513" s="21" t="inlineStr">
+        <is>
+          <t>01/11/2022 - 31/12/2023</t>
+        </is>
+      </c>
+      <c r="G513" s="22" t="n">
+        <v>45239</v>
+      </c>
       <c r="H513" s="1">
         <f>LEFT(B513,8)</f>
         <v/>
@@ -58714,13 +58810,37 @@
       </c>
     </row>
     <row r="514">
-      <c r="A514" s="16" t="n"/>
-      <c r="B514" s="2" t="n"/>
-      <c r="C514" s="16" t="n"/>
-      <c r="D514" s="16" t="n"/>
-      <c r="E514" s="16" t="n"/>
-      <c r="F514" s="21" t="n"/>
-      <c r="G514" s="14" t="n"/>
+      <c r="A514" s="16" t="inlineStr">
+        <is>
+          <t>MERCADO MINAS GERAIS LTDA</t>
+        </is>
+      </c>
+      <c r="B514" s="2" t="n">
+        <v>5520581000106</v>
+      </c>
+      <c r="C514" s="16" t="inlineStr">
+        <is>
+          <t>MR022285/2023</t>
+        </is>
+      </c>
+      <c r="D514" s="16" t="inlineStr">
+        <is>
+          <t>Domingos e feriados</t>
+        </is>
+      </c>
+      <c r="E514" s="16" t="inlineStr">
+        <is>
+          <t>Mercado</t>
+        </is>
+      </c>
+      <c r="F514" s="21" t="inlineStr">
+        <is>
+          <t>01/11/2022 - 31/12/2023</t>
+        </is>
+      </c>
+      <c r="G514" s="22" t="n">
+        <v>45239</v>
+      </c>
       <c r="H514" s="1">
         <f>LEFT(B514,8)</f>
         <v/>
@@ -58731,13 +58851,37 @@
       </c>
     </row>
     <row r="515">
-      <c r="A515" s="16" t="n"/>
-      <c r="B515" s="2" t="n"/>
-      <c r="C515" s="16" t="n"/>
-      <c r="D515" s="16" t="n"/>
-      <c r="E515" s="16" t="n"/>
-      <c r="F515" s="21" t="n"/>
-      <c r="G515" s="14" t="n"/>
+      <c r="A515" s="16" t="inlineStr">
+        <is>
+          <t>KILTY CONFECCOES DE ROUPAS FITNESS LTDA</t>
+        </is>
+      </c>
+      <c r="B515" s="2" t="n">
+        <v>26970989000583</v>
+      </c>
+      <c r="C515" s="16" t="inlineStr">
+        <is>
+          <t>MR062542/2023</t>
+        </is>
+      </c>
+      <c r="D515" s="16" t="inlineStr">
+        <is>
+          <t>Domingos e feriados</t>
+        </is>
+      </c>
+      <c r="E515" s="16" t="inlineStr">
+        <is>
+          <t>Lojista</t>
+        </is>
+      </c>
+      <c r="F515" s="21" t="inlineStr">
+        <is>
+          <t>01/11/2022 - 31/12/2023</t>
+        </is>
+      </c>
+      <c r="G515" s="22" t="n">
+        <v>45243</v>
+      </c>
       <c r="H515" s="1">
         <f>LEFT(B515,8)</f>
         <v/>
@@ -64086,6 +64230,12 @@
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C507" r:id="rId506"/>
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C508" r:id="rId507"/>
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C509" r:id="rId508"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C510" r:id="rId509"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C511" r:id="rId510"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C512" r:id="rId511"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C513" r:id="rId512"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C514" r:id="rId513"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C515" r:id="rId514"/>
   </hyperlinks>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" paperSize="9"/>
@@ -64101,8 +64251,8 @@
   </sheetPr>
   <dimension ref="A1:T183"/>
   <sheetViews>
-    <sheetView topLeftCell="A85" workbookViewId="0">
-      <selection activeCell="E95" sqref="E95"/>
+    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
+      <selection activeCell="G99" sqref="G99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4" outlineLevelCol="0"/>
@@ -64161,10 +64311,10 @@
         </is>
       </c>
       <c r="S1" t="n">
-        <v>62222</v>
+        <v>63994</v>
       </c>
       <c r="T1" t="n">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="2">
@@ -66869,20 +67019,20 @@
     <row r="63">
       <c r="A63" s="16" t="inlineStr">
         <is>
-          <t>MERCADO MINAS GERAIS LTDA</t>
+          <t>CESRAN RECRUTAMENTO E SELECAO DE PESSOAL LTDA</t>
         </is>
       </c>
       <c r="B63" s="2" t="n">
-        <v>5520581000106</v>
+        <v>49995556000154</v>
       </c>
       <c r="C63" s="16" t="inlineStr">
         <is>
-          <t>MR022285/2023</t>
+          <t>MR022523/2023</t>
         </is>
       </c>
       <c r="D63" s="5" t="inlineStr">
         <is>
-          <t>SIM</t>
+          <t>NÃO</t>
         </is>
       </c>
       <c r="E63" s="5" t="inlineStr">
@@ -66892,12 +67042,10 @@
       </c>
       <c r="F63" s="5" t="inlineStr">
         <is>
-          <t>Mercado</t>
-        </is>
-      </c>
-      <c r="G63" s="22" t="n">
-        <v>45223</v>
-      </c>
+          <t>Lojista</t>
+        </is>
+      </c>
+      <c r="G63" s="22" t="n"/>
       <c r="H63" s="5">
         <f>IFERROR(VLOOKUP(I63,regs!H:I,2,0),"")</f>
         <v/>
@@ -66914,20 +67062,20 @@
     <row r="64">
       <c r="A64" s="16" t="inlineStr">
         <is>
-          <t>CESRAN RECRUTAMENTO E SELECAO DE PESSOAL LTDA</t>
+          <t>ARMAZEM BOMGADO GA LTDA</t>
         </is>
       </c>
       <c r="B64" s="2" t="n">
-        <v>49995556000154</v>
+        <v>38824899000130</v>
       </c>
       <c r="C64" s="16" t="inlineStr">
         <is>
-          <t>MR022523/2023</t>
+          <t>MR022759/2023</t>
         </is>
       </c>
       <c r="D64" s="5" t="inlineStr">
         <is>
-          <t>NÃO</t>
+          <t>SIM</t>
         </is>
       </c>
       <c r="E64" s="5" t="inlineStr">
@@ -66937,10 +67085,12 @@
       </c>
       <c r="F64" s="5" t="inlineStr">
         <is>
-          <t>Lojista</t>
-        </is>
-      </c>
-      <c r="G64" s="22" t="n"/>
+          <t>Mercado</t>
+        </is>
+      </c>
+      <c r="G64" s="22" t="n">
+        <v>45058</v>
+      </c>
       <c r="H64" s="5">
         <f>IFERROR(VLOOKUP(I64,regs!H:I,2,0),"")</f>
         <v/>
@@ -66957,15 +67107,15 @@
     <row r="65">
       <c r="A65" s="16" t="inlineStr">
         <is>
-          <t>ARMAZEM BOMGADO GA LTDA</t>
+          <t>PAULA H OBJETOS DECORATIVOS E PRESENTES LTDA</t>
         </is>
       </c>
       <c r="B65" s="2" t="n">
-        <v>38824899000130</v>
+        <v>2721404000108</v>
       </c>
       <c r="C65" s="16" t="inlineStr">
         <is>
-          <t>MR022759/2023</t>
+          <t>MR022848/2023</t>
         </is>
       </c>
       <c r="D65" s="5" t="inlineStr">
@@ -66980,11 +67130,11 @@
       </c>
       <c r="F65" s="5" t="inlineStr">
         <is>
-          <t>Mercado</t>
+          <t>Lojista</t>
         </is>
       </c>
       <c r="G65" s="22" t="n">
-        <v>45058</v>
+        <v>45057</v>
       </c>
       <c r="H65" s="5">
         <f>IFERROR(VLOOKUP(I65,regs!H:I,2,0),"")</f>
@@ -67002,15 +67152,15 @@
     <row r="66">
       <c r="A66" s="16" t="inlineStr">
         <is>
-          <t>PAULA H OBJETOS DECORATIVOS E PRESENTES LTDA</t>
+          <t>SERGIO PEDRO TONIOLO</t>
         </is>
       </c>
       <c r="B66" s="2" t="n">
-        <v>2721404000108</v>
+        <v>94678224000109</v>
       </c>
       <c r="C66" s="16" t="inlineStr">
         <is>
-          <t>MR022848/2023</t>
+          <t>MR023039/2023</t>
         </is>
       </c>
       <c r="D66" s="5" t="inlineStr">
@@ -67025,7 +67175,7 @@
       </c>
       <c r="F66" s="5" t="inlineStr">
         <is>
-          <t>Lojista</t>
+          <t>Mercado</t>
         </is>
       </c>
       <c r="G66" s="22" t="n">
@@ -67047,20 +67197,20 @@
     <row r="67">
       <c r="A67" s="16" t="inlineStr">
         <is>
-          <t>SERGIO PEDRO TONIOLO</t>
+          <t>K2 COMERCIO E INDUSTRIA LTDA</t>
         </is>
       </c>
       <c r="B67" s="2" t="n">
-        <v>94678224000109</v>
+        <v>1167639000714</v>
       </c>
       <c r="C67" s="16" t="inlineStr">
         <is>
-          <t>MR023039/2023</t>
+          <t>MR026862/2023</t>
         </is>
       </c>
       <c r="D67" s="5" t="inlineStr">
         <is>
-          <t>SIM</t>
+          <t>NÃO</t>
         </is>
       </c>
       <c r="E67" s="5" t="inlineStr">
@@ -67070,12 +67220,10 @@
       </c>
       <c r="F67" s="5" t="inlineStr">
         <is>
-          <t>Mercado</t>
-        </is>
-      </c>
-      <c r="G67" s="22" t="n">
-        <v>45057</v>
-      </c>
+          <t>Lojista</t>
+        </is>
+      </c>
+      <c r="G67" s="22" t="n"/>
       <c r="H67" s="5">
         <f>IFERROR(VLOOKUP(I67,regs!H:I,2,0),"")</f>
         <v/>
@@ -67092,33 +67240,35 @@
     <row r="68">
       <c r="A68" s="16" t="inlineStr">
         <is>
-          <t>K2 COMERCIO E INDUSTRIA LTDA</t>
+          <t>SINDICATO DOS CONCESSIONARIOS E DISTRIBUIDORES DE VEICULOS NO ESTADO DO RIO GRANDE DO SUL - SINCODIV/RS</t>
         </is>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1167639000714</v>
+        <v>4243203000160</v>
       </c>
       <c r="C68" s="16" t="inlineStr">
         <is>
-          <t>MR026862/2023</t>
+          <t>MR029222/2023</t>
         </is>
       </c>
       <c r="D68" s="5" t="inlineStr">
         <is>
-          <t>NÃO</t>
+          <t>SIM</t>
         </is>
       </c>
       <c r="E68" s="5" t="inlineStr">
         <is>
-          <t>Domingos e feriados</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="F68" s="5" t="inlineStr">
         <is>
-          <t>Lojista</t>
-        </is>
-      </c>
-      <c r="G68" s="22" t="n"/>
+          <t>Indeterminado</t>
+        </is>
+      </c>
+      <c r="G68" s="22" t="n">
+        <v>45084</v>
+      </c>
       <c r="H68" s="5">
         <f>IFERROR(VLOOKUP(I68,regs!H:I,2,0),"")</f>
         <v/>
@@ -67135,15 +67285,15 @@
     <row r="69">
       <c r="A69" s="16" t="inlineStr">
         <is>
-          <t>SINDICATO DOS CONCESSIONARIOS E DISTRIBUIDORES DE VEICULOS NO ESTADO DO RIO GRANDE DO SUL - SINCODIV/RS</t>
+          <t>VISSOMZ ABASTE ESPECIAL DE ESSENCIAS ROGE COMERCIO LTDA</t>
         </is>
       </c>
       <c r="B69" s="2" t="n">
-        <v>4243203000160</v>
+        <v>93866739000161</v>
       </c>
       <c r="C69" s="16" t="inlineStr">
         <is>
-          <t>MR029222/2023</t>
+          <t>MR030541/2023</t>
         </is>
       </c>
       <c r="D69" s="5" t="inlineStr">
@@ -67153,16 +67303,16 @@
       </c>
       <c r="E69" s="5" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Domingos e feriados</t>
         </is>
       </c>
       <c r="F69" s="5" t="inlineStr">
         <is>
-          <t>Indeterminado</t>
+          <t>Lojista</t>
         </is>
       </c>
       <c r="G69" s="22" t="n">
-        <v>45084</v>
+        <v>45103</v>
       </c>
       <c r="H69" s="5">
         <f>IFERROR(VLOOKUP(I69,regs!H:I,2,0),"")</f>
@@ -67180,20 +67330,20 @@
     <row r="70">
       <c r="A70" s="16" t="inlineStr">
         <is>
-          <t>VISSOMZ ABASTE ESPECIAL DE ESSENCIAS ROGE COMERCIO LTDA</t>
+          <t>QDBVISS - ABASTECIMENTO ESPECIAL DE PRODUTOS DE BELEZA LTDA</t>
         </is>
       </c>
       <c r="B70" s="2" t="n">
-        <v>93866739000161</v>
+        <v>19187523000206</v>
       </c>
       <c r="C70" s="16" t="inlineStr">
         <is>
-          <t>MR030541/2023</t>
+          <t>MR030896/2023</t>
         </is>
       </c>
       <c r="D70" s="5" t="inlineStr">
         <is>
-          <t>SIM</t>
+          <t>NÃO</t>
         </is>
       </c>
       <c r="E70" s="5" t="inlineStr">
@@ -67206,9 +67356,7 @@
           <t>Lojista</t>
         </is>
       </c>
-      <c r="G70" s="22" t="n">
-        <v>45103</v>
-      </c>
+      <c r="G70" s="22" t="n"/>
       <c r="H70" s="5">
         <f>IFERROR(VLOOKUP(I70,regs!H:I,2,0),"")</f>
         <v/>
@@ -67225,20 +67373,20 @@
     <row r="71">
       <c r="A71" s="16" t="inlineStr">
         <is>
-          <t>QDBVISS - ABASTECIMENTO ESPECIAL DE PRODUTOS DE BELEZA LTDA</t>
+          <t>AGENSUL - COMERCIO DE PERFUMARIA LTDA</t>
         </is>
       </c>
       <c r="B71" s="2" t="n">
-        <v>19187523000206</v>
+        <v>92916907000113</v>
       </c>
       <c r="C71" s="16" t="inlineStr">
         <is>
-          <t>MR030896/2023</t>
+          <t>MR031783/2023</t>
         </is>
       </c>
       <c r="D71" s="5" t="inlineStr">
         <is>
-          <t>NÃO</t>
+          <t>SIM</t>
         </is>
       </c>
       <c r="E71" s="5" t="inlineStr">
@@ -67251,7 +67399,9 @@
           <t>Lojista</t>
         </is>
       </c>
-      <c r="G71" s="22" t="n"/>
+      <c r="G71" s="22" t="n">
+        <v>45097</v>
+      </c>
       <c r="H71" s="5">
         <f>IFERROR(VLOOKUP(I71,regs!H:I,2,0),"")</f>
         <v/>
@@ -67268,15 +67418,15 @@
     <row r="72">
       <c r="A72" s="16" t="inlineStr">
         <is>
-          <t>AGENSUL - COMERCIO DE PERFUMARIA LTDA</t>
+          <t>DOM COMERCIO DE PERFUMARIA E COSMETICOS LTDA</t>
         </is>
       </c>
       <c r="B72" s="2" t="n">
-        <v>92916907000113</v>
+        <v>14335320000298</v>
       </c>
       <c r="C72" s="16" t="inlineStr">
         <is>
-          <t>MR031783/2023</t>
+          <t>MR031797/2023</t>
         </is>
       </c>
       <c r="D72" s="5" t="inlineStr">
@@ -67313,15 +67463,15 @@
     <row r="73">
       <c r="A73" s="16" t="inlineStr">
         <is>
-          <t>DOM COMERCIO DE PERFUMARIA E COSMETICOS LTDA</t>
+          <t>CH COMERCIO DE PERFUMARIA E COSMETICOS LTDA</t>
         </is>
       </c>
       <c r="B73" s="2" t="n">
-        <v>14335320000298</v>
+        <v>14327879000195</v>
       </c>
       <c r="C73" s="16" t="inlineStr">
         <is>
-          <t>MR031797/2023</t>
+          <t>MR031802/2023</t>
         </is>
       </c>
       <c r="D73" s="5" t="inlineStr">
@@ -67358,20 +67508,20 @@
     <row r="74">
       <c r="A74" s="16" t="inlineStr">
         <is>
-          <t>CH COMERCIO DE PERFUMARIA E COSMETICOS LTDA</t>
+          <t>PITUCHINHUS INDUSTRIA E COMERCIO DE CONFECCOES LTDA</t>
         </is>
       </c>
       <c r="B74" s="2" t="n">
-        <v>14327879000195</v>
+        <v>68765825000564</v>
       </c>
       <c r="C74" s="16" t="inlineStr">
         <is>
-          <t>MR031802/2023</t>
+          <t>MR034407/2023</t>
         </is>
       </c>
       <c r="D74" s="5" t="inlineStr">
         <is>
-          <t>SIM</t>
+          <t>NÃO</t>
         </is>
       </c>
       <c r="E74" s="5" t="inlineStr">
@@ -67384,9 +67534,7 @@
           <t>Lojista</t>
         </is>
       </c>
-      <c r="G74" s="22" t="n">
-        <v>45097</v>
-      </c>
+      <c r="G74" s="22" t="n"/>
       <c r="H74" s="5">
         <f>IFERROR(VLOOKUP(I74,regs!H:I,2,0),"")</f>
         <v/>
@@ -67403,15 +67551,15 @@
     <row r="75">
       <c r="A75" s="16" t="inlineStr">
         <is>
-          <t>PITUCHINHUS INDUSTRIA E COMERCIO DE CONFECCOES LTDA</t>
+          <t>DIAS &amp; CIA LTDA</t>
         </is>
       </c>
       <c r="B75" s="2" t="n">
-        <v>68765825000564</v>
+        <v>3238893000104</v>
       </c>
       <c r="C75" s="16" t="inlineStr">
         <is>
-          <t>MR034407/2023</t>
+          <t>MR035469/2023</t>
         </is>
       </c>
       <c r="D75" s="5" t="inlineStr">
@@ -67446,20 +67594,20 @@
     <row r="76">
       <c r="A76" s="16" t="inlineStr">
         <is>
-          <t>DIAS &amp; CIA LTDA</t>
+          <t>BRASILDECOR MOVEIS E DECORACOES LTDA.</t>
         </is>
       </c>
       <c r="B76" s="2" t="n">
-        <v>3238893000104</v>
+        <v>28709695000285</v>
       </c>
       <c r="C76" s="16" t="inlineStr">
         <is>
-          <t>MR035469/2023</t>
+          <t>MR037779/2023</t>
         </is>
       </c>
       <c r="D76" s="5" t="inlineStr">
         <is>
-          <t>NÃO</t>
+          <t>SIM</t>
         </is>
       </c>
       <c r="E76" s="5" t="inlineStr">
@@ -67472,7 +67620,9 @@
           <t>Lojista</t>
         </is>
       </c>
-      <c r="G76" s="22" t="n"/>
+      <c r="G76" s="22" t="n">
+        <v>45210</v>
+      </c>
       <c r="H76" s="5">
         <f>IFERROR(VLOOKUP(I76,regs!H:I,2,0),"")</f>
         <v/>
@@ -67489,15 +67639,15 @@
     <row r="77">
       <c r="A77" s="16" t="inlineStr">
         <is>
-          <t>BRASILDECOR MOVEIS E DECORACOES LTDA.</t>
+          <t>MOMENTUS TABACARIA LTDA</t>
         </is>
       </c>
       <c r="B77" s="2" t="n">
-        <v>28709695000285</v>
+        <v>44731167000106</v>
       </c>
       <c r="C77" s="16" t="inlineStr">
         <is>
-          <t>MR037779/2023</t>
+          <t>MR022177/2023</t>
         </is>
       </c>
       <c r="D77" s="5" t="inlineStr">
@@ -67516,7 +67666,7 @@
         </is>
       </c>
       <c r="G77" s="22" t="n">
-        <v>45210</v>
+        <v>45068</v>
       </c>
       <c r="H77" s="5">
         <f>IFERROR(VLOOKUP(I77,regs!H:I,2,0),"")</f>
@@ -67534,20 +67684,20 @@
     <row r="78">
       <c r="A78" s="16" t="inlineStr">
         <is>
-          <t>MOMENTUS TABACARIA LTDA</t>
+          <t>GABRIELA DA CUNHA BARBOSA LTDA</t>
         </is>
       </c>
       <c r="B78" s="2" t="n">
-        <v>44731167000106</v>
+        <v>10646336000180</v>
       </c>
       <c r="C78" s="16" t="inlineStr">
         <is>
-          <t>MR022177/2023</t>
+          <t>MR038361/2023</t>
         </is>
       </c>
       <c r="D78" s="5" t="inlineStr">
         <is>
-          <t>SIM</t>
+          <t>NÃO</t>
         </is>
       </c>
       <c r="E78" s="5" t="inlineStr">
@@ -67557,12 +67707,10 @@
       </c>
       <c r="F78" s="5" t="inlineStr">
         <is>
-          <t>Lojista</t>
-        </is>
-      </c>
-      <c r="G78" s="22" t="n">
-        <v>45068</v>
-      </c>
+          <t>Mercado</t>
+        </is>
+      </c>
+      <c r="G78" s="22" t="n"/>
       <c r="H78" s="5">
         <f>IFERROR(VLOOKUP(I78,regs!H:I,2,0),"")</f>
         <v/>
@@ -67579,15 +67727,15 @@
     <row r="79">
       <c r="A79" s="16" t="inlineStr">
         <is>
-          <t>GABRIELA DA CUNHA BARBOSA LTDA</t>
+          <t>C.M. ROZALES COMERCIO DE BRINQUEDOS E DOCES LTDA</t>
         </is>
       </c>
       <c r="B79" s="2" t="n">
-        <v>10646336000180</v>
+        <v>37902619000100</v>
       </c>
       <c r="C79" s="16" t="inlineStr">
         <is>
-          <t>MR038361/2023</t>
+          <t>MR038540/2023</t>
         </is>
       </c>
       <c r="D79" s="5" t="inlineStr">
@@ -67602,7 +67750,7 @@
       </c>
       <c r="F79" s="5" t="inlineStr">
         <is>
-          <t>Mercado</t>
+          <t>Lojista</t>
         </is>
       </c>
       <c r="G79" s="22" t="n"/>
@@ -67622,20 +67770,20 @@
     <row r="80">
       <c r="A80" s="16" t="inlineStr">
         <is>
-          <t>C.M. ROZALES COMERCIO DE BRINQUEDOS E DOCES LTDA</t>
+          <t>MRS COMERCIO DE PRODUTOS REGIONAIS LTDA</t>
         </is>
       </c>
       <c r="B80" s="2" t="n">
-        <v>37902619000100</v>
+        <v>8846951000198</v>
       </c>
       <c r="C80" s="16" t="inlineStr">
         <is>
-          <t>MR038540/2023</t>
+          <t>MR040808/2023</t>
         </is>
       </c>
       <c r="D80" s="5" t="inlineStr">
         <is>
-          <t>NÃO</t>
+          <t>SIM</t>
         </is>
       </c>
       <c r="E80" s="5" t="inlineStr">
@@ -67648,7 +67796,9 @@
           <t>Lojista</t>
         </is>
       </c>
-      <c r="G80" s="22" t="n"/>
+      <c r="G80" s="22" t="n">
+        <v>45139</v>
+      </c>
       <c r="H80" s="5">
         <f>IFERROR(VLOOKUP(I80,regs!H:I,2,0),"")</f>
         <v/>
@@ -67665,20 +67815,20 @@
     <row r="81">
       <c r="A81" s="16" t="inlineStr">
         <is>
-          <t>MRS COMERCIO DE PRODUTOS REGIONAIS LTDA</t>
+          <t>CAMPO VISUAL PARTICIPACOES LTDA</t>
         </is>
       </c>
       <c r="B81" s="2" t="n">
-        <v>8846951000198</v>
+        <v>9248776000108</v>
       </c>
       <c r="C81" s="16" t="inlineStr">
         <is>
-          <t>MR040808/2023</t>
+          <t>MR041737/2023</t>
         </is>
       </c>
       <c r="D81" s="5" t="inlineStr">
         <is>
-          <t>SIM</t>
+          <t>NÃO</t>
         </is>
       </c>
       <c r="E81" s="5" t="inlineStr">
@@ -67688,12 +67838,10 @@
       </c>
       <c r="F81" s="22" t="inlineStr">
         <is>
-          <t>Lojista</t>
-        </is>
-      </c>
-      <c r="G81" s="22" t="n">
-        <v>45139</v>
-      </c>
+          <t>Ótica</t>
+        </is>
+      </c>
+      <c r="G81" s="22" t="n"/>
       <c r="H81" s="5">
         <f>IFERROR(VLOOKUP(I81,regs!H:I,2,0),"")</f>
         <v/>
@@ -67710,15 +67858,15 @@
     <row r="82">
       <c r="A82" s="16" t="inlineStr">
         <is>
-          <t>CAMPO VISUAL PARTICIPACOES LTDA</t>
+          <t>SGH BRASIL COMERCIO DE OCULOS LTDA</t>
         </is>
       </c>
       <c r="B82" s="2" t="n">
-        <v>9248776000108</v>
+        <v>13257648000190</v>
       </c>
       <c r="C82" s="16" t="inlineStr">
         <is>
-          <t>MR041737/2023</t>
+          <t>MR041747/2023</t>
         </is>
       </c>
       <c r="D82" s="5" t="inlineStr">
@@ -67753,20 +67901,20 @@
     <row r="83">
       <c r="A83" s="16" t="inlineStr">
         <is>
-          <t>SGH BRASIL COMERCIO DE OCULOS LTDA</t>
+          <t>JCAM COMERCIO VAREJISTA DE CAPAS E ACESSORIOS LTDA</t>
         </is>
       </c>
       <c r="B83" s="2" t="n">
-        <v>13257648000190</v>
+        <v>27248361000370</v>
       </c>
       <c r="C83" s="16" t="inlineStr">
         <is>
-          <t>MR041747/2023</t>
+          <t>MR042358/2023</t>
         </is>
       </c>
       <c r="D83" s="5" t="inlineStr">
         <is>
-          <t>NÃO</t>
+          <t>SIM</t>
         </is>
       </c>
       <c r="E83" s="5" t="inlineStr">
@@ -67776,10 +67924,12 @@
       </c>
       <c r="F83" s="5" t="inlineStr">
         <is>
-          <t>Ótica</t>
-        </is>
-      </c>
-      <c r="G83" s="22" t="n"/>
+          <t>Lojista</t>
+        </is>
+      </c>
+      <c r="G83" s="22" t="n">
+        <v>45145</v>
+      </c>
       <c r="H83" s="5">
         <f>IFERROR(VLOOKUP(I83,regs!H:I,2,0),"")</f>
         <v/>
@@ -67796,15 +67946,15 @@
     <row r="84">
       <c r="A84" s="16" t="inlineStr">
         <is>
-          <t>JCAM COMERCIO VAREJISTA DE CAPAS E ACESSORIOS LTDA</t>
+          <t>ARMAZEM BOMGADO GA LTDA</t>
         </is>
       </c>
       <c r="B84" s="2" t="n">
-        <v>27248361000370</v>
+        <v>38824899000130</v>
       </c>
       <c r="C84" s="16" t="inlineStr">
         <is>
-          <t>MR042358/2023</t>
+          <t>MR044212/2023</t>
         </is>
       </c>
       <c r="D84" s="5" t="inlineStr">
@@ -67819,7 +67969,7 @@
       </c>
       <c r="F84" s="22" t="inlineStr">
         <is>
-          <t>Lojista</t>
+          <t>Mercado</t>
         </is>
       </c>
       <c r="G84" s="22" t="n">
@@ -67841,15 +67991,15 @@
     <row r="85">
       <c r="A85" s="16" t="inlineStr">
         <is>
-          <t>ARMAZEM BOMGADO GA LTDA</t>
+          <t>J. D. JAQUES</t>
         </is>
       </c>
       <c r="B85" s="2" t="n">
-        <v>38824899000130</v>
+        <v>49312585000174</v>
       </c>
       <c r="C85" s="16" t="inlineStr">
         <is>
-          <t>MR044212/2023</t>
+          <t>MR049127/2023</t>
         </is>
       </c>
       <c r="D85" s="5" t="inlineStr">
@@ -67864,11 +68014,11 @@
       </c>
       <c r="F85" s="22" t="inlineStr">
         <is>
-          <t>Mercado</t>
+          <t>Lojista</t>
         </is>
       </c>
       <c r="G85" s="22" t="n">
-        <v>45145</v>
+        <v>45173</v>
       </c>
       <c r="H85" s="5">
         <f>IFERROR(VLOOKUP(I85,regs!H:I,2,0),"")</f>
@@ -67886,20 +68036,20 @@
     <row r="86">
       <c r="A86" s="16" t="inlineStr">
         <is>
-          <t>J. D. JAQUES</t>
+          <t>L &amp; A COMERCIO DE CALCADOS LTDA</t>
         </is>
       </c>
       <c r="B86" s="2" t="n">
-        <v>49312585000174</v>
+        <v>48748393000223</v>
       </c>
       <c r="C86" s="16" t="inlineStr">
         <is>
-          <t>MR049127/2023</t>
+          <t>MR049502/2023</t>
         </is>
       </c>
       <c r="D86" s="5" t="inlineStr">
         <is>
-          <t>SIM</t>
+          <t>NÃO</t>
         </is>
       </c>
       <c r="E86" s="5" t="inlineStr">
@@ -67912,9 +68062,7 @@
           <t>Lojista</t>
         </is>
       </c>
-      <c r="G86" s="22" t="n">
-        <v>45173</v>
-      </c>
+      <c r="G86" s="22" t="n"/>
       <c r="H86" s="5">
         <f>IFERROR(VLOOKUP(I86,regs!H:I,2,0),"")</f>
         <v/>
@@ -67931,15 +68079,15 @@
     <row r="87">
       <c r="A87" s="16" t="inlineStr">
         <is>
-          <t>L &amp; A COMERCIO DE CALCADOS LTDA</t>
+          <t>M &amp; S COMERCIO DE ALIMENTOS LTDA</t>
         </is>
       </c>
       <c r="B87" s="2" t="n">
-        <v>48748393000223</v>
+        <v>44663036000120</v>
       </c>
       <c r="C87" s="16" t="inlineStr">
         <is>
-          <t>MR049502/2023</t>
+          <t>MR049614/2023</t>
         </is>
       </c>
       <c r="D87" s="5" t="inlineStr">
@@ -67954,7 +68102,7 @@
       </c>
       <c r="F87" s="22" t="inlineStr">
         <is>
-          <t>Lojista</t>
+          <t>Mercado</t>
         </is>
       </c>
       <c r="G87" s="22" t="n"/>
@@ -67974,15 +68122,15 @@
     <row r="88">
       <c r="A88" s="16" t="inlineStr">
         <is>
-          <t>M &amp; S COMERCIO DE ALIMENTOS LTDA</t>
+          <t>MRS COMERCIO DE PRODUTOS REGIONAIS LTDA</t>
         </is>
       </c>
       <c r="B88" s="2" t="n">
-        <v>44663036000120</v>
+        <v>8846951000198</v>
       </c>
       <c r="C88" s="16" t="inlineStr">
         <is>
-          <t>MR049614/2023</t>
+          <t>MR050117/2023</t>
         </is>
       </c>
       <c r="D88" s="5" t="inlineStr">
@@ -67997,7 +68145,7 @@
       </c>
       <c r="F88" s="22" t="inlineStr">
         <is>
-          <t>Mercado</t>
+          <t>Lojista</t>
         </is>
       </c>
       <c r="G88" s="22" t="n"/>
@@ -68017,15 +68165,15 @@
     <row r="89">
       <c r="A89" s="16" t="inlineStr">
         <is>
-          <t>MRS COMERCIO DE PRODUTOS REGIONAIS LTDA</t>
+          <t>ELTON CHRISTMANN</t>
         </is>
       </c>
       <c r="B89" s="2" t="n">
-        <v>8846951000198</v>
+        <v>41733795000124</v>
       </c>
       <c r="C89" s="16" t="inlineStr">
         <is>
-          <t>MR050117/2023</t>
+          <t>MR054169/2023</t>
         </is>
       </c>
       <c r="D89" s="5" t="inlineStr">
@@ -68040,7 +68188,7 @@
       </c>
       <c r="F89" s="22" t="inlineStr">
         <is>
-          <t>Lojista</t>
+          <t>Mercado</t>
         </is>
       </c>
       <c r="G89" s="22" t="n"/>
@@ -68060,15 +68208,15 @@
     <row r="90">
       <c r="A90" s="16" t="inlineStr">
         <is>
-          <t>ELTON CHRISTMANN</t>
+          <t>TERRAS DE AVENTURA INDUSTRIA DE ARTIGOS ESPORTIVOS S.A</t>
         </is>
       </c>
       <c r="B90" s="2" t="n">
-        <v>41733795000124</v>
+        <v>35943604007916</v>
       </c>
       <c r="C90" s="16" t="inlineStr">
         <is>
-          <t>MR054169/2023</t>
+          <t>MR054255/2023</t>
         </is>
       </c>
       <c r="D90" s="5" t="inlineStr">
@@ -68083,7 +68231,7 @@
       </c>
       <c r="F90" s="5" t="inlineStr">
         <is>
-          <t>Mercado</t>
+          <t>Lojista</t>
         </is>
       </c>
       <c r="G90" s="22" t="n"/>
@@ -68103,15 +68251,15 @@
     <row r="91">
       <c r="A91" s="16" t="inlineStr">
         <is>
-          <t>TERRAS DE AVENTURA INDUSTRIA DE ARTIGOS ESPORTIVOS S.A</t>
+          <t>VISSOMZ ABASTE ESPECIAL DE ESSENCIAS ROGE COMERCIO LTDA</t>
         </is>
       </c>
       <c r="B91" s="2" t="n">
-        <v>35943604007916</v>
+        <v>93866739000161</v>
       </c>
       <c r="C91" s="16" t="inlineStr">
         <is>
-          <t>MR054255/2023</t>
+          <t>MR054321/2023</t>
         </is>
       </c>
       <c r="D91" s="5" t="inlineStr">
@@ -68146,15 +68294,15 @@
     <row r="92">
       <c r="A92" s="16" t="inlineStr">
         <is>
-          <t>VISSOMZ ABASTE ESPECIAL DE ESSENCIAS ROGE COMERCIO LTDA</t>
+          <t>JADORE BIJUTERIAS E ACESSORIOS LTDA</t>
         </is>
       </c>
       <c r="B92" s="2" t="n">
-        <v>93866739000161</v>
+        <v>16950484000501</v>
       </c>
       <c r="C92" s="16" t="inlineStr">
         <is>
-          <t>MR054321/2023</t>
+          <t>MR054507/2023</t>
         </is>
       </c>
       <c r="D92" s="5" t="inlineStr">
@@ -68189,15 +68337,15 @@
     <row r="93">
       <c r="A93" s="16" t="inlineStr">
         <is>
-          <t>JADORE BIJUTERIAS E ACESSORIOS LTDA</t>
+          <t>R. JAQUES DE ANDRADE</t>
         </is>
       </c>
       <c r="B93" s="2" t="n">
-        <v>16950484000501</v>
+        <v>38824968000105</v>
       </c>
       <c r="C93" s="16" t="inlineStr">
         <is>
-          <t>MR054507/2023</t>
+          <t>MR054671/2023</t>
         </is>
       </c>
       <c r="D93" s="5" t="inlineStr">
@@ -68232,15 +68380,15 @@
     <row r="94">
       <c r="A94" s="16" t="inlineStr">
         <is>
-          <t>R. JAQUES DE ANDRADE</t>
+          <t>THAIS ANGELICA FOLLMANN BENNEMANN LTDA</t>
         </is>
       </c>
       <c r="B94" s="2" t="n">
-        <v>38824968000105</v>
+        <v>51188904000123</v>
       </c>
       <c r="C94" s="16" t="inlineStr">
         <is>
-          <t>MR054671/2023</t>
+          <t>MR055140/2023</t>
         </is>
       </c>
       <c r="D94" s="5" t="inlineStr">
@@ -68275,15 +68423,15 @@
     <row r="95">
       <c r="A95" s="16" t="inlineStr">
         <is>
-          <t>THAIS ANGELICA FOLLMANN BENNEMANN LTDA</t>
+          <t>REAL COMERCIAL LTDA</t>
         </is>
       </c>
       <c r="B95" s="2" t="n">
-        <v>51188904000123</v>
+        <v>2780640000197</v>
       </c>
       <c r="C95" s="16" t="inlineStr">
         <is>
-          <t>MR055140/2023</t>
+          <t>MR055548/2023</t>
         </is>
       </c>
       <c r="D95" s="5" t="inlineStr">
@@ -68298,7 +68446,7 @@
       </c>
       <c r="F95" s="22" t="inlineStr">
         <is>
-          <t>Lojista</t>
+          <t>Mercado</t>
         </is>
       </c>
       <c r="G95" s="22" t="n"/>
@@ -68318,20 +68466,20 @@
     <row r="96">
       <c r="A96" s="16" t="inlineStr">
         <is>
-          <t>REAL COMERCIAL LTDA</t>
+          <t>FL TECH INFORMATICA LTDA</t>
         </is>
       </c>
       <c r="B96" s="2" t="n">
-        <v>2780640000197</v>
+        <v>46964709000108</v>
       </c>
       <c r="C96" s="16" t="inlineStr">
         <is>
-          <t>MR055548/2023</t>
+          <t>MR055557/2023</t>
         </is>
       </c>
       <c r="D96" s="5" t="inlineStr">
         <is>
-          <t>NÃO</t>
+          <t>SIM</t>
         </is>
       </c>
       <c r="E96" s="5" t="inlineStr">
@@ -68341,10 +68489,12 @@
       </c>
       <c r="F96" s="22" t="inlineStr">
         <is>
-          <t>Mercado</t>
-        </is>
-      </c>
-      <c r="G96" s="22" t="n"/>
+          <t>Lojista</t>
+        </is>
+      </c>
+      <c r="G96" s="22" t="n">
+        <v>45239</v>
+      </c>
       <c r="H96" s="5">
         <f>IFERROR(VLOOKUP(I96,regs!H:I,2,0),"")</f>
         <v/>
@@ -68361,20 +68511,20 @@
     <row r="97">
       <c r="A97" s="16" t="inlineStr">
         <is>
-          <t>FL TECH INFORMATICA LTDA</t>
+          <t>NIZZA COMERCIO DE CONFECCOES LTDA</t>
         </is>
       </c>
       <c r="B97" s="2" t="n">
-        <v>46964709000108</v>
+        <v>42160869000143</v>
       </c>
       <c r="C97" s="16" t="inlineStr">
         <is>
-          <t>MR055557/2023</t>
+          <t>MR055577/2023</t>
         </is>
       </c>
       <c r="D97" s="5" t="inlineStr">
         <is>
-          <t>NÃO</t>
+          <t>SIM</t>
         </is>
       </c>
       <c r="E97" s="5" t="inlineStr">
@@ -68387,7 +68537,9 @@
           <t>Lojista</t>
         </is>
       </c>
-      <c r="G97" s="22" t="n"/>
+      <c r="G97" s="22" t="n">
+        <v>45210</v>
+      </c>
       <c r="H97" s="5">
         <f>IFERROR(VLOOKUP(I97,regs!H:I,2,0),"")</f>
         <v/>
@@ -68404,15 +68556,15 @@
     <row r="98">
       <c r="A98" s="16" t="inlineStr">
         <is>
-          <t>NIZZA COMERCIO DE CONFECCOES LTDA</t>
+          <t>BOOMER COMERCIO DE CONFECCOES LTDA</t>
         </is>
       </c>
       <c r="B98" s="2" t="n">
-        <v>42160869000143</v>
+        <v>28613652000200</v>
       </c>
       <c r="C98" s="16" t="inlineStr">
         <is>
-          <t>MR055577/2023</t>
+          <t>MR055583/2023</t>
         </is>
       </c>
       <c r="D98" s="5" t="inlineStr">
@@ -68449,15 +68601,15 @@
     <row r="99">
       <c r="A99" s="16" t="inlineStr">
         <is>
-          <t>BOOMER COMERCIO DE CONFECCOES LTDA</t>
+          <t>LERNER COMERCIO E ASSISTENCIA TECNICA DE CELULARES LTDA</t>
         </is>
       </c>
       <c r="B99" s="2" t="n">
-        <v>28613652000200</v>
+        <v>50767215000100</v>
       </c>
       <c r="C99" s="16" t="inlineStr">
         <is>
-          <t>MR055583/2023</t>
+          <t>MR056814/2023</t>
         </is>
       </c>
       <c r="D99" s="5" t="inlineStr">
@@ -68476,7 +68628,7 @@
         </is>
       </c>
       <c r="G99" s="22" t="n">
-        <v>45210</v>
+        <v>45204</v>
       </c>
       <c r="H99" s="5">
         <f>IFERROR(VLOOKUP(I99,regs!H:I,2,0),"")</f>
@@ -68494,15 +68646,15 @@
     <row r="100">
       <c r="A100" s="16" t="inlineStr">
         <is>
-          <t>LERNER COMERCIO E ASSISTENCIA TECNICA DE CELULARES LTDA</t>
+          <t>MAX CENTER CENTRO DE COMPRAS LTDA</t>
         </is>
       </c>
       <c r="B100" s="2" t="n">
-        <v>50767215000100</v>
+        <v>8769595000407</v>
       </c>
       <c r="C100" s="16" t="inlineStr">
         <is>
-          <t>MR056814/2023</t>
+          <t>MR059494/2023</t>
         </is>
       </c>
       <c r="D100" s="5" t="inlineStr">
@@ -68517,11 +68669,11 @@
       </c>
       <c r="F100" s="5" t="inlineStr">
         <is>
-          <t>Lojista</t>
+          <t>Mercado</t>
         </is>
       </c>
       <c r="G100" s="22" t="n">
-        <v>45204</v>
+        <v>45233</v>
       </c>
       <c r="H100" s="5">
         <f>IFERROR(VLOOKUP(I100,regs!H:I,2,0),"")</f>
@@ -68539,15 +68691,15 @@
     <row r="101">
       <c r="A101" s="16" t="inlineStr">
         <is>
-          <t>MAX CENTER CENTRO DE COMPRAS LTDA</t>
+          <t>SUPERMERCADO FLACH LTDA</t>
         </is>
       </c>
       <c r="B101" s="2" t="n">
-        <v>8769595000407</v>
+        <v>88692314000143</v>
       </c>
       <c r="C101" s="16" t="inlineStr">
         <is>
-          <t>MR059494/2023</t>
+          <t>MR059749/2023</t>
         </is>
       </c>
       <c r="D101" s="5" t="inlineStr">
@@ -68566,7 +68718,7 @@
         </is>
       </c>
       <c r="G101" s="22" t="n">
-        <v>45233</v>
+        <v>45223</v>
       </c>
       <c r="H101" s="5">
         <f>IFERROR(VLOOKUP(I101,regs!H:I,2,0),"")</f>
@@ -68584,15 +68736,15 @@
     <row r="102">
       <c r="A102" s="16" t="inlineStr">
         <is>
-          <t>SUPERMERCADO FLACH LTDA</t>
+          <t>ALBERTI COMERCIO DE ALIMENTOS LTDA</t>
         </is>
       </c>
       <c r="B102" s="2" t="n">
-        <v>88692314000143</v>
+        <v>1254300000160</v>
       </c>
       <c r="C102" s="16" t="inlineStr">
         <is>
-          <t>MR059749/2023</t>
+          <t>MR061063/2023</t>
         </is>
       </c>
       <c r="D102" s="5" t="inlineStr">
@@ -68611,7 +68763,7 @@
         </is>
       </c>
       <c r="G102" s="22" t="n">
-        <v>45223</v>
+        <v>45229</v>
       </c>
       <c r="H102" s="5">
         <f>IFERROR(VLOOKUP(I102,regs!H:I,2,0),"")</f>
@@ -68629,15 +68781,15 @@
     <row r="103">
       <c r="A103" s="16" t="inlineStr">
         <is>
-          <t>MINIMERCADO ESCADARIA LTDA</t>
+          <t>J B VIEIRA COMERCIO DE ALIMENTOS LTDA</t>
         </is>
       </c>
       <c r="B103" s="2" t="n">
-        <v>7759399000138</v>
+        <v>25535075000106</v>
       </c>
       <c r="C103" s="16" t="inlineStr">
         <is>
-          <t>MR061002/2023</t>
+          <t>MR061073/2023</t>
         </is>
       </c>
       <c r="D103" s="5" t="inlineStr">
@@ -68674,15 +68826,15 @@
     <row r="104">
       <c r="A104" s="16" t="inlineStr">
         <is>
-          <t>ALBERTI COMERCIO DE ALIMENTOS LTDA</t>
+          <t>ROZA SERENA COMERCIO DE CALCADOS LTDA</t>
         </is>
       </c>
       <c r="B104" s="2" t="n">
-        <v>1254300000160</v>
+        <v>52172316000164</v>
       </c>
       <c r="C104" s="16" t="inlineStr">
         <is>
-          <t>MR061063/2023</t>
+          <t>MR061404/2023</t>
         </is>
       </c>
       <c r="D104" s="5" t="inlineStr">
@@ -68697,11 +68849,11 @@
       </c>
       <c r="F104" s="22" t="inlineStr">
         <is>
-          <t>Mercado</t>
+          <t>Lojista</t>
         </is>
       </c>
       <c r="G104" s="22" t="n">
-        <v>45229</v>
+        <v>45240</v>
       </c>
       <c r="H104" s="5">
         <f>IFERROR(VLOOKUP(I104,regs!H:I,2,0),"")</f>
@@ -68719,20 +68871,20 @@
     <row r="105">
       <c r="A105" s="16" t="inlineStr">
         <is>
-          <t>J B VIEIRA COMERCIO DE ALIMENTOS LTDA</t>
+          <t>G. TRICOT POA COMERCIO DE ARTIGOS DE VESTUARIO LTDA</t>
         </is>
       </c>
       <c r="B105" s="2" t="n">
-        <v>25535075000106</v>
+        <v>51603161000100</v>
       </c>
       <c r="C105" s="16" t="inlineStr">
         <is>
-          <t>MR061073/2023</t>
+          <t>MR061715/2023</t>
         </is>
       </c>
       <c r="D105" s="5" t="inlineStr">
         <is>
-          <t>SIM</t>
+          <t>NÃO</t>
         </is>
       </c>
       <c r="E105" s="5" t="inlineStr">
@@ -68742,12 +68894,10 @@
       </c>
       <c r="F105" s="22" t="inlineStr">
         <is>
-          <t>Mercado</t>
-        </is>
-      </c>
-      <c r="G105" s="22" t="n">
-        <v>45229</v>
-      </c>
+          <t>Lojista</t>
+        </is>
+      </c>
+      <c r="G105" s="22" t="n"/>
       <c r="H105" s="5">
         <f>IFERROR(VLOOKUP(I105,regs!H:I,2,0),"")</f>
         <v/>
@@ -68764,20 +68914,20 @@
     <row r="106">
       <c r="A106" s="16" t="inlineStr">
         <is>
-          <t>MADA COMERCIO DE VESTUARIO LTDA</t>
+          <t>CALCADOS TOMAZZINI LTDA</t>
         </is>
       </c>
       <c r="B106" s="2" t="n">
-        <v>37947999000190</v>
+        <v>47612500000300</v>
       </c>
       <c r="C106" s="16" t="inlineStr">
         <is>
-          <t>MR061242/2023</t>
+          <t>MR062287/2023</t>
         </is>
       </c>
       <c r="D106" s="5" t="inlineStr">
         <is>
-          <t>SIM</t>
+          <t>NÃO</t>
         </is>
       </c>
       <c r="E106" s="5" t="inlineStr">
@@ -68790,9 +68940,7 @@
           <t>Lojista</t>
         </is>
       </c>
-      <c r="G106" s="22" t="n">
-        <v>45230</v>
-      </c>
+      <c r="G106" s="22" t="n"/>
       <c r="H106" s="5">
         <f>IFERROR(VLOOKUP(I106,regs!H:I,2,0),"")</f>
         <v/>
@@ -68809,20 +68957,20 @@
     <row r="107">
       <c r="A107" s="16" t="inlineStr">
         <is>
-          <t>ROZA SERENA COMERCIO DE CALCADOS LTDA</t>
+          <t>OFF STORE COMERCIO DE MOVEIS LTDA</t>
         </is>
       </c>
       <c r="B107" s="2" t="n">
-        <v>52172316000164</v>
+        <v>7827077000260</v>
       </c>
       <c r="C107" s="16" t="inlineStr">
         <is>
-          <t>MR061404/2023</t>
+          <t>MR062658/2023</t>
         </is>
       </c>
       <c r="D107" s="5" t="inlineStr">
         <is>
-          <t>NÃO</t>
+          <t>SIM</t>
         </is>
       </c>
       <c r="E107" s="5" t="inlineStr">
@@ -68835,7 +68983,9 @@
           <t>Lojista</t>
         </is>
       </c>
-      <c r="G107" s="22" t="inlineStr"/>
+      <c r="G107" s="22" t="n">
+        <v>45239</v>
+      </c>
       <c r="H107" s="5">
         <f>IFERROR(VLOOKUP(I107,regs!H:I,2,0),"")</f>
         <v/>
@@ -68852,20 +69002,20 @@
     <row r="108">
       <c r="A108" s="16" t="inlineStr">
         <is>
-          <t>G. TRICOT POA COMERCIO DE ARTIGOS DE VESTUARIO LTDA</t>
+          <t>W &amp; F COMERCIO DE MOVEIS LTDA</t>
         </is>
       </c>
       <c r="B108" s="2" t="n">
-        <v>51603161000100</v>
+        <v>35624688000165</v>
       </c>
       <c r="C108" s="16" t="inlineStr">
         <is>
-          <t>MR061715/2023</t>
+          <t>MR062666/2023</t>
         </is>
       </c>
       <c r="D108" s="5" t="inlineStr">
         <is>
-          <t>NÃO</t>
+          <t>SIM</t>
         </is>
       </c>
       <c r="E108" s="5" t="inlineStr">
@@ -68873,12 +69023,14 @@
           <t>Domingos e feriados</t>
         </is>
       </c>
-      <c r="F108" s="5" t="inlineStr">
-        <is>
-          <t>Lojista</t>
-        </is>
-      </c>
-      <c r="G108" s="22" t="inlineStr"/>
+      <c r="F108" s="22" t="inlineStr">
+        <is>
+          <t>Lojista</t>
+        </is>
+      </c>
+      <c r="G108" s="22" t="n">
+        <v>45239</v>
+      </c>
       <c r="H108" s="5">
         <f>IFERROR(VLOOKUP(I108,regs!H:I,2,0),"")</f>
         <v/>
@@ -68893,12 +69045,34 @@
       </c>
     </row>
     <row r="109">
-      <c r="A109" s="16" t="n"/>
-      <c r="B109" s="2" t="n"/>
-      <c r="C109" s="16" t="n"/>
-      <c r="D109" s="5" t="n"/>
-      <c r="E109" s="5" t="n"/>
-      <c r="F109" s="5" t="n"/>
+      <c r="A109" s="16" t="inlineStr">
+        <is>
+          <t>PAISAGEM LIVRARIA, PAPELARIA E ARTIGOS DE DECORACAO LTDA</t>
+        </is>
+      </c>
+      <c r="B109" s="2" t="n">
+        <v>41778264000310</v>
+      </c>
+      <c r="C109" s="16" t="inlineStr">
+        <is>
+          <t>MR063103/2023</t>
+        </is>
+      </c>
+      <c r="D109" s="5" t="inlineStr">
+        <is>
+          <t>NÃO</t>
+        </is>
+      </c>
+      <c r="E109" s="5" t="inlineStr">
+        <is>
+          <t>Domingos e feriados</t>
+        </is>
+      </c>
+      <c r="F109" s="22" t="inlineStr">
+        <is>
+          <t>Lojista</t>
+        </is>
+      </c>
       <c r="G109" s="22" t="n"/>
       <c r="H109" s="5">
         <f>IFERROR(VLOOKUP(I109,regs!H:I,2,0),"")</f>
@@ -68914,13 +69088,37 @@
       </c>
     </row>
     <row r="110">
-      <c r="A110" s="16" t="n"/>
-      <c r="B110" s="2" t="n"/>
-      <c r="C110" s="16" t="n"/>
-      <c r="D110" s="5" t="n"/>
-      <c r="E110" s="5" t="n"/>
-      <c r="F110" s="5" t="n"/>
-      <c r="G110" s="22" t="n"/>
+      <c r="A110" s="16" t="inlineStr">
+        <is>
+          <t>IMCOSUL LOJA DE DEPARTAMENTOS LTDA</t>
+        </is>
+      </c>
+      <c r="B110" s="2" t="n">
+        <v>40884352000171</v>
+      </c>
+      <c r="C110" s="16" t="inlineStr">
+        <is>
+          <t>MR063671/2023</t>
+        </is>
+      </c>
+      <c r="D110" s="5" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+      <c r="E110" s="5" t="inlineStr">
+        <is>
+          <t>Domingos e feriados</t>
+        </is>
+      </c>
+      <c r="F110" s="5" t="inlineStr">
+        <is>
+          <t>Lojista</t>
+        </is>
+      </c>
+      <c r="G110" s="22" t="n">
+        <v>45243</v>
+      </c>
       <c r="H110" s="5">
         <f>IFERROR(VLOOKUP(I110,regs!H:I,2,0),"")</f>
         <v/>
@@ -68935,13 +69133,13 @@
       </c>
     </row>
     <row r="111">
-      <c r="A111" s="16" t="n"/>
-      <c r="B111" s="2" t="n"/>
-      <c r="C111" s="16" t="n"/>
-      <c r="D111" s="5" t="n"/>
-      <c r="E111" s="5" t="n"/>
-      <c r="F111" s="5" t="n"/>
-      <c r="G111" s="22" t="n"/>
+      <c r="A111" s="16" t="inlineStr"/>
+      <c r="B111" s="2" t="inlineStr"/>
+      <c r="C111" s="16" t="inlineStr"/>
+      <c r="D111" s="5" t="inlineStr"/>
+      <c r="E111" s="5" t="inlineStr"/>
+      <c r="F111" s="5" t="inlineStr"/>
+      <c r="G111" s="22" t="inlineStr"/>
       <c r="H111" s="5">
         <f>IFERROR(VLOOKUP(I111,regs!H:I,2,0),"")</f>
         <v/>
@@ -70545,7 +70743,7 @@
         </is>
       </c>
       <c r="C3" s="5" t="n">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="G3" s="4" t="inlineStr">
         <is>
@@ -70654,7 +70852,7 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>344</v>
+        <v>350</v>
       </c>
       <c r="G9" s="4" t="inlineStr">
         <is>

--- a/regs.xlsx
+++ b/regs.xlsx
@@ -64461,10 +64461,10 @@
         </is>
       </c>
       <c r="S1" t="n">
-        <v>66317</v>
+        <v>66365</v>
       </c>
       <c r="T1" t="n">
-        <v>121</v>
+        <v>126</v>
       </c>
     </row>
     <row r="2">
@@ -69705,12 +69705,34 @@
       </c>
     </row>
     <row r="121">
-      <c r="A121" s="16" t="n"/>
-      <c r="B121" s="2" t="n"/>
-      <c r="C121" s="16" t="n"/>
-      <c r="D121" s="5" t="n"/>
-      <c r="E121" s="5" t="n"/>
-      <c r="F121" s="22" t="n"/>
+      <c r="A121" s="16" t="inlineStr">
+        <is>
+          <t>COMERCIAL ZAFFARI LTDA</t>
+        </is>
+      </c>
+      <c r="B121" s="2" t="n">
+        <v>92016757000191</v>
+      </c>
+      <c r="C121" s="16" t="inlineStr">
+        <is>
+          <t>MR066326/2023</t>
+        </is>
+      </c>
+      <c r="D121" s="5" t="inlineStr">
+        <is>
+          <t>NÃO</t>
+        </is>
+      </c>
+      <c r="E121" s="5" t="inlineStr">
+        <is>
+          <t>Domingos e feriados</t>
+        </is>
+      </c>
+      <c r="F121" s="22" t="inlineStr">
+        <is>
+          <t>Mercado</t>
+        </is>
+      </c>
       <c r="G121" s="22" t="n"/>
       <c r="H121" s="5">
         <f>IFERROR(VLOOKUP(I121,regs!H:I,2,0),"")</f>
@@ -69726,12 +69748,34 @@
       </c>
     </row>
     <row r="122">
-      <c r="A122" s="16" t="n"/>
-      <c r="B122" s="2" t="n"/>
-      <c r="C122" s="16" t="n"/>
-      <c r="D122" s="5" t="n"/>
-      <c r="E122" s="5" t="n"/>
-      <c r="F122" s="22" t="n"/>
+      <c r="A122" s="16" t="inlineStr">
+        <is>
+          <t>UNIDASUL DISTRIBUIDORA ALIMENTICIA S/A</t>
+        </is>
+      </c>
+      <c r="B122" s="2" t="n">
+        <v>7718633000189</v>
+      </c>
+      <c r="C122" s="16" t="inlineStr">
+        <is>
+          <t>MR066333/2023</t>
+        </is>
+      </c>
+      <c r="D122" s="5" t="inlineStr">
+        <is>
+          <t>NÃO</t>
+        </is>
+      </c>
+      <c r="E122" s="5" t="inlineStr">
+        <is>
+          <t>Domingos e feriados</t>
+        </is>
+      </c>
+      <c r="F122" s="22" t="inlineStr">
+        <is>
+          <t>Mercado</t>
+        </is>
+      </c>
       <c r="G122" s="22" t="n"/>
       <c r="H122" s="5">
         <f>IFERROR(VLOOKUP(I122,regs!H:I,2,0),"")</f>
@@ -69747,12 +69791,34 @@
       </c>
     </row>
     <row r="123">
-      <c r="A123" s="16" t="n"/>
-      <c r="B123" s="2" t="n"/>
-      <c r="C123" s="16" t="n"/>
-      <c r="D123" s="5" t="n"/>
-      <c r="E123" s="5" t="n"/>
-      <c r="F123" s="5" t="n"/>
+      <c r="A123" s="16" t="inlineStr">
+        <is>
+          <t>WMS SUPERMERCADOS DO BRASIL LTDA.</t>
+        </is>
+      </c>
+      <c r="B123" s="2" t="n">
+        <v>93209765000117</v>
+      </c>
+      <c r="C123" s="16" t="inlineStr">
+        <is>
+          <t>MR066341/2023</t>
+        </is>
+      </c>
+      <c r="D123" s="5" t="inlineStr">
+        <is>
+          <t>NÃO</t>
+        </is>
+      </c>
+      <c r="E123" s="5" t="inlineStr">
+        <is>
+          <t>Domingos e feriados</t>
+        </is>
+      </c>
+      <c r="F123" s="5" t="inlineStr">
+        <is>
+          <t>Mercado</t>
+        </is>
+      </c>
       <c r="G123" s="22" t="n"/>
       <c r="H123" s="5">
         <f>IFERROR(VLOOKUP(I123,regs!H:I,2,0),"")</f>
@@ -69768,12 +69834,34 @@
       </c>
     </row>
     <row r="124">
-      <c r="A124" s="16" t="n"/>
-      <c r="B124" s="2" t="n"/>
-      <c r="C124" s="16" t="n"/>
-      <c r="D124" s="5" t="n"/>
-      <c r="E124" s="5" t="n"/>
-      <c r="F124" s="22" t="n"/>
+      <c r="A124" s="16" t="inlineStr">
+        <is>
+          <t>ATACADAO S.A.</t>
+        </is>
+      </c>
+      <c r="B124" s="2" t="n">
+        <v>75315333000109</v>
+      </c>
+      <c r="C124" s="16" t="inlineStr">
+        <is>
+          <t>MR066345/2023</t>
+        </is>
+      </c>
+      <c r="D124" s="5" t="inlineStr">
+        <is>
+          <t>NÃO</t>
+        </is>
+      </c>
+      <c r="E124" s="5" t="inlineStr">
+        <is>
+          <t>Domingos e feriados</t>
+        </is>
+      </c>
+      <c r="F124" s="22" t="inlineStr">
+        <is>
+          <t>Mercado</t>
+        </is>
+      </c>
       <c r="G124" s="22" t="n"/>
       <c r="H124" s="5">
         <f>IFERROR(VLOOKUP(I124,regs!H:I,2,0),"")</f>
@@ -69789,12 +69877,34 @@
       </c>
     </row>
     <row r="125">
-      <c r="A125" s="16" t="n"/>
-      <c r="B125" s="2" t="n"/>
-      <c r="C125" s="16" t="n"/>
-      <c r="D125" s="5" t="n"/>
-      <c r="E125" s="5" t="n"/>
-      <c r="F125" s="5" t="n"/>
+      <c r="A125" s="16" t="inlineStr">
+        <is>
+          <t>CARREFOUR COMERCIO E INDUSTRIA LTDA</t>
+        </is>
+      </c>
+      <c r="B125" s="2" t="n">
+        <v>45543915000181</v>
+      </c>
+      <c r="C125" s="16" t="inlineStr">
+        <is>
+          <t>MR066357/2023</t>
+        </is>
+      </c>
+      <c r="D125" s="5" t="inlineStr">
+        <is>
+          <t>NÃO</t>
+        </is>
+      </c>
+      <c r="E125" s="5" t="inlineStr">
+        <is>
+          <t>Domingos e feriados</t>
+        </is>
+      </c>
+      <c r="F125" s="5" t="inlineStr">
+        <is>
+          <t>Mercado</t>
+        </is>
+      </c>
       <c r="G125" s="22" t="n"/>
       <c r="H125" s="5">
         <f>IFERROR(VLOOKUP(I125,regs!H:I,2,0),"")</f>

--- a/regs.xlsx
+++ b/regs.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="EstaPasta_de_trabalho"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="28680" yWindow="780" windowWidth="21840" windowHeight="13140" tabRatio="600" firstSheet="0" activeTab="4" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="28680" yWindow="780" windowWidth="21840" windowHeight="13140" tabRatio="600" firstSheet="0" activeTab="3" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Acts 2021" sheetId="1" state="visible" r:id="rId1"/>
@@ -730,10 +730,10 @@
                 <formatCode>General</formatCode>
                 <ptCount val="2"/>
                 <pt idx="0">
-                  <v>259</v>
+                  <v>273</v>
                 </pt>
                 <pt idx="1">
-                  <v>91</v>
+                  <v>92</v>
                 </pt>
               </numCache>
             </numRef>
@@ -963,10 +963,10 @@
                 <formatCode>General</formatCode>
                 <ptCount val="2"/>
                 <pt idx="0">
-                  <v>348</v>
+                  <v>363</v>
                 </pt>
                 <pt idx="1">
-                  <v>8</v>
+                  <v>9</v>
                 </pt>
               </numCache>
             </numRef>
@@ -1166,13 +1166,13 @@
                 <formatCode>General</formatCode>
                 <ptCount val="8"/>
                 <pt idx="0">
-                  <v>259</v>
+                  <v>273</v>
                 </pt>
                 <pt idx="1">
-                  <v>91</v>
+                  <v>92</v>
                 </pt>
                 <pt idx="2">
-                  <v>3</v>
+                  <v>4</v>
                 </pt>
                 <pt idx="3">
                   <v>3</v>
@@ -1181,13 +1181,13 @@
                   <v>6</v>
                 </pt>
                 <pt idx="5">
-                  <v>348</v>
+                  <v>363</v>
                 </pt>
                 <pt idx="6">
-                  <v>8</v>
+                  <v>9</v>
                 </pt>
                 <pt idx="7">
-                  <v>356</v>
+                  <v>372</v>
                 </pt>
               </numCache>
             </numRef>
@@ -2130,7 +2130,7 @@
                 <formatCode>General</formatCode>
                 <ptCount val="1"/>
                 <pt idx="0">
-                  <v>356</v>
+                  <v>372</v>
                 </pt>
               </numCache>
             </numRef>
@@ -2481,7 +2481,7 @@
                 <formatCode>General</formatCode>
                 <ptCount val="1"/>
                 <pt idx="0">
-                  <v>91</v>
+                  <v>92</v>
                 </pt>
               </numCache>
             </numRef>
@@ -2832,7 +2832,7 @@
                 <formatCode>General</formatCode>
                 <ptCount val="1"/>
                 <pt idx="0">
-                  <v>259</v>
+                  <v>273</v>
                 </pt>
               </numCache>
             </numRef>
@@ -3183,7 +3183,7 @@
                 <formatCode>General</formatCode>
                 <ptCount val="1"/>
                 <pt idx="0">
-                  <v>8</v>
+                  <v>9</v>
                 </pt>
               </numCache>
             </numRef>
@@ -23224,8 +23224,8 @@
     <col width="21.6640625" customWidth="1" style="1" min="4" max="4"/>
     <col width="15.109375" customWidth="1" style="1" min="5" max="5"/>
     <col width="19.6640625" customWidth="1" style="1" min="6" max="6"/>
-    <col width="9.109375" customWidth="1" style="1" min="7" max="185"/>
-    <col width="9.109375" customWidth="1" style="1" min="186" max="16384"/>
+    <col width="9.109375" customWidth="1" style="1" min="7" max="190"/>
+    <col width="9.109375" customWidth="1" style="1" min="191" max="16384"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -37758,9 +37758,9 @@
   </sheetPr>
   <dimension ref="A1:P799"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A502" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C521" sqref="C521"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A518" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B527" sqref="B527"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9.109375" defaultRowHeight="14.4" outlineLevelCol="0"/>
@@ -37773,8 +37773,8 @@
     <col width="23.44140625" customWidth="1" style="1" min="6" max="6"/>
     <col width="16.88671875" customWidth="1" style="1" min="7" max="7"/>
     <col hidden="1" width="9.109375" customWidth="1" style="1" min="8" max="9"/>
-    <col width="9.109375" customWidth="1" style="1" min="10" max="198"/>
-    <col width="9.109375" customWidth="1" style="1" min="199" max="16384"/>
+    <col width="9.109375" customWidth="1" style="1" min="10" max="203"/>
+    <col width="9.109375" customWidth="1" style="1" min="204" max="16384"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -37814,7 +37814,7 @@
         </is>
       </c>
       <c r="P1" s="1" t="n">
-        <v>522</v>
+        <v>541</v>
       </c>
     </row>
     <row r="2">
@@ -59138,13 +59138,37 @@
       </c>
     </row>
     <row r="522">
-      <c r="A522" s="16" t="n"/>
-      <c r="B522" s="2" t="n"/>
-      <c r="C522" s="16" t="n"/>
-      <c r="D522" s="16" t="n"/>
-      <c r="E522" s="16" t="n"/>
-      <c r="F522" s="21" t="n"/>
-      <c r="G522" s="14" t="n"/>
+      <c r="A522" s="16" t="inlineStr">
+        <is>
+          <t>LOJAS RENNER S.A.</t>
+        </is>
+      </c>
+      <c r="B522" s="2" t="n">
+        <v>92754738000162</v>
+      </c>
+      <c r="C522" s="16" t="inlineStr">
+        <is>
+          <t>MR065000/2023</t>
+        </is>
+      </c>
+      <c r="D522" s="16" t="inlineStr">
+        <is>
+          <t>Domingos e feriados</t>
+        </is>
+      </c>
+      <c r="E522" s="16" t="inlineStr">
+        <is>
+          <t>Lojista</t>
+        </is>
+      </c>
+      <c r="F522" s="21" t="inlineStr">
+        <is>
+          <t>01/11/2023 - 31/12/2024</t>
+        </is>
+      </c>
+      <c r="G522" s="22" t="n">
+        <v>45257</v>
+      </c>
       <c r="H522" s="1">
         <f>LEFT(B522,8)</f>
         <v/>
@@ -59155,13 +59179,37 @@
       </c>
     </row>
     <row r="523">
-      <c r="A523" s="16" t="n"/>
-      <c r="B523" s="2" t="n"/>
-      <c r="C523" s="16" t="n"/>
-      <c r="D523" s="16" t="n"/>
-      <c r="E523" s="16" t="n"/>
-      <c r="F523" s="21" t="n"/>
-      <c r="G523" s="14" t="n"/>
+      <c r="A523" s="16" t="inlineStr">
+        <is>
+          <t>NIZZA COMERCIO DE CONFECCOES LTDA</t>
+        </is>
+      </c>
+      <c r="B523" s="2" t="n">
+        <v>42160869000143</v>
+      </c>
+      <c r="C523" s="16" t="inlineStr">
+        <is>
+          <t>MR055577/2023</t>
+        </is>
+      </c>
+      <c r="D523" s="16" t="inlineStr">
+        <is>
+          <t>Domingos e feriados</t>
+        </is>
+      </c>
+      <c r="E523" s="16" t="inlineStr">
+        <is>
+          <t>Lojista</t>
+        </is>
+      </c>
+      <c r="F523" s="21" t="inlineStr">
+        <is>
+          <t>01/11/2022 - 31/12/2023</t>
+        </is>
+      </c>
+      <c r="G523" s="22" t="n">
+        <v>45258</v>
+      </c>
       <c r="H523" s="1">
         <f>LEFT(B523,8)</f>
         <v/>
@@ -59172,13 +59220,37 @@
       </c>
     </row>
     <row r="524">
-      <c r="A524" s="16" t="n"/>
-      <c r="B524" s="2" t="n"/>
-      <c r="C524" s="16" t="n"/>
-      <c r="D524" s="16" t="n"/>
-      <c r="E524" s="16" t="n"/>
-      <c r="F524" s="21" t="n"/>
-      <c r="G524" s="14" t="n"/>
+      <c r="A524" s="16" t="inlineStr">
+        <is>
+          <t>G JACCOTTET FREITAS LTDA</t>
+        </is>
+      </c>
+      <c r="B524" s="2" t="n">
+        <v>28452061000109</v>
+      </c>
+      <c r="C524" s="16" t="inlineStr">
+        <is>
+          <t>MR064782/2023</t>
+        </is>
+      </c>
+      <c r="D524" s="16" t="inlineStr">
+        <is>
+          <t>Domingos e feriados</t>
+        </is>
+      </c>
+      <c r="E524" s="16" t="inlineStr">
+        <is>
+          <t>Lojista</t>
+        </is>
+      </c>
+      <c r="F524" s="21" t="inlineStr">
+        <is>
+          <t>01/11/2022 - 31/12/2023</t>
+        </is>
+      </c>
+      <c r="G524" s="22" t="n">
+        <v>45258</v>
+      </c>
       <c r="H524" s="1">
         <f>LEFT(B524,8)</f>
         <v/>
@@ -59189,13 +59261,37 @@
       </c>
     </row>
     <row r="525">
-      <c r="A525" s="16" t="n"/>
-      <c r="B525" s="2" t="n"/>
-      <c r="C525" s="16" t="n"/>
-      <c r="D525" s="16" t="n"/>
-      <c r="E525" s="16" t="n"/>
-      <c r="F525" s="21" t="n"/>
-      <c r="G525" s="14" t="n"/>
+      <c r="A525" s="16" t="inlineStr">
+        <is>
+          <t>SUPERMERCADO FLACH LTDA</t>
+        </is>
+      </c>
+      <c r="B525" s="2" t="n">
+        <v>88692314000143</v>
+      </c>
+      <c r="C525" s="16" t="inlineStr">
+        <is>
+          <t>MR059749/2023</t>
+        </is>
+      </c>
+      <c r="D525" s="16" t="inlineStr">
+        <is>
+          <t>Domingos e feriados</t>
+        </is>
+      </c>
+      <c r="E525" s="16" t="inlineStr">
+        <is>
+          <t>Mercado</t>
+        </is>
+      </c>
+      <c r="F525" s="21" t="inlineStr">
+        <is>
+          <t>01/11/2022 - 31/12/2023</t>
+        </is>
+      </c>
+      <c r="G525" s="22" t="n">
+        <v>45259</v>
+      </c>
       <c r="H525" s="1">
         <f>LEFT(B525,8)</f>
         <v/>
@@ -59206,13 +59302,37 @@
       </c>
     </row>
     <row r="526">
-      <c r="A526" s="16" t="n"/>
-      <c r="B526" s="2" t="n"/>
-      <c r="C526" s="16" t="n"/>
-      <c r="D526" s="16" t="n"/>
-      <c r="E526" s="16" t="n"/>
-      <c r="F526" s="21" t="n"/>
-      <c r="G526" s="14" t="n"/>
+      <c r="A526" s="16" t="inlineStr">
+        <is>
+          <t>COMERCIO DE MEDICAMENTOS BRAIR LTDA</t>
+        </is>
+      </c>
+      <c r="B526" s="2" t="n">
+        <v>88212113000100</v>
+      </c>
+      <c r="C526" s="16" t="inlineStr">
+        <is>
+          <t>MR066218/2023</t>
+        </is>
+      </c>
+      <c r="D526" s="16" t="inlineStr">
+        <is>
+          <t>Outros</t>
+        </is>
+      </c>
+      <c r="E526" s="16" t="inlineStr">
+        <is>
+          <t>Farmácia</t>
+        </is>
+      </c>
+      <c r="F526" s="21" t="inlineStr">
+        <is>
+          <t>01/11/2023 - 31/10/2024</t>
+        </is>
+      </c>
+      <c r="G526" s="22" t="n">
+        <v>45259</v>
+      </c>
       <c r="H526" s="1">
         <f>LEFT(B526,8)</f>
         <v/>
@@ -59223,13 +59343,37 @@
       </c>
     </row>
     <row r="527">
-      <c r="A527" s="16" t="n"/>
-      <c r="B527" s="2" t="n"/>
-      <c r="C527" s="16" t="n"/>
-      <c r="D527" s="16" t="n"/>
-      <c r="E527" s="16" t="n"/>
-      <c r="F527" s="21" t="n"/>
-      <c r="G527" s="14" t="n"/>
+      <c r="A527" s="16" t="inlineStr">
+        <is>
+          <t>R. JAQUES DE ANDRADE</t>
+        </is>
+      </c>
+      <c r="B527" s="2" t="n">
+        <v>38824968000105</v>
+      </c>
+      <c r="C527" s="16" t="inlineStr">
+        <is>
+          <t>MR066487/2023</t>
+        </is>
+      </c>
+      <c r="D527" s="16" t="inlineStr">
+        <is>
+          <t>Domingos e feriados</t>
+        </is>
+      </c>
+      <c r="E527" s="16" t="inlineStr">
+        <is>
+          <t>Lojista</t>
+        </is>
+      </c>
+      <c r="F527" s="21" t="inlineStr">
+        <is>
+          <t>01/11/2022 - 31/12/2023</t>
+        </is>
+      </c>
+      <c r="G527" s="22" t="n">
+        <v>45260</v>
+      </c>
       <c r="H527" s="1">
         <f>LEFT(B527,8)</f>
         <v/>
@@ -59240,13 +59384,37 @@
       </c>
     </row>
     <row r="528">
-      <c r="A528" s="16" t="n"/>
-      <c r="B528" s="2" t="n"/>
-      <c r="C528" s="16" t="n"/>
-      <c r="D528" s="16" t="n"/>
-      <c r="E528" s="16" t="n"/>
-      <c r="F528" s="21" t="n"/>
-      <c r="G528" s="14" t="n"/>
+      <c r="A528" s="16" t="inlineStr">
+        <is>
+          <t>W &amp; F COMERCIO DE MOVEIS LTDA</t>
+        </is>
+      </c>
+      <c r="B528" s="2" t="n">
+        <v>35624688000165</v>
+      </c>
+      <c r="C528" s="16" t="inlineStr">
+        <is>
+          <t>MR062666/2023</t>
+        </is>
+      </c>
+      <c r="D528" s="16" t="inlineStr">
+        <is>
+          <t>Domingos e feriados</t>
+        </is>
+      </c>
+      <c r="E528" s="16" t="inlineStr">
+        <is>
+          <t>Lojista</t>
+        </is>
+      </c>
+      <c r="F528" s="21" t="inlineStr">
+        <is>
+          <t>01/11/2022 - 31/12/2023</t>
+        </is>
+      </c>
+      <c r="G528" s="22" t="n">
+        <v>45260</v>
+      </c>
       <c r="H528" s="1">
         <f>LEFT(B528,8)</f>
         <v/>
@@ -59257,13 +59425,37 @@
       </c>
     </row>
     <row r="529">
-      <c r="A529" s="16" t="n"/>
-      <c r="B529" s="2" t="n"/>
-      <c r="C529" s="16" t="n"/>
-      <c r="D529" s="16" t="n"/>
-      <c r="E529" s="16" t="n"/>
-      <c r="F529" s="21" t="n"/>
-      <c r="G529" s="14" t="n"/>
+      <c r="A529" s="16" t="inlineStr">
+        <is>
+          <t>OFF STORE COMERCIO DE MOVEIS LTDA</t>
+        </is>
+      </c>
+      <c r="B529" s="2" t="n">
+        <v>7827077000260</v>
+      </c>
+      <c r="C529" s="16" t="inlineStr">
+        <is>
+          <t>MR062658/2023</t>
+        </is>
+      </c>
+      <c r="D529" s="16" t="inlineStr">
+        <is>
+          <t>Domingos e feriados</t>
+        </is>
+      </c>
+      <c r="E529" s="16" t="inlineStr">
+        <is>
+          <t>Lojista</t>
+        </is>
+      </c>
+      <c r="F529" s="21" t="inlineStr">
+        <is>
+          <t>01/11/2022 - 31/12/2023</t>
+        </is>
+      </c>
+      <c r="G529" s="22" t="n">
+        <v>45260</v>
+      </c>
       <c r="H529" s="1">
         <f>LEFT(B529,8)</f>
         <v/>
@@ -59274,13 +59466,37 @@
       </c>
     </row>
     <row r="530">
-      <c r="A530" s="16" t="n"/>
-      <c r="B530" s="2" t="n"/>
-      <c r="C530" s="16" t="n"/>
-      <c r="D530" s="16" t="n"/>
-      <c r="E530" s="16" t="n"/>
-      <c r="F530" s="21" t="n"/>
-      <c r="G530" s="14" t="n"/>
+      <c r="A530" s="16" t="inlineStr">
+        <is>
+          <t>EDUARDO GARCIA ESTEVES LTDA</t>
+        </is>
+      </c>
+      <c r="B530" s="2" t="n">
+        <v>6781047000116</v>
+      </c>
+      <c r="C530" s="16" t="inlineStr">
+        <is>
+          <t>MR064765/2023</t>
+        </is>
+      </c>
+      <c r="D530" s="16" t="inlineStr">
+        <is>
+          <t>Domingos e feriados</t>
+        </is>
+      </c>
+      <c r="E530" s="16" t="inlineStr">
+        <is>
+          <t>Lojista</t>
+        </is>
+      </c>
+      <c r="F530" s="21" t="inlineStr">
+        <is>
+          <t>01/11/2022 - 31/12/2023</t>
+        </is>
+      </c>
+      <c r="G530" s="22" t="n">
+        <v>45260</v>
+      </c>
       <c r="H530" s="1">
         <f>LEFT(B530,8)</f>
         <v/>
@@ -59291,13 +59507,37 @@
       </c>
     </row>
     <row r="531">
-      <c r="A531" s="16" t="n"/>
-      <c r="B531" s="2" t="n"/>
-      <c r="C531" s="16" t="n"/>
-      <c r="D531" s="16" t="n"/>
-      <c r="E531" s="16" t="n"/>
-      <c r="F531" s="21" t="n"/>
-      <c r="G531" s="14" t="n"/>
+      <c r="A531" s="16" t="inlineStr">
+        <is>
+          <t>J. D. JAQUES</t>
+        </is>
+      </c>
+      <c r="B531" s="2" t="n">
+        <v>49312585000174</v>
+      </c>
+      <c r="C531" s="16" t="inlineStr">
+        <is>
+          <t>MR049127/2023</t>
+        </is>
+      </c>
+      <c r="D531" s="16" t="inlineStr">
+        <is>
+          <t>Domingos e feriados</t>
+        </is>
+      </c>
+      <c r="E531" s="16" t="inlineStr">
+        <is>
+          <t>Lojista</t>
+        </is>
+      </c>
+      <c r="F531" s="21" t="inlineStr">
+        <is>
+          <t>01/11/2022 - 31/12/2023</t>
+        </is>
+      </c>
+      <c r="G531" s="22" t="n">
+        <v>45261</v>
+      </c>
       <c r="H531" s="1">
         <f>LEFT(B531,8)</f>
         <v/>
@@ -59308,13 +59548,37 @@
       </c>
     </row>
     <row r="532">
-      <c r="A532" s="16" t="n"/>
-      <c r="B532" s="2" t="n"/>
-      <c r="C532" s="16" t="n"/>
-      <c r="D532" s="16" t="n"/>
-      <c r="E532" s="16" t="n"/>
-      <c r="F532" s="21" t="n"/>
-      <c r="G532" s="14" t="n"/>
+      <c r="A532" s="16" t="inlineStr">
+        <is>
+          <t>SOE CALCADOS E CORES LTDA</t>
+        </is>
+      </c>
+      <c r="B532" s="2" t="n">
+        <v>51543554000176</v>
+      </c>
+      <c r="C532" s="16" t="inlineStr">
+        <is>
+          <t>MR065085/2023</t>
+        </is>
+      </c>
+      <c r="D532" s="16" t="inlineStr">
+        <is>
+          <t>Domingos e feriados</t>
+        </is>
+      </c>
+      <c r="E532" s="16" t="inlineStr">
+        <is>
+          <t>Lojista</t>
+        </is>
+      </c>
+      <c r="F532" s="21" t="inlineStr">
+        <is>
+          <t>01/11/2022 - 31/12/2023</t>
+        </is>
+      </c>
+      <c r="G532" s="22" t="n">
+        <v>45261</v>
+      </c>
       <c r="H532" s="1">
         <f>LEFT(B532,8)</f>
         <v/>
@@ -59325,13 +59589,37 @@
       </c>
     </row>
     <row r="533">
-      <c r="A533" s="16" t="n"/>
-      <c r="B533" s="2" t="n"/>
-      <c r="C533" s="16" t="n"/>
-      <c r="D533" s="16" t="n"/>
-      <c r="E533" s="16" t="n"/>
-      <c r="F533" s="21" t="n"/>
-      <c r="G533" s="14" t="n"/>
+      <c r="A533" s="16" t="inlineStr">
+        <is>
+          <t>RSE CALCADOS E CORES LTDA</t>
+        </is>
+      </c>
+      <c r="B533" s="2" t="n">
+        <v>51097542000165</v>
+      </c>
+      <c r="C533" s="16" t="inlineStr">
+        <is>
+          <t>MR065082/2023</t>
+        </is>
+      </c>
+      <c r="D533" s="16" t="inlineStr">
+        <is>
+          <t>Domingos e feriados</t>
+        </is>
+      </c>
+      <c r="E533" s="16" t="inlineStr">
+        <is>
+          <t>Lojista</t>
+        </is>
+      </c>
+      <c r="F533" s="21" t="inlineStr">
+        <is>
+          <t>01/11/2022 - 31/12/2023</t>
+        </is>
+      </c>
+      <c r="G533" s="22" t="n">
+        <v>45261</v>
+      </c>
       <c r="H533" s="1">
         <f>LEFT(B533,8)</f>
         <v/>
@@ -59342,13 +59630,37 @@
       </c>
     </row>
     <row r="534">
-      <c r="A534" s="16" t="n"/>
-      <c r="B534" s="2" t="n"/>
-      <c r="C534" s="16" t="n"/>
-      <c r="D534" s="16" t="n"/>
-      <c r="E534" s="16" t="n"/>
-      <c r="F534" s="21" t="n"/>
-      <c r="G534" s="14" t="n"/>
+      <c r="A534" s="16" t="inlineStr">
+        <is>
+          <t>GOE CALCADOS E CORES LTDA</t>
+        </is>
+      </c>
+      <c r="B534" s="2" t="n">
+        <v>50300901000177</v>
+      </c>
+      <c r="C534" s="16" t="inlineStr">
+        <is>
+          <t>MR065077/2023</t>
+        </is>
+      </c>
+      <c r="D534" s="16" t="inlineStr">
+        <is>
+          <t>Domingos e feriados</t>
+        </is>
+      </c>
+      <c r="E534" s="16" t="inlineStr">
+        <is>
+          <t>Lojista</t>
+        </is>
+      </c>
+      <c r="F534" s="21" t="inlineStr">
+        <is>
+          <t>01/11/2022 - 31/12/2023</t>
+        </is>
+      </c>
+      <c r="G534" s="22" t="n">
+        <v>45261</v>
+      </c>
       <c r="H534" s="1">
         <f>LEFT(B534,8)</f>
         <v/>
@@ -59359,13 +59671,37 @@
       </c>
     </row>
     <row r="535">
-      <c r="A535" s="16" t="n"/>
-      <c r="B535" s="2" t="n"/>
-      <c r="C535" s="16" t="n"/>
-      <c r="D535" s="16" t="n"/>
-      <c r="E535" s="16" t="n"/>
-      <c r="F535" s="21" t="n"/>
-      <c r="G535" s="14" t="n"/>
+      <c r="A535" s="16" t="inlineStr">
+        <is>
+          <t>FERRAGEM MACAGNAN LUSSANI FILHOS LTDA</t>
+        </is>
+      </c>
+      <c r="B535" s="2" t="n">
+        <v>20598624000160</v>
+      </c>
+      <c r="C535" s="16" t="inlineStr">
+        <is>
+          <t>MR066927/2023</t>
+        </is>
+      </c>
+      <c r="D535" s="16" t="inlineStr">
+        <is>
+          <t>Domingos e feriados</t>
+        </is>
+      </c>
+      <c r="E535" s="16" t="inlineStr">
+        <is>
+          <t>Lojista</t>
+        </is>
+      </c>
+      <c r="F535" s="21" t="inlineStr">
+        <is>
+          <t>01/11/2023 - 31/12/2024</t>
+        </is>
+      </c>
+      <c r="G535" s="22" t="n">
+        <v>45261</v>
+      </c>
       <c r="H535" s="1">
         <f>LEFT(B535,8)</f>
         <v/>
@@ -59376,13 +59712,37 @@
       </c>
     </row>
     <row r="536">
-      <c r="A536" s="16" t="n"/>
-      <c r="B536" s="2" t="n"/>
-      <c r="C536" s="16" t="n"/>
-      <c r="D536" s="16" t="n"/>
-      <c r="E536" s="16" t="n"/>
-      <c r="F536" s="21" t="n"/>
-      <c r="G536" s="14" t="n"/>
+      <c r="A536" s="16" t="inlineStr">
+        <is>
+          <t>ELEVATO MATERIAIS DE CONSTRUCAO E DECORACAO LTDA</t>
+        </is>
+      </c>
+      <c r="B536" s="2" t="n">
+        <v>87305850000186</v>
+      </c>
+      <c r="C536" s="16" t="inlineStr">
+        <is>
+          <t>MR066639/2023</t>
+        </is>
+      </c>
+      <c r="D536" s="16" t="inlineStr">
+        <is>
+          <t>Domingos e feriados</t>
+        </is>
+      </c>
+      <c r="E536" s="16" t="inlineStr">
+        <is>
+          <t>Lojista</t>
+        </is>
+      </c>
+      <c r="F536" s="21" t="inlineStr">
+        <is>
+          <t>01/11/2023 - 31/12/2024</t>
+        </is>
+      </c>
+      <c r="G536" s="22" t="n">
+        <v>45261</v>
+      </c>
       <c r="H536" s="1">
         <f>LEFT(B536,8)</f>
         <v/>
@@ -59393,13 +59753,37 @@
       </c>
     </row>
     <row r="537">
-      <c r="A537" s="16" t="n"/>
-      <c r="B537" s="2" t="n"/>
-      <c r="C537" s="16" t="n"/>
-      <c r="D537" s="16" t="n"/>
-      <c r="E537" s="16" t="n"/>
-      <c r="F537" s="21" t="n"/>
-      <c r="G537" s="14" t="n"/>
+      <c r="A537" s="16" t="inlineStr">
+        <is>
+          <t>ELEVATO COMERCIO DE MOVEIS E DECORACOES LTDA</t>
+        </is>
+      </c>
+      <c r="B537" s="2" t="n">
+        <v>9251178000180</v>
+      </c>
+      <c r="C537" s="16" t="inlineStr">
+        <is>
+          <t>MR066846/2023</t>
+        </is>
+      </c>
+      <c r="D537" s="16" t="inlineStr">
+        <is>
+          <t>Domingos e feriados</t>
+        </is>
+      </c>
+      <c r="E537" s="16" t="inlineStr">
+        <is>
+          <t>Lojista</t>
+        </is>
+      </c>
+      <c r="F537" s="21" t="inlineStr">
+        <is>
+          <t>01/11/2023 - 31/12/2024</t>
+        </is>
+      </c>
+      <c r="G537" s="22" t="n">
+        <v>45261</v>
+      </c>
       <c r="H537" s="1">
         <f>LEFT(B537,8)</f>
         <v/>
@@ -59410,13 +59794,37 @@
       </c>
     </row>
     <row r="538">
-      <c r="A538" s="16" t="n"/>
-      <c r="B538" s="2" t="n"/>
-      <c r="C538" s="16" t="n"/>
-      <c r="D538" s="16" t="n"/>
-      <c r="E538" s="16" t="n"/>
-      <c r="F538" s="21" t="n"/>
-      <c r="G538" s="14" t="n"/>
+      <c r="A538" s="16" t="inlineStr">
+        <is>
+          <t>COZEFE COMERCIO DE MATERIAIS DE DECORACAO E REVESTIMENTOS LTDA</t>
+        </is>
+      </c>
+      <c r="B538" s="2" t="n">
+        <v>73578064000148</v>
+      </c>
+      <c r="C538" s="16" t="inlineStr">
+        <is>
+          <t>MR066850/2023</t>
+        </is>
+      </c>
+      <c r="D538" s="16" t="inlineStr">
+        <is>
+          <t>Domingos e feriados</t>
+        </is>
+      </c>
+      <c r="E538" s="16" t="inlineStr">
+        <is>
+          <t>Lojista</t>
+        </is>
+      </c>
+      <c r="F538" s="21" t="inlineStr">
+        <is>
+          <t>01/11/2023 - 31/12/2024</t>
+        </is>
+      </c>
+      <c r="G538" s="22" t="n">
+        <v>45261</v>
+      </c>
       <c r="H538" s="1">
         <f>LEFT(B538,8)</f>
         <v/>
@@ -59427,13 +59835,37 @@
       </c>
     </row>
     <row r="539">
-      <c r="A539" s="16" t="n"/>
-      <c r="B539" s="2" t="n"/>
-      <c r="C539" s="16" t="n"/>
-      <c r="D539" s="16" t="n"/>
-      <c r="E539" s="16" t="n"/>
-      <c r="F539" s="21" t="n"/>
-      <c r="G539" s="14" t="n"/>
+      <c r="A539" s="16" t="inlineStr">
+        <is>
+          <t>SAMANTA CARDOSO DE OLIVEIRA LTDA</t>
+        </is>
+      </c>
+      <c r="B539" s="2" t="n">
+        <v>30927815000181</v>
+      </c>
+      <c r="C539" s="16" t="inlineStr">
+        <is>
+          <t>MR064757/2023</t>
+        </is>
+      </c>
+      <c r="D539" s="16" t="inlineStr">
+        <is>
+          <t>Domingos e feriados</t>
+        </is>
+      </c>
+      <c r="E539" s="16" t="inlineStr">
+        <is>
+          <t>Lojista</t>
+        </is>
+      </c>
+      <c r="F539" s="21" t="inlineStr">
+        <is>
+          <t>01/11/2022 - 31/12/2023</t>
+        </is>
+      </c>
+      <c r="G539" s="22" t="n">
+        <v>45264</v>
+      </c>
       <c r="H539" s="1">
         <f>LEFT(B539,8)</f>
         <v/>
@@ -59444,13 +59876,37 @@
       </c>
     </row>
     <row r="540">
-      <c r="A540" s="16" t="n"/>
-      <c r="B540" s="2" t="n"/>
-      <c r="C540" s="16" t="n"/>
-      <c r="D540" s="16" t="n"/>
-      <c r="E540" s="16" t="n"/>
-      <c r="F540" s="21" t="n"/>
-      <c r="G540" s="14" t="n"/>
+      <c r="A540" s="16" t="inlineStr">
+        <is>
+          <t>ELTON CHRISTMANN</t>
+        </is>
+      </c>
+      <c r="B540" s="2" t="n">
+        <v>41733795000124</v>
+      </c>
+      <c r="C540" s="16" t="inlineStr">
+        <is>
+          <t>MR054169/2023</t>
+        </is>
+      </c>
+      <c r="D540" s="16" t="inlineStr">
+        <is>
+          <t>Domingos e feriados</t>
+        </is>
+      </c>
+      <c r="E540" s="16" t="inlineStr">
+        <is>
+          <t>Mercado</t>
+        </is>
+      </c>
+      <c r="F540" s="21" t="inlineStr">
+        <is>
+          <t>01/11/2022 - 31/12/2023</t>
+        </is>
+      </c>
+      <c r="G540" s="22" t="n">
+        <v>45265</v>
+      </c>
       <c r="H540" s="1">
         <f>LEFT(B540,8)</f>
         <v/>
@@ -64386,6 +64842,25 @@
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C519" r:id="rId518"/>
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C520" r:id="rId519"/>
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C521" r:id="rId520"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C522" r:id="rId521"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C523" r:id="rId522"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C524" r:id="rId523"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C525" r:id="rId524"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C526" r:id="rId525"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C527" r:id="rId526"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C528" r:id="rId527"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C529" r:id="rId528"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C530" r:id="rId529"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C531" r:id="rId530"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C532" r:id="rId531"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C533" r:id="rId532"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C534" r:id="rId533"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C535" r:id="rId534"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C536" r:id="rId535"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C537" r:id="rId536"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C538" r:id="rId537"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C539" r:id="rId538"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C540" r:id="rId539"/>
   </hyperlinks>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" paperSize="9"/>
@@ -64401,8 +64876,8 @@
   </sheetPr>
   <dimension ref="A1:T183"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="R8" sqref="R8"/>
+    <sheetView topLeftCell="A115" workbookViewId="0">
+      <selection activeCell="C102" sqref="C102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4" outlineLevelCol="0"/>
@@ -64461,10 +64936,10 @@
         </is>
       </c>
       <c r="S1" t="n">
-        <v>66365</v>
+        <v>68645</v>
       </c>
       <c r="T1" t="n">
-        <v>126</v>
+        <v>140</v>
       </c>
     </row>
     <row r="2">
@@ -68141,20 +68616,20 @@
     <row r="85">
       <c r="A85" s="16" t="inlineStr">
         <is>
-          <t>J. D. JAQUES</t>
+          <t>L &amp; A COMERCIO DE CALCADOS LTDA</t>
         </is>
       </c>
       <c r="B85" s="2" t="n">
-        <v>49312585000174</v>
+        <v>48748393000223</v>
       </c>
       <c r="C85" s="16" t="inlineStr">
         <is>
-          <t>MR049127/2023</t>
+          <t>MR049502/2023</t>
         </is>
       </c>
       <c r="D85" s="5" t="inlineStr">
         <is>
-          <t>SIM</t>
+          <t>NÃO</t>
         </is>
       </c>
       <c r="E85" s="5" t="inlineStr">
@@ -68167,9 +68642,7 @@
           <t>Lojista</t>
         </is>
       </c>
-      <c r="G85" s="22" t="n">
-        <v>45173</v>
-      </c>
+      <c r="G85" s="22" t="n"/>
       <c r="H85" s="5">
         <f>IFERROR(VLOOKUP(I85,regs!H:I,2,0),"")</f>
         <v/>
@@ -68186,15 +68659,15 @@
     <row r="86">
       <c r="A86" s="16" t="inlineStr">
         <is>
-          <t>L &amp; A COMERCIO DE CALCADOS LTDA</t>
+          <t>M &amp; S COMERCIO DE ALIMENTOS LTDA</t>
         </is>
       </c>
       <c r="B86" s="2" t="n">
-        <v>48748393000223</v>
+        <v>44663036000120</v>
       </c>
       <c r="C86" s="16" t="inlineStr">
         <is>
-          <t>MR049502/2023</t>
+          <t>MR049614/2023</t>
         </is>
       </c>
       <c r="D86" s="5" t="inlineStr">
@@ -68209,7 +68682,7 @@
       </c>
       <c r="F86" s="22" t="inlineStr">
         <is>
-          <t>Lojista</t>
+          <t>Mercado</t>
         </is>
       </c>
       <c r="G86" s="22" t="n"/>
@@ -68229,15 +68702,15 @@
     <row r="87">
       <c r="A87" s="16" t="inlineStr">
         <is>
-          <t>M &amp; S COMERCIO DE ALIMENTOS LTDA</t>
+          <t>MRS COMERCIO DE PRODUTOS REGIONAIS LTDA</t>
         </is>
       </c>
       <c r="B87" s="2" t="n">
-        <v>44663036000120</v>
+        <v>8846951000198</v>
       </c>
       <c r="C87" s="16" t="inlineStr">
         <is>
-          <t>MR049614/2023</t>
+          <t>MR050117/2023</t>
         </is>
       </c>
       <c r="D87" s="5" t="inlineStr">
@@ -68252,7 +68725,7 @@
       </c>
       <c r="F87" s="22" t="inlineStr">
         <is>
-          <t>Mercado</t>
+          <t>Lojista</t>
         </is>
       </c>
       <c r="G87" s="22" t="n"/>
@@ -68272,15 +68745,15 @@
     <row r="88">
       <c r="A88" s="16" t="inlineStr">
         <is>
-          <t>MRS COMERCIO DE PRODUTOS REGIONAIS LTDA</t>
+          <t>TERRAS DE AVENTURA INDUSTRIA DE ARTIGOS ESPORTIVOS S.A</t>
         </is>
       </c>
       <c r="B88" s="2" t="n">
-        <v>8846951000198</v>
+        <v>35943604007916</v>
       </c>
       <c r="C88" s="16" t="inlineStr">
         <is>
-          <t>MR050117/2023</t>
+          <t>MR054255/2023</t>
         </is>
       </c>
       <c r="D88" s="5" t="inlineStr">
@@ -68315,15 +68788,15 @@
     <row r="89">
       <c r="A89" s="16" t="inlineStr">
         <is>
-          <t>ELTON CHRISTMANN</t>
+          <t>VISSOMZ ABASTE ESPECIAL DE ESSENCIAS ROGE COMERCIO LTDA</t>
         </is>
       </c>
       <c r="B89" s="2" t="n">
-        <v>41733795000124</v>
+        <v>93866739000161</v>
       </c>
       <c r="C89" s="16" t="inlineStr">
         <is>
-          <t>MR054169/2023</t>
+          <t>MR054321/2023</t>
         </is>
       </c>
       <c r="D89" s="5" t="inlineStr">
@@ -68338,7 +68811,7 @@
       </c>
       <c r="F89" s="22" t="inlineStr">
         <is>
-          <t>Mercado</t>
+          <t>Lojista</t>
         </is>
       </c>
       <c r="G89" s="22" t="n"/>
@@ -68358,15 +68831,15 @@
     <row r="90">
       <c r="A90" s="16" t="inlineStr">
         <is>
-          <t>TERRAS DE AVENTURA INDUSTRIA DE ARTIGOS ESPORTIVOS S.A</t>
+          <t>JADORE BIJUTERIAS E ACESSORIOS LTDA</t>
         </is>
       </c>
       <c r="B90" s="2" t="n">
-        <v>35943604007916</v>
+        <v>16950484000501</v>
       </c>
       <c r="C90" s="16" t="inlineStr">
         <is>
-          <t>MR054255/2023</t>
+          <t>MR054507/2023</t>
         </is>
       </c>
       <c r="D90" s="5" t="inlineStr">
@@ -68401,20 +68874,20 @@
     <row r="91">
       <c r="A91" s="16" t="inlineStr">
         <is>
-          <t>VISSOMZ ABASTE ESPECIAL DE ESSENCIAS ROGE COMERCIO LTDA</t>
+          <t>R. JAQUES DE ANDRADE</t>
         </is>
       </c>
       <c r="B91" s="2" t="n">
-        <v>93866739000161</v>
+        <v>38824968000105</v>
       </c>
       <c r="C91" s="16" t="inlineStr">
         <is>
-          <t>MR054321/2023</t>
+          <t>MR054671/2023</t>
         </is>
       </c>
       <c r="D91" s="5" t="inlineStr">
         <is>
-          <t>NÃO</t>
+          <t>SIM</t>
         </is>
       </c>
       <c r="E91" s="5" t="inlineStr">
@@ -68427,7 +68900,9 @@
           <t>Lojista</t>
         </is>
       </c>
-      <c r="G91" s="22" t="n"/>
+      <c r="G91" s="22" t="n">
+        <v>45254</v>
+      </c>
       <c r="H91" s="5">
         <f>IFERROR(VLOOKUP(I91,regs!H:I,2,0),"")</f>
         <v/>
@@ -68444,15 +68919,15 @@
     <row r="92">
       <c r="A92" s="16" t="inlineStr">
         <is>
-          <t>JADORE BIJUTERIAS E ACESSORIOS LTDA</t>
+          <t>THAIS ANGELICA FOLLMANN BENNEMANN LTDA</t>
         </is>
       </c>
       <c r="B92" s="2" t="n">
-        <v>16950484000501</v>
+        <v>51188904000123</v>
       </c>
       <c r="C92" s="16" t="inlineStr">
         <is>
-          <t>MR054507/2023</t>
+          <t>MR055140/2023</t>
         </is>
       </c>
       <c r="D92" s="5" t="inlineStr">
@@ -68487,15 +68962,15 @@
     <row r="93">
       <c r="A93" s="16" t="inlineStr">
         <is>
-          <t>R. JAQUES DE ANDRADE</t>
+          <t>REAL COMERCIAL LTDA</t>
         </is>
       </c>
       <c r="B93" s="2" t="n">
-        <v>38824968000105</v>
+        <v>2780640000197</v>
       </c>
       <c r="C93" s="16" t="inlineStr">
         <is>
-          <t>MR054671/2023</t>
+          <t>MR055548/2023</t>
         </is>
       </c>
       <c r="D93" s="5" t="inlineStr">
@@ -68510,7 +68985,7 @@
       </c>
       <c r="F93" s="5" t="inlineStr">
         <is>
-          <t>Lojista</t>
+          <t>Mercado</t>
         </is>
       </c>
       <c r="G93" s="22" t="n"/>
@@ -68530,20 +69005,20 @@
     <row r="94">
       <c r="A94" s="16" t="inlineStr">
         <is>
-          <t>THAIS ANGELICA FOLLMANN BENNEMANN LTDA</t>
+          <t>BOOMER COMERCIO DE CONFECCOES LTDA</t>
         </is>
       </c>
       <c r="B94" s="2" t="n">
-        <v>51188904000123</v>
+        <v>28613652000200</v>
       </c>
       <c r="C94" s="16" t="inlineStr">
         <is>
-          <t>MR055140/2023</t>
+          <t>MR055583/2023</t>
         </is>
       </c>
       <c r="D94" s="5" t="inlineStr">
         <is>
-          <t>NÃO</t>
+          <t>SIM</t>
         </is>
       </c>
       <c r="E94" s="5" t="inlineStr">
@@ -68556,7 +69031,9 @@
           <t>Lojista</t>
         </is>
       </c>
-      <c r="G94" s="22" t="n"/>
+      <c r="G94" s="22" t="n">
+        <v>45210</v>
+      </c>
       <c r="H94" s="5">
         <f>IFERROR(VLOOKUP(I94,regs!H:I,2,0),"")</f>
         <v/>
@@ -68573,20 +69050,20 @@
     <row r="95">
       <c r="A95" s="16" t="inlineStr">
         <is>
-          <t>REAL COMERCIAL LTDA</t>
+          <t>LERNER COMERCIO E ASSISTENCIA TECNICA DE CELULARES LTDA</t>
         </is>
       </c>
       <c r="B95" s="2" t="n">
-        <v>2780640000197</v>
+        <v>50767215000100</v>
       </c>
       <c r="C95" s="16" t="inlineStr">
         <is>
-          <t>MR055548/2023</t>
+          <t>MR056814/2023</t>
         </is>
       </c>
       <c r="D95" s="5" t="inlineStr">
         <is>
-          <t>NÃO</t>
+          <t>SIM</t>
         </is>
       </c>
       <c r="E95" s="5" t="inlineStr">
@@ -68596,10 +69073,12 @@
       </c>
       <c r="F95" s="22" t="inlineStr">
         <is>
-          <t>Mercado</t>
-        </is>
-      </c>
-      <c r="G95" s="22" t="n"/>
+          <t>Lojista</t>
+        </is>
+      </c>
+      <c r="G95" s="22" t="n">
+        <v>45204</v>
+      </c>
       <c r="H95" s="5">
         <f>IFERROR(VLOOKUP(I95,regs!H:I,2,0),"")</f>
         <v/>
@@ -68616,15 +69095,15 @@
     <row r="96">
       <c r="A96" s="16" t="inlineStr">
         <is>
-          <t>NIZZA COMERCIO DE CONFECCOES LTDA</t>
+          <t>MAX CENTER CENTRO DE COMPRAS LTDA</t>
         </is>
       </c>
       <c r="B96" s="2" t="n">
-        <v>42160869000143</v>
+        <v>8769595000407</v>
       </c>
       <c r="C96" s="16" t="inlineStr">
         <is>
-          <t>MR055577/2023</t>
+          <t>MR059494/2023</t>
         </is>
       </c>
       <c r="D96" s="5" t="inlineStr">
@@ -68639,11 +69118,11 @@
       </c>
       <c r="F96" s="22" t="inlineStr">
         <is>
-          <t>Lojista</t>
+          <t>Mercado</t>
         </is>
       </c>
       <c r="G96" s="22" t="n">
-        <v>45210</v>
+        <v>45233</v>
       </c>
       <c r="H96" s="5">
         <f>IFERROR(VLOOKUP(I96,regs!H:I,2,0),"")</f>
@@ -68661,20 +69140,20 @@
     <row r="97">
       <c r="A97" s="16" t="inlineStr">
         <is>
-          <t>BOOMER COMERCIO DE CONFECCOES LTDA</t>
+          <t>G. TRICOT POA COMERCIO DE ARTIGOS DE VESTUARIO LTDA</t>
         </is>
       </c>
       <c r="B97" s="2" t="n">
-        <v>28613652000200</v>
+        <v>51603161000100</v>
       </c>
       <c r="C97" s="16" t="inlineStr">
         <is>
-          <t>MR055583/2023</t>
+          <t>MR061715/2023</t>
         </is>
       </c>
       <c r="D97" s="5" t="inlineStr">
         <is>
-          <t>SIM</t>
+          <t>NÃO</t>
         </is>
       </c>
       <c r="E97" s="5" t="inlineStr">
@@ -68687,9 +69166,7 @@
           <t>Lojista</t>
         </is>
       </c>
-      <c r="G97" s="22" t="n">
-        <v>45210</v>
-      </c>
+      <c r="G97" s="22" t="n"/>
       <c r="H97" s="5">
         <f>IFERROR(VLOOKUP(I97,regs!H:I,2,0),"")</f>
         <v/>
@@ -68706,20 +69183,20 @@
     <row r="98">
       <c r="A98" s="16" t="inlineStr">
         <is>
-          <t>LERNER COMERCIO E ASSISTENCIA TECNICA DE CELULARES LTDA</t>
+          <t>CALCADOS TOMAZZINI LTDA</t>
         </is>
       </c>
       <c r="B98" s="2" t="n">
-        <v>50767215000100</v>
+        <v>47612500000300</v>
       </c>
       <c r="C98" s="16" t="inlineStr">
         <is>
-          <t>MR056814/2023</t>
+          <t>MR062287/2023</t>
         </is>
       </c>
       <c r="D98" s="5" t="inlineStr">
         <is>
-          <t>SIM</t>
+          <t>NÃO</t>
         </is>
       </c>
       <c r="E98" s="5" t="inlineStr">
@@ -68732,9 +69209,7 @@
           <t>Lojista</t>
         </is>
       </c>
-      <c r="G98" s="22" t="n">
-        <v>45204</v>
-      </c>
+      <c r="G98" s="22" t="n"/>
       <c r="H98" s="5">
         <f>IFERROR(VLOOKUP(I98,regs!H:I,2,0),"")</f>
         <v/>
@@ -68751,20 +69226,20 @@
     <row r="99">
       <c r="A99" s="16" t="inlineStr">
         <is>
-          <t>MAX CENTER CENTRO DE COMPRAS LTDA</t>
+          <t>PAISAGEM LIVRARIA, PAPELARIA E ARTIGOS DE DECORACAO LTDA</t>
         </is>
       </c>
       <c r="B99" s="2" t="n">
-        <v>8769595000407</v>
+        <v>41778264000310</v>
       </c>
       <c r="C99" s="16" t="inlineStr">
         <is>
-          <t>MR059494/2023</t>
+          <t>MR063103/2023</t>
         </is>
       </c>
       <c r="D99" s="5" t="inlineStr">
         <is>
-          <t>SIM</t>
+          <t>NÃO</t>
         </is>
       </c>
       <c r="E99" s="5" t="inlineStr">
@@ -68774,12 +69249,10 @@
       </c>
       <c r="F99" s="5" t="inlineStr">
         <is>
-          <t>Mercado</t>
-        </is>
-      </c>
-      <c r="G99" s="22" t="n">
-        <v>45233</v>
-      </c>
+          <t>Lojista</t>
+        </is>
+      </c>
+      <c r="G99" s="22" t="n"/>
       <c r="H99" s="5">
         <f>IFERROR(VLOOKUP(I99,regs!H:I,2,0),"")</f>
         <v/>
@@ -68796,15 +69269,15 @@
     <row r="100">
       <c r="A100" s="16" t="inlineStr">
         <is>
-          <t>SUPERMERCADO FLACH LTDA</t>
+          <t>LOJAS RENNER S.A.</t>
         </is>
       </c>
       <c r="B100" s="2" t="n">
-        <v>88692314000143</v>
+        <v>92754738000162</v>
       </c>
       <c r="C100" s="16" t="inlineStr">
         <is>
-          <t>MR059749/2023</t>
+          <t>MR063949/2023</t>
         </is>
       </c>
       <c r="D100" s="5" t="inlineStr">
@@ -68819,11 +69292,11 @@
       </c>
       <c r="F100" s="5" t="inlineStr">
         <is>
-          <t>Mercado</t>
+          <t>Lojista</t>
         </is>
       </c>
       <c r="G100" s="22" t="n">
-        <v>45223</v>
+        <v>45246</v>
       </c>
       <c r="H100" s="5">
         <f>IFERROR(VLOOKUP(I100,regs!H:I,2,0),"")</f>
@@ -68841,33 +69314,35 @@
     <row r="101">
       <c r="A101" s="16" t="inlineStr">
         <is>
-          <t>G. TRICOT POA COMERCIO DE ARTIGOS DE VESTUARIO LTDA</t>
+          <t>DIMED S/A - DISTRIBUIDORA DE MEDICAMENTOS</t>
         </is>
       </c>
       <c r="B101" s="2" t="n">
-        <v>51603161000100</v>
+        <v>92665611000177</v>
       </c>
       <c r="C101" s="16" t="inlineStr">
         <is>
-          <t>MR061715/2023</t>
+          <t>MR064008/2023</t>
         </is>
       </c>
       <c r="D101" s="5" t="inlineStr">
         <is>
-          <t>NÃO</t>
+          <t>SIM</t>
         </is>
       </c>
       <c r="E101" s="5" t="inlineStr">
         <is>
-          <t>Domingos e feriados</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="F101" s="22" t="inlineStr">
         <is>
-          <t>Lojista</t>
-        </is>
-      </c>
-      <c r="G101" s="22" t="n"/>
+          <t>Farmácia</t>
+        </is>
+      </c>
+      <c r="G101" s="22" t="n">
+        <v>45259</v>
+      </c>
       <c r="H101" s="5">
         <f>IFERROR(VLOOKUP(I101,regs!H:I,2,0),"")</f>
         <v/>
@@ -68884,15 +69359,15 @@
     <row r="102">
       <c r="A102" s="16" t="inlineStr">
         <is>
-          <t>CALCADOS TOMAZZINI LTDA</t>
+          <t>SINDICATO DO COM VAREJ DE PROD FARMACEUTICOS NO EST RGS</t>
         </is>
       </c>
       <c r="B102" s="2" t="n">
-        <v>47612500000300</v>
+        <v>92963875000107</v>
       </c>
       <c r="C102" s="16" t="inlineStr">
         <is>
-          <t>MR062287/2023</t>
+          <t>MR064267/2023</t>
         </is>
       </c>
       <c r="D102" s="5" t="inlineStr">
@@ -68902,12 +69377,12 @@
       </c>
       <c r="E102" s="5" t="inlineStr">
         <is>
-          <t>Domingos e feriados</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="F102" s="22" t="inlineStr">
         <is>
-          <t>Lojista</t>
+          <t>Farmácia</t>
         </is>
       </c>
       <c r="G102" s="22" t="n"/>
@@ -68927,15 +69402,15 @@
     <row r="103">
       <c r="A103" s="16" t="inlineStr">
         <is>
-          <t>OFF STORE COMERCIO DE MOVEIS LTDA</t>
+          <t>JOSE ALBERTI</t>
         </is>
       </c>
       <c r="B103" s="2" t="n">
-        <v>7827077000260</v>
+        <v>18334399000102</v>
       </c>
       <c r="C103" s="16" t="inlineStr">
         <is>
-          <t>MR062658/2023</t>
+          <t>MR064644/2023</t>
         </is>
       </c>
       <c r="D103" s="5" t="inlineStr">
@@ -68950,11 +69425,11 @@
       </c>
       <c r="F103" s="22" t="inlineStr">
         <is>
-          <t>Lojista</t>
+          <t>Mercado</t>
         </is>
       </c>
       <c r="G103" s="22" t="n">
-        <v>45239</v>
+        <v>45247</v>
       </c>
       <c r="H103" s="5">
         <f>IFERROR(VLOOKUP(I103,regs!H:I,2,0),"")</f>
@@ -68972,15 +69447,15 @@
     <row r="104">
       <c r="A104" s="16" t="inlineStr">
         <is>
-          <t>W &amp; F COMERCIO DE MOVEIS LTDA</t>
+          <t>MERCADAO ESTACAO DAS FRUTAS 2 LTDA</t>
         </is>
       </c>
       <c r="B104" s="2" t="n">
-        <v>35624688000165</v>
+        <v>26987189000141</v>
       </c>
       <c r="C104" s="16" t="inlineStr">
         <is>
-          <t>MR062666/2023</t>
+          <t>MR064646/2023</t>
         </is>
       </c>
       <c r="D104" s="5" t="inlineStr">
@@ -68995,11 +69470,11 @@
       </c>
       <c r="F104" s="22" t="inlineStr">
         <is>
-          <t>Lojista</t>
+          <t>Mercado</t>
         </is>
       </c>
       <c r="G104" s="22" t="n">
-        <v>45239</v>
+        <v>45247</v>
       </c>
       <c r="H104" s="5">
         <f>IFERROR(VLOOKUP(I104,regs!H:I,2,0),"")</f>
@@ -69017,15 +69492,15 @@
     <row r="105">
       <c r="A105" s="16" t="inlineStr">
         <is>
-          <t>PAISAGEM LIVRARIA, PAPELARIA E ARTIGOS DE DECORACAO LTDA</t>
+          <t>SUPERMERCADO JARDINS LTDA</t>
         </is>
       </c>
       <c r="B105" s="2" t="n">
-        <v>41778264000310</v>
+        <v>24959000000181</v>
       </c>
       <c r="C105" s="16" t="inlineStr">
         <is>
-          <t>MR063103/2023</t>
+          <t>MR064944/2023</t>
         </is>
       </c>
       <c r="D105" s="5" t="inlineStr">
@@ -69040,7 +69515,7 @@
       </c>
       <c r="F105" s="22" t="inlineStr">
         <is>
-          <t>Lojista</t>
+          <t>Mercado</t>
         </is>
       </c>
       <c r="G105" s="22" t="n"/>
@@ -69060,35 +69535,33 @@
     <row r="106">
       <c r="A106" s="16" t="inlineStr">
         <is>
-          <t>LOJAS RENNER S.A.</t>
+          <t>SINDICATO DOS ESTABELECIMENTOS DE PRESTACAO DE SERVICOS FUNERARIOS DO ESTADO DO RIO GRANDE DO SUL</t>
         </is>
       </c>
       <c r="B106" s="2" t="n">
-        <v>92754738000162</v>
+        <v>89948905000100</v>
       </c>
       <c r="C106" s="16" t="inlineStr">
         <is>
-          <t>MR063949/2023</t>
+          <t>MR066222/2023</t>
         </is>
       </c>
       <c r="D106" s="5" t="inlineStr">
         <is>
-          <t>SIM</t>
+          <t>NÃO</t>
         </is>
       </c>
       <c r="E106" s="5" t="inlineStr">
         <is>
-          <t>Domingos e feriados</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="F106" s="22" t="inlineStr">
         <is>
-          <t>Lojista</t>
-        </is>
-      </c>
-      <c r="G106" s="22" t="n">
-        <v>45246</v>
-      </c>
+          <t>Indeterminado</t>
+        </is>
+      </c>
+      <c r="G106" s="22" t="n"/>
       <c r="H106" s="5">
         <f>IFERROR(VLOOKUP(I106,regs!H:I,2,0),"")</f>
         <v/>
@@ -69105,15 +69578,15 @@
     <row r="107">
       <c r="A107" s="16" t="inlineStr">
         <is>
-          <t>DIMED S/A - DISTRIBUIDORA DE MEDICAMENTOS</t>
+          <t>COMERCIAL ZAFFARI LTDA</t>
         </is>
       </c>
       <c r="B107" s="2" t="n">
-        <v>92665611000177</v>
+        <v>92016757000191</v>
       </c>
       <c r="C107" s="16" t="inlineStr">
         <is>
-          <t>MR064008/2023</t>
+          <t>MR066326/2023</t>
         </is>
       </c>
       <c r="D107" s="5" t="inlineStr">
@@ -69123,12 +69596,12 @@
       </c>
       <c r="E107" s="5" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Domingos e feriados</t>
         </is>
       </c>
       <c r="F107" s="22" t="inlineStr">
         <is>
-          <t>Farmácia</t>
+          <t>Mercado</t>
         </is>
       </c>
       <c r="G107" s="22" t="n"/>
@@ -69148,15 +69621,15 @@
     <row r="108">
       <c r="A108" s="16" t="inlineStr">
         <is>
-          <t>SINDICATO DO COM VAREJ DE PROD FARMACEUTICOS NO EST RGS</t>
+          <t>UNIDASUL DISTRIBUIDORA ALIMENTICIA S/A</t>
         </is>
       </c>
       <c r="B108" s="2" t="n">
-        <v>92963875000107</v>
+        <v>7718633000189</v>
       </c>
       <c r="C108" s="16" t="inlineStr">
         <is>
-          <t>MR064267/2023</t>
+          <t>MR066333/2023</t>
         </is>
       </c>
       <c r="D108" s="5" t="inlineStr">
@@ -69166,12 +69639,12 @@
       </c>
       <c r="E108" s="5" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Domingos e feriados</t>
         </is>
       </c>
       <c r="F108" s="22" t="inlineStr">
         <is>
-          <t>Farmácia</t>
+          <t>Mercado</t>
         </is>
       </c>
       <c r="G108" s="22" t="n"/>
@@ -69191,20 +69664,20 @@
     <row r="109">
       <c r="A109" s="16" t="inlineStr">
         <is>
-          <t>JOSE ALBERTI</t>
+          <t>WMS SUPERMERCADOS DO BRASIL LTDA.</t>
         </is>
       </c>
       <c r="B109" s="2" t="n">
-        <v>18334399000102</v>
+        <v>93209765000117</v>
       </c>
       <c r="C109" s="16" t="inlineStr">
         <is>
-          <t>MR064644/2023</t>
+          <t>MR066341/2023</t>
         </is>
       </c>
       <c r="D109" s="5" t="inlineStr">
         <is>
-          <t>SIM</t>
+          <t>NÃO</t>
         </is>
       </c>
       <c r="E109" s="5" t="inlineStr">
@@ -69217,9 +69690,7 @@
           <t>Mercado</t>
         </is>
       </c>
-      <c r="G109" s="22" t="n">
-        <v>45247</v>
-      </c>
+      <c r="G109" s="22" t="n"/>
       <c r="H109" s="5">
         <f>IFERROR(VLOOKUP(I109,regs!H:I,2,0),"")</f>
         <v/>
@@ -69236,20 +69707,20 @@
     <row r="110">
       <c r="A110" s="16" t="inlineStr">
         <is>
-          <t>MERCADAO ESTACAO DAS FRUTAS 2 LTDA</t>
+          <t>ATACADAO S.A.</t>
         </is>
       </c>
       <c r="B110" s="2" t="n">
-        <v>26987189000141</v>
+        <v>75315333000109</v>
       </c>
       <c r="C110" s="16" t="inlineStr">
         <is>
-          <t>MR064646/2023</t>
+          <t>MR066345/2023</t>
         </is>
       </c>
       <c r="D110" s="5" t="inlineStr">
         <is>
-          <t>SIM</t>
+          <t>NÃO</t>
         </is>
       </c>
       <c r="E110" s="5" t="inlineStr">
@@ -69262,9 +69733,7 @@
           <t>Mercado</t>
         </is>
       </c>
-      <c r="G110" s="22" t="n">
-        <v>45247</v>
-      </c>
+      <c r="G110" s="22" t="n"/>
       <c r="H110" s="5">
         <f>IFERROR(VLOOKUP(I110,regs!H:I,2,0),"")</f>
         <v/>
@@ -69281,20 +69750,20 @@
     <row r="111">
       <c r="A111" s="16" t="inlineStr">
         <is>
-          <t>SAMANTA CARDOSO DE OLIVEIRA LTDA</t>
+          <t>CARREFOUR COMERCIO E INDUSTRIA LTDA</t>
         </is>
       </c>
       <c r="B111" s="2" t="n">
-        <v>30927815000181</v>
+        <v>45543915000181</v>
       </c>
       <c r="C111" s="16" t="inlineStr">
         <is>
-          <t>MR064757/2023</t>
+          <t>MR066357/2023</t>
         </is>
       </c>
       <c r="D111" s="5" t="inlineStr">
         <is>
-          <t>SIM</t>
+          <t>NÃO</t>
         </is>
       </c>
       <c r="E111" s="5" t="inlineStr">
@@ -69304,12 +69773,10 @@
       </c>
       <c r="F111" s="22" t="inlineStr">
         <is>
-          <t>Lojista</t>
-        </is>
-      </c>
-      <c r="G111" s="22" t="n">
-        <v>45247</v>
-      </c>
+          <t>Mercado</t>
+        </is>
+      </c>
+      <c r="G111" s="22" t="n"/>
       <c r="H111" s="5" t="n"/>
       <c r="I111">
         <f>LEFT(B111,8)</f>
@@ -69323,20 +69790,20 @@
     <row r="112">
       <c r="A112" s="16" t="inlineStr">
         <is>
-          <t>EDUARDO GARCIA ESTEVES LTDA</t>
+          <t>WMB SUPERMERCADOS DO BRASIL LTDA.</t>
         </is>
       </c>
       <c r="B112" s="2" t="n">
-        <v>6781047000116</v>
+        <v>63960000109</v>
       </c>
       <c r="C112" s="16" t="inlineStr">
         <is>
-          <t>MR064765/2023</t>
+          <t>MR066376/2023</t>
         </is>
       </c>
       <c r="D112" s="5" t="inlineStr">
         <is>
-          <t>SIM</t>
+          <t>NÃO</t>
         </is>
       </c>
       <c r="E112" s="5" t="inlineStr">
@@ -69346,12 +69813,10 @@
       </c>
       <c r="F112" s="5" t="inlineStr">
         <is>
-          <t>Lojista</t>
-        </is>
-      </c>
-      <c r="G112" s="22" t="n">
-        <v>45247</v>
-      </c>
+          <t>Mercado</t>
+        </is>
+      </c>
+      <c r="G112" s="22" t="n"/>
       <c r="H112" s="5" t="n"/>
       <c r="I112">
         <f>LEFT(B112,8)</f>
@@ -69365,20 +69830,20 @@
     <row r="113">
       <c r="A113" s="16" t="inlineStr">
         <is>
-          <t>G JACCOTTET FREITAS LTDA</t>
+          <t>SUPER KAN LTDA</t>
         </is>
       </c>
       <c r="B113" s="2" t="n">
-        <v>28452061000109</v>
+        <v>3521220000159</v>
       </c>
       <c r="C113" s="16" t="inlineStr">
         <is>
-          <t>MR064782/2023</t>
+          <t>MR066379/2023</t>
         </is>
       </c>
       <c r="D113" s="5" t="inlineStr">
         <is>
-          <t>SIM</t>
+          <t>NÃO</t>
         </is>
       </c>
       <c r="E113" s="5" t="inlineStr">
@@ -69388,12 +69853,10 @@
       </c>
       <c r="F113" s="5" t="inlineStr">
         <is>
-          <t>Lojista</t>
-        </is>
-      </c>
-      <c r="G113" s="22" t="n">
-        <v>45247</v>
-      </c>
+          <t>Mercado</t>
+        </is>
+      </c>
+      <c r="G113" s="22" t="n"/>
       <c r="H113" s="5" t="n"/>
       <c r="I113">
         <f>LEFT(B113,8)</f>
@@ -69407,15 +69870,15 @@
     <row r="114">
       <c r="A114" s="16" t="inlineStr">
         <is>
-          <t>SUPERMERCADO JARDINS LTDA</t>
+          <t>ASUN COMERCIO DE GENEROS ALIMENTICIOS LTDA</t>
         </is>
       </c>
       <c r="B114" s="2" t="n">
-        <v>24959000000181</v>
+        <v>92091891000157</v>
       </c>
       <c r="C114" s="16" t="inlineStr">
         <is>
-          <t>MR064944/2023</t>
+          <t>MR066380/2023</t>
         </is>
       </c>
       <c r="D114" s="5" t="inlineStr">
@@ -69447,20 +69910,20 @@
     <row r="115">
       <c r="A115" s="16" t="inlineStr">
         <is>
-          <t>LOJAS RENNER S.A.</t>
+          <t>CACULA MATERIAIS PARA CONSTRUCOES LTDA</t>
         </is>
       </c>
       <c r="B115" s="2" t="n">
-        <v>92754738000162</v>
+        <v>89323893000110</v>
       </c>
       <c r="C115" s="16" t="inlineStr">
         <is>
-          <t>MR065000/2023</t>
+          <t>MR066986/2023</t>
         </is>
       </c>
       <c r="D115" s="5" t="inlineStr">
         <is>
-          <t>SIM</t>
+          <t>NÃO</t>
         </is>
       </c>
       <c r="E115" s="5" t="inlineStr">
@@ -69473,9 +69936,7 @@
           <t>Lojista</t>
         </is>
       </c>
-      <c r="G115" s="22" t="n">
-        <v>45250</v>
-      </c>
+      <c r="G115" s="22" t="n"/>
       <c r="H115" s="5" t="n"/>
       <c r="I115">
         <f>LEFT(B115,8)</f>
@@ -69489,15 +69950,15 @@
     <row r="116">
       <c r="A116" s="16" t="inlineStr">
         <is>
-          <t>GOE CALCADOS E CORES LTDA</t>
+          <t>A.R. DALL IGNA COMERCIO DE ARTEFATOS DE COURO LTDA</t>
         </is>
       </c>
       <c r="B116" s="2" t="n">
-        <v>50300901000177</v>
+        <v>4574226000157</v>
       </c>
       <c r="C116" s="16" t="inlineStr">
         <is>
-          <t>MR065077/2023</t>
+          <t>MR066992/2023</t>
         </is>
       </c>
       <c r="D116" s="5" t="inlineStr">
@@ -69516,7 +69977,7 @@
         </is>
       </c>
       <c r="G116" s="22" t="n">
-        <v>45251</v>
+        <v>45259</v>
       </c>
       <c r="H116" s="5" t="n"/>
       <c r="I116">
@@ -69531,15 +69992,15 @@
     <row r="117">
       <c r="A117" s="16" t="inlineStr">
         <is>
-          <t>RSE CALCADOS E CORES LTDA</t>
+          <t>ORTOPONTO COMERCIO DE PRODUTOS DE ORTOPEDIA , SAUDE E RECUPERACAO LTDA</t>
         </is>
       </c>
       <c r="B117" s="2" t="n">
-        <v>51097542000165</v>
+        <v>4603104000141</v>
       </c>
       <c r="C117" s="16" t="inlineStr">
         <is>
-          <t>MR065082/2023</t>
+          <t>MR067043/2023</t>
         </is>
       </c>
       <c r="D117" s="5" t="inlineStr">
@@ -69558,7 +70019,7 @@
         </is>
       </c>
       <c r="G117" s="22" t="n">
-        <v>45251</v>
+        <v>45261</v>
       </c>
       <c r="H117" s="5">
         <f>IFERROR(VLOOKUP(I117,regs!H:I,2,0),"")</f>
@@ -69576,15 +70037,15 @@
     <row r="118">
       <c r="A118" s="16" t="inlineStr">
         <is>
-          <t>SOE CALCADOS E CORES LTDA</t>
+          <t>MC COMERCIO DE MATERIAIS PARA CONSTRUCAO LTDA</t>
         </is>
       </c>
       <c r="B118" s="2" t="n">
-        <v>51543554000176</v>
+        <v>72505977000171</v>
       </c>
       <c r="C118" s="16" t="inlineStr">
         <is>
-          <t>MR065085/2023</t>
+          <t>MR067165/2023</t>
         </is>
       </c>
       <c r="D118" s="5" t="inlineStr">
@@ -69603,7 +70064,7 @@
         </is>
       </c>
       <c r="G118" s="22" t="n">
-        <v>45250</v>
+        <v>45264</v>
       </c>
       <c r="H118" s="5">
         <f>IFERROR(VLOOKUP(I118,regs!H:I,2,0),"")</f>
@@ -69621,33 +70082,35 @@
     <row r="119">
       <c r="A119" s="16" t="inlineStr">
         <is>
-          <t>FEDERACAO INTERMUNICIPAL DE SINDICATOS DE TRABALHADORES NO COMERCIO DE BENS E SERVICO DA FORCA SINDICAL NO ESTADO DO RIO GRANDE DO SUL - FETRACOS/RS</t>
+          <t>M. GARDAS - MATERIAIS DE CONSTRUCAO LTDA</t>
         </is>
       </c>
       <c r="B119" s="2" t="n">
-        <v>10400614000114</v>
+        <v>7500399000119</v>
       </c>
       <c r="C119" s="16" t="inlineStr">
         <is>
-          <t>MR066218/2023</t>
+          <t>MR067169/2023</t>
         </is>
       </c>
       <c r="D119" s="5" t="inlineStr">
         <is>
-          <t>NÃO</t>
+          <t>SIM</t>
         </is>
       </c>
       <c r="E119" s="5" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Domingos e feriados</t>
         </is>
       </c>
       <c r="F119" s="22" t="inlineStr">
         <is>
-          <t>Farmácia</t>
-        </is>
-      </c>
-      <c r="G119" s="22" t="n"/>
+          <t>Lojista</t>
+        </is>
+      </c>
+      <c r="G119" s="22" t="n">
+        <v>45264</v>
+      </c>
       <c r="H119" s="5">
         <f>IFERROR(VLOOKUP(I119,regs!H:I,2,0),"")</f>
         <v/>
@@ -69664,15 +70127,15 @@
     <row r="120">
       <c r="A120" s="16" t="inlineStr">
         <is>
-          <t>SINDICATO DOS ESTABELECIMENTOS DE PRESTACAO DE SERVICOS FUNERARIOS DO ESTADO DO RIO GRANDE DO SUL</t>
+          <t>TRAMONTINA STORE COMERCIO VAREJISTA LTDA.</t>
         </is>
       </c>
       <c r="B120" s="2" t="n">
-        <v>89948905000100</v>
+        <v>7635498002151</v>
       </c>
       <c r="C120" s="16" t="inlineStr">
         <is>
-          <t>MR066222/2023</t>
+          <t>MR067170/2023</t>
         </is>
       </c>
       <c r="D120" s="5" t="inlineStr">
@@ -69682,12 +70145,12 @@
       </c>
       <c r="E120" s="5" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Domingos e feriados</t>
         </is>
       </c>
       <c r="F120" s="22" t="inlineStr">
         <is>
-          <t>Indeterminado</t>
+          <t>Lojista</t>
         </is>
       </c>
       <c r="G120" s="22" t="n"/>
@@ -69707,20 +70170,20 @@
     <row r="121">
       <c r="A121" s="16" t="inlineStr">
         <is>
-          <t>COMERCIAL ZAFFARI LTDA</t>
+          <t>EMPRESA GAUCHA DE FRANQUIAS LTDA</t>
         </is>
       </c>
       <c r="B121" s="2" t="n">
-        <v>92016757000191</v>
+        <v>2878070000253</v>
       </c>
       <c r="C121" s="16" t="inlineStr">
         <is>
-          <t>MR066326/2023</t>
+          <t>MR067195/2023</t>
         </is>
       </c>
       <c r="D121" s="5" t="inlineStr">
         <is>
-          <t>NÃO</t>
+          <t>SIM</t>
         </is>
       </c>
       <c r="E121" s="5" t="inlineStr">
@@ -69730,10 +70193,12 @@
       </c>
       <c r="F121" s="22" t="inlineStr">
         <is>
-          <t>Mercado</t>
-        </is>
-      </c>
-      <c r="G121" s="22" t="n"/>
+          <t>Lojista</t>
+        </is>
+      </c>
+      <c r="G121" s="22" t="n">
+        <v>45264</v>
+      </c>
       <c r="H121" s="5">
         <f>IFERROR(VLOOKUP(I121,regs!H:I,2,0),"")</f>
         <v/>
@@ -69750,20 +70215,20 @@
     <row r="122">
       <c r="A122" s="16" t="inlineStr">
         <is>
-          <t>UNIDASUL DISTRIBUIDORA ALIMENTICIA S/A</t>
+          <t>VIA INOX VAREJO E DISTRIBUICAO DE UTILIDADES LTDA</t>
         </is>
       </c>
       <c r="B122" s="2" t="n">
-        <v>7718633000189</v>
+        <v>4685362000548</v>
       </c>
       <c r="C122" s="16" t="inlineStr">
         <is>
-          <t>MR066333/2023</t>
+          <t>MR067210/2023</t>
         </is>
       </c>
       <c r="D122" s="5" t="inlineStr">
         <is>
-          <t>NÃO</t>
+          <t>SIM</t>
         </is>
       </c>
       <c r="E122" s="5" t="inlineStr">
@@ -69773,10 +70238,12 @@
       </c>
       <c r="F122" s="22" t="inlineStr">
         <is>
-          <t>Mercado</t>
-        </is>
-      </c>
-      <c r="G122" s="22" t="n"/>
+          <t>Lojista</t>
+        </is>
+      </c>
+      <c r="G122" s="22" t="n">
+        <v>45259</v>
+      </c>
       <c r="H122" s="5">
         <f>IFERROR(VLOOKUP(I122,regs!H:I,2,0),"")</f>
         <v/>
@@ -69793,20 +70260,20 @@
     <row r="123">
       <c r="A123" s="16" t="inlineStr">
         <is>
-          <t>WMS SUPERMERCADOS DO BRASIL LTDA.</t>
+          <t>FIJI FRANCHISE COMERCIO DO VESTUARIO LTDA</t>
         </is>
       </c>
       <c r="B123" s="2" t="n">
-        <v>93209765000117</v>
+        <v>25306219000144</v>
       </c>
       <c r="C123" s="16" t="inlineStr">
         <is>
-          <t>MR066341/2023</t>
+          <t>MR067220/2023</t>
         </is>
       </c>
       <c r="D123" s="5" t="inlineStr">
         <is>
-          <t>NÃO</t>
+          <t>SIM</t>
         </is>
       </c>
       <c r="E123" s="5" t="inlineStr">
@@ -69816,10 +70283,12 @@
       </c>
       <c r="F123" s="5" t="inlineStr">
         <is>
-          <t>Mercado</t>
-        </is>
-      </c>
-      <c r="G123" s="22" t="n"/>
+          <t>Lojista</t>
+        </is>
+      </c>
+      <c r="G123" s="22" t="n">
+        <v>45259</v>
+      </c>
       <c r="H123" s="5">
         <f>IFERROR(VLOOKUP(I123,regs!H:I,2,0),"")</f>
         <v/>
@@ -69836,20 +70305,20 @@
     <row r="124">
       <c r="A124" s="16" t="inlineStr">
         <is>
-          <t>ATACADAO S.A.</t>
+          <t>COSTA MESA FRANCHISE COMERCIO DE CALCADOS E VESTUARIO LTDA</t>
         </is>
       </c>
       <c r="B124" s="2" t="n">
-        <v>75315333000109</v>
+        <v>40298312000148</v>
       </c>
       <c r="C124" s="16" t="inlineStr">
         <is>
-          <t>MR066345/2023</t>
+          <t>MR067222/2023</t>
         </is>
       </c>
       <c r="D124" s="5" t="inlineStr">
         <is>
-          <t>NÃO</t>
+          <t>SIM</t>
         </is>
       </c>
       <c r="E124" s="5" t="inlineStr">
@@ -69859,10 +70328,12 @@
       </c>
       <c r="F124" s="22" t="inlineStr">
         <is>
-          <t>Mercado</t>
-        </is>
-      </c>
-      <c r="G124" s="22" t="n"/>
+          <t>Lojista</t>
+        </is>
+      </c>
+      <c r="G124" s="22" t="n">
+        <v>45259</v>
+      </c>
       <c r="H124" s="5">
         <f>IFERROR(VLOOKUP(I124,regs!H:I,2,0),"")</f>
         <v/>
@@ -69879,15 +70350,15 @@
     <row r="125">
       <c r="A125" s="16" t="inlineStr">
         <is>
-          <t>CARREFOUR COMERCIO E INDUSTRIA LTDA</t>
+          <t>LINS FERRAO ARTIGOS DO VESTUARIO LTDA</t>
         </is>
       </c>
       <c r="B125" s="2" t="n">
-        <v>45543915000181</v>
+        <v>87345021009698</v>
       </c>
       <c r="C125" s="16" t="inlineStr">
         <is>
-          <t>MR066357/2023</t>
+          <t>MR067232/2023</t>
         </is>
       </c>
       <c r="D125" s="5" t="inlineStr">
@@ -69900,9 +70371,9 @@
           <t>Domingos e feriados</t>
         </is>
       </c>
-      <c r="F125" s="5" t="inlineStr">
-        <is>
-          <t>Mercado</t>
+      <c r="F125" s="22" t="inlineStr">
+        <is>
+          <t>Lojista</t>
         </is>
       </c>
       <c r="G125" s="22" t="n"/>
@@ -69920,12 +70391,34 @@
       </c>
     </row>
     <row r="126">
-      <c r="A126" s="16" t="n"/>
-      <c r="B126" s="2" t="n"/>
-      <c r="C126" s="16" t="n"/>
-      <c r="D126" s="5" t="n"/>
-      <c r="E126" s="5" t="n"/>
-      <c r="F126" s="5" t="n"/>
+      <c r="A126" s="16" t="inlineStr">
+        <is>
+          <t>SULVESTE COMERCIO DE CONFECCOES LTDA</t>
+        </is>
+      </c>
+      <c r="B126" s="2" t="n">
+        <v>91931030000177</v>
+      </c>
+      <c r="C126" s="16" t="inlineStr">
+        <is>
+          <t>MR067272/2023</t>
+        </is>
+      </c>
+      <c r="D126" s="5" t="inlineStr">
+        <is>
+          <t>NÃO</t>
+        </is>
+      </c>
+      <c r="E126" s="5" t="inlineStr">
+        <is>
+          <t>Domingos e feriados</t>
+        </is>
+      </c>
+      <c r="F126" s="22" t="inlineStr">
+        <is>
+          <t>Lojista</t>
+        </is>
+      </c>
       <c r="G126" s="22" t="n"/>
       <c r="H126" s="5">
         <f>IFERROR(VLOOKUP(I126,regs!H:I,2,0),"")</f>
@@ -69941,13 +70434,37 @@
       </c>
     </row>
     <row r="127">
-      <c r="A127" s="16" t="n"/>
-      <c r="B127" s="2" t="n"/>
-      <c r="C127" s="16" t="n"/>
-      <c r="D127" s="5" t="n"/>
-      <c r="E127" s="5" t="n"/>
-      <c r="F127" s="5" t="n"/>
-      <c r="G127" s="22" t="n"/>
+      <c r="A127" s="16" t="inlineStr">
+        <is>
+          <t>FRANCISCO MARANHAO CARVALHO JUNIOR</t>
+        </is>
+      </c>
+      <c r="B127" s="2" t="n">
+        <v>33764691000159</v>
+      </c>
+      <c r="C127" s="16" t="inlineStr">
+        <is>
+          <t>MR067440/2023</t>
+        </is>
+      </c>
+      <c r="D127" s="5" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+      <c r="E127" s="5" t="inlineStr">
+        <is>
+          <t>Domingos e feriados</t>
+        </is>
+      </c>
+      <c r="F127" s="5" t="inlineStr">
+        <is>
+          <t>Lojista</t>
+        </is>
+      </c>
+      <c r="G127" s="22" t="n">
+        <v>45260</v>
+      </c>
       <c r="H127" s="5">
         <f>IFERROR(VLOOKUP(I127,regs!H:I,2,0),"")</f>
         <v/>
@@ -69962,13 +70479,37 @@
       </c>
     </row>
     <row r="128">
-      <c r="A128" s="16" t="n"/>
-      <c r="B128" s="2" t="n"/>
-      <c r="C128" s="16" t="n"/>
-      <c r="D128" s="5" t="n"/>
-      <c r="E128" s="5" t="n"/>
-      <c r="F128" s="5" t="n"/>
-      <c r="G128" s="22" t="n"/>
+      <c r="A128" s="16" t="inlineStr">
+        <is>
+          <t>MAGMOI PAPELARIA LTDA</t>
+        </is>
+      </c>
+      <c r="B128" s="2" t="n">
+        <v>47999690000106</v>
+      </c>
+      <c r="C128" s="16" t="inlineStr">
+        <is>
+          <t>MR067449/2023</t>
+        </is>
+      </c>
+      <c r="D128" s="5" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+      <c r="E128" s="5" t="inlineStr">
+        <is>
+          <t>Domingos e feriados</t>
+        </is>
+      </c>
+      <c r="F128" s="22" t="inlineStr">
+        <is>
+          <t>Lojista</t>
+        </is>
+      </c>
+      <c r="G128" s="22" t="n">
+        <v>45260</v>
+      </c>
       <c r="H128" s="5">
         <f>IFERROR(VLOOKUP(I128,regs!H:I,2,0),"")</f>
         <v/>
@@ -69983,12 +70524,34 @@
       </c>
     </row>
     <row r="129">
-      <c r="A129" s="16" t="n"/>
-      <c r="B129" s="2" t="n"/>
-      <c r="C129" s="16" t="n"/>
-      <c r="D129" s="5" t="n"/>
-      <c r="E129" s="5" t="n"/>
-      <c r="F129" s="5" t="n"/>
+      <c r="A129" s="16" t="inlineStr">
+        <is>
+          <t>ALMA LEVE COMERCIO DE BOLSAS E CALCADOS LTDA</t>
+        </is>
+      </c>
+      <c r="B129" s="2" t="n">
+        <v>41744586000186</v>
+      </c>
+      <c r="C129" s="16" t="inlineStr">
+        <is>
+          <t>MR067479/2023</t>
+        </is>
+      </c>
+      <c r="D129" s="5" t="inlineStr">
+        <is>
+          <t>NÃO</t>
+        </is>
+      </c>
+      <c r="E129" s="5" t="inlineStr">
+        <is>
+          <t>Domingos e feriados</t>
+        </is>
+      </c>
+      <c r="F129" s="22" t="inlineStr">
+        <is>
+          <t>Lojista</t>
+        </is>
+      </c>
       <c r="G129" s="22" t="n"/>
       <c r="H129" s="5">
         <f>IFERROR(VLOOKUP(I129,regs!H:I,2,0),"")</f>
@@ -70004,13 +70567,37 @@
       </c>
     </row>
     <row r="130">
-      <c r="A130" s="16" t="n"/>
-      <c r="B130" s="2" t="n"/>
-      <c r="C130" s="16" t="n"/>
-      <c r="D130" s="5" t="n"/>
-      <c r="E130" s="5" t="n"/>
-      <c r="F130" s="5" t="n"/>
-      <c r="G130" s="22" t="n"/>
+      <c r="A130" s="16" t="inlineStr">
+        <is>
+          <t>CAEDU COMERCIO VAREJISTA DE ARTIGOS DO VESTUARIO SA</t>
+        </is>
+      </c>
+      <c r="B130" s="2" t="n">
+        <v>46377727008330</v>
+      </c>
+      <c r="C130" s="16" t="inlineStr">
+        <is>
+          <t>MR067547/2023</t>
+        </is>
+      </c>
+      <c r="D130" s="5" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+      <c r="E130" s="5" t="inlineStr">
+        <is>
+          <t>Domingos e feriados</t>
+        </is>
+      </c>
+      <c r="F130" s="22" t="inlineStr">
+        <is>
+          <t>Lojista</t>
+        </is>
+      </c>
+      <c r="G130" s="22" t="n">
+        <v>45260</v>
+      </c>
       <c r="H130" s="5">
         <f>IFERROR(VLOOKUP(I130,regs!H:I,2,0),"")</f>
         <v/>
@@ -70025,13 +70612,37 @@
       </c>
     </row>
     <row r="131">
-      <c r="A131" s="16" t="n"/>
-      <c r="B131" s="2" t="n"/>
-      <c r="C131" s="16" t="n"/>
-      <c r="D131" s="5" t="n"/>
-      <c r="E131" s="5" t="n"/>
-      <c r="F131" s="5" t="n"/>
-      <c r="G131" s="22" t="n"/>
+      <c r="A131" s="16" t="inlineStr">
+        <is>
+          <t>CAMPO VISUAL PARTICIPACOES LTDA</t>
+        </is>
+      </c>
+      <c r="B131" s="2" t="n">
+        <v>9248776000108</v>
+      </c>
+      <c r="C131" s="16" t="inlineStr">
+        <is>
+          <t>MR067619/2023</t>
+        </is>
+      </c>
+      <c r="D131" s="5" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+      <c r="E131" s="5" t="inlineStr">
+        <is>
+          <t>Domingos e feriados</t>
+        </is>
+      </c>
+      <c r="F131" s="5" t="inlineStr">
+        <is>
+          <t>Ótica</t>
+        </is>
+      </c>
+      <c r="G131" s="22" t="n">
+        <v>45259</v>
+      </c>
       <c r="H131" s="5">
         <f>IFERROR(VLOOKUP(I131,regs!H:I,2,0),"")</f>
         <v/>
@@ -70046,13 +70657,37 @@
       </c>
     </row>
     <row r="132">
-      <c r="A132" s="16" t="n"/>
-      <c r="B132" s="2" t="n"/>
-      <c r="C132" s="16" t="n"/>
-      <c r="D132" s="5" t="n"/>
-      <c r="E132" s="5" t="n"/>
-      <c r="F132" s="5" t="n"/>
-      <c r="G132" s="22" t="n"/>
+      <c r="A132" s="16" t="inlineStr">
+        <is>
+          <t>SGH BRASIL COMERCIO DE OCULOS LTDA</t>
+        </is>
+      </c>
+      <c r="B132" s="2" t="n">
+        <v>13257648000190</v>
+      </c>
+      <c r="C132" s="16" t="inlineStr">
+        <is>
+          <t>MR067627/2023</t>
+        </is>
+      </c>
+      <c r="D132" s="5" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+      <c r="E132" s="5" t="inlineStr">
+        <is>
+          <t>Domingos e feriados</t>
+        </is>
+      </c>
+      <c r="F132" s="22" t="inlineStr">
+        <is>
+          <t>Ótica</t>
+        </is>
+      </c>
+      <c r="G132" s="22" t="n">
+        <v>45259</v>
+      </c>
       <c r="H132" s="5">
         <f>IFERROR(VLOOKUP(I132,regs!H:I,2,0),"")</f>
         <v/>
@@ -70067,13 +70702,37 @@
       </c>
     </row>
     <row r="133">
-      <c r="A133" s="16" t="n"/>
-      <c r="B133" s="2" t="n"/>
-      <c r="C133" s="16" t="n"/>
-      <c r="D133" s="5" t="n"/>
-      <c r="E133" s="5" t="n"/>
-      <c r="F133" s="5" t="n"/>
-      <c r="G133" s="22" t="n"/>
+      <c r="A133" s="16" t="inlineStr">
+        <is>
+          <t>COSTA MESA FRANCHISE COMERCIO DE CALCADOS E VESTUARIO LTDA</t>
+        </is>
+      </c>
+      <c r="B133" s="2" t="n">
+        <v>40298312000148</v>
+      </c>
+      <c r="C133" s="16" t="inlineStr">
+        <is>
+          <t>MR067660/2023</t>
+        </is>
+      </c>
+      <c r="D133" s="5" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+      <c r="E133" s="5" t="inlineStr">
+        <is>
+          <t>Domingos e feriados</t>
+        </is>
+      </c>
+      <c r="F133" s="22" t="inlineStr">
+        <is>
+          <t>Lojista</t>
+        </is>
+      </c>
+      <c r="G133" s="22" t="n">
+        <v>45260</v>
+      </c>
       <c r="H133" s="5">
         <f>IFERROR(VLOOKUP(I133,regs!H:I,2,0),"")</f>
         <v/>
@@ -70088,13 +70747,37 @@
       </c>
     </row>
     <row r="134">
-      <c r="A134" s="16" t="n"/>
-      <c r="B134" s="2" t="n"/>
-      <c r="C134" s="16" t="n"/>
-      <c r="D134" s="5" t="n"/>
-      <c r="E134" s="5" t="n"/>
-      <c r="F134" s="5" t="n"/>
-      <c r="G134" s="22" t="n"/>
+      <c r="A134" s="16" t="inlineStr">
+        <is>
+          <t>JDF COMERCIO DE VESTUARIO LTDA</t>
+        </is>
+      </c>
+      <c r="B134" s="2" t="n">
+        <v>26893767000180</v>
+      </c>
+      <c r="C134" s="16" t="inlineStr">
+        <is>
+          <t>MR068141/2023</t>
+        </is>
+      </c>
+      <c r="D134" s="5" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+      <c r="E134" s="5" t="inlineStr">
+        <is>
+          <t>Domingos e feriados</t>
+        </is>
+      </c>
+      <c r="F134" s="22" t="inlineStr">
+        <is>
+          <t>Lojista</t>
+        </is>
+      </c>
+      <c r="G134" s="22" t="n">
+        <v>45264</v>
+      </c>
       <c r="H134" s="5">
         <f>IFERROR(VLOOKUP(I134,regs!H:I,2,0),"")</f>
         <v/>
@@ -70109,13 +70792,37 @@
       </c>
     </row>
     <row r="135">
-      <c r="A135" s="16" t="n"/>
-      <c r="B135" s="2" t="n"/>
-      <c r="C135" s="16" t="n"/>
-      <c r="D135" s="5" t="n"/>
-      <c r="E135" s="5" t="n"/>
-      <c r="F135" s="5" t="n"/>
-      <c r="G135" s="22" t="n"/>
+      <c r="A135" s="16" t="inlineStr">
+        <is>
+          <t>DM9 - COMERCIO DE CALCADOS LTDA</t>
+        </is>
+      </c>
+      <c r="B135" s="2" t="n">
+        <v>34326263000107</v>
+      </c>
+      <c r="C135" s="16" t="inlineStr">
+        <is>
+          <t>MR068145/2023</t>
+        </is>
+      </c>
+      <c r="D135" s="5" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+      <c r="E135" s="5" t="inlineStr">
+        <is>
+          <t>Domingos e feriados</t>
+        </is>
+      </c>
+      <c r="F135" s="22" t="inlineStr">
+        <is>
+          <t>Lojista</t>
+        </is>
+      </c>
+      <c r="G135" s="22" t="n">
+        <v>45264</v>
+      </c>
       <c r="H135" s="5">
         <f>IFERROR(VLOOKUP(I135,regs!H:I,2,0),"")</f>
         <v/>
@@ -70130,12 +70837,34 @@
       </c>
     </row>
     <row r="136">
-      <c r="A136" s="16" t="n"/>
-      <c r="B136" s="2" t="n"/>
-      <c r="C136" s="16" t="n"/>
-      <c r="D136" s="5" t="n"/>
-      <c r="E136" s="5" t="n"/>
-      <c r="F136" s="5" t="n"/>
+      <c r="A136" s="16" t="inlineStr">
+        <is>
+          <t>SUPERMAGO COMERCIO LTDA</t>
+        </is>
+      </c>
+      <c r="B136" s="2" t="n">
+        <v>2765561000107</v>
+      </c>
+      <c r="C136" s="16" t="inlineStr">
+        <is>
+          <t>MR068195/2023</t>
+        </is>
+      </c>
+      <c r="D136" s="5" t="inlineStr">
+        <is>
+          <t>NÃO</t>
+        </is>
+      </c>
+      <c r="E136" s="5" t="inlineStr">
+        <is>
+          <t>Domingos e feriados</t>
+        </is>
+      </c>
+      <c r="F136" s="22" t="inlineStr">
+        <is>
+          <t>Mercado</t>
+        </is>
+      </c>
       <c r="G136" s="22" t="n"/>
       <c r="H136" s="5">
         <f>IFERROR(VLOOKUP(I136,regs!H:I,2,0),"")</f>
@@ -70151,13 +70880,35 @@
       </c>
     </row>
     <row r="137">
-      <c r="A137" s="16" t="n"/>
-      <c r="B137" s="2" t="n"/>
-      <c r="C137" s="16" t="n"/>
-      <c r="D137" s="5" t="n"/>
-      <c r="E137" s="5" t="n"/>
-      <c r="F137" s="5" t="n"/>
-      <c r="G137" s="22" t="n"/>
+      <c r="A137" s="16" t="inlineStr">
+        <is>
+          <t>CASSIO EDUARDO DE OLIVEIRA LTDA</t>
+        </is>
+      </c>
+      <c r="B137" s="2" t="n">
+        <v>51825991000182</v>
+      </c>
+      <c r="C137" s="16" t="inlineStr">
+        <is>
+          <t>MR068554/2023</t>
+        </is>
+      </c>
+      <c r="D137" s="5" t="inlineStr">
+        <is>
+          <t>NÃO</t>
+        </is>
+      </c>
+      <c r="E137" s="5" t="inlineStr">
+        <is>
+          <t>Domingos e feriados</t>
+        </is>
+      </c>
+      <c r="F137" s="22" t="inlineStr">
+        <is>
+          <t>Lojista</t>
+        </is>
+      </c>
+      <c r="G137" s="22" t="inlineStr"/>
       <c r="H137" s="5">
         <f>IFERROR(VLOOKUP(I137,regs!H:I,2,0),"")</f>
         <v/>
@@ -70172,13 +70923,35 @@
       </c>
     </row>
     <row r="138">
-      <c r="A138" s="16" t="n"/>
-      <c r="B138" s="2" t="n"/>
-      <c r="C138" s="16" t="n"/>
-      <c r="D138" s="5" t="n"/>
-      <c r="E138" s="5" t="n"/>
-      <c r="F138" s="5" t="n"/>
-      <c r="G138" s="22" t="n"/>
+      <c r="A138" s="16" t="inlineStr">
+        <is>
+          <t>FELIX &amp; AYDOS LTDA</t>
+        </is>
+      </c>
+      <c r="B138" s="2" t="n">
+        <v>8537223000102</v>
+      </c>
+      <c r="C138" s="16" t="inlineStr">
+        <is>
+          <t>MR068564/2023</t>
+        </is>
+      </c>
+      <c r="D138" s="5" t="inlineStr">
+        <is>
+          <t>NÃO</t>
+        </is>
+      </c>
+      <c r="E138" s="5" t="inlineStr">
+        <is>
+          <t>Domingos e feriados</t>
+        </is>
+      </c>
+      <c r="F138" s="5" t="inlineStr">
+        <is>
+          <t>Lojista</t>
+        </is>
+      </c>
+      <c r="G138" s="22" t="inlineStr"/>
       <c r="H138" s="5">
         <f>IFERROR(VLOOKUP(I138,regs!H:I,2,0),"")</f>
         <v/>
@@ -70193,12 +70966,34 @@
       </c>
     </row>
     <row r="139">
-      <c r="A139" s="16" t="n"/>
-      <c r="B139" s="2" t="n"/>
-      <c r="C139" s="16" t="n"/>
-      <c r="D139" s="5" t="n"/>
-      <c r="E139" s="5" t="n"/>
-      <c r="F139" s="5" t="n"/>
+      <c r="A139" s="16" t="inlineStr">
+        <is>
+          <t>MAGAZINE SANTA CATARINA LTDA EM RECUPERACAO JUDICIAL</t>
+        </is>
+      </c>
+      <c r="B139" s="2" t="n">
+        <v>7027977000141</v>
+      </c>
+      <c r="C139" s="16" t="inlineStr">
+        <is>
+          <t>MR068638/2023</t>
+        </is>
+      </c>
+      <c r="D139" s="5" t="inlineStr">
+        <is>
+          <t>NÃO</t>
+        </is>
+      </c>
+      <c r="E139" s="5" t="inlineStr">
+        <is>
+          <t>Outros</t>
+        </is>
+      </c>
+      <c r="F139" s="5" t="inlineStr">
+        <is>
+          <t>Lojista</t>
+        </is>
+      </c>
       <c r="G139" s="22" t="n"/>
       <c r="H139" s="5">
         <f>IFERROR(VLOOKUP(I139,regs!H:I,2,0),"")</f>
@@ -71146,7 +71941,7 @@
   </sheetPr>
   <dimension ref="A1:L108"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
@@ -71215,7 +72010,7 @@
         </is>
       </c>
       <c r="C3" s="5" t="n">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="G3" s="4" t="inlineStr">
         <is>
@@ -71233,7 +72028,7 @@
         </is>
       </c>
       <c r="C4" s="5" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G4" s="4" t="inlineStr">
         <is>
@@ -71306,7 +72101,7 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G8" s="4" t="inlineStr">
         <is>
@@ -71324,7 +72119,7 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>356</v>
+        <v>374</v>
       </c>
       <c r="G9" s="4" t="inlineStr">
         <is>
